--- a/Game simulations/Week 16/Football Team at Cowboys.xlsx
+++ b/Game simulations/Week 16/Football Team at Cowboys.xlsx
@@ -57,16 +57,16 @@
     <t>CowboysAvg. FPTS</t>
   </si>
   <si>
-    <t>NIG(10.952531246234454, -0.9429435333958827, -0.36487722080901336, 38.95778622696204)</t>
-  </si>
-  <si>
-    <t>-18 -8 -16 2 -14 -10 -8 -5 -4 -8 -7 -20 7 -10 15 -3 1 3 6 13 10 -18 6 -3 3 -21 -5 -7 -21 3 7 1 -21 -6 -8 3 7 7 3 5 6 3 -14 6 7 -3 -20 -6 -13 -3 -17 -17 -23 -3 4 -11 11 -11 -16 3 18 -8 7 -24 19 3 -3 -2 10 -21 3 -16 14 3 1 -24 -6 -7 6 -10 -7 -20 27 -25 -22 -12 -4 -2 -30 3 -2 1 -5 5 4 12 -15 -26 13 -2 -27 17 -28 -10 5 5 -1 -17 -28 -3 -3 -5 -20 -7 3 3 3 -34 -14 -14 9 -4 11 0 -11 6 -4 8 -18 -3 -4 10 11 6 -7 -13 -32 -14 18 7 -6 -7 -25 -22 6 6 -6 -23 6 -3 -7 -14 -21 2 -14 -24 -6 -7 3 -6 10 -7 -14 -2 7 -28 -4 -21 -6 -1 -7 18 11 28 -20 -25 -2 1 8 -20 -3 15 7 -10 3 -11 -25 -17 3 -14 -5 -7 7 6 6 3 -8 -17 -1 -3 -4 -6 -7 -19 -44 26 -10 -2 3 -2 -6 -7 8 10 -3 -3 2 3 6 10 14 3 -8 27 7 5 -4 -4 6 -3 -4 -9 -10 -4 1 21 0 -14 -4 -6 6 -11 -38 -20 -4 3 10 6 4 24 -9 13 15 -32 -6 13 -11 8 1 -12 -7 -5 3 10 13 -4 3 -28 -5 7 8 3 -16 -7 -19 -3 10 -14 6 3 -24 3 -7 10 7 4 -7 -10 5 -6 6 0 15 -20 -6 -3 3 20 1 -8 3 -3 20 13 -22 -7 6 -15 17 8 -10 -4 -20 -3 -23 -5 -10 -14 6 -3 0 3 9 -3 3 -13 -11 -3 -8 -3 -13 3 2 -14 -9 3 12 6 -20 -4 12 -21 17 3 -39 -17 3 -4 6 3 -6 -3 -3 7 -3 10 -4 -1 -22 10 -14 19 -7 4 13 -5 8 8 -3 -8 1 -27 -4 -7 -15 -7 -9 6 -10 7 10 -6 9 -6 -13 11 -1 10 3 -4 21 -3 9 -8 19 -18 10 -11 -4 -3 -14 6 -21 12 16 -7 -14 -3 -14 1 6 11 11 -6 3 -6 6 4 3 -7 8 7 -22 -9 3 3 -8 -10 -10 -7 3 -15 -1 -25 -5 -18 -20 -7 -1 -11 -22 6 -3 -3 -6 -4 -3 -24 19 -4 -14 -21 -11 4 -22 4 -10 -2 -17 -4 3 -33 -6 -12 -3 -1 -3 -11 4 -21 -21 -1 6 9 1 3 -6 -24 -12 -14 -14 -3 -10 -14 -27 -4 -18 -5 -8 -11 11 3 -3 -14 3 -14 1 -24 -27 10 15 -7 -10 -15 1 2 -18 -6 -10 -9 -4 15 -6 -21 -31 -35 21 -14 9 -6 20 -21 3 4 -8 -3 5 17 1 -29 -10 -12 3 -19 7 2 -4 -6 -14 5 -16 -6 3 -3 -14 -12 -28 -22 -3 -3 -3 16 9 4 -8 7 -3 37 11 14 15 3 -19 -14 8 -3 21 3 -3 7 -6 -31 -14 -3 -7 -4 -21 -3 -3 -21 -17 -12 -24 -6 -20 -21 6 13 12 9 -7 -2 -14 -7 -1 -21 3 -7 26 -16 -20 7 5 -2 17 7 0 -14 -8 -19 -7 5 -36 -1 -10 -12 8 -3 -3 0 10 10 -22 5 2 -10 6 -2 -14 -21 -7 15 -17 -4 -3 6 -9 -3 -9 9 27 -12 -5 -3 7 -16 -14 -22 -5 14 13 -28 -15 -3 -12 -6 -3 4 33 -18 -14 17 -4 20 -8 -28 -1 -3 -24 11 9 -3 3 19 10 -17 4 -4 3 -20 -22 3 3 -6 -6 2 9 -6 -7 3 -21 -28 -14 -7 -8 5 3 6 -21 -4 2 -1 -10 -17 12 -8 -3 -1 10 1 -22 10 -10 -12 -7 -12 -9 -11 6 -10 -10 -27 -6 -4 19 -4 -6 -10 14 25 -5 -5 4 -13 -16 -20 15 7 4 17 7 -6 4 -6 -4 -5 -3 0 -4 -16 -11 -7 8 3 8 3 -14 -3 3 -20 -14 -20 -7 7 -19 10 -5 -7 -26 -7 18 10 -15 10 -7 -7 -14 5 1 -18 -20 -24 -5 -15 10 -10 3 -5 -5 -3 -17 -3 -23 -7 11 1 -14 -3 17 -15 -21 -18 -7 17 3 -4 -11 7 6 -13 -6 -2 -3 -3 -12 10 -28 -9 -7 25 -5 -5 -19 13 -6 -17 -26 -7 -24 9 -4 -2 -4 -9 -14 -7 -5 -15 -20 -17 -12 -7 14 -14 -1 -14 -7 -17 16 -29 -3 -3 -2 -1 1 3 -15 3 -7 -13 -13 2 -1 -7 -21 2 -15 -27 -11 3 4 -3 -31 17 -27 -6 -21 6 2 3 -11 -9 -6 -11 -12 3 5 4 -28 -7 -3 -14 -15 4 -16 -11 24 -5 7 -8 5 13 3 -9 -9 -19 -3 5 13 -5 5 5 6 -8 -3 5 1 -8 -6 4 -14 3 3 -5 4 -7 6 -4 14 -16 23 -4 -5 -24 1 15 -11 -6 6 -3 -3 10 -3 -22 -3 1 -3 -24 4 -6 -2 12 -7 -2 7 5 6 3 -7 -3 -16 -20 -3 15 2 5 8 11 -9 -8 -3 3 -1 -3 -11 -31 6 4 -25 -27 2 10 15 3 1 -12 3 -10 -5 -10 -3 -21 14 -3 -3 3 1 -8 6 -10 -9 -5 -11 -3 -21 -8 -11 -11 -5 2 -4 -21 -14 -6 5 10 12 -8 -13 -1 -3 -4 14 3 -9 -14 3 -12 6 3 2 6 -3 -5 -4 -14 5 12 3 -10 -3 -14 11 17 -15 2 18 -33 -6 -6 -3 -4 -20 -7 -3 8 6 -8 -3 -3 -35 -24 -7 3 4 -14 -10 -4 -25 3 -17 -22 13 -11 4 -4 -11 -20 -8 6 3 9 19 -33 1 -6 11 -37 -1 -29 7 -24 -4 3 3 -17 7 7 -5 17 7 6 6 -7 16 17 -5 -18 5 -6 -5 -24 -25 6 -9 -16 -17 7 -7 -8 -8 -14 -13 -31 -25 -9 -29 -6 -14 -3 -9 -13 3 17 -4 19 -11 -11 3 -3 6 6 -9 -22 5 3 16 -14 -9 0 -2 -3 -24 7 -18 -3 -7 -24 6 4 13 -14 -3 -8 -30 -6 -14 -22 6 -14 -15 4 4 -20 -7 -5 -4 7 -8 1 -3 -19 7 -7 3 -25 -13 -23 11 -10 -12 7 3 -7 6 2 -27 -11 2 -18 7 -9 -14 -3 23 3 12 2 -10 -4 -16 7 0 2 20 22 -18 -7 15 -16 -9 2 -3 -7 1 -9 5 1 -14 4 3 14 12 15 -7 -26 -11 7 -12 9 -17 9 6 -1 -21 -18 3 2 -7 -33 5 -27 5 6 -1 8 -4 -21 20 -7 -3 -3 -9 12 -4 -13 -17 -14 8 -11 4 16 4 -11 -10 7 20 -25 -6 14 6 6 -17 10 -18 -6 -3 -17 2 -17 3 3 -4 15 25 6 -2 -25 3 15 17 -9 -8 7 4 -3 4 6 11 -14 -22 21 1 -3 39 -5 10 -7 -19 3 5 -14 -16 7 13 -4 -1 7 18 13 -13 2 -7 31 -7 9 -10 2 -21 -7 7 -17 4 -16 -20 -14 -7 -10 -3 -4 14 -7 9 3 -3 -4 -7 -5 -9 10 11 -4 -4 6 -14 2 38 10 -21 18 3 -14 2 6 -1 3 1 30 3 -17 -2 13 3 -7 -7 -7 -23 13 -14 9 11 -27 -14 3 -21 -4 -29 8 -5 -2 -7 -3 -3 3 -18 10 3 5 -3 -7 -14 -4 -7 -3 -24 -4 -7 -7 11 3 -7 3 -8 5 -8 10 -8 3 -5 -16 -4 1 -7 -14 1 -3 -3 -13 2 30 5 5 19 -12 -19 -2 3 15 -24 5 -17 3 -6 -4 12 3 -10 -5 -13 -11 -14 -4 3 -14 6 5 20 -1 -4 -2 -7 -9 3 21 -2 -15 10 17 -6 32 -10 -21 14 7 7 -29 -10 3 -25 7 2 2 -1 19 8 -4 -5 -2 -10 -11 3 7 6 -11 21 -4 -9 3 -20 7 -10 3 -18 -36 -10 -8 21 10 -3 3 9 -18 -31 -8 -26 -20 10 3 -23 17 -10 -22 2 -5 -9 -34 6 21 -7 -17 -12 -5 -6 -38 -4 -3 -10 13 3 -10 7 -4 -11 -3 -8 7 13 -35 -13 -3 -18 -9 -14 17 11 10 0 -12 14 -4 -8 -24 -13 3 -31 -6 -3 1 -11 -2 -14 11 -4 2 -4 -6 9 -7 -12 -12 -7 9 -23 -3 -15 7 5 -6 7 -5 -10 -23 3 -32 6 10 11 15 -13 20 -13 -39 -6 9 -24 -3 -3 -3 -15 14 7 6 -3 -13 -10 -18 3 13 -14 -10 21 -18 -12 15 -11 -2 1 -3 -2 -6 -6 -14 -3 2 -4 14 -32 -17 -37 -5 3 -14 -7 17 -3 -14 10 -6 14 -22 -5 13 -9 6 3 18 -4 20 -14 15 -8 18 -9 0 -15 -3 -12 -13 -16 5 2 -2 6 3 -18 10 7 -3 -4 4 -21 -11 -5 -3 -1 -14 -15 -7 -18 2 -15 6 4 -11 -16 -11 7 -20 -3 -21 -39 -7 -13 15 3 -14 5 -3 -4 -4 -2 -27 12 -6 7 10 -15 1 7 3 -17 -13 4 10 -7 -3 -15 -14 3 -3 25 -11 -1 17 -27 -9 -24 -4 -12 -7 7 -14 -28 2 -18 -2 5 11 -3 -17 4 -3 -5 1 2 -7 24 -24 16 -6 3 -19 -9 -1 -26 15 6 -24 14 3 7 0 -6 2 -3 6 -20 -6 -3 3 -10 9 -3 -29 -3 8 3 -10 -10 -2 -11 -9 4 2 -6 -31 -6 6 -9 -2 18 -21 -29 -6 -8 -7 13 -13 -6 3 -8 -9 14 -13 -4 7 -28 -11 7 -3 -3 -11 -4 -18 4 0 2 -14 11 -5 -4 -23 -6 7 17 18 -7 3 -3 11 -18 -27 -19 13 1 7 -6 -19 -6 -6 -5 -4 -6 -4 6 -13 -5 -28 0 -13 -20 -3 -4 4 17 -34 -2 -3 -6 -5 -3 9 -8 7 3 -5 -8 -25 2 -15 -3 -5 8 -14 -9 -13 -15 -7 -26 13 -6 -18 -4 -10 -14 -14 14 6 -4 -1 -9 -11 7 -1 -9 -34 10 -13 -11 10 5 -4 -1 -14 -8 -14 -3 -8 -15 -6 -9 9 -18 -8 -18 -2 -7 3 -6 5 -5 -8 -4 -3 -3 -1 -10 -7 -4 -11 8 -24 -23 16 1 -11 13 -17 -7 10 6 9 12 23 7 4 -21 -23 24 -16 -10 -11 6 -4 -6 -9 -7 -17 -1 -4 3 -18 -20 -7 -3 -11 -19 5 -3 1 -3 -3 -1 6 1 -5 14 4 -17 -8 -3 14 6 -3 3 0 -3 -13 -14 -28 -10 -6 -2 -19 -42 -13 6 -3 -3 -1 -13 3 -7 19 -27 7 -6 -15 16 -14 -7 -18 -7 8 3 -23 17 -10 -11 2 3 -7 -13 -10 -25 -4 -6 6 8 -14 -15 3 -14 -4 -24 3 4 3 -3 -3 -8 6 -19 -8 4 3 -20 -3 -7 6 15 -14 -5 -26 3 1 -1 -7 6 4 -27 -3 14 22 -30 6 -32 6 -2 -1 4 -21 17 2 -3 13 -7 -48 2 -1 10 -3 -21 -20 -1 -1 12 -7 -18 6 -22 24 -11 -7 -8 -3 6 -14 -25 -17 3 -3 -14 7 -5 -23 -2 21 -27 4 7 3 -10 -24 11 -24 -32 -11 6 -7 -5 2 1 -8 7 -5 -8 9 -3 3 -5 -6 -1 -4 7 -6 -6 -3 3 9 -13 16 6 -7 3 -3 -4 -11 -3 -10 -27 13 -14 14 -3 3 -4 -7 -3 6 -26 7 20 -4 3 -7 -5 -21 -8 -18 -20 -3 10 1 -1 11 3 3 -8 2 -7 -12 -6 -6 -13 -1 10 -20 -8 5 -10 -15 -3 6 -24 -4 -3 -22 -13 14 6 -12 3 -8 -4 3 -2 -3 -7 -31 8 10 -8 -4 -11 7 2 0 -11 -6 10 -3 -6 4 -8 -3 6 -19 -10 9 -10 -14 -6 -9 9 -14 -5 3 6 -15 -7 -14 5 -24 -11 11 -9 15 4 -4 -14 -2 -23 -14 14 -12 -15 5 11 -4 7 8 -14 -2 -8 8 -24 10 -13 -11 -3 -3 -3 -14 -8 4 -7 -2 29 -5 8 33 -24 -3 -12 13 -1 -14 -7 27 -14 7 -14 -16 7 -13 -26 -29 -16 -10 5 -7 -10 4 8 -2 5 -6 -18 8 -28 -4 16 -14 -3 -7 -11 -3 -9 6 1 -4 -5 11 -7 -6 19 -10 -11 -6 -16 -37 7 -27 7 -1 -13 -8 11 -7 -2 7 -11 -5 -1 3 -12 -5 -3 -23 -12 9 -7 -9 5 -19 15 -15 -4 22 -17 -11 -4 -3 7 14 -14 -7 -13 -3 -17 -11 5 -8 -32 13 10 -13 -8 6 5 5 -11 -10 -3 5 7 -26 -30 -2 -23 -4 -11 -9 10 -7 23 10 -3 -11 -12 -12 10 21 -6 0 7 -10 -24 -21 -20 -14 -16 2 -11 10 -8 -4 -10 -23 -18 13 -7 -8 17 -1 -11 -8 -5 -4 0 6 10 -4 12 -3 -7 -8 -6 -25 3 -11 -16 14 -14 -4 6 -9 -3 -3 8 -6 3 -14 10 -3 -3 -11 7 -3 -9 -6 -15 5 -11 28 15 -4 -1 -25 -1 -14 9 10 -1 -7 11 -14 -21 4 5 -1 9 -18 -6 -21 22 -19 13 -20 1 -11 -18 12 -17 -3 3 -6 -11 -7 -17 5 -17 7 18 5 -3 -9 24 -19 7 -24 -12 4 -1 -14 2 12 -4 3 -9 10 -7 12 -10 -11 -19 -27 -2 0 -11 21 -7 10 -31 -6 -15 -16 4 -1 24 9 3 -8 1 -7 11 10 -3 -12 -11 -11 -13 5 7 -16 5 -15 -8 3 -5 3 6 -3 6 -3 -21 -8 -11 10 -4 -10 -18 -18 -3 16 -6 11 -8 -9 -6 -18 -12 -35 -21 -28 9 17 3 10 -5 -5 -3 10 -8 7 7 -7 -14 3 -28 -1 -10 -18 -5 -25 0 -10 16 -4 -3 6 -21 18 -22 -8 10 6 -3 10 -6 6 -3 -32 -16 -28 -7 14 14 17 2 -10 -6 -21 6 -11 3 10 -10 6 -17 17 -10 -28 6 6 9 16 8 -3 4 7 -5 -7 -18 4 -6 -20 19 -1 -20 3 -2 -18 -11 11 -13 -7 -3 -1 5 7 -3 7 -21 3 7 3 -21 7 -19 3 -6 -3 -12 -10 2 3 13 -8 -17 8 -3 3 10 -2 -10 -18 -15 -3 -23 3 -17 -10 -7 -19 14 18 -16 6 -7 -4 -6 -3 -7 5 -4 3 -15 10 -10 -7 -28 3 -10 -4 -3 7 18 9 14 -4 15 25 -12 18 0 3 10 20 -19 12 -17 3 10 3 -8 5 -25 -14 -4 3 7 1 3 15 -14 2 4 5 -11 -6 6 6 -7 -4 -3 1 -14 -7 19 -11 -4 -6 4 -3 -3 -3 6 -8 1 16 -5 -3 28 6 -13 -3 3 -10 8 -4 -10 13 6 -3 -13 -18 17 0 7 8 1 3 -3 6 -21 3 -17 3 2 -10 -2 -3 4 -21 -6 4 -8 -6 -21 -8 3 8 -3 4 -3 -20 6 -6 -11 6 -18 -7 -3 10 -6 -22 6 3 15 -32 8 -10 3 -17 -10 20 -4 3 -12 13 -3 5 -14 -10 22 3 -8 -14 0 -3 -3 -3 6 -6 3 -17 -21 9 -10 -16 -25 -18 -3 -3 9 -30 1 -31 -4 -11 -8 3 -4 -11 4 -18 -16 11 10 6 7 -34 -4 6 -10 -4 4 -10 -13 -3 -17 7 14 17 10 8 -11 -5 1 -16 -17 -24 -4 4 8 7 -8 14 17 22 -7 -4 -18 -16 -1 -7 -4 -26 3 0 15 -11 2 -4 -14 -9 -1 -10 8 -29 7 -4 17 12 -17 10 -19 -3 7 -4 2 -9 -28 14 5 -15 6 1 -17 4 -4 2 -11 -6 7 -11 8 -5 -18 -4 -7 15 0 -10 -3 -5 -8 -4 -12 4 -14 -1 4 6 12 13 -19 -6 8 -9 3 -23 -6 -4 12 -3 -10 7 -6 14 3 -7 -5 -18 -25 -26 -5 -33 -26 4 -17 -7 -18 -7 1 -18 -6 -17 -11 -7 -4 -17 10 -5 -10 -15 -7 -30 -6 6 -3 -6 3 11 -14 8 -24 -25 4 -9 -1 -8 -19 -10 -3 -3 -3 -14 0 3 -21 10 3 -6 15 4 5 -7 -21 -13 -6 -4 3 8 12 -10 8 -6 -15 10 17 13 -32 17 -17 -1 -12 -12 -6 6 -1 -3 -19 2 -14 6 2 6 3 -13 -3 -10 6 -31 -19 10 -4 11 3 -14 17 -15 2 -17 1 6 3 -5 3 -6 7 5 7 -8 -10 -3 -8 -21 4 24 20 -19 20 -3 12 -3 -7 -13 -4 2 24 6 -35 -6 2 -11 -17 -1 -28 -1 4 -12 -3 -14 6 13 -14 -3 -10 -3 12 17 -10 5 14 16 -3 -29 -39 -6 -8 -17 -35 -9 3 6 -1 -7 8 -4 19 10 6 -1 -5 -12 12 -9 11 -2 3 3 -7 -4 10 -6 -30 -10 4 -1 3 -9 -10 -11 -7 -11 -22 -1 -9 -6 6 -3 -3 -8 6 -2 -8 6 17 -10 5 -20 3 -7 -3 6 11 -15 -7 -5 14 3 2 3 27 -20 18 13 -4 -21 -11 2 1 27 21 13 -31 30 -19 -7 20 5 3 -39 6 -32 4 4 4 -34 -10 -25 -7 4 -11 -10 -7 15 3 -24 -1 -11 15 -6 -12 -19 -26 -15 -7 0 -1 -10 -13 -3 -6 -7 6 -21 -3 -11 -4 22 -20 -18 2 -1 -19 9 -3 4 6 10 -28 -3 -4 -5 -13 -19 -5 -1 -6 -13 -20 -8 13 -10 -20 -7 3 -2 6 -7 -3 -27 -17 -14 -19 14 12 -13 -21 20 0 18 10 -28 2 7 -9 -2 -3 -7 14 -6 -2 -7 -20 -3 2 -6 -1 -3 -1 -2 -32 6 3 -1 2 11 -3 -14 -24 15 -3 -9 11 -14 -24 1 10 -15 -4 -23 -17 12 17 7 5 -1 -23 15 -21 -9 -3 -15 -1 -13 7 -3 16 21 -19 -14 -27 -27 -9 7 -9 -28 10 -2 13 -3 11 -8 -9 10 -3 -14 -4 6 -5 -2 -3 -3 -16 -4 -1 2 -6 -13 31 -10 -6 -6 -5 -7 -1 -14 8 15 -8 -14 2 -25 6 -9 -2 3 2 -4 -3 6 3 -2 -9 -8 11 18 -6 -4 -8 -12 -10 21 7 2 -4 -8 10 14 -7 6 -4 -7 -12 -27 3 4 10 -3 -21 -10 7 -7 -23 -7 4 -15 -3 -1 -9 16 -32 3 -25 21 -9 21 -3 3 2 -12 6 -10 -14 7 1 3 -13 4 3 5 -3 -2 6 -2 1 3 6 -14 -6 -3 -8 3 -6 -5 -4 -6 -8 -10 21 -4 6 -7 -8 -23 6 1 3 10 -11 -7 -14 -10 3 -17 8 -10 12 -3 -3 14 8 -15 -7 -11 -14 -3 13 13 6 6 -2 -15 -9 -1 -3 -3 -7 -7 -7 -3 -10 -10 -3 -8 3 -4 -2 10 -7 3 -16 -4 -12 13 3 -27 -14 10 -11 -10 -22 5 -10 1 -19 13 -1 -11 0 -14 1 -15 15 -15 -11 -27 -22 -12 -10 15 7 6 9 -25 -11 -5 -14 -14 -3 -2 23 7 -3 -13 5 -13 -7 -23 -8 -11 -14 -25 -7 -23 -1 -4 -14 6 -3 3 -10 17 -6 -6 -12 9 -3 -3 -3 4 -11 15 -6 3 -15 3 -21 -28 -3 7 -12 -28 -6 -9 -15 -36 2 4 6 -8 11 1 -6 -5 2 6 -13 -18 -3 -1 -10 -9 -17 -6 -16 9 3 4 3 6 -3 -7 -19 7 -12 3 -11 -3 6 -18 -22 -9 -11 -9 -10 -10 -7 -6 -45 -16 -4 -3 -5 7 -1 18 -3 -15 -3 -17 -4 -3 -11 4 -14 30 4 -6 5 0 7 23 7 -7 5 -11 19 8 6 -1 12 -14 4 -9 -7 -14 -18 -3 7 -7 -11 3 -28 7 -11 -14 1 -3 -17 -7 6 -23 -14 -17 -8 12 -7 -1 -17 -20 -13 4 -16 9 -9 14 -11 3 3 -21 5 1 -6 3 4 -7 -13 -3 7 1 19 -6 -3 2 -7 -10 22 -4 -18 16 -16 17 -5 -7 -4 8 -9 10 -7 -25 -24 3 8 2 -28 -7 -6 -4 3 -16 -3 7 6 -2 -8 -3 9 -2 -11 -17 -4 -6 -14 -6 -17 -12 -14 13 -20 22 -3 -31 -14 0 9 3 -38 8 -3 -14 14 -7 -3 3 5 5 3 -18 0 -1 7 -20 -28 -3 -11 -3 -22 -4 2 -8 -10 10 -3 3 5 3 -20 -14 -2 -16 -4 -31 -10 -3 -21 3 20 -31 3 4 5 8 -21 -1 15 -3 -7 17 3 8 4 4 -14 -3 3 -7 12 7 -11 -7 7 -15 3 -14 10 -14 -6 3 -1 7 -4 6 -11 4 3 10 7 -3 3 5 -25 -8 -14 8 -11 -14 12 -4 13 -4 -7 3 3 -9 -32 -20 -3 -5 3 9 -7 -11 -23 -9 -17 -14 -14 5 7 3 10 10 -24 3 -24 -10 -28 -4 -36 -10 21 -21 -3 -14 -14 -1 -23 3 -13 -11 -9 -14 -8 3 -7 -18 -3 -4 -11 -11 -6 4 19 -18 -17 15 3 -14 -3 3 10 -16 -4 -8 3 -10 -52 1 3 -3 7 3 14 -8 -11 -29 3 -10 -4 -6 14 6 -7 4 7 14 -14 -5 0 3 7 -17 -10 -2 -7 7 -6 -10 -11 1 -18 -11 -3 18 1 -10 -14 18 -1 12 -27 -5 -6 1 3 -15 -4 -39 3 -23 6 -25 13 -10 -4 -20 12 -9 -10 -12 -1 2 -2 -9 -6 14 -5 3 -19 -1 3 -17 -6 -14 -11 -11 -5 -15 1 21 -7 -5 -3 8 -2 3 6 -15 -10 13 2 -3 2 -7 -14 2 -3 -15 1 8 -10 -7 -21 5 -7 -31 -8 -12 -30 -4 -13 9 15 7 -7 -30 -6 8 3 8 -4 21 -5 -17 -7 6 1 -14 -7 -14 -14 -32 4 -10 -5 20 31 -7 -15 -10 -1 -21 9 -5 -9 12 5 6 -18 11 2 -7 -17 -14 -7 -15 7 -22 2 27 -17 -8 -17 3 27 -8 -14 0 14 -3 -20 0 -12 4 12 -5 -5 18 -10 -3 -31 -29 11 3 -22 10 -23 -3 -5 4 4 7 -9 -5 13 -19 -3 -11 -25 5 -3 3 4 -3 -3 3 -7 41 14 -14 -17 -13 -13 6 -7 12 -9 -13 11 -6 -3 16 -17 -7 4 -7 3 -17 -14 -23 4 -24 -12 4 -4 8 10 3 -4 -12 -17 -15 -15 -17 -7 2 -9 -4 -7 7 -2 -1 7 8 11 -11 3 0 28 6 3 6 11 -14 -6 7 -8 -8 -20 10 20 -11 3 -3 11 -17 -14 -4 -9 -14 -4 -22 -6 -14 -9 -5 -1 14 6 11 20 3 6 12 -11 8 23 -4 17 6 -15 -5 -8 -6 7 -14 1 -17 -3 -11 14 -15 -3 6 3 -5 10 -7 -12 1 -15 3 -14 -8 -3 -21 -3 -31 -15 -13 7 -7 -7 -6 7 -21 12 -2 -14 -33 -3 -18 -13 4 6 -14 -11 -18 10 -13 -11 -17 -15 -24 -23 -3 7 -20 -35 -15 -3 -21 -13 -3 -10 -16 7 -12 14 -3 12 -4 -5 14 7 -10 -5 -6 -19 2 -14 -4 -4 14 -14 8 -1 -28 -20 7 -15 -10 -16 -13 2 -11 3 -4 3 4 7 -11 -17 -7 -9 10 -28 -6 -1 -6 -28 -12 2 10 -7 9 7 4 16 3 -10 -17 -17 -7 -24 -9 7 -7 -7 -6 -5 -6 1 -4 -29 22 -3 -3 0 -22 -16 -4 6 -21 -17 -21 6 -1 14 7 -5 -3 4 -3 -15 13 4 -4 -5 7 -7 6 -25 -6 6 -17 13 -28 -4 3 -3 -13 -7 -5 -15 9 14 22 -9 9 -19 -29 -6 -6 -18 -6 17 -25 -5 -10 -8 -14 1 6 -18 -15 6 -9 -17 1 -10 -6 -6 -14 3 -6 -15 14 31 -3 3 -3 -3 4 -28 -1 -25 3 -3 7 -13 -3 10 -21 30 -7 6 4 7 7 -22 -13 2 7 13 -8 1 -9 -6 7 1 -21 -20 -15 7 4 -3 -17 7 -21 -5 3 -14 17 13 4 -17 -3 -18 -14 -14 -7 -28 6 6 -17 -11 2 -6 -9 -28 7 -3 -26 -3 -14 -1 7 3 5 24 -4 -8 -1 -4 6 -3 -1 3 -1 -4 -6 -18 -8 -15 -12 -14 7 7 -7 -10 3 6 15 -3 8 -3 4 -4 -17 -3 -28 -17 3 -6 11 -11 -6 2 13 -17 3 -9 -3 -3 -21 -3 7 3 -19 -8 -10 -28 -3 3 -4 -30 8 -13 -6 -13 -7 -8 -6 -5 -17 -7 -7 -11 3 -2 -10 -5 -3 6 -18 -5 -15 -2 -13 -11 -17 6 4 -13 19 -2 -41 10 -7 -7 13 -17 10 -17 16 10 -12 -7 -10 8 11 -9 -16 12 -2 3 -5 3 -11 -6 3 -6 7 -3 -13 -3 25 -10 -11 4 4 -30 -6 -5 -21 10 -5 -13 -7 6 13 -20 -7 -4 9 7 -12 -29 -7 -26 -5 -10 -18 3 -17 7 -4 10 -14 -1 6 -5 -7 -5 9 -17 -6 10 -6 -8 -1 2 -2 3 -14 -4 -7 7 -9 -17 -8 -4 18 -4 10 6 -20 7 8 -10 0 7 -19 3 14 -16 -3 2 -14 -32 3 -4 -5 -13 -3 5 -20 24 3 -9 -7 8 -1 3 -5 -6 -3 7 -14 -3 -14 1 3 -18 -7 4 6 -15 -27 -6 -8 30 -20 -7 -9 8 6 -18 -11 3 -11 -4 13 -10 15 20 -17 -12 -18 -15 -18 -4 9 2 -7 -11 -12 9 -21 3 10 20 -7 6 9 2 -12 -3 -9 14 10 -15 -13 -7 4 -21 2 -19 -3 -1 7 -7 -4 -4 13 -3 2 6 -14 -14 -10 -8 -10 7 -2 -3 -4 5 2 -4 -2 -3 3 4 -22 15 7 7 17 -3 6 -9 -7 -33 11 10 8 -4 8 -17 -3 -3 -9 -15 9 -24 -3 -11 27 -9 -10 4 -6 -14 -7 17 -17 0 8 -5 10 -13 -20 14 16 4 -11 5 -4 8 -5 -7 -10 10 -7 -5 -12 -16 -8 21 -48 7 -14 -3 -1 -14 0 -2 -21 -2 -3 18 -15 -6 13 -14 -10 -11 6 -3 3 3 -7 19 -10 6 -12 -10 -14 -3 5 -7 -3 -3 -16 -15 -24 4 3 -20 -3 -13 2 -5 -13 -10 -3 1 -17 7 2 14 -15 -7 -27 -14 -7 7 -11 -10 17 5 3 3 -6 0 -2 18 4 1 -14 -14 14 -17 5 -5 12 6 15 5 -10 -5 -6 -3 3 -3 3 -11 10 -7 9 -1 -12 -3 11 -4 -3 -17 -10 2 8 -1 13 11 -3 -17 -8 2 -4 5 30 -9 -11 -3 -13 -5 29 6 -4 -11 18 -7 -11 9 18 -4 -11 -6 -27 7 -6 3 -2 -14 -1 -3 -3 2 -3 3 -8 7 -13 6 -2 -16 -25 -6 3 -14 7 -9 -21 -3 -1 1 -15 -9 -20 7 -21 -18 -7 -31 3 14 -1 2 6 -5 -13 10 3 3 6 3 -6 3 -15 -14 14 5 -3 14 -6 -8 -4 6 -14 -7 -10 -2 21 -2 -19 8 7 -13 -6 5 -4 11 -18 -3 -5 4 -15 6 7 -14 -3 -10 -4 7 -2 -14 19 3 -2 7 11 -12 12 -8 11 -17 3 -14 -21 13 17 -10 -7 14 -6 -3 -3 8 1 7 6 -2 3 -13 -4 -15 4 -8 -8 -17 -7 1 -6 -7 -4 14 -1 -13 -8 5 -7 3 6 5 10 3 -10 -10 3 6 -15 -3 -16 -5 -7 -21 -2 4 1 10 -14 -6 3 2 -3 -10 3 11 6 -8 -11 -25 -8 -3 -10 -9 -8 -17 -6 -13 12 -1 6 10 2 6 7 5 -32 -24 3 7 -31 -3 -6 -10 -5 -26 12 4 -24 10 23 4 -15 -3 -11 14 -8 -21 6 -3 -9 -8 -7 2 7 -5 2 -9 7 4 -1 13 -3 -3 -13 3 6 -16 -3 2 -10 -12 11 16 3 -25 -3 -1 7 -3 -21 -3 8 3 3 -22 -30 29 -1 4 -1 -7 4 -4 -2 -10 3 -4 -35 -20 -12 -7 -4 -5 10 15 4 -7 2 -6 -7 -17 -10 6 9 0 -18 -4 -11 3 2 17 -14 2 14 4 -12 -3 -10 -39 1 13 11 17 -8 -9 -20 14 -5 -14 3 -16 3 14 -14 -23 -10 -17 -1 -28 -9 13 17 15 -25 13 -15 3 -28 2 -14 23 -13 -7 -6 7 -20 -21 -24 1 30 3 3 -5 -8 10 -15 2 -3 12 7 2 19 -13 5 -16 -4 -3 6 17 13 -6 -12 3 -7 8 -7 -3 -3 13 -16 -8 -20 -5 -6 13 -6 7 -9 7 -5 3 -18 -6 4 -39 2 3 6 -19 3 -4 -8 7 -3 16 3 -17 -13 -8 -30 -5 -21 -14 3 -28 -7 6 13 18 13 3 -17 -6 6 -11 4 -5 -3 -20 -24 -25 -8 -3 -2 -3 10 -17 -20 4 13 -13 0 8 6 -6 6 -25 3 7 -6 -5 11 -4 10 -14 -27 31 17 -1 18 -1 -14 1 -17 -8 -6 14 1 8 17 -12 20 -25 4 -11 -15 -7 2 -14 3 -13 10 -1 10 8 2 9 -9 -3 -7 -21 3 0 -10 -20 -4 14 -15 4 -8 -8 3 -11 -10 -9 -3 -2 25 -4 4 -8 -4 13 17 3 -22 16 0 -24 -3 -10 -7 -19 2 -14 6 -32 -6 -4 13 -14 8 5 6 -10 -4 -7 -21 -10 -3 7 14 1 -22 -25 12 -10 -24 18 -28 -19 -15 -11 3 -8 -3 6 -5 -26 13 -3 3 2 14 -3 -24 -7 3 -5 -7 -8 -11 -18 -1 -2 -6 9 8 -11 8 -3 -7 -3 -16 -17 -10 -19 10 -15 21 -2 14 -4 10 -17 -14 0 10 14 1 11 -6 -5 -4 5 11 3 -3 -4 0 -10 10 7 -19 -3 -3 10 4 -14 6 -15 -7 -19 -14 -29 -16 -2 -4 3 -6 -10 -19 24 -24 -10 -3 -4 -31 2 2 -5 4 -8 17 -2 4 17 -7 13 20 -4 2 -9 -2 -21 -4 15 -19 -14 10 -5 5 -7 -15 -21 -11 8 -3 -17 -3 -4 -15 -15 14 4 -31 10 -4 -11 -25 9 -4 -16 -4 -17 7 -6 6 10 3 -23 7 1 -3 -3 24 -14 -13 3 -21 -17 7 -13 -4 -31 -8 -25 -4 -18 -11 -1 -10 -8 -2 -7 7 14 20 -26 -31 7 3 1 4 -12 6 -13 23 -3 16 -13 -3 0 -22 -7 4 -15 -18 2 -7 -6 8 -9 -3 -32 -3 -19 -41 -7 -4 1 -15 -10 3 -10 -11 -2 -3 -14 -3 6 -2 3 -14 3 -13 13 -4 -12 -17 -6 -7 -18 -5 7 7 -38 -14 -13 5 6 -10 3 -3 -3 -4 -1 -10 7 -17 11 -11 -21 -20 -7 3 6 7 21 5 28 4 -2 11 -17 -10 6 -7 3 -15 -7 -3 -24 6 -17 -6 7 -14 -14 -6 -6 12 2 -18 1 -15 2 -4 10 -7 -15 -21 3 -11 -20 7 -7 -2 -20 -13 -7 11 14 -7 -9 6 7 -28 13 -6 -9 8 -17 3 -13 3 12 -4 -5 11 -4 10 -4 -16 4 16 -17 -3 -15 -14 18 6 -3 7 -8 12 1 -14 -3 -7 28 -3 -7 5 10 -35 -8 -18 -1 -5 -5 -4 -9 22 11 -1 -17 4 16 -1 -9 5 -4 3 -7 11 5 3 15 7 -1 5 -8 -8 -7 11 -4 16 -5 20 11 11 -12 -2 -22 -10 -23 10 -6 -2 -3 -7 -20 -12 12 17 -9 -15 -32 13 -7 -10 -6 -7 -10 -14 4 -9 7 -15 3 -3 -3 -2 14 -12 -13 2 8 -8 -8 -4 3 17 -12 3 -6 -8 5 -2 -11 -21 -37 -30 3 15 -30 -13 -8 -10 10 2 -6 -4 25 -10 -4 -17 -10 14 -7 -12 6 -7 -9 -4 6 -5 -11 -3 8 10 8 -3 -4 -5 -14 3 14 20 -7 3 14 6 10 -3 -2 -23 12 7 -3 21 -6 -24 -14 -18 -14 -8 3 -1 12 3 3 23 10 -21 -17 3 16 5 -1 -18 45 -11 18 -3 1 -14 -13 3 -7 -7 10 -1 -17 1 -20 -8 -18 -10 -12 13 -8 3 -25 0 0 12 -3 24 7 -6 -1 -17 -14 12 -17 5 -6 3 -11 -2 -9 -3 0 -17 -11 -1 6 4 -4 -9 -14 -27 -13 -14 2 -10 -21 7 -17 1 -3 -29 2 -14 3 -1 -14 14 -6 -3 -4 4 -6 -7 -17 -7 -38 -7 -8 11 -7 -6 -15 4 3 -14 -1 -16 -14 -1 -23 -8 -11 -12 5 -7 -3 -27 -2 -7 -8 11 7 -6 -20 -5 -17 13 -13 10 -2 -30 8 -11 1 4 -11 -12 -24 1 10 10 4 -17 2 -13 17 -13 10 7 4 8 4 12 -6 -10 6 6 -4 -5 14 -7 -2 20 -18 -31 -27 -32 -21 -6 15 -3 21 -18 3 -2 -10 -10 12 -17 4 6 -11 -25 -6 -7 -9 -10 -5 3 -3 3 -10 3 -36 -6 -21 -2 -3 -2 8 -28 -7 -9 -7 -4 -11 4 -3 5 -15 23 -10 -5 -3 3 -23 -13 3 17 -10 4 10 2 3 9 7 -4 6 -14 -21 -31 -6 -16 9 3 3 -8 6 -15 -8 1 -20 -31 -3 -14 2 -8 -9 3 -25 -5 -4 -15 3 -3 -5 -10 -7 -8 -14 7 2 -23 -38 -17 -7 -17 -23 14 19 3 7 4 6 -2 -2 12 -12 -3 -19 -3 1 -10 4 -3 3 -12 -3 3 4 3 -11 7 -14 -7 -2 15 -5 -4 -14 1 -29 -1 -8 -10 -6 20 -6 3 -5 -10 -7 -3 -8 -4 -3 -21 -18 -25 7 7 -15 20 8 -6 3 -8 -10 6 -14 -6 -3 -20 -14 -2 -19 -12 6 -7 16 13 -4 -10 -4 -17 -3 -1 5 5 -3 -13 -5 -15 -16 5 3 5 -8 -11 3 -17 -19 -6 -1 -13 9 -7 9 4 -13 22 -10 5 -23 10 -13 -5 -9 -5 8 -4 12 3 3 -13 -24 19 8 -4 -32 4 10 3 -23 12 -4 -16 -26 -1 -14 7 -8 3 -17 5 8 -1 -14 -1 -3 -7 -6 -22 -31 -19 1 -14 0 -2 17 3 -12 3 8 -12 -11 3 -7 -9 -10 -9 -8 -18 1 -1 19 -14 -12 4 -6 -14 -14 9 -17 -8 -3 -7 9 -3 -17 -4 -26 -21 -3 -3 9 -17 -10 14 -10 -10 10 -24 -4 -17 -8 3 -3 4 -6 7 -9 -15 -35 7 25 -18 -2 -18 14 -7 -7 -3 -6 -24 -18 -3 24 -8 -24 -24 -1 -4 14 6 -14 -8 7 2 -19 -5 -9 -4 -21 -3 15 -2 -10 -22 6 11 22 -14 -29 -21 -4 -26 -18 -3 33 17 -3 20 24 3 -3 -8 -24 -6 -7 6 -22 -6 -19 -41 -3 -1 -17 -20 12 -4 -5 -3 -11 7 -14 -10 -9 3 3 -3 -28 -38 -10 5 9 3 -6 -2 -4 5 -28 -6 10 -3 12 30 10 3 2 16 -12 20 8 -1 17 11 7 8 -5 9 7 9 -20 14 -1 3 -16 -11 -14 -12 -13 -10 12 -8 -1 3 3 -2 -18 -9 17 11 14 -11 4 18 -14 -5 -16 3 -7 11 -7 4 14 7 7 2 6 -11 -19 3 -7 -6 21 11 -5 3 -24 10 -5 -13 9 -14 3 7 3 6 -14 3 10 -13 -3 7 16 -12 3 2 -22 5 -3 6 4 -7 -3 -13 20 -15 4 -2 4 -7 -31 -7 -10 37 -29 -3 -4 -3 -1 -9 -13 -11 4 0 -6 -6 3 -21 -21 -2 8 -3 -10 -3 -10 -10 -4 -3 -19 -1 -3 3 -7 -21 13 -17 -7 -11 -14 -1 -14 -7 -14 -8 11 -1 -14 1 -13 11 -10 -4 11 -4 3 8 8 -2 -16 -1 -20 -12 2 7 -7 -1 3 -24 -7 -13 -24 3 -1 9 3 -8 -18 7 -17 -14 -27 -10 10 7 -6 3 -13 -3 3 -19 6 -16 -8 3 -13 32 2 3 -26 4 10 2 13 -6 -1 8 1 3 -27 -21 -3 11 2 -3 -10 13 -5 1 2 -17 7 -24 -2 -1 17 7 -5 8 -4 7 -6 3 -11 3 -4 -5 -19 -16 9 -2 8 -10 -15 -17 -3 -7 -7 6 8 -1 -6 -14 3 -4 6 -3 0 -14 -6 11 17 6 -10 4 -3 -6 19 -27 -10 -13 -19 -6 -7 -1 11 -10 -3 -16 3 8 -1 -13 -8 12 6 8 7 1 -1 -1 3 -10 -7 -16 -14 -15 -3 13 -11 -19 -7 -14 -1 -11 -10 -3 -7 16 0 -9 4 37 3 4 7 10 -23 3 15 -1 -3 1 -10 -8 15 -12 3 -6 -7 3 1 6 4 3 10 23 10 10 -2 -13 -13 4 8 -17 3 -9 6 -21 -6 -14 -3 -3 -15 -3 -7 5 20 2 -21 10 -6 -4 8 3 -7 5 -22 17 14 -3 -16 9 -7 10 -7 -20 -3 -25 7 -6 23 -1 -10 7 -13 24 -10 -15 -14 16 -5 -10 -1 -18 -3 10 10 -4 41 -3 6 10 -17 8 4 -10 -11 -3 -21 13 17 -4 14 -3 17 4 -9 -28 -15 -9 7 -8 -28 7 -3 -6 -21 -30 8 12 -4 3 10 7 4 7 -7 -3 24 -14 -21 10 -28 4 -32 -11 11 -7 3 14 7 -1 -7 -2 -3 3 -9 21 -6 -4 -14 -25 -31 -20 -14 -14 -13 -3 -2 -7 4 22 -24 -28 -21 10 -3 12 -6 -3 -16 9 18 -24 -11 1 -32 -3 17 7 23 -3 -8 -9 7 -11 -24 -6 -10 4 5 -24 -11 -7 -11 -10 -3 3 -5 17 -3 21 -7 2 -3 -4 -3 -17 -34 -20 -28 0 3 2 -3 -12 -25 4 -7 -17 -6 -24 10 -7 -7 -8 -18 -15 21 -28 17 -11 -3 -3 -14 11 -4 -8 -15 9 3 16 7 -20 -7 3 4 -2 -8 -13 5 5 2 -16 16 -20 -3 -10 7 -3 3 6 -17 7 20 -4 -7 -3 -9 8 -4 6 -20 -3 -25 7 10 -17 2 -8 9 6 -10 -4 -1 -6 15 21 15 -10 3 -16 3 -25 6 6 8 -16 3 -21 -11 -16 -15 -22 6 -3 20 -10 8 18 19 -1 -10 14 24 -7 -10 5 6 -31 -6 11 2 -2 7 -11 13 -8 -7 -22 -6 7 -6 -11 -11 -21 33 -25 21 -3 -3 24 10 -5 8 -9 -6 17 25 13 -2 3 6 -13 -18 4 -6 -1 -9 -4 -13 -1 -6 -7 10 3 5 -6 -23 -2 -10 27 2 -16 15 7 5 -21 18 -17 29 -25 13 1 13 -9 8 -9 -23 -3 -17 -28 -13 -30 -13 23 14 -12 -12 3 -24 -23 -27 4 -6 7 -9 10 4 -10 21 6 -9 -11 -4 -6 11 -4 -6 -14 2 1 3 -3 -6 -11 -31 -1 -15 -14 -6 -11 -11 -2 10 -8 -7 2 13 -17 -17 3 -14 -10 -20 3 -3 3 3 8 -13 -19 -9 6 -24 -5 -12 7 12 5 -24 19 -6 -20 -30 6 -7 6 5 -23 -3 -10 -4 34 -8 -4 3 -10 -3 -19 -6 -25 -15 3 -5 -3 -31 -14 -4 3 14 -3 6 -6 -18 -4 -3 5 -3 -13 4 -26 -7 -3 7 -28 6 5 1 9 -7 -19 -24 -20 -2 6 -2 -13 -25 14 -14 3 -14 13 -17 -18 1 -10 -18 -24 2 -17 18 -3 -3 -18 10 -11 16 -9 -18 -14 -6 5 -14 19 7 -11 -6 -13 0 3 25 -3 -5 10 -20 28 -6 -5 -18 -10 10 -3 4 2 7 -19 -3 -9 -1 5 -10 21 -3 -7 -3 -35 -13 9 -6 -28 -11 -9 -28 -11 -18 6 11 -15 -4 6 -16 -20 -3 -15 -6 -11 -27 -3 -3 -17 6 3 7 -15 6 0 -10 -24 -12 5 -21 1 22 -4 -6 -11 3 3 -1 6 -12 -14 4 -15 -12 -12 -2 -11 -17 -11 3 -17 -11 -11 10 11 3 -7 10 6 3 -10 15 -12 -3 -3 29 -10 2 3 -6 -14 19 -4 -13 24 -24 -6 -22 -16 0 5 3 12 11 -12 -14 -15 -3 -11 -14 -8 7 -14 11 12 -8 20 -2 3 -9 4 -7 -7 -30 7 -6 1 -47 8 -3 -14 -10 12 -7 -4 -14 -1 -4 6 -24 -25 3 -15 3 -11 3 -4 -11 7 -1 -9 -3 -3 -7 8 -4 -19 -10 -3 8 -11 4 -3 6 -15 -23 7 -8 2 10 2 -13 -3 -27 -14 5 -18 -5 1 3 -20 -7 -17 -27 1 -1 -1 4 23 15 -9 -10 16 -28 -7 -18 12 -2 0 -21 9 6 -33 1 6 -21 -13 -14 -11 6 18 -9 3 -3 15 7 -18 12 -10 -7 3 -17 9 6 5 -4 3 -20 -8 -3 8 -12 -10 -5 -3 -15 6 -6 -4 -5 -12 3 19 24 9 -17 -3 -17 -7 11 -11 -32 -8 -28 7 -8 -41 2 -4 3 -4 10 3 -11 -7 -14 -21 6 1 7 2 -24 -10 -17 -5 -9 8 29 -7 1 -30 4 -7 -34 24 3 3 6 -7 4 -6 11 -3 -16 35 -3 -3 -19 13 -22 8 -9 -36 17 -1 -3 -3 -24 3 -4 -8 -11 19 -1 2 -26 -18 9 1 -3 19 -12 18 -2 2 -9 2 -4 -18 -13 3 -7 -12 -14 -17 -4 6 -3 -12 -14 -3 -25 21 15 7 -6 -11 -9 -17 4 8 -7 -11 -8 -4 -22 -6 -4 15 -7 -3 -4 -7 -16 -6 13 -11 -7 -3 -13 15 -28 -10 15 -1 -11 2 -4 -25 -4 16 -2 3 3 -14 16 -7 -3 13 -6 -23 -10 14 6 -4 -21 6 -33 -3 3 10 -6 -4 7 -17 -5 -4 -3 -2 7 -9 11 -14 -3 3 -21 9 7 -4 -5 -24 -5 18 -1 13 14 -19 -1 -10 -4 -10 14 10 -10 -1 -16 -15 3 -14 12 -3 -15 4 -17 -5 7 -10 14 7 -19 4 -30 -10 -14 -3 -15 -5 13 3 -6 8 -12 -7 10 -17 -7 -14 -3 3 0 -17 -6 -3 -11 -29 2 3 -14 -4 -3 2 -10 1 -2 -7 14 7 -1 -5 -20 3 7 -1 -9 -3 -13 -15 -3 5 -17 -5 -14 -14 -6 10 1 -4 -9 6 -25 6 -1 -9 -9 -5 14 6 -6 -7 -4 -10 -21 -6 -5 -1 18 6 8 -3 -10 -3 -7 -20 -6 -7 6 18 -9 -24 -10 -15 -10 -4 -3 -21 9 -4 6 5 21 9 7 -11 1 10 -1 -9 3 10 -13 -4 10 -14 -3 -6 -13 -13 -3 -5 -7 -11 -15 7 -3 -8 -6 2 -10 16 -7 2 -3 3 -5 3 1 11 -5 -11 17 -8 -17 -8 12 -10 -3 14 18 -13 5 -6 2 20 -17 -24 -7 -3 -6 4 12 -6 -7 3 -4 8 -18 24 1 7 -3 -17 0 -2 -8 -20 -3 -6 -18 -11 9 -2 -17 3 -16 -24 11 3 -10 4 -3 -11 2 6 -14 16 3 -4 -7 -4 -10 -41 -8 5 4 -22 -8 -18 -17 7 -39 7 -18 6 -14 -9 -2 7 6 19 -4 3 -5 -16 6 17 3 -21 -1 5 24 12 -3 4 -6 3 -22 4 -1 -10 -20 4 -1 3 -21 -28 -12 -14 -3 -3 -12 -15 -3 16 11 4 -1 -6 3 -3 -21 -9 18 7 1 -2 -35 -3 16 -5 28 2 12 -7 3 -8 -6 -3 4 11 -9 11 -15 4 14 3 -21 7 3 -1 4 0 -7 -3 -3 -18 1 2 11 3 9 -18 3 -17 -35 8 -7 9 -5 6 20 -2 -3 11 1 -3 -8 -13 -11 -6 -17 3 -34 -3 3 4 -22 -24 -10 2 -18 15 -10 -2 -8 -31 6 -14 -11 -10 5 -45 -11 10 -15 -1 7 -6 8 15 -10 -6 -21 -5 -10 -13 8 -3 -2 -20 14 11 11 -13 -3 -13 10 10 -7 -17 3 6 -11 8 -10 -3 -3 3 -3 -3 -14 -8 -10 -13 -11 -10 -13 -13 2 -5 -28 -7 -6 -3 -6 -5 -10 -4 -8 16 13 12 -21 -12 -14 3 -3 -21 -3 -15 7 7 -17 6 3 1 -15 -18 -20 -15 -6 -7 -4 -10 -3 -7 -17 -6 -21 -4 -14 3 -6 1 12 -6 9 -3 -3 28 -14 18 17 -13 -27 8 6 -28 -34 -6 -11 -5 3 7 3 -2 9 -7 7 -3 3 -10 -17 -2 -16 -3 3 -18 -8 -9 -10 -6 -8 -14 10 -19 -15 -11 -11 20 7 2 3 -10 -7 -1 7 -29 -21 6 0 2 -7 -3 11 3 5 -1 17 -7 -13 -18 -17 10 -18 -14 -11 15 -3 4 -4 -4 -3 -3 10 -23 1 -2 -7 4 13 26 -14 -21 -14 -17 -18 -18 6 -8 0 -9 -14 -14 -17 -17 3 -12 -11 -11 -20 -28 3 13 -14 -11 -7 -7 3 -3 -13 -14 -7 -1 -6 -10 11 -6 -4 -17 -11 -24 -2 11 14 -6 -10 7 -1 -17 12 -8 16 -9 3 5 -4 30 -9 9 7 6 14 1 -15 -6 24 3 -13 -3 3 -7 -22 -6 -10 -19 -19 -1 8 -1 -27 8 5 1 17 6 -4 17 -28 -17 -3 14 -4 -49 11 -8 13 -9 2 7 -4 1 -6 -23 -3 10 -13 7 -14 9 2 -15 -4 -11 -14 4 -4 -4 -7 -6 -3 3 10 -49 4 -13 -3 -4 -4 3 -12 -3 12 -11 22 3 22 0 -16 -3 12 -8 6 -1 -12 10 -8 15 -16 1 -20 -18 9 -2 7 9 -3 -6 -3 24 3 3 -2 3 -3 -3 -7 -3 8 -7 8 7 -22 -10 -3 -6 6 -6 14 3 -10 12 -5 -18 -9 -16 -3 14 3 2 -8 26 7 -1 -11 -1 -3 -3 -10 -4 7 8 -1 4 11 2 -27 6 4 3 -1 -3 -3 -4 -6 15 -1 16 20 20 13 -10 13 -3 -30 -11 -4 -14 -3 12 -10 -23 -30 -6 -10 -13 -3 -30 24 -6 -21 6 -4 -14 10 3 3 -10 4 11 -28 -7 -11 -27 -11 -14 -18 3 14 -4 -9 3 -14 -12 12 -14 -22 -9 -7 10 -19 -18 31 -13 -14 -25 5 7 -11 -17 7 -1 -27 15 -21 -9 -15 -11 -4 -3 -6 1 -3 -13 -3 3 -4 -3 2 1 7 4 -3 -24 12 -15 14 -20 -11 -8 -17 -7 10 -3 -11 -3 -7 -6 -3 -11 2 -16 -17 -26 0 2 3 7 3 -7 -18 -6 -2 -5 -2 -13 -6 13 -20 -7 -14 -14 -8 4 -10 8 -14 -3 -15 -3 12 -4 -7 5 -3 8 -3 -34 -13 18 -38 14 -13 -6 -13 -7 -10 -3 -14 9 -7 -3 -14 -9 -8 27 -10 5 -38 2 -2 2 -15 -8 28 -6 -24 -11 -21 3 -6 -5 -14 12 -3 -11 -9 -4 -7 17 10 7 -5 -18 -29 -6 -1 -17 -10 13 3 -14 1 7 10 -26 4 -3 -10 1 -27 5 3 7 -1 -3 -3 12 -5 14 -19 7 -13 5 -6 19 -7 -7 10 6 -11 -3 -18 -28 -6 -13 4 -17 -7 -13 -13 29 -7 -4 15 -3 16 -4 6 -3 -8 -7 6 -16 -1 -27 -8 -24 7 6 -13 7 -2 -11 -13 20 -7 10 -14 -9 -3 -23 -4 -4 3 -6 7 -3 -7 -22 -5 -2 17 3 -7 -2 -3 -2 -18 27 12 -6 -2 -10 -11 -14 3 5 14 -11 3 11 -2 -21 3 21 -3 11 3 3 0 4 22 -30 -11 -6 -35 7 4 4 -4 12 -6 4 7 -21 -3 -11 -14 -3 4 -14 5 -6 18 -7 -6 14 -15 -11 -18 -14 -21 -17 -6 10 10 -14 4 -17 8 19 4 14 -4 -14 -3 6 -8 -10 -1 3 12 -11 0 3 -6 -18 -14 3 -6 -9 3 1 -36 -7 -8 3 -16 -13 -16 14 -10 -15 -11 3 7 -22 3 -3 21 -3 -9 3 -8 7 12 4 -13 8 -3 -6 -10 -13 -18 -11 -16 3 -9 -4 -3 8 -8 3 -7 -15 5 8 -18 -2 -9 -1 -17 -8 3 -4 13 -4 -6 -27 -24 -10 -6 -17 -8 22 -5 -5 -7 8 -9 -1 -7 2 0 3 -8 -20 -11 -6 2 -24 -3 3 3 -7 15 -6 5 -28 -11 -13 -23 -4 -32 4 14 13 -7 6 -3 -7 -18 10 -17 12 10 -8 3 -3 14 -3 -28 -3 6 -8 -11 -6 -13 -20 -27 -7 9 1 -21 -6 7 2 -7 -13 4 7 -8 3 4 21 -2 -3 -20 -17 -8 -17 16 -11 -7 -14 -4 14 6 -36 -7 -14 5 -5 -5 -13 1 -7 14 7 -2 10 -20 3 -1 -7 -8 -4 -29 -7 -22 -11 -3 5 21 -1 -27 23 -14 1 7 -22 4 -3 -13 -17 -17 14 -7 -3 -2 -4 -6 4 3 -1 -3 -38 3 3 -10 7 6 -17 2 -11 5 -25 6 -30 -3 -9 3 -20 -8 -10 15 12 -10 -24 -3 -21 4 -13 2 3 -12 7 6 7 -18 -3 -7 -12 -4 -6 -6 -8 -19 -4 -18 5 -14 -11 5 3 -11 3 -3 -7 13 -27 -17 -3 -43 -6 -19 -13 11 -3 -22 -6 -28 -3 4 -3 -17 -15 15 -9 -4 0 4 -13 3 -14 6 -3 3 10 -10 3 -7 10 3 -16 -26 -14 -8 -25 11 19 -15 3 -14 4 17 -31 -6 3 7 -3 12 3 -1 -20 -8 -9 6 -4 -5 -7 -7 -4 17 3 -4 -3 -23 -8 -14 6 -3 10 4 -15 -5 -7 -24 17 3 3 -11 5 -6 4 6 9 13 -7 -7 -10 8 14 -11 5 -24 19 -21 6 -6 -14 -3 -4 14 -7 -9 3 -12 -5 20 4 6 3 -7 -10 3 -3 -10 -9 -28 6 -4 13 -5 1 -9 -10 -25 -7 -7 5 -15 -10 -12 -16 5 3 -11 -26 14 1 -1 7 -8 -13 -6 -39 -3 1 -19 -10 -7 2 -15 -11 -7 -3 -14 9 6 2 -8 -24 14 0 -8 -7 21 3 24 8 16 7 -14 21 -7 10 9 -32 -6 7 3 -12 -11 10 -4 -20 -7 -14 3 -2 6 3 -35 14 15 -8 9 -3 -14 -7 3 10 3 -8 -6 -7 -11 -20 27 9 -5 25 -17 -3 -7 -8 -14 15 0 6 17 -31 15 -40 -4 -3 -27 -17 7 6 8 4 9 3 13 -3 -14 -19 -14 -1 5 8 -20 4 -13 3 -4 -1 -18 4 -17 -3 11 3 -42 5 35 -4 -20 -14 3 4 6 6 -11 -22 -10 7 -10 -15 -3 -1 5 -21 -12 6 -6 24 -18 -11 -13 -10 6 -8 -14 17 -28 -10 -6 18 -14 -8 -2 -3 -17 -2 -13 6 -6 -7 1 -3 -3 -1 -25 -8 17 6 -19 -29 -22 3 0 -8 -11 -3 11 -11 -5 0 -5 -3 4 -10 -3 -34 -19 2 -3 -17 -9 14 -6 3 -10 -23 -18 -21 -3 -7 -1 -25 -17 17 -33 -4 -20 -6 -9 -11 -14 -3 -6 3 3 2 0 22 5 -23 2 -7 5 -6 -16 6 -8 -3 7 -24 -3 3 14 -2 0 -7 -3 -8 1 -10 3 -18 -2 -6 -9 11 1 -6 3 -5 -3 7 -7 3 -14 11 -19 -7 -7 -18 -17 -16 -9 3 -6 3 -6 23 5 -4 6 5 3 -3 3 3 -7 -10 22 24 -5 13 15 -4 -1 1 2 -9 -4 -16 3 6 6 -2 -11 -4 -4 -11 1 -7 -6 -6 -5 -17 -26 -5 7 -11 28 1 -18 12 -8 10 13 -8 5 3 9 -18 11 -13 -7 3 1 3 -9 -3 3 -3 9 -3 -5 -5 -13 -11 3 7 -3 9 13 9 -4 4 -3 -3 6 25 -5 -14 26 -10 8 -16 -11 -1 19 5 -7 -5 5 7 4 7 -3 -12 3 -13 2 1 13 -21 -7 -6 -3 3 3 -19 -23 13 -4 -5 -19 -3 -13 -5 -3 8 -24 -28 14 9 -6 14 0 -8 4 -7 -19 -20 -7 10 -11 6 -18 2 7 -5 -17 -9 -26 29 -10 -4 -7 -15 -4 17 -4 26 -18 -10 -3 -2 -6 4 -10 -7 -15 -7 2 -3 -16 -10 -3 -3 -3 4 29 -7 6 2 7 -3 -1 -18 6 -3 -6 -2 5 -21 -6 3 -7 -10 -7 -10 -25 -28 9 -7 -14 -13 3 -17 -31 3 -16 4 2 -3 -3 17 -7 -8 -7 5 -10 -14 -23 -18 -15 -4 2 -20 -8 14 5 -2 -3 -10 -5 -6 -7 -3 -21 -13 16 -17 7 7 -3 6 -9 -9 7 -4 -25 2 -15 -21 -11 3 5 -10 -31 -1 -7 -26 -8 -10 -9 1 9 -8 -1 -3 7 14 -7 23 4 3 -4 -19 -7 -4 24 -11 -30 3 -12 -14 -4 3 -3 -10 -3 -6</t>
-  </si>
-  <si>
-    <t>JSB(1.667300029810947, 4.318429835624716, -35.203999289067895, 179.22543031127594)</t>
-  </si>
-  <si>
-    <t>24 26 32 16 26 44 26 35 36 52 27 48 33 44 53 51 33 23 34 47 24 36 34 37 45 49 49 39 41 37 35 43 47 48 34 33 47 33 55 47 20 51 34 26 19 25 46 56 19 51 23 37 37 29 44 37 31 31 40 39 44 26 33 34 49 43 53 46 38 41 53 42 48 23 39 52 32 49 46 52 39 40 27 43 48 42 28 54 60 29 40 29 29 43 46 44 27 58 41 46 41 37 42 36 31 35 19 51 54 51 31 43 34 47 37 31 43 50 48 20 31 28 37 32 31 32 36 40 30 23 44 36 29 54 25 27 38 48 30 25 52 31 37 28 54 36 48 23 46 37 49 40 45 30 46 44 40 19 57 34 30 27 34 16 41 52 22 47 26 37 41 38 37 34 20 51 30 49 30 26 37 41 33 52 29 23 31 37 55 48 53 49 27 32 20 31 40 23 27 29 50 20 55 47 56 60 38 32 45 44 26 49 36 38 35 37 42 51 48 36 40 23 20 45 33 43 36 50 40 59 52 51 16 46 31 49 54 40 30 36 40 23 38 48 16 45 38 34 16 36 35 45 49 44 40 33 55 34 39 30 25 29 37 36 33 16 37 34 53 41 32 51 16 35 47 37 30 48 34 45 30 57 49 30 25 24 33 44 33 56 32 28 43 40 34 45 37 40 33 32 55 45 42 33 44 33 30 47 45 40 28 30 32 45 37 43 30 40 40 39 34 51 37 23 23 33 23 47 40 37 39 47 44 40 47 51 54 52 42 28 44 47 37 43 51 37 31 22 40 39 20 29 37 27 37 38 30 27 52 30 40 37 39 44 55 35 56 34 37 48 41 39 56 25 33 45 45 30 24 27 38 34 37 32 31 43 25 44 35 22 27 37 47 38 33 44 36 51 30 45 40 54 33 50 30 35 42 49 28 33 48 23 45 56 37 34 62 36 45 55 22 35 40 45 31 37 50 36 38 49 15 55 25 25 23 30 32 47 25 43 40 46 65 31 24 30 35 52 33 44 42 47 45 50 34 42 38 30 23 36 35 33 34 42 31 41 45 29 30 39 27 25 32 29 35 37 58 36 26 46 48 29 16 34 27 52 44 43 40 49 65 29 23 32 49 40 33 30 41 50 33 25 36 29 41 32 50 32 38 37 44 33 48 27 37 53 55 20 29 42 36 41 29 44 40 29 43 23 27 53 24 38 29 51 27 34 38 46 34 59 30 64 23 29 42 40 34 40 51 23 43 22 59 30 34 33 29 43 37 40 29 37 43 40 48 51 41 35 45 27 32 37 40 23 33 24 41 55 23 49 45 42 38 18 34 49 48 47 40 39 55 38 40 19 27 49 29 35 48 42 42 33 39 30 23 27 32 52 40 51 33 51 62 13 44 50 48 29 45 46 24 38 48 37 34 36 34 22 20 35 55 45 59 44 31 48 33 35 33 51 49 44 23 51 41 44 48 48 37 34 45 40 29 35 44 26 31 38 39 38 28 39 22 34 34 42 25 43 56 23 21 43 41 47 50 45 30 50 45 42 40 31 31 32 32 38 59 40 41 37 27 34 34 27 32 47 43 32 33 36 30 39 30 43 46 40 17 55 38 33 40 44 38 58 41 54 39 23 32 30 36 27 40 36 33 22 40 44 40 43 59 29 24 13 50 60 49 41 30 29 47 54 44 26 22 41 45 26 30 58 25 45 18 45 46 65 26 23 57 48 34 48 31 47 33 44 35 55 40 27 34 28 55 42 27 19 34 33 47 38 20 52 19 55 22 24 57 37 39 65 37 39 51 39 43 39 26 49 23 41 27 36 19 45 45 36 43 19 26 13 42 22 43 35 46 24 34 33 27 45 23 43 35 47 48 23 56 41 38 41 36 28 30 33 26 41 33 53 26 35 36 25 26 40 39 26 13 37 36 41 23 37 60 47 33 29 47 29 41 33 19 22 27 19 27 36 53 47 45 43 30 33 43 43 33 48 27 62 44 37 37 33 50 31 58 31 33 38 34 55 37 38 33 42 32 43 48 51 27 32 33 25 37 53 37 51 41 39 39 33 31 43 48 40 43 31 43 26 36 22 42 23 39 37 52 33 26 30 26 28 37 42 47 36 57 29 37 40 40 29 23 36 37 46 43 35 37 30 30 26 30 32 35 38 41 39 40 31 37 37 36 46 49 41 28 37 26 37 29 38 37 43 53 51 43 43 38 24 45 41 28 44 47 29 39 32 49 22 19 36 39 55 38 23 51 31 33 40 18 22 37 51 51 37 35 46 29 45 41 40 52 51 48 42 35 50 36 40 49 19 43 36 34 51 33 26 31 50 34 29 36 46 31 37 36 42 19 32 37 50 31 40 35 45 53 44 48 49 34 48 45 28 46 19 37 28 26 38 31 51 49 36 33 29 44 48 24 52 57 23 37 34 19 37 22 30 49 26 34 34 45 43 41 53 33 54 23 43 33 47 39 44 30 37 35 43 47 41 39 37 21 34 20 35 30 45 29 36 33 40 43 24 37 40 43 44 37 27 33 32 58 48 47 37 57 55 51 36 34 37 33 39 37 37 58 33 51 37 37 17 34 34 33 54 43 29 36 48 15 56 30 45 52 53 50 43 33 36 40 22 41 34 29 40 36 26 54 40 40 48 45 44 36 34 53 35 28 33 42 39 31 33 19 41 37 43 41 43 43 44 36 53 51 19 34 30 33 37 30 32 77 39 54 43 29 37 18 58 44 38 42 41 42 58 26 34 30 47 31 44 33 60 37 33 25 27 43 35 52 22 31 48 54 41 41 50 37 21 36 23 45 45 48 53 27 30 23 36 27 51 51 41 29 42 33 48 44 39 48 33 51 47 33 36 36 47 43 40 38 29 36 32 22 33 30 41 40 45 62 20 20 40 45 30 42 34 43 23 50 45 35 49 50 47 43 32 46 37 51 33 51 45 26 27 24 53 30 50 37 34 34 27 47 31 45 39 44 45 41 31 23 26 36 49 33 22 33 33 44 43 25 36 41 37 61 37 28 26 27 41 33 49 46 44 34 34 27 58 43 30 48 39 29 23 37 44 37 29 31 34 43 24 30 32 34 28 38 50 33 30 29 34 50 48 39 31 41 44 29 23 30 41 23 33 41 47 39 39 20 21 51 47 42 51 39 30 41 26 49 42 33 43 37 51 44 44 41 37 37 27 42 22 55 37 30 44 35 33 43 57 41 37 40 51 26 30 26 37 25 54 42 19 41 26 37 15 37 27 32 58 41 51 25 40 51 44 31 55 50 45 45 37 32 36 32 51 44 29 47 31 46 30 31 26 40 33 34 47 22 40 41 37 37 33 40 51 36 37 40 38 22 33 34 35 33 29 30 35 39 21 28 58 25 49 54 50 57 40 44 43 29 41 50 29 27 50 37 37 40 47 44 73 44 54 16 40 33 16 29 31 37 48 37 26 38 34 44 23 37 23 22 62 42 51 53 40 20 27 47 31 44 43 34 50 36 29 34 33 43 38 47 28 37 51 48 33 33 41 25 23 38 37 48 29 29 44 48 46 32 44 46 58 41 29 37 40 43 35 37 52 36 31 50 40 44 46 37 35 36 38 53 39 43 45 27 41 43 20 33 37 30 65 23 44 40 50 31 31 41 46 33 45 52 41 46 45 37 29 47 34 47 40 15 37 36 58 17 33 20 44 39 50 40 43 17 44 47 35 44 48 32 40 37 30 38 28 44 35 43 47 39 32 33 37 33 42 30 52 48 48 51 27 43 44 25 30 24 40 20 45 26 40 37 40 49 45 32 27 36 43 54 30 34 37 30 16 41 41 36 32 27 45 43 23 43 34 41 33 44 28 37 26 36 37 40 37 55 32 57 33 51 13 45 45 31 46 23 45 44 38 28 41 36 64 41 22 45 41 47 57 45 19 52 44 55 43 45 20 43 23 37 23 33 65 33 67 44 30 32 41 21 40 48 30 38 40 35 29 45 29 30 43 39 33 44 27 36 30 44 26 39 37 37 33 26 47 40 42 56 15 39 34 38 42 37 34 40 54 31 37 44 55 45 41 41 54 43 22 44 46 35 23 50 22 20 51 22 38 29 54 42 33 47 48 34 39 27 25 38 31 32 23 62 27 38 49 34 23 27 43 35 31 44 30 30 48 44 42 37 45 58 53 34 55 19 44 41 43 23 29 30 33 33 27 37 21 56 37 26 26 19 44 38 50 40 33 33 34 58 55 56 53 30 36 43 56 32 37 34 47 57 51 32 41 57 23 20 45 40 39 37 51 38 34 39 13 45 27 44 41 40 24 36 44 34 34 40 26 22 39 49 37 27 33 65 54 38 19 27 52 25 48 39 28 26 40 25 26 55 34 27 37 36 46 18 44 33 25 18 43 29 32 30 23 37 41 22 13 44 31 60 36 49 52 45 43 33 37 33 58 30 33 38 51 21 24 49 39 30 46 36 37 48 38 48 55 35 31 41 34 37 30 48 35 57 43 35 19 43 25 37 31 17 42 27 51 34 44 49 34 43 40 26 29 23 26 45 45 26 42 50 34 58 25 48 47 32 45 51 47 49 43 33 57 47 55 52 41 44 20 39 36 55 26 17 39 43 30 43 44 51 43 47 38 31 28 30 12 48 20 47 17 48 34 30 37 36 23 41 37 34 54 43 26 44 31 20 45 49 46 43 26 43 46 43 39 45 33 46 44 55 47 40 38 44 32 38 20 34 31 36 41 43 22 35 47 41 54 30 39 38 37 21 46 33 47 36 41 36 26 34 38 37 63 40 37 26 34 37 51 29 31 40 47 45 39 36 35 27 30 49 55 52 30 51 30 58 43 48 41 43 46 39 42 69 25 24 21 53 43 47 32 33 30 33 26 34 23 37 43 33 36 34 31 41 37 48 37 39 16 41 31 34 42 37 23 22 27 37 34 46 47 32 22 21 33 39 33 40 24 48 43 30 33 33 23 23 43 40 34 35 36 50 20 31 19 44 38 52 23 30 41 53 54 42 30 45 40 33 50 26 50 43 26 36 59 28 23 25 31 26 22 20 30 37 13 28 34 17 20 44 37 32 44 34 37 44 37 46 41 36 68 48 15 37 34 43 31 32 61 35 34 51 30 37 43 37 41 44 36 32 40 53 20 34 44 19 33 51 44 27 34 40 16 34 42 66 58 33 29 43 37 37 48 54 44 49 44 47 19 34 33 24 35 30 33 39 14 27 41 42 33 34 44 39 55 26 53 30 30 29 25 36 32 48 36 19 32 44 38 54 36 32 34 45 21 37 51 47 40 29 24 37 37 41 54 39 44 37 38 32 43 27 39 41 39 31 26 23 27 16 53 37 57 47 23 18 33 45 43 44 37 41 39 35 33 41 39 30 36 35 23 44 37 41 54 20 33 27 43 37 43 25 34 52 27 28 47 20 54 47 45 31 16 59 39 47 44 44 26 45 30 45 47 44 41 57 22 29 29 40 30 36 41 40 40 19 36 36 33 50 26 44 50 43 24 24 30 36 43 48 33 47 30 53 43 23 34 35 30 46 38 44 44 36 39 19 54 32 43 37 43 30 26 32 24 26 23 49 35 24 26 17 28 36 43 21 43 33 57 55 32 33 43 45 42 49 38 39 57 41 28 23 30 39 41 51 26 39 44 19 47 35 30 34 33 34 43 33 50 27 37 36 38 37 45 45 34 45 37 45 33 45 27 24 39 45 47 38 35 41 38 34 38 39 34 44 26 36 43 59 36 27 32 36 37 19 27 36 42 29 33 41 24 31 38 59 52 44 47 42 29 23 32 39 7 23 38 29 60 37 59 47 33 27 66 37 39 38 37 47 31 42 37 42 15 55 36 23 28 30 36 38 42 35 38 26 37 40 25 32 36 44 47 47 40 23 43 45 44 49 25 37 42 40 41 31 43 34 23 40 45 26 30 29 51 34 36 50 42 43 34 47 30 40 40 38 42 37 30 50 40 47 44 22 34 25 34 26 51 26 38 20 33 48 39 37 24 50 26 29 37 24 40 32 34 31 50 34 31 16 53 37 49 30 30 40 20 47 33 40 37 34 38 43 37 33 25 43 39 33 27 37 49 41 43 27 51 33 27 39 27 40 31 36 36 22 49 27 62 43 40 43 29 24 28 38 38 35 37 51 21 23 34 35 47 48 30 30 46 39 24 42 51 33 25 38 37 55 44 30 25 34 35 36 58 23 33 36 15 48 36 55 29 36 30 56 15 30 40 37 46 37 43 36 31 34 41 43 54 30 43 41 45 51 71 54 56 36 31 31 48 20 26 53 30 39 19 42 25 31 23 44 26 30 37 45 37 26 42 39 30 33 45 54 34 41 43 41 42 44 30 42 27 40 35 19 24 29 48 47 34 31 45 53 38 41 31 29 45 36 22 30 43 44 47 26 44 46 44 41 40 43 48 51 52 25 26 34 34 45 44 30 41 57 42 52 34 48 37 33 58 26 44 31 31 30 32 30 37 36 47 29 33 48 24 40 31 40 26 32 43 37 37 40 26 51 39 47 33 36 42 31 38 37 37 35 44 33 45 38 31 52 37 44 51 38 44 28 45 58 40 55 34 28 42 36 30 44 30 41 37 37 25 42 43 36 34 31 65 49 38 37 38 30 42 20 47 34 48 51 40 35 30 50 36 33 21 52 36 57 20 43 29 28 24 34 45 25 44 40 55 33 50 35 28 23 24 47 45 49 42 30 21 40 42 31 43 40 27 37 58 22 44 23 56 47 23 28 49 44 30 25 41 34 24 43 51 26 44 24 38 32 47 44 54 40 53 51 36 44 37 29 61 46 22 40 51 36 27 54 32 41 31 23 30 37 38 43 39 44 36 31 41 30 41 33 50 32 59 37 25 38 45 58 69 44 47 27 44 48 26 49 40 43 23 52 34 30 31 38 49 39 46 37 24 57 49 29 46 42 23 49 44 33 26 43 36 47 45 27 27 50 30 51 46 26 16 40 46 55 52 45 31 44 31 37 29 18 52 26 28 25 37 35 42 34 26 30 34 41 41 23 30 48 37 39 38 30 31 23 48 57 41 42 17 39 40 23 51 51 46 55 39 41 32 30 23 40 33 44 38 54 51 46 37 32 51 25 47 30 50 38 26 55 12 26 43 23 27 40 41 30 26 65 34 46 33 40 37 30 45 46 43 38 33 34 52 23 43 45 32 40 37 49 37 29 42 27 21 54 36 57 38 48 39 51 36 18 33 37 36 37 23 53 36 50 40 30 44 16 33 55 39 52 43 27 45 22 41 47 36 20 53 29 32 20 30 54 34 45 30 25 26 37 33 37 18 47 41 13 37 40 41 30 51 33 40 44 25 30 39 45 28 35 39 27 53 31 44 35 41 32 39 29 51 48 50 44 50 50 34 38 45 13 24 29 24 39 31 43 36 29 45 59 50 50 63 44 33 55 40 47 30 33 29 30 47 26 55 37 37 42 46 34 50 34 19 37 23 51 34 18 38 34 37 38 37 39 55 31 49 34 27 32 26 55 38 34 39 45 22 34 27 51 47 43 48 49 42 44 47 47 32 48 36 44 34 30 39 29 32 43 41 48 38 40 41 48 29 44 40 47 45 27 40 52 34 29 25 54 69 29 54 44 35 35 29 39 46 36 43 38 41 22 33 37 40 23 27 33 41 43 29 33 45 63 45 41 41 27 29 42 47 35 20 55 41 15 27 47 40 36 50 25 29 43 44 29 44 23 34 36 26 35 44 29 43 40 44 39 30 34 19 43 44 32 26 37 41 41 32 48 43 58 40 30 43 32 31 38 43 44 32 51 40 23 42 41 22 23 48 26 30 20 30 38 49 19 50 24 32 30 54 33 20 60 35 40 41 37 24 30 51 41 10 25 61 37 41 30 55 43 47 41 52 56 29 49 45 45 49 37 43 36 54 40 42 34 27 27 15 41 30 37 51 51 28 40 26 47 23 30 20 20 23 54 29 54 37 24 34 32 36 39 42 32 35 14 43 48 47 51 38 31 33 40 44 31 37 32 44 54 51 37 48 48 47 41 45 40 31 33 33 38 36 30 47 33 41 43 41 63 33 41 37 22 44 37 46 51 52 50 28 41 29 44 30 50 61 37 39 26 30 37 30 34 43 36 41 33 33 25 37 48 40 37 29 51 21 29 39 48 26 30 57 21 34 43 43 41 39 42 40 43 40 37 33 43 41 33 19 25 67 52 23 42 51 19 45 47 50 34 26 21 23 38 45 46 18 44 37 49 37 51 30 45 41 42 23 33 37 27 46 45 41 18 48 48 39 41 50 50 24 50 38 41 27 40 35 30 34 47 38 41 55 22 31 17 48 36 35 37 44 37 34 35 27 37 35 44 43 37 31 34 24 42 31 37 47 24 52 39 36 59 36 36 51 57 19 39 36 29 41 59 51 24 37 31 30 40 30 44 40 35 40 41 43 27 27 39 37 53 34 26 47 44 40 36 23 35 40 44 43 47 35 29 37 46 33 45 32 33 37 31 41 20 29 28 31 40 50 33 43 31 26 33 44 36 39 37 34 29 45 37 41 49 13 38 9 36 13 33 43 55 31 33 36 37 58 35 22 42 24 36 22 36 45 43 41 30 34 29 58 39 51 30 39 26 30 40 33 38 50 43 36 37 33 46 36 46 31 29 32 29 29 44 44 40 32 31 30 42 19 62 36 31 37 26 34 29 23 44 34 43 48 40 49 29 51 35 43 21 48 40 25 37 34 34 35 31 45 38 30 40 26 30 38 37 43 47 65 32 40 48 38 16 31 36 37 41 39 56 57 29 30 11 40 53 27 41 37 41 49 45 20 44 36 20 23 29 33 44 43 45 19 25 29 31 42 44 54 20 17 19 13 22 12 37 30 31 30 51 37 37 29 49 20 34 40 37 40 32 30 33 36 49 73 15 45 38 46 49 39 37 43 35 57 37 43 37 34 40 35 31 57 38 28 36 43 58 52 42 30 54 44 61 27 23 34 42 19 41 57 27 45 23 34 26 23 41 50 43 22 51 37 40 22 47 36 43 37 23 34 41 51 46 22 30 54 35 22 58 41 31 37 13 35 54 40 45 41 45 10 22 40 20 54 19 38 55 34 42 43 46 29 49 45 38 40 55 33 26 16 51 35 38 37 43 44 63 24 42 30 41 26 49 29 26 55 37 39 22 51 37 23 46 37 33 52 30 36 24 33 36 42 33 22 40 15 42 32 37 43 51 27 29 53 26 34 27 37 43 53 47 27 13 29 49 32 30 37 40 43 38 45 44 57 34 27 46 28 35 53 41 22 50 25 41 39 47 49 46 24 36 36 31 21 29 33 49 50 40 32 37 46 30 47 47 31 33 46 27 34 41 20 34 52 44 46 43 34 37 33 47 38 19 47 35 37 37 30 33 20 24 23 42 33 31 40 39 41 39 44 42 47 53 30 31 35 27 40 32 20 40 31 46 40 32 30 50 23 43 30 36 37 45 41 31 49 54 30 43 59 51 30 44 33 45 39 41 51 37 29 37 55 23 37 30 23 45 21 31 47 34 20 43 49 33 38 33 46 23 33 25 26 41 22 31 43 44 39 37 31 20 37 52 30 58 62 50 32 44 43 36 50 31 39 33 31 45 36 43 28 55 39 26 61 21 36 31 37 37 26 40 40 37 34 31 40 34 27 26 26 40 36 52 43 51 47 37 23 60 22 51 60 38 48 48 34 37 53 19 28 34 43 26 15 36 46 29 34 53 44 35 24 33 57 46 20 35 42 33 23 31 45 42 43 15 50 39 35 22 33 36 47 41 37 54 40 45 33 29 37 53 63 33 41 47 48 13 27 32 40 26 51 37 30 33 22 40 26 29 44 30 27 49 43 47 52 43 51 33 26 35 31 45 33 33 31 30 30 35 42 34 43 36 22 37 32 47 30 49 54 35 40 26 30 52 44 32 32 39 48 48 35 45 24 40 25 34 37 25 50 45 38 35 59 51 49 23 30 28 42 41 34 34 26 30 44 27 47 47 16 38 45 36 29 31 19 44 43 41 41 41 34 29 42 43 30 47 40 29 43 14 54 32 24 48 41 59 53 44 33 34 41 29 45 42 45 55 41 28 38 23 19 35 40 51 18 32 37 39 56 36 29 35 41 35 35 33 51 26 34 23 31 61 47 48 54 30 28 31 43 29 36 48 34 19 34 36 47 26 33 23 33 38 30 40 42 43 40 47 34 37 29 51 23 37 42 46 27 37 29 23 39 33 31 44 41 46 33 42 22 33 61 36 35 30 27 39 28 73 39 38 47 55 47 26 51 41 30 45 37 33 33 51 37 40 49 61 44 23 37 44 42 34 33 34 40 32 51 43 42 50 41 54 35 37 48 41 28 33 37 37 25 50 42 34 27 52 34 51 41 59 27 38 40 44 46 41 32 48 41 49 27 28 37 36 15 23 40 43 42 50 23 29 62 29 23 54 37 29 38 36 39 55 29 31 53 51 49 31 41 35 35 40 52 42 31 37 22 36 26 33 42 33 33 26 32 19 53 33 13 43 29 46 30 37 43 34 58 37 39 30 13 35 37 40 36 33 51 30 41 30 33 37 41 37 16 49 16 22 30 13 16 42 29 43 22 54 56 23 35 31 35 40 37 34 35 43 31 31 33 44 45 30 30 30 34 33 39 30 37 33 13 46 33 56 39 24 29 39 40 47 33 68 31 16 58 43 37 63 56 36 32 41 42 33 13 49 9 43 44 48 38 60 53 22 40 51 38 28 41 47 39 23 20 24 48 24 50 26 34 41 36 28 38 49 41 45 34 36 23 36 50 44 29 30 23 25 37 33 40 44 29 41 33 34 33 37 39 26 37 19 54 51 42 39 23 38 33 24 34 37 47 46 40 44 32 25 33 44 46 44 35 29 31 44 47 24 35 40 31 36 24 55 58 38 43 26 39 29 42 43 33 37 30 46 41 40 39 16 40 37 29 34 44 47 41 33 28 27 34 43 51 27 39 41 52 16 39 37 36 48 42 34 36 32 66 41 22 29 30 53 36 52 32 31 37 50 40 31 27 33 37 37 26 49 55 49 31 30 34 52 26 43 51 49 45 45 29 44 45 23 47 27 38 58 18 34 39 29 23 40 46 43 36 33 26 34 22 30 49 33 38 54 29 53 22 52 27 61 36 30 46 47 48 25 28 29 33 48 12 30 35 34 31 24 43 40 33 20 44 37 46 37 37 43 27 33 30 40 36 36 34 43 43 33 37 37 42 33 38 44 51 48 21 55 30 57 33 30 37 39 35 49 38 26 41 7 41 48 13 35 57 30 37 39 23 39 26 48 44 38 44 29 44 40 62 37 39 39 36 44 43 43 32 43 32 39 45 9 37 35 40 41 37 33 26 35 43 42 45 29 44 46 42 39 45 37 37 41 26 42 52 39 44 27 41 35 57 61 43 26 30 37 36 19 29 43 50 30 23 26 33 41 26 37 46 48 33 37 23 36 43 43 54 27 27 34 30 50 43 26 43 54 27 23 39 37 55 39 55 45 48 49 39 36 39 43 31 32 39 30 40 23 39 34 47 31 38 47 44 37 33 48 40 41 37 48 46 32 48 12 40 41 44 54 33 42 37 26 29 47 50 51 50 29 44 23 53 44 51 26 41 48 29 44 36 27 42 20 19 31 54 55 31 42 40 34 29 31 23 34 41 27 45 10 33 42 26 43 33 52 27 27 44 34 15 47 36 43 36 60 38 41 47 31 26 27 28 32 27 33 40 31 39 23 42 37 30 43 22 24 23 32 47 35 30 43 35 27 36 44 29 44 26 18 37 44 29 38 37 37 46 34 43 31 34 51 22 21 34 17 56 39 26 33 42 16 36 6 39 43 44 38 21 35 31 51 32 30 37 50 26 44 30 30 43 38 37 45 31 26 44 27 38 59 15 32 47 50 39 57 22 29 33 30 39 33 31 35 49 31 20 36 31 40 44 36 23 44 29 31 45 41 41 45 21 43 40 31 43 34 36 47 47 36 41 47 36 52 22 36 37 36 49 20 44 41 44 43 38 43 22 33 28 40 39 31 44 50 29 54 52 16 31 37 36 59 34 30 42 32 32 51 44 45 35 47 43 43 40 43 54 26 35 34 51 36 49 42 46 53 22 23 61 54 43 33 31 41 45 13 53 37 40 46 40 49 27 41 54 49 34 47 38 45 30 37 29 29 26 30 33 44 17 26 33 30 47 33 53 44 42 53 34 35 33 34 40 45 33 34 41 37 53 49 30 48 48 37 38 41 26 41 39 61 39 37 52 38 44 45 36 29 40 49 37 36 60 27 31 44 37 23 53 26 44 49 27 46 37 34 33 50 33 34 47 65 45 48 34 37 24 37 51 34 46 39 34 37 40 45 64 37 20 30 39 47 34 32 42 56 34 45 51 33 34 29 23 28 42 20 33 51 43 33 24 41 28 27 37 36 20 28 25 34 45 44 54 37 38 31 53 33 36 34 51 41 30 41 24 50 36 29 65 43 49 39 23 54 38 26 30 20 33 34 32 40 45 51 30 39 37 40 31 30 48 40 44 25 45 45 40 50 20 44 31 22 35 51 46 34 46 44 20 38 33 34 34 33 32 30 44 55 47 22 49 27 20 39 34 45 26 30 38 32 40 25 47 29 43 46 57 26 49 40 39 43 23 40 34 43 44 21 29 43 27 34 51 24 33 36 26 59 20 37 28 17 47 31 44 51 22 41 36 29 41 32 34 28 44 37 32 60 58 26 31 31 34 33 16 39 41 31 43 24 26 30 50 35 41 51 35 24 36 46 26 47 43 33 42 47 30 40 22 45 46 38 43 30 30 40 37 36 59 44 22 37 56 34 23 46 44 53 27 41 34 44 42 49 40 41 30 55 47 32 58 45 37 19 33 33 31 52 43 59 37 30 41 57 56 16 43 42 42 31 41 33 24 30 58 59 13 40 40 44 35 39 41 45 35 35 38 40 33 43 47 29 27 27 36 31 48 41 44 44 37 33 38 40 32 41 41 40 34 40 45 33 51 35 44 44 20 19 45 29 36 27 31 52 54 27 30 45 38 22 19 50 28 37 31 50 37 51 69 21 22 39 33 36 47 44 43 32 37 48 43 46 44 43 34 29 27 27 38 36 37 34 35 30 37 41 19 52 48 33 37 40 30 37 23 45 24 59 42 39 31 31 45 47 34 19 17 28 47 41 51 62 42 36 31 29 44 46 25 29 53 47 57 46 20 29 52 27 38 26 52 34 40 30 24 19 33 44 22 50 39 57 33 25 51 56 27 49 38 26 33 63 43 34 39 31 34 33 34 41 20 45 18 53 37 55 23 40 38 37 37 30 38 16 44 44 22 43 45 27 34 36 64 37 41 20 32 35 42 29 21 58 45 49 49 24 55 38 50 13 37 41 44 35 40 29 47 29 22 30 61 37 33 30 37 13 29 37 23 33 55 41 33 26 20 19 57 44 48 33 40 51 45 30 36 40 52 37 36 20 26 37 47 48 40 54 31 33 45 48 27 41 36 54 41 30 34 52 39 27 41 17 37 17 32 34 30 35 30 32 48 40 30 45 43 26 29 38 34 37 44 23 41 37 44 43 39 44 13 32 46 38 44 52 52 39 30 42 39 38 42 41 36 46 19 29 16 48 37 23 35 34 38 28 43 48 39 26 55 34 52 27 43 20 20 44 31 46 47 32 41 51 33 40 50 32 58 34 26 23 39 30 29 29 29 22 27 31 41 52 45 53 52 57 43 30 49 27 46 41 51 47 47 44 33 37 29 42 38 50 42 26 41 48 37 51 54 26 54 35 30 41 48 47 57 48 54 45 37 34 35 43 52 33 51 48 35 43 29 34 42 34 45 42 41 27 26 30 22 41 13 51 31 59 59 46 32 45 29 48 48 36 49 38 44 26 19 23 39 44 13 44 35 31 32 29 44 43 32 33 60 54 33 37 40 43 46 43 49 29 33 32 47 60 23 47 34 42 37 37 33 47 30 44 30 40 37 49 24 37 42 38 39 50 30 38 29 30 41 31 41 24 35 24 20 30 50 20 50 32 54 42 29 48 41 52 48 36 49 41 44 47 32 27 37 55 44 21 44 38 44 26 31 38 26 43 57 32 19 25 38 47 31 29 43 50 25 48 26 33 36 37 52 46 34 41 53 33 58 29 38 23 57 33 55 30 47 37 29 37 27 29 43 30 36 50 44 35 37 41 44 26 26 27 51 34 16 35 51 37 34 20 41 32 25 32 37 37 34 42 40 23 29 43 35 22 49 37 37 35 38 51 22 20 45 36 53 52 51 31 37 37 54 25 29 19 30 54 32 30 32 30 17 37 43 33 50 44 63 29 36 45 37 30 33 35 35 40 41 30 59 47 28 34 45 35 33 20 36 48 48 42 31 37 24 19 21 54 36 37 41 30 43 47 49 47 34 36 40 37 36 30 34 46 36 37 20 34 30 47 36 40 41 50 19 30 38 38 29 31 47 39 15 45 27 19 43 36 29 59 39 40 31 37 31 31 32 47 27 37 25 37 36 33 36 36 51 37 30 33 39 37 49 40 36 54 45 37 13 42 37 50 36 52 46 30 45 43 40 42 36 26 47 28 41 48 41 51 33 26 35 34 39 23 33 40 40 43 37 33 26 26 44 43 29 56 37 20 36 43 29 33 31 22 41 48 36 19 33 41 46 40 50 34 46 26 47 51 44 37 13 39 51 51 34 50 47 35 31 43 37 28 28 30 52 36 44 50 29 50 39 15 50 46 47 45 43 41 33 37 30 44 44 34 41 21 31 42 36 36 51 30 34 44 44 29 16 26 26 26 46 41 58 39 47 45 52 47 51 53 30 30 40 42 29 52 32 53 33 52 46 50 29 47 45 27 34 36 23 37 40 52 52 31 34 36 22 41 47 21 31 29 48 40 44 37 37 23 33 26 24 43 45 51 23 40 44 44 39 35 29 48 36 36 45 28 46 36 25 32 58 38 31 44 22 44 26 32 25 31 31 33 48 29 39 47 55 34 20 33 39 48 43 48 30 49 38 44 26 33 37 39 28 24 23 51 17 32 37 36 52 34 39 46 43 39 37 25 38 28 27 49 36 48 35 49 45 27 48 27 45 29 31 44 16 37 41 43 42 43 69 51 32 48 35 36 19 29 49 30 58 29 30 52 49 37 26 30 27 37 25 32 33 32 40 30 41 31 49 36 43 47 43 38 23 25 37 25 37 30 48 18 42 45 47 35 38 34 31 30 31 36 24 30 49 51 25 37 51 39 41 39 37 39 23 32 47 20 39 34 18 37 11 40 35 25 31 36 50 37 36 43 40 34 36 30 33 34 44 42 19 55 19 43 66 27 27 42 43 27 29 43 34 52 53 45 34 33 38 24 61 34 43 27 17 39 47 48 36 26 43 43 52 58 23 50 44 38 30 33 26 35 20 23 37 49 49 45 37 60 29 24 33 43 41 54 37 55 38 32 55 45 35 33 48 30 39 26 31 41 29 30 23 29 44 41 30 34 48 47 23 51 41 19 32 22 39 20 48 43 16 48 43 38 46 36 37 23 32 30 24 41 30 61 39 30 41 51 60 33 41 37 30 39 44 43 36 51 39 38 32 26 52 27 47 37 33 17 42 41 50 34 33 35 37 31 51 33 34 27 45 36 31 21 36 54 31 36 53 35 50 49 36 37 49 57 25 51 33 36 26 41 30 59 20 35 31 43 42 30 37 52 35 38 44 52 43 31 36 54 37 59 43 26 41 38 40 31 37 41 23 41 37 38 50 27 30 40 36 28 35 27 39 34 29 20 51 16 31 33 24 33 26 45 37 47 32 37 33 34 47 39 24 44 39 20 22 29 30 37 48 37 30 30 16 47 29 20 36 43 34 30 50 31 31 39 41 29 44 32 23 51 24 29 34 45 23 41 48 40 19 29 34 47 50 32 32 36 37 16 33 44 41 31 37 36 26 41 46 46 46 32 35 37 39 43 20 19 33 35 36 37 37 37 33 40 50 34 37 37 26 56 34 55 45 54 61 24 48 58 28 47 44 29 26 34 37 36 31 64 30 21 39 58 45 45 55 29 37 46 37 41 23 36 40 44 42 37 44 37 37 45 16 37 45 33 37 39 27 55 52 45 38 41 37 40 50 34 20 37 44 29 44 25 38 27 31 40 54 44 25 53 38 50 47 41 54 43 35 31 29 46 29 44 36 41 23 45 44 33 48 33 31 24 26 32 39 29 29 30 44 30 32 45 24 33 31 23 32 37 27 48 30 49 37 39 48 30 48 42 37 37 33 22 37 30 44 29 36 32 44 27 40 35 41 29 52 43 42 59 51 18 26 32 36 33 33 31 36 33 40 40 25 40 38 60 30 61 35 22 48 44 41 22 23 48 37 40 37 44 26 21 37 47 46 41 60 42 27 34 45 29 33 39 37 33 55 37 24 38 43 40 35 46 37 37 41 30 25 40 47 46 44 32 47 39 30 41 27 20 49 36 23 43 44 37 32 22 27 60 22 47 27 33 33 52 53 61 31 33 27 33 59 42 35 43 31 45 40 31 36 27 37 40 30 46 61 42 37 41 24 46 33 39 38 66 38 27 32 29 51 10 40 65 36 40 34 30 43 41 59 38 31 51 27 41 54 34 29 31 30 38 32 49 22 27 41 23 45 54 30 48 51 57 37 23 32 33 37 43 42 52 33 44 41 40 39 36 39 46 48 44 12 19 32 43 37 37 30 24 40 26 36 37 36 37 37 42 51 47 43 43 37 45 32 30 37 20 23 56 48 44 30 39 23 37 55 24 58 41 37 47 56 34 33 47 43 41 37 44 62 44 40 52 39 59 34 34 45 40 27 31 38 39 38 44 38 36 17 38 37 43 38 44 31 42 53 44 40 52 37 34 55 41 37 76 33 54 51 37 43 43 28 48 40 64 43 24 30 36 57 36 50 41 47 31 39 39 47 30 41 45 41 29 61 19 37 48 60 29 39 48 37 44 46 31 55 30 48 36 32 43 33 50 51 41 37 31 23 34 31 27 33 34 26 30 38 36 47 33 33 40 38 26 43 23 29 33 38 36 54 24 33 40 42 50 51 35 43 23 37 37 31 30 37 35 37 28 20 35 22 39 44 37 23 29 24 42 29 40 26 45 24 27 38 24 50 44 36 34 33 23 38 29 44 28 41 43 31 38 32 33 28 35 26 18 34 66 31 39 52 39 35 52 25 42 55 47 36 45 34 30 32 27 30 38 33 36 20 36 37 23 31 31 23 37 30 49 49 39 39 29 35 49 46 56 33 30 43 48 43 30 43 48 47 35 41 26 22 36 30 43 43 33 26 45 44 51 33 29 26 41 43 33 39 45 33 36 41 27 49 30 36 42 45 36 54 32 26 63 29 32 33 39 20 39 45 46 31 34 52 15 57 29 35 61 30 52 28 27 53 23 37 34 39 24 51 46 22 29 42 44 36 25 29 39 46 32 38 29 42 51 25 44 23 45 31 29 49 31 31 44 32 40 27 40 41 50 30 37 36 36 59 31 41 26 47 40 43 55 50 50 42 23 33 39 26 41 41 39 44 38 55 40 38 23 39 42 21 38 42 43 31 52 53 37 17 41 33 40 52 45 54 23 45 43 17 66 37 42 28 37 43 33 36 62 30 51 33 9 49 40 36 46 50 39 44 58 24 27 43 33 30 62 43 58 48 37 32 40 45 59 49 41 33 54 35 43 31 38 40 39 43 48 30 50 38 24 41 27 37 22 27 34 40 27 57 27 51 33 43 28 38 55 25 45 30 42 37 44 28 44 49 49 48 36 49 37 41 36 37 44 34 26 44 41 34 39 23 37 44 34 22 27 45 23 16 31 44 41 35 37 40 31 37 21 21 41 56 37 44 37 38 35 47 34 43 33 30 30 30 34 36 30 31 30 39 31 48 26 37 43 30 37 43 27 52 48 39 35 28 36 30 34 21 27 23 25 51 34 76 52 47 24 59 61 40 43 45 52 29 26 51 29 41 34 39 48 30 15 16 30 27 32 49 40 49 13 29 26 33 27 39 51 43 33 47 41 33 17 37 48 34 34 30 35 44 33 40 43 26 33 59 47 39 60 32 36 27 36 36 27 46 35 33 44 34 34 37 22 31 41 32 36 19 40 36 37 50 36 43 30 36 37 55 37 22 32 37 33 43 41 29 35 30 35 57 51 44 33 36 36 46 37 40 41 27 31 51 25 57 37 39 37 34 40 26 44 44 39 50 25 43 19 23 27 45 51 37 49 62 39 54 28 22 47 34 44 41 37 32 36 34 37 38 27 37 42 10 32 34 27 45 30 52 44 36 29 25 37 57 26 52 50 40 53 28 44 37 43 40 51 51 36 36 37 43 36 58 17 29 22 52 54 64 37 24 33 44 22 41 32 39 36 48 26 30 23 25 71 41 30 20 40 33 50 53 26 49 38 65 43 32 20 51 29 49 29 25 30 40 31 40 46 45 40 52 33 36 34 22 25 29 47 42 36 62 43 31 26 41 37 44 31 24 47 34 37 47 45 49 30 25 39 30 47 37 30 39 40 22 40 41 45 54 40 31 36 43 37 23 45 36 38 51 41 49 29 25 28 32 33 23 51 36 33 32 29 23 53 36 23 45 41 52 39 29 19 40 48 42 31 45 25 55 50 39 35 40 35 29 64 37 39 24 48 44 44 40 48 29 50 44 24 45 48 46 49 30 43 51 31 30 41 33 39 36 48 29 22 40 53 43 42 19 38 37 36 42 34 43 23 41 37 33 50 36 35 31 31 26 35 40 42 37 49 29 23 29 26 32 10 33 17 28 41 31 40 23 34 33 32 37 40 43 22 30 26 36 33 44 59 44 34 37 45 39 43 47 35 21 31 34 43 33 47 30 34 41 20 35 42 36 37 33 37 32 39 36 52 17 34 33 46 22 35 31 37 46 26 66 43 33 43 34 40 48 34 48 37 31 23 27 51 44 39 39 33 43 43 30 23 46 60 37 21 50 32 51 52 52 62 34 44 31 45 37 37 42 41 28 29 38 33 33 33 61 33 46 54 32 27 23 51 23 33 31 37 41 27 52 45 36 36 48 43 41 29 30 30 30 45 37 26 53 27 38 41 30 33 26 34 53 14 41 42 42 48 40 40 31 20 40 37 37 29 46 37 43 32 40 37 33 14 43 33 27 45 45 47 42 31 33 26 44 49 40 28 43 45 44 28 49 28 40 38 35 27 23 36 46 44 45 23 37 56 36 31 31 19 26 48 39 57 36 40 29 47 35 41 33 34 32 30 43 39 45 40 41 53 28 47 43 35 40 16 37 28 23 43 34 36 49 37 54 41 43 36 37 30 53 48 47 15 36 55 47 40 35 36 29 30 23 48 24 30 30 27 34 35 39 30 49 32 33 17 20 36 23 46 37 40 23 42 53 36 26 52 31 38 26 40 33 30 28 32 39 22 27 26 30 41 26 25 39 43 24 51 62 23 31 34 57 49 45 25 45 26 41 40 41 40 38 35 42 20 40 46 25 24 46 29 24 51 30 23 40 31 46 40 40 41 41 29 39 51 45 30 48 47 42 33 44 29 22 47 42 36 9 33 45 23 22 34 25 47 44 40 32 41 28 41 29 50 23 30 32 43 32 16 29 44 46 38 45 49 42 44 32 33 40 30 40 44 37 33 24 58 29 46 19 37 27 51 46 44 43 20 42 37 37 28 44 46 48 40 45 33 16 43 52 37 49 34 51 47 41 31 31 35 41 33 51 41 37 29 37 44 51 42 39 35 33 17 43 30 51 30 25 33 30 37 30 46 41 48 20 37 34 37 47 38 37 31 43 47 40 37 51 40 40 45 42 48 44 45 33 37 41 50 24 38 47 22 33 32 41 34 39 34 32 24 38 36 40 40 35 41 29 36 36 27 29 51 26 47 54 41 24 52 26 41 34 47 41 38 49 26 25 21 43 48 49 34 33 44 27 44 36 44 42 45 54 28 34 48 45 45 37 54 43 40 40 45 51 27 30 39 31 48 41 33 38 55 34 19 29 44 39 43 42 45 35 44 46 36 39 44 47 33 39 45 61 31 37 43 40 35 26 35 25 33 37 24 37 55 33 42 40 29 51 34 34 46 41 36 43 21 39 45 59 27 30 45 29 44 30 26 37 34 33 40 22 35 27 32 38 33 40 13 33 58 31 19 48 33 52 26 53 37 51 22 32 23 54 41 51 35 34 29 22 37 31 49 28 47 56 30 41 30 60 22 44 23 34 37 47 28 37 37 45 26 41 29 47 29 23 37 29 32 36 34 46 37 36 41 33 38 32 44 26 34 30 41 41 43 23 42 59 44 44 29 36 38 39 34 42 41 31 38 34 33 23 40 44 46 34 44 45 54 33 30 34 40 28 51 56 34 30 41 23 44 29 34 43 48 38 48 23 34 35 37 35 62 33 40 49 58 33 22 26 24 33 43 27 55 54 45 53 41 43 39 31 34 33 36 32 13 34 29 64 52 27 50 37 36 45 33 54 31 46 44 31 41 41 33 36 44 34 29 25 35 32 31 30 27 30 34 33 24 24 30 29 38 38 57 37 33 48 49 25 41 30 34 31 40 26 31 40 42 30 35 37 51 33 33 40 29 46 43 39 35 24 58 38 34 19 27 48 45 27 36 44 37 18 38 46 31 23 40 23 40 51 34 20 51 62 41 34 33 33 15 27 33 42 13 36 25 33 36 35 26 45 44 41 36 45 34 29 26 43 22 43 27 46 50 34 32 48 61 20 45 45 35 55 33 19 34 49 50 36 40 29 27 37 34 56 51 35 40 25 43 33 47 41 27 35 26 39 39 48 10 29 33 31 23 26 33 29 16 36 56 36 29 35 43 44 45 71 16 13 34 45 36 35 51 37 34 50 23 23 35 20 40 60 47 44 24 46 55 51 40 41 48 23 40 19 40 41 42 45 33 26 44 26 62 34 41 30 30 47 62 31 25 51 45 43 29 37 41 47 37 51 49 34 41 19 31 45 48 46 46 29 30 23 37 53 29 39 36 48 30 61 35 40 34 51 31 30 36 23 13 22 37 38 56 32 20 41 49 33 47 31 32 22 35 45 54 31 47 45 36 45 29 32 20 21 40 30 43 41 47 38 43 37 24 31 49 68 40 26 27 36 24 33 33 55 48 37 49 43 23 37 48 38 42 31 27 33 35 38 40 32 37 39 30 47 27 46 52 40 45 44 34 37 37 29 32 37 38 46 34 49 27 38 43 31 38 25 40 26 44 47 47 19 55 16 49 19 45 57 27 16 42 46 33 49 29 56 34 41 25 41 48 41 40 45 51 19 51 30 27 54 27 43 41 45 26 45 26 58 54 44 42 34 46 41 41 37 38 40 22 41 34 47 49 30 29 38 48 41 29 36 57 30 36 26 33 40 37 46 40 39 41 34 35 54 43 31 40 27 37 36 43 32 32 19 35 40 33 41 51 37 31 57 19 34 26 41 40 32 57 51 43 46 52 17 47 37 47 40 36 36 31 43 39 37 34 51 32 45 37 40 48 30 33 23 44 41 44 38 37 29 51 37 48 37 53 24 50 40 37 16 64 20 31 34 22 41 28 39 29 33 43 47 26 50 56 30 58 29 59 44 40 38 48 23 34 44 40 38 40 46 26 39 31 30 33 42 40 35 31 31 31 39 43 40 57 20 43 29 22 59 34 40 43 37 43 31 47 48 53 37 52 36 29 48 43 36 29 23 31 34 32 23 28 23 56 39 47 41 33 37 37 45 47 30 34 48 35 31 54 35 28 37 37 34 52 34 37 29 54 33 31 32 16 48 52 39 33 44 29 45 40 26 26 63 37 48 41 30 41 36 50 26 37 49 41 54 31 57 43 27 33 43 42 23 51 35 31 44 23 44 69 45 28 37 34 39 37 38 36 29 31 37 37 37 41 44 40 38 35 33 43 24 49 45 50 35 44 40 45 40 32 52 31 44 38 37 27 39 20 40 37 37 54 43 45 45 46 43 42 24 38 38 33 48 31 49 33 58 49 41 35 29 27 37 49 67 29 27 43 31 23 43 33 37 31 41 31 45 47 37 24 36 43 77 54 51 39 40 40 30 34 30 29 39 37 51 41 43 29 33 38 27 35 40 41 33 44 19 25 27 27 24 17 29 43 39 37 25 30 25 25 33 31 29 31 44 50 34 26 29 40 40 34 40 38 27 33 38 41 28 43 34 38 30 27 47 29 25 44 29 24 38 41 41 34 29 24 46 36 52 37 50 40 30 24 39 47 19 50 29 30 22 37 29 25 44 41 27 30 40 39 45 33 52 34 29 26 36 29 55 34 45 27 24 55 38 31 54 27 27 40 27 37 51 37 43 38 44 42 23 37 23 41 30 27 43 30 26 39 38 29 36 56 26 32 34 53 58 23 10 29 34 33 37 41 27 22 29 61 53 23 50 37 15 27 38 45 44 33 41 37 43 47 50 31 33 35 26 46 44 53 47 23 48 41 45 43 42 35 45 32 43 44 35 41 22 36 23 42 37 26 42 24 59 43 30 43 26</t>
+    <t>NIG(22.411154096589172, -1.9568786883128677, 1.1806007107489793, 55.25066121623027)</t>
+  </si>
+  <si>
+    <t>-7 3 3 6 -10 -7 11 -15 0 -11 -5 -10 6 3 -2 -3 -23 29 20 3 -8 3 14 -14 -6 -10 -7 6 -30 -14 1 7 -3 39 17 -7 17 -10 -15 3 -3 -6 6 0 -25 -3 -14 4 -10 7 -15 12 10 -17 9 13 2 17 -10 -9 -15 7 -5 -14 20 12 -10 10 3 -10 -13 6 14 -9 -31 -6 -5 -28 -4 -7 -23 -20 4 -13 -29 7 -10 -7 -4 0 5 -3 7 -4 -8 -4 10 -23 11 -6 -3 4 -10 3 7 -10 2 6 -19 -1 1 -10 -18 -3 -9 3 -17 -22 18 7 -15 -14 9 -41 -9 -19 -17 -18 16 -8 14 -17 8 6 -1 0 9 5 -4 -2 -1 -10 4 -11 -4 10 -17 -6 -13 -1 -8 -3 -5 -9 -13 -5 -25 5 -7 8 -4 3 -7 -7 7 -28 17 -10 -24 -3 -16 -3 -6 -7 13 -4 -23 4 -21 10 3 -16 -14 17 -28 -17 -13 -12 12 -13 3 2 -21 -3 3 2 -7 -10 -23 3 5 -7 -3 -14 -26 4 11 -9 -13 11 -7 8 7 -28 -3 -13 3 7 -3 22 -10 -33 2 7 -2 -24 11 -7 -3 6 -6 -17 -17 7 -9 -10 10 -7 3 -7 1 -6 -4 -3 3 -6 6 3 -3 11 9 2 -10 20 -6 -5 -13 -12 -20 -6 4 3 -26 -17 -7 -11 -15 -3 4 7 -7 -9 -7 3 13 9 9 -8 -7 -31 11 -7 7 -3 7 5 -6 -27 6 11 6 9 -11 -17 16 16 4 -7 16 -20 -24 -7 -3 -24 -3 -19 -16 -6 9 -31 3 -6 2 3 -34 13 -14 -7 -7 16 -11 -4 -2 -24 -10 9 -14 3 -23 -5 -2 17 -29 -3 -28 -31 -5 11 4 -1 14 -11 -10 10 -15 -6 15 8 3 -38 -16 11 -6 -14 -16 -14 -9 -7 -13 -21 11 11 4 7 -8 -15 6 -6 -2 -4 -14 1 -3 -17 5 -7 1 6 -24 -4 9 -3 3 -10 -3 -1 -7 -25 3 -10 7 -17 4 -4 0 -3 -14 3 5 -21 3 -11 10 -3 3 -6 -18 -17 -4 -6 -14 17 -17 -10 4 -10 -17 -4 -7 -4 2 -1 -11 -5 6 -13 -42 3 7 13 -5 -18 -11 -4 -10 -14 -25 -28 -4 7 -6 7 -3 3 -5 -21 -4 -27 6 3 -19 5 8 5 -25 4 -21 -7 -9 -10 -3 -10 -11 -6 22 3 -12 2 3 -4 -14 7 -14 3 3 -2 -38 17 -9 -7 -26 26 -14 -24 -8 -31 13 6 -7 -13 -18 17 -17 -7 14 4 -3 3 -2 2 -3 5 -5 -31 5 -3 -24 -1 -10 -9 24 9 -11 3 6 3 -5 12 -19 1 -12 7 4 -10 -6 4 -6 -20 -1 -13 -3 -3 -28 11 13 -13 -1 -5 -3 -11 -7 2 7 6 -5 8 -25 -13 3 19 2 24 -21 -5 -14 -6 -19 -15 -14 -1 18 -23 11 3 2 11 3 -9 3 7 -8 -17 -6 7 6 8 -7 -6 7 -10 -10 3 -8 11 14 -4 -17 -3 3 -7 4 2 -4 6 -10 -14 17 11 -14 11 12 -1 -8 -1 3 -1 -10 -20 -1 8 -10 20 3 -16 1 -18 3 17 -10 -3 -7 5 21 9 -2 18 -10 4 -4 18 -2 -21 -24 6 -19 -4 6 -1 -3 -21 -2 2 -4 12 -6 -4 -10 -8 11 -16 -8 -3 -24 -15 -5 8 4 -9 3 7 9 20 7 -13 -17 -7 -16 -19 -5 -17 -7 4 5 -12 -21 -17 -10 -11 13 -11 -27 -8 4 21 -3 5 19 9 -17 -3 9 4 7 3 7 -18 -31 4 9 17 -18 -4 -17 -12 -6 2 -3 -24 -3 9 -8 3 3 0 -14 3 -1 3 -4 -15 -8 2 -14 -11 11 3 10 -14 -3 6 14 -4 -1 7 10 -41 4 -12 10 10 -4 3 28 17 17 10 9 10 -14 -13 9 6 3 10 10 14 -10 -10 6 -24 -11 -38 6 -11 7 -24 11 15 -3 -8 -17 8 3 10 21 -26 -3 -18 -20 -7 -11 -2 7 -5 4 7 12 3 -8 -13 14 7 7 -15 -33 -21 -18 -34 -7 -18 -4 -14 -13 -3 1 -21 -4 -28 -12 -34 4 9 -3 -3 -18 -8 -9 -3 -35 -4 -7 -14 3 19 7 -3 6 -13 -15 -14 6 -20 -5 -1 3 -10 3 -21 -6 9 7 -18 -6 -5 3 -17 -17 -9 4 -21 -8 3 3 -4 -14 13 -20 -26 -8 14 -9 -11 7 17 21 1 -16 4 -22 -6 -9 4 -24 7 -17 11 12 8 5 -21 -20 -8 -13 7 2 -23 3 -7 14 31 -21 -4 14 -6 6 -4 20 -3 6 -10 -14 -10 14 4 2 -3 -14 -17 -6 3 -3 -21 -14 7 4 -3 7 23 11 -11 -3 -8 4 -10 -4 -17 5 -3 -17 -3 -8 -2 -15 -3 2 11 -13 9 -3 -6 -10 -15 4 -13 -6 -10 -6 4 -5 -6 4 18 -7 -10 -12 -3 -20 -2 7 -12 -6 20 -24 -3 -15 -6 4 -7 11 6 -18 -3 -7 -10 -9 -9 -15 -13 3 -21 14 3 -10 -22 -12 -8 -6 -4 1 -6 -6 3 -20 -11 -6 -13 5 -3 3 -22 -13 3 -13 -14 -16 7 -14 -4 9 -22 7 -3 -3 3 -7 -5 -16 -6 2 -4 4 14 -15 -20 3 -11 -19 -7 -6 -9 19 11 -1 -6 -7 -3 6 5 -17 24 14 6 -5 7 -17 -7 9 -18 5 -17 17 -6 -11 11 -4 0 10 13 -19 -17 -6 -7 -18 14 -6 -8 -11 -12 14 2 -11 -6 -3 -7 9 3 6 -8 -5 -2 3 4 -20 -11 6 -10 1 -4 -16 3 2 -3 12 6 -4 -8 3 -7 0 -11 -3 -14 -6 -15 -21 -11 -3 17 -7 6 -18 14 -3 -2 1 7 7 -22 -1 -11 -4 -8 -24 -6 15 -14 10 -4 -28 -7 -8 -9 -10 -20 -9 14 12 -12 -24 6 33 -3 -16 1 -8 -10 -10 10 -14 3 7 4 -25 -13 3 -1 6 23 -18 -11 8 10 -12 -8 -7 14 -9 -17 -3 3 17 0 -32 3 -4 3 -10 18 -8 2 -1 -10 7 -21 6 12 -1 3 6 3 -2 12 17 -6 -15 19 10 2 -13 -6 -25 3 3 -7 -14 -3 -1 -6 -11 -17 -15 -20 6 4 -15 -3 -6 -21 -4 -1 3 9 -3 -11 -6 -3 15 18 10 -3 4 -17 7 10 20 -5 -10 -3 17 -17 2 -10 -17 -17 8 -24 -6 25 -18 1 -7 1 -18 11 -3 3 9 3 -3 -10 4 -3 2 -16 -17 -13 -3 7 -6 -14 3 1 5 24 -9 -16 -14 -4 -10 -6 6 -25 3 -8 13 7 -9 -7 -11 6 3 -13 -1 10 -19 -9 -14 7 -34 -3 -15 7 -19 -17 12 0 -9 3 4 -11 6 3 -3 -21 -28 -16 -18 -9 -3 -26 11 26 -3 3 5 5 11 -28 -12 -7 3 1 -17 2 -4 11 -7 -17 -13 -4 -5 -22 -3 -18 -22 21 -6 -4 11 6 -18 4 0 22 -11 -10 -38 -22 -7 -15 6 -2 -7 -16 -13 3 6 6 -5 7 -7 6 11 -14 -3 4 3 3 -5 -7 3 -21 -8 -7 0 -1 -6 10 -7 7 1 3 -7 3 -15 15 -13 -4 0 -8 5 6 6 -5 -6 5 10 -19 -10 -11 -17 -8 18 -18 -23 -2 -3 3 -15 11 -15 -10 7 12 -3 -4 4 -17 -14 14 13 -19 29 -7 -7 -1 6 2 3 -14 -8 -11 -25 17 -10 15 11 -13 -4 3 1 -2 12 8 5 11 3 25 -13 0 -21 -8 -3 -6 -3 10 15 -20 5 4 17 3 -6 -3 -20 -6 -20 17 -10 -24 -10 -5 16 -18 7 10 11 10 -13 6 -7 -21 -1 -6 2 -27 12 -14 2 7 -17 4 -25 -7 -3 3 -8 -4 24 -18 3 -10 3 24 -4 -7 21 -3 -25 -6 6 1 8 -1 -18 -6 -4 -7 -17 6 17 -6 8 3 -3 -17 14 6 17 -20 -28 7 -10 3 -4 -13 -7 7 -3 -21 -10 -14 -3 -25 -5 -9 6 8 -13 1 -20 -10 -12 11 3 10 7 -1 -17 6 10 3 -9 -12 11 -8 13 1 -11 -10 -23 -24 -6 17 -3 -13 -6 -6 -3 3 3 -1 19 -3 -6 -19 -3 -26 11 -1 7 4 6 3 -8 -17 -3 -14 -4 -4 -10 -6 -35 -3 20 8 -21 -8 2 -5 15 13 13 -2 -3 7 -7 18 -7 11 -18 10 2 -19 -30 -14 3 14 10 13 -1 -4 -19 7 -5 -22 -15 -7 -7 3 5 -21 -27 -3 -3 -7 4 -11 -6 6 3 3 0 3 -27 14 -8 -13 -3 -22 3 -4 -3 6 -4 3 -6 4 -22 11 -13 3 3 -3 5 -5 16 -15 -7 -15 0 -14 14 -3 -6 -7 5 -10 -28 -14 3 -11 4 -5 -8 -19 15 -9 -3 6 -19 -5 4 -28 -7 -5 -3 3 -8 -8 -3 -17 -21 -6 22 6 -15 10 0 4 -15 -6 -15 10 -4 7 10 18 -7 28 -10 14 14 -2 6 -3 3 7 10 1 -7 -5 -17 25 5 7 13 11 14 -5 -7 10 4 -11 7 -3 -20 -21 -15 -19 -5 -3 -10 4 -11 -7 3 0 -3 9 -18 -3 -10 -14 -8 -13 0 8 -21 -9 19 -3 -17 9 7 -15 -6 -14 -8 18 -35 -11 -10 2 11 3 -3 -5 -15 -3 -10 -14 6 -1 -11 -8 -3 -7 -9 5 -9 11 4 -4 3 2 -7 -10 -15 14 21 6 3 -12 7 -10 -6 4 -2 -2 6 9 -7 -8 3 -7 -27 -17 -24 -14 -3 7 -5 -13 3 -4 12 3 -9 -20 -29 -18 -3 -9 -8 28 2 -15 11 -1 -14 -18 7 -14 -2 2 -2 -18 -15 -1 -2 -10 6 -20 3 3 -4 -7 -3 -14 6 -21 17 -6 -1 15 16 -4 -14 -18 7 -27 -5 15 20 3 5 7 10 -2 -13 -6 -21 -4 6 -3 9 -8 -4 -18 6 -9 6 -11 -6 -6 8 -17 8 -6 3 -39 -24 -18 4 -11 -25 6 -4 3 -14 -8 -9 -3 -1 14 15 -3 -11 -22 -12 1 3 3 -2 -18 -1 5 -16 5 -14 5 -3 -11 6 -8 -4 4 26 3 -4 -14 11 -2 -11 15 3 -15 -6 4 -3 5 -10 2 -18 4 3 -5 -18 -3 -1 1 -3 1 -4 12 3 -6 -14 -21 -11 3 -13 7 13 -6 3 -3 4 -10 5 3 13 -3 -3 4 -12 -3 -3 5 21 -7 -2 -21 -6 13 7 4 -10 -11 -8 -11 3 7 3 11 -10 -7 -3 -19 -8 -2 7 2 -10 -17 -24 9 -10 -3 -14 -1 8 -21 2 -18 -5 -13 -12 -18 9 12 -4 -13 6 -24 -21 -9 -5 -3 -32 -12 -25 -3 -31 -4 -15 -9 -4 -20 -10 6 -4 -1 7 -7 -20 3 -12 17 10 -7 -7 -11 -14 -8 5 -17 -9 3 -4 -8 -7 3 -13 5 3 5 9 9 3 -6 9 -12 6 -3 1 -14 -4 -4 -5 -3 5 -1 6 -3 3 4 -3 4 -11 -1 3 -2 -7 3 -21 -30 3 -8 -8 -21 -17 -11 -7 2 -14 -7 -21 -16 -7 31 -7 -13 -1 3 -34 3 10 -7 -5 -3 -1 8 6 5 -16 9 -1 -7 -3 8 25 11 -3 -2 -11 -14 8 -6 -14 -20 -10 -7 -3 -10 5 -10 -11 -19 -6 -18 -2 -3 0 -25 6 -10 -6 12 3 -13 -6 -9 -20 -24 28 -9 -5 -3 -34 -4 -35 -10 -22 25 4 -8 -12 -13 -1 -4 -10 9 -7 -4 7 6 -4 8 3 -4 -18 -3 6 3 -21 6 -9 -8 -3 -24 6 -7 3 3 17 13 6 -7 -7 -4 -10 -4 23 -12 13 -3 -2 0 -21 -10 -6 -4 -8 -10 15 -18 -6 -13 2 8 -4 -1 -7 5 -18 -17 -3 6 17 -7 -14 11 6 -11 -4 -44 7 3 -10 -11 -8 2 -5 -3 3 -7 -9 -11 -20 3 -7 -6 -6 3 -3 8 -7 -10 3 9 -8 -4 -18 -15 14 26 -10 11 6 2 -11 11 11 25 5 7 -10 0 -10 0 3 11 -4 -5 -7 -2 -15 3 -9 -16 0 6 9 -7 -31 6 -7 3 -17 -19 -6 10 -6 3 17 -9 11 5 -12 18 -22 -19 13 -6 -32 13 -1 -21 -30 -7 -9 -1 4 31 -21 5 -20 2 -3 -17 -16 -27 -18 -23 14 -18 -3 -16 -14 -9 -8 -28 11 -4 -2 -7 -26 6 -13 -6 -6 17 6 19 -10 -14 -24 -14 -5 17 -16 -22 3 1 2 -3 14 -3 -5 5 -5 1 3 -7 -4 -7 -20 -20 8 8 15 -3 -28 -7 5 -5 -29 14 -35 3 11 20 -15 -7 -7 -1 -16 -12 -13 -15 3 -1 -10 -5 -25 7 -2 -14 -24 -20 -10 -4 -22 -9 -4 17 -35 -18 -2 -11 -9 -37 -10 -4 -12 -14 5 -10 -31 -10 8 -3 -5 -14 17 -14 -5 -3 -12 1 13 8 -31 -10 11 -18 -1 -15 3 7 -15 3 3 -25 5 -15 2 -7 -6 -4 7 -28 -33 17 -15 -17 -14 6 -13 -1 3 -29 25 -11 -3 -8 6 -4 -4 3 -9 -1 5 13 4 6 16 -20 3 6 8 -7 -23 -6 3 -23 8 7 8 -18 18 -17 -15 -14 -4 -4 -11 4 3 3 6 -9 -3 7 -3 -16 -19 -5 2 -6 -3 -3 3 3 3 -15 5 -24 -8 2 7 17 -17 3 3 -4 11 7 -17 -6 -23 3 -17 6 -11 6 -17 2 -4 5 3 -4 -21 -27 -6 5 27 -5 -1 7 -4 -5 -14 -3 -14 -8 -18 13 -3 -1 -3 -31 -9 -28 2 -6 0 -15 -9 -17 -11 18 5 -3 -18 -20 -15 -7 7 -3 -6 6 20 -1 14 -19 -3 11 -3 -6 20 -13 -3 -17 -14 -14 -14 -21 -11 -3 -12 2 -24 -8 -6 -5 -1 6 -30 -5 -6 -9 -14 2 0 -15 17 -1 -21 -7 7 5 -17 -3 -15 4 -24 -8 3 -13 -3 4 -1 3 -14 -15 -6 -4 -8 5 -26 -3 3 -4 -3 -8 -12 -27 7 -11 -3 6 -2 -3 10 6 5 -4 -11 -2 -25 -2 -15 6 35 -10 -14 -13 11 -17 -5 -2 15 -18 3 -10 -3 -10 -22 3 10 -3 4 -3 10 -7 -3 6 2 5 -3 6 7 -3 3 -25 -11 -3 13 17 -19 14 -7 -20 -1 -31 0 -4 4 10 17 -6 11 -4 8 3 -20 -17 12 4 -7 -12 5 -24 11 -16 7 10 -28 -20 3 -14 -18 -3 -3 -8 -14 -6 3 -15 -4 -4 1 -1 -4 -3 9 -5 -19 -11 -21 -14 -11 -14 12 -24 5 -18 -9 3 27 -7 -17 28 -14 -18 3 -5 -35 -7 5 -6 10 6 -4 0 -16 -8 -3 -9 -10 -24 -11 -3 -10 -15 -6 0 -10 -3 3 -1 2 6 -6 -7 3 9 -7 -4 3 -2 -8 -2 0 -7 7 -8 -20 -9 26 -7 12 -9 4 -18 4 -7 -3 3 -6 -10 25 -13 -19 2 6 -6 7 11 -14 -7 13 -4 -6 -6 7 -6 -6 -8 -22 7 -31 -2 -4 -8 -4 6 -13 -14 -11 -9 -29 -19 -24 25 3 -20 3 -23 1 3 -14 -3 8 13 -27 -4 13 -13 7 -9 -10 -23 15 -10 -22 11 -15 -4 10 -2 6 -3 12 11 -29 -3 3 -11 -3 -3 3 -32 -8 1 4 -17 16 -12 -25 -30 -7 12 -7 -2 -14 -38 -4 18 -22 -18 -6 -3 6 -9 -11 20 -21 19 -8 -4 -4 1 -15 15 -37 -1 10 -11 6 6 5 -4 3 -12 -11 -1 8 -5 -4 -7 6 -3 -4 17 5 -3 -21 -18 -8 20 -8 18 -19 -7 -21 -23 2 -3 -19 -11 -5 -8 -7 -3 -6 10 6 -14 4 -3 3 -4 -13 3 -25 7 -7 -1 -17 19 7 15 5 13 -5 10 -38 9 6 3 -3 13 6 11 -10 6 -3 -22 3 1 -8 -14 -6 -12 -7 -3 -30 -13 -3 -7 5 -16 -10 -11 13 6 5 -1 6 -4 -6 -7 -17 -4 -8 -4 9 -24 7 9 21 -9 -6 -5 -3 -21 19 -8 11 -14 -5 -5 21 8 2 3 14 -3 6 11 1 -18 23 -26 -11 12 6 10 3 -3 -4 13 -16 -2 -9 -4 2 -3 2 -4 0 -21 -9 -3 -19 21 9 8 -25 -9 -6 -25 -14 14 3 -12 -7 -3 9 3 -9 -5 5 -17 17 -24 -5 7 -6 3 -7 -9 -20 3 -5 -16 -14 -9 -7 -4 3 -8 -6 -14 3 7 -16 -28 6 -11 -31 10 8 -3 13 -20 -17 -5 -11 -20 -5 -8 7 11 -2 17 4 1 -8 -11 3 -12 3 -3 -8 -5 6 -11 5 15 19 1 -7 -25 20 -17 3 3 14 1 -3 -24 18 -14 -3 0 -15 -14 -7 -3 -9 11 -4 11 21 -18 7 -31 -2 -31 7 -14 6 -15 3 4 -5 -31 -14 -10 -3 -17 4 -27 -18 3 6 -7 -9 -6 -21 13 -15 8 -3 3 -11 3 -7 -18 -3 -7 -3 18 -12 5 7 14 -6 -7 -28 2 -8 -7 -10 7 -6 -5 -3 -3 5 -20 -8 -17 13 2 -6 11 -3 1 -7 13 -11 4 3 13 -7 8 -31 3 6 5 1 -11 -23 -18 -3 0 17 -31 -8 7 -3 -9 -3 2 -18 6 -17 3 -4 -7 6 -22 -6 -21 -22 6 -7 -7 -7 13 -1 2 -11 -6 -8 -7 11 -7 3 7 24 -5 -5 14 -4 -3 -35 -11 -17 1 -15 3 7 -12 -20 -3 -15 21 3 -8 -5 -24 7 4 7 3 -3 -3 9 2 -13 24 -18 17 -6 3 1 6 -8 -35 -11 -14 3 10 3 -10 20 3 -4 11 -4 -18 -14 4 -3 -3 -3 1 -20 9 -20 -4 -13 -17 -7 14 22 -23 6 6 3 14 -6 -19 -2 14 -11 3 -27 -20 -18 -1 -7 -29 -14 -6 -14 -32 10 -14 20 -7 3 -17 -3 -11 -24 -3 -9 -3 -13 -18 -4 7 -4 11 3 -37 7 -21 -5 1 -3 11 -15 -22 3 -8 -21 6 -13 -12 12 13 -3 -10 -11 0 -14 -7 7 -3 3 -15 -2 -17 -25 -7 10 -4 -1 -14 -18 18 -17 -4 -8 3 1 8 10 10 -1 3 -4 -24 -5 -25 -21 7 -13 4 -14 -20 -4 -7 7 -11 -4 -2 -1 -14 -20 -10 -31 -4 -4 -14 -9 -2 -3 -14 -9 10 22 -4 -3 -8 4 6 23 10 5 14 -11 -20 -8 10 -3 -28 14 -15 27 -11 -17 3 -13 -13 -17 -10 -10 14 -27 -6 31 -7 29 -4 6 6 -38 2 -2 -2 -28 9 9 -5 3 -6 13 -7 1 11 -19 -4 17 11 14 -25 3 -5 3 11 21 17 -11 -3 -3 6 -6 -22 18 36 -2 -25 -6 -3 14 10 -7 -4 4 -3 -20 -16 3 -30 -11 5 -3 -4 -27 -14 3 -6 1 0 -6 6 -7 -4 2 -1 -3 -7 -3 -7 6 -25 -11 -7 -6 3 22 -10 6 -18 6 3 3 -3 7 6 -11 -3 -24 -7 -1 -4 3 -11 14 -14 -22 3 -23 3 -12 4 -3 9 -13 1 -3 -17 -15 23 3 -11 16 -8 -6 -18 -23 3 -3 -15 -5 10 -34 -11 3 9 17 1 -5 -12 -18 -17 7 -17 -17 -2 14 -18 7 6 3 3 -7 -3 -1 -4 -14 -6 10 -3 2 1 -5 -3 -5 3 -31 -3 -8 -11 -2 -4 5 7 -1 10 -30 -13 8 14 -4 -9 -15 2 -3 -10 -8 -5 5 -16 -11 13 1 -18 -1 2 -1 -10 9 -9 -3 25 -3 -8 -20 -28 -1 -4 15 -7 -9 -19 -13 -3 0 -7 -3 -28 -17 -3 -16 -5 1 -6 -16 -11 3 -3 2 6 -15 -1 10 5 13 -17 -3 -3 17 -8 -18 -21 -3 3 6 22 -13 -24 12 -18 -16 11 -3 -7 6 8 4 10 11 -3 6 11 -3 -2 -20 -18 -5 -18 -14 -16 -4 -16 -10 -20 -1 11 8 4 4 5 -13 -2 -6 -38 -9 3 -25 11 -1 3 -7 -9 -8 21 -7 14 20 3 7 -13 -3 -10 -7 11 4 3 -11 3 2 -4 -3 -11 -17 -19 -7 -14 3 2 12 -10 -12 3 15 -6 7 -3 9 -3 -2 5 -10 6 -16 -15 -6 -5 18 -5 0 -7 7 -15 2 -19 -8 4 10 -16 23 -6 19 -3 4 1 4 6 -22 7 -13 -3 -14 -11 7 10 4 -3 -6 -3 4 15 4 -10 -4 -3 -21 -9 8 -5 -3 3 -27 14 3 -2 1 -3 3 -6 -19 -19 -5 2 -13 -11 -6 -14 3 -13 -10 -7 -4 2 -7 -10 -3 -6 4 -8 -1 -11 -14 7 -5 -17 12 9 -3 -19 -12 12 -10 3 -6 -3 -23 1 -2 -28 -5 7 -17 -14 -25 -3 -3 -15 -21 23 -5 3 6 -16 9 -12 4 5 -14 3 -11 11 3 -28 -3 -21 -36 -3 17 -5 -3 10 -19 -4 -6 -14 -36 -11 -7 -10 -10 -24 3 -14 -1 7 2 23 21 -6 -4 3 -1 -16 7 1 -9 -14 -4 -14 -31 22 -4 -17 -13 -7 -28 -13 -13 -6 -11 7 -7 22 -16 -21 -11 3 -4 0 -21 -6 -10 -5 -14 7 -21 9 -10 -5 -27 -8 32 3 -14 -5 -2 -10 -28 -5 6 -7 -1 -15 -14 6 -2 -17 -11 -2 -3 -6 -2 -27 -11 7 -6 -23 -32 -16 -7 14 13 -17 -8 3 -8 -4 -17 16 8 -12 -3 3 0 2 -3 3 -5 -18 -3 -1 -4 17 -3 -17 -24 -18 -20 -7 -4 -3 11 -4 -4 -3 5 -6 -17 -3 -14 1 -14 -25 -10 -5 4 -6 -4 3 3 -18 -10 24 -7 -3 3 -6 6 5 -21 -22 -20 -21 -5 -5 -6 -4 -19 0 7 -10 6 -1 21 7 -13 3 4 -8 -24 -12 -3 -3 -25 3 -6 6 6 15 8 9 11 -25 -17 2 18 -7 -5 -12 -10 -10 5 3 -14 7 -12 -20 -2 4 -16 -14 2 -23 6 3 -4 17 -10 3 -12 3 3 -30 -3 -6 -11 -4 -4 -7 -5 6 10 4 -6 3 2 8 -18 -17 -3 -7 -3 -5 -4 -8 -21 6 -16 -19 23 -7 -17 2 -1 22 11 7 -21 -3 -15 -10 -22 -10 7 -15 7 -42 4 -10 -3 15 -17 -13 -9 10 -9 0 1 -4 4 14 -3 37 -7 -13 -14 -10 -27 -7 3 -17 6 -7 6 -1 -3 -17 3 -2 -19 -4 4 4 -14 -35 -9 -3 21 7 2 6 5 -7 6 8 3 -7 10 -1 -10 -10 -9 -21 -10 8 -6 -14 -6 -3 -15 -27 -19 16 -3 -5 -8 -6 -9 3 20 7 -3 -23 -2 11 3 -3 -3 -14 6 -5 3 -8 1 -18 4 -6 2 3 9 -26 5 -16 -34 -3 8 31 -4 -14 -13 -9 -11 3 -9 8 -20 -3 -6 -21 -3 -3 -8 -24 4 3 2 -21 -9 -14 -11 7 -10 20 2 -1 9 14 -4 4 -25 -9 30 2 -14 -14 -13 -1 -1 -32 -17 -1 -7 13 3 -9 10 -3 5 1 20 3 -3 -17 -6 3 -14 -3 -38 -19 13 -13 -1 -15 5 17 3 3 -15 21 6 -3 3 4 -10 -7 -18 -1 8 21 -3 -17 -7 10 3 -24 -6 -1 -2 -7 -14 27 2 11 -4 19 -7 6 -6 2 -16 -1 -4 -6 -4 3 15 3 5 3 -11 -15 -3 -30 3 -11 -9 17 -8 -20 -3 -13 -8 -6 -17 -10 -8 -8 -24 -2 -10 -12 -1 -22 -10 -27 -6 13 -7 3 -5 6 -14 -5 -6 8 5 -7 -3 11 0 -7 3 27 -10 -18 -3 -7 -12 4 10 24 -12 -21 -19 6 -10 -9 -17 -14 -12 -7 14 -14 -10 3 -26 -13 -18 -40 7 -18 -3 -25 -3 -13 9 -24 -3 -1 -1 -3 13 5 17 -19 -7 7 -6 7 -14 -22 7 -1 -3 3 -14 3 -6 14 7 3 -5 -10 -13 27 -4 -38 -23 -4 -3 -6 -7 -1 -3 2 17 -10 -11 -29 -12 -11 -13 -11 -14 -11 3 -6 -7 -3 1 -5 -23 8 -4 5 3 -18 -18 9 -2 5 -14 19 3 -10 -7 15 -17 -21 20 3 12 -5 -3 3 -3 -6 21 10 -10 -28 -3 -4 -21 -20 -12 -4 -21 -6 8 -19 -12 -32 -21 -7 -9 -13 -3 4 -4 -2 -24 -18 9 -3 1 1 -21 -17 13 -12 -3 -11 -3 -21 -11 -17 3 3 -10 -18 -11 1 -6 6 -15 -14 -6 -7 -3 -7 14 10 -3 -6 -15 -6 -6 7 -17 2 -6 -17 -19 -14 7 3 -8 -14 10 -7 -18 13 10 3 -22 19 -3 20 -3 -12 -7 12 -7 -4 -21 -1 -3 -6 14 -13 -3 -24 6 -17 -7 13 -1 -28 -3 3 -10 -8 -8 -3 -3 10 5 3 -11 9 -21 10 -4 12 -14 -15 -2 -6 -12 -8 3 -17 3 3 -16 12 7 -14 3 -5 2 -9 -11 3 -1 -18 -3 -4 13 -6 12 16 -2 7 -3 -5 8 -28 3 3 4 -19 -8 -10 -11 -5 -6 -23 -11 5 -21 -4 -3 -19 -7 -6 -3 -35 -6 -21 -13 -3 -1 -20 6 5 -13 18 -10 -8 -7 -7 -10 -8 -3 -3 -8 -17 -16 -3 7 -6 -11 -6 27 6 7 17 -2 14 -13 -10 -9 -20 18 -6 -8 -1 4 -22 1 -8 9 -4 18 5 3 -17 -3 -3 -27 -1 -4 -9 -16 -3 -4 13 -8 -5 -3 -1 -3 13 -10 -14 5 -4 3 5 -4 -11 3 2 -3 -9 8 -7 -6 -18 -3 -3 -23 -4 -13 6 -2 11 -17 -20 -6 5 -9 -3 -10 -3 -8 1 -32 8 -17 -2 10 -7 -7 6 -8 3 -6 5 -11 -17 -5 -10 16 -12 -5 -6 7 -6 6 3 7 -27 -14 12 -6 -1 2 6 6 16 -10 20 -7 -6 -23 -7 7 5 -11 -24 -7 8 -9 6 -14 -32 -18 13 -27 -6 7 -1 10 -11 5 -18 4 10 -3 -3 -6 3 -3 -20 13 -6 -1 -17 11 14 6 -7 -7 1 -34 -8 8 19 -8 -5 -10 3 -24 6 15 -1 -4 9 -7 27 -7 3 -4 -21 7 -9 1 13 -6 14 5 -3 5 -1 -19 -16 -31 17 -3 2 -17 10 15 3 -3 9 -4 8 -10 -3 -7 27 14 2 -4 -4 14 16 -3 -13 -3 11 16 -12 -3 -21 -2 3 -5 18 -31 -7 3 -4 12 3 -18 -14 22 -27 -9 -11 -7 11 -28 -12 6 -12 -13 -1 -7 9 -15 -1 -14 -11 -21 -9 9 -12 3 3 2 -8 3 -14 4 -9 -11 -17 -6 -6 7 -24 9 3 -7 -15 -6 1 17 12 -14 -21 -5 -14 11 7 2 -6 17 2 -10 -20 -1 -8 -4 -4 -30 -16 -12 -11 3 7 -1 7 -19 -2 -17 3 -10 -27 9 -1 -4 -11 -20 4 15 -3 1 -27 -8 12 -3 -21 -28 -15 -9 -7 -3 3 -14 -11 3 -17 2 -3 -16 -3 -16 -6 5 10 17 11 7 -3 -4 -8 -11 -28 -11 -7 0 -3 -4 -5 -12 -21 -15 -10 -23 10 7 -7 -13 -13 -7 -11 -13 -7 10 -6 -14 -6 -2 -14 -17 -31 6 -2 1 -3 -11 7 -28 -3 5 -6 -13 -11 -10 -7 7 -7 7 -22 -14 -14 14 -3 -24 -4 -8 -31 -9 29 7 -7 3 -7 -28 6 10 3 -2 17 6 12 7 2 -4 13 -2 -14 10 -33 -8 -1 -9 -18 -3 -20 -27 8 -12 -10 -12 -10 12 35 -4 6 -8 -5 -21 -8 -4 -21 -20 16 7 -3 -31 -6 -10 10 3 3 -9 15 14 -7 3 13 12 11 -4 -3 -17 -17 -4 -1 -3 -7 15 -1 0 18 8 -12 -8 -14 -11 -3 -6 6 -4 -5 -6 -18 -3 -5 3 6 -7 13 -3 -23 7 3 -3 -35 -11 16 -15 -10 7 -25 -38 -15 -3 -5 7 -9 -8 24 -3 -14 14 -18 -22 0 -17 7 6 3 -3 -6 -13 -14 -16 -7 -17 -21 -30 -10 13 9 10 -10 -3 -3 5 -12 9 -14 30 -15 -4 5 -4 -21 3 -5 -12 -5 -7 -8 5 13 2 2 -34 5 -8 -7 6 24 -7 -12 -16 -11 -14 -24 16 -3 -17 -10 -10 -24 6 20 -25 -17 -3 -14 -3 6 -2 -4 14 15 4 -14 -22 6 -27 1 12 7 3 3 -11 11 15 -7 -7 -12 13 -3 -7 3 -7 17 -1 20 -18 -5 -3 16 -4 17 3 -7 -3 -6 8 -21 -17 2 -6 -16 -10 -13 -16 -4 -17 -10 7 -14 -21 7 -15 12 -7 10 7 3 -17 -17 -1 14 -2 -11 -5 -8 -8 -3 -6 13 -13 3 6 -4 4 -14 -3 5 -3 -4 -1 11 -3 -14 2 -5 -7 7 10 17 -15 -17 -20 -3 11 -28 -15 7 13 -3 10 -7 -4 10 -6 1 3 4 -1 -14 -3 5 6 -22 -7 18 6 -4 -11 -9 -20 4 -21 -13 -21 -11 -11 0 11 -4 -14 -12 3 -10 -9 18 1 6 17 9 -4 -3 7 7 7 -15 2 3 5 -4 -25 -15 -3 14 20 -26 -28 6 -11 -10 7 9 -28 15 -4 -22 -3 2 6 -12 -3 -3 -4 2 3 7 -7 10 -38 -27 -15 1 17 5 -3 -13 -1 -2 15 10 -4 5 -1 -1 -7 -17 6 2 -10 17 -6 -4 -6 -7 0 -7 -5 10 -3 8 3 -23 8 3 -3 -15 -1 -7 -29 3 -13 -7 14 -24 -13 -1 -13 -4 -15 -3 -9 -15 -3 -3 -16 4 -7 8 -4 14 8 -21 -19 3 12 11 -6 -10 -3 11 -6 -10 -3 -11 2 6 4 -11 -3 -13 -6 -10 -15 -9 -5 7 6 -21 -3 6 -1 6 11 -39 13 3 -15 -4 -14 2 4 -5 13 -24 -11 3 -9 -7 3 10 4 3 -21 -28 -7 10 18 1 -22 -1 10 -17 4 -21 2 14 4 -7 -13 12 7 3 -2 35 -22 3 -4 -8 5 -7 -9 -23 2 12 -13 18 9 -11 -6 17 -6 -3 -7 5 -30 -12 -17 9 -14 6 -9 -10 -6 3 -3 -9 5 -14 -10 9 -13 -6 17 10 17 3 -7 3 -3 -7 -19 -7 -10 -8 10 -3 6 -17 -4 -1 -2 13 -6 15 8 -10 3 3 16 1 -9 -9 3 9 -15 -3 -4 3 -3 -9 5 -10 5 -6 -22 7 4 -22 6 -14 2 6 -14 3 -6 3 -4 -14 2 4 -5 6 -9 -3 -18 -7 21 -8 5 -8 -3 -20 -7 -6 -8 26 -18 2 -1 -8 -13 5 -1 0 -24 4 -23 -7 3 3 -3 -6 7 14 3 5 -3 -28 3 4 3 2 -7 8 -19 19 4 -8 5 -5 -3 2 3 -27 -3 -5 23 -11 -6 3 -3 -21 7 -3 -15 -8 7 -8 -3 -8 -21 -14 11 -14 17 -13 5 -5 -27 -22 3 -21 -10 5 27 -13 3 1 14 -14 -17 3 21 15 -14 9 3 -8 7 13 -14 -13 6 -5 3 -6 -5 -3 -7 -13 18 -14 -17 4 0 -3 -3 10 -23 -5 6 13 3 -3 -3 -7 -27 -9 3 -23 -3 -9 -24 -14 11 -14 23 -3 -25 -11 -10 -14 7 10 -1 -3 6 21 -1 -4 13 4 -6 6 -25 5 -2 -3 -13 0 3 -21 3 -18 -11 -5 -6 -14 4 7 -2 4 32 3 3 -12 -17 -7 -3 6 -7 -3 -10 -14 -4 8 -16 11 17 8 -8 -7 -1 -6 -21 -3 -6 -10 -3 -28 3 6 11 -14 -1 15 3 -18 7 -4 2 -24 2 -10 -6 3 -5 -5 -7 -3 -7 -7 -18 -17 3 3 -5 -20 -9 9 6 -3 -4 -10 3 -13 10 -4 3 4 -14 -18 -18 3 -24 -13 -4 -7 1 2 -23 -23 8 3 -3 -15 3 -4 -6 6 6 -15 -41 -8 -3 -7 -3 -1 3 4 -8 -3 3 -40 -11 7 -3 -3 14 3 3 6 -13 -1 -2 -13 3 13 -21 -13 5 4 4 -13 -10 -3 -17 -7 -6 -6 -11 -22 -14 -13 -14 -3 -1 8 5 -30 -13 9 -6 9 3 3 -1 -13 -5 3 5 14 -2 10 -5 -20 -3 8 -3 8 6 17 -13 -9 -2 3 1 9 11 -23 -3 4 5 -8 -3 -6 6 -6 -15 9 -15 -4 8 12 -6 -8 7 -10 2 10 -13 -19 -5 -7 24 -11 -8 -14 -8 10 8 -14 -4 -6 -24 -11 8 2 4 -3 10 7 4 5 -21 17 -10 -14 -7 6 7 -12 2 -6 -30 9 3 17 11 -15 -7 -18 6 -21 -4 -4 -11 -13 -7 3 -20 10 -3 8 -13 24 -7 -17 -6 11 -4 14 -18 -8 15 -18 -18 -6 -3 -5 -3 -1 -3 6 -1 13 -5 -6 2 8 -29 8 -11 12 4 -7 -6 -3 -6 6 -3 -23 3 -5 -14 -6 -8 14 -4 -14 -10 -2 -6 11 23 7 -3 -6 -6 1 18 -13 -3 4 -8 25 4 -4 21 13 -4 -6 -4 3 24 -18 -8 -7 -10 -9 3 -31 -10 3 10 -3 4 -24 26 -14 17 -13 -7 7 -10 -9 -8 -7 3 4 -7 5 -4 -7 6 -3 -10 11 -11 17 -8 -10 -3 -7 -4 -34 15 -22 -4 -24 -7 -4 14 -3 -4 -18 -10 -5 -4 6 -13 -1 9 -6 -15 1 11 -3 18 3 -20 13 -15 27 -2 -12 -3 20 -8 3 -3 -4 -5 28 -3 3 3 -15 -6 6 -5 3 1 -15 -20 -18 -2 -14 -24 -10 32 -5 3 -3 -3 -19 -13 4 -14 -9 -21 -3 3 -15 -18 1 24 -4 3 3 8 6 15 4 -21 31 -7 4 -20 -2 2 11 5 8 -11 -10 -10 -13 -27 4 17 -6 2 -12 13 3 -1 10 13 -24 -15 -34 -17 14 3 27 14 8 -3 2 -4 11 3 -22 -12 3 3 -23 -18 10 9 -15 -5 -1 -2 -5 -6 -2 -24 21 -8 -13 3 2 -3 -25 8 -7 -3 -10 -27 -8 -21 1 -5 -5 -3 -13 9 -14 14 1 -3 -13 3 -3 -18 -8 6 -13 -3 -21 -11 14 9 5 -11 -3 -16 11 -1 6 4 -20 -5 7 3 -3 2 -13 -27 -13 -4 5 -22 -9 -19 -21 14 -13 18 6 -14 -2 22 -12 -18 -17 24 -1 -18 -2 -3 5 -27 -22 16 -1 -4 -2 3 -6 -7 11 -3 -12 -3 -20 -3 0 -7 -7 -5 6 -9 4 -14 -6 -7 -27 0 -7 10 -11 14 -3 -20 -4 -7 11 6 -6 1 3 -15 -2 1 -17 -15 -19 -3 2 -5 -7 23 5 9 1 12 -6 7 -10 23 15 -18 -5 -3 4 11 -4 -3 -20 -27 4 -12 -17 7 21 14 11 -17 -10 -22 -22 1 -4 7 27 -9 -10 -8 -9 -4 11 -10 7 -7 3 11 -11 -24 4 -8 -3 6 -3 -18 7 -1 -9 -7 -6 -14 -7 -6 6 -6 -14 -8 -3 -15 12 2 -4 -11 25 6 2 10 2 -7 3 -13 -7 -13 -13 -7 -8 3 -7 -13 -6 3 6 -8 -10 -11 2 2 -3 -6 -11 -4 10 11 -35 -4 -3 2 7 -2 11 -20 -42 -7 -2 3 10 -7 -14 -8 -21 -15 13 -19 4 -22 20 -14 13 15 -18 -3 -3 23 -8 -25 -3 4 -4 -14 -3 -7 -16 -7 -4 -3 6 14 16 -28 -11 -14 5 -6 14 -8 27 -16 -2 17 -14 3 3 -13 -4 -5 -27 -21 -3 13 -7 -19 -8 -4 3 -13 1 5 8 -11 -35 -11 17 7 0 -13 -12 -10 -13 3 6 -14 -10 3 9 -7 -18 -11 -25 3 -31 -2 -17 -3 -6 -10 -7 5 13 6 -24 -20 17 -6 -4 -11 8 5 6 -6 14 4 -1 22 14 -2 -3 4 -15 -3 -14 -19 -6 23 -3 -34 -23 1 -6 -4 -24 3 3 -14 13 10 6 -24 14 3 6 -10 -5 -13 -6 -6 -1 -21 -4 -28 -9 -22 -3 -24 25 0 14 17 -6 8 -17 6 6 -12 -21 -3 -8 9 14 2 -11 3 8 -24 3 -20 9 6 -7 3 -13 -8 19 6 -7 -1 -22 -7 -30 1 -7 17 17 17 -34 6 3 3 -10 3 -1 -28 -7 -3 -17 11 -2 4 -10 -3 -3 -9 -23 -3 -14 2 12 4 -21 -9 -14 -1 -8 -1 -13 -19 -5 10 10 -7 -15 -21 -6 -5 22 -13 3 9 -7 -14 -4 6 -31 4 -6 17 -4 -9 7 4 -10 -11 -6 10 -3 1 15 -6 6 15 23 -6 0 -11 9 -7 -4 2 1 -14 -7 -10 -12 -3 -9 -1 1 -11 9 -12 -20 3 -2 5 7 21 11 -27 4 2 3 -30 -19 -19 -21 8 -6 6 -15 -3 -7 -12 5 5 6 -17 14 -10 -6 6 -1 -14 -26 -7 -4 4 -2 10 0 3 -12 -6 -10 19 -11 8 4 -5 9 -15 3 3 3 -4 -13 -3 -3 -3 1 -3 2 14 0 4 -11 -28 -18 -25 -3 3 -12 -3 -4 -4 3 -10 -3 3 -24 4 -15 3 -3 20 -17 7 7 -11 5 -10 -6 -11 -13 -23 -14 -10 -21 8 7 -18 5 -11 -17 3 -4 3 -1 -25 3 -3 -4 -17 -9 -16 -8 -6 -18 -27 6 -18 7 3 -6 3 -17 16 -7 -17 -8 21 -22 -5 -5 3 -17 -14 1 -11 3 -8 -3 8 16 -6 3 -3 10 27 -24 5 14 -11 9 -3 -9 -3 -11 -11 -6 -25 19 -6 -14 -22 -3 -17 21 -3 -1 -8 3 14 -6 1 -4 3 -11 -4 -7 -14 -4 3 -7 6 7 -8 -15 11 -4 -3 -27 -19 7 11 -17 -14 -11 6 2 -18 11 -4 17 14 3 -17 -28 -4 8 15 5 3 10 -18 6 -3 -3 -1 -1 -5 4 -29 -1 -17 3 3 -15 14 -14 6 -24 -32 -3 -18 -31 6 -10 21 -8 5 16 -7 -8 -16 -18 8 -10 -21 7 -4 -17 -3 -17 -19 -3 3 -6 -15 -7 14 -10 -17 -26 17 -6 -8 -3 -20 21 14 -8 -4 -28 -14 1 -4 12 -6 -8 -5 8 -3 27 -14 9 -20 -3 8 -11 21 -7 -5 5 -6 1 21 7 -24 -4 -6 -9 -9 10 -8 6 -4 -20 15 11 -17 -16 -11 14 -7 -11 -19 -19 3 4 -9 -6 3 18 21 -3 -6 -10 -7 -28 -4 -7 4 14 -3 -3 -1 3 2 -6 7 24 3 -10 -4 3 -4 3 -19 8 -6 3 20 -11 21 -6 -7 -24 -20 7 -3 18 -3 -2 -21 -5 -7 -11 -3 6 -13 15 -2 -14 -7 -6 -2 -16 3 4 -6 -4 -12 -13 -7 11 13 -21 -17 10 -7 -12 3 -1 -7 5 -13 7 -34 1 19 5 13 3 7 3 2 6 -14 -23 -13 -4 -17 9 21 7 -7 -10 11 -7 16 -17 -3 -16 -24 -19 -11 -7 -13 -6 3 -1 11 10 -13 -7 -4 3 -21 -7 11 -1 3 -16 -13 -3 -12 21 -14 5 4 7 -11 -16 -3 7 3 -22 3 -4 0 -8 -10 8 -3 1 -3 -17 -26 5 -3 3 -10 -29 -6 -20 8 6 -11 16 5 -6 12 -3 24 -3 -18 1 6 -4 -4 -19 -5 -4 -14 -11 -7 7 -8 -24 -18 -1 14 6 4 8 -11 -11 -3 -10 15 -14 -6 -9 17 -14 6 -6 -14 -24 -11 6 10 7 -10 -3 -28 4 11 -3 15 2 -6 -19 0 0 -4 3 3 -9 10 -32 6 -15 7 35 21 8 -10 2 18 -6 -3 4 1 7 -12 -4 -14 -3 18 -3 11 -4 -6 -8 3 -11 10 3 2 7 -9 -14 -2 -16 14 -6 -8 -3 3 -22 -5 -11 -7 -9 -4 14 -6 3 0 -18 -24 -19 -18 -13 17 -14 4 -24 -36 -7 14 -3 -23 2 14 11 7 -3 -25 -4 -22 7 1 -15 -4 -3 -18 -1 -3 -18 -2 -24 -5 -3 -1 -11 -11 -3 -31 -27 -14 -3 6 -8 -4 -10 3 -27 -5 3 -17 6 -6 -4 29 -28 8 -17 -8 -2 14 -9 -7 -7 -7 -17 -20 -11 15 -11 -13 -6 -3 5 3 -4 -6 -3 -15 -6 -25 -5 -1 5 -22 7 3 -4 -32 -3 2 -11 -16 -11 -17 -13 9 -11 -8 5 -1 -7 5 -18 -33 9 -4 -24 -28 -17 -3 -17 6 9 -14 -3 -3 3 -8 -9 9 11 -14 12 -16 8 -11 1 -12 -18 3 -7 -4 1 10 -10 -12 -3 15 3 6 5 -21 0 22 -15 -16 -17 -3 7 -21 -13 -7 -7 -3 -29 -23 -11 3 -14 -4 21 -4 -4 14 7 9 -6 -11 -4 17 4 3 -3 -4 -23 3 16 5 13 15 0 -9 7 4 1 -21 9 -5 -10 -7 -13 -15 -1 15 -18 -7 5 -20 9 3 -7 -14 -5 4 -7 7 -15 -7 9 10 18 -4 -11 8 3 10 7 22 -13 -14 17 -5 8 4 -14 3 -8 13 -28 3 14 7 -14 19 -5 8 14 -3 -13 -6 19 -24 6 28 -4 -25 -10 -4 -5 -11 -5 -4 -24 -18 -2 1 -22 -17 -16 -16 -5 11 -6 -18 -1 -6 6 -3 -8 27 16 -15 3 15 21 3 7 3 -4 -15 -6 3 -7 16 -6 8 17 6 3 10 7 -13 -18 3 -10 -11 -13 7 -6 11 -26 -3 -22 -22 7 -24 -1 27 -6 7 -27 -5 -10 4 -15 -10 -13 12 21 10 3 -11 -17 4 -8 7 -18 6 -21 -6 -1 -14 -5 10 4 1 -4 -15 3 8 1 13 2 7 -6 -17 -13 -5 5 -4 -4 -4 -7 -7 -12 16 -24 33 -3 -3 17 -10 -10 -13 -8 -4 -14 -11 3 -5 8 -3 -17 -8 13 -4 -6 6 3 10 -17 -27 7 -3 10 5 -6 -17 -3 1 -3 -14 -7 -3 15 -21 -1 -21 -13 -14 -19 -10 3 8 -13 -24 14 21 9 16 13 -5 16 -6 -10 -5 -5 4 -16 4 -15 -9 -4 -7 11 -8 -11 -18 13 3 -11 22 15 -11 9 5 -13 -3 -11 3 6 8 26 -5 -20 6 -19 -3 -28 -3 -3 -20 4 15 -8 10 -10 -10 6 7 -10 4 -3 -24 2 -7 4 16 -10 -15 -14 -11 -10 4 -3 8 8 -3 -19 -4 3 6 3 6 8 3 6 5 -13 -21 -16 -1 -7 -6 15 -8 -14 1 3 -3 -7 6 -23 -17 -13 -4 10 -11 10 6 -1 -24 -2 -12 24 11 -14 -42 -5 -19 -1 4 -20 -5 -14 -20 -13 -6 10 -3 9 10 -3 3 7 14 -19 4 3 -1 -28 9 3 -17 -3 -19 -27 9 -4 -14 -13 -14 -17 -3 2 -4 -11 -3 26 7 -15 -14 4 -4 7 -10 2 8 -7 -7 -11 -19 8 21 10 -14 -7 9 -21 16 -6 7 -15 11 -6 -4 3 2 -5 -4 13 -13 -8 -16 -20 21 -13 -14 13 1 -16 -9 -11 -4 6 -10 6 6 -18 -4 -6 4 4 -3 9 -6 -13 9 -14 19 -14 -25 11 -1 2 7 4 -29 -11 -6 -5 3 -4 -24 -4 -1 4 10 -20 -1 3 -21 -8 -18 -9 -20 21 10 17 18 -10 7 -1 -7 23 7 5 7 -12 -2 -4 -15 -22 10 -7 -3 -4 5 -3 -1 -3 -14 3 12 -20 10 3 -3 -10 3 -3 -23 -16 2 7 3 5 3 -21 -6 -11 7 -17 -2 3 1 -3 -14 -6 17 -21 -2 -2 0 -18 6 7 -26 -9 -4 -3 -7 -5 9 -3 -10 1 14 7 -3 -5 -21 -23 -32 7 -3 -15 3 -3 6 -9 10 18 4 -6 3 -16 -5 4 -13 17 -5 -6 5 -3 -16 -10 -3 4 -19 5 -23 9 7 -33 -14 3 20 -3 -5 -7 -3 -13 -9 -8 -7 8 -7 18 1 -3 -15 4 -6 9 -3 3 14 -14 -14 10 -17 -3 -10 -18 -15 2 -3 7 8 -6 -11 8 3 7 4 2 -17 19 17 -3 -1 -11 3 23 -7 -3 -14 -11 7 5 3 -11 7 3 -3 6 -24 -15 -4 -8 -3 6 -35 -4 -4 -1 9 -7 -6 -20 -5 -14 -1 -35 -4 3 -6 -20 10 7 7 -15 -10 5 -17 -22 6 2 5 11 -17 -11 -25 3 -3 19 2 -1 -8 -12 -11 -3 17 11 -19 -26 3 -11 -27 -26 -11 -2 14 -17 -26 -4 3 -33 -30 -19 -18 -5 -13 -23 11 -3 -4 -3 -2 -1 -7 -5 -11 -4 4 -3 12 10 -27 -3 -4 -23 1 10 6 17 -11 -13 1 8 25 -14 -13 -10 4 3 -1 -25 11 -3 -4 -12 4 6 2 -6 6 -7 -8 9 -2 -3 -3 -7 25 2 -3 -24 6 -7 3 -3 -4 21 -19 -2 -6 11 7 7 6 -3 0 6 -17 20 -4 -19 -3 6 9 -3 8 6 -15 11 10 10 -15 11 -7 -22 7 -14 -3 9 8 -14 6 -21 -3 11 5 -5 7 -7 -15 -15 17 -4 7 -24 0 18 -3 -1 -7 -19 2 -5 -3 -1 19 5 22 1 4 -18 3 -14 2 -10 3 3 16 -24 -24 4 -7 3 15 7 -3 14 -10 4 11 38 -4 7 6 -25 -7 -3 3 -9 -7 -3 10 -12 8 -11 -36 11 -20 15 9 -7 3 -12 -13 -14 -19 13 -16 3 -3 -2 4 13 3 6 -8 6 13 -17 18 -3 2 3 -8 -2 -3 7 -12 -6 -14 -7 -15 -2 -20 -7 -17 19 -3 6 11 -10 -8 -34 3 1 -18 2 -20 10 21 6 -14 -7 14 3 6 -3 3 -27 -21 3 -14 -14 8 -3 -31 3 -13 7 -15 -5 -3 -5 4 -11 -4 -4 -5 -6 7 -3 -6 -11 -24 6 3 -14 8 11 5 -8 -6 -20 -18 -2 7 3 4 -14 -27 22 21 13 -3 -5 -6 -7 -10 -25 -3 7 10 -11 17 19 -21 14 37 -18 -17 -18 3 18 24 2 -11 13 3 5 -18 -3 13 9 3 -8 -3 -4 -18 -7 -8 -38 28 2 -7 -6 11 -5 -12 -3 -6 -20 4 -18 -6 7 3 -4 -18 -7 1 -4 -2 -20 -12 11 -7 -1 1 -3 16 -3 -6 -10 -21 -11 -20 11 -18 -3 12 -6 -27 7 -7 6 -4 -24 3 18 -14 3 -22 -3 -14 -4 0 5 21 6 7 -7 -5 -16 -6 -35 -13 1 -2 1 -20 -3 3 -5 3 -4 -8 -14 -19 -18 -6 11 -17 7 -7 -2 -10 23 4 -7 -3 -8 8 -6 3 -7 -11 -32 14 -3 -2 42 -6 -8 6 -5 3 10 -13 -12 10 -4 2 -10 9 16 0 -7 7 3 15 4 5 3 -16 -22 -25 -11 3 5 -20 -16 6 -14 0 -10 -24 -15 -21 10 -12 1 -3 -3 2 0 -6 6 10 -28 5 4 4 -1 -3 13 -4 3 -15 7 7 -19 -5 -14 -22 7 -7 17 5 3 14 -6 -24 12 -1 -19 -5 3 -13 3 9 -3 -3 -8 2 -3 -12 -6 14 -7 -3 -3 16 2 -8 -17 -8 -5 7 9 -3 -4 3 2 -4 -10 -7 -3 2 -7 3 -14 -15 -10 -18 5 13 -13 -21 12 -7 3 -24 -10 -11 -5 3 7 3 3 -3 -7 -6 -24 -4 11 5 -9 -1 2 -17 11 23 17 -11 14 -6 3 9 -3 -3 -7 -5 -21 -39 -15 -3 -31 -6 -33 -13 14 -14 -17 5 -32 2 -21 -28 21 9 0 5 9 -4 5 -19 -5 -11 3 -4 -16 -20 11 6 -11 -3 -7 -4 -3 -7 17 3 -14 13 -14 1 0 5 -5 -12 -7 -2 10 -3 -2 0 -9 -7 8 -13 5 3 10 -6 -27 6 -10 -8 6 -20 -26 -5 -22 -3 5 -9 14 7 -1 5 -13 -10 -31 -18 7 -6 5 -3 8 -13 14 -17 -2 3 14 12 9 -4 13 -6 -3 -36 -17 -9 -12 -48 7 -10 -21 3 16 -25 -4 8 -14 -3 -13 -12 -12 -10 -14 -7 6 4 14 -25 6 -8 -22 -21 16 -9 -6 -2 -23 -1 -14 -3 -4 -10 10 5 8 2 -12 -8 -11 2 -6 6 -3 -25 -3 -17 10 13 -3 -9 7 5 -3 -15 -7 -7 17 3 3 -6 2 -3 -24 -7 -4 -4 -15 3 -14 3 -4 13 2 -1 -8 -9 -3 -3 -3 -22 -3 6 -10 4 -9 -25 -24 2 -17 -6 2 -20 -3 -12 -7 -18 -18 2 13 -6 5 2 -8 -4 12 3 19 -9 5 1 -3 -17 -19 -26 -17 -22 -3 -22 -28 -1 12 -25 3 17 10 6 -14 -26 -6 10 -27 -9 -7 4 3 -11 -27 2 -6 11 -7 -21 -7 -6 0 0 -3 3 -17 21 9 -6 -12 4 -19 -27 10 -15 -4 -17 10 2 -3 -7 -21 -6 17 -6 -13 3 -19 -26 7 -5 5 15 -24 13 -21 5 -17 7 -8 -14 -5 8 -3 0 8 -3 8 -10 18 -34 3 -13 -6 3 -5 -3 -10 3 -3 7 -6 4 -3 5 -12 9 -4 -3 -3 14 3 4 -13 -6 -19 3 17 8 -5 6 -17 -17 3 -18 -22 -12 -14 -17 -12 24 -3 -6 -16 -7 -3 24 3 7 -6 -20 -13 -28 -10 6 -5 10 -31 14 -11 12 3 -4 -19 -24 -9 -6 8 -3 -17 7 12 -26 -14 17 9 4 13 -20 -30 -3 -9 -5 1 12 -6 6 -19 14 -8 14 -7 -6 -7 -3 -3 15 -5 -14 -27 -3 9 -3 -22 -12 1 3 -14 1 -7 -9 -1 -9 3 6 6 -11 -3 8 -11 -4 -11 10 -6 17 -13 -9 -4 -35 3 8 -7 17 -39 -10 -5 6 -6 -1 -19 -5 -1 -14 6 21 8 -6 -18 4 -9 10 24 -14 -9 -15 -5 -24 1 -20 -17 10 -23 9 -18 -1 -14 -4 -24 -18 -32 -13 -4 -8 -18 -12 -6 -10 -17 -3 -12 -7 -3 8 -3 -4 -18 5 -3 -7 -24 2 -25 -7 -17 3 -7 -12 6 -1 -20 -15 -8 6 -18 -12 20 -18 -3 -15 -20 4 -17 -6 -3 3 3 -6 9 -14 6 -8 24 3 -7 2 10 -6 -3 1 12 -7 -9 20 -6 -2 -21 -11 -18 3 -10 -6 -1 -7 -6 -3 13 -8 -1 19 16 -8 -15 18 -18 -6 8 3 3 -12 -23 -19 -9 3 -3 10 3 5 -3 -17 2 -7 3 -6 -10 7 -23 -5 -12 9 4 -1 7 -14 -17 -12 -32 -17 10 -2 -6 -4 -14 8 -24 3 -18 10 -3 -11 16 -3 0 4 0 -3 9 -10 -6 -6 3 7 -8 -26 -2 -3 3 8 -14 -21 -14 3 -4 -7 -4 3 -21 -4 -3 -2 -14 15 -12 10 -6 -14 -3 -29 -23 -3 4 -7 2 10 -3 -1 17 -2 -7 -12 -6 6 -12 4 -1 10 -10 -1 -2 -12 18 -6 -6 5 4 -12 -5 6 -10 -21 -7 -22 -23 22 9 -7 -7 12 -10 -3 -7 -4 -5 -3 -13 -2 -4 -7 -5 -8 12 12 3 -4 -3 -11 -11 12 6 -4 -7 -5 -2 -5 -17 16 17 17 2 -27 0 -7 -6 -14 10 11 -6 -10 -3 -12 -17 -7 -2 -21 3 5 -6 -3 -11 -6 -38 -6 3 -28 -14 -3 -3 -3 -25 -5 9 -6 -7 -17 2 -10 -12 -12 2 8 4 9 7 -4 -3 -6 -12 -23 -25 5 -30 7 -14 -5 -17 3 -7 8 21 -17 3 -21 10 -6 2 -4 -21 16 -4 -3 -12 3 -7 10 -2 -8 -1 -7 6 -10 1 -15 -6 -14 -7 -6 7 -11 -4 -24 3 -1 -17 -4 -25 -21 8 28 6 -35 -6 -9 -18 9 1 3 -22 -2 2 -7 -18 -27 -21 -15 14 -14 -5 -7 -3 13 -17 8 -14 6 13 -26 7 -3 -3 11 -6 -21 9 13 11 -11 -13 3 19 -17 -4 3 -37 6 7 5 -21 13 -16 4 -14 -14 6 15 -4 15 3 5 15 -15 6 -15 -3 -14 3 9 20 5 -2 -19 8 -7 -4 -21 4 -5 3 -3 3 -17 10 -3 -9 5 -21 -14 -4 7 -4 4 7 -3 -2 -4 -10 5 -16 6 -14 9 6 -1 6 -1 18 6 -17 15 8 19 -14 3 -5 -14 -11 -10 -5 13 -7 -16 -4 -6 -21 -1 -15 6 -4 -10 14 -3 25 3 -7 -24 7 -5 5 3 3 -6 -3 -7 1 20 -2 -14 -45 10 25 -5 -8</t>
+  </si>
+  <si>
+    <t>GAM(299.6752469117574, -135.53821638064588, 0.5777054131762663)</t>
+  </si>
+  <si>
+    <t>27 59 51 26 44 27 37 55 26 55 37 30 34 37 28 29 35 41 34 37 46 35 26 42 24 36 41 36 44 32 19 47 37 39 31 41 43 24 39 31 37 34 34 42 55 43 32 36 36 31 45 40 52 45 45 41 22 45 66 37 31 55 43 42 48 42 38 30 37 30 19 18 26 33 45 46 43 40 50 55 39 54 30 51 29 41 22 63 28 34 33 45 47 24 34 44 30 29 51 32 29 40 36 45 27 36 44 34 39 45 25 38 30 37 53 35 37 46 46 33 33 46 47 47 25 43 45 44 44 48 54 23 22 20 39 12 29 37 22 36 19 36 52 43 30 22 23 32 57 33 38 47 33 39 33 33 43 39 19 46 52 31 27 41 35 34 43 44 36 45 58 47 44 27 41 28 29 30 41 34 45 44 56 37 48 37 27 44 32 27 37 36 39 37 23 36 47 30 53 51 43 13 37 34 46 44 45 29 33 31 33 40 47 54 25 57 29 13 45 34 44 33 36 27 30 30 31 39 51 34 54 45 49 27 53 44 36 41 29 27 47 50 42 37 29 34 20 23 37 37 37 28 24 54 26 55 47 30 46 40 38 35 62 45 55 37 41 39 30 37 41 43 45 35 27 49 29 40 27 51 31 25 33 29 33 33 48 55 40 45 26 41 35 43 36 30 64 33 58 48 50 27 17 38 37 25 36 34 27 37 45 62 42 31 48 27 26 41 19 30 37 22 30 24 38 43 48 43 29 29 56 37 47 49 46 31 35 51 30 33 20 23 16 44 33 54 41 36 41 38 34 59 40 34 36 48 57 47 33 33 37 49 10 43 38 41 40 40 56 58 40 47 29 45 33 27 39 26 44 30 51 43 43 38 17 19 27 37 51 44 41 37 22 44 34 23 26 47 37 67 37 29 30 45 37 40 38 59 36 12 34 37 51 30 38 36 37 22 27 50 44 37 31 27 48 41 62 51 41 41 25 38 37 44 50 34 45 40 24 13 50 33 43 45 65 35 24 33 26 29 51 39 40 65 37 30 33 47 37 30 45 34 57 42 40 51 42 36 35 30 48 33 32 41 55 44 52 23 37 25 56 40 54 30 36 59 33 20 27 53 30 39 17 27 28 38 45 37 40 44 59 37 55 43 53 45 24 33 44 43 38 37 37 37 40 43 45 40 49 39 36 27 44 38 60 16 38 34 57 33 37 29 34 31 31 41 31 37 37 31 33 30 41 48 25 32 51 31 29 33 50 38 53 23 40 12 43 39 26 39 30 37 37 35 38 37 45 39 29 19 20 31 22 47 40 42 37 32 25 22 36 51 26 51 34 30 31 43 37 13 36 30 42 34 36 34 45 29 34 37 46 39 40 55 31 39 38 40 39 40 42 42 43 36 43 44 23 37 24 37 19 51 49 23 26 50 52 30 44 42 54 55 36 34 47 30 46 39 35 33 36 42 30 26 48 50 22 38 43 22 34 51 46 49 43 40 24 37 43 51 29 32 27 27 31 33 40 41 33 37 33 22 33 26 27 17 48 17 41 23 41 26 22 47 51 59 33 27 37 31 9 36 49 37 41 66 37 22 43 45 42 24 35 30 34 44 37 52 37 37 32 31 57 26 34 37 41 35 38 35 32 32 46 37 23 31 36 52 29 42 40 36 33 27 36 41 36 42 28 52 22 23 28 37 41 22 57 36 40 39 29 40 51 36 44 34 36 30 46 36 29 52 40 45 41 52 31 35 21 48 53 54 43 38 27 44 45 30 40 39 59 56 19 33 36 33 32 57 40 33 28 41 19 43 41 41 44 34 41 42 28 40 41 51 39 27 44 40 40 40 44 53 57 29 30 38 33 45 55 30 35 14 57 41 47 43 32 41 61 34 48 20 33 39 45 50 45 27 34 51 13 38 26 37 35 31 45 21 44 47 46 31 57 30 40 47 26 40 34 20 41 43 33 23 35 53 44 44 40 40 9 38 58 47 45 29 40 36 25 49 40 26 27 41 48 23 23 33 48 37 33 44 48 30 26 44 48 35 38 52 32 52 34 30 44 31 34 31 40 51 29 41 42 27 30 17 33 37 37 23 31 26 30 30 30 37 33 31 23 51 36 44 29 29 44 17 55 49 35 12 38 33 24 47 42 30 36 38 19 48 24 44 19 16 50 45 26 42 33 40 32 26 38 29 49 28 38 27 45 50 44 45 19 36 33 39 47 33 51 47 34 29 28 40 42 40 54 44 39 18 32 37 34 23 42 39 45 31 23 46 47 23 13 28 30 11 48 36 35 48 53 23 37 51 25 29 46 32 50 36 30 48 41 48 35 31 29 33 36 37 47 57 47 32 47 37 40 49 45 44 26 46 25 41 31 13 51 46 57 43 63 32 37 41 38 40 38 53 43 23 28 33 44 14 34 24 37 32 40 40 45 40 39 19 37 43 20 40 33 36 37 30 40 31 32 30 27 36 28 25 30 37 26 34 36 34 37 39 42 37 51 38 50 27 35 31 29 51 39 54 30 28 59 40 47 33 33 48 55 29 36 54 38 48 47 28 44 16 34 41 46 39 36 34 51 48 40 50 30 34 51 43 56 35 40 38 52 22 28 41 39 56 45 41 63 35 40 29 30 51 40 58 42 26 33 34 9 37 43 45 51 48 44 43 22 33 24 30 32 44 41 36 47 41 48 46 33 29 34 43 32 58 59 34 43 31 38 50 33 40 45 37 37 21 38 29 33 34 51 37 41 48 48 44 35 45 26 27 30 41 45 51 31 43 42 31 39 52 44 57 30 45 21 30 40 29 44 15 41 35 16 38 23 29 32 36 26 25 30 33 47 33 30 25 29 43 37 23 45 30 44 37 48 46 37 35 37 41 54 46 29 37 51 30 51 52 60 58 30 54 32 37 51 32 49 41 29 41 37 40 41 27 45 24 43 31 34 49 40 17 27 27 25 43 26 34 39 37 36 29 26 37 23 41 54 36 50 23 31 44 17 50 57 41 37 33 31 48 36 47 23 55 35 42 38 43 63 37 27 44 43 48 43 42 34 33 26 30 23 26 50 56 48 42 31 38 44 36 55 33 34 30 27 44 41 29 34 40 43 19 19 42 23 40 45 24 43 37 37 27 51 49 40 47 40 33 46 38 47 27 43 17 33 37 45 43 25 52 54 40 61 34 40 17 26 51 36 37 52 37 37 26 30 44 37 44 31 31 55 35 43 28 27 46 65 16 28 35 42 48 47 47 29 27 27 39 26 44 31 56 24 45 43 43 38 43 31 57 50 57 39 38 50 26 51 43 15 51 25 26 39 36 27 26 43 36 35 40 45 30 39 25 48 35 40 48 48 43 50 30 36 51 22 36 61 36 45 38 39 26 49 35 39 46 30 47 40 28 28 41 35 30 39 41 43 17 38 24 52 30 37 58 37 50 36 39 39 43 45 36 32 33 42 27 30 50 44 27 23 32 29 38 46 59 55 59 46 26 31 40 34 55 46 17 36 33 27 13 45 21 38 40 43 43 49 31 40 22 41 53 26 30 26 37 45 30 27 41 31 40 36 37 31 44 49 40 33 19 35 30 39 52 36 43 37 41 28 34 29 59 37 27 43 51 34 51 31 32 31 33 33 30 40 57 48 23 45 34 36 22 16 54 35 31 26 22 41 40 36 29 33 39 33 28 29 41 31 46 41 29 44 66 42 37 30 32 37 34 38 27 33 28 45 33 41 42 41 41 19 15 37 27 33 29 29 27 36 29 48 56 37 51 34 27 27 42 26 33 31 34 29 50 45 52 30 29 40 44 40 37 33 23 51 53 47 51 38 33 35 47 40 40 40 37 30 33 19 44 42 48 23 35 38 19 54 35 61 35 37 20 51 29 30 28 35 37 37 29 32 40 51 37 27 40 44 38 43 36 26 30 51 28 33 24 30 41 52 32 55 56 52 34 54 32 32 31 31 41 10 33 41 37 35 31 47 27 39 51 20 35 33 30 44 43 41 59 34 49 41 51 57 51 52 36 29 39 43 40 17 29 50 37 36 34 26 27 34 40 41 29 33 29 35 37 21 39 44 48 48 32 41 45 38 36 31 29 47 41 61 35 30 26 38 33 37 26 37 41 27 33 33 45 44 30 37 36 49 32 41 48 33 12 51 46 27 30 32 36 60 36 24 29 45 26 37 33 49 43 44 48 23 27 39 31 31 44 30 31 37 48 35 44 43 29 40 48 36 33 35 41 20 44 33 20 36 42 36 50 43 25 32 30 34 26 43 59 52 41 23 44 46 61 29 34 33 55 50 44 26 44 31 43 37 53 46 45 39 49 30 36 33 20 39 24 40 37 43 44 44 38 34 31 40 45 46 48 42 51 26 40 49 51 38 38 32 45 37 60 36 29 54 46 33 29 47 46 41 65 43 66 36 39 33 51 26 36 29 47 36 49 26 53 35 37 34 36 30 44 42 29 36 34 37 44 45 41 23 55 48 30 43 45 24 44 38 36 37 51 30 53 47 47 43 27 44 50 51 20 34 47 49 51 33 35 67 32 29 51 16 36 39 43 41 29 35 36 56 37 37 23 39 25 50 27 26 33 33 50 38 43 40 45 43 39 51 43 16 27 37 45 24 36 27 50 46 37 44 33 22 51 26 41 40 35 30 38 51 33 50 36 29 60 30 33 26 30 49 43 63 37 44 32 43 51 31 30 29 23 36 50 36 40 36 43 41 19 56 29 44 39 58 41 33 37 38 34 45 43 25 43 36 32 41 43 31 33 17 25 35 33 35 26 37 44 40 35 47 46 34 30 47 29 43 41 40 37 23 36 43 30 29 33 45 42 19 43 33 36 37 40 40 33 31 31 41 50 48 25 33 42 19 43 33 47 27 43 60 23 16 33 49 43 43 34 26 31 30 29 27 39 31 48 31 31 43 38 37 40 50 24 26 40 30 27 23 52 47 24 45 57 40 36 40 37 54 45 38 30 32 46 29 33 52 31 40 44 48 43 37 41 48 36 41 30 52 43 16 44 36 41 19 30 44 23 41 30 27 26 22 36 23 22 38 17 42 23 41 20 47 48 41 60 32 37 21 45 45 41 34 41 27 38 30 44 45 58 45 45 38 60 47 38 46 10 26 52 35 38 50 49 50 28 30 41 33 39 30 37 35 48 35 19 42 35 30 17 42 44 25 23 48 23 52 36 55 31 43 25 35 37 46 29 35 24 34 37 29 48 35 42 41 51 40 36 38 55 20 50 54 49 20 46 43 43 31 43 51 19 30 46 30 34 31 23 10 35 47 44 39 65 37 16 12 46 29 41 31 34 27 51 37 43 34 22 52 39 59 45 55 23 58 30 40 37 47 48 58 25 47 27 44 41 39 19 24 49 27 31 34 30 17 37 40 39 38 29 28 46 43 36 40 29 54 40 31 16 46 33 40 48 33 38 38 17 54 43 36 34 42 20 37 31 38 32 51 41 30 31 20 51 23 23 25 35 45 55 22 27 34 34 26 26 49 23 42 27 37 43 53 26 41 29 29 46 41 47 41 59 44 50 39 47 31 39 30 43 51 33 36 34 38 42 24 30 46 23 58 35 55 58 42 37 31 37 46 22 26 42 49 38 37 30 28 45 29 34 29 56 33 37 72 27 55 34 31 26 45 36 33 55 43 19 43 31 29 51 51 39 44 41 26 16 47 46 53 51 41 37 28 48 45 51 45 53 37 51 45 26 46 44 30 37 29 41 47 55 28 46 30 26 23 38 54 19 37 60 37 45 50 27 36 38 52 29 47 48 38 36 45 24 37 23 48 21 15 27 51 30 51 51 44 34 17 51 29 43 49 27 29 56 32 40 41 37 53 51 37 30 41 47 31 34 47 23 31 34 29 54 31 30 44 23 51 16 27 53 46 33 39 49 49 33 30 49 42 37 34 38 38 33 35 47 17 37 39 34 30 56 34 53 31 53 59 44 23 53 30 34 47 41 21 31 32 40 34 13 48 55 45 35 31 50 20 27 37 51 40 34 26 55 45 31 40 42 30 40 34 33 41 48 36 61 34 35 48 66 68 27 41 25 41 39 33 43 37 37 41 30 44 42 23 41 23 36 59 37 26 47 20 30 32 33 42 37 23 36 29 32 30 41 41 37 17 54 44 45 24 42 51 30 35 56 43 50 33 40 41 24 32 41 43 23 19 30 39 30 23 30 43 38 50 31 36 31 30 23 44 27 45 46 52 29 59 12 41 23 23 41 45 37 33 35 25 40 39 50 33 31 40 24 58 30 37 34 49 44 64 31 40 45 32 36 21 40 39 44 29 22 55 36 56 40 29 36 36 43 43 54 56 34 53 35 50 44 27 27 44 43 29 29 43 23 35 32 31 26 26 30 39 32 43 51 41 55 37 34 28 38 37 47 41 33 39 34 52 40 38 34 44 44 51 49 52 50 51 37 24 41 46 26 36 23 17 47 16 34 42 41 43 23 25 38 35 30 34 58 22 41 25 40 40 47 26 27 26 39 16 44 56 47 37 37 44 36 51 39 25 30 28 40 27 37 34 41 47 24 50 20 39 34 40 34 38 19 37 42 30 26 30 26 33 34 37 45 41 35 52 45 57 26 37 29 41 37 54 29 40 33 61 24 41 31 41 43 36 29 35 30 46 29 35 30 22 40 40 59 50 43 41 37 37 37 37 45 29 44 26 19 38 43 36 42 43 46 19 26 41 36 54 52 36 50 44 38 20 29 54 35 37 50 63 57 48 28 66 27 27 29 37 27 28 29 48 50 37 30 35 58 45 47 40 43 30 27 20 29 28 17 29 45 39 36 20 40 34 44 37 21 33 29 42 47 39 29 43 80 33 51 42 30 34 40 38 59 37 44 41 37 45 27 41 33 29 51 27 51 33 53 51 36 58 29 34 37 41 19 46 31 42 18 31 22 35 27 32 42 54 36 27 51 30 33 37 25 33 30 38 41 27 40 31 47 40 36 20 33 45 24 40 28 35 30 41 33 41 43 50 51 31 49 41 40 45 38 37 33 41 50 30 37 42 43 20 31 43 58 43 26 43 40 40 42 59 45 44 33 22 26 51 44 36 29 22 22 42 41 41 31 33 49 37 46 59 43 46 51 32 54 37 40 31 29 51 49 37 37 33 45 37 24 39 47 46 31 39 23 30 29 37 52 40 33 27 30 39 26 40 40 43 33 46 40 60 37 37 36 36 29 19 34 59 41 37 32 29 40 27 45 54 43 44 47 54 35 37 44 31 45 36 37 40 23 43 35 33 27 25 37 20 29 43 29 40 35 51 52 48 40 53 42 27 34 55 37 51 29 36 31 41 38 41 51 30 45 41 54 20 45 49 10 35 45 40 24 31 43 30 49 44 23 46 47 47 32 55 33 55 34 29 37 49 37 25 42 51 19 37 44 26 53 27 52 36 35 48 38 34 47 30 27 22 35 37 37 29 40 34 31 47 42 40 35 37 43 39 19 57 22 43 39 13 36 31 37 26 51 27 45 37 44 45 40 51 43 34 27 37 41 51 40 36 34 37 51 50 51 42 64 34 49 40 34 47 41 41 39 25 28 31 66 32 25 55 61 29 33 30 25 43 34 50 37 55 17 43 33 27 51 41 36 20 17 39 55 23 40 29 44 41 30 33 29 37 17 43 58 13 36 44 45 26 51 39 34 40 41 23 34 65 50 43 16 26 45 44 31 36 36 48 44 23 37 29 27 34 43 38 30 27 31 33 40 46 45 26 48 23 24 26 57 32 34 45 35 41 50 52 19 41 47 34 18 34 38 30 26 40 47 59 31 31 37 38 45 45 51 27 36 36 41 38 37 31 51 27 41 25 39 37 49 21 46 45 38 47 44 41 52 42 39 37 28 23 34 26 35 33 39 29 47 32 43 37 27 44 22 27 48 30 58 51 44 40 37 41 34 24 36 33 21 38 46 51 49 49 49 27 10 54 32 58 27 35 51 30 44 45 26 62 38 45 44 44 38 53 34 37 40 53 36 26 36 41 42 36 34 29 44 33 20 29 36 38 44 43 34 48 47 27 35 51 43 53 33 35 30 38 40 45 32 31 47 45 22 48 26 38 36 22 32 46 37 37 37 51 36 25 41 25 31 65 36 29 43 34 37 49 51 23 29 41 43 37 43 37 48 40 40 38 54 44 43 34 31 42 52 27 44 38 31 64 44 41 30 37 39 39 22 27 34 23 50 29 40 48 34 19 46 22 33 35 19 29 41 76 43 45 27 60 37 34 30 32 54 32 31 45 23 41 50 29 23 44 37 41 22 29 37 34 42 44 25 59 57 26 46 45 37 39 43 29 29 27 43 45 43 30 40 34 44 45 51 37 15 37 52 62 45 57 35 37 57 43 50 44 39 45 23 35 40 34 38 33 36 45 31 13 43 27 36 48 34 30 29 30 27 33 31 25 31 37 39 34 17 32 44 23 33 39 44 30 45 26 48 24 23 33 32 29 52 26 37 33 22 37 61 27 36 41 30 33 38 37 29 49 37 51 40 26 48 29 52 43 33 43 41 41 31 18 47 27 54 31 37 46 29 33 12 16 23 53 37 30 20 51 19 22 47 39 45 37 43 45 46 48 33 51 49 26 48 47 44 40 44 50 51 37 27 34 34 30 30 29 41 20 45 45 42 46 36 43 30 20 22 24 30 46 60 35 37 34 36 36 51 33 60 54 50 29 43 31 29 13 9 13 29 26 41 53 26 46 35 19 47 53 48 33 31 24 59 31 35 36 30 43 65 35 19 27 52 53 34 50 36 42 43 27 34 41 43 59 51 38 25 58 20 58 43 56 37 50 29 18 41 39 41 42 25 20 30 24 28 29 34 39 23 22 33 58 26 40 37 49 23 40 43 41 30 22 31 48 37 52 33 38 36 40 65 41 27 32 37 23 23 47 40 35 32 47 33 51 26 37 63 33 36 19 43 32 40 23 33 44 31 38 42 27 22 29 40 30 26 47 31 40 27 57 43 50 35 51 47 24 52 16 37 40 45 29 17 32 54 33 33 31 48 37 37 31 41 41 29 31 45 40 30 37 26 30 39 34 29 31 51 29 48 51 41 48 37 29 29 39 38 39 36 48 40 42 45 55 22 38 30 45 46 27 33 50 43 27 18 50 49 33 38 41 33 37 26 50 26 45 46 36 37 39 33 48 33 27 38 51 33 47 42 16 41 31 31 36 46 47 30 36 37 42 27 35 45 38 37 63 58 52 53 48 43 44 36 34 43 40 35 27 39 28 46 40 29 31 52 33 40 44 41 37 41 34 29 44 54 33 48 19 37 26 23 26 22 23 46 20 64 37 57 20 36 43 65 49 50 37 25 44 35 37 37 36 58 34 41 42 35 17 44 34 45 19 32 17 37 26 41 26 45 30 29 36 34 22 37 37 48 50 36 27 43 37 32 6 37 41 40 38 47 51 39 62 30 79 48 27 24 42 25 51 47 41 43 50 40 60 32 43 45 31 31 40 28 48 39 48 39 23 43 45 50 24 49 25 42 22 16 47 23 34 35 24 40 28 44 44 40 28 35 46 37 36 45 42 9 26 45 31 44 37 40 23 30 24 27 37 40 52 38 22 49 36 40 56 37 57 19 31 43 36 32 41 40 36 33 29 33 17 42 19 36 17 41 47 35 47 58 54 44 33 39 61 48 48 42 43 51 45 41 49 24 9 20 41 44 44 34 51 37 41 33 34 44 39 33 31 17 40 49 32 25 29 37 29 28 47 52 30 38 40 47 39 37 41 33 42 48 23 27 48 20 37 27 44 27 44 38 29 39 36 40 54 48 38 37 33 41 43 44 31 51 40 40 51 29 26 41 45 37 36 25 37 43 51 34 40 21 29 34 27 72 38 34 36 43 37 48 25 44 48 49 48 45 36 20 47 53 49 37 37 22 46 45 12 41 37 31 40 62 30 43 30 55 39 14 23 41 30 54 48 39 23 52 38 38 51 61 50 50 54 34 27 41 25 44 31 41 41 33 37 33 52 21 39 39 40 17 51 45 34 49 26 53 38 51 47 41 27 39 47 29 45 45 59 33 40 53 31 38 46 55 58 33 38 33 15 37 21 58 29 66 24 37 44 33 34 47 46 51 32 37 33 32 12 30 32 27 30 18 36 51 47 35 39 37 31 33 51 54 31 29 37 37 40 34 37 39 40 40 53 36 34 36 30 42 36 36 43 40 60 33 20 41 27 47 49 34 14 29 56 38 53 41 37 37 34 63 37 27 42 24 37 35 40 52 44 24 36 33 43 34 38 49 31 26 52 21 40 42 36 45 42 27 36 40 27 38 37 51 23 39 29 30 51 39 33 35 27 43 29 19 33 25 34 41 28 48 47 25 37 31 34 51 54 70 33 43 43 38 25 55 30 38 45 28 47 40 19 47 49 56 45 22 35 59 44 29 27 49 26 45 29 34 41 35 33 45 37 26 36 47 29 44 30 27 30 39 34 49 43 36 39 43 43 41 20 37 30 51 29 23 57 26 47 58 16 34 45 34 33 56 42 38 41 34 40 43 32 44 27 35 37 33 23 24 30 36 38 44 43 29 47 41 43 45 33 42 59 23 51 41 23 31 45 29 38 24 31 41 32 40 47 34 34 21 29 25 46 46 31 32 47 34 36 57 31 28 32 37 49 28 55 37 40 20 28 33 38 19 36 43 34 39 29 46 43 42 41 40 33 30 47 19 29 34 42 19 31 30 34 45 35 41 39 54 43 35 24 32 34 57 51 30 43 43 49 37 39 44 36 26 54 29 36 48 24 46 45 31 31 37 52 26 27 34 29 23 28 39 31 43 43 30 23 44 33 44 28 44 42 41 51 35 48 28 37 59 16 33 34 30 23 47 44 37 37 33 47 44 37 25 45 40 23 47 34 35 47 29 19 26 38 25 55 46 36 20 33 19 22 40 15 29 32 37 44 57 47 50 35 48 43 46 35 37 40 26 39 58 33 20 50 42 44 33 30 50 19 26 23 22 24 47 45 31 53 31 41 29 38 23 22 51 16 19 40 57 43 25 59 27 44 34 43 16 23 33 46 35 23 44 43 35 28 19 48 38 45 31 39 30 41 20 26 37 51 42 34 33 35 51 44 23 46 57 44 50 31 48 50 19 27 40 48 45 46 31 45 65 33 30 30 32 39 58 21 36 40 31 31 33 28 40 26 47 36 34 40 36 52 40 25 20 35 27 27 33 31 38 27 46 43 20 34 32 30 13 67 46 47 39 30 53 43 30 36 30 35 23 48 29 33 48 39 42 35 29 45 34 46 33 51 15 54 34 26 47 32 29 38 29 30 38 45 45 30 27 45 33 27 57 36 41 13 29 33 35 26 20 47 43 35 39 43 32 37 29 43 50 33 36 33 43 37 39 30 32 42 43 35 41 40 16 38 66 48 22 23 19 43 45 62 30 31 47 42 29 41 30 37 35 35 22 26 37 36 32 42 47 39 37 33 45 34 40 48 46 33 33 41 51 41 47 28 37 39 31 57 44 29 35 50 32 45 40 36 45 17 59 36 18 39 30 29 23 21 33 26 33 37 52 48 47 29 46 29 27 46 34 31 30 24 34 45 40 22 44 46 16 54 29 45 33 47 21 43 54 37 45 28 47 43 33 36 57 40 38 35 37 41 33 20 26 29 39 34 41 27 13 43 43 48 29 31 31 22 45 22 65 52 40 43 44 29 37 21 37 44 40 35 34 51 39 40 35 30 55 26 41 35 36 43 52 51 33 47 41 41 45 33 47 36 34 26 26 44 20 31 45 50 30 47 29 31 41 40 43 47 46 41 37 34 41 37 41 41 36 26 42 24 57 24 30 46 31 51 51 41 41 39 27 40 46 38 31 30 43 26 40 27 50 16 33 46 42 30 47 48 41 51 30 45 48 55 26 50 38 26 52 42 35 16 46 46 35 41 46 28 47 38 30 13 39 37 42 38 50 37 43 43 31 40 25 37 41 46 31 44 37 23 37 30 33 45 39 27 39 42 44 36 30 26 34 37 43 40 26 28 31 48 30 39 57 37 48 33 41 51 29 41 37 29 41 31 40 27 24 27 45 50 27 51 43 33 49 46 54 35 40 34 44 60 40 51 19 26 37 29 40 27 34 30 19 45 41 44 38 57 47 30 38 23 37 47 32 37 54 52 41 36 37 32 47 37 29 24 53 41 50 51 27 22 58 48 29 34 27 40 30 27 44 36 23 48 36 50 57 57 36 44 24 26 60 45 43 45 28 59 44 28 28 48 29 30 40 40 26 39 41 26 41 31 49 37 17 21 27 55 30 33 31 39 31 41 35 25 26 34 47 23 46 44 17 59 47 43 40 34 49 43 36 40 30 34 47 42 24 45 52 39 28 47 27 47 54 41 44 25 23 29 23 27 34 52 23 33 32 32 49 48 25 27 51 34 36 24 20 37 43 17 44 33 37 51 26 32 37 33 41 36 39 27 37 42 43 51 32 41 27 33 37 30 33 22 24 44 39 45 44 33 34 39 39 48 26 41 58 54 42 63 25 40 44 47 39 41 45 43 40 29 44 40 42 37 30 47 36 33 50 29 29 44 31 27 33 39 37 20 43 25 52 41 27 29 34 34 44 34 12 37 64 47 39 42 27 48 34 55 28 28 40 37 37 22 16 35 49 41 38 50 27 27 41 61 47 59 27 47 30 43 38 22 39 27 43 41 23 48 52 16 35 26 38 26 63 46 41 35 24 65 30 17 47 40 37 31 47 27 47 55 35 49 13 46 36 39 59 33 22 41 31 31 41 59 45 38 52 19 40 16 32 36 39 25 35 24 35 48 16 17 59 18 30 43 41 36 40 42 49 37 33 46 28 53 29 31 41 40 33 51 38 27 22 35 59 33 43 47 36 42 32 24 19 49 30 29 21 29 27 37 44 36 51 41 48 41 44 44 41 48 33 30 43 24 53 34 48 36 33 61 54 41 37 44 49 50 37 38 34 33 39 23 37 36 30 25 30 39 35 44 23 40 45 45 39 36 42 43 47 48 26 35 38 34 49 43 31 25 28 16 37 27 40 51 30 29 37 39 19 23 35 49 33 38 40 38 45 34 43 30 19 36 45 42 29 34 36 31 37 36 41 23 43 43 9 47 45 30 23 51 53 41 50 23 40 40 35 30 46 52 26 30 36 40 43 40 47 28 40 30 16 43 26 37 29 38 63 39 34 39 38 45 56 55 42 20 46 38 50 41 54 61 29 41 34 36 44 43 55 51 47 37 20 35 34 43 47 41 28 39 30 41 50 61 48 19 33 52 34 33 35 31 36 35 41 51 37 37 23 54 43 43 47 27 43 41 40 27 32 59 40 39 48 23 34 43 41 47 33 27 34 57 33 36 57 41 27 37 25 40 34 59 43 41 33 54 29 37 38 35 47 46 41 26 43 23 26 23 45 33 47 24 40 51 38 46 51 29 30 43 37 32 27 29 45 21 49 59 21 43 59 51 37 44 40 29 34 49 23 51 37 22 54 27 44 35 23 46 49 33 22 27 30 52 40 45 49 40 51 47 26 29 33 31 38 29 33 42 20 52 27 46 44 44 29 37 30 45 49 33 40 33 51 36 20 36 30 58 37 45 36 40 39 39 42 41 37 28 32 43 46 37 66 43 48 27 47 45 44 13 24 30 30 58 28 28 37 29 43 33 51 33 47 44 23 51 37 51 26 37 39 48 31 36 24 31 33 22 52 29 38 42 38 50 37 38 41 36 27 41 58 37 37 36 37 31 33 43 38 34 54 46 45 41 26 51 27 23 27 51 36 34 45 37 40 37 55 29 53 32 43 45 34 41 53 60 55 55 47 33 19 33 30 44 33 38 51 37 37 34 36 51 54 40 13 40 37 41 40 35 52 25 35 40 29 51 43 27 33 39 37 33 48 44 16 35 40 37 32 37 40 26 23 33 33 36 29 27 25 23 37 23 22 33 40 23 28 54 40 39 37 33 36 46 26 44 56 47 30 64 36 39 19 33 47 24 37 34 40 34 42 20 40 30 46 46 31 40 50 30 23 44 39 38 45 41 29 24 48 49 40 41 58 44 34 30 29 59 51 23 47 47 24 34 27 30 44 23 47 47 37 34 24 43 28 33 36 27 37 38 31 16 34 44 40 41 38 30 52 43 31 41 27 39 40 33 19 51 40 40 34 41 46 35 38 36 41 38 57 34 58 43 37 37 57 46 48 38 20 22 48 42 32 34 49 23 61 45 46 40 27 36 33 29 38 22 37 44 22 27 41 38 34 50 51 36 30 26 27 22 29 37 51 50 37 38 37 36 30 32 20 51 27 33 45 30 37 46 47 31 38 39 39 36 33 44 37 30 33 45 35 40 36 29 25 44 40 33 62 30 38 13 38 42 29 44 30 44 39 44 60 27 47 37 40 61 19 31 39 36 45 36 35 49 53 30 26 31 40 40 49 31 52 29 28 37 43 49 45 32 26 31 29 49 27 40 48 22 40 30 38 46 43 51 37 45 57 41 36 52 39 27 51 29 57 52 33 42 36 31 23 26 34 39 50 41 31 27 58 40 36 44 43 23 34 23 30 16 33 33 46 37 54 60 42 27 51 47 36 37 36 27 34 23 28 37 47 48 20 45 36 36 31 15 34 32 37 37 45 36 30 23 41 43 19 22 43 36 46 58 27 40 33 31 16 45 51 44 49 37 44 33 38 53 19 29 37 45 33 47 32 40 27 37 39 37 31 66 54 18 41 43 41 43 32 35 47 37 37 30 37 41 34 30 26 37 33 37 37 44 25 39 33 36 37 54 15 55 47 48 47 38 34 54 46 40 50 44 23 44 27 36 32 37 41 49 38 30 41 38 42 43 50 35 17 23 26 37 40 17 46 27 33 43 34 31 44 34 42 55 41 48 25 38 33 40 23 40 52 27 35 34 52 35 23 47 28 33 31 27 25 45 28 35 45 43 33 37 29 32 36 33 30 37 49 44 35 45 44 37 24 43 36 39 30 40 37 25 49 48 35 29 42 48 40 29 38 27 33 51 30 54 45 30 37 36 49 55 51 51 45 36 30 32 41 32 37 44 25 13 37 51 68 20 55 32 46 34 26 46 49 41 44 36 16 63 43 34 44 38 26 27 43 41 27 35 27 39 54 35 41 43 40 37 24 32 22 29 16 30 31 26 37 44 30 37 47 36 37 44 41 54 43 20 48 41 40 29 44 33 20 48 41 41 39 37 42 34 48 34 55 33 48 31 49 37 26 43 37 50 38 38 31 21 44 47 42 15 34 20 30 34 29 28 53 42 20 34 55 38 26 45 34 31 45 31 44 37 33 33 37 25 39 43 26 36 29 41 41 33 20 23 63 45 45 41 48 27 40 44 41 43 48 26 48 57 33 33 30 45 45 65 37 40 23 37 32 16 41 43 41 42 30 38 23 20 36 57 52 43 36 52 34 58 47 38 26 52 51 30 35 41 54 19 38 23 37 34 23 35 32 30 44 31 45 48 25 38 38 30 48 37 32 44 43 31 34 28 41 35 30 40 23 40 43 38 51 18 48 39 50 46 45 28 40 30 41 31 40 37 28 44 31 31 40 38 45 40 39 28 21 37 33 38 39 34 41 33 28 41 52 47 33 37 37 35 34 26 17 51 30 35 41 48 41 29 31 31 40 48 38 35 37 37 53 37 54 36 26 50 41 29 34 39 34 33 25 25 29 52 24 19 21 39 20 51 34 41 37 47 33 34 24 32 37 50 40 45 36 45 47 22 38 23 34 22 45 27 43 48 20 35 43 70 50 29 43 21 38 58 33 34 27 30 30 43 29 63 41 37 29 50 40 43 44 47 41 27 45 27 30 40 43 30 51 33 55 22 34 56 33 17 13 12 51 47 52 45 34 40 26 38 19 40 42 19 30 36 52 44 40 31 44 48 30 33 35 20 38 23 23 55 51 29 29 44 49 37 51 31 55 35 54 26 34 36 43 42 30 31 45 45 30 37 36 36 29 10 29 37 30 16 55 23 37 20 37 63 35 33 53 24 32 29 33 29 14 30 35 34 49 50 31 31 51 37 44 35 29 31 31 37 36 23 47 30 34 28 30 47 20 48 33 37 48 37 37 36 33 37 36 41 48 29 57 33 35 26 27 29 51 32 51 26 30 26 31 51 38 55 30 39 40 29 23 31 37 37 51 51 54 37 31 20 26 48 57 73 39 43 33 34 31 42 34 33 30 59 35 42 35 34 52 31 33 32 41 40 29 25 38 29 27 25 13 37 35 48 37 34 42 44 35 38 31 34 37 31 34 38 32 41 37 29 30 34 34 51 37 25 33 39 34 47 19 51 53 37 55 32 34 34 30 38 29 36 37 50 30 41 30 39 44 47 46 30 44 18 34 27 25 22 45 23 45 33 37 35 34 47 33 34 28 29 56 37 54 54 31 62 41 28 34 38 52 40 25 36 40 34 58 29 46 37 27 40 31 34 37 46 45 39 35 29 41 26 31 33 35 58 38 40 51 39 38 34 46 50 26 43 31 45 30 45 26 47 35 49 25 45 42 45 20 37 24 41 59 44 38 19 34 30 19 22 14 15 43 25 37 36 34 33 24 21 44 36 37 36 45 37 52 40 37 52 31 39 52 47 44 42 33 31 44 37 36 33 33 21 43 39 20 55 43 28 34 41 26 30 32 21 50 38 30 38 27 33 23 33 41 37 38 47 44 43 47 33 29 41 41 46 33 35 47 47 31 39 29 22 20 46 43 33 38 45 39 41 39 49 50 23 47 36 35 31 30 44 37 23 41 35 26 37 47 35 38 45 35 30 37 39 27 29 19 29 22 39 17 44 33 48 25 36 41 57 30 41 31 23 54 23 50 34 26 44 40 45 27 37 31 44 25 51 45 36 53 40 26 54 34 37 40 37 40 50 43 30 45 50 31 34 52 38 39 35 38 40 37 39 47 46 44 36 45 34 20 22 54 65 29 37 22 45 40 32 31 29 40 42 48 34 46 23 46 22 35 38 23 58 30 31 43 41 38 64 49 34 40 30 29 37 45 42 52 32 33 27 35 35 44 38 44 44 48 21 38 41 39 30 30 40 17 44 37 37 30 26 36 47 23 44 51 56 41 47 34 26 32 46 6 46 45 37 40 25 29 33 21 30 42 54 45 34 42 42 43 52 43 63 28 42 60 42 53 46 29 29 30 42 57 27 45 37 44 34 41 25 43 30 37 52 41 37 44 28 36 47 31 33 31 23 23 43 67 40 51 48 24 30 16 57 33 43 45 37 20 40 30 45 40 48 31 48 30 48 37 53 41 41 37 62 59 39 35 39 36 37 53 45 50 54 35 37 32 31 35 47 45 34 41 23 42 52 43 32 35 38 29 37 33 23 37 40 29 41 33 39 50 47 47 36 38 40 43 43 23 40 43 42 23 49 31 46 41 23 37 26 32 30 30 29 19 26 30 29 25 44 41 36 36 32 31 21 37 46 25 33 20 40 47 54 31 29 35 37 55 23 25 43 29 53 23 35 40 50 41 58 22 42 35 15 40 43 22 49 36 59 37 44 45 23 38 39 33 55 46 43 27 28 33 33 29 43 30 31 41 29 47 43 50 47 41 26 39 43 49 20 45 30 55 47 41 33 29 38 30 38 45 32 37 28 41 34 41 32 47 23 50 30 40 37 32 33 42 43 48 21 40 49 25 38 34 45 19 42 39 30 26 34 38 49 44 44 49 37 37 38 38 30 32 41 46 31 30 52 29 35 40 50 27 34 40 59 40 33 58 55 51 43 41 15 49 29 36 43 34 43 39 60 34 40 29 48 37 44 33 13 34 23 22 31 27 33 26 29 56 31 50 46 27 36 45 47 20 53 41 29 36 44 55 30 19 56 33 44 29 37 31 30 48 63 44 46 47 40 19 20 43 38 24 21 30 41 15 54 33 33 30 41 48 29 33 37 33 56 38 30 33 33 26 44 60 39 37 53 35 30 50 39 34 30 26 29 45 29 26 37 59 26 55 30 46 48 49 24 45 27 47 37 50 39 32 37 51 19 29 40 35 37 27 33 27 41 33 40 37 36 51 44 27 42 26 35 37 50 25 33 30 42 36 33 37 36 44 34 55 23 38 41 31 48 23 48 25 37 51 52 43 37 35 29 33 37 37 43 20 34 34 51 34 26 33 51 40 37 37 38 38 37 26 48 38 36 34 61 38 24 31 38 30 49 44 42 36 21 42 37 36 36 29 26 42 51 51 52 45 34 31 48 40 37 62 39 47 27 32 39 49 18 41 20 48 13 51 23 31 46 45 37 41 38 38 49 24 18 41 24 32 40 42 51 26 42 33 29 27 30 34 57 46 54 33 36 16 31 53 44 29 37 33 40 51 22 43 43 54 43 37 17 43 51 27 39 44 26 43 34 45 29 40 22 55 29 44 33 55 34 38 52 45 30 28 38 33 47 29 49 50 37 42 56 47 29 39 22 56 33 41 59 46 22 15 44 51 10 41 33 46 16 34 53 49 34 39 25 30 29 29 30 40 22 52 54 48 38 20 38 30 43 43 20 53 33 40 69 46 41 37 33 40 33 30 47 29 46 43 35 44 30 52 43 36 44 48 33 57 47 28 30 33 34 61 24 45 30 44 41 53 61 51 39 45 33 50 24 44 39 36 42 41 37 34 25 59 57 43 48 17 26 36 36 37 53 22 51 17 59 44 44 47 45 43 37 47 48 37 39 45 38 43 43 43 20 40 51 33 44 32 26 30 26 41 26 45 52 31 27 29 31 51 30 29 34 33 37 23 55 53 38 33 53 41 43 43 32 39 16 24 30 34 43 36 29 24 43 51 37 32 51 37 42 52 45 30 47 33 45 15 31 57 68 29 56 39 39 33 51 19 43 32 19 26 41 24 27 51 27 10 32 29 35 51 40 32 40 24 43 17 30 30 43 44 37 47 40 42 57 36 37 41 44 50 31 59 39 17 33 31 29 49 33 45 26 23 41 43 51 31 49 37 39 34 30 53 16 38 29 26 41 22 42 47 43 27 18 20 23 26 41 41 36 55 40 50 16 33 41 47 44 37 35 34 40 50 45 29 35 51 37 49 43 37 30 37 54 42 43 37 45 23 33 40 51 37 41 40 37 26 46 37 54 28 23 33 30 37 30 19 41 47 37 37 30 29 40 47 41 43 51 36 52 23 30 22 49 29 16 47 19 28 40 43 49 33 33 40 51 40 33 30 44 35 13 51 37 37 44 44 36 20 48 34 40 19 34 29 44 37 31 31 43 40 51 38 40 41 49 45 30 33 35 36 32 37 33 41 32 41 26 54 37 48 10 33 23 38 51 37 20 34 47 29 38 38 41 31 47 36 33 34 59 23 36 40 36 35 23 51 47 37 45 49 45 43 17 30 33 44 48 56 37 41 33 37 42 19 37 39 47 37 34 47 50 50 43 34 22 56 53 37 44 36 44 44 33 29 53 27 45 28 52 22 35 38 30 47 48 31 13 37 51 39 31 37 52 56 32 31 48 29 34 33 45 33 29 36 27 34 55 31 22 43 43 30 30 33 27 26 54 54 41 37 30 31 30 23 26 16 37 41 50 34 34 35 43 32 32 33 23 31 29 40 35 52 68 40 31 49 36 28 36 16 27 34 34 39 40 23 32 43 37 47 27 51 20 48 50 29 45 43 33 55 27 43 37 33 30 17 44 16 29 26 49 39 26 23 30 38 43 42 20 29 57 54 54 40 38 30 27 29 52 20 33 50 53 41 51 51 34 33 36 43 45 45 52 37 45 35 55 32 51 38 37 30 43 38 38 50 31 33 37 33 44 51 39 35 27 34 45 32 30 33 40 44 54 30 39 26 45 43 36 37 36 40 24 36 40 41 37 24 50 33 27 30 42 48 44 37 41 39 35 31 22 23 48 38 61 51 40 37 48 45 26 40 47 47 19 34 44 38 37 52 26 29 34 45 52 36 46 33 27 56 27 41 51 32 56 41 19 27 36 33 32 37 51 37 31 44 26 34 41 24 34 31 51 35 49 40 22 37 46 55 31 34 36 48 29 47 45 44 34 37 16 62 44 40 12 61 29 24 39 40 36 44 30 52 39 42 46 39 33 37 29 36 37 41 40 40 31 57 51 33 48 58 40 40 34 36 44 47 27 30 30 29 31 37 22 34 50 50 30 44 47 38 38 53 35 41 42 45 43 41 33 41 23 34 48 27 41 37 25 59 34 26 30 40 33 43 37 37 27 31 51 49 49 26 22 43 36 56 26 27 31 45 38 36 26 23 68 29 33 35 15 44 49 30 50 50 27 25 30 61 59 40 43 30 42 33 25 27 41 32 27 29 42 40 59 29 35 13 37 45 31 33 26 38 24 37 39 51 33 30 29 31 37 37 35 20 32 37 35 43 51 35 37 49 45 51 45 59 44 33 19 48 40 31 53 38 36 41 48 33 23 20 43 39 48 29 41 33 45 45 22 36 46 47 52 57 23 35 44 45 19 51 29 40 25 26 39 14 33 39 28 27 26 16 23 32 26 25 39 40 33 37 31 40 38 41 42 44 34 48 26 44 19 34 51 31 29 46 33 49 47 25 36 57 52 27 48 35 53 48 25 42 31 42 43 34 52 35 30 41 54 29 54 31 45 58 48 33 36 33 51 36 37 36 38 42 49 33 46 44 36 40 27 12 16 34 51 54 40 36 41 50 49 40 36 37 33 26 21 44 28 22 25 36 44 30 26 57 42 26 40 15 37 23 37 30 27 37 37 33 39 45 33 41 39 49 43 51 34 36 23 50 55 30 46 33 37 40 29 30 37 16 33 40 61 23 57 37 40 17 46 22 30 37 37 36 42 23 42 44 40 51 50 25 42 48 40 25 20 35 50 32 16 32 43 47 37 53 45 25 39 51 34 49 34 15 40 34 47 50 49 31 37 38 52 40 40 40 52 45 47 41 38 45 37 39 36 20 23 27 39 55 40 40 40 37 31 43 39 49 44 46 36 19 41 38 29 30 51 30 32 29 55 41 56 47 46 49 35 55 40 33 41 23 41 38 47 27 23 23 19 48 32 33 40 29 26 36 31 26 30 42 34 29 41 48 49 39 29 42 45 33 49 34 36 31 33 26 33 24 37 37 54 51 38 33 38 53 43 31 40 23 54 45 59 35 58 34 54 20 31 30 38 37 46 58 27 31 38 37 33 34 20 45 42 30 34 45 30 31 20 35 32 29 42 37 36 45 34 50 37 37 33 32 50 28 39 37 58 33 34 30 45 41 35 41 40 34 40 19 32 54 48 35 24 41 43 29 35 33 34 27 31 29 37 40 40 61 45 48 27 33 43 33 39 17 26 40 29 15 36 51 24 29 22 34 51 53 37 36 47 57 40 39 23 59 36 43 52 48 33 41 37 33 34 46 41 20 26 52 36 33 60 50 26 45 55 19 52 33 40 57 30 29 43 44 33 34 30 48 44 44 61 44 32 30 26 34 56 37 23 50 33 31 34 29 50 30 33 51 39 56 38 63 47 37 37 19 44 34 31 26 39 46 32 44 18 34 30 37 39 40 30 43 38 43 31 23 46 35 42 42 62 42 23 25 36 36 32 51 33 32 41 41 50 12 40 47 65 58 31 30 42 55 39 26 31 33 34 43 49 30 44 41 44 42 40 50 47 45 34 29 37 31 31 29 50 17 25 37 31 42 27 51 34 44 41 29 43 18 59 44 33 33 40 51 36 44 23 44 42 42 44 38 28 24 37 52 38 37 43 30 37 54 38 38 29 37 30 38 54 35 41 34 64 66 17 37 32 54 55 54 45 22 41 38 43 41 44 51 44 54 57 18 50 32 34 65 41 37 29 44 49 42 50 65 43 29 38 47 24 32 38 40 30 39 30 36 33 48 26 40 56 40 19 44 64 37 26 22 47 27 48 51 40 39 41 39 32 66 37 27 42 43 31 57 44 30 55 39 46 38 36 37 30 43 37 31 44 46 22 47 51 40 35 39 36 53 45 30 41 48 31 26 34 50 29 40 38 39 36 31 57 40 27 43 37 42 31 33 40 38 28 37 48 40 35 53 43 37 45 19 40 61 23 40 38 58 58 22 48 24 45 33 36 43 34 32 53 31 47 42 25 26 19 37 37 47 26 47 51 43 41 16 54 38 16 27 42 30 31 44 45 13 22 30 42 39 35 38 28 41 45 20 40 33 34 27 37 44 30 21 33 45 58 37 45 42 28 48 41 26 39 44 37 41 45 40 32 46 41 36 49 41 27 40 42 39 13 29 33 29 40 42 50 33 54 33 37 53 43 46 41 43 33 51 29 19 17 35 31 24 47 37 34 55 57 41 47 30 28 32 40 32 41 24 33 23 33 27 45 46 41 57 26 51 23 26 29 36 53 40 35 28 51 44 43 31 29 37 59 36 37 35 37 27 32 36 27 50 36 47 37 22 28 16 33 38 26 28 31 52 41 26 43 46 20 37 45 28 39 26 31 47 20 31 38 37 47 41 46 52 34 41 49 41 32 38 36 48 37 45 55 21 44 41 37 43 35 23 34 25 47 35 40 38 40 59 36 49 33 40</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSB(1.81109335554812, 2.860437096544463, -16.730046637541655, 95.86499263792334)</t>
-  </si>
-  <si>
-    <t>3 9 8 9 6 17 9 15 16 22 10 14 20 17 34 24 17 13 20 30 17 9 20 17 24 14 22 16 10 20 21 22 13 21 13 18 27 20 29 26 13 27 10 16 13 11 13 25 3 24 3 10 7 13 24 13 21 10 12 21 31 9 20 5 34 23 25 22 24 10 28 13 31 13 20 14 13 21 26 21 16 10 27 9 13 15 12 26 15 16 19 15 12 24 25 28 6 16 27 22 7 27 7 13 18 20 9 17 13 24 14 19 7 20 20 17 23 8 17 3 20 12 24 16 10 19 16 24 6 10 20 23 20 30 9 7 3 17 24 16 23 12 6 3 30 21 21 0 26 17 21 13 12 16 16 10 17 6 30 14 20 10 10 7 24 12 9 13 10 18 17 28 24 31 0 13 14 25 19 3 17 28 20 21 16 6 3 10 29 17 24 21 17 19 13 17 16 3 13 13 23 7 24 14 6 43 14 15 24 21 10 21 22 24 16 17 22 27 27 23 27 13 6 36 20 24 16 23 23 28 24 21 3 21 16 35 27 13 13 15 23 6 0 14 6 24 24 20 10 30 13 29 32 6 17 23 22 21 20 9 9 12 20 23 23 6 20 3 24 24 20 27 0 14 14 17 20 17 20 24 3 30 21 20 16 14 13 17 19 25 19 14 29 10 14 21 20 30 17 12 29 21 31 23 11 13 18 16 31 24 9 13 6 21 7 19 10 13 23 18 17 27 23 10 13 10 6 22 16 17 13 25 23 13 19 27 33 29 11 12 28 13 27 23 6 10 17 9 23 21 7 13 17 17 17 24 13 13 15 20 13 28 16 24 34 15 32 21 17 20 21 6 26 9 9 19 18 18 7 17 24 14 23 13 9 27 12 27 19 9 24 17 28 15 26 13 23 20 13 21 13 30 6 31 23 14 14 23 7 17 27 17 28 25 20 14 34 20 24 24 15 21 9 18 17 20 21 13 14 21 9 20 12 0 9 6 6 20 12 16 9 26 31 14 9 13 16 14 26 20 14 13 17 27 6 23 14 14 3 16 19 0 14 15 14 20 21 9 17 9 3 12 19 19 18 20 26 6 7 16 17 13 3 10 0 24 13 19 16 19 38 16 10 9 26 13 17 3 7 30 24 9 13 7 21 17 16 13 14 14 20 24 21 3 3 9 38 3 19 18 28 10 16 24 16 13 24 20 14 12 7 13 16 16 17 18 17 20 10 32 7 29 13 13 14 14 3 9 24 10 20 19 34 17 13 20 13 40 24 27 22 20 12 13 28 24 31 19 21 17 13 3 13 10 13 10 10 26 10 14 14 15 7 6 7 14 27 30 26 24 24 18 13 6 13 14 16 14 37 13 11 20 22 14 20 17 16 19 16 16 13 28 13 6 17 19 28 13 21 23 17 24 13 21 18 13 20 10 3 7 24 30 21 20 14 27 12 16 12 30 38 16 9 24 24 14 17 13 16 24 29 6 7 16 16 10 14 21 36 10 7 28 9 27 13 7 12 20 16 17 15 20 22 33 30 14 17 23 24 11 9 17 17 13 13 20 34 17 17 20 3 3 10 10 12 26 23 19 6 16 16 19 10 13 29 16 7 27 24 17 9 27 14 23 17 21 15 6 19 10 13 0 17 16 26 9 17 17 27 34 27 12 14 0 17 20 32 24 17 23 27 24 24 10 9 18 21 13 13 21 7 19 13 24 27 34 6 10 30 14 10 14 12 27 7 27 15 24 7 10 26 19 20 26 10 6 10 19 24 10 0 14 7 20 16 7 30 16 17 31 10 18 14 16 27 20 6 23 20 13 3 9 6 31 24 16 16 13 16 0 18 10 20 16 17 17 3 12 10 35 9 19 8 30 21 3 15 17 7 25 16 13 13 12 6 17 14 19 3 9 12 9 20 13 19 6 3 10 26 6 10 17 29 23 17 16 16 16 17 10 3 12 13 6 3 19 19 10 17 23 17 15 6 30 3 21 3 34 23 20 13 12 22 10 23 17 19 21 3 24 17 12 9 23 8 16 36 23 17 12 19 19 20 22 14 16 19 22 26 14 18 24 27 16 20 18 22 9 15 13 14 13 21 16 28 13 16 13 20 6 30 19 21 6 29 22 13 17 23 13 10 23 17 12 20 18 17 3 17 10 14 22 14 18 24 22 23 17 15 17 10 13 23 28 15 21 17 24 10 15 17 23 26 24 16 6 22 14 10 7 15 27 31 16 20 10 26 6 7 13 18 17 26 10 24 17 17 16 12 6 14 23 20 17 7 19 9 17 18 21 24 15 17 18 20 30 24 16 18 9 20 16 24 27 12 6 17 19 20 16 19 26 14 16 16 14 12 22 20 20 14 13 23 31 19 23 33 8 14 21 21 12 13 6 17 18 16 15 14 24 7 6 13 16 24 17 7 24 16 13 10 6 16 13 13 13 19 3 13 20 24 26 30 10 17 24 17 3 16 9 23 10 13 20 19 13 27 24 17 27 14 20 13 14 23 31 12 9 19 17 19 0 6 23 17 14 10 17 13 12 25 17 17 3 16 23 11 15 10 17 12 13 20 27 27 26 20 13 20 7 20 20 12 16 24 16 26 17 3 28 14 21 14 30 16 20 13 6 23 13 27 10 13 16 3 10 20 9 23 17 15 24 20 7 23 15 12 20 17 20 14 7 13 17 20 9 14 10 27 17 12 30 27 6 20 16 3 13 16 7 42 15 20 20 26 20 15 30 17 17 13 24 21 30 23 28 6 20 23 14 12 31 17 13 13 9 24 18 19 13 17 31 33 28 17 12 13 14 12 16 14 27 27 26 3 6 13 19 10 9 28 7 17 24 16 28 20 9 34 13 24 22 12 24 16 17 13 13 23 9 20 24 13 11 10 24 30 10 28 17 13 23 14 20 12 14 20 3 26 14 19 26 23 31 34 19 22 6 27 24 34 18 9 17 14 25 17 28 24 10 6 24 24 14 42 17 27 19 11 17 14 6 10 28 23 9 16 20 31 28 6 19 17 34 27 23 9 14 3 17 20 16 25 14 7 10 10 24 20 13 31 16 19 13 17 20 15 12 11 22 27 10 13 19 10 15 38 30 6 24 16 10 26 27 19 17 21 37 16 3 14 27 13 13 17 20 8 26 3 15 31 10 14 27 9 13 6 17 22 20 13 20 17 27 13 27 22 21 17 10 14 9 24 17 3 20 14 13 27 30 17 20 16 28 9 20 9 20 10 19 19 10 17 6 19 6 17 7 17 44 23 28 22 14 16 21 17 35 13 25 14 20 13 16 22 27 17 12 17 10 16 13 17 6 23 19 27 23 9 19 17 14 20 27 19 18 23 27 17 35 6 6 24 21 20 0 10 19 7 14 15 30 12 34 31 23 26 19 17 16 16 24 28 9 24 23 14 20 10 27 17 38 13 9 3 16 27 13 13 17 23 15 3 9 6 7 27 13 7 20 6 20 22 23 22 3 13 24 20 7 16 19 14 6 16 13 12 23 23 14 27 12 13 24 20 20 23 3 6 10 10 14 17 23 20 27 24 17 23 20 19 17 14 16 3 17 20 18 13 25 11 21 23 21 20 20 23 14 12 13 23 24 10 21 6 24 24 7 20 16 10 21 13 6 23 30 21 23 14 33 10 3 23 25 11 21 17 13 16 24 27 23 6 12 13 20 10 23 3 17 30 16 14 29 3 21 24 16 21 21 13 13 17 16 17 21 6 9 3 21 21 9 13 27 15 14 20 23 31 13 23 20 17 25 14 24 10 30 3 30 9 29 14 20 17 21 10 7 10 24 28 14 20 20 6 13 24 19 16 18 3 17 19 10 21 10 13 13 13 15 11 16 20 13 12 13 31 6 27 6 6 3 16 30 17 16 14 21 20 17 13 7 24 29 24 16 15 21 27 30 14 3 28 27 24 20 15 3 23 10 31 6 16 41 3 29 10 13 10 17 14 13 10 16 10 19 20 20 21 6 17 20 17 17 23 10 30 3 30 10 21 9 14 16 0 31 23 9 35 9 23 17 16 22 17 20 10 24 14 20 17 32 21 6 19 31 23 6 17 22 12 7 27 12 7 10 8 22 10 26 30 6 9 21 13 16 20 6 16 17 12 7 38 7 17 28 3 6 17 20 16 10 20 6 17 24 23 14 24 20 27 15 14 31 18 31 17 23 10 20 6 3 7 20 19 14 25 9 10 10 7 20 16 23 23 10 14 3 29 21 18 25 13 20 30 11 15 17 14 21 27 30 12 24 30 9 6 10 21 12 17 23 23 10 15 0 15 10 9 27 17 3 16 17 10 10 27 16 9 19 20 13 17 16 28 10 24 3 8 31 15 22 19 7 9 13 11 9 20 14 9 23 9 19 0 21 13 14 6 24 12 12 13 10 17 20 6 3 20 10 34 6 13 34 23 16 23 10 13 34 18 21 25 37 14 14 14 8 27 15 13 13 27 17 21 23 14 7 20 15 20 6 14 14 27 16 8 12 20 13 17 14 8 24 14 23 24 24 16 13 20 27 16 13 13 13 21 16 6 7 20 14 28 3 3 17 19 21 24 23 18 23 13 38 10 31 23 13 30 3 16 9 24 17 10 8 30 10 16 23 27 18 17 14 3 12 12 9 28 3 16 10 17 15 3 20 20 13 19 17 13 30 12 9 24 17 0 21 21 26 29 6 19 10 23 20 22 13 26 24 14 22 27 30 7 19 3 13 16 15 20 10 30 12 16 30 17 3 16 19 24 17 0 13 16 23 24 17 9 16 6 31 13 28 16 17 16 10 6 17 16 14 13 27 20 8 17 28 0 17 28 29 21 3 31 3 13 16 27 17 19 24 20 17 38 10 8 15 25 23 21 13 16 13 20 10 14 10 20 26 10 26 20 12 22 17 22 13 18 3 7 22 10 28 17 13 9 10 17 20 10 27 26 9 12 13 17 6 16 3 14 20 20 17 16 17 13 23 16 18 14 12 22 7 9 9 27 9 22 14 10 13 25 30 9 13 21 9 10 32 16 19 23 9 16 31 13 10 9 0 17 16 6 13 13 10 15 17 3 7 27 17 13 24 13 17 25 9 18 25 13 27 21 3 23 10 19 17 19 23 14 10 28 3 13 27 14 28 24 16 9 19 15 3 24 16 2 19 31 20 17 21 13 7 13 25 21 34 10 9 20 17 17 17 23 24 21 21 38 7 21 33 0 16 9 23 19 0 10 34 14 20 10 14 23 21 0 12 7 10 17 9 13 18 28 17 12 13 13 23 13 16 24 10 21 7 13 24 19 23 15 10 16 24 17 24 29 17 13 16 8 3 17 6 24 19 9 9 17 10 7 30 13 26 23 13 3 14 21 10 16 23 17 15 20 7 28 12 13 29 9 6 20 17 24 34 3 13 7 20 10 16 15 13 10 20 19 17 6 30 26 25 10 3 28 22 27 9 7 12 11 13 17 19 27 17 40 16 13 9 14 9 23 31 17 20 13 13 6 6 15 6 14 26 16 17 8 13 13 10 15 23 20 11 35 21 6 13 15 13 23 22 27 20 24 18 6 23 13 9 20 16 7 20 9 10 16 7 23 16 16 10 10 7 23 20 9 16 20 27 23 13 9 24 17 35 32 17 19 16 20 7 16 20 19 17 31 6 9 24 12 23 22 6 14 6 28 12 23 15 14 13 9 25 10 21 24 14 17 15 14 19 14 17 21 22 21 19 31 8 24 7 11 21 19 10 23 19 16 23 25 23 10 22 13 13 0 0 17 21 9 27 17 17 0 16 22 18 24 23 33 19 13 12 20 0 17 24 13 24 13 24 17 19 17 25 21 12 15 20 21 17 24 17 24 6 17 14 6 19 13 13 10 12 16 27 10 24 16 8 13 9 16 6 13 6 16 30 24 27 22 10 17 26 16 24 19 18 10 13 6 22 8 6 12 13 17 13 33 19 20 20 13 24 9 16 24 24 17 20 22 23 22 6 3 3 9 24 20 34 14 14 7 6 27 14 20 17 20 16 6 27 7 6 19 20 20 33 21 14 10 30 16 21 6 17 17 0 33 16 10 20 16 10 16 24 10 9 20 19 19 17 17 28 10 23 17 27 6 17 10 15 17 14 12 13 12 26 20 27 13 24 20 16 17 13 14 10 10 17 14 12 3 12 14 14 31 24 7 26 16 10 18 24 13 15 17 20 20 27 10 9 3 19 13 27 10 20 27 12 31 16 35 27 12 24 28 9 20 30 9 29 10 23 23 17 13 23 9 20 13 23 24 23 27 43 20 29 20 18 10 21 13 16 23 13 18 10 14 9 25 6 20 10 17 17 21 17 16 17 20 23 14 21 41 20 14 20 22 16 26 13 16 20 23 16 3 3 23 24 27 21 16 24 25 22 10 17 6 24 19 6 14 20 24 13 10 24 19 19 10 16 23 28 24 28 11 3 20 14 17 25 6 17 27 26 23 6 27 20 24 13 17 17 17 7 10 26 13 20 12 30 13 19 17 7 31 17 16 6 16 20 17 17 23 10 27 11 13 21 13 13 3 10 17 17 22 7 17 7 17 10 22 20 20 20 21 13 6 28 34 23 31 0 12 24 13 13 24 10 14 17 10 16 28 30 23 21 10 30 25 11 10 7 13 23 14 27 13 31 34 31 14 13 16 10 16 7 24 5 30 10 29 9 15 10 10 18 12 17 24 13 20 23 26 20 3 17 14 21 28 19 16 6 6 28 18 14 23 14 10 31 9 23 6 25 27 6 18 22 13 13 9 28 17 7 20 23 9 20 6 21 9 23 24 30 26 33 16 15 26 14 16 19 20 9 26 24 13 17 24 23 22 12 9 6 6 6 19 3 9 20 7 17 6 17 17 16 13 21 13 9 17 14 34 32 17 16 10 7 21 16 23 17 23 17 19 21 3 3 21 20 19 19 9 7 27 23 13 16 21 13 14 27 18 10 29 20 26 19 3 7 22 13 27 27 19 3 24 20 20 31 31 22 6 24 10 14 3 20 10 17 12 17 8 22 10 16 16 20 22 14 10 10 27 3 10 24 13 21 13 17 37 13 22 0 20 23 13 23 27 20 31 22 24 12 10 10 16 6 24 31 37 16 33 17 22 24 9 17 13 26 31 16 10 3 14 16 3 13 6 20 17 7 31 10 26 23 13 17 10 21 29 30 14 19 24 34 10 7 3 13 16 10 7 14 16 24 13 7 31 16 38 24 27 19 23 12 15 12 24 17 20 13 23 16 30 17 0 17 10 16 29 15 21 16 10 17 0 20 19 15 13 25 13 12 13 14 23 20 31 10 15 3 20 13 17 12 29 13 3 16 27 22 16 27 30 10 31 19 13 9 17 15 18 33 24 33 0 37 8 17 26 22 16 6 27 9 24 27 27 0 14 10 3 14 9 7 16 23 23 6 14 17 37 22 19 22 9 9 24 20 23 10 10 13 12 20 16 17 17 13 19 34 7 16 18 9 9 16 24 19 12 24 3 17 17 16 13 18 13 24 14 7 6 9 34 14 7 16 24 10 20 10 24 10 13 17 15 28 28 17 13 26 24 27 27 3 16 23 10 15 20 17 31 16 19 17 14 13 23 17 23 21 13 19 10 20 16 12 28 40 13 20 10 25 16 10 25 16 6 22 24 13 9 5 10 26 20 17 19 20 10 22 6 18 30 15 20 14 17 13 29 34 8 3 14 7 3 17 19 6 23 24 19 13 27 18 10 27 10 10 16 16 15 21 13 20 12 20 19 16 14 3 37 17 13 10 16 17 20 9 28 29 25 13 16 9 19 11 18 23 23 14 24 23 13 20 16 7 17 33 10 13 6 9 14 35 13 26 10 12 20 34 13 13 28 14 14 7 20 14 20 24 10 0 16 27 7 17 17 20 20 23 16 34 12 16 12 33 18 35 17 23 19 21 23 16 10 17 14 9 14 17 20 28 24 13 23 12 24 13 18 3 7 10 23 16 24 16 10 14 12 13 30 19 19 14 3 10 27 24 27 24 10 13 13 17 17 10 20 17 33 24 17 31 28 16 17 17 13 14 23 23 22 21 14 16 12 20 20 19 28 13 17 17 6 17 17 19 27 24 24 19 17 16 14 13 19 37 20 6 6 20 13 10 6 24 13 21 7 23 12 13 24 13 19 7 33 3 9 6 13 7 10 36 14 20 26 9 15 17 14 13 20 19 30 20 20 14 19 3 9 22 22 6 14 13 6 11 23 23 10 16 9 13 14 31 20 6 16 23 23 17 24 17 17 28 18 13 9 20 3 9 21 24 3 10 21 15 13 7 26 14 28 15 26 14 17 15 16 20 17 10 19 27 6 11 0 21 10 22 20 24 20 20 16 10 9 21 16 23 13 14 20 3 10 11 13 19 7 21 16 15 7 10 16 24 26 13 19 27 13 13 28 17 10 17 10 17 13 30 24 17 20 20 24 33 17 10 22 13 36 21 16 23 28 13 20 7 14 13 13 20 27 14 9 20 9 20 17 9 17 17 7 17 13 3 7 7 16 31 13 21 7 3 10 24 10 24 14 24 9 24 20 10 27 7 16 6 20 3 10 20 31 16 26 15 17 30 14 6 32 10 9 19 10 31 19 17 13 21 10 34 16 13 3 21 17 16 6 13 16 23 23 10 17 20 26 17 19 14 19 15 9 6 20 19 13 13 7 9 14 16 21 29 14 3 6 17 19 13 3 21 20 17 27 21 13 27 20 24 12 15 20 12 22 7 3 16 10 21 8 13 21 9 10 24 17 23 26 34 6 13 23 11 6 0 13 17 10 21 38 13 16 17 8 24 16 13 28 17 17 33 24 14 24 20 3 10 16 13 28 25 17 6 16 7 17 14 27 20 7 10 9 10 9 9 13 17 17 20 29 17 20 17 12 6 10 24 13 13 22 13 23 16 21 38 9 18 3 13 23 17 20 26 14 23 7 17 10 10 13 20 19 30 24 19 6 23 17 21 7 13 9 17 41 3 10 10 14 9 9 30 7 17 7 10 9 13 17 16 20 9 20 13 17 13 33 9 13 26 13 10 19 27 28 3 13 23 19 6 3 21 17 17 10 19 34 16 17 6 24 0 9 17 17 30 6 21 31 24 14 19 23 16 28 14 14 19 24 20 10 3 20 18 10 13 20 31 32 7 14 24 20 19 11 12 10 28 20 12 9 6 20 0 26 6 23 21 13 8 18 12 13 15 16 12 19 3 18 23 16 23 16 13 16 18 10 10 8 13 19 19 24 24 3 12 23 20 14 20 23 14 14 29 23 27 18 10 16 15 16 19 21 15 20 9 10 22 20 9 19 6 3 16 9 15 22 20 21 10 17 20 20 27 13 34 21 7 13 26 14 10 17 3 10 10 24 18 19 27 34 13 16 14 9 13 22 16 14 21 19 13 3 17 22 13 7 13 16 13 23 11 22 37 18 11 7 19 27 16 9 10 27 14 13 20 10 17 31 9 19 24 13 17 7 6 21 26 16 20 10 28 23 17 24 20 18 17 27 16 17 9 6 30 10 20 17 10 21 12 12 44 24 3 13 18 10 22 13 29 7 10 18 10 19 19 7 18 24 16 20 7 3 7 28 3 23 33 23 20 27 23 16 19 7 12 9 7 19 19 17 12 24 23 12 30 14 22 21 13 20 13 34 23 20 20 21 13 14 17 9 9 10 23 36 16 27 22 24 3 23 9 21 23 17 13 21 10 14 24 9 21 20 27 23 9 21 29 9 21 38 20 26 15 9 26 19 7 21 14 17 3 14 17 28 14 6 28 21 15 16 13 12 24 13 20 20 16 21 6 13 3 19 25 20 17 20 21 10 3 22 19 6 9 17 6 10 13 23 6 9 13 20 7 19 13 16 14 10 24 20 3 0 8 21 6 10 14 10 7 21 15 24 20 24 9 16 23 27 10 22 24 8 21 6 13 24 29 9 20 19 10 14 21 15 7 12 6 18 13 14 23 24 21 21 24 17 21 7 20 0 18 20 14 3 7 16 27 10 28 27 10 27 24 13 6 7 6 10 17 24 17 17 14 12 18 22 13 9 31 13 20 7 16 8 10 27 10 21 16 25 16 24 24 12 21 23 21 20 27 16 17 9 13 14 23 13 6 19 10 26 14 16 16 16 14 14 15 9 30 20 28 7 20 21 9 21 24 6 11 24 9 12 13 20 10 10 20 9 16 16 12 3 17 14 12 17 14 23 17 16 24 34 13 27 10 17 23 9 13 6 16 10 23 10 14 27 10 38 13 24 13 20 34 7 11 16 17 26 10 37 15 16 27 28 13 3 18 24 17 21 10 20 6 23 20 13 33 37 24 3 17 13 14 10 13 3 23 19 17 16 22 22 16 13 21 17 11 19 7 16 22 20 15 37 19 13 13 24 20 24 20 31 13 17 17 13 19 13 10 17 24 28 10 9 20 21 15 10 24 20 23 23 3 13 17 6 13 24 24 9 16 19 26 19 16 11 25 24 14 14 24 19 8 16 21 7 14 20 9 3 17 10 18 10 13 9 13 7 18 13 3 16 16 22 10 16 20 20 20 16 12 14 0 12 10 23 20 10 35 14 0 20 13 15 27 10 13 16 16 16 9 3 3 25 20 17 3 33 27 13 15 17 12 17 20 14 21 20 9 14 29 17 17 17 17 0 14 14 9 20 16 10 3 26 23 18 16 10 19 23 14 9 13 21 13 3 20 23 10 35 26 23 9 20 24 14 3 22 9 13 19 29 16 26 26 12 19 27 12 12 17 27 15 3 6 10 33 10 30 16 7 24 22 9 19 28 11 24 24 10 10 19 18 6 16 13 9 6 17 19 10 34 16 16 13 21 16 20 17 10 17 13 20 24 14 20 13 10 13 14 20 11 10 20 16 37 6 9 12 26 26 13 12 16 10 20 30 7 25 30 7 12 3 20 20 17 26 14 16 9 15 26 6 20 20 33 17 23 24 9 14 17 10 24 27 16 14 13 16 3 18 12 24 13 23 17 24 6 26 17 19 27 14 10 13 12 28 24 10 13 13 29 19 24 15 14 20 27 9 23 17 20 27 17 16 20 24 8 21 20 21 24 17 13 24 23 18 15 19 10 21 6 37 9 14 31 6 10 16 23 3 20 27 19 23 10 3 24 19 17 19 19 17 31 12 23 6 31 10 28 12 7 19 34 0 16 7 13 16 17 6 14 7 16 14 21 14 17 23 3 17 13 26 17 20 23 10 26 10 23 12 13 10 20 24 13 17 17 13 9 7 24 27 14 9 21 16 26 10 10 17 20 9 28 20 20 13 0 7 17 3 21 23 10 27 22 13 21 10 24 21 28 24 15 15 13 38 10 22 17 24 25 29 24 11 19 13 18 24 3 20 12 25 17 23 16 7 16 27 19 21 6 17 24 25 19 29 24 17 12 9 22 24 22 37 9 15 16 22 28 36 16 13 13 27 6 9 26 34 13 6 10 3 24 10 20 22 17 16 17 10 19 20 23 23 17 7 20 14 17 9 10 23 20 17 7 9 17 27 20 20 18 14 28 9 9 16 6 17 23 19 16 23 9 13 22 25 17 22 25 19 20 9 17 27 23 17 31 20 12 22 9 13 17 17 26 27 20 9 17 18 17 22 28 23 20 13 10 24 24 18 16 24 17 13 17 16 17 20 3 19 17 26 31 21 15 26 13 20 7 13 10 10 20 31 0 13 28 10 20 15 30 14 17 25 16 9 17 16 14 20 26 15 12 20 16 10 10 12 23 13 10 16 18 16 13 24 21 20 23 6 7 13 19 16 16 7 19 14 3 17 24 15 27 6 6 20 23 13 14 20 24 26 13 16 3 13 24 6 6 13 0 25 13 19 16 24 13 19 6 23 24 6 7 12 21 0 24 13 10 16 12 19 24 3 20 33 21 11 21 10 20 18 3 22 28 3 12 20 26 23 26 12 10 20 17 19 23 14 16 18 17 13 10 14 21 17 12 17 30 16 3 21 20 24 21 0 20 24 17 23 6 3 38 23 20 20 20 20 24 10 13 20 16 7 0 16 17 20 19 24 29 13 13 15 17 16 7 17 28 19 27 17 6 10 20 19 38 10 16 28 18 10 24 17 3 18 30 27 30 16 17 17 20 15 10 27 10 26 28 16 15 6 3 30 13 17 23 24 28 10 13 19 20 6 24 13 36 7 17 24 28 7 13 7 23 30 20 16 12 9 20 9 23 7 19 20 16 33 10 29 14 19 25 20 26 23 14 14 24 13 21 17 17 25 31 7 20 14 16 16 27 10 24 15 34 17 20 17 16 24 3 19 16 23 15 20 16 26 17 14 30 20 3 20 9 7 22 3 16 20 3 13 28 23 26 30 34 14 21 20 13 14 16 24 7 11 7 13 17 19 21 37 10 0 17 26 17 17 20 24 25 20 10 27 20 14 12 17 12 26 3 3 41 30 16 21 20 7 14 10 14 7 21 13 21 31 16 37 6 21 10 19 13 19 10 27 14 20 20 17 29 19 19 28 20 21 9 13 27 14 3 13 17 9 19 12 16 24 20 10 15 17 19 28 13 26 16 20 19 31 24 9 33 10 10 14 6 14 16 24 10 26 6 7 17 23 10 21 19 19 10 20 24 13 6 23 17 17 20 6 10 19 10 7 25 6 3 16 9 23 19 27 16 22 7 26 20 13 21 24 20 10 7 16 19 10 13 20 3 16 17 10 34 14 13 18 7 20 14 14 17 6 11 23 7 31 15 24 12 27 10 9 30 34 20 16 21 14 14 6 22 26 17 20 10 13 10 30 21 11 24 16 17 20 16 16 16 18 7 14 9 7 19 9 24 20 14 12 27 3 15 17 16 14 23 12 16 30 13 20 22 24 35 10 27 27 20 22 20 19 10 13 35 14 9 34 20 21 6 9 6 10 30 20 21 17 13 13 21 35 10 6 26 19 10 8 21 10 7 27 21 10 17 23 27 19 8 24 23 16 16 31 13 10 23 13 6 17 7 16 0 20 8 20 13 13 16 14 16 15 17 24 27 27 7 7 20 27 18 24 16 13 3 34 13 26 7 14 26 16 10 17 15 10 12 6 22 18 14 14 9 17 16 14 7 9 20 9 13 25 17 16 15 17 17 20 26 21 23 10 16 7 20 17 12 10 14 14 6 16 24 13 7 17 10 21 23 10 20 10 21 10 29 16 23 7 21 17 13 7 6 10 17 27 31 28 45 23 17 21 6 17 26 9 16 19 20 27 11 13 6 23 17 12 6 23 14 26 16 3 10 9 23 9 30 16 21 6 14 20 18 17 21 18 3 10 28 27 24 16 11 20 20 3 27 7 18 13 18 20 21 13 26 17 16 24 13 24 6 14 24 19 13 21 6 10 27 35 17 24 6 22 18 14 13 7 43 21 21 27 17 10 15 16 6 16 18 20 13 31 20 23 6 13 23 30 14 19 13 20 3 20 21 13 24 31 20 19 9 6 6 34 20 32 14 30 31 28 9 17 9 21 7 23 7 12 17 20 14 14 33 24 12 15 8 20 17 13 24 17 10 10 28 15 17 13 10 17 7 15 24 9 11 16 20 20 16 13 24 30 7 16 16 13 21 21 6 10 0 7 23 27 7 0 12 18 24 23 23 24 32 10 19 11 14 28 17 12 26 6 10 6 27 16 6 16 21 24 18 20 22 17 6 29 24 36 10 23 17 13 27 14 22 12 22 24 24 27 17 13 9 20 10 9 13 19 21 16 16 26 16 3 7 22 34 25 26 17 51 16 24 23 14 16 14 27 20 20 27 16 10 15 11 15 16 16 7 27 20 20 13 27 13 33 16 27 24 21 23 20 17 33 14 21 14 19 16 25 12 24 24 9 16 14 20 23 15 18 14 7 7 6 16 6 10 10 17 16 28 15 24 9 24 14 17 31 15 23 17 24 10 6 3 16 3 3 18 23 12 13 7 24 23 9 16 22 20 16 7 16 16 17 24 21 13 3 15 20 26 17 27 14 11 16 10 23 17 20 21 0 24 13 25 14 13 15 7 20 30 20 21 6 16 14 24 14 17 21 14 14 17 31 7 20 19 30 19 12 31 17 25 34 9 9 7 6 13 13 21 17 38 13 12 21 14 17 19 7 21 16 16 16 13 6 8 14 21 17 13 23 20 14 6 10 6 17 17 25 27 3 17 22 13 27 9 21 10 31 9 39 10 21 17 16 7 7 16 30 10 20 30 23 19 23 24 20 16 6 3 10 14 0 22 27 20 13 13 13 12 13 6 3 17 10 22 16 7 16 9 15 9 17 20 17 15 14 22 7 3 26 19 15 7 17 12 10 7 34 22 16 13 17 30 15 14 22 9 7 9 20 17 20 24 30 16 12 21 20 17 18 12 21 13 17 14 37 21 12 10 23 3 16 6 13 21 34 18 17 16 7 6 9 23 16 17 10 6 9 27 28 16 27 22 17 20 14 10 20 16 15 17 0 10 14 14 12 23 17 33 16 13 14 17 6 14 23 22 10 21 7 7 14 10 17 31 22 16 10 20 7 6 13 23 7 23 9 23 20 10 29 13 28 7 20 10 17 14 22 24 16 33 24 20 0 9 28 29 16 10 25 20 24 10 26 19 10 0 23 7 24 20 22 17 19 17 17 10 19 10 13 17 9 6 9 17 6 13 21 30 16 22 20 14 12 16 16 13 11 6 16 20 9 10 16 30 16 14 27 14 16 6 28 17 18 17 3 24 24 17 15 12 13 16 14 26 10 9 21 10 21 23 10 23 6 21 21 6 27 20 27 18 14 3 20 31 6 21 13 24 17 7 14 18 6 9 24 27 13 10 10 14 6 20 16 6 19 24 30 10 21 18 24 13 24 34 14 10 9 24 20 37 9 12 6 24 10 16 13 40 31 12 27 30 13 17 16 14 23 12 20 7 8 11 3 9 15 6 14 26 20 16 17 6 20 6 7 17 24 27 10 6 3 17 22 22 16 21 17 16 25 0 20 23 11 22 44 24 17 23 19 16 23 20 12 24 21 20 28 12 24 27 32 7 17 16 21 16 16 17 9 18 14 28 9 16 20 21 13 3 7 34 14 23 13 20 35 10 17 15 23 16 24 9 21 21 17 28 19 27 12 15 24 10 21 24 28 12 17 10 13 16 14 26 14 23 38 27 19 17 19 23 3 13 28 23 23 16 16 15 27 17 16 17 10 17 6 26 9 18 19 17 17 0 21 13 40 9 20 17 10 12 14 6 13 17 24 6 18 24 13 7 18 21 14 10 14 13 7 13 23 16 12 17 27 16 10 26 10 16 6 9 23 3 16 10 5 24 5 13 18 6 21 13 23 24 16 23 24 21 17 7 16 7 16 22 13 24 9 23 21 10 7 9 23 13 19 23 13 17 30 14 10 3 14 17 34 14 23 7 7 21 14 27 10 9 23 15 42 30 13 12 24 24 16 23 10 17 14 12 20 11 14 21 24 31 13 7 23 19 21 28 10 31 7 15 27 31 21 14 28 13 23 10 17 15 16 13 9 5 14 25 14 21 19 16 3 24 17 6 19 15 19 7 17 23 6 27 20 19 16 15 24 20 19 10 14 19 12 40 6 10 14 16 27 13 20 24 10 18 14 23 22 25 13 15 22 16 30 17 24 18 16 10 16 17 17 10 9 16 25 10 16 13 10 13 17 13 14 7 26 27 11 20 45 19 27 28 23 7 26 36 12 24 17 13 9 28 9 31 7 14 17 22 24 17 20 31 29 24 27 25 15 9 20 31 10 31 17 16 10 16 13 14 17 13 10 17 21 29 26 3 20 17 16 18 19 10 22 6 23 17 24 0 20 13 17 13 3 21 6 27 13 30 16 12 27 13 24 17 12 3 19 12 10 18 15 17 20 20 6 44 13 13 23 13 21 17 20 10 14 9 27 23 20 23 10 34 14 10 3 15 7 24 20 6 13 13 14 13 10 20 22 16 20 13 20 24 24 12 17 30 6 10 28 9 25 0 12 24 16 23 17 13 16 14 17 17 20 14 27 17 23 10 6 3 3 21 10 21 21 26 27 14 35 17 0 13 27 13 19 14 17 10 20 41 3 5 20 13 21 31 31 26 17 19 14 24 6 6 17 17 23 21 10 13 15 17 3 17 24 14 27 18 24 24 27 21 17 19 10 3 15 3 10 20 23 13 16 0 21 10 7 17 15 27 9 23 15 16 16 31 13 30 12 14 13 16 20 20 14 13 16 24 30 20 14 13 17 14 12 12 13 17 17 16 14 23 6 21 7 20 14 13 19 10 17 34 13 21 17 15 28 13 27 11 17 6 20 16 10 16 18 19 21 11 20 13 17 25 31 22 21 23 13 31 13 12 16 20 10 18 6 10 10 9 9 23 11 30 14 34 24 40 17 6 31 34 17 6 14 27 3 17 24 23 12 14 13 30 19 17 19 18 17 14 17 9 6 36 6 27 26 17 24 24 19 24 13 20 27 31 27 14 14 23 17 14 24 13 23 15 13 14 13 7 21 23 13 24 19 7 15 6 27 31 3 31 17 19 6 35 18 45 3 23 14 23 25 25 13 10 14 14 6 9 3 7 30 27 9 17 32 9 7 7 14 20 20 15 24 35 14 24 19 10 20 3 17 38 16 17 10 16 22 22 28 16 10 10 13 13 20 14 9 10 14 24 12 21 12 20 12 3 24 20 10 14 27 27 20 13 20 10 9 17 24 14 14 16 24 26 22 6 29 20 14 7 9 6 19 24 7 17 10 10 37 9 16 20 13 17 9 18 13 16 23 19 17 7 9 13 20 17 10 31 21 13 13 18 14 17 21 14 16 17 17 27 14 20 19 24 26 17 9 10 21 21 23 25 13 17 24 10 24 13 20 7 10 20 14 13 7 19 0 28 17 20 10 27 10 29 22 13 13 23 21 10 37 24 13 35 10 27 27 31 20 19 19 14 34 29 19 3 10 23 27 20 26 24 14 14 15 19 26 10 31 21 17 13 13 3 23 21 16 9 15 10 13 13 26 21 20 13 27 10 6 20 9 22 20 7 17 14 3 20 17 17 9 20 13 10 7 12 26 6 17 31 17 10 16 13 16 16 22 12 20 14 9 14 15 24 20 9 16 13 10 13 10 20 24 19 15 19 13 19 6 27 16 17 10 29 7 22 16 17 6 32 10 7 31 0 22 11 10 17 19 13 25 20 16 7 13 20 10 12 12 20 7 23 19 5 27 32 17 15 28 16 14 11 16 18 28 0 22 21 10 10 22 10 13 12 16 16 13 6 6 13 8 17 6 20 13 19 28 19 15 13 16 21 27 26 7 10 20 28 16 17 20 27 16 6 24 9 12 23 16 15 20 3 6 25 13 23 17 16 3 17 13 3 20 22 16 20 32 21 20 10 26 7 19 9 33 15 13 21 19 19 0 20 13 9 16 16 10 20 35 3 30 13 25 34 6 32 9 10 28 3 23 20 22 10 27 13 7 13 25 16 13 10 13 12 26 13 17 12 15 27 22 34 16 14 14 6 21 21 10 6 12 6 17 16 0 26 13 20 16 23 31 10 17 6 13 23 22 31 26 13 16 3 14 15 17 35 17 20 7 21 24 3 31 13 21 24 7 21 18 27 14 18 44 17 7 11 23 9 30 18 9 20 22 20 7 21 20 19 10 13 31 16 19 18 6 30 17 3 34 14 27 22 26 15 23 27 3 7 23 13 9 24 13 27 27 17 10 13 21 17 35 28 20 24 12 17 7 21 24 16 16 20 13 14 16 10 28 10 17 9 10 9 17 20 23 10 24 10 29 0 14 35 12 17 16 19 6 20 22 21 26 26 17 26 21 17 27 15 7 17 24 16 20 10 20 3 10 20 27 14 9 17 14 9 6 14 21 24 13 24 13 14 20 0 15 24 26 16 10 16 28 17 30 24 12 16 10 13 10 24 23 10 15 7 12 17 17 19 17 14 17 10 19 17 21 31 23 8 16 3 10 10 9 6 9 19 27 14 42 20 20 17 21 27 13 20 24 26 6 10 24 9 6 18 21 17 13 6 9 10 14 15 21 27 28 6 12 3 18 17 19 21 20 10 16 19 19 0 16 17 10 14 20 18 20 12 23 9 16 16 25 19 17 37 19 15 10 16 13 3 20 15 16 31 20 21 17 6 14 17 6 15 6 23 27 14 13 13 14 10 16 17 17 23 9 19 21 27 26 24 9 18 20 17 24 27 27 10 16 23 16 17 17 14 7 14 23 9 23 11 23 17 13 17 14 17 30 16 26 11 23 7 13 14 28 23 13 33 27 11 23 20 6 22 24 31 14 21 13 19 27 10 7 10 17 18 7 22 14 10 24 13 30 13 30 15 16 17 20 13 25 21 10 25 11 13 13 26 19 17 27 10 6 24 23 13 31 7 9 12 29 20 40 20 10 13 20 6 0 12 22 20 13 9 6 3 16 16 24 6 13 13 12 24 30 16 34 17 34 19 8 13 34 16 14 14 15 27 26 14 22 20 24 9 28 16 13 7 13 12 16 13 7 12 24 20 14 7 13 17 30 21 14 23 14 20 22 12 20 24 16 20 14 6 17 23 17 34 12 26 17 24 23 17 14 20 27 14 17 15 20 26 27 10 28 16 12 16 16 13 10 24 9 17 17 20 13 31 9 13 14 3 30 16 19 7 23 34 20 14 28 13 26 21 13 12 17 9 16 15 17 21 14 13 10 17 21 15 22 20 21 8 7 27 16 19 10 24 3 10 20 13 16 23 15 28 22 6 17 16 19 16 3 23 17 17 11 24 27 17 14 17 10 30 23 14 7 17 16 12 24 16 17 23 16 10 13 6 12 0 10 3 9 14 9 21 9 3 13 13 17 17 19 6 13 9 26 23 28 19 16 10 20 21 9 20 16 21 14 7 20 23 17 16 6 7 13 7 14 19 13 17 13 10 13 9 16 19 10 14 17 29 8 22 14 17 37 6 42 30 10 8 21 23 10 0 21 13 13 13 17 27 21 24 16 20 20 23 10 3 22 22 17 12 16 12 21 21 23 27 10 27 6 15 13 13 31 24 15 16 14 13 16 20 16 6 26 27 17 10 10 31 13 19 15 27 17 7 17 14 23 9 17 16 28 13 17 13 13 21 17 18 15 14 18 17 17 23 26 10 16 0 12 12 12 27 16 20 11 3 13 10 10 16 17 13 16 6 6 20 23 0 16 13 10 24 21 17 14 12 16 10 17 30 17 12 13 17 10 13 30 21 17 14 21 13 3 24 19 30 18 13 21 26 33 11 20 13 16 31 20 21 15 32 16 17 16 22 13 6 13 10 12 10 22 24 20 13 18 26 22 26 23 6 27 0 3 20 24 16 0 24 23 27 17 19 22 13 27 21 12 6 23 21 27 13 22 19 7 13 6 17 14 13 13 10 14 16 21 20 0 18 10 7 8 16 13 17 17 26 6 32 28 29 13 18 14 25 9 23 16 9 19 12 27 3 14 3 6 25 12 16 24 20 9 24 43 13 17 16 30 23 21 9 21 17 17 24 24 9 14 16 18 13 17 30 14 7 29 12 3 21 7 10 27 17 24 16 33 24 20 9 19 24 21 10 22 27 25 16 24 20 12 10 24 20 6 16 21 10 9 14 20 23 30 30 26 27 9 27 13 10 6 13 9 20 22 3 3 7 20 14 16 23 6 34 13 6 23 13 13 27 20 18 7 31 20 9 6 13 0 20 16 13 23 17 19 14 20 7 16 29 17 9 18 13 13 12 17 34 18 10 13 26 24 10 7 21 20 3 33 10 14 7 13 20 24 18 20 16 10 7 23 13 24 16 13 20 17 17 3 29 13 31 0 13 13 10 20 24 17 10 20 20 17 17 20 21 12 14 8 24 23 24 20 20 17 16 9 18 21 10 10 13 27 7 16 10 9 8 21 13 24 13 16 13 13 24 16 10 17 24 17 22 10 14 21 7 20 14 14 17 17 14 23 6 17 7 20 17 20 13 30 17 16 3 19 21 22 15 23 28 14 12 17 12 20 24 19 13 26 21 20 9 13 16 24 29 24 14 10 13 14 9 6 17 26 23 14 23 21 27 10 20 18 17 24 3 22 24 34 15 17 20 26 15 20 8 16 10 21 9 28 24 13 26 23 9 24 8 3 20 14 20 13 7 13 16 44 10 13 30 13 30 13 16 17 13 13 23 3 17 0 12 7 20 23 0 20 28 10 3 34 13 31 6 22 17 14 9 14 13 24 24 24 14 6 12 10 27 17 21 13 22 27 6 34 21 27 10 17 6 10 20 26 21 13 20 28 12 10 16 34 13 17 20 16 16 20 28 8 13 15 3 20 21 18 20 19 14 17 24 10 20 6 14 28 24 15 17 15 28 16 14 28 13 10 10 10 6 3 17 27 28 10 24 14 31 26 17 24 18 7 24 31 13 10 20 13 28 9 17 23 21 10 17 13 14 13 20 18 13 13 16 26 21 10 3 20 7 9 16 15 31 16 24 25 31 20 15 17 13 20 24 18 0 21 13 29 21 7 16 13 10 24 12 25 14 27 18 17 17 13 19 22 13 16 10 12 9 12 17 13 20 13 14 3 0 7 12 6 15 30 26 16 13 28 20 12 17 16 17 17 16 3 10 17 22 3 16 20 27 13 24 17 17 9 16 13 6 10 13 21 24 16 10 27 21 10 9 27 10 15 24 19 17 10 27 10 6 24 20 6 20 28 14 7 3 13 12 14 6 18 10 19 9 10 20 21 9 24 24 31 17 21 7 6 9 13 19 16 10 16 23 24 19 6 27 3 25 20 15 21 17 6 24 28 24 23 10 16 13 15 13 26 11 14 9 7 20 19 34 20 0 29 6 20 23 13 7 13 10 7 3 20 13 13 7 16 25 20 16 17 20 3 24 37 3 10 20 14 19 12 28 6 20 10 10 7 19 0 16 25 31 28 7 11 26 15 22 14 25 13 14 13 23 24 12 21 13 7 20 10 28 13 11 13 6 26 24 10 15 27 17 23 13 15 27 10 10 24 3 14 11 3 21 21 13 20 9 13 17 10 10 19 22 15 16 24 17 24 19 13 20 24 17 20 13 13 3 16 20 11 15 9 6 8 30 26 16 17 9 13 26 7 24 17 27 21 24 24 14 6 6 6 23 13 19 17 20 17 30 20 10 14 13 30 13 16 12 23 14 9 14 24 12 27 26 23 6 21 21 21 24 20 20 13 14 14 24 23 13 22 3 33 3 26 23 13 21 20 24 15 14 16 10 16 29 25 20 26 10 14 23 14 14 8 6 16 20 30 21 10 23 3 12 6 19 31 6 3 15 15 19 26 9 15 24 21 12 24 20 14 17 3 24 10 16 10 10 28 6 16 17 21 6 27 16 30 23 10 28 17 19 17 31 20 31 24 19 24 10 34 21 20 19 3 21 24 16 12 23 20 16 3 13 13 20 22 23 21 3 24 25 23 26 14 13 10 20 23 23 12 13 6 12 10 30 25 23 31 7 27 6 13 6 28 20 19 37 10 29 3 24 7 10 10 27 23 22 20 20 23 26 17 10 16 9 22 21 24 14 17 10 13 20 20 13 21 10 13 31 20 3 21 44 10 15 13 20 10 35 13 10 6 6 24 9 12 13 16 24 13 7 28 25 27 20 9 23 17 23 15 17 20 3 17 17 28 13 19 12 18 7 14 10 24 17 14 16 14 14 19 9 16 37 13 12 0 0 31 17 16 16 17 27 10 21 24 24 17 28 13 13 7 12 19 13 3 11 24 13 13 9 0 19 9 22 17 16 6 10 31 7 13 7 21 13 10 20 16 11 20 20 18 26 28 21 3 28 13 18 13 0 27 22 18 20 10 13 24 27 12 13 28 17 20 21 10 22 9 24 10 14 30 21 24 17 26 20 17 13 23 14 17 16 14 12 13 3 14 30 24 11 20 14 31 21 17 21 17 17 17 20 20 17 17 31 31 15 23 29 10 24 23 26 13 20 12 24 23 19 25 10 20 17 13 14 16 7 17 16 10 14 19 26 17 37 22 12 18 15 24 23 20 18 26 21 20 30 14 14 16 14 20 20 32 16 12 26 14 9 19 10 13 17 24 14 27 30 23 10 20 20 37 30 38 17 13 33 10 21 7 9 19 28 28 17 19 17 20 21 17 16 14 22 10 23 10 19 3 10 9 7 16 23 10 7 19 13 10 3 15 9 12 14 26 13 3 20 19 17 27 17 16 21 10 7 9 17 19 16 20 10 16 17 21 6 8 9 29 7 17 17 13 15 23 10 36 9 21 17 24 17 17 7 16 16 6 26 13 7 6 17 13 11 24 35 10 18 21 23 21 16 17 20 13 10 17 17 17 14 24 10 7 24 14 3 13 18 10 13 7 20 17 3 23 11 24 22 10 17 20 17 11 10 24 10 6 8 10 7 16 29 3 12 24 29 28 10 0 12 14 13 17 10 7 19 6 34 30 10 28 14 3 17 17 10 23 9 10 13 23 26 20 0 16 14 0 19 17 22 24 16 20 20 21 25 28 14 34 18 23 20 8 17 9 30 6 6 20 7 14 10 31 20 10 20 10</t>
-  </si>
-  <si>
-    <t>EXN(0.48975442983301626, 20.378208781200676, 3.976243011268706)</t>
-  </si>
-  <si>
-    <t>23 18 21 20 16 29 21 17 20 22 14 31 16 19 25 23 22 18 18 19 24 26 25 16 32 22 26 21 28 24 27 19 24 26 18 28 21 22 23 24 18 26 15 24 22 17 22 27 21 27 16 20 16 21 26 23 28 22 19 28 20 22 23 17 27 26 29 22 18 25 24 24 27 21 18 22 20 27 20 30 17 26 22 25 18 29 22 25 28 23 30 33 24 18 12 17 15 28 20 22 15 26 21 27 19 23 23 23 20 17 20 26 19 21 28 16 24 24 26 26 16 20 29 23 25 33 19 22 25 27 28 15 25 27 24 13 22 21 19 20 17 30 22 15 26 24 17 21 32 26 20 18 27 27 20 28 22 19 23 21 21 21 27 14 18 23 18 27 9 21 23 22 25 29 25 29 21 23 23 22 23 18 18 30 23 9 19 19 24 19 23 17 21 26 21 19 21 14 24 25 27 18 21 23 17 21 22 24 18 19 11 22 26 22 12 25 26 16 21 24 21 22 23 28 22 25 23 21 22 25 31 33 25 23 20 26 29 21 18 20 26 21 21 20 21 24 14 26 15 24 22 22 30 17 23 18 25 23 17 21 23 32 23 25 28 27 23 14 21 20 27 23 19 28 22 25 19 29 27 25 20 32 19 21 21 17 21 23 26 19 32 17 27 19 21 24 22 29 27 21 23 20 25 24 21 19 17 26 28 25 22 27 17 26 24 23 19 17 30 25 25 25 19 23 24 21 15 21 21 14 25 20 25 23 15 29 28 34 24 20 25 25 25 27 15 21 20 18 23 15 15 23 29 27 26 25 21 25 29 27 21 17 17 16 22 26 23 18 20 26 30 22 28 16 22 16 22 18 16 22 21 20 19 16 15 25 22 25 20 22 18 13 24 27 24 15 22 31 31 21 16 29 23 25 30 20 27 28 12 19 25 26 30 20 19 17 19 23 22 24 29 16 27 17 21 20 21 18 20 22 15 22 17 16 22 17 16 29 23 17 16 34 28 25 18 22 21 25 25 18 30 23 26 25 19 19 29 22 24 18 20 17 24 19 23 26 21 12 19 22 22 15 22 19 15 22 24 14 23 24 18 24 15 18 17 19 25 24 18 33 22 19 13 20 22 13 25 13 25 24 21 21 16 25 15 20 26 19 21 30 24 18 18 21 29 24 24 19 19 24 31 29 21 19 18 19 24 21 15 18 13 19 16 27 21 19 20 23 13 26 22 29 20 17 13 17 23 25 21 26 21 20 29 24 20 23 23 25 23 31 25 21 17 20 21 20 27 23 17 20 21 15 32 21 18 24 24 14 18 24 26 27 27 27 24 19 25 25 19 20 17 18 21 21 25 22 17 20 24 24 24 18 30 18 25 20 18 32 22 18 24 21 19 20 21 26 23 21 21 26 19 25 29 20 22 21 19 19 22 17 28 27 30 18 21 21 14 23 20 20 26 30 16 30 22 30 23 19 20 22 29 29 29 20 36 20 21 29 40 29 20 29 16 34 20 12 25 25 27 21 24 27 25 29 24 28 24 22 18 28 17 25 19 22 25 18 21 21 22 23 27 30 21 13 22 22 25 18 12 20 20 22 18 28 26 20 24 19 23 27 30 19 21 24 21 25 29 21 32 22 17 19 23 17 32 18 19 24 26 26 19 18 17 13 25 24 21 18 21 23 27 24 19 20 15 28 36 30 19 27 21 27 18 24 14 23 21 19 23 22 24 25 23 34 21 30 25 29 29 17 23 20 24 27 18 23 23 22 19 17 18 18 23 32 18 22 20 24 25 31 23 22 18 18 25 23 24 26 28 16 21 30 25 23 24 22 26 21 24 15 28 19 26 13 25 20 16 20 17 28 25 28 25 21 29 19 32 27 28 25 28 20 21 26 20 22 13 28 21 19 17 19 23 16 18 22 24 18 20 20 16 19 26 25 20 21 21 26 18 30 24 19 19 25 18 23 21 24 18 20 17 21 20 22 23 24 22 25 24 21 21 23 26 20 17 23 22 20 19 24 24 24 21 34 20 22 25 22 21 21 25 21 26 23 19 19 28 21 29 24 20 20 20 22 20 21 23 16 21 16 17 24 22 23 24 25 22 19 18 24 28 19 29 16 28 22 29 15 21 18 23 24 25 28 30 21 26 11 19 20 17 24 15 27 20 22 23 24 16 23 16 25 23 21 20 18 24 21 24 24 24 26 30 25 24 21 15 23 19 17 18 24 20 25 20 15 19 18 22 24 30 21 21 19 28 23 13 24 18 20 26 29 24 25 24 19 12 18 21 26 27 23 21 24 18 26 20 26 25 28 15 19 19 27 23 17 22 19 27 23 23 24 15 31 29 21 25 29 18 19 26 27 24 27 22 27 26 19 21 24 19 19 31 16 19 18 17 20 18 23 23 25 15 21 22 29 20 24 20 19 21 26 19 22 20 12 25 11 18 18 24 26 27 24 20 36 22 17 32 24 19 25 21 23 20 27 18 25 12 21 16 22 23 20 18 16 17 22 19 25 23 17 21 26 26 27 22 27 16 25 23 18 24 22 31 24 21 16 11 19 24 20 15 23 23 26 28 29 21 23 26 30 28 18 27 19 22 24 15 37 19 15 14 23 24 25 22 25 30 19 23 16 20 26 22 21 24 24 18 19 29 23 20 24 26 23 20 21 23 23 20 19 22 26 22 15 25 24 34 27 22 20 21 23 14 29 16 20 19 21 25 27 27 20 20 22 25 27 28 15 20 22 26 21 34 23 19 26 28 28 20 22 26 23 18 17 18 10 18 17 23 25 17 23 17 17 20 24 24 31 24 20 27 25 22 13 20 16 21 24 25 24 19 19 17 21 23 33 29 21 29 19 29 20 28 27 23 26 28 26 13 28 22 24 21 26 21 21 21 20 17 18 26 24 23 20 26 21 21 27 27 19 36 20 26 28 25 18 26 20 28 23 24 21 20 26 14 24 29 20 21 23 19 20 33 23 29 22 30 25 25 25 24 24 18 21 20 22 31 27 23 22 19 25 19 22 16 21 26 27 20 28 24 20 13 16 15 25 18 20 25 20 26 18 19 21 19 22 25 24 20 16 28 21 30 23 32 28 18 23 30 21 19 30 24 21 24 28 20 16 24 22 25 15 21 15 19 24 16 25 22 19 21 23 22 28 28 23 20 12 15 21 19 31 23 28 23 18 19 22 18 24 25 19 17 25 21 10 29 26 23 24 34 28 18 22 23 18 19 36 17 20 23 23 24 21 20 15 11 32 23 27 23 29 31 30 14 20 29 19 12 24 27 18 15 24 20 23 30 20 29 16 19 22 29 26 31 22 23 19 17 22 25 25 20 29 25 27 20 30 22 15 22 19 20 25 20 20 16 17 29 23 26 29 21 24 23 29 22 30 17 15 23 22 17 22 21 20 16 20 22 30 21 19 19 21 26 21 22 24 23 17 23 18 20 18 26 25 15 24 16 30 25 26 20 21 25 26 22 23 21 27 20 24 20 20 22 27 30 27 20 21 34 24 22 16 35 16 25 28 20 21 23 20 27 22 27 16 26 27 23 20 29 24 16 22 26 21 20 32 16 21 27 19 20 30 22 19 16 20 21 23 24 24 22 22 25 19 22 16 29 31 16 25 21 24 18 26 30 23 19 22 24 19 24 21 16 26 23 22 22 21 19 29 21 29 17 25 24 23 27 17 29 26 20 21 23 26 30 23 20 24 16 27 30 17 23 24 18 28 17 15 23 28 23 28 20 32 21 27 25 28 18 20 22 21 15 28 19 25 21 28 23 30 17 22 16 19 17 19 23 23 15 27 27 20 27 21 22 29 17 22 24 20 15 26 39 25 16 21 23 21 25 21 30 19 18 20 24 24 13 22 22 29 18 24 20 30 20 19 16 22 24 30 19 27 21 20 26 30 19 12 30 23 17 18 21 27 22 23 22 19 24 27 18 24 21 14 22 21 21 19 23 24 19 20 15 23 24 21 23 21 27 21 22 15 28 24 25 14 22 26 24 15 13 25 20 19 25 14 28 18 19 26 19 22 24 18 18 20 27 28 25 24 19 21 23 21 28 21 17 27 26 24 18 22 16 21 18 16 23 22 15 20 23 23 21 19 20 20 23 27 29 25 21 24 26 22 20 23 21 26 33 25 24 29 21 24 23 27 22 30 21 24 22 28 24 26 20 19 14 16 23 15 24 16 19 20 25 24 14 25 17 25 20 23 25 23 38 28 30 23 16 25 26 26 27 19 21 32 30 23 19 24 25 22 19 20 21 24 33 37 23 21 21 16 23 15 19 27 21 16 23 20 15 27 30 23 14 27 22 23 19 18 32 23 19 19 22 24 23 27 33 11 26 24 20 23 23 21 15 23 31 22 21 24 25 25 20 29 22 19 19 18 22 26 20 23 24 26 21 29 20 25 22 30 28 17 27 21 23 25 23 25 23 13 21 20 25 28 24 23 28 27 24 25 18 18 17 19 21 19 37 23 28 20 25 17 32 17 15 24 27 31 28 28 20 22 26 19 29 24 24 18 25 18 24 25 19 18 18 15 21 20 20 25 25 25 24 23 21 17 23 25 19 22 19 19 27 23 23 21 22 19 21 26 19 22 25 24 15 25 22 20 19 21 23 15 20 17 19 23 31 20 21 30 18 15 30 23 23 30 26 16 32 27 19 38 30 24 22 21 21 18 14 27 21 21 28 19 24 22 24 31 26 23 24 30 19 24 26 25 23 20 18 16 15 11 18 23 25 25 19 29 32 24 28 16 23 24 21 24 22 27 28 19 20 24 28 26 19 22 24 22 17 30 20 23 19 21 25 27 30 30 26 21 27 25 24 22 35 18 26 14 16 32 19 19 25 22 29 23 15 22 17 18 17 18 21 29 18 23 28 27 25 22 18 23 23 17 25 25 20 20 30 22 17 20 22 25 18 27 29 14 21 17 21 18 18 19 25 25 18 22 21 17 17 27 25 18 15 24 22 25 23 18 25 21 21 18 26 20 20 23 16 18 20 24 17 24 23 34 27 25 21 36 27 22 18 23 19 23 20 15 21 28 25 29 18 18 21 22 26 25 17 18 30 18 21 26 25 25 26 21 24 26 24 22 20 24 18 21 23 18 16 26 16 24 22 23 20 24 22 17 31 25 26 18 22 23 20 23 23 17 20 22 16 29 17 22 20 28 21 24 24 26 22 24 25 23 22 26 15 24 20 25 18 16 19 26 22 18 22 23 23 26 14 23 16 17 26 17 24 14 18 28 19 27 25 19 30 19 20 25 17 31 26 22 27 25 21 21 18 20 17 20 20 17 26 17 24 22 17 24 26 23 26 16 19 21 14 23 15 29 24 14 21 10 24 21 19 25 18 26 22 20 20 21 22 29 27 17 24 22 23 23 25 20 21 20 27 25 22 20 17 24 23 28 16 27 26 25 22 20 25 26 21 28 17 21 18 18 22 24 24 23 25 19 21 26 24 23 22 29 21 26 19 25 15 25 19 23 24 28 22 25 20 24 29 18 22 17 26 27 28 15 24 17 27 19 29 20 20 21 21 22 15 34 23 31 21 31 23 22 21 28 18 20 15 24 20 25 13 18 28 25 25 27 33 23 30 19 21 19 28 30 29 24 17 22 24 17 17 17 21 25 18 20 22 23 13 19 21 21 20 18 25 26 20 24 14 29 22 33 10 22 24 18 18 21 22 18 26 23 22 24 31 25 27 27 30 25 24 23 25 17 18 30 18 26 22 26 23 19 19 24 15 14 27 22 21 21 25 19 20 24 25 23 25 22 22 17 18 17 22 13 24 22 26 29 26 30 27 22 24 24 16 30 25 22 23 19 20 19 21 14 27 19 17 17 22 23 33 23 29 25 18 24 21 22 22 24 32 23 26 21 18 19 18 12 25 16 26 18 20 20 22 24 15 24 17 27 16 27 22 21 22 23 26 25 17 18 11 24 28 19 21 22 18 22 29 27 28 22 14 15 16 24 17 24 24 28 20 16 25 28 23 22 27 15 19 20 15 21 28 15 27 29 33 18 23 26 22 25 23 26 22 25 28 17 27 20 21 22 21 26 22 18 21 24 25 20 21 26 17 17 25 26 22 25 20 25 23 24 21 28 22 22 16 31 28 18 27 20 13 21 24 20 13 23 31 22 22 14 16 25 23 25 16 23 18 22 15 21 19 18 25 21 32 22 22 14 24 26 28 27 20 16 31 27 34 25 26 21 19 18 30 18 18 26 15 21 26 23 23 23 19 20 27 21 20 22 16 23 26 25 23 29 24 16 13 24 29 21 32 23 25 15 22 20 23 16 18 17 28 23 22 22 19 25 19 25 16 18 23 22 26 25 29 21 27 24 20 21 23 20 26 17 23 28 24 19 23 23 29 19 24 28 25 26 17 22 15 26 25 18 17 16 26 29 18 26 24 27 19 29 23 24 21 20 19 14 13 21 23 20 21 21 20 19 17 29 25 24 13 26 29 17 23 29 24 23 20 27 30 26 23 17 18 16 28 15 23 24 19 16 28 27 22 24 21 30 14 26 27 24 18 19 23 18 26 26 22 20 20 23 18 26 24 25 31 25 27 26 24 21 13 22 20 20 19 27 19 18 27 28 23 22 19 28 26 25 17 10 20 15 24 32 16 30 22 28 15 23 24 12 19 16 27 20 23 27 14 17 28 20 24 25 19 35 18 21 20 24 23 19 21 26 27 21 24 15 17 21 22 21 23 18 18 19 14 33 18 22 21 28 29 15 16 25 27 18 17 26 28 25 31 28 24 22 14 20 27 23 28 31 26 22 22 17 18 23 25 27 19 16 24 22 23 27 26 21 31 23 16 7 25 21 20 19 26 23 20 27 16 22 19 24 22 28 21 17 20 19 29 31 24 17 15 23 16 30 25 21 24 32 27 14 27 26 24 27 14 21 30 17 20 22 25 20 24 29 29 22 21 9 23 15 21 27 17 25 20 23 28 22 21 20 22 21 24 26 29 20 27 31 23 16 13 19 19 26 19 22 22 25 27 18 19 21 16 22 16 23 28 16 16 27 23 18 18 17 30 28 15 18 17 26 20 25 30 27 29 25 25 21 27 16 24 20 20 23 29 30 29 19 21 23 22 30 29 23 27 24 28 22 25 22 22 13 23 24 23 20 22 21 27 23 23 16 23 27 20 28 27 20 26 25 21 22 28 20 31 23 23 20 24 22 14 20 26 22 27 27 20 24 25 26 28 17 18 19 22 18 21 24 23 26 19 27 17 17 19 38 24 30 23 28 16 27 18 15 16 30 18 24 22 20 25 24 34 23 21 20 30 19 28 23 27 22 19 30 21 25 26 25 32 27 23 21 17 25 19 12 28 31 24 27 18 23 34 20 28 22 22 23 39 20 17 16 22 18 23 28 17 23 24 25 21 22 18 21 21 19 24 20 29 33 27 27 31 21 19 21 20 26 19 27 20 26 25 22 20 25 14 23 26 16 20 18 29 25 26 19 26 20 25 20 23 24 20 18 24 16 19 22 24 25 20 24 25 15 23 19 26 21 24 21 20 22 23 28 28 24 25 26 17 16 18 25 18 32 25 20 25 23 25 22 25 24 23 14 21 31 14 21 22 23 18 16 17 27 18 29 17 27 19 13 24 24 19 27 25 27 17 23 17 21 26 24 34 26 20 15 20 34 40 23 18 21 18 30 20 24 20 16 20 22 24 21 27 19 18 20 24 23 20 19 21 18 21 26 20 25 27 28 26 18 23 20 17 22 26 18 20 24 21 20 25 19 19 25 29 30 29 22 21 27 26 21 24 21 18 16 23 17 23 20 18 22 18 17 27 19 22 23 20 33 23 13 22 16 31 24 25 18 20 22 16 20 26 15 13 20 24 18 25 22 18 16 18 21 19 24 25 28 25 26 25 24 27 27 24 29 26 16 24 17 24 17 23 20 20 23 23 19 29 23 25 19 21 23 18 19 24 24 27 14 22 23 25 15 20 18 34 26 21 20 19 25 22 25 32 24 18 19 17 20 24 14 18 25 32 23 27 27 28 17 24 21 22 17 21 26 16 22 23 25 30 29 23 28 24 17 20 32 19 24 15 26 22 20 34 24 20 21 31 23 22 30 19 17 20 21 27 22 31 17 22 26 14 21 10 22 32 24 21 17 25 15 29 19 24 21 25 31 21 21 20 21 24 29 18 24 20 22 22 26 22 26 24 14 15 22 24 28 25 26 26 22 20 27 17 24 18 20 34 28 22 24 26 26 30 26 22 14 30 26 23 19 18 17 23 20 22 26 15 16 26 15 26 15 32 17 24 18 19 26 25 21 20 25 29 14 16 19 13 21 20 19 16 18 21 20 23 19 26 21 24 26 21 24 30 25 30 14 19 25 16 25 21 20 19 18 30 32 20 23 30 25 24 24 21 28 28 24 19 23 22 20 24 31 26 19 25 31 18 28 31 23 21 22 31 22 25 21 22 32 21 19 18 19 29 22 30 14 25 27 18 24 26 21 18 27 27 22 17 20 19 20 20 29 26 30 18 16 19 26 18 23 15 14 20 29 26 23 26 20 22 19 29 18 25 27 24 17 23 20 17 24 20 23 30 26 14 22 18 19 22 23 21 20 17 20 23 29 20 27 22 17 20 17 22 25 24 32 25 18 28 15 25 25 24 21 20 26 30 18 24 24 18 26 28 19 22 27 23 25 20 27 28 22 23 23 20 20 20 23 17 23 21 28 19 28 23 29 19 16 24 32 14 16 18 26 21 10 24 20 28 21 14 26 11 16 27 26 25 17 18 21 19 19 23 21 25 18 21 16 31 18 25 33 25 33 28 25 27 24 23 16 16 21 21 24 31 25 32 23 19 25 23 20 18 29 15 18 20 21 23 20 25 18 20 21 25 16 22 18 17 21 33 18 24 15 22 25 27 29 23 21 26 22 20 22 24 22 21 23 20 25 24 17 18 24 16 32 16 25 19 24 29 29 24 22 21 21 23 25 22 18 30 23 20 22 27 30 18 21 15 24 26 23 21 22 32 19 19 19 29 17 25 27 27 19 29 25 24 25 18 24 21 30 14 26 19 18 26 18 20 25 17 19 16 15 19 16 20 23 13 23 27 24 20 28 25 20 28 25 18 20 26 21 24 24 26 22 30 19 25 28 26 26 23 23 22 19 32 23 21 28 18 25 21 22 24 18 22 28 28 32 12 16 23 25 15 33 29 22 20 15 31 30 29 22 24 15 18 28 23 17 22 26 28 24 24 23 12 18 19 22 25 21 27 17 25 19 22 29 24 17 25 25 16 25 20 25 28 18 19 20 17 23 23 20 19 21 16 21 21 17 23 20 24 21 28 20 19 32 19 18 21 22 17 32 24 25 20 29 23 25 22 29 27 15 20 24 12 27 17 17 22 20 21 23 21 18 19 20 30 25 16 21 24 25 21 31 25 19 26 25 28 23 24 19 23 20 20 23 23 22 30 21 28 21 22 21 16 29 19 22 27 21 22 21 23 16 25 21 23 25 27 25 23 21 17 26 23 19 25 19 31 19 23 32 28 16 23 22 20 32 27 24 14 15 20 17 20 21 19 24 16 22 28 18 19 33 25 22 32 22 16 21 28 23 19 26 21 28 32 19 20 26 16 12 22 17 26 27 24 20 20 24 20 27 28 23 27 32 18 26 19 22 21 16 20 22 30 25 24 28 27 23 23 16 26 26 22 17 17 16 23 23 23 23 29 13 24 23 19 22 22 20 23 26 29 13 19 22 21 20 19 19 17 22 20 22 24 17 25 23 21 24 22 14 23 21 22 17 25 22 23 16 19 22 21 28 22 19 18 27 19 24 19 27 20 27 24 19 19 19 20 28 25 24 30 23 22 23 26 20 18 24 23 14 22 22 24 21 21 20 26 26 29 14 22 17 20 15 16 28 24 24 23 32 19 22 24 22 23 30 25 20 22 23 21 19 18 22 22 15 20 26 25 24 25 16 18 27 22 15 21 21 14 22 17 24 27 20 24 29 17 18 28 19 28 19 18 14 18 15 30 23 20 16 14 30 19 21 23 25 24 26 16 21 26 26 25 18 18 14 28 23 23 16 19 25 17 24 21 25 21 27 26 16 21 20 26 17 21 15 20 17 21 23 16 21 18 26 18 23 26 27 14 24 15 24 26 18 28 24 22 19 24 19 20 27 28 25 23 25 22 19 20 20 16 13 19 22 21 19 28 26 30 20 29 21 21 19 18 26 24 23 20 28 22 26 19 20 21 18 33 19 30 21 17 25 14 23 25 17 26 25 29 30 20 15 29 18 20 26 27 22 20 20 18 17 21 26 14 26 27 31 18 29 22 23 25 27 25 24 15 16 21 13 25 25 16 27 23 24 30 25 17 17 28 19 23 19 25 20 28 21 21 21 32 21 17 22 26 24 24 18 27 28 31 20 21 20 20 17 20 24 23 19 29 29 29 23 22 20 33 17 24 22 24 27 30 17 28 22 19 22 19 25 30 19 17 30 20 22 20 23 13 19 23 23 19 19 20 20 17 22 19 19 25 16 23 23 21 21 29 21 24 20 17 11 26 23 25 18 23 31 18 14 23 20 26 28 20 10 27 30 18 23 15 11 24 22 18 16 24 28 20 22 22 24 19 22 20 25 20 17 20 22 24 26 29 22 18 21 19 21 27 25 24 12 23 24 28 19 17 22 23 16 25 26 24 26 19 21 26 21 30 20 16 18 30 25 24 20 25 19 23 23 27 22 26 20 23 22 21 22 21 24 20 31 25 25 28 33 12 35 18 16 28 20 18 31 32 22 30 22 21 24 20 27 28 21 26 23 21 24 23 22 31 20 25 23 22 17 17 22 24 20 16 22 25 30 23 20 27 19 15 29 23 20 23 22 28 24 24 28 30 24 29 24 16 27 20 22 20 24 19 24 21 22 25 23 23 26 24 21 21 33 25 17 18 16 22 27 27 25 25 27 19 21 23 21 25 24 21 20 19 24 25 35 26 25 16 19 19 27 13 18 15 20 15 19 23 27 23 13 23 24 17 19 17 21 21 22 25 20 28 17 25 18 22 23 18 16 24 23 18 23 27 21 24 24 25 31 28 17 25 26 20 21 20 15 23 20 25 24 19 20 33 23 23 24 18 16 22 18 24 25 20 22 26 23 27 18 28 15 29 26 21 27 30 14 23 17 25 21 26 19 22 17 21 19 22 20 16 27 16 24 21 27 25 18 29 15 29 22 24 28 27 26 27 24 17 24 18 20 26 23 21 21 17 21 24 20 25 22 26 16 24 27 25 24 18 21 19 14 22 22 23 34 17 19 26 18 20 17 21 27 31 25 15 19 23 22 24 23 19 28 27 25 19 32 23 25 20 20 16 20 22 27 27 19 29 26 18 23 26 23 18 25 27 18 28 26 18 18 22 18 29 20 18 24 19 26 24 22 26 27 17 30 14 24 17 25 16 22 21 19 15 20 27 21 21 23 26 24 27 21 26 24 23 17 13 21 16 24 16 20 21 24 27 20 28 19 27 20 20 17 23 18 20 22 25 23 17 18 22 20 23 18 22 20 22 23 22 22 26 21 27 20 26 19 26 29 28 20 18 31 10 22 19 18 27 32 24 26 23 12 18 19 21 27 20 25 19 26 21 25 19 21 23 19 31 23 24 16 20 22 24 15 29 20 27 20 27 21 22 15 16 13 26 20 21 25 23 25 20 22 24 20 21 22 25 23 36 23 17 24 27 25 34 24 24 15 17 21 21 18 19 13 20 20 20 21 16 23 27 19 18 23 29 25 19 22 15 19 20 20 19 27 33 27 15 26 18 20 23 18 26 25 15 22 21 25 23 22 19 22 17 27 16 25 25 26 24 21 26 20 28 23 23 27 19 24 25 20 19 18 24 20 22 22 26 23 19 23 21 23 22 21 26 20 25 14 13 23 29 24 25 20 29 24 24 18 26 21 24 23 19 21 23 18 25 20 27 24 18 26 19 18 23 23 24 16 21 29 19 22 23 20 33 23 20 27 20 23 25 22 23 25 28 21 17 15 21 26 20 20 29 22 20 21 27 24 20 21 21 24 37 23 23 16 19 20 27 21 18 29 25 17 33 18 28 23 15 26 23 26 26 23 19 23 28 34 29 30 32 23 27 17 14 28 27 29 19 24 28 26 20 23 17 18 18 25 25 28 18 32 28 20 31 23 17 24 24 15 22 16 24 23 26 23 18 18 19 23 19 25 29 16 17 26 27 28 21 19 18 18 16 21 27 24 18 21 32 25 27 22 26 20 25 17 25 20 25 20 30 19 20 22 21 18 27 29 21 24 19 16 32 18 20 23 21 13 19 21 32 19 22 21 24 17 22 30 20 15 18 23 23 16 20 22 29 27 21 22 28 27 20 26 23 17 18 27 24 22 20 24 19 23 18 27 24 28 21 26 23 21 18 15 26 22 23 17 22 27 18 19 16 22 28 15 16 28 27 24 23 21 19 25 26 24 17 21 22 24 23 33 29 27 22 25 25 19 17 25 33 21 10 30 23 26 18 13 16 19 29 19 28 20 16 23 24 24 21 19 27 29 24 22 33 29 27 16 9 18 29 22 16 30 18 23 24 29 25 24 12 25 18 18 18 23 17 25 26 19 21 30 17 21 27 24 22 15 18 20 22 21 19 30 20 31 20 24 17 20 21 29 23 17 11 17 17 24 22 21 23 25 25 20 32 17 25 24 15 20 29 24 31 17 21 30 19 22 23 24 19 22 25 15 38 22 23 20 29 24 24 20 19 28 22 24 20 23 18 20 19 17 20 27 22 22 17 25 26 11 15 22 19 23 21 20 23 23 29 28 23 23 26 17 27 33 21 27 25 23 27 18 22 22 19 18 26 19 20 21 20 18 20 15 27 21 22 22 26 22 21 25 21 25 26 25 21 17 21 21 23 19 21 25 22 21 33 11 19 20 18 24 28 20 22 23 24 17 22 20 22 20 21 28 25 22 21 22 26 24 25 17 18 18 29 28 20 23 33 20 31 17 25 28 23 21 18 18 24 30 21 15 32 19 23 25 19 23 20 21 30 29 18 21 25 24 19 29 30 19 24 26 33 21 25 26 18 23 17 32 21 25 22 19 18 22 20 28 25 15 26 23 19 22 26 20 20 18 26 19 17 17 22 21 17 27 26 25 31 20 22 14 20 17 20 25 17 10 20 24 26 25 23 19 21 28 27 20 30 27 21 22 17 24 22 14 24 22 29 24 23 22 26 20 27 25 28 19 18 30 22 18 19 20 19 22 19 19 27 22 20 22 26 24 20 24 15 16 26 22 22 19 17 22 26 13 22 17 17 17 28 20 19 17 27 28 19 25 22 16 11 29 23 20 24 21 30 21 26 22 20 19 20 19 27 27 22 22 29 19 19 21 22 21 30 21 15 16 21 23 23 27 18 23 22 23 28 25 21 25 18 22 29 20 17 19 23 22 19 21 15 14 12 18 26 26 19 26 21 26 25 19 14 24 13 20 10 17 19 19 22 19 22 22 21 19 22 21 19 20 27 18 20 23 30 27 19 23 24 23 24 24 20 23 27 13 22 22 23 15 23 25 16 20 21 23 20 20 17 24 14 15 26 20 21 19 18 34 18 22 27 26 25 25 24 27 27 25 15 26 27 21 20 14 29 17 23 23 23 18 23 20 20 21 21 24 26 21 16 26 25 21 26 23 27 22 24 23 17 24 17 23 25 33 19 23 17 19 23 17 24 28 20 12 20 22 21 21 19 19 41 30 25 22 16 19 24 26 25 22 17 14 22 30 31 22 21 26 17 24 33 23 25 21 23 26 22 24 17 34 22 30 26 26 23 20 21 30 23 21 24 21 22 16 22 19 21 20 26 22 20 22 21 14 24 18 20 20 25 20 23 24 28 17 23 23 24 28 20 23 21 16 20 23 12 20 15 23 21 22 23 18 15 17 25 27 24 26 22 22 20 23 20 15 20 25 31 27 24 17 28 21 22 21 20 13 26 23 33 17 16 20 20 27 24 27 17 21 18 27 20 21 24 22 15 13 33 24 24 23 25 26 17 27 17 25 23 21 20 24 22 25 21 28 22 22 17 23 28 18 22 21 25 24 23 25 29 26 20 19 25 23 24 35 17 28 23 23 20 22 23 21 26 20 20 15 23 16 19 23 26 15 24 25 20 24 29 24 18 22 21 20 24 17 21 18 21 25 22 21 15 21 25 25 21 19 28 28 24 22 28 22 25 8 23 21 24 24 22 15 17 25 21 13 20 25 22 26 23 24 16 15 23 28 25 15 16 25 16 26 19 22 20 27 18 33 20 16 25 19 19 18 22 21 27 20 28 26 25 27 18 25 23 23 23 23 17 18 20 20 21 16 26 28 14 25 20 27 24 22 18 26 29 23 20 28 18 22 22 23 24 15 22 18 22 25 21 23 28 25 28 22 24 27 20 20 21 19 16 22 27 23 21 19 13 15 33 19 29 25 15 23 18 20 18 29 26 26 15 12 22 30 22 17 28 23 25 17 24 21 22 25 18 20 25 15 27 21 25 19 26 22 26 29 23 20 16 16 26 23 28 16 27 27 22 17 21 23 28 16 23 21 22 18 23 25 25 23 11 22 24 23 27 24 28 25 23 19 22 20 18 21 20 24 19 17 22 14 25 21 20 23 26 28 19 18 31 29 18 26 13 22 29 16 17 16 22 27 26 20 20 25 23 22 28 26 25 23 21 23 24 22 22 37 20 15 28 24 25 23 20 33 22 13 25 22 26 22 15 20 16 22 23 17 21 18 26 9 23 20 24 22 19 25 29 24 21 21 22 24 19 27 21 20 23 24 25 25 22 20 26 28 31 15 25 27 24 22 16 23 23 27 28 21 16 21 29 14 29 16 28 26 27 21 24 23 23 24 30 25 15 19 16 21 21 21 16 23 18 22 28 21 24 23 13 17 15 18 16 34 24 16 30 24 18 21 26 20 26 23 24 26 15 19 23 25 23 26 21 20 26 17 21 22 24 26 20 20 22 26 27 20 27 15 22 20 26 20 21 23 21 23 29 34 27 21 23 24 20 20 19 19 31 20 27 31 18 27 16 19 25 24 22 23 20 25 23 25 22 24 22 27 32 17 20 18 23 27 12 19 21 29 32 28 28 25 24 23 23 23 27 30 25 21 19 18 23 27 23 19 26 25 21 26 22 20 23 16 22 23 22 22 24 21 16 18 32 36 24 24 23 20 19 17 17 20 24 28 25 20 19 22 24 27 27 21 27 20 29 19 18 20 28 20 22 23 21 17 23 21 17 23 14 25 14 16 21 20 25 17 28 25 18 28 23 28 27 23 21 27 20 20 17 15 26 31 22 20 25 24 20 20 20 21 21 27 27 15 17 23 26 26 25 16 18 26 25 25 20 25 24 21 26 15 24 23 18 24 20 42 17 23 25 27 30 22 24 15 18 24 20 21 21 19 21 27 22 18 21 27 27 19 18 25 24 17 28 26 30 22 18 22 26 21 16 19 17 24 25 23 25 24 25 18 12 16 22 19 26 18 14 19 24 26 15 25 20 20 25 15 25 19 17 30 27 16 19 21 18 22 29 20 26 15 28 28 22 18 15 13 22 21 31 17 25 17 29 15 18 24 24 24 21 19 23 27 21 28 21 21 27 28 25 21 22 23 20 15 24 25 28 27 30 21 23 33 24 17 22 21 15 29 26 16 25 21 25 19 28 25 28 21 19 21 26 14 21 22 24 23 22 18 27 22 18 25 26 19 26 21 22 19 21 13 18 22 14 18 29 27 26 21 24 16 21 21 25 28 19 21 20 22 19 13 19 25 21 22 20 21 26 28 21 22 19 19 14 27 17 25 22 18 22 20 23 22 22 22 18 22 25 27 28 14 27 21 21 21 24 31 31 19 26 27 24 21 28 18 23 14 17 21 23 20 22 27 22 16 24 20 18 17 21 30 26 27 24 18 17 27 28 23 30 18 21 17 18 18 19 23 24 19 25 19 16 23 21 21 19 27 25 19 24 24 25 10 14 22 17 22 22 23 30 27 22 24 20 21 17 20 20 21 24 17 25 21 25 20 20 24 25 20 19 24 13 14 19 22 22 27 21 17 31 33 18 10 17 19 26 18 22 26 19 31 22 23 22 22 18 24 16 27 15 25 20 22 18 21 23 23 19 28 15 17 24 23 17 24 24 23 25 24 22 17 23 22 20 25 21 21 32 21 22 21 22 24 23 26 20 17 18 15 22 26 17 21 25 28 24 16 18 20 18 27 15 24 19 18 21 22 22 22 19 22 19 29 31 16 24 27 20 22 23 25 23 22 26 27 18 20 28 21 19 35 21 28 25 24 18 20 23 23 19 28 23 17 20 24 20 27 29 23 27 21 21 23 19 26 26 24 18 19 22 13 20 20 21 17 22 27 19 23 25 20 28 20 21 23 23 19 25 17 26 19 22 22 25 22 17 25 21 26 24 21 24 27 27 32 21 23 19 22 25 22 25 18 20 30 24 17 19 21 18 22 15 22 23 18 25 18 19 19 26 30 28 26 27 23 24 26 26 26 26 16 18 24 16 24 15 30 21 19 16 22 21 12 27 12 22 27 26 27 27 20 28 20 15 34 16 17 27 20 23 18 16 26 29 29 26 26 26 23 21 22 21 17 29 18 21 26 25 21 19 25 17 27 24 19 33 22 31 25 19 22 17 23 24 27 27 11 22 23 24 26 23 24 17 25 17 22 17 20 22 37 19 22 18 26 19 19 29 24 22 25 17 22 26 20 26 22 25 23 26 19 28 13 24 25 25 19 21 24 21 25 21 17 26 26 21 25 20 18 18 22 23 23 16 24 24 24 32 14 22 18 18 30 16 21 23 18 13 24 28 19 21 23 25 25 27 24 23 11 26 24 22 19 32 24 28 34 25 13 28 24 19 26 32 22 21 19 24 27 27 24 17 36 26 25 20 18 25 19 21 22 25 22 22 24 29 25 26 21 22 16 20 23 20 25 18 19 23 26 23 20 18 23 14 27 21 21 22 25 24 26 17 22 21 19 26 24 25 29 20 17 21 20 27 23 21 24 24 24 18 28 18 21 25 24 16 21 25 28 28 22 17 25 17 15 21 21 16 21 20 26 18 15 23 18 22 21 23 19 29 22 21 23 22 21 27 16 15 30 26 21 27 22 29 31 22 17 27 29 21 21 22 26 25 18 23 22 19 19 17 29 33 26 27 22 19 17 24 20 27 16 19 23 22 24 24 38 25 20 22 15 18 20 18 25 17 23 22 13 17 32 16 28 26 25 19 22 18 28 17 12 15 16 23 25 16 21 26 28 21 26 16 17 28 25 24 24 22 22 25 22 24 26 23 17 16 22 16 25 26 26 23 31 20 22 27 28 30 20 23 22 20 20 30 19 28 15 25 17 17 25 29 11 26 23 20 20 26 23 26 17 28 23 21 27 16 23 18 27 20 25 26 13 20 25 18 25 29 24 22 23 16 22 31 35 23 24 28 23 17 16 21 17 16 18 20 27 20 20 24 16 21 18 29 25 16 28 23 29 17 27 22 26 23 28 23 23 26 19 22 18 25 22 30 21 21 26 26 25 23 16 30 20 27 26 23 19 20 41 19 21 16 25 22 18 16 24 21 24 21 26 25 21 16 22 20 22 24 23 22 34 23 23 17 32 23 23 28 20 19 19 31 18 18 17 17 22 29 24 15 25 18 23 30 27 23 28 28 22 26 21 27 24 25 25 23 27 18 24 15 17 17 22 24 17 8 25 22 26 30 23 22 29 28 24 23 19 29 18 23 25 28 33 23 19 26 21 21 28 23 23 31 33 22 16 22 29 23 25 25 23 17 20 33 26 14 23 27 24 17 19 12 18 20 23 24 26 18 19 14 17 23 25 20 24 23 23 19 26 24 29 19 20 26 23 25 23 24 26 19 25 23 33 21 23 17 19 23 23 15 32 23 20 19 13 16 23 23 29 19 23 20 25 24 25 26 15 18 23 29 20 17 28 28 26 16 22 14 30 21 19 25 28 13 13 20 21 20 19 25 22 19 20 30 23 25 19 26 24 20 20 22 19 21 24 28 23 23 28 26 17 23 17 18 25 24 25 24 29 30 15 20 14 19 22 18 23 25 19 25 16 21 26 20 19 14 16 22 26 19 30 21 27 20 17 28 20 30 24 28 25 30 17 24 24 22 32 21 28 19 24 24 21 19 18 24 20 17 19 17 19 19 20 17 22 18 23 24 19 17 21 23 33 23 26 17 26 25 14 14 30 24 16 23 25 18 26 26 21 21 18 28 19 22 20 22 31 24 25 19 17 22 23 27 27 27 20 23 32 15 23 22 15 19 22 30 21 21 26 25 21 24 17 24 16 31 28 17 25 18 30 27 14 10 24 22 16 27 20 29 22 25 18 18 20 23 20 19 19 24 24 15 18 20 18 15 23 24 21 25 26 22 23 21 28 32 24 21 26 29 38 19 21 33 27 31 24 20 19 19 22 21 22 20 13 18 21 24 14 20 30 20 20 14 19 18 28 23 21 25 19 22 18 25 26 22 19 15 19 25 26 26 24 29 21 23 19 23 27 26 15 19 20 22 11 21 22 27 29 25 23 24 24 13 26 20 18 18 20 15 23 23 25 26 33 17 25 20 25 23 22 24 28 39 25 29 19 26 25 19 15 16 25 19 28 20 27 23 17 26 17 23 21 21 21 21 22 24 21 24 17 14 22 29 24 17 19 28 15 22 20 24 17 24 21 30 25 21 21 22 15 22 25 19 21 20 29 19 21 24 27 23 18 24 25 21 15 19 21 20 18 20 22 17 21 20 22 18 27 20 20 20 21 22 22 20 20 21 20 27 13 18 28 27 22 24 25 23 16 18 23 16 28 18 19 24 24 21 18 24 20 21 22 21 23 19 18 15 22 13 23 25 19 23 16 27 17 29 23 19 24 28 24 26 24 27 21 20 20 17 26 20 18 20 21 16 17 25 22 17 20 21 24 20 23 14 31 23 30 18 33 25 22 30 21 21 28 19 22 34 21 13 24 25 26 20 26 25 26 18 28 25 29 23 20 21 21 16 19 24 21 26 24 24 13 25 26 29 27 29 24 17 25 18 24 23 23 28 29 19 28 25 20 19 24 22 22 21 24 19 20 24 21 22 22 18 20 15 15 23 27 21 23 18 18 27 23 25 25 20 20 31 25 27 21 18 21 29 22 19 18 22 14 33 17 15 21 13 23 24 20 23 24 30 19 31 21 17 20 23 25 25 25 19 23 25 23 19 15 28 31 18 24 20 18 22 23 17 20 19 22 24 19 13 25 20 23 28 29 11 23 19 20 17 23 18 16 33 27 31 22 24 25 15 26 20 25 13 18 30 24 24 25 19 17 21 24 21 19 20 23 22 28 26 18 25 16 16 20 20 18 18 16 29 25 27 16 33 26 23 23 34 19 30 21 30 19 25 23 22 20 25 14 19 25 22 18 19 25 23 18 33 24 24 22 21 24 26 30 18 19 26 30 19 21 19 21 25 20 18 28 23 22 26 20 15 22 20 17 13 34 18 22 18 30 23 32 23 22 20 18 25 23 24 20 30 21 25 24 22 26 32 25 27 24 20 18 26 20 21 24 32 23 25 26 21 26 22 15 22 28 27 21 24 12 16 22 23 23 22 22 23 18 28 23 16 18 27 32 22 15 26 14 19 15 25 14 19 17 21 27 21 23 19 21 18 27 25 24 17 27 23 18 19 18 30 25 23 23 30 25 31 20 24 27 22 23 24 18 19 19 13 20 17 22 25 26 22 20 24 23 15 15 24 18 21 31 24 24 26 17 21 16 23 23 19 24 21 22 21 18 24 26 24 19 18 27 28 26 23 21 26 21 22 11 23 31 25 25 15 23 17 23 27 19 16 20 15 21 18 33 18 26 13 26 23 21 20 20 26 27 31 28 25 20 14 25 12 20 33 21 21 24 25 24 17 26 28 24 15 19 23 21 22 19 19 18 25 14 20 23 20 22 18 22 23 20 19 21 25 19 26 19 20 20 16 27 21 28 19 27 19 28 24 24 21 24 21 24 14 22 23 23 20 24 33 25 14 21 26 22 16 19 24 20 20 23 15 24 17 20 31 24 14 29 18 27 18 23 17 17 19 21 30 28 19 23 23 19 28 17 24 25 20 15 22 22 23 25 22 27 20 25 19 27 22 23 24 26 22 22 15 24 25 21 12 19 25 20 24 22 18 24 11 15 27 26 19 23 24 22 29 32 26 20 23 27 23 23 23 23 13 22 25 21 21 26 31 29 24 24 25 24 28 19 28 23 24 26 14 23 23 18 15 23 27 23 21 20 18 25 21 30 21 19 15 15 23 18 22 19 22 19 20 15 22 24 19 26 27 24 19 23 25 28 20 25 14 22 25 20 24 25 24 24 24 23 30 25 31 26 34 25 21 23 20 22 34 13 24 28 36 29 20 23 22 21 31 18 22 28 20 28 27 26 23 29 23 23 20 25 18 23 19 25 19 21 35 20 27 21 19 18 18 24 23 18 20 31 11 20 21 16 24 22 27 21 21 21 20 26 28 22 26 14 28 22 28 30 23 23 22 29 17 21 24 25 27 23 24 14 17 19 28 25 21 22 21 19 21 22 25 20 23 22 19 15 28 23 19 22 19 28 17 17 19 18 29 21 29 22 19 24 33 16 24 23 26 26 21 29 24 14 17 19 17 22 24 21 19 18 15 20 22 22 11 28 25 28 26 24 16 26 29 28 25 31 18 18 19 24 20 25 24 17 28 22 21 23 24 27 23 31 20 25 22 26 27 22 16 23 24 25 19 22 21 26 24 23 18 23 13 19 24 29 18 22 21 20 17 21 22 25 16 24 25 27 28 29 19 27 19 27 17 21 27 23 28 17 25 24 20 23 11 17 28 22 18 26 30 21 18 16 26 22 24 25 25 18 21 17 21 26 24 26 25 27 17 18 23 29 25 21 26 22 28 28 20 32 28 19 19 26 24 24 32 26 22 27 17 23 22 22 25 22 22 16 27 17 22 32 25 28 20 24 21 31 22 22 19 36 15 21 14 15 27 30 22 25 31 23 18 24 21 23 20 29 18 19 20 19 20 15 25 29 25 18 24 16 23 28 23 17 23 24 18 22 25 23 23 23 23 31 22 20 22 20 21 16 19 25 22 16 25 24 17 23 29 21 21 16 19 30 26 34 33 26 30 20 23 24 21 18 24 25 24 30 27 19 24 27 29 21 33 22 22 22 22 19 24 24 24 22 23 18 20 24 22 17 25 23 19 18 19 24 16 21 28 19 20 23 22 25 26 24 23 20 22 24 28 15 20 24 30 17 23 16 16 20 21 25 21 26 29 26 24 18 25 33 19 19 27 29 27 21 18 24 28 21 24 19 18 18 24 18 28 21 28 23 25 20 14 19 28 15 24 22 13 28 19 22 33 26 21 22 24 16 25 26 26 15 26 24 26 28 24 29 23 21 23 19 16 22 26 24 25 20 24 16 20 17 16 23 26 22 19 24 26 21 24 20 21 18 18 18 21 18 16 22 22 21 22 14 18 25 23 23 22 28 19 26 30 16 18 27 23 15 26 21 17 17 23 28 14 25 18 27 21 30 14 25 22 32 34 20 25 24 18 25 20 32 18 28 26 21 22 28 21 21 22 24 26 26 16 22 20 20 28 26 24 16 27 25 30 28 18 20 21 29 28 18 28 24 24 27 26 26 26 23 22 20 19 26 12 18 40 27 25 25 16 25 22 21 20 20 21 23 13 22 22 21 29 22 13 24 27 23 26 24 26 23 24 25 20 21 16 13 25 19 15 27 31 18 23 31 26 30 22 14 30 21 25 30 26 15 22 25 26 23 25 29 25 25 16 27 30 17 18 21 19 20 35 24 14 28 19 23 35 20 21 19 25 23 24 25 21 14 21 17 25 22 25 23 27 31 17 30 24 18 26 23 30 24 14 23 25 29 24 24 17 18 26 23 17 15 20 25 27 18 17 27 28 24 25 21 25 22 18 24 26 23 19 22 17 28 27 22 20 20 23 24 18 30 23 19 18 15 21 22 17 26 31 21 22 25 23 25 16 27 15 30 28 21 20 26 27 17 24 17 22 24 30 28 24 19 24 20 25 28 19 15 30 18 26 20 24 25 28 7 20 23 23 20 17 25 23 21 17 24 16 27 19 21 28 16 23 25 22 26 24 24 24 24 23 23 21 21 27 25 13 19 24 19 19 19 23 29 27 28 24 26 19 16 23 22 20 30 26 23 24 22 27 22 25 18 24 17 11 21 18 13 21 18 27 22 23 18 22 26 20 24 19 20 18 19 25 23 13 26 20 15 31 21 24 26 12 17 22 18 23 34 19 32 20 24 25 23 26 24 24 16 19 16 22 15 25 17 20 17 27 25 24 28 23 23 18 19 27 18 13 18 17 24 19 20 26 25 26 22 22 16 23 22 23 26 17 26 25 18 26 29 22 27 26 15 22 18 25 25 31 23 17 21 21 21 23 23 25 27 22 23 22 22 28 23 29 24 18 21 21 25 23 14 32 20</t>
-  </si>
-  <si>
-    <t>EXN(0.6491551800874498, 30.284595256175432, 4.971589198061524)</t>
-  </si>
-  <si>
-    <t>43 33 38 27 24 42 41 25 31 31 19 46 27 24 32 30 31 23 27 27 38 34 34 25 47 39 34 31 38 40 37 28 36 36 31 35 26 28 30 31 26 37 25 30 36 30 29 42 34 38 34 28 28 29 35 31 36 44 34 39 30 37 30 34 33 37 40 37 28 38 34 36 33 25 28 36 24 35 33 39 27 37 31 45 28 45 34 33 44 41 43 48 38 23 27 26 29 42 32 33 26 39 32 37 28 28 35 33 36 27 27 43 30 29 37 25 31 38 37 30 28 35 36 32 33 42 25 28 49 37 38 22 39 35 41 25 35 33 27 27 23 41 40 26 33 32 24 34 43 37 28 32 44 35 31 39 37 28 27 28 31 34 35 23 26 38 24 44 17 29 34 34 40 35 45 42 30 37 32 35 31 27 25 47 37 20 34 34 38 31 33 23 28 35 28 29 30 24 38 33 35 32 30 34 38 31 43 32 27 35 21 28 33 29 22 37 38 20 28 33 32 26 37 35 32 36 42 33 29 36 37 44 37 34 31 37 37 30 29 34 30 39 36 34 36 32 23 31 22 37 35 32 41 33 38 29 36 26 28 28 35 50 29 34 37 39 33 32 31 30 41 33 30 43 31 43 30 46 34 33 36 47 27 29 28 27 33 33 32 31 39 33 33 33 31 31 33 40 38 35 36 30 33 37 32 38 26 37 35 33 36 39 29 35 39 32 35 29 42 30 36 34 32 32 37 25 26 35 38 26 41 31 35 35 34 36 42 45 47 31 34 39 32 36 22 31 27 28 34 22 31 36 48 36 32 30 35 43 48 39 34 22 27 26 36 41 31 26 31 31 39 35 36 24 41 22 31 27 26 27 30 34 35 24 32 32 30 34 30 32 33 23 33 46 31 26 28 47 40 31 28 35 42 33 40 30 37 39 22 29 35 39 38 29 33 30 25 36 33 37 37 25 44 32 28 31 40 28 28 34 25 30 35 25 33 27 27 46 27 28 26 45 40 35 31 32 34 34 36 28 41 31 35 34 35 29 48 31 39 25 29 28 33 28 41 37 37 16 28 29 39 32 31 26 26 36 37 22 37 43 28 38 22 27 30 26 37 29 28 44 30 24 21 33 39 21 34 24 44 33 33 32 25 42 23 30 38 31 33 50 34 27 31 34 43 39 32 29 34 35 42 39 32 28 26 34 32 28 21 33 25 29 38 38 35 29 36 37 17 31 29 40 29 27 24 27 40 39 33 38 30 33 41 30 34 32 33 31 28 35 32 34 32 28 30 33 36 35 22 30 34 29 41 40 32 39 35 21 29 35 38 40 40 38 35 33 33 35 32 33 24 25 35 31 37 40 26 38 32 31 34 25 39 38 41 27 32 42 30 35 38 30 31 30 35 35 30 35 37 35 36 37 46 29 33 31 24 35 30 28 40 44 45 27 38 31 30 33 30 28 33 42 26 43 29 46 42 36 31 29 41 57 37 31 53 34 28 33 46 47 28 40 25 44 34 25 36 38 44 31 32 37 35 38 34 46 32 29 36 41 32 34 25 28 40 26 26 36 40 35 40 43 33 28 32 34 33 30 29 33 24 30 37 50 34 30 30 29 32 37 39 27 37 33 34 35 39 35 42 32 24 40 32 27 40 31 30 37 36 38 23 32 27 25 38 41 30 32 31 33 34 33 27 36 22 41 52 45 33 40 35 39 31 30 24 32 33 29 33 33 38 38 33 48 28 43 35 40 49 29 34 29 33 31 25 35 33 31 28 31 31 31 31 47 26 36 33 36 32 43 33 35 26 27 30 30 39 35 37 24 39 45 36 33 29 32 44 42 28 24 40 28 39 20 39 27 26 33 24 38 35 33 31 29 37 31 45 41 43 34 44 23 36 41 33 30 20 45 38 34 33 31 31 25 28 38 31 28 32 31 22 25 36 35 25 27 35 44 34 50 33 32 31 43 32 38 31 39 27 29 23 35 37 33 36 36 35 36 32 34 30 37 40 29 24 37 30 27 31 37 34 40 32 42 35 33 36 29 28 28 37 35 33 38 32 26 37 25 35 36 30 28 23 38 26 30 37 34 30 22 25 37 30 34 34 31 27 22 29 34 38 30 38 27 37 30 38 23 30 30 30 34 37 43 53 38 35 23 29 35 24 37 23 43 28 32 32 31 26 36 31 43 34 30 34 25 33 29 35 33 37 37 39 34 36 30 22 35 27 27 24 35 29 39 30 33 28 33 32 37 40 40 30 31 39 33 24 42 26 31 41 34 36 29 37 29 23 23 36 36 30 34 32 36 35 34 27 39 38 37 28 31 30 41 47 28 31 33 32 36 38 33 33 50 41 37 38 39 24 28 44 43 32 37 33 35 35 33 34 35 29 29 43 25 30 30 27 29 25 37 33 50 21 27 28 46 29 28 34 27 36 39 29 35 34 20 38 28 26 30 34 40 36 36 35 50 35 35 40 43 27 33 36 30 34 43 26 33 25 30 23 30 32 32 32 24 26 37 24 37 34 27 34 34 34 42 41 35 25 34 30 30 35 40 46 32 36 26 19 26 41 28 27 29 31 40 43 48 37 34 39 39 41 30 33 32 29 36 27 51 32 21 26 31 35 35 36 41 39 27 40 24 37 34 39 33 35 38 27 27 46 34 28 35 45 34 30 28 36 35 32 28 36 37 30 28 41 37 40 36 31 29 30 34 22 35 30 29 28 35 35 41 35 27 27 32 39 40 43 26 33 29 39 32 42 32 31 33 35 44 30 24 39 32 29 30 30 22 32 28 37 37 32 35 27 29 32 33 39 39 47 27 36 35 41 27 29 26 37 40 32 43 30 27 26 29 38 44 39 29 37 31 47 23 42 37 35 36 39 45 25 37 32 40 36 34 30 31 32 27 25 30 48 35 39 29 37 31 32 41 39 34 48 29 35 39 34 27 37 30 41 33 33 34 24 38 17 32 40 30 33 33 27 29 42 33 40 31 51 38 37 37 43 37 31 38 28 37 36 36 38 34 33 33 28 30 30 30 36 35 26 41 41 33 27 31 27 35 34 27 30 36 40 31 28 36 27 33 33 33 28 26 37 27 48 37 44 39 33 33 41 39 24 43 32 34 30 43 29 34 36 25 36 27 29 24 30 39 25 38 29 37 28 35 37 38 44 29 35 23 26 30 32 43 39 37 39 27 27 37 31 36 38 35 29 37 34 17 41 34 32 33 43 38 30 31 36 29 29 52 23 39 31 38 32 37 33 23 25 37 38 32 33 39 42 40 25 27 40 31 27 31 36 27 28 38 32 37 45 32 37 27 32 34 35 36 41 29 30 27 27 28 34 37 32 45 34 40 29 43 39 35 33 25 37 35 35 32 29 23 36 36 37 37 30 35 34 36 35 41 28 24 30 38 27 34 34 27 28 31 31 41 35 32 33 26 33 28 33 32 35 26 42 27 36 31 39 34 31 29 26 50 38 37 30 39 36 31 34 43 31 39 29 40 28 26 36 34 43 38 29 34 46 34 33 21 48 36 44 42 32 33 36 32 38 30 34 23 35 37 35 34 41 40 33 37 35 34 32 45 25 30 39 30 32 35 29 33 28 34 37 33 39 32 32 30 37 31 32 21 37 42 31 41 32 34 23 41 43 33 36 41 35 23 39 30 32 37 34 26 27 33 34 46 33 39 29 39 35 30 31 25 42 33 32 27 28 44 35 36 26 45 26 38 38 25 48 40 35 35 24 24 33 38 38 41 26 49 28 44 41 39 31 33 36 32 23 38 31 37 30 36 43 43 21 37 29 33 26 31 32 32 21 30 42 32 36 31 29 41 30 39 33 28 21 38 57 36 26 31 36 33 40 35 49 30 28 34 29 41 26 33 34 38 26 35 30 47 37 29 28 44 36 38 33 35 37 29 34 45 26 24 39 31 21 26 29 37 27 35 28 33 36 37 28 32 31 26 29 28 26 31 42 33 27 28 26 36 41 36 27 35 38 33 35 25 37 36 39 30 32 38 40 25 21 35 28 34 30 26 33 31 29 36 29 34 38 28 22 38 37 40 41 35 28 33 36 36 39 32 32 38 38 32 29 36 32 32 31 26 27 36 28 32 29 35 33 29 28 36 37 35 35 37 34 30 49 32 29 32 29 42 41 44 33 41 27 38 30 39 30 42 33 35 31 39 34 36 35 26 27 27 39 27 34 24 23 29 45 40 31 33 31 34 32 36 36 30 53 42 40 32 23 36 38 38 36 30 27 40 39 34 26 33 36 37 36 38 31 42 44 53 38 32 37 33 31 26 29 35 33 29 36 31 23 37 38 35 32 37 35 35 33 25 40 32 23 29 35 33 38 38 53 27 46 38 32 36 29 29 24 32 42 33 29 32 34 29 32 39 34 27 29 28 35 34 32 29 31 35 25 46 33 34 31 44 40 29 36 32 35 37 32 36 36 25 33 34 37 47 33 37 38 35 35 33 30 33 30 34 32 30 56 40 41 26 41 32 41 26 24 32 42 38 36 43 25 31 42 31 39 33 29 28 42 34 30 34 32 32 27 29 29 32 35 35 35 34 35 40 33 28 30 37 33 44 29 30 35 38 43 33 31 32 32 38 23 33 33 31 31 32 39 32 37 40 36 26 30 24 29 36 43 30 35 45 23 31 47 31 35 37 45 28 41 30 28 51 43 31 29 31 28 32 27 31 30 33 42 26 37 34 31 42 34 36 41 39 30 29 32 44 29 29 30 33 25 26 35 31 33 38 34 36 50 31 40 29 33 28 38 32 38 37 41 29 32 35 39 37 27 34 30 33 31 49 29 38 39 32 32 41 48 49 32 33 46 34 32 32 42 28 36 20 26 49 32 30 35 35 42 36 28 32 28 30 36 26 30 41 26 38 36 40 33 41 33 35 37 26 42 38 36 34 49 35 23 31 31 34 29 36 39 28 33 36 31 36 37 33 39 34 25 34 33 27 27 35 38 27 27 36 36 33 34 32 37 35 37 26 41 30 30 34 28 27 24 33 29 31 35 50 39 33 28 48 40 33 28 37 32 36 29 26 32 44 33 36 34 28 29 29 31 36 25 32 42 27 35 36 35 37 38 35 29 38 39 26 30 37 27 37 28 27 28 37 28 35 27 37 28 36 32 26 37 38 42 28 35 41 30 32 34 23 28 34 19 36 25 39 27 37 31 35 33 37 32 37 34 33 31 31 30 39 35 38 19 28 24 35 36 32 34 41 34 37 30 40 28 28 33 34 31 21 28 37 33 30 32 27 42 28 30 36 31 47 42 33 35 39 29 32 27 27 23 31 33 28 37 34 36 35 28 38 34 33 39 25 28 34 22 35 23 44 40 23 35 20 36 34 32 33 36 33 33 32 29 36 29 37 40 36 32 30 30 28 40 30 28 37 39 35 31 37 27 33 29 41 30 40 39 32 34 35 33 40 37 48 28 31 35 26 38 39 33 31 29 29 30 48 35 42 39 39 31 38 35 31 22 41 31 43 36 34 42 31 33 32 42 33 44 26 36 39 33 23 43 27 43 34 50 29 29 34 38 41 24 51 32 47 28 40 42 34 29 33 26 38 21 34 35 38 27 26 41 37 35 43 45 35 45 31 34 28 38 32 41 37 27 32 31 38 31 24 30 34 24 31 34 29 25 27 32 41 37 29 33 39 23 34 27 37 42 43 27 36 29 35 26 31 33 24 36 33 37 31 43 37 38 40 37 40 41 29 36 28 26 37 28 35 28 36 25 25 40 37 27 26 43 32 33 31 41 32 32 35 34 38 27 31 29 25 26 26 27 29 30 33 36 45 39 50 36 35 31 35 26 43 34 28 29 34 27 31 28 19 41 27 26 30 29 36 45 33 38 29 30 35 34 30 38 36 49 34 34 36 28 26 30 21 40 28 37 27 30 29 32 30 29 34 30 33 36 46 29 36 41 36 33 35 31 27 24 34 46 31 31 34 25 28 37 38 43 38 27 31 30 34 27 32 29 44 33 30 37 41 31 31 47 23 33 21 24 35 44 26 35 33 43 26 32 37 29 32 34 36 29 45 37 31 46 28 33 36 28 39 36 33 34 36 30 28 29 29 32 32 37 34 32 35 33 42 42 38 30 41 36 29 25 44 34 24 35 31 24 31 40 32 26 34 47 34 40 30 21 42 33 29 25 31 28 31 26 30 33 29 40 25 43 29 35 24 42 39 37 34 28 25 46 37 45 41 34 35 31 27 39 28 28 42 30 28 43 38 34 30 33 30 38 29 29 29 27 36 37 36 37 36 39 31 27 32 41 29 38 43 34 31 27 31 33 28 30 25 34 32 32 32 27 33 26 42 26 28 29 29 42 35 39 28 39 36 28 30 32 35 41 31 31 35 32 25 31 39 39 33 40 35 38 38 22 31 25 38 35 29 35 26 45 37 28 40 37 34 33 39 33 43 24 26 33 21 28 33 36 29 31 41 31 28 22 41 40 36 21 38 42 25 36 35 47 33 34 39 44 28 29 24 26 30 37 30 35 37 34 24 41 41 26 35 31 38 31 44 39 27 27 30 32 32 32 42 30 29 29 35 21 45 37 32 45 41 31 42 39 27 25 29 30 35 31 37 33 28 32 37 33 34 32 35 31 36 38 20 32 26 35 42 26 43 30 33 22 39 35 21 34 23 38 33 37 43 23 28 40 28 45 37 32 50 28 31 27 32 31 29 34 39 40 29 32 26 26 36 37 36 32 34 30 34 32 42 26 28 33 40 38 23 25 31 43 28 33 35 40 38 41 39 40 32 30 33 37 32 38 41 43 30 32 25 31 38 35 46 22 26 35 26 37 39 41 30 38 40 22 15 41 33 34 35 38 36 34 32 24 26 26 38 31 40 31 26 31 32 41 40 37 35 22 38 22 39 37 28 35 48 41 21 41 42 33 37 28 36 50 30 27 39 38 30 38 42 48 31 30 21 40 23 26 37 28 43 31 34 35 31 36 35 29 34 35 33 39 29 43 43 35 24 26 31 31 37 29 34 41 30 41 26 32 27 21 31 28 33 37 32 24 35 34 21 29 32 34 42 23 34 23 34 27 37 42 37 39 33 33 37 36 26 36 28 28 30 38 40 37 27 34 33 34 45 40 28 40 31 47 39 37 38 32 28 33 35 30 30 33 36 37 31 35 28 29 36 32 37 38 30 34 33 29 40 39 35 48 40 31 28 31 32 21 28 37 29 33 36 25 31 36 46 42 31 33 31 32 37 28 35 31 41 30 41 27 33 27 60 34 45 38 50 39 35 25 27 23 45 28 37 35 30 35 36 41 35 28 36 47 36 43 35 36 36 28 42 31 37 37 35 42 32 27 35 26 37 33 29 32 41 36 34 36 32 49 32 36 40 36 32 56 31 28 30 33 33 34 47 31 31 33 34 28 33 25 37 34 33 33 28 45 47 54 40 43 31 36 28 35 39 22 35 29 38 35 31 30 36 22 31 38 31 32 35 44 40 37 31 39 28 38 37 38 39 33 32 36 24 32 35 31 35 29 36 34 23 33 36 36 35 44 32 42 27 29 35 41 33 44 37 27 29 28 36 30 39 35 24 32 32 32 34 43 31 33 24 33 44 26 37 37 35 24 27 23 38 31 46 32 36 27 29 30 37 36 38 31 44 29 41 32 32 40 38 40 33 39 29 33 43 51 28 27 35 26 37 32 32 24 29 31 35 41 32 41 37 25 34 32 34 31 28 32 29 27 36 33 38 37 38 44 31 41 30 24 35 35 27 31 30 37 31 34 31 23 35 39 40 43 32 26 47 36 36 33 29 31 30 37 24 32 31 32 35 32 21 41 27 33 35 25 45 30 26 32 31 38 30 35 26 25 28 31 33 33 20 26 30 50 29 35 30 26 23 31 40 31 33 43 34 40 35 33 30 44 38 30 40 39 27 28 32 41 30 35 37 33 30 33 28 36 35 31 31 29 35 24 37 35 35 36 24 31 35 38 24 36 29 44 30 26 31 29 40 31 35 45 31 23 25 28 35 37 24 31 34 40 32 36 33 33 35 35 34 32 23 35 34 26 30 32 42 42 39 31 41 32 31 37 43 33 38 22 41 28 32 44 38 32 29 44 32 33 41 31 32 30 26 35 33 44 26 34 38 29 31 22 28 44 33 34 30 29 30 49 46 38 36 34 39 34 28 29 35 36 40 33 39 33 29 31 35 35 38 38 21 25 38 38 43 43 35 37 29 31 35 31 33 31 27 58 38 31 33 32 36 36 34 31 26 39 32 37 29 31 28 41 36 30 33 24 33 32 28 40 22 45 29 36 26 29 32 36 29 33 39 37 22 31 29 23 38 35 30 33 31 31 34 28 26 39 33 46 36 30 33 47 36 39 25 31 41 23 40 29 25 31 25 48 45 34 34 42 36 39 35 37 38 43 32 30 34 40 32 34 40 40 28 35 48 28 39 39 35 29 36 44 29 37 33 32 44 31 29 28 28 35 34 38 21 38 36 39 35 36 31 24 36 39 28 33 34 35 31 29 37 42 37 30 29 26 36 30 34 18 22 28 34 33 35 33 29 29 28 44 30 33 42 30 31 33 28 26 31 36 33 36 37 26 32 40 32 32 36 34 28 33 28 36 44 40 34 30 29 36 32 33 27 38 49 38 25 40 21 42 36 30 33 40 42 45 23 48 34 30 37 35 28 39 37 29 42 34 41 38 37 40 32 27 32 28 35 28 31 33 38 35 43 33 40 32 34 39 44 27 27 26 40 32 20 38 30 41 29 26 33 24 24 36 38 38 26 30 30 28 29 37 35 37 28 30 30 41 27 36 54 37 40 36 36 33 37 37 26 33 37 26 28 43 34 40 34 31 43 35 27 32 44 32 30 29 34 36 27 34 26 25 32 33 26 39 30 26 27 44 29 35 24 30 34 34 43 33 33 47 32 39 28 38 32 35 31 29 40 41 30 42 32 29 40 25 33 31 35 44 40 38 31 35 35 35 36 36 30 38 32 31 32 38 48 28 34 29 37 37 40 30 29 45 28 27 34 37 31 37 32 40 30 39 33 30 43 30 33 24 47 33 33 28 26 36 33 23 36 26 37 26 29 32 30 38 33 25 32 36 35 28 45 35 31 36 42 26 30 34 26 38 37 37 39 44 28 39 39 35 42 45 29 33 32 50 29 35 46 30 35 35 36 32 33 28 47 40 45 23 27 35 42 22 46 41 36 34 27 39 40 40 29 36 24 28 39 39 35 35 36 35 40 39 32 24 27 31 35 37 32 41 26 37 26 28 38 33 31 36 32 29 40 27 41 38 29 39 27 29 37 29 31 29 30 30 35 31 25 27 35 39 25 41 27 31 39 27 22 29 37 27 52 37 41 31 47 32 41 34 41 36 25 44 31 24 42 23 25 35 29 27 30 38 29 28 33 53 39 28 31 36 37 36 45 37 32 48 32 42 41 38 33 32 30 34 36 29 28 41 27 38 31 32 26 26 49 28 32 40 31 36 30 34 25 36 27 33 33 41 39 42 32 36 37 36 33 38 32 46 27 36 40 37 42 33 36 33 51 38 37 25 30 29 31 29 37 29 31 30 33 36 33 29 44 31 37 51 31 30 30 36 31 21 45 34 37 39 26 30 41 26 26 32 26 40 42 32 34 32 40 27 41 36 33 37 38 26 41 35 34 32 28 40 30 41 38 34 37 34 43 38 29 35 43 26 28 24 27 38 30 38 39 37 26 39 37 25 34 32 29 28 33 43 20 27 30 36 32 30 26 26 39 32 32 35 30 41 34 29 38 26 25 38 31 36 23 38 34 34 32 27 36 30 44 29 28 29 34 34 39 32 34 31 43 39 29 29 30 27 44 30 38 44 45 33 36 41 28 31 35 34 37 34 34 32 38 33 31 35 45 39 22 30 35 27 27 34 37 35 26 38 46 35 34 35 35 31 39 37 30 34 41 37 32 29 32 32 23 28 37 43 32 29 28 27 32 33 22 31 27 25 37 27 33 46 31 32 37 27 29 38 28 35 26 31 27 31 27 45 34 27 31 23 41 31 37 32 43 41 35 26 28 43 35 43 29 26 26 42 36 29 27 27 35 31 31 29 36 34 36 32 26 27 37 38 21 33 25 32 30 32 41 30 36 23 38 24 37 39 41 20 28 27 36 38 33 48 31 41 31 32 37 34 39 41 36 34 37 41 34 29 38 31 19 35 34 34 30 37 35 47 23 37 31 31 28 28 32 41 31 35 43 32 43 30 28 31 30 39 31 36 33 30 34 30 35 36 30 31 37 38 43 25 25 38 30 32 47 35 24 26 38 28 29 31 34 29 33 38 42 32 44 30 35 37 40 40 37 30 28 30 23 42 39 27 36 32 38 35 40 29 26 34 31 29 24 39 33 34 29 29 33 38 36 22 28 41 33 38 29 47 43 42 33 32 31 31 30 28 32 31 28 40 45 38 33 34 31 48 26 36 32 34 46 41 28 40 36 27 45 32 39 48 30 33 43 34 37 29 42 23 32 33 38 39 29 27 31 28 28 32 37 33 28 33 34 24 28 36 27 37 31 30 26 40 37 35 27 42 37 24 28 34 29 39 37 34 16 47 39 27 36 27 22 32 29 26 26 28 39 30 31 34 37 26 37 33 35 31 32 31 32 36 38 44 27 39 31 26 35 45 37 38 18 36 30 41 20 27 29 36 30 41 39 33 35 30 37 41 41 38 26 21 34 38 33 32 27 32 31 29 34 34 35 32 31 30 34 28 37 35 41 26 42 39 32 36 41 21 43 27 24 36 34 29 38 47 35 37 33 34 38 31 41 43 33 38 39 36 38 36 35 41 35 33 29 31 32 23 33 37 34 24 35 38 40 31 33 42 26 26 36 36 35 39 33 36 30 40 41 39 38 50 39 33 42 32 33 34 34 32 39 37 32 41 31 31 36 32 30 26 50 35 36 24 28 32 38 37 29 41 42 32 31 31 29 40 46 29 32 32 37 37 42 40 32 22 24 32 36 23 33 23 38 22 37 31 39 32 21 32 35 26 29 26 28 33 29 33 31 38 30 35 27 28 35 34 23 40 29 27 32 36 29 36 33 34 49 41 21 39 42 32 28 37 25 27 33 38 33 28 34 44 30 37 29 29 36 30 25 36 34 33 28 33 32 40 27 39 28 39 41 29 42 38 31 30 33 35 26 39 30 30 36 30 27 31 32 22 37 32 32 37 36 41 28 38 27 37 31 35 44 41 45 37 34 28 31 34 32 43 42 33 35 32 36 41 30 31 33 39 33 35 47 29 38 27 34 34 25 34 36 34 52 36 27 35 27 30 31 33 37 38 32 29 32 39 30 39 34 28 36 34 35 26 58 34 45 27 29 29 28 35 37 34 29 40 40 27 34 36 35 34 37 37 31 41 34 24 30 32 29 36 30 32 35 28 37 37 36 30 38 23 44 18 35 28 36 30 33 36 30 20 27 37 31 32 36 39 35 36 29 35 38 30 25 30 37 25 39 31 25 35 34 39 30 40 35 37 28 27 33 39 27 28 32 39 31 32 29 33 32 36 27 26 28 29 31 36 30 40 28 37 35 39 28 31 39 38 34 31 41 21 28 30 28 42 42 32 43 37 24 26 25 26 32 31 44 28 37 36 38 31 27 28 29 40 34 30 24 32 35 35 22 40 31 42 29 36 26 32 33 26 32 39 28 33 39 31 34 34 36 32 23 34 33 34 29 57 35 29 34 39 33 57 31 34 22 24 38 32 32 29 22 28 37 30 29 26 30 33 40 33 32 48 34 34 30 27 34 30 38 28 37 43 37 22 36 26 30 32 28 33 36 18 33 35 38 37 37 29 37 32 39 35 32 34 34 32 31 36 25 36 37 36 35 22 35 33 33 31 24 40 32 28 40 35 34 26 40 30 45 27 31 45 32 37 27 21 31 36 32 32 28 45 34 35 29 40 33 47 38 30 33 36 36 33 29 44 35 32 39 27 27 31 34 38 35 28 40 29 31 36 32 41 33 26 42 30 31 35 33 36 34 36 36 27 31 34 39 36 26 40 31 33 33 43 39 33 33 27 39 49 37 35 24 31 25 33 35 25 35 33 30 44 31 51 35 23 32 34 37 39 36 27 34 39 45 44 49 42 34 40 29 28 34 43 43 27 29 34 38 30 35 28 31 26 39 35 44 26 43 38 35 46 38 27 30 33 23 36 26 31 35 37 34 27 26 25 33 23 39 45 32 23 39 32 36 25 33 25 23 22 26 36 31 31 26 44 36 38 29 32 30 39 25 30 34 37 36 38 29 36 31 36 24 38 37 31 44 29 24 42 27 29 35 31 31 30 32 56 33 37 27 31 26 31 40 34 23 25 37 35 24 32 33 45 40 37 36 37 40 29 41 40 30 33 37 42 35 24 34 28 30 28 35 33 41 35 36 40 36 33 28 36 32 31 25 34 43 27 26 27 33 35 25 21 39 39 38 34 33 27 36 34 36 28 32 33 33 27 44 42 37 31 27 38 32 31 39 47 34 19 41 33 33 28 20 24 24 42 29 40 25 26 33 35 34 29 34 38 34 28 43 40 47 41 27 24 25 38 32 33 42 28 34 33 46 37 31 21 35 25 30 27 27 32 35 35 29 29 46 25 33 37 38 32 21 39 33 37 32 29 42 33 46 27 33 24 34 33 39 34 30 18 26 24 38 31 25 37 33 36 33 37 29 35 36 21 31 43 37 47 28 29 45 27 32 37 34 30 31 41 22 46 30 35 32 43 32 40 36 31 36 34 34 34 35 26 28 30 26 33 41 34 33 33 41 41 19 25 36 39 37 30 25 34 35 42 50 30 31 36 25 40 45 30 40 31 37 43 25 38 32 31 25 42 27 27 26 28 30 31 28 38 31 33 30 33 39 29 42 35 35 35 35 37 35 31 35 31 27 31 43 31 37 44 27 28 33 36 35 48 28 36 34 33 27 35 29 36 33 31 42 38 35 26 40 39 40 38 25 33 31 38 41 32 34 44 30 41 27 35 39 35 32 30 36 38 46 30 23 44 35 37 35 34 31 33 34 44 39 27 29 41 38 30 40 46 28 33 39 49 27 41 40 29 32 24 50 32 35 33 35 37 39 28 38 32 28 26 40 29 39 37 26 33 26 42 32 32 23 32 36 32 41 35 32 40 28 30 24 29 29 27 40 22 16 26 39 41 38 34 26 31 35 33 23 35 34 35 33 26 35 28 27 36 34 45 32 34 33 39 26 35 37 44 26 31 39 29 33 30 35 31 36 29 30 43 39 35 29 38 34 30 33 33 28 33 25 28 27 27 30 32 27 28 28 30 30 41 26 33 27 37 46 29 39 28 23 22 38 33 30 43 29 50 37 35 29 31 29 36 28 37 37 32 31 38 32 29 30 29 46 46 37 25 26 26 36 39 36 31 37 34 29 34 36 37 34 26 32 40 23 25 32 32 34 27 34 27 24 20 24 36 37 31 37 27 30 37 30 29 38 28 28 23 27 32 27 32 35 33 30 35 27 36 31 30 33 35 30 34 29 41 40 27 33 35 33 32 38 29 34 44 26 32 29 34 28 36 32 29 31 39 34 26 32 26 36 30 26 37 30 40 26 30 48 26 26 36 37 37 40 31 37 39 32 26 42 44 26 32 24 46 22 38 40 37 27 37 30 39 26 31 31 35 30 30 34 32 29 33 36 38 33 31 32 33 38 29 40 43 44 30 37 30 24 31 31 34 34 32 20 29 36 26 30 29 36 52 36 35 36 21 30 39 41 34 32 27 25 36 42 47 30 34 37 24 33 44 38 39 36 37 32 37 30 26 51 34 44 36 34 35 31 35 37 33 33 34 25 31 27 35 25 31 31 36 40 31 34 34 25 39 29 29 30 38 30 38 45 36 29 31 33 34 36 37 30 29 20 31 34 29 32 29 36 33 29 33 34 31 24 38 39 33 35 29 37 30 33 33 29 28 43 38 40 37 29 43 32 29 35 29 23 35 37 43 23 24 33 32 36 34 30 29 44 28 40 30 34 41 40 31 26 39 39 37 31 36 37 26 29 33 36 38 24 30 41 28 35 30 34 38 38 30 37 40 29 31 31 33 47 36 34 39 42 30 34 34 31 39 53 28 41 37 36 31 26 37 28 39 34 31 22 38 29 30 29 32 28 35 38 35 37 45 30 31 32 30 29 35 33 32 29 41 43 32 29 31 25 34 35 31 28 37 37 34 32 45 32 37 17 33 30 36 36 32 21 26 39 32 30 28 41 34 35 34 31 33 21 35 41 38 19 28 40 25 34 33 27 34 38 32 47 29 31 41 27 26 24 30 30 37 30 42 34 37 33 35 29 36 30 31 33 31 33 28 35 29 34 43 43 25 34 30 31 31 31 28 38 46 32 30 41 25 30 30 40 41 27 36 34 32 33 32 36 43 41 36 31 37 35 30 29 32 29 28 27 36 41 38 34 23 23 47 35 37 29 18 36 29 33 34 41 41 38 24 21 31 42 30 34 40 32 33 28 33 35 29 39 28 29 36 21 35 32 30 26 38 32 43 40 31 34 31 23 43 35 40 30 30 35 30 28 32 36 39 31 36 34 31 31 38 34 37 32 26 35 34 33 42 41 41 34 41 30 34 28 27 30 30 33 36 30 26 25 37 34 25 37 39 40 26 32 43 38 25 38 24 34 35 29 21 28 27 35 36 34 30 40 36 30 49 38 40 31 34 28 39 37 37 48 30 24 36 32 35 37 30 43 34 24 36 36 37 31 21 29 30 31 38 28 37 23 31 30 30 35 28 32 25 41 39 44 38 35 31 38 31 43 28 33 33 37 44 39 31 32 40 36 46 23 39 38 31 31 22 42 29 38 37 33 28 34 34 25 43 32 41 35 40 38 31 33 37 38 50 36 27 26 31 31 31 33 26 34 31 35 40 29 35 36 19 26 25 27 29 51 38 25 45 33 27 31 39 32 39 37 44 36 29 31 30 44 32 38 33 28 29 31 36 39 29 32 29 29 31 32 35 28 29 22 40 30 36 30 36 35 32 37 41 42 34 33 38 31 25 32 28 36 42 31 36 40 29 33 28 25 45 31 32 34 37 36 30 35 32 35 28 43 48 30 32 25 36 38 26 25 31 37 40 45 34 34 37 34 34 34 38 50 39 35 29 28 32 38 33 36 44 31 30 29 27 34 31 30 32 44 28 35 45 33 40 25 40 46 35 36 30 28 33 28 27 32 32 37 38 30 28 36 41 46 39 35 39 26 42 26 29 28 36 32 28 32 29 29 33 40 22 31 22 36 26 25 29 35 36 31 44 37 37 42 38 40 33 35 30 35 26 26 32 24 48 43 32 27 33 30 25 43 30 36 34 37 40 27 32 34 36 36 37 23 38 37 37 31 30 45 35 32 33 35 36 42 32 36 29 45 23 35 37 37 40 32 35 20 25 37 25 34 38 26 34 32 32 29 31 34 39 28 25 41 39 31 44 36 39 27 26 31 36 27 25 31 28 36 34 31 39 46 32 27 16 24 39 39 39 25 24 34 34 34 26 36 32 33 35 27 37 27 23 41 37 26 23 35 27 29 31 28 36 31 41 42 29 27 22 25 29 30 38 24 33 29 42 24 25 31 33 37 30 30 35 36 30 40 36 27 37 40 43 29 34 36 25 28 36 34 39 31 45 33 33 41 33 29 34 32 22 40 35 29 33 33 40 32 31 44 38 30 33 33 34 28 35 30 35 31 29 30 35 32 26 32 30 28 32 31 30 37 36 24 24 29 31 24 46 36 41 36 38 27 27 38 41 40 34 35 36 38 29 21 31 33 34 30 31 37 38 36 31 36 29 28 26 34 28 40 30 29 34 28 31 39 31 38 23 30 37 44 39 23 37 31 36 27 35 42 41 28 39 40 38 32 33 31 26 21 23 33 34 31 29 40 38 23 34 32 34 36 31 40 40 39 31 32 36 36 45 30 33 33 35 23 34 31 38 35 39 31 30 26 26 38 28 30 27 35 41 28 37 33 38 21 31 46 29 35 32 34 48 36 26 31 34 35 28 29 28 36 36 26 40 34 34 42 36 37 41 31 26 27 28 23 25 28 30 35 41 27 42 47 27 22 31 33 49 24 30 35 29 42 31 32 33 30 31 39 28 47 32 36 38 36 31 27 36 38 33 38 27 28 32 31 29 36 31 27 44 32 32 32 31 37 31 33 36 30 42 34 36 36 33 30 37 36 31 29 28 24 33 42 26 30 36 45 35 28 31 36 30 45 25 39 32 29 29 31 34 30 30 27 27 39 41 20 38 40 28 37 34 34 30 31 41 38 30 33 33 34 34 49 27 44 38 40 32 30 33 32 31 48 33 35 32 37 35 41 37 38 31 31 32 37 30 34 35 30 27 26 28 32 29 27 30 32 35 38 29 28 40 31 37 31 29 37 38 34 36 39 35 28 35 30 40 34 26 32 33 35 35 32 35 36 36 47 35 34 29 32 37 33 36 28 30 41 35 25 29 32 29 32 25 34 35 29 34 40 27 31 34 48 36 36 35 34 32 37 38 38 38 27 21 41 32 39 30 42 31 36 25 35 40 23 47 21 28 44 41 35 35 27 34 32 30 53 28 23 37 35 37 25 20 37 43 39 34 35 42 35 35 40 35 23 36 28 29 44 33 35 21 43 32 35 36 27 47 37 43 38 32 28 26 43 28 31 37 19 37 33 34 38 35 34 29 36 27 30 31 34 30 55 27 38 29 33 29 28 41 38 31 44 29 38 35 30 38 43 37 36 36 34 38 28 32 31 38 35 35 40 30 37 33 29 37 38 29 35 25 33 22 29 34 42 24 32 34 28 46 27 32 26 38 36 29 29 35 26 23 36 50 27 35 38 34 32 38 42 32 17 42 32 35 34 44 35 41 44 37 28 40 34 31 37 37 31 35 30 33 38 37 34 29 59 38 35 32 28 34 29 34 33 30 34 34 36 40 39 37 35 35 29 24 36 30 35 32 26 35 34 30 32 36 30 29 52 35 33 39 41 41 40 27 31 32 21 36 41 32 44 35 27 31 30 42 30 30 28 36 38 28 42 25 28 37 36 24 36 43 38 46 36 28 34 24 34 33 34 21 30 31 37 28 20 36 26 25 40 36 32 35 28 28 32 33 30 37 23 26 39 50 30 41 26 40 44 29 26 35 41 28 33 27 39 40 30 32 37 31 27 28 38 46 37 38 28 29 25 35 28 38 24 34 29 32 39 37 47 40 27 33 29 34 27 27 41 27 43 37 24 30 41 26 33 43 38 26 31 25 32 25 26 22 24 31 36 28 35 34 42 36 28 26 31 38 29 37 33 39 34 34 34 34 41 29 29 30 36 32 28 30 39 37 39 30 41 45 43 46 30 29 33 34 27 47 27 40 25 34 28 28 45 45 18 35 28 31 31 36 31 35 30 45 35 32 38 31 34 28 40 26 36 41 23 34 31 27 40 40 32 43 31 23 31 44 53 32 29 32 37 24 34 28 25 27 25 32 43 40 31 41 34 29 30 39 38 22 40 41 41 29 44 30 37 33 43 37 34 36 30 29 27 37 28 39 34 29 38 34 35 40 24 38 30 32 38 32 31 30 55 36 37 31 34 37 23 24 43 32 35 42 37 34 32 25 31 27 29 42 35 27 45 32 33 24 39 35 39 47 27 31 28 40 27 31 26 28 32 45 33 23 34 28 39 43 36 31 37 41 34 37 32 42 39 31 33 35 42 25 36 31 23 27 28 36 29 16 35 34 33 41 43 36 36 45 36 42 26 34 28 34 34 37 50 38 41 36 25 31 44 34 30 43 40 34 32 35 36 36 39 39 30 35 33 49 37 25 38 35 39 27 32 20 30 24 40 36 44 38 35 28 28 30 39 31 36 38 31 26 36 35 44 29 35 46 36 39 35 38 43 31 41 37 43 29 34 24 33 38 32 23 43 32 33 31 24 33 41 34 42 31 36 27 31 35 34 36 22 26 38 43 33 24 36 41 37 29 33 24 43 32 29 45 40 27 26 31 29 31 28 35 30 31 32 53 38 38 33 34 30 31 35 30 29 44 31 46 35 30 38 39 31 40 20 26 35 28 41 38 43 42 23 35 20 28 35 35 32 36 25 35 26 32 36 29 29 23 27 29 38 25 49 29 41 28 34 43 32 41 42 42 37 43 24 37 31 32 47 32 37 28 41 33 30 35 26 30 35 29 31 27 36 30 30 31 37 31 29 33 36 30 36 31 43 34 31 31 42 36 21 26 37 37 27 32 43 34 35 33 36 35 27 38 32 33 36 28 39 42 39 32 37 40 31 35 36 38 26 37 45 26 34 37 24 27 33 38 27 32 38 38 34 41 23 34 28 46 33 32 43 28 41 42 24 18 38 41 26 39 32 42 37 31 34 31 45 35 29 33 29 33 44 25 29 36 28 27 34 35 32 35 33 29 35 32 36 42 42 31 34 42 53 29 30 45 39 42 38 42 32 34 32 25 31 34 24 29 30 39 27 28 39 27 35 26 27 30 39 33 32 39 28 31 23 34 35 30 26 20 30 43 39 40 36 35 29 37 29 29 43 38 29 24 27 35 18 30 33 34 37 36 32 37 37 22 39 27 31 28 33 22 31 35 34 34 40 25 42 36 34 34 32 36 36 43 37 42 28 37 32 25 28 30 36 27 38 35 39 30 26 45 40 38 33 33 31 29 29 35 32 32 27 29 32 38 38 22 28 37 24 33 30 35 26 37 31 50 35 38 36 30 24 36 38 24 35 31 40 31 31 29 39 33 31 39 32 37 24 33 37 37 33 35 31 30 30 33 38 36 36 31 32 26 28 41 34 26 31 34 32 38 19 27 37 32 31 38 43 41 29 23 31 28 48 23 30 41 35 31 25 37 30 40 40 36 35 31 25 26 32 22 36 51 24 37 29 43 27 40 40 28 32 40 29 39 30 42 32 33 28 28 46 35 28 33 27 27 30 32 37 27 32 28 33 31 33 30 45 34 44 32 43 42 34 41 30 30 40 27 41 54 35 24 32 38 37 33 39 36 31 27 48 42 40 39 33 29 32 25 27 31 30 33 41 37 24 38 40 37 43 43 31 33 37 30 39 34 34 33 41 27 38 36 35 29 33 39 36 35 41 32 35 32 32 30 37 25 32 23 32 31 39 33 35 31 35 37 34 38 36 36 31 37 34 37 40 33 31 42 28 26 26 27 22 50 30 30 32 22 28 40 27 33 41 36 28 38 40 32 27 31 35 37 30 26 33 30 30 36 27 36 43 29 41 32 36 38 28 27 42 33 28 35 28 24 36 28 32 37 38 24 33 33 29 27 33 31 28 44 39 43 31 40 34 29 38 28 37 22 26 45 34 40 35 33 31 29 36 35 28 28 30 35 34 41 35 32 25 24 31 35 30 28 33 44 34 33 29 41 38 36 37 51 32 40 32 37 36 41 37 30 30 38 23 37 39 37 34 27 37 35 25 40 38 32 32 33 32 36 42 33 32 35 43 25 31 31 29 35 32 25 37 29 27 40 34 24 32 34 26 24 46 29 33 25 36 34 43 31 27 26 31 34 26 33 29 45 30 41 36 38 31 45 37 39 34 34 31 33 34 33 36 44 31 38 37 36 40 32 25 32 37 42 38 48 24 25 30 40 37 36 34 32 33 45 32 26 27 35 42 30 29 31 32 39 26 39 22 32 26 34 43 29 28 26 38 25 38 38 36 28 43 32 23 29 32 36 34 35 39 38 37 45 26 31 34 32 33 42 26 33 29 22 32 31 36 37 39 30 34 41 38 26 26 38 25 33 46 37 39 37 29 35 30 39 32 30 39 33 32 34 30 36 44 34 35 28 48 35 40 30 30 35 28 34 19 34 45 33 44 30 30 32 30 40 33 34 29 28 29 33 47 26 36 24 32 31 28 34 29 35 43 45 35 44 29 27 42 26 32 49 36 36 33 40 34 23 39 46 35 25 30 36 26 27 28 24 29 34 29 36 34 36 30 29 27 33 25 29 27 30 32 36 30 30 30 21 45 31 39 31 42 30 47 34 37 36 34 37 44 22 29 33 33 35 36 45 35 25 35 36 33 25 24 40 33 30 28 23 35 22 30 38 29 18 43 22 53 27 34 26 24 23 34 42 37 31 30 27 34 42 23 36 37 38 20 33 36 35 33 33 39 29 33 32 35 27 32 37 39 37 33 28 39 38 31 25 25 35 32 32 30 25 34 24 29 37 37 32 33 37 32 42 41 36 30 36 35 30 39 32 32 22 35 30 30 33 34 42 35 37 28 42 31 47 25 41 33 35 34 25 35 28 33 24 32 40 33 30 31 26 32 31 42 33 33 32 23 26 25 28 26 31 33 33 25 32 38 33 37 36 37 25 40 33 39 29 36 24 38 40 32 32 39 37 37 29 37 41 32 37 38 51 32 33 40 26 33 44 24 39 40 45 43 35 31 42 35 42 28 30 49 27 43 39 34 41 45 35 40 27 35 31 33 34 31 28 36 52 34 36 30 35 26 30 30 33 23 32 47 20 30 28 30 33 34 41 31 24 34 30 40 44 32 40 20 41 33 43 38 36 32 33 34 28 28 34 34 35 29 37 23 26 30 40 39 31 31 29 32 32 30 32 40 37 34 34 32 38 38 27 29 40 36 35 33 33 30 40 28 41 38 26 36 40 24 36 30 33 36 32 46 36 26 33 29 26 30 41 32 31 28 25 30 33 32 19 35 34 37 37 31 26 39 40 37 32 48 28 35 26 34 28 36 38 28 37 33 34 33 32 43 27 39 35 35 35 35 41 39 27 32 36 37 33 37 28 37 36 34 41 31 27 29 35 44 30 33 28 36 34 31 35 33 27 41 40 41 36 43 27 49 26 40 26 32 36 44 36 30 33 40 32 32 20 25 46 33 29 35 36 28 32 29 33 33 30 43 33 26 43 23 27 31 35 43 37 39 25 32 33 42 42 30 35 31 40 42 26 47 35 35 33 35 37 40 51 37 43 37 28 32 29 31 31 36 36 25 38 23 34 42 39 40 29 38 32 53 33 39 26 47 23 35 19 28 40 38 29 36 42 40 31 43 29 32 28 38 29 27 27 37 28 25 34 37 33 29 38 33 35 39 29 28 35 37 31 29 32 35 38 36 32 49 34 30 28 31 30 27 31 31 37 27 34 30 25 33 42 27 31 24 32 39 36 48 46 38 46 31 33 31 39 26 29 42 37 41 37 28 42 36 46 35 44 30 30 31 29 31 34 33 36 45 35 28 31 35 29 25 34 37 38 32 26 31 28 36 40 34 31 34 28 35 36 33 35 31 29 37 37 32 34 38 44 29 31 25 26 34 32 43 37 34 42 34 42 36 35 43 28 23 33 40 37 31 30 34 45 25 29 29 28 31 40 26 42 34 40 31 31 41 25 35 38 27 32 37 37 43 31 33 46 39 40 32 41 24 29 38 36 24 41 37 36 37 34 38 33 30 31 28 34 28 40 35 29 38 30 36 28 23 33 38 29 33 27 36 35 25 36 27 25 31 32 26 29 26 24 30 41 32 32 21 35 40 37 35 28 35 38 33 35 26 27 46 31 27 35 28 26 30 36 34 32 37 27 42 28 46 22 33 37 40 47 34 44 35 29 34 36 47 29 39 38 27 41 39 38 34 30 30 37 36 24 32 29 33 39 38 43 22 37 39 44 49 28 26 29 39 40 34 34 44 32 40 39 37 38 33 35 32 30 38 22 34 60 38 33 32 24 43 32 31 35 35 28 37 26 27 32 32 42 32 25 34 40 33 33 31 39 32 36 39 28 32 19 21 36 26 27 43 47 30 42 46 39 42 29 24 38 30 33 48 32 30 33 37 38 33 41 36 37 34 26 37 37 30 34 28 30 28 48 41 27 40 35 35 45 29 34 29 33 34 40 40 34 24 31 25 35 29 34 35 35 42 33 44 31 29 32 33 35 42 24 39 39 41 35 37 27 35 37 31 24 23 36 38 42 33 30 38 37 33 31 33 42 35 31 35 34 36 28 33 26 38 36 34 30 34 32 31 23 50 34 32 28 25 33 31 27 43 45 32 32 36 31 38 28 33 27 40 35 28 33 37 35 23 33 28 36 39 39 32 32 28 35 27 34 35 31 27 41 28 36 34 33 41 42 17 31 31 38 36 27 33 32 28 24 36 24 36 32 32 38 29 34 31 40 36 36 36 38 39 35 40 32 31 44 40 28 27 34 31 28 28 39 39 39 42 31 36 31 24 36 31 36 41 38 34 39 33 36 34 41 30 38 29 20 32 28 25 35 22 39 35 31 26 32 38 32 35 32 32 32 28 39 38 21 40 30 24 41 32 39 36 17 26 32 33 28 45 37 39 39 32 36 28 37 36 30 21 28 22 34 26 44 34 28 23 40 43 33 40 32 30 31 31 37 30 21 32 29 39 28 38 38 34 37 32 37 30 32 30 34 37 28 38 36 30 34 46 44 37 41 29 32 24 38 33 47 34 29 27 30 30 35 29 34 38 34 36 33 35 42 39 48 35 31 32 33 35 30 20 41 30</t>
-  </si>
-  <si>
-    <t>GAM(128.8656583997266, -305.48708006709154, 4.103993862591185)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213 199 218 203 161 325 239 175 213 207 127 285 128 192 280 241 234 170 144 206 225 244 252 174 316 213 254 206 280 238 287 152 222 271 195 259 238 225 273 230 179 294 147 261 258 179 240 236 187 298 139 206 159 211 262 205 297 229 195 285 214 213 234 160 290 281 308 207 192 243 292 243 289 206 157 236 180 238 218 293 179 246 212 236 163 292 183 270 283 235 312 355 234 180 118 221 155 275 239 219 153 235 225 232 179 237 215 248 199 179 225 231 168 226 254 178 218 226 260 232 156 197 288 225 269 335 186 208 248 247 284 162 273 279 219 128 211 229 199 217 158 311 222 134 286 253 196 226 322 226 199 156 263 266 198 273 228 191 232 174 238 193 255 131 173 223 194 235 102 222 234 232 260 293 244 314 195 241 241 213 215 197 181 293 228 86 194 182 248 195 215 147 187 239 222 192 201 145 260 260 225 189 231 237 176 195 228 208 202 214 112 217 265 213 135 270 249 160 225 243 213 207 254 290 223 269 216 231 225 277 310 295 248 208 207 297 292 231 180 200 241 203 211 207 216 243 171 262 125 275 192 223 294 179 228 162 237 243 175 190 235 276 234 241 282 247 239 146 222 204 285 234 183 306 222 264 173 266 265 243 210 347 178 219 239 177 188 240 256 196 328 160 267 183 183 265 220 348 271 215 253 191 268 255 189 195 179 267 300 248 224 279 156 216 247 235 173 223 299 218 237 242 193 209 253 206 137 196 216 152 255 200 256 232 137 300 273 384 222 202 257 252 240 305 145 202 197 212 225 141 192 226 265 269 263 251 199 271 252 287 207 184 218 166 234 277 270 179 202 275 314 250 276 141 225 147 218 176 191 195 218 198 186 162 136 277 198 271 196 210 157 143 257 272 230 146 215 324 302 237 193 331 223 268 300 163 279 299 108 159 237 244 306 182 200 145 247 236 254 269 278 165 285 148 210 230 195 185 214 200 168 233 185 137 190 170 189 323 200 176 153 306 250 252 171 196 201 237 255 168 315 224 282 241 220 224 276 190 263 168 188 156 254 168 226 247 191 114 214 223 209 174 270 180 194 226 242 145 233 272 185 250 163 179 187 179 265 229 179 278 254 189 131 179 226 116 243 114 218 205 233 241 160 218 154 220 290 199 192 293 250 176 167 225 256 229 238 192 190 264 277 244 215 182 168 194 235 208 148 200 138 183 160 283 214 199 184 265 146 267 199 288 241 187 136 175 248 262 197 271 188 202 296 256 200 225 229 267 247 276 268 210 181 211 230 222 232 244 165 195 207 153 300 195 185 210 233 126 210 271 251 244 248 252 240 166 259 268 181 198 183 201 227 182 251 214 181 202 248 226 200 190 312 180 253 197 174 303 227 211 233 211 159 181 206 271 224 238 202 279 169 280 301 227 234 189 174 201 221 172 270 283 298 185 193 232 152 265 177 213 269 286 142 327 240 288 240 169 220 222 315 311 298 172 343 203 196 277 392 279 189 309 184 350 198 117 283 217 283 182 225 258 232 252 259 292 257 244 185 248 161 208 184 193 214 181 202 198 213 214 271 277 190 127 220 236 244 163 119 209 213 245 182 306 272 188 228 176 211 266 295 180 209 230 203 243 299 187 327 233 164 195 259 160 330 180 173 254 226 264 207 185 183 109 253 237 185 141 201 241 266 220 191 208 159 298 306 309 191 265 252 239 188 232 137 226 219 185 242 248 254 244 236 337 206 279 255 265 245 175 217 201 277 288 191 234 274 207 181 175 199 178 198 335 193 200 181 215 293 332 262 231 212 180 203 243 235 299 250 164 214 304 252 256 225 224 253 245 235 122 248 204 280 116 232 242 174 191 183 296 266 295 219 208 288 190 304 294 281 246 266 210 216 258 192 204 122 285 185 203 139 186 237 170 161 209 233 206 214 209 130 164 261 255 213 221 204 265 154 294 240 208 175 232 174 225 240 203 172 211 152 210 193 218 204 230 220 299 260 206 222 249 264 198 182 204 253 197 184 235 223 229 188 338 226 221 296 227 211 170 229 205 264 215 193 188 294 237 270 232 207 210 207 204 199 207 238 160 186 156 188 258 193 254 264 229 209 185 175 241 293 201 267 143 296 220 243 162 193 176 203 265 263 257 354 242 281 122 195 167 165 241 148 254 198 202 235 256 157 196 161 276 246 198 200 172 195 238 205 250 207 267 277 226 256 196 146 227 207 182 212 273 211 261 197 147 199 178 243 219 276 236 235 201 268 212 134 262 204 214 232 290 242 253 224 216 121 164 214 243 267 202 253 236 177 283 198 233 220 247 137 192 160 278 210 174 218 196 268 218 223 218 138 310 298 213 230 287 194 214 224 258 245 271 249 274 270 190 201 261 199 173 276 150 153 168 172 208 210 247 202 246 126 212 240 277 194 208 218 176 252 258 193 195 187 114 227 94 148 200 255 266 306 247 184 352 231 149 326 232 181 233 187 238 222 272 195 260 116 201 163 220 219 207 207 185 159 212 188 255 214 169 198 274 296 253 226 262 168 234 242 181 219 231 293 273 247 184 115 168 209 215 137 229 207 284 240 300 224 230 273 273 280 191 270 180 219 247 139 397 216 171 168 254 218 254 224 216 287 214 222 168 192 272 207 193 238 258 172 195 274 241 251 269 255 213 195 217 238 188 165 212 236 249 216 159 272 258 319 269 210 186 191 195 134 252 179 216 151 204 287 261 244 211 216 251 260 289 280 138 188 250 286 222 358 215 155 329 262 278 182 230 241 244 172 181 167 88 206 156 232 263 178 244 174 184 193 202 222 304 248 196 250 257 218 140 206 178 232 230 265 248 203 171 178 230 215 342 325 198 255 197 342 213 271 293 240 260 287 306 107 290 232 236 211 285 192 202 246 204 154 211 282 259 202 215 288 226 211 231 254 234 364 174 247 272 266 160 290 222 325 221 223 224 204 266 133 227 264 182 201 214 187 195 299 246 272 238 310 265 256 270 209 244 183 202 188 237 336 301 195 253 220 273 178 249 165 217 227 252 214 279 275 241 120 177 164 228 157 209 256 209 269 180 195 210 199 240 233 255 207 164 279 208 269 211 338 282 185 217 283 184 185 322 265 237 202 291 214 171 211 224 206 137 216 149 182 259 164 219 211 197 218 238 235 277 261 240 212 134 153 203 227 282 226 284 216 189 175 197 165 235 256 193 145 245 189 93 307 285 236 232 342 288 181 205 261 200 203 359 184 188 244 220 234 184 184 137 121 305 230 286 195 250 304 292 152 234 259 178 136 247 283 191 170 232 201 214 272 188 296 155 187 193 346 272 299 210 220 186 163 200 254 249 184 284 233 244 217 322 204 143 231 182 224 230 176 179 183 169 269 200 267 295 215 248 281 253 247 297 162 192 215 216 166 223 210 199 153 213 200 297 212 191 154 206 242 173 200 252 211 177 193 181 170 178 268 246 166 264 166 306 241 266 216 168 247 277 203 240 207 259 165 236 201 203 215 261 259 317 210 218 286 231 226 161 315 167 258 266 198 191 248 226 283 239 273 166 252 225 255 194 257 243 160 214 261 218 204 346 165 208 286 186 229 291 216 197 156 181 222 202 266 219 206 228 274 186 207 137 261 314 145 233 209 254 175 237 293 225 173 198 216 189 272 194 142 272 201 211 231 204 172 263 200 272 164 229 218 242 249 186 329 259 228 225 254 265 282 220 209 219 175 239 292 158 274 230 186 262 178 166 237 303 213 240 194 329 220 318 249 299 193 206 214 197 155 274 163 284 225 265 218 295 172 217 161 193 159 180 216 242 143 265 263 198 298 185 199 287 150 205 216 210 189 252 399 235 165 227 235 191 232 195 306 163 179 191 269 231 148 197 221 312 195 227 168 292 214 183 148 227 259 304 255 261 210 193 273 266 201 97 322 255 190 196 245 282 207 208 231 208 218 278 169 246 226 156 218 224 187 170 252 265 207 202 174 231 282 235 236 191 274 191 232 143 252 202 253 139 229 271 215 182 141 233 191 193 270 126 263 177 200 254 184 225 217 178 157 179 243 299 263 254 212 253 295 216 272 226 172 243 285 238 226 205 175 223 197 201 224 213 159 194 232 217 226 170 192 225 228 269 279 220 161 267 254 215 200 268 185 263 326 239 257 293 221 230 239 296 221 275 192 227 203 222 245 258 220 198 130 151 251 140 262 171 214 193 258 249 133 229 186 242 231 208 273 218 358 252 294 228 163 245 281 252 265 222 197 290 327 257 184 249 219 196 211 213 226 228 313 359 269 203 187 160 217 136 179 254 222 176 245 191 139 266 289 236 136 273 251 252 179 181 332 210 200 207 239 238 193 270 320 108 288 213 197 230 234 203 158 239 291 233 215 213 265 244 177 279 196 194 205 195 209 266 206 219 218 266 216 304 198 283 232 288 290 185 245 214 192 250 225 214 183 130 191 218 256 303 215 241 313 223 238 253 163 161 181 181 195 192 376 228 272 232 231 176 340 169 157 228 262 323 255 295 176 240 255 186 250 247 240 186 231 204 248 230 166 177 193 151 220 169 177 253 298 230 265 249 209 174 226 249 207 213 237 210 237 209 233 186 234 211 200 258 216 203 284 264 164 226 220 186 165 188 224 137 210 171 185 238 300 186 196 358 163 158 301 243 257 298 265 177 325 225 181 355 290 243 210 207 238 180 149 287 203 197 279 177 233 236 219 283 241 222 220 310 206 244 238 289 229 175 169 201 137 112 177 229 286 254 196 275 321 221 235 183 212 237 195 257 205 285 278 184 202 203 255 233 186 190 232 229 176 273 235 232 153 216 266 256 293 331 285 188 274 243 273 243 306 221 270 156 189 322 203 213 248 240 285 231 160 209 178 168 172 172 255 291 159 247 308 271 266 204 197 241 230 141 261 253 208 182 294 230 143 207 215 244 166 236 271 105 191 170 221 207 185 185 263 252 177 232 226 212 186 250 215 181 132 251 195 215 217 188 288 222 215 194 295 199 231 246 163 172 230 231 186 268 210 312 238 243 214 330 294 209 202 217 179 254 204 146 182 240 233 303 163 177 217 225 228 264 180 179 299 174 212 244 242 274 258 201 235 235 236 208 191 274 186 216 227 184 167 262 171 269 184 231 203 244 240 182 316 263 254 195 214 246 166 222 220 189 183 222 149 262 180 221 170 304 219 233 281 264 221 306 257 223 197 278 153 236 176 221 182 182 194 274 228 169 227 213 241 299 117 231 168 158 287 168 218 155 204 254 214 270 236 176 296 201 206 243 168 349 281 209 248 245 213 210 200 177 151 202 209 169 229 192 218 172 171 254 267 219 228 144 165 226 129 252 142 324 224 146 201 109 246 161 228 277 195 229 222 199 185 232 198 302 267 164 240 198 233 256 217 177 213 198 255 282 221 198 176 202 221 277 183 335 255 250 231 194 260 254 189 274 155 222 171 197 205 272 248 214 254 195 195 262 255 247 217 290 184 271 193 241 137 240 187 218 226 255 213 247 168 274 250 207 230 170 273 293 263 157 260 158 283 197 342 202 196 224 212 230 148 351 234 334 199 320 243 239 196 249 185 235 142 224 243 237 178 179 273 235 258 269 332 232 298 182 191 197 291 287 292 248 177 249 258 148 171 172 196 219 164 195 218 230 137 207 203 185 168 179 233 284 216 236 181 279 225 277 99 199 217 165 162 203 185 185 270 238 255 287 352 272 276 261 275 218 222 231 268 162 202 306 176 249 248 267 235 172 206 235 162 145 274 208 228 205 237 161 196 234 238 212 267 240 229 139 152 175 215 121 212 224 255 295 269 306 263 248 208 242 169 275 287 214 222 211 195 182 226 131 262 198 210 210 222 246 322 227 311 267 201 219 207 224 187 221 300 194 221 176 197 193 234 97 267 146 286 213 202 202 224 250 172 234 167 289 161 239 208 208 231 224 256 255 166 220 128 221 279 186 235 232 175 242 268 270 272 218 142 139 133 249 172 227 221 322 198 160 251 283 245 206 300 149 186 197 159 192 281 177 274 282 309 229 219 254 218 230 211 242 203 249 274 159 248 192 241 204 195 261 232 193 229 199 260 195 205 292 179 171 233 283 218 266 186 272 245 239 208 280 203 210 139 325 281 175 230 223 122 212 251 188 122 226 324 219 205 127 183 220 250 260 163 222 208 206 148 219 187 201 242 187 269 227 198 128 246 250 261 282 195 184 297 273 342 258 277 225 188 173 288 208 197 277 127 243 289 258 233 217 205 216 264 184 186 216 153 252 228 260 227 302 284 150 129 230 271 191 304 212 256 157 211 198 219 139 172 143 297 187 210 211 197 236 190 254 160 167 202 187 283 254 284 222 280 221 204 202 266 201 230 183 251 305 224 177 235 271 255 169 216 278 241 245 171 209 134 247 257 183 154 138 278 263 194 287 216 277 188 319 210 250 183 191 215 128 129 231 244 187 222 232 198 173 167 302 258 260 134 257 277 168 200 278 249 253 232 275 265 246 223 190 172 173 260 152 219 217 196 148 242 281 199 254 196 262 150 268 253 266 206 183 261 175 285 256 201 176 207 236 182 249 227 257 305 236 262 225 245 202 118 188 229 171 198 310 225 178 279 269 221 175 175 294 245 235 180 91 236 177 296 333 179 300 194 267 136 233 220 109 174 147 283 201 274 279 145 168 275 193 231 240 172 328 177 195 201 224 192 190 235 239 281 206 251 153 168 210 232 212 236 198 177 195 96 326 192 193 245 263 317 147 156 272 251 147 188 264 283 251 314 304 246 247 125 216 259 219 281 304 255 241 228 156 198 211 234 275 186 168 238 220 199 289 252 212 291 216 164 77 237 235 205 181 260 235 186 234 167 208 192 221 210 304 222 186 207 227 296 301 270 139 148 240 157 372 260 229 220 323 286 143 259 257 236 259 151 241 282 181 204 231 245 198 241 302 283 233 183 104 249 157 234 270 164 269 190 252 286 242 207 206 220 224 234 264 310 199 291 350 251 177 141 197 154 251 206 233 229 267 272 189 200 221 172 215 144 220 257 184 158 258 229 183 172 172 300 268 167 174 185 228 178 234 273 256 315 257 247 215 308 181 214 204 231 232 279 272 303 187 201 241 225 305 297 227 289 279 284 255 294 240 216 120 229 250 197 170 226 201 260 227 248 191 233 297 220 304 257 239 277 270 225 214 282 175 268 252 241 216 244 230 151 177 281 257 322 259 189 231 250 251 294 143 179 166 227 170 230 239 264 263 200 257 163 170 207 352 276 336 236 273 164 244 232 151 165 286 180 230 233 215 256 258 368 219 224 166 311 206 242 233 285 207 191 302 204 254 262 251 330 287 239 197 194 243 183 129 252 365 270 305 235 220 302 199 259 217 221 206 386 193 189 166 246 181 210 286 198 239 246 224 242 242 191 201 200 204 233 188 279 335 251 244 320 216 201 227 204 279 176 233 177 240 266 223 213 244 177 245 247 153 172 166 284 235 260 206 264 171 278 224 237 230 227 199 236 164 162 220 221 259 198 211 266 148 246 177 261 215 224 217 203 229 258 263 283 234 264 266 166 136 175 247 167 316 264 191 250 259 239 233 233 259 243 137 209 332 141 236 258 254 163 157 202 280 185 281 157 289 192 119 268 246 193 284 262 280 169 276 172 203 251 242 351 241 203 138 180 297 371 249 208 205 206 321 201 262 197 166 214 215 225 206 263 178 168 218 232 222 202 189 233 201 185 261 184 273 272 276 251 163 209 191 192 216 249 169 195 231 202 184 248 209 215 254 295 296 284 203 213 299 298 199 245 188 191 138 268 188 219 180 210 237 184 152 214 188 187 200 205 312 233 129 213 162 310 240 254 194 199 232 141 208 237 159 173 195 234 169 281 235 209 150 175 244 176 260 237 290 240 253 263 245 260 298 229 285 265 175 268 163 251 197 208 225 201 254 263 200 344 234 226 195 216 228 208 200 239 234 291 176 201 207 242 123 226 173 382 229 225 196 178 273 209 303 300 253 156 200 176 208 247 130 158 251 296 253 273 260 250 176 237 191 222 140 205 254 162 237 221 233 252 302 279 304 225 170 196 330 156 247 153 238 227 166 330 252 211 200 275 272 242 315 177 149 206 218 276 234 266 169 228 252 133 206 97 245 297 218 176 179 254 131 257 196 258 177 230 357 211 227 210 201 291 268 191 235 164 214 208 242 213 228 248 122 165 225 222 259 230 242 257 194 187 290 199 272 181 206 364 303 204 196 248 260 285 247 244 158 287 275 220 184 189 179 209 232 205 269 157 182 259 154 237 167 330 190 265 147 183 223 260 194 167 277 275 159 172 179 139 230 166 178 151 184 207 217 207 183 241 181 215 258 251 248 302 272 289 136 202 259 148 270 242 201 165 173 302 318 219 209 286 267 230 234 213 298 293 255 189 214 215 231 230 304 254 191 277 307 179 282 288 216 226 214 314 200 245 245 211 335 222 190 186 167 276 246 293 134 255 268 209 225 243 194 160 239 258 247 151 181 208 195 210 286 254 281 167 164 174 277 195 257 157 137 213 259 246 242 298 207 203 178 259 201 235 251 247 161 235 208 162 217 219 238 282 268 160 251 185 189 224 208 244 185 186 231 220 290 205 269 224 188 225 203 213 250 247 354 233 172 267 142 257 230 225 215 219 212 287 198 233 248 129 266 287 220 223 274 218 258 205 242 290 236 219 238 178 181 235 232 171 235 243 304 194 296 231 271 197 162 232 333 138 169 168 269 246 115 237 217 294 212 142 270 107 146 260 270 257 153 191 171 200 172 260 225 262 207 244 147 317 163 238 320 242 370 298 270 258 232 226 163 149 252 220 274 284 230 364 212 206 229 249 184 164 292 164 196 172 215 253 224 244 171 211 222 236 162 223 157 182 175 366 197 221 174 210 266 247 342 249 225 253 211 190 214 217 216 184 235 193 268 261 162 174 196 160 294 152 257 216 284 276 279 203 238 215 200 217 259 233 159 257 211 205 242 261 291 162 215 137 257 239 231 225 193 278 184 185 210 285 165 213 285 264 172 283 242 245 235 177 229 177 296 125 239 175 176 276 170 202 264 155 197 184 143 163 167 185 255 134 242 271 259 195 290 273 168 259 280 159 237 267 195 210 233 255 212 298 169 250 281 252 236 193 260 248 202 306 225 209 287 173 230 229 217 224 164 215 252 284 318 117 134 274 232 152 323 294 245 219 129 273 280 305 206 242 154 188 263 236 163 214 270 263 266 220 206 137 147 187 237 268 232 238 168 240 177 225 244 229 183 300 248 163 239 195 280 278 161 173 211 175 236 232 209 164 221 164 187 204 201 198 199 250 179 269 189 168 292 202 176 217 252 143 274 250 268 185 283 205 278 228 284 292 157 211 205 127 253 160 168 209 193 231 217 219 155 176 201 276 242 146 217 268 278 191 313 253 204 238 280 287 253 235 184 234 216 175 211 232 197 301 177 231 202 204 182 140 288 184 215 253 219 222 201 258 161 237 197 240 239 274 253 235 162 176 273 215 165 276 174 295 197 227 311 310 129 222 226 173 303 226 250 141 192 182 197 194 231 226 244 162 242 265 188 185 321 245 189 325 192 163 263 259 223 195 264 198 235 307 199 216 250 149 136 201 186 229 267 247 211 204 236 212 254 290 232 303 286 208 282 174 183 210 168 214 235 318 242 247 301 280 210 245 156 253 258 206 158 153 175 217 234 232 240 298 137 209 251 172 192 224 208 242 253 318 166 171 213 185 225 170 181 156 246 197 187 259 196 242 270 221 266 236 136 248 215 201 185 263 220 222 169 190 206 193 300 218 164 188 263 182 250 194 258 173 250 221 201 196 174 194 265 239 247 290 250 190 195 237 197 200 242 238 176 241 183 242 185 223 191 281 275 293 154 260 180 172 142 159 318 258 251 267 294 224 216 262 233 263 276 238 198 253 229 196 187 173 207 228 138 197 247 255 281 262 158 183 271 228 158 186 200 139 210 181 217 256 175 253 293 163 215 276 184 298 194 213 164 180 141 283 216 221 164 140 302 191 210 229 249 237 274 155 183 266 284 287 211 186 161 279 243 212 190 209 227 186 236 237 271 205 281 237 155 227 235 287 187 223 157 209 160 223 236 170 224 198 297 173 271 231 242 150 271 175 234 274 191 272 260 239 169 225 178 221 281 274 208 247 266 214 192 204 206 161 154 187 227 249 195 240 264 259 199 259 213 205 206 195 264 217 224 210 271 242 292 165 204 179 183 306 199 309 196 163 249 158 205 277 169 295 260 283 313 195 184 305 177 182 245 261 245 188 205 172 153 194 260 130 235 272 271 179 249 200 245 251 274 251 250 144 150 209 105 244 251 188 263 228 225 247 246 162 180 279 214 218 168 261 174 263 186 219 210 343 204 176 262 246 242 247 170 282 266 340 190 193 185 206 183 191 260 223 197 322 275 290 232 214 199 316 183 203 217 278 280 283 191 270 251 176 187 187 266 320 147 156 302 229 190 183 256 125 186 230 242 179 177 189 183 168 248 188 175 268 167 295 227 197 212 291 202 278 197 151 85 226 236 258 204 238 340 177 126 253 180 250 302 210 103 230 325 182 225 168 132 237 231 167 147 248 263 191 178 228 239 188 211 191 247 194 157 195 222 273 259 266 215 174 181 182 176 279 247 223 111 237 253 270 194 150 220 224 151 262 252 262 242 189 227 271 231 287 187 164 167 292 236 217 207 255 181 248 256 326 246 266 223 225 221 207 195 184 232 196 283 284 253 247 362 133 342 188 152 278 199 183 329 314 222 318 224 208 263 220 253 265 214 261 205 195 228 265 213 298 254 277 209 236 172 178 234 205 214 157 244 229 272 228 183 296 150 165 267 212 178 235 215 275 246 238 268 323 254 277 235 176 289 215 222 223 232 201 226 224 202 281 206 236 260 244 195 193 346 268 159 190 163 257 257 265 266 248 246 194 218 210 232 264 258 217 223 144 240 241 348 246 244 174 169 187 261 115 178 137 214 169 192 230 265 217 130 220 224 181 174 176 234 187 201 206 220 258 168 252 170 221 229 191 133 213 251 172 241 278 233 254 227 225 314 261 171 256 280 226 210 175 130 259 181 227 228 204 227 345 239 261 256 154 147 232 201 270 208 173 219 264 238 252 155 276 186 246 272 194 269 316 135 218 178 217 220 265 178 250 159 202 162 214 204 173 241 141 250 181 276 248 181 301 149 293 236 232 293 256 226 289 206 188 240 189 204 272 247 216 230 174 195 267 196 262 213 261 161 248 255 215 209 246 205 197 109 233 224 253 320 188 212 251 163 202 169 213 279 297 247 177 173 239 242 207 245 192 274 247 238 211 311 278 250 211 240 132 192 221 273 278 187 284 261 164 218 253 234 186 236 259 212 310 285 139 198 208 161 259 214 199 234 165 252 278 210 272 252 153 321 140 260 172 221 160 245 175 203 164 187 267 194 224 245 301 253 270 200 252 249 249 168 140 223 174 267 196 190 218 240 272 194 286 190 260 171 200 172 200 181 188 216 224 222 183 197 272 215 242 181 192 194 226 241 235 203 293 223 275 203 246 222 265 285 272 182 162 326 104 216 176 201 253 302 234 240 238 132 194 197 190 288 222 228 207 288 232 235 186 241 238 177 312 222 217 167 191 205 217 184 285 165 277 197 278 196 207 145 173 133 253 225 198 223 233 238 203 208 263 204 244 203 247 224 309 198 156 226 306 252 319 251 262 167 174 250 206 183 226 106 191 175 230 193 156 213 299 191 163 232 279 239 193 216 158 209 189 198 216 294 356 261 154 272 160 224 204 172 291 249 145 215 197 244 253 229 198 236 176 305 179 303 228 274 239 196 261 213 263 211 218 257 191 197 250 210 199 172 226 217 224 223 288 237 186 229 181 215 248 226 246 203 236 123 148 228 298 245 278 191 317 200 244 162 248 215 224 244 224 183 204 186 271 187 259 250 192 239 199 204 222 223 228 136 180 286 190 232 216 188 354 256 193 261 202 212 225 196 217 212 298 191 161 150 186 257 180 211 293 237 209 209 267 218 200 156 225 242 359 201 196 132 212 196 266 224 182 307 255 184 306 206 253 237 191 260 227 267 230 242 178 226 263 363 280 289 345 246 300 157 152 271 258 266 187 287 265 243 194 244 192 171 166 289 295 254 193 337 287 215 312 225 162 250 243 155 187 140 235 219 270 229 195 157 189 238 184 286 291 187 196 252 243 266 194 161 191 179 157 221 251 244 189 238 284 261 325 226 280 200 234 184 228 206 257 203 311 184 166 232 202 200 264 295 226 206 199 164 287 158 183 192 215 156 208 189 333 170 198 200 256 176 240 290 199 149 187 244 226 169 203 234 297 245 199 226 319 270 175 272 233 159 193 278 252 249 200 253 187 244 171 286 236 273 176 257 227 228 164 132 263 199 250 166 241 254 187 170 161 222 265 140 160 279 278 239 203 232 197 217 259 241 170 248 186 214 227 304 292 288 223 252 278 174 182 248 308 211 97 300 231 268 144 111 138 202 304 212 268 217 168 219 227 233 235 180 236 268 232 196 350 293 258 143 65 152 255 221 174 301 180 232 225 276 224 219 112 281 202 183 181 218 201 230 244 184 228 272 160 202 257 229 237 147 190 236 187 209 208 361 196 330 198 229 173 188 203 272 238 170 110 192 173 245 247 227 199 245 205 179 290 176 272 244 132 238 304 250 287 189 175 316 180 216 209 248 194 229 244 161 390 203 242 207 295 221 246 210 191 262 220 236 219 208 191 229 206 167 208 262 206 233 170 267 281 104 168 243 185 241 251 191 233 239 279 285 217 212 267 177 269 336 198 299 233 231 244 206 226 229 203 178 265 191 175 198 237 170 219 183 275 191 228 244 239 226 203 240 202 274 267 285 223 187 193 185 216 200 206 245 256 220 357 105 176 219 199 267 272 203 207 216 221 165 231 211 224 168 200 288 262 224 191 203 230 236 264 177 184 196 319 281 210 215 305 186 300 186 249 284 203 232 177 172 262 287 200 167 299 170 244 231 174 235 177 208 286 275 158 224 246 253 156 290 254 199 250 246 306 252 265 247 155 214 177 294 216 206 197 202 194 233 217 300 253 164 298 219 239 207 266 179 185 188 239 205 146 149 213 235 167 262 260 211 337 190 202 164 221 152 228 236 173 112 223 267 259 229 238 199 189 270 311 211 297 315 226 236 184 254 245 136 264 222 295 225 206 285 235 176 241 259 285 181 174 294 211 205 199 195 204 216 199 229 252 212 207 222 283 229 225 194 165 164 279 238 224 176 177 198 243 131 227 170 185 150 303 206 200 191 273 261 191 259 241 132 112 276 209 200 256 219 253 207 226 216 195 154 179 221 212 254 202 223 276 200 233 189 248 227 302 245 141 131 216 233 271 260 176 223 208 231 285 282 209 268 189 217 279 211 172 186 237 233 177 208 160 158 105 183 281 251 170 267 226 233 246 193 136 251 112 213 103 175 212 205 265 212 238 231 214 212 233 218 186 220 246 199 203 239 305 268 158 239 201 225 250 270 160 234 299 126 241 212 208 164 232 255 135 205 194 215 181 205 169 243 113 146 212 213 198 160 166 363 192 246 277 238 272 242 250 267 275 237 158 279 293 226 203 146 255 194 270 211 193 171 213 245 212 208 203 235 253 192 150 248 251 197 274 220 266 213 259 225 177 286 166 193 232 288 203 247 166 173 252 167 295 299 246 138 188 210 204 244 190 179 407 276 262 248 173 175 260 276 248 211 174 158 255 270 298 221 207 292 139 248 309 218 256 224 234 295 191 239 165 358 209 298 253 266 243 245 196 312 262 216 221 188 251 160 273 223 204 224 244 252 218 211 220 157 220 166 214 208 258 195 246 229 281 150 240 213 234 262 206 219 216 157 167 201 107 233 129 225 187 207 221 195 166 191 238 260 255 264 234 186 212 226 219 158 195 238 312 261 247 176 306 185 232 198 192 119 266 213 308 171 161 181 207 274 226 246 180 226 204 264 218 206 239 226 136 159 330 228 233 228 209 235 161 248 187 258 241 205 182 226 201 244 228 274 224 248 169 192 280 189 227 210 264 233 216 241 314 244 183 191 236 194 252 338 162 242 201 212 226 204 192 222 250 215 200 133 260 175 211 193 265 144 259 231 220 249 291 251 162 233 218 235 275 187 205 190 224 243 214 199 160 200 259 267 184 217 308 274 234 219 281 178 242 87 202 197 205 238 192 135 149 262 233 144 173 269 218 287 213 247 163 181 258 305 255 147 149 255 160 238 178 259 240 303 180 311 155 145 223 170 214 161 218 227 278 235 258 286 254 259 170 240 231 210 225 229 148 190 224 187 185 184 238 310 140 234 189 241 241 227 201 271 282 204 214 247 165 216 225 235 245 146 204 205 219 279 223 235 254 254 269 208 224 258 212 175 240 182 148 231 265 228 195 143 136 159 331 200 299 261 150 242 199 209 201 255 256 263 176 128 227 259 191 186 275 229 247 160 230 213 230 306 198 172 269 142 236 202 258 214 256 223 247 264 181 220 191 177 275 249 248 164 265 275 217 149 194 210 251 158 223 220 197 187 186 237 269 220 123 223 251 235 265 229 297 220 225 172 207 196 168 234 169 231 164 145 200 150 228 231 206 225 261 263 196 197 318 273 209 266 135 228 250 161 162 175 211 258 286 193 212 229 211 262 258 255 251 219 186 202 247 224 203 335 188 161 301 236 258 236 212 301 210 137 229 235 286 194 135 227 134 238 251 169 184 170 248 69 228 181 245 236 166 240 271 245 210 252 202 262 176 260 209 228 240 207 231 272 237 203 251 300 295 152 224 236 259 234 171 225 247 271 325 225 156 220 293 142 261 145 270 273 282 209 222 222 232 232 313 231 151 194 155 184 170 195 149 257 171 247 253 218 228 211 105 166 162 183 163 359 249 153 312 200 200 213 241 202 296 276 225 270 137 219 216 273 253 302 204 205 257 148 156 245 230 253 211 193 220 316 266 181 242 153 221 185 258 236 236 211 167 245 273 312 249 215 262 254 172 204 166 193 291 195 278 317 171 281 159 165 252 228 209 231 202 270 216 278 231 224 223 270 344 173 238 172 230 260 134 171 203 305 297 294 245 262 246 231 246 233 278 331 233 225 199 215 238 286 234 202 243 277 208 256 217 237 246 164 225 225 211 202 236 232 150 194 345 344 261 219 211 177 176 196 158 198 246 282 261 220 220 220 249 270 306 212 261 202 253 185 175 177 260 198 221 231 180 186 215 242 162 235 153 203 150 158 221 229 257 165 253 213 191 298 218 315 266 234 225 290 207 215 176 175 263 308 219 232 265 249 205 238 162 192 200 263 279 144 192 229 260 249 251 151 155 240 268 241 172 246 221 226 265 116 251 236 166 240 202 404 182 218 214 251 289 211 238 188 185 241 192 190 192 178 200 272 217 165 199 288 255 187 207 265 228 143 292 273 315 199 211 196 254 258 171 198 178 251 248 234 235 242 229 177 126 172 208 177 254 202 129 213 226 230 154 275 241 173 298 160 263 177 177 301 224 146 170 233 177 226 303 166 307 150 273 280 219 175 142 136 209 195 310 168 277 158 294 149 166 245 222 245 197 191 227 228 207 306 183 230 278 278 280 197 211 228 190 159 248 286 284 300 340 219 245 301 263 171 222 193 131 300 245 177 244 195 248 210 284 255 291 195 166 205 265 145 219 225 242 220 209 194 287 207 224 252 247 188 267 183 200 198 231 159 168 235 138 187 269 304 278 215 247 158 230 213 271 294 200 213 206 228 157 133 202 240 206 237 169 205 276 256 217 233 237 188 153 251 176 246 203 184 235 209 213 221 227 212 208 222 241 267 287 159 265 227 227 226 225 314 288 182 245 274 266 210 286 200 201 126 158 247 224 198 234 267 198 165 259 201 191 167 247 320 229 294 237 186 175 262 289 226 287 161 227 165 179 177 196 217 220 169 263 202 145 210 203 219 218 263 216 189 253 245 238 91 194 240 175 204 190 220 325 298 194 231 222 221 175 234 193 244 263 153 264 266 266 187 185 228 252 188 195 233 130 175 171 210 209 259 230 161 276 321 158 93 225 206 271 195 196 283 208 339 192 222 256 246 183 226 153 277 144 219 173 253 203 233 254 209 203 244 147 133 238 241 191 193 277 254 242 215 211 173 271 214 194 251 191 215 334 236 240 170 225 272 225 247 178 181 166 141 200 250 207 203 242 235 247 174 164 202 169 264 155 238 189 187 234 206 229 247 167 225 180 303 348 158 290 277 206 217 225 236 216 238 269 247 158 213 276 239 178 352 175 281 290 217 238 224 244 217 184 264 233 152 197 210 209 267 326 197 287 203 231 235 152 246 249 233 173 175 223 120 194 228 208 180 217 241 209 244 264 185 235 189 207 221 237 224 201 175 227 204 239 227 247 213 203 255 207 275 254 228 242 300 320 330 209 222 192 214 229 246 241 181 219 307 251 155 158 210 180 225 188 214 226 187 262 214 210 199 268 300 298 233 254 183 237 258 263 214 234 185 229 229 162 257 144 308 253 157 150 217 224 114 251 129 202 227 270 274 289 215 259 170 144 360 199 166 269 180 251 194 133 284 290 271 224 236 241 218 212 212 214 145 257 201 221 267 281 202 201 265 157 254 259 185 311 215 276 231 209 247 170 214 236 281 285 109 213 258 255 252 229 235 171 246 168 201 185 205 256 323 186 222 195 274 217 177 298 220 210 212 177 260 254 197 258 193 248 218 286 175 278 149 282 244 225 173 240 247 197 257 194 172 265 225 229 233 229 190 173 200 238 197 161 238 263 263 314 135 193 168 174 294 167 219 201 169 145 246 277 186 207 173 249 210 284 211 246 81 253 236 219 211 333 233 287 331 259 127 302 238 188 250 318 191 198 187 228 240 252 280 153 342 279 234 205 196 253 190 229 224 250 214 221 215 290 263 228 190 204 163 228 256 186 253 200 187 234 255 248 223 175 252 129 256 223 195 227 223 227 265 172 195 211 194 247 219 249 299 175 186 173 213 273 225 220 234 209 249 181 271 171 236 243 267 144 197 237 279 273 211 154 246 184 162 205 187 186 202 210 219 204 160 205 198 218 203 241 177 291 217 194 238 211 199 304 148 113 327 272 219 253 223 272 332 194 187 250 301 152 218 220 242 234 184 233 225 222 237 153 321 318 238 265 209 198 156 244 191 265 168 185 218 264 225 259 326 266 248 202 155 182 190 147 232 155 239 232 130 166 339 163 263 236 250 181 208 204 291 184 123 166 181 218 265 197 231 290 270 238 267 150 155 282 258 208 244 220 211 247 211 259 288 217 155 148 215 163 238 234 270 208 301 210 214 276 269 287 228 216 247 205 169 279 194 252 133 236 167 166 289 290 100 238 258 194 195 267 257 303 150 286 233 213 285 153 250 212 271 207 240 267 145 223 240 161 259 303 202 214 242 160 217 309 369 228 216 245 221 165 158 219 166 153 181 206 256 217 195 223 156 200 187 288 217 182 300 218 306 168 265 200 274 233 263 243 239 240 196 229 182 260 214 296 229 230 255 232 246 214 158 321 191 270 268 237 178 218 422 188 190 151 259 204 182 142 179 222 213 215 265 254 202 158 243 221 231 253 234 226 340 223 206 156 318 194 235 275 193 173 176 330 172 172 176 211 181 271 244 160 250 178 228 267 320 214 299 340 232 241 205 263 240 222 240 240 252 171 239 145 159 161 201 244 180 82 225 238 299 250 264 205 301 280 225 219 172 356 178 255 231 301 292 230 180 264 240 245 254 243 212 329 320 236 185 228 278 208 263 254 218 150 216 318 260 144 232 247 238 197 196 125 190 219 201 233 260 182 199 142 151 225 251 196 219 236 229 163 251 251 265 175 165 243 235 261 233 230 254 186 252 259 279 202 206 161 170 230 199 167 305 256 208 162 131 164 221 229 297 179 206 225 247 234 244 270 163 200 252 301 208 200 296 315 254 155 259 162 338 208 190 238 253 124 117 211 202 186 202 281 213 185 166 283 251 226 173 227 217 183 213 221 246 219 253 244 217 226 300 254 178 250 172 156 268 233 225 230 278 341 171 187 128 177 200 172 274 262 213 238 180 205 263 180 209 147 136 204 289 202 283 209 245 186 174 256 220 278 251 274 250 283 149 218 223 225 328 237 255 207 241 267 236 198 185 239 221 140 216 167 206 186 218 160 242 170 250 248 159 191 196 217 380 209 287 171 290 249 158 138 299 252 182 259 253 201 238 240 188 208 187 280 202 206 195 225 311 220 279 222 157 230 224 302 267 283 202 221 320 167 233 236 146 193 254 267 178 192 246 279 235 226 189 224 156 291 296 172 234 152 306 259 177 82 235 208 156 278 216 312 231 234 210 175 201 209 193 211 166 222 255 144 205 188 181 136 282 219 193 234 245 204 269 183 298 315 232 218 251 276 339 193 190 324 316 299 248 217 232 194 238 178 </t>
-  </si>
-  <si>
-    <t>MIE(0.09367158410435274, 5.117671652405445, -2.0513403952362513e-26, 4.477333095715585)</t>
-  </si>
-  <si>
-    <t>0 1 1 1 0 1 1 1 1 1 1 1 3 0 0 3 1 1 3 1 2 0 2 1 3 1 2 1 1 0 0 1 0 2 1 1 3 2 1 1 0 1 0 1 0 1 2 2 0 2 0 1 1 1 1 0 2 1 1 2 3 0 2 0 2 2 2 2 1 0 3 1 2 0 0 2 1 1 2 2 0 1 2 1 1 1 1 2 1 0 1 1 1 0 1 2 0 0 2 2 1 2 1 2 0 2 0 1 0 1 0 1 0 2 1 0 2 1 1 0 1 0 3 1 0 1 1 0 0 1 2 2 2 4 0 1 0 2 1 1 2 0 0 0 2 0 2 0 1 1 1 1 1 1 1 1 1 0 4 1 1 1 1 1 3 0 0 1 0 1 2 2 2 2 0 2 0 2 0 0 1 2 1 2 0 0 0 1 3 1 0 2 1 1 1 0 0 0 0 1 2 0 0 1 0 1 1 1 0 2 1 3 2 2 2 1 2 1 2 1 3 0 0 3 3 2 0 2 1 3 2 2 0 1 0 2 3 0 1 1 2 0 0 2 0 2 1 1 0 1 1 1 3 0 1 0 2 3 2 1 0 1 2 2 1 0 0 0 2 3 2 3 0 2 0 2 0 1 1 1 0 1 1 3 1 0 1 2 1 3 1 1 3 0 0 2 1 1 2 1 1 1 2 2 1 1 1 1 2 3 0 1 0 2 1 2 0 1 3 2 2 1 1 1 1 1 1 3 2 1 1 1 2 1 1 2 3 2 1 1 3 1 0 2 1 0 0 0 2 0 0 1 2 0 0 1 2 0 2 1 1 2 0 1 3 1 3 1 2 1 3 0 3 0 0 2 1 0 1 1 2 1 1 1 1 2 0 3 1 1 1 0 4 1 1 0 0 2 1 3 2 2 0 1 1 1 2 1 0 1 1 0 2 0 0 2 2 1 1 2 0 3 1 1 1 0 3 1 2 2 1 1 0 0 1 0 0 1 0 2 0 2 0 2 0 1 0 2 3 1 1 1 1 2 0 1 2 0 0 1 1 0 2 2 1 3 2 0 0 1 0 0 1 0 0 0 0 1 0 1 2 1 0 0 0 1 1 1 0 3 1 0 0 1 2 1 2 0 1 2 2 0 0 1 2 0 1 0 2 2 0 1 1 0 0 1 2 0 0 2 2 1 0 0 2 1 2 2 1 0 0 0 1 1 1 0 1 1 0 2 1 3 2 1 0 2 0 1 1 1 1 0 2 2 1 1 2 4 2 4 0 2 0 1 2 2 2 0 1 1 0 0 1 0 1 1 1 2 0 0 2 1 1 1 1 1 1 0 1 2 1 1 0 1 1 1 1 2 2 1 1 0 2 1 2 1 1 2 1 2 1 3 2 0 1 2 2 1 3 2 0 1 1 0 0 1 2 0 0 0 2 0 2 2 0 2 0 2 1 1 4 1 0 1 2 1 1 1 1 1 2 1 1 0 2 0 0 2 3 1 1 1 0 1 0 0 0 2 2 1 1 2 0 2 1 2 0 1 2 1 0 1 1 0 1 2 4 1 1 1 0 0 1 0 1 3 1 1 0 2 1 0 1 1 0 1 1 3 3 1 1 0 0 3 0 1 2 0 2 0 0 0 1 2 2 0 2 1 2 1 4 0 1 0 2 2 1 2 1 0 3 2 2 1 0 0 3 0 1 2 1 0 0 1 1 3 0 0 1 1 1 2 1 2 0 3 1 3 1 1 3 3 2 3 0 0 0 2 2 0 0 0 0 2 1 1 3 0 1 2 1 2 2 1 3 1 0 1 0 2 0 1 0 2 1 1 1 0 2 0 2 1 3 1 0 0 0 0 0 3 0 2 1 2 3 0 2 1 1 3 1 0 1 0 0 1 1 2 0 1 1 0 2 1 1 0 0 0 1 1 1 0 3 3 2 0 1 0 1 1 0 0 1 0 0 0 1 1 2 0 1 0 1 2 0 1 0 3 2 0 2 0 3 1 0 1 0 2 0 2 1 1 0 2 1 1 0 1 1 2 0 1 0 2 2 1 1 0 0 1 2 2 2 1 1 0 2 0 1 1 1 1 3 1 1 0 1 0 2 1 2 2 1 0 4 0 1 1 0 1 0 1 2 0 2 1 2 0 1 1 2 1 1 2 2 1 2 2 0 2 1 1 1 1 0 2 1 3 1 1 1 2 2 1 2 1 0 2 1 0 0 1 1 1 2 0 2 0 1 1 1 1 2 1 3 2 0 2 0 0 0 1 1 1 1 2 1 2 1 3 1 2 2 1 0 3 0 0 1 0 1 1 3 0 1 0 0 2 1 1 1 1 2 2 1 1 1 1 0 1 1 1 1 1 2 1 2 1 0 3 1 0 1 0 1 1 1 1 1 2 1 0 0 0 2 2 1 2 0 0 0 0 1 1 0 0 1 0 1 1 2 0 3 0 2 2 0 0 1 1 2 0 1 0 2 1 2 2 2 2 1 1 0 1 0 0 1 1 2 1 2 0 0 3 0 1 1 0 1 0 2 1 2 0 2 2 1 2 1 0 0 0 0 1 2 2 3 2 2 1 1 1 0 1 2 0 1 2 0 2 2 1 2 0 2 1 1 0 2 0 1 1 1 0 0 1 2 0 1 1 2 2 0 1 2 2 1 2 1 3 1 1 1 2 0 1 1 1 3 2 1 2 0 0 1 1 0 1 1 1 4 1 3 0 1 1 2 1 1 1 1 3 2 2 1 3 0 2 2 2 1 2 1 0 1 0 1 0 2 0 0 1 0 3 2 1 1 1 1 1 1 1 2 2 0 0 0 0 1 0 2 1 0 1 0 2 3 0 2 1 2 2 1 2 2 2 1 1 2 0 1 2 0 1 1 1 1 0 2 0 0 1 1 2 1 0 0 0 2 1 1 2 2 0 2 2 1 0 1 3 2 2 1 0 1 3 1 3 2 1 0 1 2 1 4 1 1 0 1 2 1 0 1 2 0 0 1 0 1 3 0 2 2 2 0 1 0 0 0 2 1 2 1 2 1 0 0 3 2 0 2 1 0 1 1 1 0 1 1 1 2 1 1 0 1 0 4 2 0 1 1 1 2 2 1 0 3 3 1 0 2 0 1 1 2 2 1 2 0 2 3 1 1 2 1 1 0 2 2 1 0 1 0 3 1 2 1 1 2 1 2 0 2 1 0 2 0 1 2 1 1 2 2 1 0 3 0 1 1 3 0 1 1 0 1 0 2 0 1 4 1 1 2 1 1 2 0 3 1 0 1 1 1 1 2 2 1 1 2 1 1 0 0 0 1 1 2 1 0 2 1 2 1 1 1 2 1 0 2 1 0 1 2 2 1 0 1 0 1 1 1 2 2 1 2 2 1 1 0 2 0 1 2 1 1 1 1 2 0 1 1 1 0 1 0 2 2 0 1 1 2 2 0 0 0 0 2 0 0 0 0 2 0 2 2 0 1 1 0 1 2 2 2 0 2 1 0 1 1 0 1 0 0 1 2 0 2 0 0 1 1 1 2 1 1 2 2 1 0 2 2 2 2 1 0 2 2 0 1 3 0 2 1 2 0 2 0 2 1 1 3 3 1 2 0 2 2 1 1 1 1 3 1 1 2 3 1 3 2 3 1 0 2 2 1 2 0 1 2 0 2 1 0 0 1 2 0 1 0 2 2 1 2 2 0 2 0 1 2 3 1 2 1 1 0 0 0 1 0 2 0 1 0 2 2 2 1 2 2 0 1 2 1 0 1 2 0 2 0 1 1 2 1 0 1 1 1 0 1 2 2 1 1 1 0 0 2 1 2 0 0 1 3 1 3 1 1 1 1 0 1 0 2 0 0 0 1 0 2 0 0 0 2 3 0 0 1 2 2 1 1 0 1 0 2 1 0 1 0 2 1 0 2 2 3 0 2 0 1 1 1 0 1 3 0 2 1 1 0 1 0 0 1 1 1 2 2 2 2 0 1 1 1 0 1 1 2 0 1 0 2 1 1 0 0 4 2 0 3 0 2 2 0 1 1 1 1 3 2 2 1 2 3 0 1 1 2 0 1 1 1 1 1 1 0 1 1 2 0 2 2 1 0 1 2 1 2 0 1 1 1 0 5 0 2 2 0 1 0 3 1 0 3 1 2 1 3 2 2 1 1 1 1 3 2 3 1 1 0 2 0 0 0 2 1 1 2 0 1 1 0 2 0 3 1 1 1 0 3 0 1 1 1 2 3 1 1 1 2 3 1 2 1 2 3 0 0 1 1 1 2 3 0 0 2 0 2 0 0 2 2 0 0 1 1 1 1 1 1 1 2 0 0 2 2 1 0 0 1 2 1 3 1 0 1 1 1 1 1 1 0 1 0 1 0 3 0 0 0 3 0 0 1 1 2 2 0 0 3 1 2 0 1 4 3 2 3 0 1 2 1 1 2 2 2 1 2 0 1 1 1 2 2 1 2 1 1 1 0 0 1 0 1 1 2 2 1 0 1 1 1 2 0 1 2 3 1 1 1 1 1 2 1 0 1 1 1 1 0 1 1 0 2 0 0 2 0 2 2 2 1 1 2 3 1 4 2 1 1 0 1 0 0 0 0 0 0 1 1 1 2 1 1 1 0 1 0 0 1 0 0 1 2 1 0 0 2 0 1 1 2 2 1 1 1 2 0 1 2 2 3 0 1 1 0 2 1 1 2 0 1 1 1 3 1 2 0 1 1 0 1 0 2 0 1 0 1 0 1 2 2 1 0 1 1 2 3 0 1 0 0 1 0 3 1 1 0 1 0 0 0 1 1 1 0 1 0 3 0 1 2 1 3 0 2 0 1 1 2 1 2 0 0 0 1 1 0 0 2 1 2 1 1 1 1 0 1 1 1 1 0 1 0 1 2 2 0 2 2 0 1 1 0 2 0 1 0 0 1 2 0 2 1 0 0 1 0 0 1 0 1 2 0 1 0 1 1 1 1 1 1 2 1 1 1 1 2 0 2 1 1 0 1 2 1 0 2 1 1 1 0 2 2 1 1 1 1 1 0 0 2 1 0 0 1 1 2 1 0 0 1 1 0 3 0 2 2 1 2 2 2 2 2 0 2 1 2 1 2 2 1 0 2 0 1 2 1 2 2 1 1 1 2 0 2 1 0 2 0 1 1 2 1 1 0 3 1 3 1 0 2 1 1 2 2 1 1 2 3 1 2 0 0 0 0 1 2 0 1 2 1 2 1 2 1 3 0 0 0 1 1 0 1 0 1 2 0 1 0 1 1 1 1 0 2 1 0 2 0 2 2 0 1 1 1 1 2 1 0 0 1 0 2 1 2 1 0 1 0 1 1 1 0 1 2 1 0 1 2 1 1 0 1 1 1 1 2 0 1 0 0 0 0 1 1 3 0 1 0 2 0 2 0 0 0 1 2 2 0 3 1 1 1 0 2 0 1 0 0 0 1 1 1 1 1 0 4 0 1 1 2 0 2 2 1 3 0 2 0 1 2 1 2 2 1 0 1 1 1 1 1 1 1 1 2 0 0 0 1 1 2 2 1 0 0 2 1 1 0 0 2 2 1 2 0 1 0 0 0 2 0 1 0 1 2 3 1 2 1 3 2 0 0 2 2 4 2 2 2 1 1 1 0 0 1 2 3 0 0 1 1 2 2 0 1 0 3 0 2 2 1 0 0 3 1 3 2 1 2 2 2 0 0 0 1 1 2 0 1 1 2 1 1 1 2 0 1 1 1 1 1 3 1 1 1 1 0 0 1 2 0 1 1 1 0 0 3 1 1 1 2 1 1 1 2 0 1 1 1 3 1 1 2 0 1 2 1 1 0 0 3 1 0 2 1 0 0 1 0 1 0 0 1 0 1 1 1 2 1 1 1 1 1 1 2 1 0 1 1 1 2 1 0 1 1 0 0 0 1 1 0 1 0 0 1 0 1 1 3 0 0 2 1 2 1 1 1 1 1 1 1 0 1 0 0 0 1 1 1 1 1 1 1 0 3 2 0 1 2 1 0 2 0 0 1 1 0 2 2 1 0 1 2 2 1 0 0 0 2 0 0 1 1 0 0 3 1 1 2 2 1 2 2 1 1 2 2 3 0 1 0 2 2 2 1 1 0 0 2 2 1 2 2 1 1 0 1 0 1 1 1 0 0 0 0 1 1 2 1 2 0 0 0 2 0 0 0 1 2 2 1 0 0 2 1 2 1 1 2 0 4 1 5 2 1 1 3 0 1 2 1 2 1 0 2 1 2 1 1 1 1 3 2 2 2 3 2 2 1 1 0 2 2 1 3 1 1 0 0 1 2 0 1 0 1 1 1 1 1 2 1 1 2 1 5 1 2 3 3 1 0 0 2 2 0 1 0 0 2 1 1 3 2 1 2 1 1 2 0 1 0 0 1 1 2 0 0 2 0 0 1 2 2 4 3 3 1 0 2 1 1 2 0 2 2 1 1 0 3 1 1 2 2 1 0 0 0 1 1 1 0 2 0 1 2 1 0 0 2 0 0 1 1 2 1 1 0 1 0 2 0 1 0 1 2 2 1 1 0 0 1 0 2 1 2 1 0 0 0 3 0 2 2 0 0 1 0 1 2 1 2 2 1 1 2 3 1 2 0 4 2 1 1 1 0 0 0 3 1 3 3 2 1 0 1 0 0 0 2 0 1 1 2 0 1 1 1 1 0 0 2 1 2 1 1 0 0 2 1 1 4 1 1 0 0 1 1 0 0 1 0 3 0 2 0 3 1 0 1 2 0 0 0 2 1 1 1 3 0 1 0 0 1 1 2 2 0 2 0 1 0 2 1 2 0 0 2 1 2 2 1 2 2 1 0 0 1 1 1 0 1 2 0 2 0 2 2 2 2 3 1 0 0 1 2 3 2 2 0 1 1 1 2 1 3 0 1 2 0 0 2 2 1 2 1 1 2 2 2 0 0 1 1 2 1 1 2 1 1 1 0 1 3 1 3 1 1 0 1 2 1 3 1 1 1 0 1 0 0 2 1 1 0 1 1 2 0 2 0 1 3 2 1 0 1 0 0 2 1 2 1 2 3 1 1 0 0 2 1 2 2 3 4 2 2 0 0 1 1 0 1 2 3 2 3 2 1 1 0 2 0 1 4 0 1 0 2 2 0 0 0 3 1 0 2 1 2 1 0 1 1 2 2 1 1 1 1 3 0 0 0 1 2 1 0 0 0 1 0 0 3 1 3 1 3 2 2 1 1 1 1 2 0 1 2 1 0 1 0 1 1 1 2 2 1 1 1 2 0 1 0 0 1 2 1 0 0 1 1 1 4 1 2 0 2 1 2 0 2 0 0 2 0 1 1 4 2 1 2 1 1 0 0 0 2 2 0 4 0 4 1 0 2 2 1 0 3 0 0 0 2 0 1 0 0 1 1 1 0 2 3 0 1 1 2 2 2 1 0 1 3 0 1 1 0 1 1 2 2 2 2 0 0 4 1 2 1 1 1 0 3 2 0 1 0 1 0 1 0 2 1 3 0 1 0 1 4 2 1 0 0 0 1 0 2 1 1 1 1 4 1 2 0 0 1 2 1 0 1 1 1 1 0 1 3 0 1 2 1 1 3 1 1 3 0 0 1 1 1 0 1 2 2 2 0 1 0 0 2 0 0 1 3 1 0 0 1 2 0 1 2 1 0 1 0 2 3 2 0 0 1 1 2 2 1 0 0 1 0 2 3 0 1 2 2 1 1 2 1 2 0 1 1 2 0 1 0 1 1 2 1 1 1 0 2 2 1 0 1 0 2 0 3 3 2 1 0 1 0 1 1 3 0 2 2 2 1 1 2 1 1 1 1 2 0 0 1 4 1 0 1 0 0 2 0 1 2 1 0 0 1 0 1 1 1 0 0 3 0 1 2 2 1 1 2 4 1 1 1 1 1 3 1 2 1 2 0 1 1 0 2 1 1 1 1 3 3 1 2 0 2 0 1 0 1 1 2 0 1 1 0 1 0 2 1 2 0 1 0 0 1 2 1 1 0 1 0 2 1 0 1 1 4 2 2 1 2 1 1 1 2 1 2 2 1 1 2 1 0 2 0 1 2 0 2 1 1 2 0 2 2 3 3 1 0 2 2 1 1 2 1 1 0 0 1 1 1 1 1 3 0 2 1 0 1 2 0 1 5 0 1 0 1 0 1 4 2 2 1 0 1 1 0 1 1 0 3 2 2 1 2 0 0 1 1 1 1 1 0 1 0 2 0 2 0 0 2 3 2 1 2 3 2 2 2 1 1 4 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 3 0 1 2 2 0 1 2 2 1 1 2 0 0 0 3 1 1 0 2 2 1 0 0 1 1 1 1 1 1 1 0 0 0 0 3 1 1 1 1 1 1 1 2 3 1 1 1 1 0 1 2 0 1 1 1 0 2 2 2 2 2 0 2 2 1 2 1 3 1 1 0 1 2 0 0 1 1 2 2 2 1 1 1 0 1 2 0 1 2 1 1 1 0 1 1 1 2 1 3 0 0 0 3 1 2 1 3 1 2 1 1 3 1 1 0 2 0 1 2 4 0 2 2 0 1 1 0 3 0 0 0 1 2 2 1 0 3 0 4 0 0 0 3 2 0 1 1 2 1 0 1 2 2 3 2 2 1 2 0 0 0 1 2 1 1 1 1 1 0 2 3 2 0 0 1 0 1 0 2 1 1 2 2 1 2 1 3 0 1 0 0 1 0 0 1 0 2 1 1 1 0 1 2 2 1 1 2 0 0 2 1 0 0 1 1 0 2 2 2 1 0 1 2 1 0 1 1 1 2 2 2 2 2 0 0 1 0 0 1 2 0 1 1 2 1 0 1 0 1 0 0 1 0 1 2 0 1 2 2 2 1 0 0 0 0 1 1 2 0 2 1 1 5 0 2 0 1 2 2 1 1 1 3 1 1 1 1 1 2 1 3 1 1 0 2 1 1 1 2 0 1 3 0 0 0 1 0 1 1 0 1 1 1 0 0 2 1 1 0 2 0 1 0 2 0 2 2 0 0 2 2 2 0 1 1 1 0 0 3 2 1 0 0 1 1 2 0 2 0 1 1 1 3 0 1 3 2 2 2 2 1 1 2 1 1 1 2 1 0 2 2 1 2 1 1 3 1 1 1 2 0 1 1 1 0 1 1 0 1 2 0 0 0 2 3 0 1 1 0 0 1 1 0 2 0 2 2 2 1 1 1 0 2 1 0 0 2 2 1 2 1 0 1 2 2 1 1 1 1 1 3 2 2 0 0 1 2 0 1 0 0 2 0 1 1 0 1 1 0 0 1 1 0 2 0 1 0 2 2 2 1 0 4 2 0 1 1 2 1 1 0 1 0 2 1 1 3 1 0 0 1 0 2 1 1 0 2 1 1 0 1 2 1 1 1 1 1 1 1 2 2 2 1 1 1 3 2 1 0 2 0 1 1 0 2 2 1 1 2 1 1 1 0 0 2 2 1 0 4 2 0 1 0 0 1 2 2 2 1 0 1 1 1 1 1 2 1 0 4 3 0 1 2 1 2 1 0 0 1 1 1 2 1 0 3 1 1 1 1 0 1 2 0 2 3 1 2 2 3 2 2 0 1 0 0 0 1 2 0 1 1 1 3 2 2 3 0 1 0 1 1 0 1 2 0 2 1 0 0 1 1 2 2 2 1 1 0 2 0 2 2 1 1 1 0 1 1 0 2 2 0 0 0 1 2 0 2 2 1 2 1 0 2 2 1 2 0 1 0 1 1 1 1 0 2 3 1 1 1 1 3 1 0 2 2 3 0 1 0 1 3 1 0 0 2 0 0 2 1 0 0 1 0 0 2 1 1 0 2 1 1 1 1 0 2 1 3 0 0 0 1 1 0 0 1 0 0 2 1 2 1 1 0 0 0 3 0 1 3 1 2 0 1 1 3 0 1 0 1 1 2 0 1 2 0 1 1 1 1 0 2 1 2 1 0 0 0 0 2 2 1 0 1 1 2 1 2 4 0 1 0 0 0 1 0 1 1 1 2 1 1 0 1 2 0 1 0 2 1 0 2 1 0 1 0 1 1 1 1 1 2 0 3 0 2 2 3 2 1 1 0 2 1 1 0 1 1 1 1 1 0 0 2 0 1 0 2 0 2 0 1 2 1 1 2 0 1 1 1 1 1 3 1 0 1 1 2 1 0 0 1 1 1 2 1 2 2 1 3 3 1 0 1 2 2 1 0 0 1 1 1 1 1 2 0 2 0 1 1 1 1 1 1 1 1 1 0 3 2 1 2 2 0 0 2 0 1 2 1 1 0 2 2 0 3 2 3 0 2 2 2 0 1 0 2 1 1 2 3 2 1 0 1 1 1 2 1 0 1 2 1 3 1 1 0 2 2 1 2 3 2 1 1 2 2 0 1 2 2 2 0 0 1 2 0 1 3 1 1 1 0 1 1 0 0 3 2 0 1 0 2 1 0 1 1 1 2 1 1 1 1 2 3 0 1 0 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 2 1 2 0 0 0 1 1 0 2 2 0 2 2 1 1 0 0 2 1 1 0 0 0 1 1 1 0 3 3 0 0 1 0 2 2 2 1 0 0 1 2 1 2 1 1 0 0 1 1 2 1 1 0 2 1 1 1 0 1 1 1 0 2 3 1 0 1 1 1 3 3 0 0 0 2 2 0 2 0 1 1 1 1 2 1 0 2 2 1 0 0 3 2 0 1 1 4 0 3 0 1 1 1 0 2 2 1 2 3 1 0 0 2 0 1 0 0 0 2 1 1 4 0 2 0 1 1 0 1 1 1 0 1 3 0 1 0 1 1 0 2 1 1 1 1 3 1 0 0 2 2 1 1 0 1 2 1 0 0 3 1 0 0 1 1 0 2 2 1 0 2 2 1 1 1 1 0 1 3 1 2 1 0 3 1 1 1 1 0 0 0 1 1 1 2 0 1 0 2 0 2 1 0 1 0 1 3 1 0 1 1 2 1 2 2 1 3 1 1 1 2 2 2 0 2 0 2 0 1 2 2 2 0 0 1 1 2 1 0 1 3 0 2 0 1 2 0 1 1 1 0 1 2 0 2 1 0 2 1 0 0 2 0 3 1 2 0 3 0 3 1 0 2 1 0 1 1 1 1 1 1 1 1 2 2 2 1 2 3 0 2 0 1 1 1 1 0 2 1 1 1 0 0 3 3 1 1 1 1 0 0 2 1 2 0 3 1 2 0 0 1 2 1 2 1 1 1 0 1 0 0 1 1 0 1 0 1 3 1 2 0 2 0 0 1 1 3 1 1 1 2 2 1 1 1 1 1 1 2 0 2 0 1 1 0 0 1 1 2 1 2 0 2 3 0 1 2 1 2 1 0 1 2 1 3 0 1 0 2 3 1 1 1 1 1 0 0 2 2 0 0 0 0 2 0 3 0 1 1 2 0 1 2 2 1 0 1 0 0 1 1 1 2 2 1 0 0 2 2 1 2 1 2 0 0 0 0 0 1 1 1 0 1 1 1 2 1 1 2 0 1 1 1 2 2 2 1 4 1 0 2 0 0 2 2 1 2 1 1 1 0 1 2 2 3 2 0 1 1 0 2 1 1 2 0 2 2 2 2 0 0 0 1 3 3 1 2 1 2 1 1 0 1 1 3 0 0 3 1 0 0 4 0 1 3 1 0 2 0 0 2 3 2 1 0 1 1 1 1 1 0 1 0 1 0 0 2 2 3 1 0 1 0 1 0 0 1 0 0 0 2 3 0 2 0 0 2 1 0 0 1 1 2 1 2 0 0 3 1 0 0 0 2 0 1 1 2 1 1 0 1 2 0 0 0 1 0 1 1 1 1 2 2 1 0 0 2 3 1 1 1 2 1 0 2 2 0 1 1 3 2 2 1 0 0 1 2 2 1 1 2 1 2 1 1 3 2 1 1 1 1 0 2 1 2 2 0 0 3 1 0 0 0 2 1 2 2 1 1 1 1 2 1 0 1 0 1 1 1 1 1 3 0 0 0 1 1 0 2 2 1 2 2 0 1 2 1 4 1 1 2 2 0 3 0 0 1 0 1 4 2 0 0 2 1 1 2 1 1 3 1 0 0 0 2 2 1 2 2 3 1 1 3 0 0 1 1 2 1 1 2 2 0 1 1 1 3 1 1 0 1 2 1 1 0 0 1 1 1 1 1 1 1 2 1 1 2 2 2 1 0 1 1 2 3 2 1 2 2 1 0 2 1 2 0 2 0 1 1 1 2 0 2 0 2 1 0 1 3 1 1 3 3 0 2 0 1 0 0 1 2 0 1 2 2 0 3 2 0 1 0 1 1 2 0 1 1 1 1 1 1 3 2 0 0 0 2 2 1 1 1 1 1 0 3 3 2 0 1 1 1 0 0 3 2 0 0 1 1 1 0 2 1 1 0 1 2 1 2 0 2 1 2 0 0 1 3 1 1 3 2 2 1 2 3 0 2 0 0 2 0 0 0 1 0 3 0 1 1 3 1 2 1 1 1 0 2 1 2 1 2 1 0 2 0 1 1 1 1 2 1 0 1 0 1 1 1 1 1 0 2 1 2 0 0 0 2 1 0 1 0 0 1 1 1 1 0 0 1 0 2 0 2 1 3 1 3 0 0 2 0 2 1 0 0 2 1 0 1 0 1 0 1 5 1 0 0 1 2 2 1 1 0 1 1 0 2 2 3 0 3 1 0 0 2 1 1 1 1 1 0 2 1 0 1 0 1 1 1 1 1 2 1 2 0 2 1 2 1 0 2 0 0 1 1 2 3 2 1 3 0 2 0 2 2 2 1 1 2 1 1 1 1 1 1 1 1 0 2 1 1 0 0 3 0 0 3 2 3 0 0 0 1 1 0 3 1 0 1 1 0 0 1 1 0 1 1 0 1 1 1 3 1 1 1 1 1 0 2 1 1 0 1 1 1 2 1 1 1 1 0 0 1 1 2 1 1 1 2 1 0 1 1 2 1 0 0 1 1 1 2 2 1 0 3 0 4 1 1 1 2 0 0 2 1 0 0 2 1 1 2 0 1 1 2 1 0 1 0 0 3 2 2 1 1 1 3 1 2 2 1 2 1 2 2 1 1 2 2 0 1 1 1 0 1 1 3 2 0 2 1 3 1 2 2 0 1 1 1 1 1 0 0 1 2 3 0 2 2 2 1 0 1 3 0 1 2 1 1 1 0 1 1 2 0 0 2 2 2 1 0 1 0 1 0 1 1 3 0 2 2 1 0 1 1 0 1 1 2 0 1 0 1 1 0 2 1 1 0 2 1 2 0 3 1 1 2 2 3 0 1 1 2 2 2 0 0 1 3 0 2 0 0 0 1 1 1 3 2 2 3 0 1 1 1 0 1 1 0 1 2 1 1 0 1 2 1 1 1 0 1 0 1 1 1 2 2 2 1 0 0 1 0 2 1 2 2 3 4 0 1 0 1 1 1 1 1 1 2 1 1 2 1 1 2 1 0 1 1 3 1 1 1 2 0 1 0 1 2 1 0 0 1 1 0 2 1 1 1 1 2 1 0 1 2 2 2 0 0 0 0 2 2 1 0 0 2 2 3 2 1 1 1 1 1 1 2 0 1 2 0 1 0 1 1 1 1 3 1 1 1 0 0 0 3 3 3 0 2 0 1 2 1 2 1 1 2 1 2 1 2 1 2 1 1 0 1 0 0 0 2 0 0 1 2 2 1 0 1 5 1 0 2 0 0 2 2 2 2 1 0 1 0 1 1 1 1 1 3 1 2 0 0 1 1 1 2 1 2 1 1 2 1 1 2 1 1 0 1 1 1 2 0 0 1 2 2 0 0 2 0 0 0 2 0 1 0 1 2 3 2 2 0 2 1 2 4 0 2 1 2 1 1 0 1 0 0 2 3 0 0 1 2 2 1 1 3 2 0 1 2 0 0 1 2 1 0 0 1 2 1 1 1 1 0 0 1 2 1 0 0 1 0 1 1 1 0 1 1 1 1 2 0 0 1 3 1 1 2 2 0 1 2 1 2 2 1 1 0 1 1 2 3 1 0 1 0 1 1 2 1 2 0 0 2 1 1 0 0 1 1 0 2 0 0 1 1 1 0 2 2 2 0 1 0 0 1 1 2 2 0 0 2 1 1 1 2 1 3 1 1 1 1 2 0 1 1 0 1 1 1 2 2 1 0 1 1 0 0 0 1 2 0 1 2 2 1 0 2 0 1 0 0 0 1 0 2 0 1 1 1 0 2 2 1 0 0 2 1 0 0 2 1 1 2 1 0 1 2 1 0 1 1 3 0 2 2 1 1 0 1 1 0 2 2 0 1 2 2 1 0 1 1 0 1 1 4 2 0 1 2 0 1 0 0 1 2 1 1 0 1 0 0 1 0 1 1 1 1 2 2 1 2 2 2 1 1 1 2 1 1 1 0 0 1 2 1 0 1 1 0 0 1 2 0 0 1 1 1 2 1 1 2 1 1 1 1 2 1 0 1 0 0 1 0 2 0 1 1 1 1 1 3 1 0 1 1 1 2 3 1 3 3 0 0 0 0 2 1 1 1 0 2 0 1 2 1 0 0 0 1 3 1 2 1 2 2 0 1 0 1 1 1 0 1 1 0 1 2 2 1 3 1 0 1 1 2 0 1 0 1 2 1 0 1 3 0 2 2 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 2 1 1 0 1 0 2 2 0 3 0 3 3 0 3 0 2 2 1 0 1 3 0 1 1 2 2 1 1 1 0 0 3 3 1 0 1 1 0 1 1 0 2 1 3 0 3 1 0 1 2 2 2 1 1 1 2 1 0 1 0 3 1 1 1 4 2 1 1 3 1 1 2 1 2 0 2 1 1 1 0 0 1 0 0 1 2 2 1 0 1 0 0 0 0 0 0 0 0 2 2 2 0 2 2 2 0 0 2 3 1 1 3 2 2 1 1 1 0 2 0 1 0 2 2 0 2 0 0 1 1 0 1 1 2 2 1 1 2 2 1 0 0 1 0 0 1 3 0 2 0 1 4 1 0 1 1 0 1 0 1 1 1 2 1 2 1 1 1 1 2 2 1 0 1 0 0 1 0 2 1 1 4 0 1 2 0 1 0 1 2 0 1 1 1 1 1 1 2 1 1 1 0 1 0 2 3 1 1 0 0 1 4 0 1 1 0 1 1 1 0 2 1 0 2 1 1 1 1 3 1 0 0 2 0 2 1 2 0 1 0 1 0 1 1 0 0 0 2 0 1 0 0 1 0 2 2 0 2 1 2 3 0 2 2 2 0 1 0 0 2 1 1 3 1 2 1 1 1 0 0 0 1 1 0 2 2 1 1 0 2 2 2 0 1 0 0 3 1 3 1 0 1 2 3 2 1 1 3 3 2 1 0 1 1 1 0 1 1 3 2 1 0 1 1 2 1 1 1 3 0 1 3 3 0 1 4 0 1 0 2 1 0 0 0 0 1 2 1 1 1 1 0 1 0 0 0 1 2 1 2 2 0 2 1 0 0 1 2 3 2 0 1 2 0 3 1 1 1 2 1 0 3 1 1 1 1 1 0 2 0 1 1 0 4 1 2 1 0 0 2 1 2 1 0 2 2 1 1 0 1 2 2 1 2 1 2 2 1 1 5 1 2 1 2 0 2 4 1 3 1 1 1 3 1 2 0 1 0 2 2 1 2 3 3 0 1 3 1 0 1 2 0 2 2 1 1 1 1 1 2 1 0 2 1 1 1 0 0 1 1 0 2 1 1 1 1 1 2 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 2 0 1 0 0 0 1 1 1 1 1 1 0 2 0 0 1 0 1 0 1 1 0 1 2 2 0 0 0 4 1 1 0 1 1 1 2 0 0 1 0 1 1 1 2 2 1 0 3 2 2 1 1 3 0 1 3 1 2 0 0 3 2 1 1 0 1 1 2 1 2 1 1 2 1 1 1 0 0 1 1 2 3 2 3 2 1 2 0 1 1 0 0 1 1 1 0 4 0 0 1 1 1 1 3 0 0 0 1 3 0 0 1 2 1 1 0 1 1 1 0 1 2 0 3 0 3 2 3 2 2 2 0 0 2 0 0 0 2 1 1 0 2 0 0 1 0 2 1 0 1 2 2 2 1 1 1 2 1 1 1 1 2 1 1 2 1 1 1 1 0 0 0 1 1 1 2 1 2 1 0 2 0 2 1 1 1 0 2 1 1 3 0 1 2 0 4 1 1 0 1 1 0 0 1 1 1 1 2 1 0 3 2 1 3 1 2 1 1 0 2 0 1 2 0 1 0 0 0 2 1 3 1 2 2 2 1 0 1 3 2 0 2 2 0 2 1 2 1 1 1 3 1 1 3 2 2 1 1 1 0 1 0 3 2 0 1 2 1 2 0 2 2 3 3 1 2 1 1 1 2 1 3 2 1 1 1 1 1 1 1 2 1 0 0 0 1 2 0 2 1 0 0 4 1 3 0 1 2 2 3 0 1 0 1 2 0 1 0 1 2 0 0 2 4 0 1 0 2 1 2 1 1 3 1 0 1 0 3 0 2 4 1 2 0 2 1 1 3 1 0 1 0 0 1 1 1 0 1 0 0 1 0 2 0 0 1 2 1 2 2 3 2 2 3 1 1 1 2 1 2 0 1 2 1 1 1 2 0 1 0 0 1 1 1 1 0 0 2 0 1 1 1 2 1 0 1 1 1 1 2 1 1 1 2 1 0 0 2 2 0 0 1 1 3 2 2 1 2 1 1 2 1 1 1 1 1 0 1 0 1 3 0 1 1 0 2 0 1 0 0 1 1 1 0 0 0 3 0 0 1 2 1 1 1 0 1 3 2 1 2 1 1 3 1 1 3 1 0 2 1 2 3 4 0 0 0 0 2 2 1 2 2 2 0 2 1 1 2 2 0 1 2 0 0 2 2 0 1 0 0 2 3 3 2 1 2 0 0 3 0 1 1 0 2 2 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 1 1 1 0 2 0 1 2 0 0 1 0 3 2 0 2 0 1 1 0 0 1 1 1 1 1 1 0 0 0 0 0 1 1 2 2 1 1 2 1 1 1 0 2 1 1 2 2 1 1 2 1 0 0 1 1 1 1 2 1 1 0 0 2 4 1 1 2 1 1 1 1 1 2 0 2 2 1 0 2 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 1 2 1 2 2 3 2 0 0 0 0 0 1 1 1 2 0 1 0 0 0 1 1 0 0 0 1 1 1 2 2 0 2 0 0 2 2 1 1 2 2 2 1 1 0 0 0 2 1 1 3 1 1 0 2 0 1 1 1 0 1 2 0 1 1 1 3 1 1 0 1 4 0 0 1 0 1 2 0 0 1 1 1 1 1 1 0 2 0 2 1 1 1 1 2 0 2 1 0 1 0 0 0 0 0 2 2 0 3 1 1 1 2 3 1 2 0 0 2 0 2 2 0 2 0 1 1 1 2 2 1 1 2 3 0 1 0 1 2 0 2 2 2 1 2 4 1 1 1 1 1 3 1 1 0 2 1 1 2 2 0 1 2 3 0 0 2 0 2 2 0 2 2 1 2 1 1 1 3 0 1 0 1 1 2 1 2 1 1 0 1 1 1 4 1 1 2 1 1 1 2 1 2 1 2 1 2 1 0 3 0 2 0 1 1 1 0 2 1 2 0 2 0 0 2 1 2 0 1 0 0 2 2 3 1 1 2 1 2 3 2 1 1 3 1 2 1 0 0 0 1 1 1 0 1 1 0 0 1 2 2 1 1 0 2 0 0 0 0 1 0 1 1 2 1 2 2 1 1 0 1 1 2 1 1 0 0 0 1 1 1 1 1 0 0 2 0 1 2 2 1 0 0 0 1 1 0 0 1 3 2 5 2 0 1 2 3 0 2 3 0 0 1 3 0 0 1 2 1 0 0 0 0 2 1 1 2 3 0 0 0 2 2 1 3 1 1 0 1 1 0 2 2 1 2 1 1 2 1 0 1 1 1 3 1 1 3 0 0 1 0 2 0 0 1 0 2 1 2 1 0 1 0 0 2 0 2 2 1 1 2 0 0 0 1 2 2 0 1 1 2 1 1 0 0 0 2 2 3 0 1 1 2 2 1 0 1 1 2 0 0 1 1 0 1 0 0 1 1 3 1 3 0 1 1 0 2 1 2 0 1 2 1 1 1 0 1 3 2 2 2 1 1 1 0 0 1 1 2 1 2 1 1 2 1 4 2 1 1 0 2 2 1 2 2 1 0 1 0 1 1 1 2 2 1 0 2 1 1 0 1 0 0 1 3 1 0 1 0 1 0 0 0 2 1 1 1 0 0 1 0 1 0 0 1 1 1 2 1 2 1 1 1 1 1 3 0 1 1 2 3 1 1 3 1 1 0 0 1 0 1 1 2 0 2 0 1 2 1 1 1 0 1 3 0 1 2 1 1 3 1 1 2 1 0 1 0 2 1 1 2 1 1 1 1 3 2 1 1 3 1 1 1 0 3 2 0 2 1 0 1 0 1 0 2 1 0 1 0 0 3 1 1 1 0 1 1 2 1 0 2 3 1 3 1 3 3 1 0 0 1 1 1 1 2 1 2 0 1 0 0 2 3 2 1 0 2 0 1 0 3 0 1 1 1 0 1 1 2 2 0 2 1 2 2 0 1 1 2 1 1 1 2 2 1 1 1 1 2 1 1 1 0 1 0 1 3 1 1 0 0 0 0 0 0 0 2 0 1 0 0 1 1 0 2 2 0 1 1 2 2 1 1 2 1 0 2 1 1 1 2 2 1 1 2 1 1 0 1 1 1 2 3 0 1 1 1 1 1 1 2 0 2 1 1 1 1 1 0 2 0 4 1 1 0 1 1 1 0 2 0 0 0 1 1 2 0 1 0 1 2 1 0 2 3 2 0 2 0 3 3 3 1 1 2 0 1 1 1 3 2 0 1 1 1 2 1 1 0 1 2 2 1 1 2 0 0 0 2 2 1 1 2 2 1 2 1 1 0 1 1 0 1 2 0 2 1 2 2 1 1 2 1 1 0 1 1 0 2 0 0 1 0 0 0 1 2 1 2 2 0 0 2 1 0 1 0 0 2 2 2 1 1 1 0 1 2 1 2 0 2 0 1 2 1 1 1 1 1 0 3 2 2 1 1 1 2 2 1 0 1 1 3 1 2 1 1 0 2 1 1 1 0 1 1 1 1 3 2 0 0 0 1 1 2 3 0 2 0 0 2 2 1 0 2 2 2 1 0 0 1 2 1 1 0 1 3 2 2 2 2 0 0 0 0 2 0 0 0 2 1 1 1 0 2 1 1 0 1 1 0 2 1 0 4 1 2 1 2 1 2 0 2 0 0 0 0 1 0 1 0 0 3 0 1 2 2 1 1 3 2 1 1 0 2 2 0 2 1 1 2 3 1 2 1 2 2 1 2 1 0 1 0 0 1 1 0 3 1 2 1 4 1 2 1 0 2 2 1 2 3 3 1 1 1 0 1 2 2 0 2 1 1 0 0 0 3 0 2 1 2 0 2 1 1 0 1 0 2 1 0 0 1 2 1 2 2 0 3 1 0 1 1 0 2 1 1 1 3 1 1 0 1 0 2 0 1 0 1 1 1 1 1 0 1 2 1 1 1 0 1 1 2 1 1 0 3 1 0 1 2 1 0 1 1 1 0 1 1 1 1 3 0 1 1 1 0 1 0 0 1 1 1 0 3 0 3 0 0 1 0 1 2 2 1 2 2 0 0 1 2 0 2 1 0 1 2 0 1 1 2 0 1 3 0 1 0 1 1 2 1 1 1 3 1 1 1 2 0 1 0 0 0 0 0 0 1 1 2 3 1 1 0 2 1 2 2 1 0 2 1 2 0 1 1 0 2 0 0 0 1 0 1 2 2 2 1 1 0 0 1 2 0 1 2 2 1 1 0 1 3 1 1 0 1 2 0 0 1 1 1 1 2 2 1 0 2 0 2 2 0 2 0 3 0 1 2 0 0 2 1 1 0 2 0 2 0 1 1 2 0 1 1 0 1 1 2 2 0 1 1 1 0 1 1 2 2 1 1 1 1 1 0 0 0 0 1 1 1 1 0 1 2 1 0 2 1 3 0 2 2 1 0 1 1 2 1 1 1 0 1 1 1 2 1 0 0 1 1 2 1 2 1 0 0 1 1 2 0 1 1 1 1 0 0 2 0 1 2 0 1 1 1 1 1 2 0 1 1 1 1 1 2 1 3 1 1 0 1 1 1 1 1 1 2 1 0 1 0 0 1 0 0 0 2 2 3 1 2 1 3 1 2 2 1 1 2 2 1 0 1 1 1 0 2 0 3 0 1 0 2 2 1 0 1 0 1 3 3 1 0 1 1 1 1 0 2 2 2 1 2 1 2 1 0 1 2 1 0 1 1 2 2 1 2 0 1 1 0 2 2 2 1 2 2 1 1 0 1 1 0 1 1 0 2 1 1 1 2 0 0 0 0 1 1 2 3 1 1 3 1 1 1 2 1 0 2 0 0 1 2 0 1 2 1 0 1 1 1 0 1 1 1 1 0 1 0 0 1 2 2 0 1 1 1 1 2 2 1 0 2 0 0 1 2 0 2 3 2 0 0 2 0 1 0 2 0 1 0 1 1 2 0 2 2 3 0 3 0 0 0 1 1 2 1 2 0 1 1 0 4 0 1 3 1 2 1 0 2 1 2 1 0 1 0 1 1 1 1 2 0 0 3 1 1 1 0 2 0 0 3 2 1 0 1 1 0 2 1 1 0 1 3 1 0 0 1 0 1 2 0 0 1 1 0 0 4 1 1 1 0 0 0 0 0 2 2 1 0 1 2 1 1 2 2 1 1 1 2 1 1 2 1 1 1 1 2 1 1 0 1 3 1 0 0 1 2 0 1 1 1 1 1 0 0 0 1 0 2 0 2 2 0 1 1 1 0 3 1 2 1 2 1 3 1 1 1 3 2 2 1 1 0 0 2 1 2 1 0 1 2 0 1 2 0 1 0 0 1 0 1 1 2 0 1 0 0 0 2 1 3 0 0 1 2 0 1 1 1 3 1 0 1 1 0 0 1 3 1 1 2 0 0 1 2 2 2 2 0 0 2 2 3 2 1 1 0 1 0 2 3 1 1 2 3 1 1 1 1 0 2 2 1 3 0 2 1 1 2 1 0 0 1 3 2 0 2 0 0 0 1 3 0 0 2 1 0 2 1 2 2 3 0 1 3 2 1 0 2 1 1 0 1 1 1 0 0 2 0 3 0 3 2 0 1 0 1 1 4 1 3 1 1 1 1 2 3 2 3 0 1 2 0 1 2 1 1 0 0 1 2 1 2 2 0 2 0 3 3 2 1 0 0 0 2 0 1 0 2 0 1 1 1 4 1 1 0 1 0 1 1 1 1 0 1 0 2 1 1 0 1 3 0 1 1 1 1 1 1 1 0 2 1 0 1 2 1 0 2 0 0 2 1 1 3 1 0 1 0 0 2 0 2 1 4 0 1 0 0 2 0 1 1 1 1 2 0 4 2 2 1 0 2 1 1 1 0 1 0 2 2 2 0 2 1 1 1 0 1 1 0 1 1 1 1 0 1 0 2 0 2 0 0 2 1 1 1 1 1 1 2 2 3 2 1 1 1 1 0 2 1 0 1 1 0 1 1 0 1 1 2 1 1 0 0 3 0 0 1 1 0 0 2 0 1 2 1 1 2 3 1 0 1 0 2 1 0 1 2 1 1 1 1 2 1 0 1 3 1 2 1 0 3 0 2 0 1 1 1 2 0 3 2 2 1 2 2 2 2 2 0 2 0 1 1 0 1 2 2 2 3 1 1 1 0 2 1 2 1 1 2 0 0 1 2 0 3 1 3 1 1 0 3 2 2 0 0 1 1 1 1 1 0 2 1 0 1 1 2 1 3 2 0 1 2 0 1 1 1 2 1 3 1 1 1 2 1 2 0 1 1 0 1 1 1 0 1 0 1 3 1 2 2 0 1 2 0 4 3 2 1 0 2 1 2 1 0 0 3 2 1 1 1 1 2 1 0 1 1 1 2 1 1 0 0 0 1 0 2 1 0 1 1 1 0 0 0 1 1 2 1 0 3 1 1 2 0 1 1 1 1 1 1 1 1 2 1 0 1 2 0 1 1 2 1 1 1 1 1 0 0 2 0 1 1 1 1 1 1 0 2 0 1 0 1 0 1 1 1 1 0 1 0 1 2 2 0 1 1 0 1 0 1 2 0 2 1 0 1 0 0 2 0 1 1 1 0 1 0 1 1 0 2 1 1 0 1 1 0 2 1 1 1 0 0 1 0 0 0 2 2 4 1 0 1 2 1 0 1 1 1 0 3 1 0 3 1 0 1 2 1 2 0 1 1 2 2 0 0 1 1 0 0 2 3 3 0 1 1 1 1 1 1 2 2 1 1 1 2 0 1 0 0 2 1 1 0 2 1 0 1 0</t>
-  </si>
-  <si>
-    <t>GAM(0.15683014898614056, -6.593494145919878e-32, 0.7033697679814567)</t>
-  </si>
-  <si>
-    <t>0 0 2 0 0 1 1 1 0 0 1 2 1 1 0 3 0 1 0 0 1 1 0 0 0 0 1 1 1 0 0 2 0 0 1 0 2 0 1 0 0 2 1 0 1 0 0 0 0 1 1 1 2 1 0 1 0 0 0 0 1 1 1 1 0 1 0 1 0 2 1 0 2 1 0 2 0 0 0 2 2 0 0 1 0 2 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 2 1 1 0 0 2 1 0 0 0 0 0 0 1 0 1 1 2 1 0 1 2 0 1 1 0 3 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 2 0 0 1 2 1 1 1 0 1 0 0 1 3 0 2 0 1 0 0 0 0 0 1 2 1 0 0 0 2 2 2 0 1 1 1 1 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 3 0 3 0 1 0 1 0 0 1 1 1 0 0 2 2 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 2 0 0 0 0 2 0 1 0 1 0 1 0 0 0 2 0 0 1 1 0 1 0 0 2 1 0 0 0 1 2 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 1 1 0 1 0 1 2 1 1 0 0 1 0 1 0 1 2 0 1 2 0 0 0 1 0 0 0 0 1 0 1 1 1 1 1 0 4 1 0 0 0 1 0 0 0 1 2 1 2 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 2 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 2 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 2 0 0 0 0 0 2 2 1 1 0 1 1 1 1 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 1 0 1 2 0 1 0 0 0 1 1 0 0 2 0 1 1 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 1 3 2 0 0 1 0 0 3 0 0 0 3 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 2 1 0 1 1 1 3 0 0 0 1 0 2 1 0 0 0 0 0 0 2 1 1 2 0 0 0 0 0 0 1 2 0 1 2 0 0 0 1 3 0 0 0 1 1 0 1 1 0 0 1 1 1 2 1 0 0 0 1 0 0 1 2 0 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 4 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 3 1 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 1 1 0 1 0 0 3 0 1 0 0 0 0 1 2 0 0 0 2 1 0 0 1 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 2 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 1 2 1 0 1 0 1 2 0 0 2 0 2 2 1 0 0 0 0 2 0 0 2 0 2 1 3 0 1 1 1 0 0 2 2 0 1 1 0 1 1 3 0 0 2 3 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 3 0 0 2 1 1 0 2 2 0 3 1 0 0 0 1 1 0 1 1 0 1 1 0 0 0 0 0 0 0 1 1 2 1 0 0 0 1 1 1 0 1 1 2 1 1 0 0 0 0 1 0 0 0 2 0 0 0 1 1 1 0 0 1 1 1 0 2 3 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 2 0 0 1 1 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 2 1 0 1 3 2 0 0 1 1 0 0 2 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 2 0 0 1 0 0 1 0 0 1 2 1 1 0 0 2 1 0 0 0 1 0 1 1 0 0 1 0 0 1 1 0 0 0 2 1 0 2 0 0 0 0 0 2 1 1 2 0 0 2 0 3 1 1 1 0 3 1 1 0 1 1 1 0 0 2 0 1 1 1 0 1 0 2 1 0 2 0 0 2 1 1 1 0 2 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 0 0 0 1 1 0 1 0 0 3 2 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 1 0 1 1 1 0 0 0 0 0 1 2 1 2 0 0 0 0 0 1 1 0 0 0 2 0 1 1 1 1 0 0 0 0 0 1 3 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 2 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 2 0 1 3 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 1 1 0 2 2 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 1 1 0 1 0 0 2 0 1 2 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 4 1 1 2 1 1 0 1 0 0 0 2 0 3 2 0 1 0 0 0 1 0 0 2 0 0 0 1 0 0 2 0 0 0 1 1 1 0 0 0 0 2 0 0 2 0 1 1 1 0 1 0 0 0 1 1 1 2 0 0 1 1 1 0 0 0 2 1 1 0 0 0 0 2 1 0 3 0 0 0 1 0 1 1 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 2 0 0 1 0 1 0 0 0 0 3 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 2 0 0 1 0 1 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0 2 1 2 0 0 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 1 0 0 1 1 0 1 1 1 0 4 1 1 0 0 1 1 0 0 0 0 1 1 0 2 1 0 1 1 1 1 0 2 2 3 2 1 0 0 0 2 0 1 0 1 1 0 0 0 0 2 0 0 1 2 1 0 2 0 0 2 2 0 0 0 0 1 0 0 1 0 1 1 0 3 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 2 3 0 0 0 0 1 1 0 0 1 2 0 1 1 2 2 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 1 0 2 1 2 1 0 0 0 0 1 0 2 0 3 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 4 2 0 0 0 1 1 0 0 0 2 0 1 1 1 2 0 0 0 0 2 1 0 1 1 1 0 1 0 1 1 1 0 0 2 4 1 1 0 2 1 1 1 0 0 1 2 2 0 0 1 0 1 0 0 1 2 0 2 2 0 3 2 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 1 2 0 1 3 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 1 0 1 0 1 2 0 1 0 1 1 1 2 0 1 0 0 1 1 1 0 0 0 1 1 0 0 0 1 1 2 2 0 0 1 1 1 1 2 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 3 3 1 0 2 0 1 1 0 0 1 2 1 1 0 0 0 3 1 1 1 0 2 0 0 1 0 1 0 0 0 1 0 2 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 2 1 0 1 1 0 0 1 2 2 2 1 2 0 2 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 4 0 1 0 0 0 1 1 0 1 2 0 0 0 2 0 0 1 0 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 2 0 2 0 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 3 0 1 1 0 0 0 0 0 0 2 0 0 1 2 0 1 2 0 0 1 0 0 1 0 1 1 0 0 0 3 1 1 0 0 1 1 3 0 2 1 1 0 1 1 0 0 2 0 0 1 1 1 1 3 0 0 3 2 1 0 1 2 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 0 1 1 0 0 1 1 2 1 1 0 0 2 0 2 2 0 1 0 0 1 0 0 0 0 2 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 2 0 2 1 0 2 0 2 1 0 1 0 1 1 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 1 1 1 0 1 1 0 0 1 4 0 0 1 0 1 0 2 1 0 1 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 3 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 3 1 2 1 0 2 0 0 1 0 0 0 0 2 1 0 1 1 1 0 0 1 0 0 2 1 2 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 2 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 1 0 0 3 1 0 3 0 1 1 1 1 0 2 0 0 0 0 0 3 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 1 0 0 2 1 1 0 3 0 0 0 0 0 0 1 1 2 0 0 0 1 0 0 2 1 2 2 0 1 1 4 1 0 0 0 1 0 0 0 0 3 0 2 0 0 1 1 1 0 0 1 0 1 1 1 0 0 0 0 2 0 1 0 1 2 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 2 1 1 0 0 1 0 0 0 0 2 1 0 0 0 0 0 3 2 2 1 1 0 1 0 1 2 0 1 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 1 0 1 1 1 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 0 0 0 3 1 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 2 0 0 2 1 0 1 0 0 1 3 0 1 0 0 1 1 1 0 1 3 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 0 3 0 0 2 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 2 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 2 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 3 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 2 1 1 2 0 0 0 0 1 0 1 0 0 0 1 0 2 0 1 0 1 0 2 0 2 1 1 0 0 0 0 2 0 1 0 1 3 0 1 2 1 1 0 0 0 0 0 2 1 2 2 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 2 0 1 3 0 1 1 0 0 0 1 1 0 0 1 1 1 0 2 0 1 2 0 1 2 0 2 2 1 1 0 0 0 2 0 3 1 0 0 0 1 1 1 0 2 0 2 0 0 1 0 0 0 0 3 0 0 2 0 0 0 1 0 1 0 1 1 2 1 1 1 1 1 1 1 0 2 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 2 0 0 1 1 1 1 1 1 1 1 2 2 3 0 2 0 0 2 0 0 2 2 0 0 0 1 1 4 0 0 2 1 0 1 1 0 0 1 0 2 0 0 0 1 4 1 0 0 0 0 0 0 2 2 0 0 0 0 1 0 0 1 1 0 1 0 0 4 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 3 0 1 2 2 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 2 0 1 1 0 0 1 1 0 1 1 2 0 0 1 0 0 0 0 0 0 2 0 0 1 1 0 3 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 2 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 3 0 1 0 0 0 2 1 0 1 0 0 1 0 2 2 1 0 0 3 0 0 0 0 0 0 1 1 0 1 1 1 2 0 0 1 0 2 0 1 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 2 0 0 0 0 1 1 0 1 0 0 1 2 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 1 1 0 3 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 3 0 0 2 0 0 1 1 2 0 1 1 2 0 3 1 0 0 0 0 2 3 2 0 0 0 0 0 0 0 0 0 2 3 1 1 1 0 0 1 1 1 1 0 0 1 0 0 1 0 2 0 0 2 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 2 0 1 1 0 1 1 0 0 0 0 1 0 2 2 2 1 1 0 0 1 1 0 0 0 2 1 0 1 0 1 1 0 1 1 0 1 0 1 0 3 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 2 1 1 0 0 1 0 0 0 1 1 0 0 2 1 0 1 1 0 0 1 0 1 0 0 1 1 2 0 0 1 1 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 2 0 0 0 2 1 1 0 0 1 0 0 2 2 2 0 0 0 0 0 1 0 1 1 2 0 1 2 1 0 0 1 0 0 2 0 0 2 0 1 1 0 0 0 1 1 0 2 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 2 3 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 2 0 2 1 1 2 0 0 1 1 0 1 1 0 1 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 2 0 1 0 1 0 0 1 0 2 1 0 0 0 1 2 0 1 0 0 1 1 1 0 0 3 1 1 0 2 0 0 2 0 0 0 2 1 0 0 0 1 1 1 1 0 0 0 1 1 0 0 1 0 2 1 1 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 0 0 2 0 1 0 0 0 2 1 2 1 1 0 2 0 1 1 2 0 1 0 0 1 2 1 0 0 0 0 1 0 0 1 0 2 0 0 1 2 0 2 0 0 1 1 2 3 1 2 1 1 0 0 1 1 2 1 0 0 1 0 0 0 0 0 2 0 0 0 0 4 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 1 0 3 1 0 0 0 0 0 1 1 0 1 0 0 0 0 5 1 0 1 0 0 1 0 0 2 1 1 1 0 2 0 2 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 1 0 0 0 1 0 0 1 1 0 1 0 0 3 0 2 0 0 1 1 1 2 0 2 0 3 1 0 3 0 0 1 2 1 1 2 0 1 1 1 1 1 0 1 0 0 1 0 2 1 0 0 1 1 0 1 0 0 1 0 2 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 2 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 1 1 0 1 2 0 0 1 0 1 0 1 1 1 0 2 1 0 0 0 1 2 0 1 2 1 0 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 0 0 1 0 2 2 0 1 1 2 1 1 0 0 1 0 3 0 0 0 0 0 1 0 0 1 2 0 1 1 0 1 1 0 0 1 0 0 2 0 0 0 1 1 0 0 0 1 2 0 2 0 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 2 0 3 1 0 0 1 0 1 1 2 0 1 2 1 3 0 1 1 2 1 1 1 0 0 0 2 0 2 1 1 0 3 1 0 0 0 1 0 0 1 2 0 2 1 0 2 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 4 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 3 1 1 0 1 2 0 1 2 0 0 1 1 0 0 0 1 1 1 0 0 0 0 2 1 0 0 0 0 0 2 1 2 1 1 0 0 1 0 0 3 0 1 1 0 0 1 1 0 1 0 2 0 0 1 0 2 1 1 0 0 0 3 2 0 1 0 1 0 0 1 0 3 3 0 0 1 1 1 1 1 1 0 1 1 0 0 0 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 2 0 1 1 2 1 0 1 0 0 2 1 0 0 1 0 0 3 0 0 0 0 1 0 0 0 3 0 0 0 1 1 0 0 0 1 0 2 0 2 1 0 0 0 2 0 0 0 2 0 1 1 0 1 0 1 0 0 1 2 0 0 0 1 0 0 1 0 1 0 0 0 2 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 2 0 2 1 1 0 0 1 2 2 0 0 0 0 0 0 3 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 4 1 0 0 0 1 0 2 0 0 0 3 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 2 0 2 0 1 0 0 0 1 1 0 0 2 1 0 0 2 0 0 0 0 1 0 1 2 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 4 0 0 1 0 0 0 1 1 0 3 2 0 0 0 1 1 1 1 2 1 2 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 2 0 1 0 2 2 2 0 0 2 2 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 3 1 2 0 1 0 0 1 1 2 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 2 0 1 2 1 0 1 1 0 0 0 0 3 1 2 0 0 0 1 2 1 0 0 1 0 1 0 0 1 1 1 1 0 1 0 0 1 1 0 0 1 1 0 0 2 2 2 1 1 0 0 1 0 1 2 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 1 2 2 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 2 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 1 1 1 1 1 1 1 0 0 0 1 3 0 0 3 1 2 0 1 2 1 1 1 1 0 2 0 0 1 1 0 0 0 0 2 2 0 0 0 0 0 0 1 1 0 2 0 0 0 2 0 3 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 2 0 2 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 2 1 2 0 1 2 1 1 0 0 0 0 0 0 1 0 0 0 1 0 2 1 1 1 0 0 0 0 1 2 0 0 0 2 0 0 0 1 0 3 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 1 1 2 0 1 2 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 1 2 0 2 0 0 1 2 1 0 0 0 2 0 2 0 0 0 0 0 0 0 2 0 1 1 0 0 1 1 0 1 1 1 1 2 1 1 1 0 0 1 0 0 0 0 1 0 2 0 0 0 0 2 0 1 1 0 1 0 1 0 0 0 0 0 0 1 2 1 1 0 3 0 0 0 0 1 2 2 0 1 3 1 2 0 0 0 0 1 2 0 0 0 0 1 0 0 0 2 4 1 0 1 0 0 0 0 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 1 0 0 2 3 1 0 1 1 2 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 1 1 1 1 0 0 0 0 3 0 0 0 0 0 0 1 0 1 0 0 1 0 0 2 1 1 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 1 0 1 1 2 0 2 1 2 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 3 1 1 0 1 0 3 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 2 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 2 0 0 1 1 0 2 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 4 1 1 0 1 2 0 0 1 0 1 0 1 0 2 3 2 0 0 0 0 0 2 0 1 1 0 2 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 2 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 3 2 1 0 1 1 0 0 1 1 0 2 0 0 0 0 0 0 1 0 1 1 0 1 1 0 2 0 0 0 0 1 0 0 0 1 2 1 3 0 0 1 0 3 2 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0 0 0 0 0 2 0 1 0 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 2 0 1 1 1 0 0 2 1 0 1 1 0 0 0 0 0 0 2 2 0 1 1 0 1 0 1 1 2 0 0 2 0 0 1 0 0 1 0 1 1 0 0 0 2 0 0 2 0 0 0 0 1 0 0 0 0 1 1 1 0 2 0 2 0 0 0 0 0 0 0 1 0 0 3 1 0 1 1 1 1 0 0 0 0 1 3 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 2 1 0 1 0 1 1 2 0 0 2 0 1 1 1 0 1 2 0 1 0 0 0 2 1 0 0 2 2 1 0 0 1 1 0 2 0 1 0 1 0 1 3 1 3 1 5 0 0 1 2 1 0 0 0 2 1 0 0 0 3 3 1 1 0 0 1 3 0 0 3 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 4 0 1 0 0 1 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 2 0 0 1 2 0 2 0 0 0 0 0 1 1 0 1 0 0 2 0 0 0 1 0 2 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 2 2 0 0 2 0 2 2 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 2 0 0 0 2 0 4 0 2 1 0 1 3 1 1 2 1 2 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 1 0 1 0 1 1 2 1 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 2 0 0 0 0 3 1 1 0 1 0 2 0 0 0 1 0 1 2 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 2 0 1 0 0 0 1 0 0 0 1 2 0 1 1 1 1 0 1 2 0 0 0 1 0 0 0 0 0 1 0 1 2 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 2 2 1 1 0 0 1 2 0 0 2 0 2 0 0 0 0 1 2 0 1 1 0 0 1 0 2 0 0 1 0 1 0 0 2 1 0 1 0 0 0 1 1 1 1 0 0 0 1 1 0 0 0 1 1 1 0 1 1 2 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 2 1 0 0 0 0 0 1 1 0 2 0 0 0 1 1 1 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 2 0 1 1 1 2 1 2 1 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 1 3 1 0 0 2 0 1 0 0 0 0 1 0 0 2 1 1 0 0 1 0 0 0 0 2 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 0 0 1 2 1 0 0 0 0 3 2 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 1 0 2 0 1 0 1 0 0 1 1 0 0 0 2 0 1 0 1 1 1 0 0 0 3 1 2 0 1 0 0 1 0 1 1 1 0 0 2 1 1 0 0 0 1 0 1 2 0 1 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 0 2 0 0 0 1 0 1 2 1 2 1 1 1 0 2 2 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 3 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 3 0 0 0 3 0 1 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 2 0 0 1 0 1 1 1 1 0 0 2 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 2 0 0 1 1 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 1 0 2 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 2 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 3 0 2 0 2 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 2 2 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 1 0 1 1 2 0 1 2 0 0 0 2 2 0 0 1 0 2 1 0 0 2 0 0 1 0 1 0 1 0 0 1 1 1 0 1 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 0 2 1 1 0 0 1 0 0 0 0 0 0 1 0 0 2 2 0 2 0 1 0 1 1 0 2 1 0 1 0 3 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 1 2 1 1 2 2 0 0 0 1 0 0 0 4 2 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 3 0 0 1 0 3 1 1 4 0 0 0 1 1 0 0 0 1 0 2 0 0 0 1 0 1 1 0 1 2 0 0 0 1 1 1 2 1 0 0 0 0 0 0 1 0 0 2 1 0 2 1 0 0 0 1 0 1 2 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 2 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 3 1 0 1 0 0 0 1 0 1 1 0 0 0 1 2 1 1 0 2 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 2 1 0 2 0 0 0 0 1 0 0 2 0 0 2 0 1 1 0 3 1 0 1 1 0 2 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 1 1 0 2 0 1 1 1 1 2 1 4 0 1 1 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 1 0 1 1 2 1 0 1 0 1 0 1 1 2 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 3 1 0 1 1 2 0 0 2 0 0 0 1 1 0 0 1 0 0 0 1 2 3 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 1 2 0 2 2 0 0 0 1 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 2 0 1 0 1 2 2 0 1 0 2 1 0 1 0 1 0 2 0 0 0 0 1 0 0 0 3 0 0 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 2 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 2 0 2 1 1 1 1 0 0 0 1 1 0 0 0 2 0 1 0 0 0 1 0 0 2 0 1 0 2 0 2 0 0 0 0 0 0 3 0 0 1 3 0 0 0 2 0 0 1 0 1 3 0 0 1 0 0 0 1 1 0 2 1 0 0 0 1 1 0 0 1 2 1 1 0 3 0 2 0 0 0 0 1 0 1 2 0 0 0 1 1 2 1 0 2 0 0 0 0 0 1 0 0 1 0 2 1 0 0 1 0 1 1 0 1 1 1 0 1 1 1 2 0 1 1 1 2 0 1 0 2 0 0 0 0 1 2 0 0 1 0 0 0 2 1 1 2 0 1 2 0 1 0 1 0 1 0 0 1 0 1 2 1 2 0 1 0 0 0 1 1 1 0 0 1 1 1 1 2 1 0 2 0 0 0 1 1 0 0 0 1 1 0 2 0 0 2 0 1 0 1 0 1 1 0 2 0 1 0 1 1 1 0 1 0 1 2 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 1 2 1 1 1 0 0 0 2 0 2 0 1 1 0 0 0 0 2 1 1 0 0 0 1 2 2 0 2 1 2 0 1 1 2 0 1 1 0 1 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 2 1 2 0 1 1 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 4 0 1 0 2 1 0 1 1 1 0 0 0 1 0 1 2 1 0 0 0 0 2 2 0 0 2 0 0 1 1 1 0 2 1 0 0 1 2 0 1 0 0 0 1 0 3 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 2 0 2 1 0 0 0 2 0 0 1 1 0 1 1 1 1 0 1 0 1 0 0 1 0 1 1 2 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 2 0 2 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 3 1 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 2 0 2 0 0 2 0 2 0 0 0 0 0 0 1 1 1 1 2 0 0 0 0 0 2 1 0 0 0 0 0 2 0 1 0 0 1 0 1 1 1 1 0 0 1 0 1 0 3 0 2 1 1 0 0 0 0 2 1 0 0 0 1 0 0 1 2 0 0 1 1 1 0 0 2 0 2 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 2 2 0 1 1 1 2 1 1 0 0 1 0 1 0 2 0 0 0 1 0 3 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 2 2 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 1 1 1 0 2 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 2 0 0 0 1 2 2 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 2 1 0 1 0 1 1 0 1 0 1 1 1 1 1 0 0 1 2 1 0 0 1 1 0 0 3 1 0 0 0 0 1 0 1 2 1 2 1 0 0 1 2 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 4 0 0 1 0 1 0 2 1 0 0 0 0 2 0 0 1 1 0 1 0 1 1 0 1 0 1 1 1 1 0 1 0 0 0 3 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 2 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 2 1 0 1 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 3 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 1 2 1 0 4 0 0 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 4 0 0 2 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 4 0 2 2 0 0 0 2 0 0 0 0 0 1 1 1 0 1 0 2 2 0 2 1 0 1 2 0 3 2 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 2 0 2 0 0 1 0 0 0 0 0 2 0 0 0 1 0 1 2 0 2 1 0 1 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 3 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 1 1 0 0 3 0 0 1 0 1 3 2 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 2 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 2 1 0 1 0 0 0 0 0 2 0 2 0 0 2 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1 2 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 3 1 1 2 0 1 1 0 0 0 0 0 2 0 1 0 0 0 0 2 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 3 0 0 0 1 0 0 0 3 0 0 1 1 0 0 0 2 1 0 1 0 1 0 0 1 0 0 1 0 0 2 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 1 1 1 1 0 1 1 0 1 0 0 0 2 0 1 2 1 0 1 2 1 0 1 1 0 0 0 0 1 1 0 2 1 0 1 1 3 1 2 2 1 0 2 2 1 0 1 2 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 2 2 0 0 3 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 1 0 1 0 1 0 0 1 0 2 0 0 1 0 2 0 1 0 0 0 1 0 1 1 2 0 0 1 1 0 0 0 4 0 0 1 1 0 2 1 1 1 1 1 0 0 1 0 2 1 1 0 2 0 0 0 0 3 0 1 1 0 0 0 1 2 0 2 1 0 0 1 3 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 1 3 0 2 1 0 0 0 1 2 0 0 1 0 0 1 1 1 0 1 0 1 0 0 1 0 0 1 1 0 1 0 1 1 0 1 0 2 0 0 0 0 0 2 0 1 0 0 0 1 1 1 0 2 0 1 1 0 0 0 0 0 0 1 1 0 1 0 2 0 2 0 2 1 1 0 0 0 0 2 0 0 2 1 1 0 1 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 2 3 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 2 1 1 2 0 1 2 1 0 0 1 1 0 1 0 0 2 0 0 0 2 2 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 2 1 0 1 0 0 0 0 0 0 1 0 0 2 1 1 1 0 1 0 0 1 0 1 3 0 0 1 1 0 0 1 2 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 0 2 1 0 1 2 0 0 1 0 0 2 0 1 0 2 2 0 2 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 2 1 0 0 0 1 0 0 0 3 0 0 1 0 0 0 0 0 2 1 0 0 2 2 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 2 3 1 0 2 1 1 0 0 1 1 1 3 0 1 1 1 0 1 0 1 0 4 0 0 1 2 0 2 1 2 0 0 1 3 1 0 0 0 0 0 2 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 2 0 1 1 1 1 1 0 1 1 2 0 2 0 0 0 2 3 0 1 0 2 0 0 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0 0 2 3 2 0 1 0 1 1 0 0 0 1 1 1 0 0 2 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 1 0 1 0 2 1 0 2 0 0 1 0 2 0 1 1 0 0 1 1 1 1 1 2 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 0 0 2 1 0 1 1 0 0 0 0 1 2 0 0 0 1 1 2 0 1 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 2 1 0 2 1 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 2 0 0 0 0 1 1 0 0 0 1 0 0 2 0 1 1 0 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 2 0 0 1 2 0 0 0 2 1 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 2 1 0 0 3 0 0 1 0 0 0 0 0 0 2 1 0 0 1 1 0 1 1 2 0 0 0 1 1 1 2 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 1 2 1 0 0 0 0 0 3 3 0 0 0 0 1 0 0 2 2 1 1 1 1 1 0 0 1 0 3 2 0 0 0 0 0 1 1 1 3 0 0 1 0 0 0 1 0 2 2 1 0 0 1 0 0 0 0 1 2 0 0 1 0 1 2 0 0 0 2 1 0 0 0 1 1 1 0 0 0 0 1 0 2 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 1 3 0 1 2 0 0 2 0 0 0 1 1 0 0 1 1 3 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 2 0 0 0 0 2 2 0 0 0 1 0 0 1 0 0 1 0 1 4 2 0 0 0 0 0 0 1 2 0 1 1 0 1 1 2 2 0 0 0 0 2 1 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 1 1 0 2 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 2 0 0 1 0 0 1 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 1 1 1 0 0 2 0 1 0 1 0 3 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 0 2 0 1 0 3 1 1 0 0 2 0 0 1 0 1 0 0 0 1 0 2 0 1 1 0 0 0 0 0 1 1 2 1 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1 2 1 0 0 1 0 3 0 1 1 1 1 1 0 0 1 0 1 2 0 1 0 1 0 1 0</t>
-  </si>
-  <si>
-    <t>JSB(1.9999093713950074, 2.671406806406651, -58.099990904505596, 495.1066469498963)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 65 69 140 74 66 55 128 91 127 121 47 110 133 161 92 52 81 173 193 119 69 66 84 83 146 110 63 61 99 86 138 53 85 121 118 99 140 137 107 116 152 95 46 100 79 31 77 76 117 141 100 57 149 78 91 126 83 73 95 158 116 84 83 134 198 101 157 74 57 112 61 87 115 166 93 88 148 217 84 118 50 133 74 82 63 150 128 35 167 34 103 100 129 116 120 72 80 94 169 50 153 53 60 111 115 201 66 95 140 89 88 62 63 93 121 136 32 67 52 196 123 100 84 73 58 114 84 25 81 137 123 91 199 109 121 49 49 177 85 143 85 34 35 111 97 72 59 112 79 163 63 82 84 165 35 93 196 77 153 99 48 64 53 104 54 78 69 129 159 108 136 110 177 35 47 97 124 160 16 85 155 194 97 96 108 54 107 103 53 209 184 148 98 130 107 99 43 107 81 159 61 140 85 52 244 47 111 163 104 109 118 86 113 138 62 137 159 101 110 117 135 79 165 148 80 109 95 157 140 113 49 90 143 125 155 167 86 65 114 137 95 70 83 74 143 119 99 87 141 107 202 138 55 86 93 99 136 125 62 82 57 92 117 110 113 118 45 76 103 138 106 107 93 99 85 128 67 110 147 100 73 158 104 95 121 67 99 127 179 114 133 91 107 177 119 108 91 60 91 128 112 176 75 17 113 91 39 79 81 85 125 62 135 74 125 76 91 135 109 126 109 131 89 67 137 116 109 101 169 94 152 76 89 151 84 105 122 39 82 105 94 128 170 -1 139 82 88 80 150 84 81 66 83 63 146 106 116 66 126 97 154 127 176 158 129 129 122 119 78 100 72 97 93 74 152 127 149 101 125 154 116 134 77 121 93 133 102 115 103 247 58 107 70 189 94 130 115 109 60 74 108 50 120 105 147 88 104 109 114 140 120 84 168 131 176 174 60 150 55 61 167 45 141 125 93 105 81 64 57 105 128 82 16 167 73 51 114 100 54 129 154 130 167 172 102 100 71 111 129 96 129 98 158 65 114 61 99 27 117 164 46 53 113 58 89 63 83 109 50 83 158 124 139 109 123 71 46 74 69 110 91 103 39 47 136 68 79 128 56 149 172 70 3 158 127 98 73 45 107 130 77 74 82 89 140 67 132 66 36 86 154 193 58 107 39 198 84 105 109 177 87 133 146 118 129 85 123 176 82 87 56 101 55 169 168 149 96 83 164 144 126 125 118 140 171 103 54 109 61 97 122 114 154 91 97 106 151 142 113 110 176 63 93 115 114 168 156 192 141 130 42 44 91 91 78 46 149 105 81 50 64 92 53 85 169 82 136 164 149 198 136 202 75 135 63 80 107 151 97 78 117 99 112 84 109 148 54 85 75 146 130 77 98 58 76 143 93 132 116 97 130 30 106 142 115 117 94 53 79 44 142 76 87 147 136 132 92 68 140 187 79 130 97 98 94 100 58 79 102 111 21 69 117 101 105 116 149 117 70 113 114 140 105 111 89 111 95 48 120 59 81 115 163 107 89 111 121 189 53 99 161 113 136 85 145 121 65 115 105 50 25 98 89 153 123 137 111 102 139 144 120 92 50 142 106 52 196 125 108 19 176 63 44 134 62 89 55 160 75 80 28 130 102 98 46 124 72 102 166 111 102 69 83 100 64 194 152 114 113 44 146 132 95 73 98 49 81 91 101 87 86 96 145 265 143 55 132 139 45 69 30 132 147 82 105 136 52 66 95 123 127 97 93 78 121 73 80 88 137 106 77 76 71 95 76 154 113 68 129 31 117 66 101 121 84 99 85 132 55 45 67 64 128 131 72 93 90 97 56 77 117 75 124 93 113 59 75 158 125 83 39 36 218 71 34 54 81 30 81 93 106 63 102 115 111 125 35 77 58 70 87 124 72 133 61 97 66 108 55 122 135 211 61 118 101 104 120 111 37 27 151 94 155 45 158 76 39 53 160 132 157 54 93 45 130 29 98 165 138 38 65 86 92 107 100 106 143 101 105 58 91 123 114 69 123 167 94 118 72 96 137 100 79 56 80 129 119 97 122 109 148 132 118 131 141 113 135 78 152 119 95 141 84 101 109 120 144 130 106 104 106 58 40 98 145 48 167 81 113 127 136 80 71 37 174 91 53 132 64 170 163 206 72 116 126 119 94 114 57 111 38 136 122 112 111 81 93 70 103 93 158 161 104 87 68 149 106 51 24 144 48 187 100 110 77 123 104 51 78 139 54 123 206 74 87 134 73 157 56 60 111 107 199 40 97 98 73 143 97 76 50 109 78 86 110 134 88 107 122 185 90 135 162 153 91 171 74 107 77 127 171 100 123 63 93 96 119 91 94 130 32 157 170 76 114 136 35 106 32 92 120 59 61 153 139 94 61 84 147 32 53 94 149 82 66 41 133 60 188 66 42 114 166 132 122 119 41 150 221 125 111 114 20 109 93 116 56 136 52 147 32 60 132 129 64 178 106 192 145 87 133 109 107 112 150 65 47 115 61 74 46 76 84 77 73 119 132 99 91 149 96 71 64 46 112 69 117 61 143 88 70 169 118 153 155 86 80 123 93 106 86 91 148 91 151 133 80 61 56 114 149 109 117 93 102 116 120 45 64 128 131 69 138 0 124 44 57 105 105 21 85 118 39 165 75 117 147 85 90 58 54 127 95 84 78 97 26 125 56 56 162 127 121 195 114 50 86 122 69 122 73 95 83 217 101 67 117 95 113 65 76 134 118 114 179 49 89 128 78 106 182 120 146 85 116 173 183 100 141 145 145 156 98 153 70 89 113 35 74 55 129 173 147 15 94 148 173 103 47 53 58 90 150 87 178 201 58 123 129 76 120 38 94 120 54 137 33 126 115 212 73 105 90 104 120 155 110 150 147 117 91 27 48 94 138 135 62 142 97 111 185 40 148 115 99 99 72 153 109 121 100 107 151 161 51 175 130 125 74 39 165 90 69 115 107 127 105 25 97 138 98 75 102 99 87 122 105 138 84 72 114 80 225 152 126 113 116 71 177 125 69 125 119 75 83 120 73 143 104 97 147 138 176 147 112 66 55 68 165 177 85 138 134 56 120 137 115 86 122 115 38 134 125 71 65 72 122 110 23 103 139 73 104 82 125 19 168 44 143 93 62 96 127 41 82 33 71 142 113 157 185 87 133 94 142 80 128 100 84 66 56 98 126 69 68 79 64 98 125 158 88 61 103 90 101 84 182 24 53 163 80 66 125 137 45 68 79 117 151 117 119 137 139 73 60 151 99 51 151 108 173 71 154 112 114 100 114 68 81 66 125 173 7 134 110 169 151 129 161 104 53 109 127 116 63 165 150 97 138 55 39 96 124 131 36 138 201 50 124 39 169 94 101 98 121 86 133 94 64 61 118 162 87 115 160 137 111 70 222 102 164 96 9 65 86 143 135 51 94 162 44 47 108 92 112 115 87 71 152 83 33 122 136 95 52 113 100 105 20 67 107 109 65 88 152 41 119 118 98 160 124 60 107 121 169 124 68 125 85 114 112 73 87 72 115 94 141 129 154 85 48 58 123 32 68 110 87 67 94 98 138 109 118 133 46 263 164 141 91 88 115 39 159 95 147 119 92 153 111 39 63 58 15 137 118 138 75 37 124 106 55 84 138 24 91 133 92 101 126 129 156 56 69 85 85 137 118 127 130 156 87 56 150 122 119 98 100 88 75 95 35 127 110 87 163 21 43 37 90 127 95 79 150 115 68 160 55 132 45 117 126 117 151 148 118 129 89 69 103 85 140 104 154 94 177 103 60 103 161 127 102 177 142 45 109 106 96 59 102 69 84 55 36 95 103 53 106 64 158 45 104 168 111 103 94 153 65 72 74 22 153 66 93 161 119 83 125 97 133 91 66 158 60 110 136 70 196 137 142 62 61 76 162 164 84 72 73 122 105 113 44 67 216 38 179 85 111 85 100 84 117 60 111 35 72 148 88 51 84 113 93 56 111 189 79 104 59 168 132 149 62 48 127 28 119 75 58 128 89 147 143 127 110 115 155 56 86 144 179 105 65 140 21 133 124 124 69 105 94 65 88 132 101 52 32 47 77 123 136 241 46 54 112 166 112 94 104 163 148 102 75 167 58 72 163 14 80 160 112 91 118 93 24 83 216 119 59 156 62 126 63 95 98 181 147 68 154 110 116 103 88 56 107 83 60 138 111 50 109 83 150 150 141 177 74 95 95 131 152 80 143 65 51 141 65 102 96 100 65 101 104 108 133 131 113 144 20 43 85 62 45 157 64 51 83 63 141 85 145 147 119 129 66 115 38 112 56 72 133 105 119 88 105 42 29 150 77 47 182 136 77 123 56 65 38 147 68 175 91 39 123 81 58 75 61 69 89 75 80 93 110 106 86 126 106 107 87 179 113 122 50 75 129 137 32 179 77 92 123 89 140 102 230 205 115 118 62 177 28 83 48 118 101 46 90 62 65 130 113 175 113 47 77 151 84 54 106 162 79 161 137 78 43 84 59 130 119 70 123 162 166 178 80 119 52 124 83 76 66 109 133 84 37 35 81 130 139 101 134 146 161 93 198 103 181 94 45 147 108 75 43 105 145 118 46 118 94 91 80 106 92 84 87 48 178 149 94 130 63 68 179 22 162 56 174 125 167 113 89 56 112 77 68 154 134 47 88 136 167 218 60 63 39 112 81 109 103 127 105 21 160 102 119 50 83 58 103 86 97 145 16 143 198 114 149 159 45 58 85 129 121 44 81 80 100 184 98 92 148 142 191 148 82 107 84 141 64 66 88 86 145 98 86 136 34 61 176 38 211 217 147 89 63 96 130 59 67 162 65 84 117 127 108 210 35 48 175 105 86 124 71 122 104 133 148 78 61 54 112 60 100 75 74 106 78 113 33 35 67 60 77 75 165 119 123 96 120 87 124 93 111 126 68 98 77 94 95 113 116 116 77 112 103 115 91 122 159 89 105 83 98 176 110 39 51 103 49 98 131 55 149 141 152 26 148 69 44 110 101 117 47 124 105 134 157 84 112 70 59 91 94 75 106 76 90 106 172 75 42 98 98 82 64 137 102 149 71 78 75 93 86 68 99 131 74 156 93 141 101 167 100 133 17 78 149 67 121 123 76 55 110 21 90 175 102 74 155 122 99 157 66 93 45 154 206 113 106 50 139 191 157 95 74 59 112 59 98 139 84 143 232 45 101 86 167 165 85 83 145 64 111 57 56 92 80 47 42 97 128 98 73 41 156 151 53 170 95 112 96 47 101 213 94 129 72 71 115 96 113 91 78 100 125 136 148 120 146 68 108 46 16 133 46 110 64 88 100 176 53 66 161 100 97 149 152 86 146 145 120 117 111 104 107 69 70 173 76 97 129 38 100 166 117 114 126 64 183 69 80 36 108 123 160 89 106 83 66 96 100 176 105 68 84 123 78 162 57 103 62 47 101 83 73 126 101 151 120 74 74 66 120 162 135 160 119 100 65 99 11 70 84 99 65 66 74 45 70 86 109 53 167 107 38 134 152 96 137 66 94 130 132 139 127 128 106 92 86 118 46 118 102 36 96 103 103 64 120 144 27 92 89 98 80 157 110 109 52 107 141 85 82 85 115 18 165 83 94 88 81 198 88 135 132 134 137 139 52 55 104 144 126 173 88 102 88 129 104 103 36 146 90 53 103 62 127 166 155 144 84 109 152 96 74 112 109 87 130 112 32 117 55 54 136 97 133 201 104 113 120 121 140 45 112 40 75 35 39 86 172 108 182 158 165 81 154 89 78 159 104 163 198 103 65 137 125 100 167 86 62 53 73 66 118 115 77 110 88 105 177 78 71 135 117 122 72 58 99 115 131 86 62 115 64 42 140 50 97 137 45 137 55 31 29 82 30 139 233 118 211 107 88 89 190 64 113 129 117 92 173 48 132 88 105 130 47 131 91 168 99 142 142 94 163 55 58 138 147 97 136 83 159 103 29 63 85 103 108 124 171 117 57 135 92 116 85 94 149 100 121 98 190 92 107 171 116 116 158 103 67 164 160 70 109 76 68 100 54 123 115 53 107 128 109 130 155 73 114 125 93 66 118 52 101 92 118 146 161 105 80 68 78 59 81 59 70 133 110 158 90 58 160 67 110 161 94 30 113 103 83 44 129 89 73 110 9 138 125 23 115 100 152 122 78 67 94 154 117 44 185 101 87 38 109 139 95 111 127 86 88 53 116 128 164 121 139 92 94 168 128 65 104 50 127 125 103 121 96 49 120 101 126 177 87 104 152 77 73 134 168 79 75 82 124 53 121 101 133 134 49 185 75 97 126 115 134 133 122 132 76 165 68 76 100 179 195 81 77 103 73 64 140 138 159 60 82 72 83 110 193 219 121 98 148 92 95 85 101 70 156 178 80 105 78 146 81 88 148 60 97 62 71 155 98 125 143 90 61 174 151 113 131 51 134 129 154 93 53 157 170 143 35 126 78 116 38 74 130 94 80 84 154 95 101 56 70 167 127 59 114 168 127 121 177 151 85 135 37 107 109 106 50 8 107 147 100 110 62 60 81 100 118 126 193 150 87 161 108 35 135 132 120 108 7 95 130 118 133 111 102 87 109 56 114 90 162 96 123 89 88 161 17 100 49 128 122 78 92 113 91 206 153 134 144 102 125 127 61 91 85 161 103 133 82 96 87 84 41 152 129 113 53 133 125 176 90 27 146 78 131 146 119 215 102 59 153 128 140 147 104 72 138 98 167 133 88 119 137 222 94 94 154 125 116 128 75 70 89 68 126 100 99 84 86 143 108 134 180 119 93 152 45 131 82 121 72 119 151 15 98 70 129 95 87 133 57 85 53 132 24 42 101 130 89 156 100 96 47 149 56 52 76 122 123 174 75 113 104 136 103 169 75 138 97 125 88 83 176 51 67 109 102 130 89 27 82 146 177 111 159 113 133 37 105 123 84 107 97 117 39 87 69 83 106 86 127 139 102 109 87 108 82 182 124 78 101 48 109 117 117 132 85 138 156 38 81 66 156 129 159 131 63 120 94 80 103 107 147 55 102 89 79 118 52 168 40 116 197 98 143 82 89 67 100 128 60 115 103 136 61 110 153 147 92 115 167 112 114 62 62 94 196 111 67 42 73 86 100 62 122 52 121 123 81 161 111 151 108 72 72 64 130 179 141 88 109 120 125 179 58 28 86 114 94 54 68 96 169 151 106 113 75 156 95 127 148 111 52 107 94 88 159 113 126 84 108 163 99 45 26 100 97 196 46 94 49 97 52 65 121 98 107 126 80 67 93 131 64 141 93 132 97 113 93 90 130 54 135 142 108 59 69 93 123 119 118 170 106 186 140 87 76 75 99 170 119 90 90 35 183 36 124 135 130 108 54 128 77 126 151 108 45 126 74 111 74 34 32 114 123 180 43 101 81 91 145 80 34 78 59 100 134 161 123 69 65 122 94 87 70 127 96 111 162 46 29 89 112 63 229 79 79 131 108 43 127 81 143 84 85 111 111 85 109 53 102 166 57 58 107 88 142 81 116 105 66 62 108 65 199 128 43 91 133 105 141 157 27 127 89 95 97 71 136 116 158 64 70 50 93 116 140 174 152 169 102 68 89 149 102 211 146 68 50 149 129 112 94 118 137 57 127 110 102 125 93 95 133 108 120 102 99 40 160 93 24 79 75 118 136 119 92 170 135 7 108 78 54 119 133 64 39 173 175 68 137 127 126 112 206 106 64 103 50 131 67 131 149 65 121 114 93 86 88 219 114 75 97 108 106 108 85 114 60 92 89 165 72 123 104 101 160 153 100 71 138 86 134 81 91 118 195 95 155 115 70 57 96 109 191 81 130 80 111 67 148 177 112 106 91 75 162 138 167 59 76 124 93 113 140 78 112 130 56 69 154 68 73 34 142 99 89 101 95 100 105 104 94 59 131 84 182 58 135 153 124 151 67 146 126 144 84 86 36 120 71 105 127 98 99 111 113 84 156 100 175 165 152 120 34 100 118 123 109 67 91 109 57 147 115 111 123 105 129 93 137 90 90 66 78 77 128 135 97 147 141 139 29 184 100 34 58 134 80 81 83 66 71 96 104 214 137 74 138 171 104 54 109 108 133 186 48 81 131 128 101 104 154 125 87 58 84 100 83 100 51 137 88 151 116 36 14 97 71 73 131 174 113 120 66 36 80 60 95 121 114 256 111 89 67 93 89 101 81 91 42 83 54 72 80 151 163 72 101 71 135 50 140 105 111 130 126 144 80 89 153 60 107 92 151 55 111 58 50 69 119 44 54 116 124 98 30 78 139 148 102 103 143 64 126 175 62 108 59 123 190 84 95 23 188 59 133 157 92 127 87 125 66 98 115 84 105 77 94 75 75 105 70 107 56 118 164 80 123 34 135 156 72 93 91 117 148 140 74 131 93 158 106 101 105 123 127 167 127 71 99 165 198 88 76 152 131 131 119 57 106 105 47 118 114 106 68 63 95 113 124 41 70 39 121 58 127 164 85 84 95 158 63 87 81 167 78 89 73 72 55 121 93 42 148 131 127 37 90 81 91 86 113 126 88 79 75 80 60 144 103 122 82 107 158 103 79 188 90 106 151 79 212 88 119 89 121 107 177 38 31 48 98 78 101 49 164 74 121 159 87 93 98 154 90 26 129 136 115 76 70 94 107 70 115 82 56 44 159 101 155 62 38 131 101 43 83 20 77 87 125 122 96 120 224 141 114 130 93 141 83 99 72 77 100 144 90 39 114 70 107 79 105 85 93 201 148 51 94 86 15 74 33 98 97 100 127 157 40 83 145 92 157 53 88 143 93 103 117 102 143 79 102 95 127 137 111 180 146 96 68 39 79 137 82 155 136 123 82 124 133 131 79 59 65 119 108 131 80 76 153 58 155 98 184 66 60 146 119 86 63 92 121 114 116 47 46 125 100 106 184 109 85 85 68 67 99 99 103 181 112 136 103 99 70 92 72 23 79 75 94 172 43 64 111 59 131 92 119 72 51 44 116 67 108 75 110 110 77 111 63 99 174 107 85 46 68 163 86 128 121 133 107 90 124 130 86 35 110 89 96 72 122 134 77 87 61 144 34 93 65 191 94 122 66 96 101 121 71 149 152 98 58 139 108 57 108 107 94 83 200 33 36 123 114 147 40 99 164 133 118 48 105 48 118 118 42 120 57 108 47 236 30 88 41 125 22 101 105 113 70 116 102 85 87 66 109 71 115 104 94 151 36 39 105 106 71 121 74 172 186 135 76 134 84 106 100 117 134 57 144 132 170 149 54 90 157 132 50 72 127 65 131 66 151 106 38 64 72 40 72 101 143 141 145 128 98 82 95 150 143 91 132 122 72 74 167 105 69 35 66 71 120 169 43 42 155 149 108 89 109 38 41 157 147 70 184 98 198 115 128 145 119 17 73 145 89 135 111 143 117 48 123 27 69 129 100 35 83 169 118 103 172 97 145 138 109 96 92 112 111 76 12 89 111 47 118 41 186 107 109 115 115 107 82 79 86 143 119 128 181 79 138 123 251 63 110 135 152 109 68 90 52 108 63 67 113 102 57 99 144 87 123 87 96 152 68 109 91 96 64 147 27 68 228 215 83 122 175 169 112 77 41 140 101 96 69 86 139 106 154 124 147 133 85 92 27 124 132 151 150 65 133 152 70 112 131 170 107 77 109 107 88 77 111 58 40 46 84 66 123 109 64 141 108 98 115 81 97 93 246 179 72 168 188 55 133 182 65 118 111 77 172 53 76 150 89 124 104 63 62 138 71 44 71 122 80 124 116 115 96 103 109 114 61 90 68 79 63 54 42 163 205 153 91 88 41 79 171 87 67 89 53 87 72 154 52 99 41 102 93 117 72 89 59 27 130 60 78 48 59 84 73 164 110 117 86 95 102 85 291 133 107 69 93 135 83 103 56 41 140 87 80 143 172 98 145 120 48 39 135 106 43 87 157 103 60 72 150 81 139 139 72 51 151 116 103 22 58 153 98 49 59 90 116 121 184 157 67 198 118 130 71 70 174 72 88 77 97 117 94 172 79 156 89 88 111 93 153 233 71 103 76 190 86 69 96 72 110 121 127 67 79 165 92 138 122 76 158 82 108 113 151 83 65 76 80 128 58 134 99 90 60 166 52 79 127 212 145 106 88 29 35 70 51 55 99 161 106 103 109 118 68 55 124 74 90 88 114 80 157 96 105 46 82 127 66 42 127 138 74 204 135 67 88 52 130 67 63 99 88 51 74 198 58 151 53 102 58 92 61 28 90 107 112 178 84 144 60 111 167 72 108 71 19 122 103 79 72 129 99 120 89 150 159 132 120 36 115 80 56 63 126 37 82 122 62 33 178 61 99 80 164 139 53 88 87 185 122 66 77 249 177 73 98 136 108 108 119 79 83 108 94 95 89 114 156 55 151 93 145 61 114 178 59 85 101 127 137 133 49 104 78 54 68 78 166 77 67 118 78 98 161 48 67 133 77 126 108 79 51 109 53 104 102 173 126 105 68 114 107 90 74 80 57 112 54 130 102 100 136 107 134 98 74 124 85 121 111 100 61 84 68 90 195 79 107 70 25 118 72 113 156 97 110 67 113 65 134 70 44 128 80 88 102 171 114 100 149 110 62 83 102 107 124 133 56 73 117 80 100 117 108 27 98 168 61 54 59 69 117 156 66 78 128 104 77 149 89 100 71 106 54 60 147 135 82 116 161 149 180 118 118 99 111 84 137 48 73 85 98 102 142 101 179 183 79 116 86 139 69 60 60 125 86 138 49 96 61 98 112 59 134 133 39 132 189 86 86 87 74 56 87 119 127 104 130 108 111 89 117 69 122 67 174 132 46 101 143 100 177 193 52 62 104 80 107 113 105 45 43 98 87 195 75 96 76 93 96 53 130 190 84 109 88 109 140 150 92 75 56 106 100 93 107 119 130 87 58 140 44 95 101 173 95 109 110 63 97 128 59 196 101 126 30 74 188 76 115 8 79 84 142 114 167 99 95 101 28 141 80 140 89 74 65 103 176 161 152 163 103 139 149 153 152 112 56 122 82 58 237 107 141 95 126 63 114 170 92 73 118 61 104 134 50 37 136 44 109 77 139 56 127 156 95 53 128 137 98 136 107 111 102 75 64 115 102 96 55 105 100 84 75 65 40 183 131 48 85 87 80 142 70 92 97 92 108 86 81 100 85 75 146 103 51 82 126 96 119 120 101 78 105 151 110 183 45 177 100 75 36 143 95 51 81 173 76 67 88 119 123 95 117 80 161 136 135 74 111 107 39 107 270 141 85 48 79 126 113 140 92 103 191 99 123 164 80 118 81 163 171 138 112 36 157 67 81 123 111 166 160 105 68 101 34 116 137 84 184 71 115 90 114 94 65 135 114 151 106 87 109 66 134 79 128 146 88 72 83 137 99 121 187 119 77 125 145 111 138 115 95 87 134 63 55 131 170 196 127 128 58 114 141 100 156 64 87 87 154 115 151 74 233 128 100 89 56 108 52 80 101 71 159 61 111 49 173 148 114 146 75 175 66 91 105 86 140 104 148 125 230 108 44 107 114 122 125 143 122 151 88 101 193 114 174 138 81 92 73 166 54 93 41 107 116 95 84 117 116 118 88 129 153 97 59 83 109 101 73 97 129 63 161 24 73 101 164 64 90 106 165 78 142 92 160 130 172 103 82 158 118 117 148 61 149 237 63 68 97 141 133 85 106 136 83 43 135 60 114 89 110 63 95 75 110 132 105 162 154 98 216 163 150 145 127 67 181 70 54 106 138 76 68 107 63 174 125 91 101 128 41 56 90 103 60 155 102 85 149 102 86 104 104 51 68 99 91 62 112 55 125 70 71 110 118 101 171 76 99 69 58 111 87 184 47 76 150 44 70 70 172 118 31 63 218 138 58 164 73 81 88 44 105 141 78 117 99 131 106 120 134 44 74 135 109 82 120 133 77 107 123 74 35 95 97 46 102 203 99 81 123 112 126 59 113 172 83 111 218 91 42 115 131 165 96 95 98 82 108 69 85 38 53 67 106 107 114 117 124 160 68 106 128 113 103 66 133 111 134 85 85 49 170 160 87 127 37 137 129 103 74 94 81 59 69 198 208 114 125 96 81 111 99 89 97 32 164 40 76 67 136 78 106 15 54 149 87 139 78 109 67 62 68 136 40 147 28 103 72 166 70 66 61 183 157 76 142 82 143 87 98 118 135 108 169 119 108 82 114 107 69 118 148 138 169 81 146 130 131 181 92 95 109 220 76 126 57 104 149 154 103 92 74 155 82 96 120 70 119 50 87 123 113 69 179 123 66 96 154 154 182 51 141 64 64 120 40 79 147 76 121 132 148 131 138 158 93 158 142 129 148 96 63 30 42 97 94 67 76 177 163 119 75 96 152 28 178 121 80 150 135 62 98 112 59 134 77 112 95 25 34 217 155 145 156 100 54 114 31 93 93 173 112 129 93 72 133 69 104 103 121 130 67 23 147 74 180 148 115 116 25 88 103 93 143 66 110 123 70 107 64 134 95 108 140 155 155 56 35 55 135 108 124 123 109 143 87 110 121 101 84 106 92 61 84 85 95 55 113 64 177 112 91 72 134 42 117 151 109 48 115 115 44 130 116 55 127 162 45 95 137 77 8 152 54 65 64 69 143 85 95 113 69 29 145 176 86 125 161 146 132 74 128 116 137 94 138 52 102 125 96 101 105 71 141 124 108 133 77 35 87 52 33 79 127 111 109 141 134 59 43 138 128 145 68 65 61 127 130 103 226 97 74 51 75 91 145 81 42 84 112 61 108 67 130 108 127 89 108 68 114 83 88 109 133 11 85 179 19 23 130 117 28 112 71 33 149 61 184 158 105 113 122 116 200 113 73 130 97 107 102 123 106 62 152 137 93 87 56 61 123 102 135 90 86 136 49 115 147 108 48 187 76 94 52 200 68 68 134 25 84 119 193 140 138 46 207 129 186 128 104 46 87 125 118 84 73 72 72 43 93 41 96 82 164 97 88 64 148 83 58 142 134 40 69 97 159 95 144 51 190 77 184 106 160 90 67 150 60 108 89 50 110 130 63 56 126 76 51 54 97 75 61 74 89 84 77 219 160 64 91 180 90 80 69 198 59 97 89 136 56 68 161 72 92 61 70 57 94 134 105 51 83 80 132 73 81 206 43 116 157 147 88 153 133 162 129 70 31 71 129 143 87 175 180 200 65 111 133 35 80 82 92 111 117 79 117 55 101 65 138 75 95 99 160 69 39 166 60 54 103 158 112 161 130 77 64 161 53 20 131 115 128 88 54 102 100 121 114 54 156 140 65 114 87 125 116 30 143 54 79 137 116 98 124 101 161 59 25 151 121 38 98 48 67 208 97 81 177 107 104 123 161 97 107 150 160 100 150 126 44 53 63 91 178 86 79 125 143 153 152 31 98 92 105 49 90 117 88 96 115 173 126 83 170 109 129 63 125 108 172 92 100 111 161 145 113 69 48 70 84 48 99 127 98 71 86 34 87 138 159 122 82 29 84 117 87 93 116 48 75 142 44 148 101 90 79 45 80 163 49 79 81 103 96 87 128 158 127 53 193 155 119 106 85 73 70 41 85 111 180 62 69 138 52 153 119 133 133 148 70 101 69 79 149 188 94 149 70 63 59 106 78 46 102 150 120 191 99 138 88 83 163 140 225 146 118 124 83 90 119 140 57 150 138 180 87 107 73 76 60 79 68 135 158 120 148 95 150 84 62 96 93 119 143 189 161 179 48 89 59 92 158 28 114 127 153 191 135 95 143 31 50 85 63 70 135 110 102 74 188 117 169 108 127 120 21 192 69 88 167 46 87 84 69 118 115 77 129 128 108 32 48 136 147 119 66 83 25 91 69 127 94 92 88 79 94 86 48 100 104 203 68 64 126 110 83 117 130 102 123 95 105 49 71 104 139 140 124 55 165 135 43 102 32 119 86 61 85 63 128 118 158 105 63 109 130 110 82 104 70 44 151 92 132 70 127 181 33 159 48 165 87 102 130 23 136 98 146 132 112 212 77 60 42 133 59 85 80 100 115 110 97 181 119 96 77 214 95 91 116 64 38 63 87 70 78 103 118 197 115 109 107 52 70 99 122 123 122 53 45 60 61 96 67 71 74 189 129 72 195 34 104 45 110 93 148 69 41 106 115 94 105 53 96 53 85 112 159 88 90 143 140 39 60 88 182 103 102 116 157 141 85 88 131 121 75 83 54 145 49 93 217 51 121 123 86 108 104 49 64 106 55 115 29 76 147 24 104 52 56 57 169 145 55 97 100 93 107 103 110 58 51 84 82 60 228 155 80 114 139 189 106 62 75 40 131 58 93 77 77 127 158 124 96 90 150 126 151 59 77 79 64 126 145 82 83 115 103 29 95 63 66 151 159 27 96 143 106 81 105 110 140 85 80 86 72 141 78 119 129 172 126 147 92 166 124 30 65 86 99 196 56 30 52 101 101 233 173 113 77 58 86 104 121 129 135 48 62 60 62 29 101 140 144 76 100 145 63 88 127 89 41 140 119 85 109 49 142 105 123 23 129 144 66 45 97 115 201 172 127 106 58 80 119 88 68 33 156 184 116 67 130 64 68 53 109 53 131 99 127 60 75 98 115 53 117 129 135 128 50 111 71 98 65 116 199 149 95 59 117 133 137 68 25 99 63 75 61 126 126 117 118 176 101 97 161 113 121 71 103 123 90 123 102 161 133 110 156 41 43 133 90 108 56 118 194 152 71 116 84 115 64 89 107 92 133 149 158 67 94 44 130 141 20 65 90 151 111 86 84 76 43 80 85 168 88 94 87 53 80 123 123 95 37 93 170 77 62 80 211 85 171 132 42 66 23 130 81 166 101 81 35 133 97 31 136 150 112 67 151 134 67 78 80 38 57 96 70 184 64 76 43 142 73 48 20 120 123 72 79 134 131 92 93 137 97 166 114 54 55 43 161 90 128 54 54 118 115 55 103 125 68 129 123 156 104 113 115 90 152 138 97 147 59 117 81 49 117 95 213 51 133 98 170 82 86 60 74 66 51 114 84 91 80 135 92 62 100 120 131 115 62 86 184 165 151 40 117 83 158 56 128 142 79 123 109 139 53 22 120 93 119 98 107 102 162 52 130 72 100 117 70 118 256 150 61 37 125 141 94 97 101 149 85 136 136 42 115 111 84 156 79 77 75 133 60 85 77 111 51 81 159 36 102 44 148 149 139 60 88 86 93 71 98 65 57 118 36 86 37 49 128 130 74 61 81 79 109 78 102 70 121 116 115 148 50 70 108 86 134 106 119 107 92 102 127 49 117 103 125 120 93 117 112 119 102 152 148 65 90 25 73 190 87 84 109 163 97 83 99 72 143 81 130 131 88 68 116 76 106 80 130 75 152 152 114 108 84 130 137 114 55 57 156 99 132 156 110 46 165 164 179 159 102 143 112 70 157 33 50 126 103 98 132 73 158 77 107 151 57 182 55 85 101 137 110 90 147 111 114 134 97 118 145 64 87 75 56 121 137 103 91 79 51 151 120 97 118 98 91 115 46 132 78 118 115 166 66 69 126 169 142 71 104 186 76 217 51 140 124 65 135 79 151 200 21 84 71 148 182 114 127 45 205 94 154 111 94 102 110 98 41 97 71 156 65 81 172 83 51 120 66 78 99 70 133 57 81 151 116 94 109 115 154 102 182 137 104 168 99 66 107 95 75 116 113 109 75 71 164 128 150 122 58 213 150 143 167 72 166 63 100 101 106 113 114 61 69 107 71 136 72 97 87 62 159 64 158 69 204 83 112 106 184 92 123 94 100 131 175 111 149 102 136 135 47 106 40 128 96 250 131 105 105 143 92 82 119 89 157 100 118 111 67 118 163 209 87 205 131 120 94 106 92 146 40 47 120 79 130 141 113 97 68 170 120 83 59 105 93 183 90 50 134 87 86 98 44 82 88 117 152 127 159 129 49 131 111 109 96 40 166 23 138 10 97 101 75 56 139 113 63 138 67 68 128 120 164 36 115 83 64 31 50 144 79 105 79 168 105 121 168 93 57 96 171 102 137 133 106 48 92 155 50 43 61 44 127 182 144 149 62 133 137 124 61 52 102 95 111 115 152 57 88 49 77 143 106 111 88 80 151 119 105 142 128 91 79 62 57 79 109 109 118 140 132 17 97 171 88 124 49 109 84 111 124 16 67 120 31 151 115 71 98 62 115 112 60 70 131 120 161 197 42 128 132 166 121 112 68 149 103 92 45 143 52 118 101 119 87 78 52 80 82 188 112 78 31 99 121 56 112 56 111 63 100 209 99 132 87 97 103 51 157 108 120 115 159 129 71 91 55 108 51 101 83 118 68 162 44 98 80 88 88 133 106 140 64 171 189 232 148 91 214 155 177 59 68 78 48 95 150 155 42 86 93 126 42 156 99 77 104 51 114 40 102 217 36 127 169 132 145 88 126 103 70 71 90 183 188 60 155 89 89 56 79 138 127 93 110 117 144 48 53 92 93 138 142 33 129 70 133 170 96 237 149 111 19 136 116 181 58 119 100 113 66 137 73 36 118 47 65 64 24 84 110 182 110 110 208 74 68 50 118 81 95 47 118 129 85 121 115 106 30 86 91 174 104 73 135 157 74 117 169 140 105 28 93 49 100 75 72 81 86 103 92 124 146 141 76 49 180 49 34 29 201 85 64 60 69 109 11 97 91 42 133 113 107 99 98 25 116 112 74 27 109 125 114 128 44 76 78 65 203 100 61 95 100 98 77 57 44 79 114 78 86 43 58 71 134 109 120 101 122 54 107 100 101 63 32 101 92 109 87 171 114 135 79 207 144 92 45 54 108 104 88 50 122 79 144 113 134 75 145 35 90 172 56 78 123 139 72 163 41 107 118 84 106 67 90 96 97 81 135 46 135 108 131 77 64 151 176 134 109 64 91 29 100 134 112 68 70 102 148 93 85 120 76 129 131 95 131 26 157 91 105 108 36 56 191 56 47 92 45 32 66 82 127 89 68 142 89 97 68 81 46 117 126 85 69 102 56 182 136 96 101 101 154 91 83 72 159 72 78 185 149 143 78 118 75 100 154 102 103 180 58 138 44 74 60 56 86 144 84 79 75 179 189 119 105 145 126 117 158 184 103 103 135 176 54 185 87 64 59 137 86 116 183 31 98 78 57 158 95 63 151 147 47 106 159 166 95 45 59 91 98 86 139 64 113 91 70 109 205 107 139 47 84 102 187 39 151 108 84 105 94 97 92 88 157 80 161 110 85 160 60 92 100 120 150 128 118 65 85 91 147 107 145 122 90 74 110 143 121 108 132 158 39 86 98 63 112 135 105 78 98 49 77 92 92 159 74 107 31 102 72 36 83 102 103 152 99 89 134 32 122 49 130 65 164 118 116 104 140 101 12 96 88 132 11 44 139 64 115 56 224 72 146 119 35 155 127 107 137 74 196 179 78 99 104 34 97 157 134 120 86 67 99 104 141 127 92 74 88 123 91 110 67 86 129 57 134 165 149 78 86 42 64 33 16 159 120 105 123 71 161 65 84 46 47 190 142 119 124 62 75 63 45 77 125 119 83 106 56 119 132 10 125 98 127 85 77 131 63 81 137 31 145 103 130 43 101 56 151 113 35 123 96 138 62 72 127 149 122 96 168 90 174 86 25 164 136 87 132 92 121 76 190 93 154 156 95 35 124 165 75 53 61 189 164 102 83 57 55 105 108 123 131 78 76 103 90 167 78 161 92 157 62 91 142 117 177 68 48 168 40 78 83 95 61 105 90 53 135 24 152 86 86 81 122 90 33 99 149 88 101 66 73 97 66 99 186 104 39 58 100 136 113 65 106 38 82 163 116 92 103 117 49 99 129 105 147 109 91 92 47 119 134 76 124 150 103 137 66 118 86 125 146 160 67 113 119 77 78 117 87 76 79 104 106 51 43 130 183 81 125 42 101 143 141 147 117 90 136 24 126 74 75 70 70 177 80 54 144 92 157 137 63 75 63 104 159 153 59 38 122 97 59 85 150 75 139 93 85 124 90 139 120 149 139 82 114 25 83 60 102 55 116 70 87 160 80 125 109 49 91 87 126 97 111 71 127 91 66 118 88 168 175 138 106 73 159 98 96 113 87 94 128 141 94 105 118 171 85 211 76 81 56 129 125 83 52 125 100 121 146 132 81 143 75 89 147 120 183 132 83 146 104 78 108 134 142 66 71 157 45 143 110 77 39 71 131 91 155 88 92 161 106 151 107 107 66 129 102 140 133 136 126 118 141 124 115 143 102 69 167 162 103 157 179 122 102 167 118 146 167 93 54 117 149 59 81 101 98 108 173 148 111 62 136 83 93 81 105 92 90 111 44 77 89 112 77 147 176 54 77 68 52 131 107 79 242 155 57 154 183 50 221 142 53 87 126 118 15 68 119 125 59 58 48 78 93 85 118 105 154 113 133 190 134 90 174 99 163 95 28 104 145 31 20 78 97 65 99 96 65 94 107 90 141 63 133 37 69 125 176 34 60 108 62 83 68 70 71 151 110 66 122 98 166 130 102 68 117 175 71 155 110 62 133 134 90 155 90 101 136 97 84 49 92 138 150 41 174 74 136 163 135 91 128 84 97 183 157 41 144 102 103 119 86 102 91 129 91 69 47 43 161 124 85 95 145 104 57 59 142 98 132 74 102 120 68 76 116 172 123 138 154 35 70 106 180 79 120 79 118 49 73 125 111 92 60 132 51 127 147 89 151 82 73 183 141 120 102 69 96 102 77 147 122 120 42 116 97 138 44 148 122 158 136 74 113 163 57 81 152 106 109 146 93 147 69 51 55 103 132 107 50 56 88 105 113 31 131 115 127 67 152 103 115 65 59 84 141 30 58 63 111 109 47 166 47 98 144 17 184 180 176 90 84 85 85 73 144 114 96 135 78 63 43 22 134 59 156 50 166 132 134 99 79 118 174 105 157 113 60 61 80 168 41 47 85 105 131 142 89 120 134 161 114 97 86 79 37 96 50 82 44 154 41 132 116 39 143 164 77 124 27 83 124 51 229 133 101 132 136 80 104 122 74 43 79 156 97 74 96 184 73 139 163 77 94 50 134 79 63 88 82 64 138 123 158 148 92 177 103 54 13 96 104 112 110 128 120 81 62 39 20 109 76 109 161 136 67 94 115 70 103 98 49 74 73 60 89 127 176 47 144 107 111 110 116 142 71 107 118 142 92 154 74 96 115 21 68 143 93 155 90 120 129 120 22 125 94 121 56 102 102 108 107 67 174 141 89 82 121 110 132 181 126 110 52 145 90 72 76 42 65 67 101 106 144 107 70 157 120 107 127 99 109 69 43 116 114 89 56 100 145 96 106 123 24 39 166 107 67 123 207 64 140 29 94 143 125 147 61 81 67 110 109 54 78 75 177 131 41 92 84 82 66 102 135 87 120 86 81 105 116 164 89 39 147 95 114 138 135 78 150 100 147 83 105 48 59 97 97 133 150 124 68 150 186 115 69 74 126 110 62 122 151 117 62 157 143 86 64 104 158 155 85 157 133 87 153 149 85 143 50 98 97 131 124 98 189 82 68 62 186 94 92 67 141 105 173 96 106 80 115 82 95 60 65 87 78 110 111 111 149 109 155 178 124 105 133 107 128 42 73 96 95 57 176 107 50 51 96 103 65 100 76 125 62 60 140 110 101 145 107 134 110 82 111 79 91 55 19 175 68 126 104 135 139 53 82 76 121 154 57 27 56 90 154 44 117 160 126 122 59 77 109 115 51 113 95 29 144 91 73 133 74 125 122 119 58 134 50 60 132 125 194 176 136 172 168 132 35 84 95 194 56 71 84 54 115 171 139 95 81 133 61 155 109 120 57 102 46 119 103 165 98 88 145 106 146 79 97 83 53 56 120 56 123 78 96 60 136 127 132 66 84 29 163 123 115 82 118 128 107 161 58 76 170 61 159 71 58 116 126 45 101 78 73 163 130 109 136 91 123 107 105 65 114 117 183 104 135 141 190 43 105 103 110 113 119 103 140 162 83 106 126 97 116 199 166 80 53 104 102 113 73 71 148 89 76 54 173 189 32 53 138 46 75 28 166 157 158 93 133 95 162 100 140 43 172 122 136 67 164 155 64 124 111 104 100 82 57 99 81 152 70 104 94 54 153 112 76 181 90 148 82 138 128 65 80 177 39 80 45 54 72 110 109 30 88 145 78 48 160 91 127 90 102 123 108 89 110 90 65 125 146 75 84 126 89 161 90 111 88 126 83 35 138 101 145 93 100 48 25 94 167 191 82 117 101 99 102 134 60 103 92 101 97 95 138 154 49 91 104 77 149 128 140 85 127 61 155 119 95 97 71 105 111 144 77 118 179 155 145 171 107 133 68 43 72 56 40 39 115 177 59 104 49 151 219 90 139 81 90 57 170 121 66 90 96 133 75 99 100 33 40 39 45 97 74 171 126 32 134 76 81 38 80 52 155 90 84 68 136 145 65 155 108 145 113 79 97 102 70 157 162 91 84 130 127 141 43 41 72 48 142 66 114 80 74 101 91 89 75 150 166 49 65 82 98 36 83 139 135 60 83 59 52 51 133 92 59 73 144 51 109 77 98 117 73 156 83 129 153 136 92 80 131 116 55 81 116 84 90 178 100 80 72 99 69 31 126 77 147 88 123 95 125 145 84 84 127 158 91 68 87 171 112 108 68 58 205 64 51 138 84 199 126 36 93 177 106 72 90 90 127 147 86 120 143 119 102 129 119 96 111 114 62 117 80 125 38 87 104 137 172 72 74 94 73 143 82 83 58 134 89 119 145 140 127 89 81 103 109 169 127 49 71 87 67 100 93 143 81 47 143 82 91 122 124 65 98 63 62 73 129 116 78 112 131 127 112 87 115 185 34 127 98 110 77 181 96 151 115 70 54 148 38 127 56 125 70 148 107 106 162 124 49 167 136 174 56 49 70 98 94 138 80 78 67 107 62 174 132 165 125 73 117 20 156 107 95 134 81 91 175 147 89 </t>
-  </si>
-  <si>
-    <t>GAM(0.24791524416459576, -5.886279978771954e-29, 0.5861338220883375)</t>
-  </si>
-  <si>
-    <t>0 0 0 0 1 1 0 0 0 2 0 1 0 2 4 0 1 0 0 2 0 0 0 1 0 1 0 0 0 1 3 2 1 0 1 1 1 0 3 2 1 2 1 0 1 0 0 1 0 1 0 0 0 0 2 1 1 0 0 1 1 0 0 0 3 1 1 0 2 1 0 0 2 1 2 0 0 2 1 0 1 0 1 0 0 1 0 1 0 1 0 0 0 3 2 2 0 2 1 1 0 1 0 0 1 0 0 1 1 2 2 0 1 0 0 2 0 0 1 0 1 1 0 1 1 1 1 3 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 2 3 1 0 2 1 1 0 0 1 1 0 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 1 1 2 0 0 2 1 2 0 1 2 1 1 1 0 0 0 1 1 3 1 0 1 0 2 2 0 1 0 1 1 3 1 0 4 0 0 2 1 0 0 0 1 0 1 0 2 1 1 0 1 0 2 0 1 1 0 2 1 1 1 0 2 2 2 0 1 0 1 1 0 0 0 0 1 2 2 1 3 0 2 1 0 1 2 0 0 1 0 0 0 1 1 2 0 2 0 1 0 0 1 0 0 2 0 2 1 1 2 0 2 2 0 1 2 0 0 0 0 1 1 1 1 2 1 1 2 0 0 3 1 2 0 0 1 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 2 2 0 0 0 0 0 0 1 0 2 1 0 0 1 1 1 0 0 1 0 4 0 0 1 2 0 0 3 1 0 0 2 2 2 0 1 0 1 0 2 1 2 1 1 1 2 0 1 0 0 1 0 0 0 1 1 0 1 1 1 2 0 0 1 0 1 1 0 2 1 0 1 1 1 3 0 0 0 0 2 0 3 1 1 0 1 1 1 2 0 2 3 2 0 3 2 1 1 1 0 0 1 1 2 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 4 0 0 0 1 0 1 2 1 0 1 1 0 1 0 2 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 2 1 2 4 0 1 0 0 0 0 1 0 2 0 1 2 0 4 1 1 0 1 1 0 0 0 2 1 0 1 0 1 2 0 1 0 0 2 2 2 0 0 0 3 0 1 0 1 0 1 3 0 0 1 0 1 1 1 1 0 1 1 2 1 1 1 3 0 1 0 0 2 0 0 0 2 0 1 1 2 0 0 1 0 1 1 0 3 0 0 0 2 1 2 1 2 1 1 0 0 1 0 0 0 1 1 2 0 0 0 0 0 1 2 3 2 1 2 1 1 0 0 1 0 0 2 1 0 2 1 1 0 0 1 0 0 0 0 1 0 0 1 0 2 0 0 0 1 2 0 3 1 1 1 1 0 1 1 4 0 0 2 1 0 0 0 3 1 0 0 2 1 1 0 0 0 2 2 0 0 1 0 1 2 1 1 0 0 3 0 3 1 1 1 0 0 1 0 1 2 2 2 0 2 2 1 0 1 1 1 1 0 0 1 1 1 1 0 0 0 1 0 0 2 0 0 0 1 1 0 0 2 1 0 0 0 1 0 4 0 0 2 2 0 0 0 1 1 0 1 0 0 1 0 1 2 3 0 0 1 0 0 1 3 1 1 3 0 1 1 0 1 1 0 1 0 1 0 2 1 2 3 2 0 1 2 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 2 1 0 1 0 0 1 1 2 0 0 0 1 0 1 0 2 3 0 0 0 0 2 1 1 1 1 0 0 0 0 0 1 2 2 0 1 1 2 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 2 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 1 0 1 0 1 0 2 0 0 0 0 3 1 2 0 0 1 1 0 1 1 0 1 4 1 1 0 1 1 2 1 0 1 0 3 3 1 0 1 1 0 1 2 1 0 0 0 1 0 0 1 3 1 1 1 1 0 1 0 2 0 0 2 0 1 2 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 1 3 1 1 1 0 0 1 1 0 0 2 0 0 3 0 0 1 1 2 3 0 0 1 2 0 0 0 1 0 2 0 0 0 2 0 0 0 2 1 1 1 0 1 0 0 0 0 2 0 0 1 2 1 3 2 1 1 1 0 0 2 0 0 2 0 1 0 0 2 0 0 0 1 0 1 2 2 0 0 1 3 1 2 3 0 2 0 2 1 1 0 1 1 0 1 1 1 0 0 1 2 1 0 0 1 1 1 1 0 1 0 1 1 1 0 0 1 1 2 1 1 0 1 2 0 0 0 1 1 0 2 0 0 1 1 0 2 1 1 1 1 2 4 0 0 0 1 0 0 0 0 2 0 0 2 0 1 1 1 0 0 0 1 0 0 0 2 1 1 1 3 2 1 0 0 0 0 1 1 0 0 1 1 2 0 0 2 0 1 0 3 0 1 0 0 0 2 2 0 0 2 0 0 0 0 1 1 0 1 2 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 2 3 0 1 0 0 1 1 0 2 0 0 3 2 1 0 2 1 1 1 0 1 1 1 1 0 0 1 0 0 2 0 1 1 0 2 1 0 1 1 3 3 1 0 0 1 1 0 0 0 2 2 0 0 0 1 2 0 0 2 0 2 2 1 2 0 0 3 0 1 1 0 1 0 0 1 1 0 0 1 1 2 0 0 2 2 1 2 2 2 1 1 1 0 2 2 0 1 1 1 0 1 4 3 0 2 0 2 0 3 0 0 2 1 0 1 1 1 0 0 2 1 1 2 1 3 2 0 0 1 1 0 2 2 0 0 2 3 1 0 0 0 2 3 1 0 2 0 0 1 0 2 0 0 1 1 0 0 1 2 1 1 0 1 1 1 0 0 1 1 0 0 2 0 1 1 2 0 2 1 0 2 1 1 2 0 2 0 0 0 3 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 2 1 1 2 0 0 1 2 1 0 0 0 1 1 1 0 0 1 0 1 2 1 0 0 3 0 0 0 1 0 0 2 0 1 0 1 0 0 1 1 2 1 1 1 1 0 1 2 2 1 2 1 1 0 0 0 2 1 0 0 0 0 1 2 0 2 1 1 2 0 0 1 0 2 2 0 0 1 3 0 4 0 0 1 1 1 0 0 1 0 1 0 2 0 3 2 1 2 0 2 0 1 2 2 0 2 1 1 0 1 2 1 4 1 0 0 0 1 1 0 1 1 0 0 1 1 1 1 1 1 2 0 0 2 1 1 0 0 2 2 0 0 0 0 0 0 0 1 1 1 2 3 1 1 1 0 2 1 0 0 0 0 0 0 1 1 1 1 1 2 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 2 0 2 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 0 1 0 0 3 1 1 0 1 0 0 1 1 0 0 2 0 0 1 0 1 3 0 1 0 0 0 1 1 2 3 0 0 0 1 3 0 1 1 0 0 1 0 2 1 2 0 1 2 1 1 1 1 0 2 0 2 0 2 1 1 0 1 0 1 2 1 2 1 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 3 0 1 0 0 0 0 1 2 1 1 0 0 1 0 1 2 3 1 1 0 2 3 1 1 0 2 1 0 2 0 0 1 0 3 0 1 2 0 2 0 0 1 1 2 1 0 0 0 0 0 0 0 0 1 1 1 2 1 0 2 0 3 1 1 0 0 1 0 0 0 1 2 0 1 0 1 0 1 1 0 0 0 0 1 2 0 0 1 3 1 0 1 1 1 0 2 0 1 0 0 1 1 2 2 0 1 2 0 0 0 0 0 1 0 1 0 1 0 2 0 0 2 0 1 1 0 0 0 2 0 0 1 2 2 0 0 1 0 1 1 1 1 0 1 0 1 0 1 1 1 0 0 0 1 1 2 0 2 0 1 0 1 2 1 2 0 0 1 0 0 1 0 0 2 2 0 1 0 0 0 0 2 0 0 0 2 1 0 0 0 1 0 1 0 0 2 0 0 0 3 0 0 1 1 1 1 0 1 0 3 0 0 2 0 0 1 1 0 0 0 0 2 1 1 2 1 1 0 0 1 2 1 0 1 1 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 1 0 2 1 2 1 3 0 1 0 1 2 1 0 0 2 1 1 2 1 0 2 2 1 0 1 0 1 0 0 0 1 1 1 0 0 2 0 0 2 2 1 1 1 1 1 2 0 0 2 0 0 0 2 2 2 0 0 0 2 1 1 1 0 1 0 2 0 0 0 0 2 0 0 0 3 2 1 0 4 0 1 2 1 1 1 1 0 0 1 0 3 0 1 0 0 0 0 2 1 1 1 1 0 1 0 0 2 0 0 2 0 2 0 0 1 0 2 1 1 0 1 3 1 1 2 1 0 0 0 0 0 2 1 1 1 0 1 3 1 0 0 0 1 1 0 0 0 0 0 2 0 1 0 3 1 1 1 1 1 0 0 2 1 1 1 2 2 0 2 1 0 1 2 2 0 0 2 0 0 1 1 1 1 3 2 2 4 0 0 2 0 1 1 0 1 0 1 1 0 0 1 2 1 2 2 0 0 0 1 0 0 0 0 1 1 2 2 0 0 1 1 0 1 1 1 0 0 0 2 0 1 0 1 1 2 1 1 1 1 1 0 1 1 0 1 0 0 0 2 1 0 1 0 1 2 2 0 1 1 0 0 3 1 0 0 0 0 3 1 0 0 0 0 1 0 1 0 0 0 1 0 1 2 1 1 0 2 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 1 1 2 0 0 2 1 2 1 1 0 1 0 0 1 1 0 0 4 1 1 1 0 0 1 0 2 2 0 0 0 1 1 0 1 2 2 1 2 0 1 4 0 2 0 1 0 0 0 2 1 0 0 0 1 0 0 0 1 0 1 0 0 1 2 0 1 0 2 2 0 1 2 1 0 0 1 1 2 0 0 1 1 2 1 2 1 1 1 1 0 0 0 0 1 0 0 0 2 0 0 3 1 2 0 0 0 1 1 0 0 3 1 1 1 0 2 1 1 2 1 0 2 1 2 2 0 0 1 0 1 0 1 1 1 1 0 0 0 1 2 2 0 0 1 2 1 0 1 0 0 0 1 1 2 2 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 2 0 0 0 0 1 1 1 0 3 3 0 1 0 0 0 1 3 1 3 0 0 2 1 0 0 0 0 0 1 0 1 1 2 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 1 0 1 2 0 0 1 0 0 2 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 2 2 2 1 1 1 2 0 1 0 0 2 0 1 1 1 1 1 2 0 0 1 0 0 0 0 1 1 0 3 1 1 0 1 0 1 2 2 3 0 1 0 0 0 1 2 0 0 0 2 0 1 1 1 2 0 0 3 0 1 3 0 2 0 2 1 0 1 1 1 0 1 0 3 0 1 1 0 0 0 0 0 0 0 1 2 2 2 0 0 2 1 0 3 2 1 0 0 0 2 1 0 0 1 1 1 2 2 2 0 0 1 0 0 2 2 1 1 2 3 1 0 0 0 0 2 2 3 1 0 0 0 1 0 2 1 0 0 1 1 1 0 1 1 2 2 1 1 1 3 0 1 0 2 2 0 2 2 1 1 1 1 1 0 0 0 0 0 1 0 0 3 0 0 0 0 0 1 1 0 0 0 0 0 1 3 0 2 1 1 0 1 1 1 1 1 0 0 1 1 0 0 2 0 3 1 0 1 2 1 2 1 1 2 2 1 0 1 0 1 0 0 0 1 0 1 1 1 0 0 0 1 0 2 1 0 1 2 0 1 0 2 0 1 0 1 0 1 0 0 1 0 1 2 1 2 1 0 1 1 0 1 0 0 1 1 2 0 1 0 1 1 1 1 2 1 0 0 1 1 0 1 1 1 0 0 0 1 2 1 0 1 3 1 0 0 1 2 2 0 0 2 1 1 0 0 0 2 2 0 1 1 1 1 1 1 1 2 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 1 0 0 1 2 0 0 1 2 1 1 3 0 1 0 1 1 0 0 0 4 2 0 0 1 1 1 0 1 0 4 0 1 1 1 0 0 0 0 0 2 0 2 1 1 1 1 1 0 2 3 1 0 1 4 1 2 0 1 2 2 0 1 0 0 0 0 1 2 1 2 1 1 0 1 0 0 0 1 2 2 0 0 1 2 2 1 1 1 1 1 1 1 0 3 0 1 0 0 0 0 1 1 2 1 0 0 1 3 2 0 0 1 2 0 1 1 0 0 3 1 2 3 0 1 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 3 0 2 1 2 3 3 2 0 3 0 0 1 2 1 1 2 0 0 2 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 2 1 0 0 1 0 2 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 2 1 0 2 2 0 0 1 1 0 1 2 2 0 0 0 0 0 0 2 0 0 1 1 1 1 3 1 0 3 0 2 0 0 0 1 0 1 0 0 1 0 2 1 0 0 0 1 2 0 1 1 1 1 0 0 1 0 2 0 2 1 0 1 0 0 0 0 1 0 1 0 0 0 2 2 2 0 2 0 1 2 0 0 1 2 0 1 0 0 0 0 0 1 0 0 1 1 2 0 2 1 1 1 0 0 2 2 1 2 2 1 1 1 0 0 0 0 1 2 1 2 1 1 1 0 2 2 1 0 1 0 0 0 2 0 2 0 1 0 3 1 0 1 0 0 2 0 2 1 0 0 0 1 2 2 0 1 0 1 1 1 2 1 0 0 0 0 0 0 0 0 2 1 0 0 3 1 0 0 2 0 2 0 1 0 2 0 0 1 3 0 0 1 0 2 0 0 0 0 0 1 3 3 2 0 1 1 0 1 0 0 1 0 0 0 1 1 2 1 0 2 0 0 0 2 1 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 2 0 1 2 1 1 0 0 0 2 0 0 0 1 0 0 1 3 1 1 1 1 0 0 1 0 0 1 0 1 2 2 1 3 0 0 1 0 0 2 1 1 2 1 0 0 0 0 1 2 0 1 2 0 1 0 1 3 3 0 0 1 1 1 1 2 1 0 1 0 0 0 0 0 1 2 1 0 1 1 1 0 0 1 0 2 2 1 0 2 3 0 0 2 0 0 0 0 0 1 1 0 1 2 0 0 1 1 0 0 0 2 2 1 1 0 0 2 1 1 0 3 0 0 1 0 2 1 1 1 0 0 0 2 0 2 0 1 0 2 0 1 1 1 1 0 0 1 4 0 0 0 0 1 1 0 3 0 1 2 3 1 0 2 1 2 1 1 1 1 2 0 0 1 1 1 1 0 0 1 1 0 1 0 0 1 3 1 2 1 0 0 1 2 0 0 2 0 0 1 1 1 1 0 0 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 0 2 0 1 1 0 1 3 1 1 2 1 0 1 0 1 1 1 1 0 1 0 3 1 1 1 1 0 1 0 1 1 2 0 0 1 0 2 0 2 1 0 1 0 0 2 0 1 0 0 0 2 0 0 0 1 3 1 0 0 3 0 0 0 2 0 0 1 0 0 1 2 0 2 0 0 0 0 0 0 1 0 0 0 0 3 0 1 1 2 0 1 1 1 1 0 1 0 0 0 2 1 0 1 1 0 0 3 0 1 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 2 1 0 2 0 1 2 2 0 1 3 0 0 1 2 2 1 1 1 0 0 2 1 0 0 0 1 1 0 1 0 0 0 1 2 1 0 1 2 1 0 2 0 2 0 0 1 0 1 1 1 0 0 2 1 0 0 0 1 1 1 0 1 2 0 1 2 0 1 1 0 1 1 2 1 0 0 0 3 3 0 0 1 0 2 2 0 2 3 0 2 1 1 0 0 0 1 1 0 1 0 2 0 0 1 0 0 1 0 0 0 0 1 2 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 2 0 0 1 1 0 1 0 2 1 1 1 0 1 1 1 1 0 0 0 1 0 0 0 1 3 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 2 1 1 1 0 1 1 0 1 1 2 1 1 1 0 1 1 0 0 0 2 0 0 1 0 1 2 2 0 1 0 0 0 0 0 1 1 0 3 0 0 2 0 1 1 1 3 1 1 2 1 0 1 0 0 1 0 1 4 2 0 0 0 0 0 1 2 2 1 0 0 1 0 1 0 0 2 1 2 0 0 1 1 0 1 3 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 0 1 0 2 1 0 0 0 2 0 0 1 1 2 0 1 1 1 1 0 2 1 1 0 0 0 1 0 1 1 1 0 1 1 1 2 0 0 1 1 1 0 2 2 0 0 2 1 0 0 0 0 1 1 1 4 1 0 0 1 0 0 1 1 1 1 2 1 1 0 0 0 1 3 0 1 1 2 0 0 0 1 0 0 0 1 3 1 0 1 2 1 2 0 0 0 2 1 0 1 0 0 0 3 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 1 2 0 0 1 0 1 1 1 1 1 1 1 2 0 1 1 0 1 1 3 0 0 1 0 0 2 0 1 0 0 1 0 0 1 3 2 1 0 0 0 3 1 1 1 1 1 2 0 0 1 0 0 1 1 1 1 0 3 1 2 1 0 0 1 0 2 1 1 0 0 1 1 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 1 1 2 0 1 1 0 2 0 2 1 0 1 0 0 3 1 0 1 1 0 1 2 2 2 2 1 1 0 0 0 0 2 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 3 1 0 0 0 0 0 1 0 2 0 1 0 0 0 2 0 0 1 2 0 1 0 0 0 1 0 1 1 1 1 0 0 2 2 0 1 0 0 0 1 1 1 4 2 2 1 1 1 0 1 1 1 0 1 3 0 1 1 2 0 1 0 1 1 1 1 2 1 0 2 0 1 0 4 2 1 2 0 0 1 3 1 0 1 0 1 0 0 1 2 1 0 1 1 2 1 0 2 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 0 1 2 2 1 1 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 1 1 1 0 0 0 2 0 0 0 2 0 1 0 1 1 1 0 1 1 2 1 2 2 0 1 1 0 0 1 0 1 2 1 0 1 2 0 1 0 1 0 0 0 1 0 1 0 2 1 1 1 1 3 1 3 0 0 1 1 0 0 1 1 0 1 0 1 3 3 1 0 0 0 0 1 2 0 1 1 0 1 1 1 0 4 0 1 1 0 0 1 2 1 1 0 1 1 2 1 1 0 3 1 1 0 0 1 0 1 0 2 0 0 0 0 2 1 0 1 2 0 2 0 0 1 2 1 1 1 1 0 2 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 3 0 0 1 0 1 0 1 0 1 0 1 2 1 3 1 2 1 1 3 0 0 0 1 2 1 2 0 0 1 1 1 0 0 3 1 1 0 1 0 0 0 1 1 3 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 2 1 0 0 0 1 2 0 0 2 1 0 1 1 1 2 0 1 0 1 1 0 0 1 0 0 1 1 1 1 1 1 1 0 0 1 2 2 0 0 1 1 1 0 1 0 0 1 0 1 2 0 2 2 0 1 2 0 0 0 0 1 1 2 0 0 2 0 0 0 0 0 1 1 2 1 0 2 1 1 1 1 1 2 2 0 0 0 0 0 1 2 1 1 3 0 0 0 0 0 2 1 1 0 1 0 0 0 0 2 1 1 0 2 1 1 1 1 1 0 0 0 2 2 1 1 2 1 0 1 1 0 2 1 0 0 0 0 0 1 1 1 0 1 0 2 1 0 0 0 0 0 1 1 0 1 1 3 0 2 1 0 0 0 0 0 1 2 1 1 2 0 0 1 0 1 2 0 0 0 0 0 0 1 1 1 0 1 1 0 0 2 0 1 0 0 1 2 0 0 0 2 0 0 0 0 0 0 1 0 1 2 0 2 1 0 1 1 1 0 2 2 1 0 0 2 0 0 0 1 1 2 0 0 0 1 1 0 0 1 0 0 2 1 1 1 0 1 0 2 1 2 1 0 1 0 0 0 0 1 1 3 2 2 0 0 0 1 1 0 2 1 1 0 1 0 2 0 2 1 1 2 2 1 1 2 0 2 2 0 1 0 1 2 1 1 0 1 1 1 0 1 0 2 0 2 0 0 1 2 0 2 1 0 2 0 1 1 2 1 2 2 0 0 1 0 0 0 2 0 1 2 0 0 1 2 0 1 1 1 1 0 0 1 0 2 2 1 2 1 0 0 0 1 1 0 0 1 0 3 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 2 1 1 1 1 1 1 0 2 0 1 1 0 0 1 1 1 0 0 1 1 2 0 0 0 0 1 1 1 1 1 0 2 2 1 0 0 0 2 0 1 1 1 2 2 0 0 0 1 3 2 3 1 1 0 2 0 1 1 1 1 2 2 0 1 0 0 1 0 1 1 2 1 3 2 0 1 1 2 1 0 0 0 2 1 2 2 0 0 0 2 1 1 2 0 0 1 1 1 3 1 0 0 2 0 0 1 2 1 0 1 0 1 1 0 3 1 0 0 1 1 0 0 2 2 0 2 2 1 0 0 1 1 1 1 0 0 1 1 1 1 0 4 0 0 1 0 0 1 0 1 2 0 0 1 2 0 1 1 0 1 0 0 1 1 1 0 1 1 1 0 1 0 0 2 1 1 0 1 2 1 1 2 0 0 1 0 2 3 0 0 1 0 1 0 0 0 1 0 1 2 1 1 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 2 1 0 2 1 0 1 0 0 1 2 0 1 0 0 2 0 0 0 0 2 1 0 1 1 2 1 1 1 0 1 0 0 1 1 1 1 0 2 2 0 0 0 2 1 0 0 0 2 1 2 2 2 1 1 0 0 1 0 0 0 1 0 1 1 2 1 1 0 1 0 2 1 0 1 1 2 0 2 0 0 1 0 0 2 0 2 1 0 0 1 0 0 1 0 0 2 0 1 2 0 0 1 0 1 3 1 0 0 1 0 0 1 0 0 1 0 0 1 1 3 0 0 1 1 1 0 0 2 0 1 2 0 0 3 2 0 0 0 1 2 0 0 1 2 0 0 1 1 1 1 2 0 1 1 1 1 1 1 0 2 1 1 0 0 0 0 1 1 0 1 2 0 1 0 2 0 0 4 3 0 0 2 2 0 1 0 1 0 2 1 1 0 1 0 2 0 1 1 1 1 0 0 0 2 1 2 0 2 0 1 1 2 1 0 0 2 1 1 1 1 0 0 0 1 1 2 1 0 3 0 2 0 0 1 1 2 1 0 0 2 2 1 1 0 0 2 0 1 0 1 2 2 0 1 2 2 2 1 1 1 1 0 0 1 0 1 2 1 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 2 1 3 1 2 2 1 2 0 1 0 2 0 0 0 0 1 1 0 3 1 0 2 1 0 1 1 2 2 1 1 0 0 0 0 1 0 1 0 0 2 2 1 3 1 0 1 1 0 0 1 1 2 2 1 3 0 1 0 0 1 1 0 0 1 1 0 0 1 1 0 1 1 1 0 1 1 2 0 1 1 0 0 1 0 2 0 0 0 1 1 3 1 1 1 1 0 2 2 0 2 1 0 0 0 1 0 2 1 2 0 0 1 1 0 2 2 0 0 0 3 2 0 0 0 1 2 0 1 1 0 0 1 0 0 1 0 1 2 1 1 0 0 0 2 1 1 3 1 0 1 1 0 0 1 1 0 0 2 0 0 1 1 1 0 1 0 1 1 0 0 1 1 2 0 0 0 0 0 0 3 2 1 1 2 0 1 0 0 1 2 1 1 1 0 3 2 0 1 0 0 3 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 2 0 1 1 2 4 0 2 2 3 0 2 1 1 1 2 1 1 2 0 0 0 0 0 0 2 2 0 1 1 0 2 4 1 0 2 2 0 0 3 0 0 2 0 0 1 2 2 1 1 1 1 1 1 3 1 0 1 0 0 0 0 2 0 1 0 1 0 0 1 0 1 1 1 2 1 2 1 1 1 2 1 1 0 0 0 1 1 0 0 1 1 0 1 2 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 1 0 2 1 1 0 0 0 1 0 0 0 0 0 0 1 2 0 1 1 0 0 0 1 1 0 0 0 2 0 2 0 2 1 0 0 0 1 1 2 1 4 4 0 0 2 0 1 1 0 0 0 1 2 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 3 1 0 0 0 1 1 2 2 1 0 0 3 2 2 1 1 2 1 0 1 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 2 0 0 1 0 1 2 2 2 1 0 1 1 1 0 0 3 1 1 1 2 0 1 1 0 0 1 2 0 2 1 1 0 0 0 2 1 0 1 1 0 2 2 0 1 2 0 0 0 0 0 5 1 2 0 1 1 0 0 1 0 2 0 2 0 0 1 0 1 1 1 2 0 0 0 3 0 0 0 1 0 0 2 2 1 2 0 0 0 1 3 0 0 1 0 1 1 0 2 1 0 2 1 0 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 1 2 0 0 0 1 0 1 0 2 0 0 0 2 1 0 0 0 2 0 1 2 2 1 1 0 1 1 0 2 0 2 1 1 0 2 1 2 1 1 0 0 1 0 0 2 1 3 2 1 1 1 0 0 0 2 2 3 1 2 0 3 1 2 1 0 0 0 0 2 1 0 1 0 1 0 0 0 0 1 0 1 3 0 3 0 1 2 0 1 1 0 3 1 1 1 1 1 2 0 2 1 1 1 1 0 0 1 2 0 1 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 2 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 2 2 2 1 0 0 1 2 1 1 3 1 0 1 1 1 0 1 3 0 2 1 2 1 0 1 0 1 2 2 1 0 2 1 0 1 1 0 0 2 1 2 0 0 0 2 1 0 3 1 1 1 0 1 0 0 1 0 1 1 3 1 0 1 1 1 1 1 1 0 2 0 1 0 0 1 2 2 0 1 1 2 0 1 0 1 1 1 1 0 2 0 0 3 0 1 0 1 0 4 0 0 0 1 0 0 1 2 0 1 1 1 1 3 1 2 2 0 0 0 0 0 2 1 1 0 1 0 1 0 0 0 2 0 2 0 1 0 0 0 0 0 0 1 1 2 1 0 0 3 0 0 0 0 0 1 0 2 1 1 0 1 1 2 0 1 0 0 0 1 1 3 1 2 2 0 0 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 0 1 2 3 1 1 1 0 0 0 2 2 1 0 0 0 2 2 1 1 0 0 1 1 0 1 1 1 1 0 1 1 0 0 3 0 3 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 3 1 0 0 2 0 0 1 2 1 1 0 2 1 0 2 0 1 0 1 0 1 0 0 0 0 1 0 2 0 0 4 2 0 0 1 2 1 1 1 0 0 0 2 1 2 0 0 0 2 0 0 1 1 1 0 1 0 0 0 1 0 0 1 2 1 0 1 2 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 3 2 1 0 0 1 2 1 0 0 1 0 0 3 0 0 1 1 1 1 1 0 0 0 0 0 1 2 1 0 1 0 1 1 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 2 1 1 0 1 3 0 1 2 0 0 0 2 0 4 1 0 0 0 0 0 0 1 2 0 2 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 2 1 3 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 3 1 0 2 0 1 2 0 0 2 3 0 2 1 1 3 3 0 1 1 1 1 0 0 0 1 0 2 0 2 2 2 1 0 0 1 2 1 1 2 1 0 2 0 1 1 2 0 2 2 1 1 0 1 0 1 2 0 1 1 3 0 1 1 1 0 2 1 1 1 1 2 0 0 2 2 0 0 2 2 2 1 1 1 3 1 0 1 0 1 0 2 0 0 0 1 0 0 3 0 1 1 1 1 1 0 1 0 1 0 2 0 0 2 1 0 1 0 1 1 2 0 1 0 1 0 1 1 3 1 1 1 0 2 0 1 0 0 0 1 0 2 0 0 0 0 1 1 1 0 1 0 1 1 2 0 2 1 0 2 0 0 0 0 1 0 0 0 2 1 1 1 1 0 1 0 0 0 0 0 2 2 1 1 1 0 1 0 0 1 1 0 3 2 0 0 0 0 0 1 1 1 1 0 2 0 1 0 1 3 2 0 1 0 2 3 0 1 1 0 0 1 2 1 0 1 2 1 0 1 1 1 0 0 1 1 1 2 1 0 0 2 2 0 1 0 1 0 0 1 0 1 1 2 1 1 1 0 0 1 1 0 1 2 0 0 1 0 2 1 0 2 0 1 1 2 2 1 1 0 1 1 0 1 1 0 2 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 2 3 0 1 1 1 0 0 1 0 0 1 0 2 1 1 2 0 1 1 0 1 0 3 2 0 1 1 1 2 1 2 0 0 0 1 0 1 0 0 1 0 2 1 2 0 2 1 1 1 0 0 2 0 1 1 1 0 1 0 2 0 0 3 0 3 1 3 0 1 1 1 1 2 0 0 2 0 0 1 1 1 1 1 0 4 1 1 1 1 2 2 2 0 1 0 2 0 2 2 1 1 1 0 0 0 0 2 0 1 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 2 1 1 0 1 0 1 0 1 2 0 1 0 0 0 0 1 0 1 0 1 0 0 3 0 0 0 2 1 2 1 1 0 2 1 0 0 1 0 2 3 1 2 2 2 1 0 0 1 0 0 2 2 1 0 1 1 0 1 1 2 0 2 0 1 1 1 0 0 1 0 0 0 1 2 1 0 1 0 1 1 1 1 1 2 0 2 0 0 0 2 0 3 0 0 0 0 1 1 0 0 0 1 3 1 1 0 2 2 1 0 0 1 0 1 0 2 0 1 1 1 1 0 1 1 0 3 1 0 2 0 2 1 0 0 1 0 1 1 1 1 2 1 1 0 0 0 2 0 2 1 0 1 0 3 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 2 1 3 1 0 3 2 0 0 0 1 0 0 2 1 0 0 0 0 2 1 0 0 0 0 1 0 0 4 0 0 1 2 2 0 1 1 1 0 2 1 1 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 2 0 2 2 0 2 1 1 0 1 1 3 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 3 0 0 0 0 0 1 0 1 1 0 2 2 1 3 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 3 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 2 1 1 0 3 0 2 0 0 0 0 2 0 1 1 1 3 0 0 1 1 0 0 2 1 0 2 0 0 0 0 0 0 1 1 4 1 0 1 1 1 1 0 0 0 1 0 2 1 1 1 2 2 1 0 1 2 3 2 0 1 1 2 1 1 1 2 1 1 1 1 0 1 1 0 1 2 2 0 2 0 3 2 1 0 0 1 0 3 1 0 0 0 2 0 3 2 0 1 0 1 0 1 0 1 2 1 1 2 1 0 0 0 1 1 0 2 1 2 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 2 1 1 0 0 0 1 2 1 0 1 1 1 0 0 2 0 2 3 1 0 0 0 1 0 2 0 0 2 0 1 1 0 1 0 0 1 0 0 1 2 2 0 0 1 0 1 0 3 1 1 1 2 0 1 0 1 0 2 0 0 3 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 2 2 0 1 0 0 0 2 0 1 0 1 1 2 0 1 0 0 1 0 1 1 0 0 0 1 1 0 1 0 1 0 2 1 1 2 1 0 0 0 1 1 1 1 1 3 4 2 1 1 2 0 0 1 0 1 2 0 1 2 0 0 2 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 1 2 0 2 1 0 0 0 1 0 1 1 0 0 1 1 1 3 0 2 0 2 1 0 2 0 0 0 0 2 1 2 0 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0 2 2 3 1 0 1 0 1 3 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 2 2 1 1 0 0 1 1 1 3 0 2 0 1 0 0 3 2 2 1 1 1 0 2 1 0 2 0 0 0 2 0 1 1 0 2 0 1 0 0 0 1 0 0 1 2 2 0 0 1 0 0 3 0 2 1 1 1 2 1 0 0 2 0 0 1 0 1 2 1 1 0 2 1 1 3 1 1 0 1 0 1 2 0 1 0 0 0 1 1 1 1 0 0 0 0 1 2 1 0 1 1 1 0 2 3 0 0 1 1 0 2 0 1 0 2 1 1 1 0 0 0 0 0 0 0 0 0 2 0 1 1 2 0 0 1 1 0 0 1 0 1 0 2 1 0 2 0 0 2 1 1 0 0 2 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 2 1 1 2 2 2 0 0 1 0 1 0 0 0 0 1 1 0 1 0 2 1 0 0 1 1 0 2 1 0 0 0 0 1 0 1 1 0 0 1 0 1 1 2 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 2 0 1 1 0 1 1 2 1 1 0 1 0 0 2 0 2 2 1 1 1 0 0 2 0 0 0 0 1 1 0 0 2 1 1 0 0 0 0 1 2 1 3 2 0 2 3 0 1 0 3 0 1 1 0 1 1 1 0 0 3 0 1 0 3 1 1 2 1 1 0 1 0 1 1 0 1 0 3 1 1 3 1 0 1 1 0 2 0 2 0 1 0 1 2 1 1 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 0 0 1 1 0 3 0 1 0 3 1 0 1 0 0 1 1 0 4 0 1 0 2 0 4 2 0 1 1 0 0 1 0 2 1 0 0 0 0 2 1 0 1 0 0 2 2 0 2 1 3 2 0 0 2 1 0 1 0 0 2 1 0 1 2 0 3 1 1 0 0 0 2 0 1 1 1 2 0 0 1 1 1 3 1 0 1 1 0 0 1 1 1 2 1 0 0 1 1 2 0 1 1 2 0 0 1 2 1 0 1 0 2 0 1 1 2 0 0 0 1 0 1 1 0 2 1 2 1 1 0 0 0 0 2 1 0 0 3 2 0 0 1 1 0 0 0 1 2 0 1 0 1 1 1 0 1 1 3 2 0 0 1 0 1 1 2 1 1 0 0 0 1 0 1 2 1 1 0 0 0 0 0 0 0 1 1 0 0 2 2 0 0 1 0 3 2 0 0 1 0 1 2 1 1 0 1 0 1 0 1 0 1 0 0 0 0 2 0 0 0 0 2 0 0 0 1 0 1 1 3 1 0 0 2 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 2 0 2 0 2 3 0 1 2 0 0 2 1 0 0 0 1 1 1 1 2 1 3 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 0 0 2 1 2 1 1 0 0 1 0 0 0 0 1 3 1 1 1 1 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 1 2 2 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 1 0 0 0 0 1 1 2 1 0 2 0 1 0 1 2 1 1 1 1 0 0 0 1 1 0 2 1 2 0 2 1 0 1 1 0 1 3 1 0 0 1 1 0 0 0 0 0 0 1 2 1 1 2 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 1 1 0 2 2 0 0 2 0 1 0 0 0 1 1 0 2 0 1 2 1 0 1 0 1 0 0 0 0 0 1 0 2 0 2 1 0 3 2 0 0 1 1 1 0 1 0 1 1 2 0 1 0 0 0 0 1 1 0 0 2 3 0 1 1 3 1 1 0 1 1 1 1 0 0 0 1 0 0 1 1 1 1 3 1 0 2 0 1 1 1 1 1 0 2 0 0 2 1 1 0 1 0 0 0 2 1 0 0 1 0 0 0 1 0 0 2 2 0 4 1 2 1 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 2 1 1 1 2 0 0 1 1 0 0 0 0 0 1 0 2 1 0 1 1 0 2 2 0 0 1 0 1 0 1 2 1 0 1 0 2 1 0 1 2 0 3 0 0 1 1 1 1 1 0 1 0 0 1 1 2 1 1 1 1 1 0 0 1 1 0 1 0 1 1 1 0 0 1 0 2 2 1 1 0 0 0 3 1 1 3 1 1 0 0 0 0 1 0 1 3 0 0 0 0 0 0 0 2 0 0 1 0 3 1 1 2 3 2 0 0 0 0 0 1 2 0 1 0 0 2 0 0 0 0 2 1 1 3 0 2 0 1 2 1 0 0 2 0 0 1 1 2 2 0 1 2 1 1 0 0 2 2 0 2 1 1 0 0 0 0 1 1 1 0 1 1 2 1 1 2 0 1 0 1 2 2 1 1 1 3 2 1 0 1 1 0 0 2 3 0 1 1 0 2 0 0 1 0 1 0 1 0 0 5 1 0 3 0 2 1 0 1 0 1 2 0 2 0 0 0 2 1 0 1 2 0 0 3 0 1 0 1 0 1 1 1 0 1 2 2 1 0 0 0 2 0 2 1 1 2 0 3 2 2 0 2 0 0 1 1 2 1 1 3 0 1 1 2 1 1 0 1 0 1 2 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 1 2 2 1 1 1 2 0 2 3 1 1 0 1 0 0 0 1 1 0 1 0 1 1 0 1 1 0 0 2 0 1 1 0 3 0 0 2 0 1 1 1 0 0 2 2 0 1 0 0 0 0 0 1 0 0 1 1 2 0 1 1 2 1 0 1 1 1 1 1 0 2 0 2 1 0 0 1 0 2 0 0 0 1 1 0 0 0 2 2 1 1 1 0 0 0 0 0 2 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 1 0 1 2 0 0 1 1 0 0 1 0 1 1 2 1 1 0 1 0 0 0 1 1 2 1 0 1 0 1 0 2 0 0 1 0 1 1 1 1 1 2 0 0 0 1 0 1 0 0 0 1 1 0 1 1 1 0 2 1 0 1 1 1 2 0 1 1 0 0 1 0 0 0 2 2 0 0 0 0 2 0 0 1 1 0 1 2 1 1 1 0 1 1 1 2 0 0 1 1 0 1 4 1 0 0 0 2 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 2 2 0 2 2 0 1 2 0 2 1 0 0 1 0 1 1 1 0 1 1 2 3 1 0 1 0 1 0 1 0 1 0 1 2 0 0 1 0 2 0 2 1 0 1 0 0 2 1 1 2 0 2 1 1 2 0 0 3 0 2 0 0 1 3 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 3 0 0 0 0 3 1 1 2 2 2 1 3 1 0 0 0 0 0 0 2 2 1 2 3 0 1 0 0 0 1 1 1 2 0 1 0 1 2 1 2 0 2 0 1 1 0 2 1 0 0 0 0 0 1 0 3 0 1 0 0 1 1 0 1 0 0 0 1 2 1 1 0 1 0 2 1 0 0 0 1 1 0 1 1 1 0 0 0 1 1 1 0 0 1 2 1 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 3 0 1 2 1 0 0 1 1 1 1 3 1 1 1 0 1 1 2 1 1 0 2 0 0 0 0 1 1 1 0 1 1 1 0 1 1 0 1 0 1 0 1 2 0 0 0 0 1 2 2 1 1 0 0 0 1 2 2 2 0 0 2 0 0 0 3 1 1 4 1 2 0 1 0 0 1 2 0 2 2 1 1 1 1 0 1 1 1 2 3 1 0 0 1 1 2 2 1 0 0 1 1 0 2 6 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 2 0 1 0 0 1 1 0 1 1 1 0 2 1 0 0 0 2 1 0 0 0 0 2 0 2 2 1 1 1 1 1 0 1 3 1 0 0 0 2 1 0 0 1 2 0 1 0 0 0 3 0 0 0 1 0 1 0 0 2 1 0 0 0 2 0 0 1 1 0 1 1 1 1 0 2 1 1 1 1 0 0 1 1 0 1 2 0 3 1 0 1 0 3 0 1 0 0 0 1 2 1 0 1 1 0 2 1 0 1 1 1 1 2 1 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 3 3 0 0 0 2 0 1 2 1 2 0 1 1 1 1 2 4 1 1 2 1 0 1 0 0 2 1 0 1 0 2 1 1 1 0 1 1 1 0 1 1 0 1 1 1 2 1 0 1 0 3 1 2 0 1 2 0 2 1 1 0 1 0 3 2 1 1 2 1 0 1 0 1 1 0 1 1 1 2 0 0 2 1 1 3 1 1 1 0 1 0 0 2 0 2 1 2 1 1 1 1 2 1 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 1 1 1 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 0 1 1 0 0 3 1 3 0 2 1 2 1 1 0 2 0 0 1 2 0 0 1 0 0 2 4 0 2 2 0 0 1 1 1 1 0 2 1 0 2 1 0 1 1 2 0 0 2 0 0 0 2 1 0 1 0 3 0 0 1 3 1 0 1 1 0 0 0 1 1 1 3 0 1 1 2 0 0 0 0 0 0 2 0 0 0 0 1 2 1 1 1 0 0 0 0 0 0 0 0 1 1 2 0 1 1 0 1 0 0 0 1 2 1 2 2 2 1 2 0 2 1 0 0 1 2 0 0 0 0 1 1 2 2 1 1 1</t>
+    <t>JSB(1.2444275462135428, 2.521103790221452, -14.572927319698696, 82.24828434482417)</t>
+  </si>
+  <si>
+    <t>10 31 27 16 17 10 24 20 13 22 16 10 20 20 13 13 6 35 27 20 19 19 20 14 9 13 17 21 7 9 10 27 17 39 24 17 30 7 12 17 17 14 20 21 15 20 9 20 13 19 15 26 31 14 27 27 12 31 28 14 8 31 19 14 34 27 14 20 20 10 3 12 20 12 7 20 19 6 23 24 8 17 17 19 0 24 6 28 12 17 19 21 27 10 13 20 20 3 31 13 13 22 13 24 17 13 23 20 10 22 13 14 6 17 22 19 10 12 32 20 9 16 28 3 8 12 14 13 30 20 34 3 15 13 19 6 19 21 9 17 9 13 28 16 13 16 3 13 22 16 15 22 14 15 10 14 9 22 6 27 24 17 10 17 21 3 30 17 6 21 21 22 19 10 27 12 3 17 10 22 24 14 21 27 10 10 7 16 22 7 20 19 9 17 13 19 20 10 15 27 24 3 17 10 10 24 28 10 10 21 13 24 27 13 11 22 16 10 21 28 17 0 19 17 14 3 21 16 24 20 24 14 16 17 22 17 23 17 16 10 24 22 19 17 16 14 13 13 17 24 23 15 7 37 10 25 17 9 13 17 21 19 18 14 24 13 13 18 17 22 17 17 19 19 20 29 19 16 10 10 21 9 20 13 20 19 21 14 23 28 16 25 12 13 26 23 34 13 37 14 13 10 7 7 17 3 10 14 18 3 24 28 22 17 7 20 6 17 6 23 13 9 14 0 14 26 17 23 3 12 27 27 9 23 9 0 15 31 17 16 17 6 3 27 9 24 28 22 22 0 9 35 17 10 10 17 24 20 10 6 24 30 7 25 15 13 23 17 27 27 13 24 13 14 19 10 20 16 10 13 30 20 23 14 7 9 10 6 27 17 24 10 13 20 17 10 6 25 21 23 20 9 20 21 20 17 10 21 16 3 10 27 17 10 21 13 10 9 10 23 23 18 10 11 27 14 10 27 24 27 10 10 13 20 20 10 10 6 10 10 22 20 20 24 30 7 10 3 16 16 16 22 24 35 6 17 6 20 14 10 21 12 23 18 31 27 15 19 19 13 17 20 9 22 29 21 7 20 14 9 15 33 20 3 14 14 23 13 10 20 6 28 0 10 21 21 21 20 19 23 28 21 25 6 29 21 0 16 17 17 31 23 13 20 23 23 20 26 15 20 12 17 24 14 27 10 16 7 28 10 17 13 3 21 22 14 15 16 17 10 13 16 24 27 10 20 13 9 16 26 26 31 16 9 13 3 12 12 6 19 24 7 24 19 20 24 24 15 16 13 6 7 8 27 23 25 15 13 16 6 13 27 9 31 24 13 7 20 20 3 20 16 19 20 13 10 31 20 10 24 29 19 16 27 17 19 14 10 19 24 16 31 23 10 22 13 13 27 7 17 6 28 35 16 12 34 21 17 20 30 26 17 6 20 14 13 26 19 16 6 17 22 13 19 21 23 6 15 27 3 13 24 11 17 19 24 14 14 23 29 19 26 17 7 7 13 12 11 14 10 13 13 19 7 3 0 19 3 27 6 7 9 13 34 24 32 26 18 10 14 9 20 28 20 24 24 3 13 26 31 12 10 9 9 14 23 17 14 17 23 12 17 30 13 10 20 20 19 17 10 12 17 16 13 17 17 23 19 13 24 27 16 16 17 23 0 20 15 19 31 9 13 28 27 29 16 33 23 13 13 19 23 27 23 27 24 13 10 26 6 9 7 23 17 24 14 21 25 9 20 18 31 23 24 24 9 21 6 10 16 24 27 13 14 20 20 22 30 16 10 21 24 13 14 4 10 13 0 17 12 12 13 14 24 20 3 20 6 14 3 24 31 27 13 6 15 12 21 10 13 14 0 30 30 27 20 19 14 23 10 27 0 14 19 24 20 24 3 14 30 10 10 10 16 19 7 14 6 24 13 19 17 30 13 13 30 3 7 13 17 16 16 20 20 28 27 14 24 9 17 0 21 17 27 14 20 26 22 15 14 10 9 7 24 25 0 13 13 31 34 6 20 31 12 16 20 34 16 22 21 9 21 24 17 23 14 10 7 17 27 13 10 14 17 17 7 20 30 24 6 14 9 17 10 13 10 19 14 3 24 14 21 7 13 23 14 21 29 16 3 14 9 14 17 18 10 15 21 7 21 14 31 6 3 19 21 3 20 20 14 13 23 7 13 17 11 21 10 28 28 13 21 6 13 12 15 16 10 27 13 24 16 9 9 15 16 24 20 20 6 13 20 7 6 18 13 25 14 13 12 17 13 0 7 7 9 17 16 22 13 30 10 17 27 9 12 15 13 26 16 17 31 13 14 19 10 5 13 15 14 33 34 23 13 20 17 23 27 14 34 20 26 10 24 7 3 30 14 31 13 40 13 13 26 17 20 24 33 12 3 11 13 13 14 14 8 13 10 27 21 17 17 18 6 23 23 13 16 14 17 20 17 10 10 19 10 14 16 6 14 16 17 19 20 16 13 20 16 21 13 24 12 22 6 7 10 13 34 16 30 6 21 28 19 24 20 20 13 27 9 16 23 7 21 31 7 27 6 3 17 19 15 13 7 21 31 26 19 3 20 42 20 20 18 16 14 21 16 7 22 23 30 10 14 33 17 23 26 6 20 24 34 15 9 13 24 0 10 20 24 34 24 6 23 9 18 7 24 12 23 20 13 27 10 27 29 16 16 20 23 15 35 38 14 14 25 24 26 10 17 10 20 20 7 12 13 16 14 20 10 13 14 27 24 10 21 10 3 13 20 24 30 14 16 18 14 27 35 27 27 17 14 14 20 30 12 17 6 29 9 9 14 3 6 20 6 10 25 6 17 20 17 6 18 13 23 23 13 21 10 24 17 25 15 10 11 17 24 24 16 16 19 28 27 21 18 23 27 10 24 19 6 27 12 31 24 10 17 13 23 22 7 22 17 12 11 10 28 3 7 6 17 3 13 19 17 15 20 20 9 16 20 10 10 13 10 16 7 14 9 14 38 27 22 21 19 21 10 12 20 13 28 9 22 17 27 28 10 7 20 19 13 20 12 6 27 10 13 17 16 16 30 24 32 10 14 3 7 24 9 20 14 10 14 14 16 20 23 19 13 6 24 17 13 21 14 23 20 16 10 27 14 16 20 20 16 20 24 20 17 22 10 13 20 15 29 6 24 27 16 33 20 23 6 10 28 23 9 21 13 10 9 24 13 7 21 14 17 20 23 14 9 17 29 31 6 16 9 14 31 30 14 29 10 10 19 16 23 17 21 8 17 9 30 14 29 21 22 23 30 20 18 31 17 28 27 9 38 6 13 9 14 12 10 20 23 25 10 25 17 28 14 21 16 10 21 14 30 20 3 13 23 19 9 34 23 28 24 13 16 21 7 19 20 16 10 26 7 15 24 9 17 7 17 20 10 15 10 38 6 20 24 20 37 16 16 30 20 10 15 19 17 25 13 6 22 20 10 3 19 23 16 27 31 26 21 30 16 24 10 3 31 18 10 16 10 10 10 21 0 14 13 20 9 22 11 23 15 14 27 3 10 7 24 24 20 17 20 7 23 23 20 11 16 30 16 23 10 12 10 8 14 15 30 17 14 11 14 13 31 20 13 31 24 14 16 14 3 21 16 20 17 23 30 20 3 21 10 16 9 3 24 0 14 23 15 10 16 19 12 24 26 23 13 13 24 12 32 17 20 13 38 22 9 0 9 20 24 24 20 16 12 13 20 18 10 13 17 6 9 21 3 3 13 13 10 20 9 21 31 20 27 17 15 0 28 9 10 14 6 16 23 21 29 13 16 17 24 9 24 10 13 27 25 26 23 27 9 14 16 20 13 27 17 12 13 12 17 7 17 13 12 21 7 23 8 38 13 17 13 16 12 17 0 14 16 17 16 12 16 24 10 3 17 33 22 14 23 13 17 18 11 9 17 13 24 31 25 24 42 21 24 34 15 19 14 17 24 10 17 17 16 9 28 26 17 26 31 17 15 13 20 24 16 24 28 7 14 13 16 26 24 21 20 9 16 23 20 7 19 16 17 13 10 9 7 17 24 10 10 26 13 9 23 14 12 19 17 20 25 3 17 14 19 21 16 22 18 23 16 10 6 22 16 13 9 17 17 9 19 12 28 24 13 20 19 21 11 13 31 27 9 27 17 17 10 13 20 29 17 15 19 19 9 20 13 11 13 10 17 10 17 17 9 17 20 21 17 14 14 3 13 20 10 16 38 19 9 23 20 3 13 20 3 17 22 17 16 14 12 15 10 20 3 23 31 24 17 10 15 26 20 23 14 16 35 33 20 6 13 19 8 16 34 33 24 22 28 20 17 10 7 9 10 23 17 26 18 20 10 20 11 23 17 20 21 25 17 17 17 26 6 7 10 18 17 6 33 16 16 20 19 12 13 23 30 28 31 16 22 12 20 18 27 12 9 14 26 10 27 6 29 16 13 20 14 13 24 34 16 16 10 24 21 17 28 13 20 21 17 20 25 7 23 10 20 20 23 6 25 23 24 20 14 20 31 27 7 10 13 19 27 10 21 40 13 16 24 10 13 22 23 27 13 16 20 22 17 17 14 30 9 24 3 10 23 20 27 14 16 16 17 23 23 27 27 3 10 17 13 8 17 17 26 18 10 10 21 6 24 6 20 24 7 16 10 23 10 19 9 19 36 13 10 16 3 14 17 29 17 6 10 9 24 0 13 7 7 16 15 13 23 16 21 24 6 18 16 16 28 34 17 13 13 12 13 25 13 8 23 16 12 17 23 9 19 10 15 22 21 19 10 23 16 23 16 24 16 15 13 21 13 24 20 23 17 13 20 20 17 9 16 24 20 6 23 6 3 20 16 16 6 7 10 17 26 17 9 6 13 6 37 13 17 13 23 13 13 13 13 22 20 21 21 16 18 7 19 13 16 14 28 28 21 20 18 13 13 29 9 6 10 10 10 10 21 26 7 17 19 17 9 19 17 27 10 22 10 13 29 16 10 23 11 10 10 38 17 16 19 7 16 3 10 15 34 10 18 12 14 9 13 17 16 17 13 17 16 9 22 13 9 10 7 24 13 10 13 19 20 19 18 19 15 12 24 31 27 20 17 10 17 10 20 34 23 29 21 18 30 13 14 20 3 9 21 25 10 22 18 26 18 13 20 13 22 6 10 16 27 26 6 14 23 18 3 19 0 16 13 19 6 22 19 25 14 23 9 13 13 13 16 14 9 14 20 13 28 14 16 22 30 16 16 10 20 17 38 22 30 13 24 16 27 21 34 28 13 10 23 10 17 17 17 3 15 20 21 12 34 14 0 6 26 19 17 0 20 10 27 10 12 14 16 23 21 38 18 33 14 23 24 9 9 30 21 13 19 23 3 7 17 15 9 14 40 3 18 7 16 7 10 12 6 10 3 21 14 20 10 13 10 23 6 21 6 22 13 7 27 10 16 16 17 30 31 13 10 9 3 16 24 11 5 27 21 16 14 17 24 9 14 10 18 24 24 9 10 7 7 17 17 32 10 7 10 21 19 12 20 3 16 20 33 13 20 17 29 14 19 13 16 17 19 10 19 13 20 17 10 7 11 7 13 12 7 27 26 10 20 20 13 11 0 18 9 7 14 27 14 3 10 18 21 12 10 23 21 14 17 30 14 34 21 0 8 28 9 16 20 23 13 14 17 16 13 28 12 23 17 10 6 27 9 10 34 13 10 7 27 16 25 24 12 31 20 21 9 26 20 13 20 10 20 26 34 16 26 23 3 13 22 31 6 7 27 20 11 29 17 22 10 35 6 16 17 17 16 17 14 20 13 27 6 6 17 24 7 16 23 23 14 7 24 16 23 26 6 17 16 12 21 24 27 18 27 20 13 26 27 7 14 12 13 7 20 9 30 7 16 20 14 27 6 3 13 20 19 33 22 24 20 13 22 14 17 10 15 10 23 16 23 7 3 15 3 16 25 17 19 11 18 24 31 14 25 6 7 16 17 14 14 13 23 27 6 31 18 21 23 14 22 20 7 17 17 13 10 6 17 17 14 14 22 3 16 14 14 20 27 3 28 14 13 17 34 34 6 29 12 10 16 20 24 10 17 13 17 10 17 13 14 10 20 29 20 6 16 7 13 12 19 8 17 13 16 13 12 9 7 24 13 7 30 21 21 17 24 28 13 12 27 9 24 9 23 38 7 9 14 27 3 7 14 27 6 13 10 20 14 14 17 23 14 17 10 27 10 21 26 27 17 28 9 24 10 13 8 17 17 23 26 3 27 16 15 16 0 20 10 31 20 27 14 30 20 36 17 10 14 22 20 7 14 22 10 20 3 31 23 14 10 16 11 9 20 20 23 21 14 28 10 23 20 14 13 20 20 19 12 12 6 7 9 10 6 19 3 22 7 17 27 34 24 10 31 7 10 20 21 3 13 22 14 31 23 17 17 14 18 24 20 21 13 20 17 7 13 20 13 13 10 10 23 9 20 18 17 23 16 9 17 19 14 13 28 11 17 16 16 10 19 26 10 19 15 10 13 30 20 17 20 19 13 38 13 3 16 17 17 17 24 10 17 30 10 22 7 23 14 17 13 8 13 3 20 13 9 13 16 10 10 13 18 6 8 14 35 30 3 20 3 21 20 20 13 24 23 17 10 27 9 24 17 13 3 25 10 12 20 10 13 16 19 23 28 31 27 6 17 20 13 17 21 16 6 9 10 21 13 26 15 9 8 6 19 17 17 20 7 16 34 11 10 7 13 30 13 13 35 21 38 20 12 31 14 6 22 0 13 19 9 27 28 21 13 19 23 17 23 24 19 13 10 13 13 12 17 17 21 9 9 6 30 13 31 9 7 6 3 22 22 10 9 19 36 13 24 18 20 20 13 21 28 20 20 14 20 10 17 17 16 6 35 17 33 19 33 23 23 10 19 20 20 19 16 26 21 16 12 14 0 19 14 12 14 24 12 10 24 0 10 17 9 19 7 14 15 20 23 18 23 23 16 7 13 14 10 16 12 22 3 24 21 31 17 22 23 14 14 30 16 28 12 16 14 31 29 16 20 28 20 13 21 22 20 33 0 16 26 23 26 31 21 20 23 3 12 21 20 19 13 12 9 21 10 16 14 7 35 23 27 17 17 20 13 9 34 20 14 12 13 30 26 14 16 19 14 27 0 17 27 20 17 16 7 5 16 16 18 13 12 10 13 21 9 17 13 23 20 15 6 33 13 3 23 22 13 16 7 21 18 13 6 12 16 17 28 26 30 24 24 23 12 20 16 17 21 14 16 23 6 24 25 26 14 9 6 20 6 23 16 27 18 24 14 33 13 25 21 6 10 24 17 21 20 16 21 31 10 24 10 14 7 24 20 13 15 26 7 15 7 13 7 14 13 17 11 13 13 26 20 19 13 17 23 20 21 13 20 19 20 9 12 24 6 17 31 7 29 17 33 15 14 10 20 13 20 10 17 8 15 17 17 17 10 13 7 30 22 17 23 17 22 16 16 23 13 23 26 3 22 0 20 16 28 14 17 7 13 21 20 34 6 13 17 17 16 24 21 9 20 10 27 23 22 24 21 14 14 9 20 20 17 17 26 12 15 10 30 12 9 33 27 16 20 27 10 19 24 23 17 10 3 13 17 6 27 24 12 0 7 12 38 13 16 12 10 24 17 20 16 17 7 26 30 0 30 13 31 10 27 20 20 16 3 6 10 34 30 23 3 23 24 20 21 16 9 17 24 10 17 13 14 7 26 9 13 7 7 13 27 34 11 16 27 13 19 10 19 15 24 17 19 7 15 17 9 17 9 10 6 10 3 20 6 30 20 31 7 14 13 7 21 18 24 7 9 16 24 17 24 17 7 17 10 10 20 17 30 3 12 24 15 13 25 14 20 27 26 17 9 6 17 6 14 20 18 16 16 15 13 6 10 27 9 13 17 6 38 17 20 16 20 21 21 17 23 16 12 17 11 23 12 14 28 7 7 20 6 27 10 21 20 13 21 22 6 21 14 7 20 20 12 22 16 17 13 22 23 24 16 19 17 20 20 26 27 19 17 9 8 15 27 20 3 31 16 27 12 17 23 20 10 9 10 14 27 9 13 31 20 37 9 27 16 0 19 10 15 9 23 23 16 27 15 19 17 13 21 23 16 23 27 24 6 26 23 13 20 31 30 13 20 17 27 17 9 28 45 21 9 14 14 28 31 10 20 21 14 22 14 22 0 13 22 18 9 0 10 13 22 15 20 21 20 6 21 12 16 16 6 13 17 41 9 17 10 27 20 28 10 19 18 19 17 24 10 24 28 9 10 10 15 20 9 16 13 24 14 11 14 18 30 7 25 21 23 13 22 13 6 6 33 24 16 23 16 14 13 11 27 17 0 16 31 14 17 30 22 27 29 19 19 13 11 26 3 9 19 24 10 20 21 24 17 3 20 13 16 17 14 20 13 16 14 14 14 10 17 3 18 13 3 15 20 14 20 19 27 0 16 17 31 10 7 9 17 13 21 9 16 19 3 13 37 14 9 20 16 16 14 23 10 23 31 24 16 3 10 14 24 29 13 17 11 14 14 9 20 12 13 7 17 15 12 17 3 0 6 28 17 16 13 18 9 16 26 26 14 17 20 31 19 15 6 24 26 16 35 17 10 26 13 17 31 17 10 20 21 17 20 20 19 13 28 21 20 13 9 19 6 3 3 10 7 18 20 17 24 21 20 20 28 10 29 24 6 10 23 3 20 6 6 3 10 9 31 23 20 33 19 13 17 25 19 13 21 14 31 10 19 19 13 20 27 9 0 10 19 28 18 31 13 15 23 21 14 24 20 34 24 18 15 24 13 21 14 25 16 34 12 9 17 23 13 22 3 6 17 17 6 26 14 29 10 13 17 31 16 9 22 18 10 13 16 24 20 13 14 21 17 28 24 21 13 18 31 10 9 20 16 10 13 10 27 19 15 24 15 27 10 9 22 14 19 3 16 13 13 13 10 17 12 17 22 10 6 13 17 17 9 23 10 13 17 26 13 31 22 24 14 6 32 3 20 17 21 3 9 15 13 14 20 7 17 6 17 14 13 10 26 13 24 23 7 23 7 17 22 10 16 10 31 16 10 24 10 6 17 23 12 18 24 10 16 21 13 3 17 24 6 14 3 24 16 13 20 26 33 24 6 23 26 16 11 24 17 14 6 23 6 7 34 16 10 13 13 10 10 7 16 20 20 20 32 0 10 10 17 16 23 13 12 13 16 14 17 7 27 14 16 18 25 42 28 17 19 21 13 3 19 23 14 13 12 7 26 19 6 10 25 15 17 21 7 13 24 14 3 6 19 13 31 16 10 9 13 9 9 3 31 14 26 17 30 10 19 20 34 22 16 17 12 20 26 17 10 6 20 7 17 19 16 14 20 15 21 12 13 0 17 6 21 6 10 10 12 20 14 9 20 20 15 20 30 10 20 20 13 6 21 10 9 9 13 23 17 28 13 30 24 17 7 24 12 36 27 14 23 27 16 18 10 20 21 3 17 17 17 27 27 28 24 17 9 14 26 21 21 10 15 6 3 26 13 10 21 6 10 13 24 14 13 15 6 26 20 16 31 16 6 7 24 17 7 17 17 6 13 10 10 16 23 31 21 8 26 19 24 19 10 27 6 14 19 16 12 10 23 10 7 26 13 0 22 9 29 14 24 13 16 16 24 16 17 20 12 34 3 26 16 20 33 14 14 20 17 0 10 21 20 24 24 24 37 17 10 10 17 6 13 17 0 23 21 19 12 13 10 16 13 14 24 17 21 13 6 15 17 31 20 22 27 14 10 27 14 20 10 27 13 17 14 10 9 13 24 24 17 16 17 9 7 12 30 14 23 16 17 21 16 23 24 21 7 17 18 20 20 24 10 23 8 16 13 14 27 21 14 19 23 23 11 15 14 7 23 28 38 16 3 17 22 19 20 14 15 13 21 3 10 17 14 16 19 17 23 16 17 15 0 6 24 10 37 25 19 16 33 17 21 13 26 40 26 20 10 7 20 12 6 7 20 17 23 20 12 31 9 22 20 30 10 24 14 14 26 6 25 0 16 30 14 13 12 26 23 24 24 22 27 23 25 17 21 18 24 20 16 23 27 6 10 7 34 16 21 9 18 21 13 10 37 24 31 14 28 13 19 3 16 8 13 13 6 16 27 31 19 22 20 10 9 24 12 17 9 14 27 16 7 17 13 16 17 18 13 13 14 3 20 13 12 21 9 25 3 7 27 10 25 22 20 0 12 25 23 29 17 17 24 17 28 20 27 16 3 17 14 14 28 27 24 12 6 12 20 14 20 7 6 20 7 27 14 13 24 8 7 9 0 17 10 17 13 10 13 19 3 24 19 16 16 20 24 23 0 13 16 14 24 7 13 27 12 17 17 10 27 24 42 20 23 19 14 6 41 13 0 11 12 22 17 6 23 23 29 31 6 12 15 16 9 7 19 6 17 16 14 17 16 17 20 7 17 16 26 16 13 6 18 14 22 10 34 23 13 16 29 13 10 20 20 21 23 13 13 27 10 34 34 3 3 21 15 6 18 15 17 10 14 24 12 10 6 3 14 14 10 10 14 13 17 7 13 26 13 24 21 11 14 23 15 28 6 24 10 6 7 24 16 14 3 10 21 13 23 16 10 14 7 13 9 30 28 14 13 16 14 15 32 7 15 13 10 15 7 31 20 16 3 19 13 10 16 23 23 6 29 13 33 20 15 17 26 13 13 13 9 13 14 28 3 14 3 20 14 14 27 19 13 20 19 7 12 13 27 24 20 24 23 19 23 9 27 16 19 20 7 17 21 6 19 24 7 17 20 18 19 17 10 16 9 15 15 10 23 21 6 10 20 23 19 20 30 20 24 24 15 28 0 20 31 10 7 13 10 6 21 19 7 13 19 13 20 17 3 19 17 10 6 14 7 17 13 9 3 22 15 21 32 13 6 13 6 6 16 6 13 12 10 14 27 27 22 12 21 35 26 21 27 19 20 13 24 12 0 34 18 18 16 17 14 10 9 16 9 21 26 24 7 25 14 7 14 17 7 3 24 6 16 16 26 20 12 28 20 17 10 24 6 13 19 21 12 13 23 20 13 18 6 21 10 21 14 8 13 14 13 12 24 17 11 14 19 13 24 17 10 19 29 6 29 7 23 30 6 10 23 20 24 20 18 17 24 14 10 23 10 17 26 14 15 23 17 19 3 7 26 10 23 19 20 23 26 21 30 9 7 6 10 17 19 10 7 10 27 17 13 10 0 6 13 20 20 27 19 20 21 24 6 20 20 16 10 21 16 15 14 26 18 17 6 28 24 26 13 22 8 10 13 17 33 12 12 14 16 3 22 30 22 13 18 19 30 10 30 16 10 10 10 17 24 10 17 26 20 20 19 12 8 3 23 20 26 8 23 24 23 17 24 13 20 16 20 14 34 27 9 17 31 31 19 10 3 20 28 39 9 14 13 20 16 18 24 3 14 19 9 19 20 9 9 32 10 15 13 13 28 3 14 27 17 10 16 17 30 13 23 7 13 9 11 33 16 16 19 26 12 24 13 20 18 3 21 15 6 23 3 19 13 7 9 10 17 27 32 17 13 12 16 20 17 24 14 24 16 7 7 22 16 9 20 8 0 21 9 24 20 23 14 12 26 10 24 9 10 26 16 16 23 10 21 25 17 21 3 6 19 13 9 3 13 9 3 20 23 17 9 17 7 12 21 3 31 18 17 24 27 23 24 14 17 20 16 12 3 20 16 20 16 13 25 7 10 10 13 10 31 29 13 17 14 17 17 10 20 23 14 6 10 21 3 7 7 28 14 24 13 10 24 6 20 26 20 14 13 12 17 22 17 24 7 6 14 19 27 0 13 19 0 21 40 24 17 21 10 6 26 24 17 14 30 16 26 17 26 6 23 22 14 20 7 20 20 21 6 21 14 14 17 19 14 7 21 27 35 6 26 19 15 10 19 12 13 9 23 10 18 3 18 14 30 20 23 17 23 27 9 20 27 29 21 20 17 3 10 13 16 21 16 21 19 21 31 22 9 9 10 13 20 17 16 12 13 21 6 18 26 20 27 13 27 24 3 24 20 13 3 10 28 6 7 17 10 6 6 24 19 20 20 19 39 16 13 24 13 19 20 17 13 16 20 13 17 7 10 7 6 14 10 7 14 35 28 20 14 10 17 26 10 23 20 41 13 16 21 14 13 20 12 6 24 17 21 28 20 12 30 7 17 13 10 23 27 10 16 10 6 17 6 33 27 20 13 17 0 16 40 10 13 21 7 28 25 13 12 31 22 17 13 9 16 6 21 19 24 17 26 13 14 18 10 24 9 23 14 16 17 17 26 12 23 8 21 10 31 20 17 31 20 20 17 21 14 13 19 17 7 12 17 13 10 14 21 23 7 13 17 16 33 17 27 16 13 6 3 13 24 25 6 14 12 12 23 21 19 7 27 20 16 14 3 17 24 7 20 16 24 24 6 17 16 13 24 23 28 6 10 11 20 31 2 13 17 23 17 20 13 9 17 19 20 24 24 16 10 18 22 27 2 17 38 30 19 26 8 10 24 13 13 10 17 16 20 20 20 13 15 20 10 19 27 17 28 23 19 20 14 17 20 23 11 11 23 15 24 8 6 13 24 27 9 3 9 13 27 27 24 7 21 22 6 26 15 17 14 17 17 9 9 19 28 17 24 6 0 6 21 39 26 28 7 23 14 29 24 9 22 13 21 17 3 27 27 3 26 10 17 10 28 23 17 15 17 31 19 10 12 24 20 14 16 13 20 13 19 18 3 30 6 13 29 10 9 13 14 11 13 28 21 11 28 6 24 6 23 22 9 3 19 18 23 21 3 7 35 6 10 20 15 19 23 23 19 17 10 20 9 19 10 13 24 23 6 24 22 13 14 23 10 23 23 16 16 14 17 14 7 31 3 9 12 10 10 20 27 20 27 10 10 17 27 31 21 13 16 20 13 14 16 18 31 20 13 24 33 24 20 21 42 14 20 17 13 19 16 7 7 19 21 6 24 24 12 19 20 17 21 19 22 3 15 13 28 17 16 13 14 14 26 20 11 15 7 3 23 7 17 34 20 23 20 16 11 10 14 15 13 14 16 24 21 20 13 13 9 17 29 18 22 21 13 17 20 26 21 7 17 23 9 16 21 13 13 24 22 23 20 14 17 9 21 17 12 29 6 16 21 13 23 17 25 12 13 16 10 19 16 14 13 10 28 30 13 22 15 21 18 24 18 6 36 10 26 20 23 24 17 20 17 6 24 10 24 27 25 17 7 21 24 23 26 19 0 21 17 22 26 27 28 0 26 28 13 19 15 14 19 19 7 24 16 30 6 24 23 20 13 17 20 13 16 17 12 28 16 9 17 17 10 30 14 26 14 0 6 30 6 13 31 34 7 20 13 27 10 21 23 31 24 20 19 20 15 21 30 16 14 16 19 13 10 9 21 13 17 21 13 17 21 23 24 13 20 10 16 19 20 16 21 9 21 16 6 23 18 24 14 10 13 20 10 36 10 13 13 6 20 17 27 17 10 26 35 16 9 20 17 23 23 10 27 19 24 17 13 16 6 17 10 9 14 18 3 28 17 22 24 38 16 20 9 14 21 15 23 13 24 13 3 16 19 21 24 31 22 16 16 19 18 10 17 11 11 20 9 20 36 27 17 13 31 24 13 10 10 16 3 30 9 11 20 12 19 13 24 13 20 13 3 27 20 23 3 14 24 27 14 16 7 17 10 16 24 16 21 14 10 16 20 7 14 16 10 21 30 7 7 22 20 14 9 23 17 14 30 26 15 0 9 24 10 10 13 27 20 13 21 20 0 13 31 13 25 23 23 24 20 14 26 29 21 29 30 6 3 19 17 24 10 14 24 10 15 14 15 20 16 13 0 13 17 20 24 20 11 6 22 17 19 27 23 13 10 17 20 19 31 21 13 15 10 17 20 17 24 16 20 10 12 17 16 14 17 17 7 10 13 19 16 10 11 30 17 12 23 9 16 27 19 19 24 27 10 33 23 13 0 14 20 24 13 13 13 13 26 14 13 13 20 11 10 24 26 17 10 27 23 21 25 10 23 7 17 21 23 24 23 23 14 0 19 31 34 17 16 20 3 20 3 13 20 6 17 20 20 7 17 20 18 10 30 10 10 16 21 6 24 13 16 28 10 6 23 20 13 19 13 18 23 16 16 23 17 21 21 6 27 12 25 20 17 16 27 14 32 20 7 20 26 16 21 15 17 9 17 16 15 14 30 23 34 21 20 17 14 27 10 13 21 7 31 24 9 24 27 17 14 23 27 30 6 9 10 6 10 20 10 20 20 24 17 20 3 29 3 34 7 13 26 10 14 19 20 17 21 16 22 16 13 25 17 10 22 17 26 16 13 13 9 20 3 24 20 13 7 3 17 28 13 20 6 17 17 20 33 7 23 23 17 23 10 21 18 27 24 8 24 17 40 14 7 14 30 16 26 14 24 12 28 17 23 26 15 13 16 13 16 25 6 10 15 10 13 3 14 39 19 27 17 21 19 14 20 19 15 3 24 16 21 17 17 33 16 17 13 17 20 27 27 10 31 10 31 10 17 23 27 14 21 6 10 3 10 3 25 27 24 31 15 20 27 23 23 25 6 6 0 3 21 20 37 31 14 21 19 16 21 9 6 10 20 20 11 9 20 16 13 19 9 10 19 15 22 17 24 16 10 17 9 21 13 26 21 17 17 3 15 16 10 12 16 21 10 28 9 27 14 17 13 20 14 24 23 12 14 20 10 16 23 22 26 13 17 7 24 20 20 17 3 16 20 20 17 23 6 6 10 16 21 16 3 18 13 31 17 28 20 20 22 31 19 13 3 34 13 9 15 17 23 11 8 23 20 17 20 23 22 14 14 10 7 17 10 7 23 10 13 19 20 11 24 10 18 24 7 24 9 24 11 27 10 10 24 10 23 20 23 18 13 16 13 17 7 6 3 21 15 15 19 33 19 23 15 22 15 20 10 30 32 13 15 21 24 24 10 20 8 6 17 14 10 16 35 31 23 6 16 13 9 15 17 17 30 21 10 23 18 13 24 13 28 24 27 31 17 6 17 12 19 19 17 13 16 6 14 22 31 3 24 13 26 14 6 19 23 13 28 19 6 26 34 20 23 24 14 10 23 14 10 11 7 16 23 19 17 15 17 20 15 12 6 9 9 16 14 10 13 20 20 24 6 16 17 23 24 26 27 0 3 17 19 16 27 13 3 20 10 13 26 9 23 6 34 10 34 24 15 14 23 30 9 9 17 27 17 12 14 7 14 20 19 6 20 17 23 3 9 7 29 18 17 13 41 11 12 31 10 17 24 9 20 16 3 6 17 19 16 12 9 16 16 14 21 19 14 6 14 17 31 24 24 7 14 17 14 23 27 6 19 30 21 13 6 17 10 34 3 19 3 17 13 3 17 24 27 24 3 9 20 7 16 23 30 24 21 23 24 31 23 30 20 25 24 17 10 19 20 0 16 23 17 0 0 18 13 13 10 17 24 17 19 24 22 3 31 20 19 17 19 9 14 11 20 7 13 6 7 9 20 7 38 9 31 28 22 27 14 17 23 9 10 14 16 23 21 23 10 17 24 7 24 10 24 17 7 20 10 15 29 20 17 16 3 17 11 24 13 27 27 26 0 16 10 27 10 19 20 10 17 13 7 21 19 26 14 16 17 14 15 17 20 19 19 27 10 10 10 19 13 16 6 3 12 31 17 6 3 9 7 23 28 14 20 28 13 10 10 19 3 27 17 31 16 18 27 13 14 6 14 16 21 14 29 21 13 25 33 32 25 9 26 7 17 30 17 10 10 10 9 20 10 31 21 13 19 19 10 23 21 26 24 24 28 0 17 21 23 0 16 7 17 15 14 31 9 7 3 0 28 26 29 14 24 15 10 22 9 13 8 6 13 20 25 27 20 17 16 21 10 26 12 14 21 9 16 20 27 16 16 20 18 17 24 14 28 16 28 20 17 20 16 7 6 3 21 24 9 17 16 16 16 0 13 20 3 10 20 13 17 20 10 35 21 11 29 7 13 9 10 3 0 10 7 21 28 16 18 10 17 20 20 19 14 3 17 17 16 3 19 7 13 11 6 10 13 15 20 20 21 20 10 26 13 10 14 31 13 12 26 18 9 6 14 9 27 12 24 17 23 10 17 24 24 41 3 22 27 9 16 14 14 17 20 20 24 6 25 7 6 13 27 28 30 20 16 13 17 28 14 17 13 31 12 19 14 10 24 17 13 19 24 16 7 18 17 13 0 3 10 24 9 17 13 20 22 13 23 17 24 24 20 7 3 17 20 28 21 16 20 8 20 24 17 12 16 17 19 9 9 17 28 20 20 23 10 20 3 3 13 9 3 28 10 31 11 22 30 20 19 7 13 13 12 3 16 9 14 10 14 7 17 19 14 16 13 24 9 6 15 27 24 23 14 21 31 21 13 17 12 13 13 16 26 14 25 12 27 17 27 13 20 7 17 27 17 30 14 12 23 10 16 27 21 17 17 17 21 15 24 13 26 23 3 29 21 14 7 17 20 20 12 15 3 24 23 18 7 20 21 31 28 19 14 6 3 13 6 13 14 6 20 12 20 19 14 20 24 12 17 16 20 16 24 9 30 17 20 36 10 30 23 20 10 11 20 14 31 17 17 6 14 7 16 18 13 21 29 13 10 17 10 14 8 12 27 16 13 13 7 13 17 23 10 10 24 20 16 23 23 13 17 14 24 6 17 27 26 30 17 23 16 12 13 16 10 10 17 14 24 31 23 21 20 17 20 26 9 14 7 10 9 6 17 11 10 20 23 23 24 16 14 13 20 9 10 20 9 16 3 13 7 16 27 17 15 20 24 23 7 19 19 13 16 13 23 17 9 17 24 21 14 17 7 9 15 24 24 13 12 17 3 31 20 13 28 21 17 31 20 27 21 16 16 20 24 17 10 15 17 13 13 16 27 19 10 9 22 24 13 13 31 27 9 17 6 30 13 13 11 23 13 24 21 10 11 6 26 16 21 14 10 15 17 21 20 28 20 29 15 17 20 13 16 20 18 26 10 19 9 17 35 28 26 14 23 31 21 9 21 21 23 9 13 13 7 31 17 24 13 10 14 25 6 27 27 29 24 19 10 12 8 30 0 19 21 20 9 10 9 13 6 13 28 24 24 17 12 9 12 17 15 40 7 23 18 3 23 30 13 3 16 28 34 17 21 6 20 6 24 13 14 13 17 17 20 17 13 13 6 21 14 16 10 6 10 6 20 13 24 27 8 13 3 30 3 19 24 10 13 17 13 37 6 28 7 20 14 31 14 23 17 17 10 21 24 27 12 13 15 17 29 24 23 24 16 11 13 3 15 23 25 6 24 13 19 10 20 17 12 11 9 10 10 16 13 16 17 20 13 22 16 7 28 16 7 6 13 20 3 23 26 14 10 23 17 19 16 16 24 6 22 7 19 9 10 7 6 16 9 20 21 23 13 10 14 18 20 26 15 6 10 31 16 19 7 13 21 8 21 8 9 20 0 15 6 19 13 23 31 27 9 28 21 12 17 16 9 33 20 31 17 20 11 13 27 22 23 35 23 17 17 16 17 6 19 19 10 12 14 7 23 29 16 20 23 3 24 23 21 3 20 17 24 27 13 13 19 24 24 17 17 20 20 19 24 28 14 9 32 9 29 17 13 20 12 23 7 23 31 14 13 34 10 23 24 21 3 18 29 3 16 31 17 12 17 20 22 13 16 17 7 6 15 21 12 7 7 18 12 23 17 16 13 14 23 28 16 30 37 20 27 29 31 9 28 16 16 14 14 23 16 38 14 24 23 27 20 27 20 0 8 13 6 10 7 20 10 20 15 14 14 12 17 6 22 37 7 30 7 12 13 24 20 10 3 34 27 27 16 13 7 17 20 35 13 26 13 17 9 3 19 24 14 11 13 13 9 31 17 23 16 24 21 6 10 16 19 26 17 13 13 13 7 30 18 36 17 25 26 10 20 13 13 13 6 9 24 12 17 17 21 9 34 13 20 27 26 17 14 0 27 17 30 22 13 10 24 10 13 13 14 17 21 6 13 10 10 13 9 13 27 26 7 9 20 28 23 33 19 14 23 18 13 14 16 20 14 19 20 7 17 17 21 20 6 15 19 20 20 37 29 13 22 17 10 17 13 23 13 21 30 23 7 16 7 24 6 17 17 9 21 26 9 29 14 13 20 34 14 14 14 7 16 21 24 29 13 3 14 13 13 20 13 17 25 24 16 24 24 20 17 27 24 20 34 22 17 3 8 19 21 6 28 6 17 7 27 10 12 26 11 10 14 17 24 19 17 12 20 0 15 14 33 31 6 0 14 5 13 17 7 26 16 17 10 15 13 14 31 27 13 20 20 27 16 13 23 21 13 26 20 0 20 16 0 24 20 6 15 10 14 13 21 9 22 13 35 20 20 10 21 24 26 10 15 23 13 20 9 15 29 29 26 21 20 19 9 19 25 20 13 35 20 9 9 23 23 3 27 10 19 0 7 37 18 10 26 13 7 10 9 13 23 6 29 30 15 17 7 21 17 20 26 7 20 21 13 44 16 8 24 16 21 20 17 9 9 20 19 19 20 3 24 21 20 27 14 16 30 13 10 6 12 7 41 17 31 24 17 24 26 27 37 23 25 20 19 11 20 12 7 26 17 17 15 15 28 28 20 17 10 19 8 23 20 25 6 27 7 18 14 23 27 24 24 20 13 21 13 23 14 18 23 22 20 3 17 34 6 21 15 13 6 16 24 0 18 24 14 10 12 20 24 10 15 24 20 17 9 17 15 3 20 25 13 23 20 19 15 13 21 17 14 23 10 12 14 15 34 16 13 28 17 13 21 21 17 14 19 11 12 19 12 27 16 38 18 17 13 24 3 17 12 6 17 17 21 14 24 6 7 13 19 16 27 27 9 13 17 13 7 10 6 14 23 17 27 24 18 23 22 20 24 24 26 7 39 28 7 16 10 16 36 13 21 6 6 24 24 27 10 28 20 18 20 3 19 6 15 13 16 3 9 19 23 26 10 6 0 9 6 20 3 16 29 17 15 13 20 24 16 17 21 9 6 23 26 25 20 9 20 6 26 20 28 16 18 23 15 16 17 31 17 7 7 27 13 7 7 13 12 30 10 14 12 13 0 0 9 6 7 14 12 24 17 13 13 19 23 17 19 20 16 28 10 21 16 11 13 6 12 10 19 23 30 19 10 17 24 38 13 10 10 24 19 6 13 24 17 20 16 20 13 25 14 23 6 13 19 21 17 14 12 34 21 24 7 23 17 26 21 13 27 8 17 13 24 20 24 19 19 13 30 10 34 3 7 10 22 30 17 14 20 16 20 24 24 13 21 20 7 20 10 28 16 22 13 21 7 10 31 26 16 26 21 15 14 17 13 20 10 24 37 17 20 13 9 22 7 17 19 33 21 28 24 27 16 23 10 12 23 28 20 30 6 10 24 13 16 34 17 21 21 21 13 23 38 13 27 27 3 3 17 27 15 12 17 31 22 20 10 6 20 7 24 27 13 16 12 7 10 18 22 3 23 20 14 17 23 15 16 23 30 27 10 24 14 16 13 9 7 17 24 19 14 10 14 14 15 6 13 3 25 13 23 23 21 30 3 17 25 9 15 8 13 24 20 10 16 27 13 19 20 20 10 3 27 3 17 29 13 7 23 10 31 6 19 17 14 17 3 20 6 12 10 28 18 10 6 3 22 23 14 14 20 31 23 24 10 10 14 17 16 28 3 3 36 37 27 24 23 14 13 13 9 21 26 31 13 31 27 17 23 44 10 10 6 23 28 31 26 10 23 20 19 13 24 26 22 15 13 21 14 6 13 16 3 41 16 16 10 28 19 12 17 15 10 14 9 17 24 20 10 16 13 14 13 20 14 16 24 17 19 18 14 19 10 21 14 20 20 10 24 15 21 19 17 10 27 6 20 20 7 20 35 6 16 6 21 19 16 23 19 24 31 17 17 23 8 25 3 3 14 17 17 6 17 27 16 17 20 9 10 11 3 14 21 17 21 21 19 6 30 25 24 14 13 22 21 16 20 17 6 24 17 7 52 19 16 9 28 16 17 13 14 23 20 16 21 24 29 23 16 20 20 22 20 21 22 12 9 3 23 27 19 14 21 23 13 17 13 10 16 3 20 9 15 14 17 12 17 22 28 20 8 26 21 21 26 16 27 19 24 14 24 20 11 9 10 13 17 17 27 15 31 24 10 3 26 16 12 16 20 7 17 30 23 23 9 12 20 12 25 20 10 14 21 27 19 9 3 30 12 20 22 6 20 26 16 23 20 10 11 16 27 31 13 14 10 12 19 19 7 10 22 10 16 9 15 24 12 19 10 20 24 14 13 10 7 10 24 22 21 16 16 6 21 30 27 12 17 13 20 22 20 24 14 16 14 3 18 21 14 19 0 3 31 13 7 29 3 19 10 10 27 16 10 24 24 22 17 11 14 17 24 9 10 13 29 29 23 10 14 20 21 6 34 16 13 19 6 20 7 19 17 8 10 12 13 10 15 13 8 16 24 10 21 17 25 16 7 24 17 13 27 3 9 7 6 24 18 10 30 20 24 26 6 13 13 17 17 21 20 25 28 6 28 7 20 23 24 32 22 13 27 24 13 9 7 18 23 0 20 13 6 27 26 6 16 23 14 23 10 17 16 13 13 10 9 10 24 13 30 16 7 10 33 20 17 17 7 16 6 9 20 9 16 15 22 23 9 9 23 22 10 23 6 6 10 10 20 20 17 14 20 22 21 9 17 16 33 23 27 14 19 10 13 24 13 21 9 20 13 16 13 25 9 16 16 26 10 27 17 9 7 26 6 17 14 6 6 22 3 18 23 10 24 19 9 12 15 21 19 7 20 26 12 6 22 23 33 14 29 23 11 11 16 4 16 6 6 9 3 23 31 12 17 27 24 29 13 7 17 31 9 19 17 21 24 13 6 19 7 17 10 9 24 17 20 20 17 17 13 30 29 19 17 20 0 7 24 7 13 17 20 17 13 24 10 25 32 20 18 19 18 7 20 18 14 28 7 30 3 14 3 13 20 9 14 24 13 13 22 14 17 10 30 0 16 14 21 26 17 13 16 24 15 28 14 20 14 19 7 21 10 17 17 34 27 21 10 16 17 23 24 24 9 30 14 21 19 20 6 21 3 7 9 31 17 20 21 10 14 31 20 20 14 0 16 7 10 20 20 20 0 17 12 22 16 19 9 6 18 14 29 17 10 20 22 12 7 28 23 31 23 7 0 21 16 15 21 26 14 23 0 23 23 31 14 9 17 20 13 25 14 10 0 14 19 17 9 14 31 24 17 14 13 17 16 15 10 16 23 9 6 22 20 10 9 16 14 34 20 14 16 6 30 24 16 20 10 13 19 29 21 16 11 16 16 10 26 31 14 10 17 20 12 35 37 6 18 20 7 14 17 10 20 20 3 26 13 16 10 13 12 13 6 24 20 12 6 7 14 23 10 10 19 13 14 21 13 23 6 19 24 16 16 20 19 20 10 20 6 16 20 15 3 12 19 19 13 3 27 6 17 12 10 17 13 16 20 17 13 20 22 14 24 27 33 13 9 19 23 13 24 17 22 17 16 35 3 19 13 27 20 17 10 18 27 16 10 14 23 13 21 34 23 18 13 31 12 17 29 25 24 11 3 9 11 17 13 30 10 15 17 7 22 10 27 14 17 24 3 19 3 34 24 16 20 13 17 12 6 3 27 20 18 20 12 18 0 20 17 24 17 16 23 17 27 21 19 13 23 10 16 24 19 24 13 19 32 7 20 20 20 17 20 24 9 17 17 23 10 20 24 21 20 36 3 30 13 10 31 6 7 13 24 21 22 30 31 21 23 18 20 6 13 22 14 17 19 20 13 16 23 7 29 25 17 12 24 26 16 16 6 13 10 13 14 31 24 17 16 22 28 17 10 19 19 14 22 21 13 24 17 19 25 24 20 13 20 13 10 28 26 9 20 23 19 15 11 26 35 31 16 7 24 12 10 10 30 20 17 14 18 12 7 25 19 3 23 21 18 14 11 17 0 11 20 10 13 16 25 20 6 20 14 17 27 3 21 14 23 23 12 28 14 27 20 16 20 14 10 15 3 26 6 16 6 7 10 20 20 17 34 17 23 10 13 24 20 6 3 29 13 14 16 24 3 16 14 17 19 14 22 9 21 15 7 13 13 14 17 13 20 3 12 16 14 27 6 12 25 28 27 3 10 15 13 23 21 24 9 15 24 17 9 11 10 6 27 14 17 3 13 23 6 24 14 28 23 14 20 17 25 27 20 10 26 23 31 9 3 10 27 7 10 25 0 20 31 31 10 30 7 16 9 13 19 28 10 24 13 19 21 15 26 13 27 6 27 16 23 17 17 17 24 14 12 15 24 19 17 13 20 21 23 17 13 21 3 9 16 17 23 20 27 17 10 12 3 19 11 16 7 20 29 20 16 21 32 13 10 30 18 29 6 17 21 3 10 14 16 30 17 15 24 14 10 24 13 19 17 13 31 17 35 29 7 10 24 16 24 19 13 14 11 20 18 30 18 13 7 23 37 14 16</t>
+  </si>
+  <si>
+    <t>MIE(6.251428477279939, 10.925722362021205, 0.06310321982185109, 24.082773443046335)</t>
+  </si>
+  <si>
+    <t>27 17 22 20 23 29 25 23 29 23 28 14 22 19 17 18 22 27 26 11 19 24 20 31 21 22 23 22 30 22 15 23 23 25 24 22 23 22 20 24 24 24 19 25 16 19 20 22 15 16 23 19 23 23 33 23 13 26 35 23 26 23 23 25 30 22 22 23 19 22 15 23 31 22 27 25 24 26 23 26 25 21 22 19 17 25 21 21 24 26 20 20 26 13 23 24 25 24 21 23 21 26 26 26 20 17 26 28 12 23 20 29 27 27 26 19 20 23 26 14 21 24 25 18 23 18 26 28 22 14 20 14 17 29 22 20 21 20 20 24 14 28 25 20 30 25 18 15 26 18 18 28 25 20 20 24 22 27 17 23 30 22 25 23 24 17 29 22 24 30 22 20 26 23 22 24 20 20 18 25 23 16 17 22 29 14 37 23 24 25 23 19 19 20 20 22 20 14 32 26 22 16 20 26 11 25 28 17 14 21 20 15 26 17 23 24 18 19 25 30 20 19 23 20 23 16 26 26 18 17 28 24 23 20 33 23 19 13 18 22 15 26 22 25 25 26 25 26 28 29 23 21 21 28 19 25 20 10 22 26 21 16 20 24 24 22 19 22 19 21 23 27 23 26 17 25 17 21 20 18 24 14 22 31 26 25 20 25 21 21 17 27 24 23 29 21 22 22 26 24 12 25 22 20 15 6 26 25 21 22 27 32 15 19 26 19 20 28 18 23 25 30 19 14 22 21 22 26 13 29 24 29 25 24 22 20 19 15 24 19 20 23 15 27 24 24 19 19 35 25 28 27 26 21 28 24 21 23 13 17 21 24 15 28 11 23 30 32 25 22 23 25 14 22 26 21 23 26 21 15 23 24 24 22 13 25 15 15 25 25 16 27 26 27 21 23 20 21 17 27 19 19 22 27 18 19 20 27 17 13 19 23 31 24 17 17 23 18 17 22 25 22 24 14 24 24 14 22 22 23 23 27 16 27 21 20 21 23 14 31 24 20 19 19 40 14 21 18 25 25 27 26 20 21 23 30 30 22 22 17 27 15 29 28 22 25 22 29 21 17 18 24 22 20 23 18 20 28 29 14 22 28 23 17 18 15 22 25 15 24 19 24 17 19 25 24 18 20 22 24 25 20 24 15 27 19 19 20 25 20 21 24 24 18 22 24 24 23 23 19 12 23 19 23 29 19 19 18 22 19 23 16 22 23 26 19 20 20 31 19 17 29 23 22 18 23 27 18 24 24 19 22 28 28 16 14 20 22 16 25 15 17 21 23 17 24 20 30 17 18 21 21 22 32 27 29 16 22 26 19 21 27 18 30 21 20 13 24 16 21 18 23 24 22 17 33 22 25 29 21 26 26 19 19 15 23 32 23 22 20 21 30 28 27 26 26 28 26 24 22 11 26 27 29 20 18 27 15 29 28 25 26 28 24 27 21 22 25 20 18 28 17 15 28 20 21 25 27 23 22 19 26 28 19 28 24 15 26 22 20 20 30 18 28 17 22 20 24 22 23 28 24 22 21 17 19 28 22 30 15 18 24 14 25 21 21 21 18 18 23 26 16 28 23 26 33 22 21 21 20 17 19 20 20 33 26 29 22 19 19 21 24 27 15 19 28 24 20 20 18 30 19 18 27 22 29 22 24 18 27 27 25 21 23 24 20 24 23 25 22 21 20 28 18 25 19 18 21 21 17 21 27 26 23 30 20 25 34 24 19 19 32 29 26 19 25 14 26 15 17 25 27 25 24 18 19 18 18 22 11 25 25 25 22 20 24 19 25 17 24 26 19 20 29 25 27 25 18 22 19 22 24 17 20 26 20 22 22 27 14 20 32 24 21 18 19 22 23 24 20 20 17 18 21 26 25 27 27 27 17 26 21 21 28 21 26 22 30 23 24 18 27 16 30 18 20 21 23 20 30 24 21 23 25 21 28 21 19 28 15 20 27 18 25 17 26 22 29 33 21 12 19 24 22 21 26 27 24 23 28 17 14 25 27 20 18 22 14 23 26 21 18 19 19 20 22 31 17 34 29 13 29 21 14 25 17 20 17 33 30 27 20 15 16 25 16 25 28 25 22 27 16 25 24 21 22 23 15 22 19 18 20 23 12 29 24 33 26 21 19 23 22 19 31 20 31 23 24 15 23 22 30 23 15 26 18 19 20 23 17 18 20 19 16 27 23 19 21 27 20 24 20 26 34 27 23 20 22 12 17 17 18 21 28 27 23 31 22 22 21 26 22 22 19 23 22 20 18 21 28 23 23 19 17 18 19 20 19 24 22 23 18 18 22 20 19 20 17 19 17 21 27 29 27 15 9 18 28 20 11 26 24 24 14 27 25 24 21 22 30 23 25 15 27 20 11 27 17 21 19 19 20 22 24 23 33 21 20 31 22 21 16 20 15 26 19 10 18 24 24 27 23 21 19 28 22 26 22 21 22 25 14 16 23 28 17 17 25 18 22 12 21 25 20 24 20 19 21 22 29 27 18 20 30 16 25 23 26 25 21 27 32 27 23 22 27 24 17 23 19 24 23 15 29 31 14 24 18 19 22 24 18 29 25 19 16 24 30 16 20 31 24 24 21 21 27 34 22 21 22 20 14 20 29 22 20 20 26 20 27 23 28 19 19 21 24 15 25 23 15 30 22 23 29 24 25 21 27 19 25 18 27 16 34 25 23 21 22 29 26 16 26 26 15 28 18 15 21 31 24 26 15 22 20 25 23 28 27 18 23 18 25 20 23 20 31 15 11 18 27 22 22 23 21 24 22 23 18 20 18 22 20 19 24 28 21 24 23 31 22 20 23 12 15 24 17 18 31 25 26 31 24 21 24 27 25 20 15 26 20 19 22 25 27 28 26 22 19 15 23 21 20 21 28 27 29 27 24 20 22 36 22 23 26 31 19 25 20 32 24 21 24 23 22 28 20 18 23 29 15 16 22 9 20 31 31 26 21 23 23 17 22 23 18 19 12 27 18 20 28 23 27 18 29 19 22 21 25 28 21 22 24 19 24 18 22 23 23 15 18 25 29 21 31 24 16 23 22 22 23 19 20 26 23 20 25 24 24 19 20 23 19 20 21 21 22 20 25 19 23 23 22 24 25 28 17 26 27 27 19 25 23 19 16 24 21 25 22 31 26 21 19 17 22 23 29 18 28 24 23 27 26 25 8 18 18 24 27 36 24 25 18 20 32 25 24 19 24 22 22 23 20 24 24 23 16 20 13 29 25 26 29 25 16 21 21 28 16 17 20 18 24 23 24 21 25 25 26 26 28 20 21 27 22 28 21 22 31 23 26 20 26 23 19 21 25 20 23 32 20 32 18 26 15 17 14 19 28 25 22 26 29 23 23 19 27 30 22 33 27 25 17 21 24 21 19 26 23 15 24 23 16 22 22 21 18 24 21 21 22 20 21 20 32 18 24 35 32 18 26 13 23 23 24 21 25 27 14 19 31 24 20 16 33 24 20 15 30 22 22 18 22 20 21 25 23 23 13 25 20 26 29 22 21 23 21 18 28 17 16 12 27 24 18 25 19 22 24 30 24 27 24 19 25 24 11 19 19 16 22 22 16 20 25 20 22 16 16 25 22 14 15 29 24 18 19 22 15 26 23 17 18 23 30 28 16 17 25 24 17 24 23 15 23 27 27 20 22 26 19 24 29 30 17 17 20 20 31 21 17 23 24 22 20 25 19 23 26 20 28 18 23 21 20 25 14 24 30 24 20 19 12 21 17 24 27 21 26 24 25 25 24 24 25 23 29 21 23 21 20 25 21 14 28 16 19 22 21 25 21 20 19 17 29 30 25 29 25 29 26 19 31 20 22 14 18 14 25 24 33 15 20 20 18 25 22 24 17 24 18 28 20 19 22 13 23 22 24 18 22 27 24 18 25 29 25 22 23 23 21 28 24 20 11 27 16 27 24 20 30 20 27 23 28 20 23 23 27 23 17 18 17 18 30 23 20 22 22 25 20 15 23 25 23 24 29 27 22 26 21 23 22 26 23 19 21 24 29 19 20 36 28 21 25 16 20 25 20 13 22 21 18 17 25 19 20 21 23 24 19 13 26 21 21 25 23 27 26 27 21 16 17 24 18 23 21 22 19 25 26 19 24 20 14 23 23 18 28 22 21 23 22 26 20 21 20 18 19 26 21 20 26 25 19 29 26 31 26 16 24 22 24 27 19 17 25 26 21 26 14 14 25 25 15 20 29 21 21 24 25 23 21 21 20 21 26 24 23 15 15 20 29 23 29 20 31 26 20 24 27 21 28 25 20 21 21 28 23 25 18 20 19 18 28 25 25 19 20 26 26 21 22 20 17 24 18 22 16 21 29 18 27 25 20 21 30 23 22 14 27 31 19 22 22 20 23 26 31 18 16 26 26 21 27 22 22 20 15 27 26 19 20 24 27 21 17 19 23 18 19 21 25 20 25 28 15 16 23 30 22 24 23 26 24 26 25 22 27 21 25 21 21 23 30 23 21 17 25 20 26 22 24 22 16 23 30 22 17 20 25 25 26 22 26 30 20 24 33 27 21 13 23 28 15 27 17 31 24 17 25 32 19 26 24 22 30 13 29 14 20 16 18 23 21 30 15 20 18 20 21 11 17 21 25 31 29 25 23 19 26 14 22 22 18 19 22 24 35 23 19 18 29 25 28 27 19 20 21 24 23 21 20 29 20 26 27 20 15 20 23 22 26 23 24 29 22 33 27 21 24 31 22 22 25 27 28 25 22 25 15 14 19 23 27 11 25 19 19 21 29 21 13 20 26 28 21 20 34 20 23 28 18 16 28 24 18 16 23 20 19 22 23 24 18 18 29 21 20 19 23 24 18 22 25 21 21 19 19 23 19 31 24 25 28 20 21 24 17 16 26 22 21 24 14 23 19 24 27 16 22 20 20 26 20 27 23 25 25 24 17 20 22 16 19 21 22 23 15 29 33 21 21 19 21 30 22 23 25 25 21 23 20 17 18 20 21 30 24 21 26 17 26 23 18 25 27 24 25 24 25 22 22 18 27 22 26 25 24 20 21 18 22 21 13 26 22 22 19 29 27 22 24 22 23 19 30 29 33 20 22 28 22 16 19 32 38 26 23 28 26 27 18 24 16 17 19 19 20 21 28 24 26 24 27 23 24 18 22 19 21 27 24 22 25 23 21 20 17 19 20 26 20 15 19 28 21 26 20 25 16 20 22 25 30 17 19 16 21 17 22 27 29 16 26 18 26 19 24 27 24 21 23 16 30 21 23 23 14 15 28 23 31 26 21 17 28 26 24 25 31 18 25 26 28 22 21 17 16 15 22 19 28 22 17 20 27 27 20 26 25 22 23 25 29 25 27 24 26 25 17 20 25 22 18 23 32 20 25 24 24 20 27 24 28 26 22 29 25 17 27 29 26 29 18 28 17 27 22 17 31 21 16 20 22 22 24 24 23 18 18 20 24 15 23 20 21 27 14 22 16 22 28 14 22 21 27 16 22 16 28 21 21 20 26 27 19 26 22 19 27 12 13 18 31 17 26 20 24 22 24 26 23 27 22 18 22 27 21 25 27 22 21 23 16 32 13 17 29 26 31 21 22 23 11 23 23 17 20 20 35 17 14 25 20 18 35 32 23 23 21 32 18 22 21 18 22 28 21 24 27 25 22 27 30 20 29 19 16 24 24 16 15 26 25 29 26 27 20 21 27 25 24 26 27 20 26 28 23 21 19 22 16 16 26 22 22 13 28 17 14 16 21 26 21 14 28 22 19 24 24 22 17 28 17 28 22 20 21 23 23 19 23 27 22 15 29 24 14 21 26 25 19 18 15 15 25 21 17 27 32 23 22 26 20 25 30 25 30 26 29 17 18 26 33 19 26 18 22 15 21 17 14 20 21 22 25 19 24 30 28 22 30 15 30 19 26 19 25 21 21 22 26 26 24 23 17 22 25 24 30 27 20 19 22 23 32 21 23 25 27 19 20 22 34 24 22 31 23 29 20 25 21 22 15 21 21 17 21 23 30 20 24 15 25 24 21 15 21 18 23 16 27 23 26 22 26 31 21 14 15 29 21 14 20 24 25 28 23 20 19 21 19 19 24 29 19 17 31 19 27 20 18 31 21 24 16 25 21 16 20 14 20 21 29 23 26 18 20 22 20 18 23 31 27 23 23 30 13 27 29 22 21 18 16 21 19 22 19 22 24 25 17 24 19 18 22 26 20 23 32 24 23 27 17 22 20 24 24 25 24 21 18 16 29 31 21 16 19 19 25 22 19 19 22 32 23 29 24 20 20 15 32 24 24 29 16 27 13 25 21 25 20 17 21 17 28 21 17 32 14 27 22 24 20 21 25 28 25 20 20 20 19 20 18 21 20 25 24 23 23 24 23 23 23 21 31 9 31 22 23 25 20 26 24 22 19 25 19 18 17 24 27 19 19 37 24 22 24 19 26 23 14 20 23 18 20 23 23 27 21 15 19 21 21 23 19 30 21 17 24 17 30 18 26 31 22 19 25 20 32 19 25 20 23 31 19 29 21 23 19 16 22 17 18 22 25 26 21 21 23 17 16 19 22 19 23 23 17 23 21 12 30 22 24 16 24 26 21 19 16 23 25 18 20 24 22 24 27 24 20 24 21 21 22 23 18 19 24 17 21 16 21 21 21 20 14 26 30 21 17 25 25 20 30 19 17 14 25 17 24 21 23 18 28 20 15 16 17 21 19 27 21 29 16 15 25 24 29 13 20 23 27 31 27 29 23 27 24 19 27 16 20 26 22 25 17 22 26 23 24 22 13 16 25 18 18 19 22 15 23 28 14 20 23 20 22 18 17 18 20 26 22 18 20 32 26 17 20 19 18 26 26 17 28 26 18 19 22 23 17 25 27 26 27 26 25 16 29 28 23 19 16 25 21 17 18 20 17 17 20 25 24 21 15 13 25 21 25 15 23 20 20 23 19 26 19 25 23 21 17 23 28 29 21 17 23 26 21 21 25 16 25 23 19 23 20 23 27 16 27 26 21 30 17 22 27 29 18 29 20 30 20 24 22 19 26 19 18 22 29 30 23 28 24 15 24 17 19 31 17 24 26 23 21 34 15 20 20 15 32 19 17 23 22 21 26 23 25 18 20 22 17 22 26 23 28 26 22 15 21 22 20 23 19 19 14 16 17 25 24 24 20 27 26 12 17 24 20 19 19 25 23 34 32 18 21 23 21 19 25 17 24 18 21 20 19 20 21 30 17 20 22 19 22 21 19 20 26 21 20 26 20 25 29 29 16 18 20 17 12 25 25 31 22 19 28 27 21 24 26 18 21 22 17 24 28 21 28 26 23 23 22 27 18 24 31 21 23 24 13 21 27 20 17 23 14 24 23 27 22 25 20 18 22 25 26 24 25 22 27 29 16 23 26 22 14 25 26 22 28 21 19 18 20 20 21 22 19 20 21 24 22 22 17 13 21 23 16 28 20 21 23 24 29 23 26 28 21 21 26 21 22 21 21 22 17 21 24 22 18 21 26 28 23 16 16 18 30 28 19 22 21 15 18 22 25 26 21 23 23 20 17 19 12 24 24 20 21 26 16 21 18 26 21 25 23 21 19 29 16 28 28 26 23 24 18 17 20 22 23 16 19 23 28 18 28 19 19 26 16 25 19 26 14 18 25 16 26 21 24 16 19 22 18 22 13 25 23 20 18 24 35 27 17 23 25 19 19 24 20 17 30 18 30 19 19 21 16 22 20 23 28 25 18 21 23 18 26 15 21 19 30 30 26 26 21 19 14 26 34 20 27 25 18 23 18 29 25 26 24 24 25 20 25 21 21 23 20 23 27 24 18 28 20 27 28 18 20 22 33 15 20 18 16 20 24 20 25 21 25 24 16 19 20 18 17 28 24 21 25 21 16 16 25 23 20 19 22 21 24 25 28 21 25 27 24 13 25 17 14 17 19 20 22 28 21 24 17 26 16 27 26 24 20 21 24 17 16 23 24 23 24 25 15 26 19 33 19 26 21 15 24 25 19 19 22 24 24 19 21 17 22 30 17 17 23 25 27 29 23 22 23 22 25 17 22 21 23 21 14 26 24 29 22 34 30 17 28 15 16 22 18 26 29 21 26 18 16 21 23 30 23 24 22 24 23 20 26 17 22 29 25 20 28 25 21 14 23 30 24 32 23 21 22 25 21 13 19 21 29 27 23 29 21 15 23 18 22 19 22 26 22 27 25 16 18 17 27 23 22 24 19 17 17 27 27 21 23 18 18 36 19 21 23 22 24 30 16 22 22 20 19 19 23 21 21 25 21 21 23 19 23 28 27 27 19 24 23 20 21 22 20 18 25 28 26 26 17 26 29 23 25 20 13 21 26 33 21 25 12 24 23 27 24 25 28 18 14 25 28 24 24 30 22 19 19 14 19 18 19 22 22 21 22 26 23 20 26 15 24 12 26 32 22 24 19 11 20 14 21 8 20 23 28 16 16 18 21 21 28 26 27 24 16 24 32 17 22 17 24 26 17 27 21 23 32 18 27 11 25 22 21 28 18 17 25 27 19 27 22 25 19 18 21 22 24 26 18 14 17 23 28 13 22 28 24 22 21 26 22 23 18 25 21 24 20 23 20 29 23 20 23 23 34 25 22 21 22 23 17 20 27 26 18 19 23 21 20 18 23 19 21 23 17 27 20 28 31 20 19 25 18 18 24 22 26 24 27 28 26 25 27 26 24 29 20 22 21 27 27 28 26 20 23 27 23 22 21 21 12 27 19 23 20 18 28 16 15 21 24 22 26 21 23 26 23 19 18 24 22 27 22 20 26 20 13 29 20 24 21 25 24 23 22 22 22 17 16 17 25 21 24 25 20 22 20 18 21 24 26 15 29 33 20 24 27 27 19 13 22 19 19 20 24 26 32 29 25 21 22 26 22 21 25 22 30 27 21 27 32 22 26 34 22 23 19 22 24 19 30 13 18 30 16 19 24 20 18 20 18 20 14 26 30 19 22 29 19 34 28 25 30 20 30 18 13 20 18 23 19 22 22 27 21 16 21 15 15 24 21 32 23 23 26 20 18 18 22 19 25 28 21 14 20 27 20 30 29 23 12 25 22 21 24 12 26 23 16 19 21 30 20 31 19 25 27 23 21 27 26 22 20 22 21 24 23 27 20 16 27 26 19 17 26 19 26 24 16 15 19 25 21 23 20 26 25 12 17 17 18 17 22 31 20 23 25 27 17 15 19 18 16 24 21 25 30 24 20 21 23 23 22 19 23 25 23 17 22 18 24 25 25 23 17 26 28 20 24 23 16 11 24 21 22 27 15 26 20 19 16 22 19 15 18 25 25 27 24 24 22 27 25 25 18 21 22 22 28 14 24 23 20 22 23 20 23 23 22 16 21 16 22 21 18 17 18 30 24 20 16 16 29 18 20 20 29 24 17 22 20 22 14 18 23 25 22 31 18 28 30 30 29 22 27 15 24 23 24 25 18 24 17 25 21 24 22 28 26 19 25 30 25 25 16 19 23 25 23 24 14 17 26 26 20 25 20 20 27 24 13 18 22 18 17 24 13 22 17 26 28 23 20 20 22 18 17 26 26 21 17 18 26 27 33 22 14 19 33 28 26 27 29 18 19 26 25 16 26 21 17 20 16 26 19 21 26 18 25 13 26 24 25 31 29 25 23 23 23 27 29 23 31 24 31 25 15 31 22 23 22 23 19 22 17 30 25 19 26 19 27 28 18 21 23 30 26 24 10 19 30 23 19 21 25 19 15 22 18 24 24 27 23 27 16 20 15 33 18 17 19 25 17 29 24 20 20 18 22 29 16 20 17 21 20 26 27 23 25 22 31 26 19 26 17 20 23 19 23 23 23 20 25 19 24 18 23 25 25 24 15 23 28 31 29 23 25 19 25 28 28 20 13 13 28 19 23 18 23 33 20 24 18 25 16 26 27 21 20 22 29 21 22 23 22 22 26 17 24 28 18 21 16 27 29 33 21 30 23 21 24 15 18 15 29 23 21 26 26 28 23 24 21 28 20 25 22 25 28 20 28 15 27 24 23 20 29 24 24 26 19 25 29 21 24 17 22 21 26 25 20 27 25 23 18 24 20 19 32 16 21 17 22 14 29 22 29 25 27 20 33 12 22 26 16 16 15 26 22 29 21 25 19 28 19 16 26 20 21 21 20 15 23 22 22 24 25 27 19 22 15 23 23 25 27 25 26 27 14 17 24 24 23 28 22 24 26 28 18 22 27 21 23 27 28 24 25 23 16 25 22 22 29 20 24 23 16 17 30 25 14 16 17 28 13 21 25 25 20 17 20 17 22 12 23 30 20 23 18 31 17 30 19 26 17 23 24 19 15 20 17 20 22 26 14 26 16 23 22 18 27 17 35 24 25 19 17 21 39 20 19 29 19 24 17 20 16 22 25 31 26 22 31 20 21 13 17 15 25 22 17 21 27 21 25 14 24 27 27 19 24 20 26 14 23 17 34 24 23 20 23 25 22 22 28 28 24 23 24 30 23 20 23 21 28 18 13 20 23 23 23 22 19 22 25 26 17 22 16 20 15 26 23 17 25 28 14 22 25 25 23 16 18 17 24 34 19 21 26 25 18 27 22 13 30 14 21 20 22 19 17 26 20 27 18 25 25 23 28 28 19 27 24 24 27 18 18 26 27 25 19 28 20 30 29 34 16 28 34 22 32 18 27 15 18 28 26 18 17 19 17 13 12 22 14 26 25 26 16 24 25 19 27 20 21 29 20 25 23 25 17 15 18 25 31 22 29 20 33 15 19 19 34 19 28 27 17 29 16 30 24 22 18 25 29 23 29 20 30 12 23 13 18 22 17 23 29 20 17 24 27 28 18 28 26 22 21 17 15 19 22 33 28 27 23 22 28 19 24 21 21 21 19 19 21 22 17 22 15 25 18 31 26 22 23 24 19 19 21 13 23 24 22 35 25 20 20 24 24 22 31 16 20 25 24 19 28 23 18 26 20 28 19 17 18 23 22 19 15 25 21 23 16 24 20 18 23 21 20 15 24 15 29 14 25 11 18 22 25 22 20 26 19 18 21 22 20 22 22 22 26 26 15 17 21 30 20 16 26 19 18 20 25 22 27 22 23 24 29 23 18 12 24 20 22 18 23 22 26 14 31 24 28 29 18 23 23 18 16 30 15 22 26 18 22 32 18 20 21 24 29 20 23 19 20 23 26 25 30 24 19 24 25 22 23 26 27 19 25 23 21 15 19 9 17 25 20 23 25 28 18 19 24 19 25 20 18 19 22 16 20 20 28 19 14 19 30 25 21 27 26 22 21 22 38 28 19 26 20 19 23 21 16 19 19 37 22 22 23 17 19 18 23 23 20 18 17 24 24 23 24 21 24 24 24 23 19 22 21 22 26 17 23 20 27 24 26 22 26 23 23 21 28 22 24 19 21 31 19 27 23 21 20 22 28 28 19 21 15 23 19 27 20 33 27 21 25 13 27 18 24 20 23 24 25 15 26 19 24 17 26 26 22 23 33 24 28 26 24 18 21 24 22 28 30 21 29 18 25 25 21 26 19 14 19 29 24 30 25 21 22 20 18 18 20 26 20 28 21 19 17 26 24 14 26 24 18 21 11 18 19 19 21 30 20 26 25 16 14 21 24 15 23 16 20 22 25 20 16 21 23 25 26 20 27 16 11 30 21 18 23 17 13 23 25 17 24 23 22 23 22 28 27 26 20 21 21 25 16 28 15 27 19 21 34 18 27 16 15 21 26 26 14 22 19 23 20 22 19 21 25 25 12 19 23 20 23 24 26 26 20 26 25 27 19 26 24 20 24 26 20 25 17 27 24 20 17 28 26 21 25 22 17 29 25 23 18 25 19 21 30 15 22 16 20 19 28 22 23 33 21 21 20 20 18 19 20 21 28 18 21 30 25 17 19 23 29 26 32 14 20 18 25 19 18 18 32 16 26 24 21 27 23 27 20 24 24 12 28 26 27 23 30 28 24 21 23 8 26 24 25 28 24 26 24 26 26 20 14 23 18 24 29 21 20 21 21 22 19 25 25 15 15 28 19 23 19 16 31 22 18 23 24 14 15 23 14 29 15 34 20 25 18 21 35 20 28 21 17 27 27 20 24 22 21 22 19 14 18 22 22 23 29 20 26 26 24 26 18 19 21 29 19 17 23 26 29 26 22 27 26 27 26 20 25 21 21 23 29 24 21 22 17 22 19 19 23 19 27 25 24 29 26 29 38 18 20 27 28 21 23 25 14 22 17 25 26 21 21 22 17 24 22 17 27 20 21 23 12 26 22 27 22 25 19 25 28 24 18 26 29 26 20 18 23 21 23 24 27 20 22 27 26 25 21 19 19 14 18 24 17 20 18 23 18 26 29 27 20 27 20 25 27 20 19 19 20 24 21 17 21 33 21 17 22 17 19 21 22 19 26 28 26 21 20 24 18 17 22 19 28 28 19 22 20 23 23 20 21 21 20 19 23 30 18 22 18 21 23 22 20 22 23 23 22 27 23 20 22 21 28 31 20 18 24 31 21 31 20 20 21 27 27 26 22 23 33 24 23 27 32 24 24 21 27 28 21 25 24 28 22 26 17 23 22 21 21 25 23 26 22 24 24 24 22 16 24 22 35 24 27 17 26 24 29 21 20 25 20 26 22 23 20 20 24 24 32 14 19 18 17 25 23 23 23 29 20 23 22 18 26 25 26 26 23 27 16 13 19 21 22 26 26 30 19 11 27 22 21 17 22 27 26 19 29 27 23 18 30 35 24 30 16 16 27 20 22 28 18 20 18 21 22 19 32 19 24 20 20 26 25 19 24 23 23 33 25 22 27 15 24 19 10 26 18 18 22 25 23 24 20 19 18 16 28 32 16 22 21 19 21 16 18 28 24 24 18 20 17 21 21 19 18 25 23 19 19 27 21 22 20 13 24 29 19 29 28 22 24 28 23 16 21 21 18 15 25 25 22 30 26 25 32 16 16 14 26 18 19 20 21 19 19 13 16 29 28 22 20 23 23 25 24 22 25 25 18 21 17 19 20 26 26 20 24 17 21 15 27 30 19 24 24 23 25 18 15 22 22 28 16 16 26 24 21 23 25 21 25 30 18 26 22 20 18 27 26 25 20 20 17 26 15 32 29 18 16 20 26 18 24 20 20 32 26 26 25 25 22 24 26 21 17 13 27 25 28 20 25 20 21 16 24 22 19 21 19 22 15 25 24 18 29 14 36 24 23 23 21 27 21 21 32 16 23 17 23 24 18 22 15 25 17 22 26 24 19 22 20 32 27 27 28 16 26 19 15 21 21 23 26 18 20 24 26 24 26 28 17 21 27 21 29 29 18 25 19 29 19 18 18 27 24 27 13 21 14 18 23 27 23 21 18 33 22 22 17 23 22 20 26 21 19 28 29 27 18 18 31 23 26 15 21 20 12 22 30 18 18 21 29 19 22 29 30 23 24 24 23 27 34 25 22 24 21 23 22 21 27 24 20 20 17 23 24 27 16 22 27 16 25 25 28 24 24 27 21 22 19 27 20 25 19 23 23 28 23 24 25 18 21 18 23 19 18 22 19 24 23 25 27 29 25 22 12 26 22 17 23 21 29 23 16 28 20 25 16 25 30 17 21 17 22 15 26 22 20 19 27 22 32 25 23 20 25 25 18 18 21 22 15 25 18 17 26 20 31 21 28 18 24 22 19 21 21 24 22 22 23 21 22 22 26 18 19 24 27 23 23 34 25 28 17 21 22 31 21 23 30 21 21 21 21 18 18 23 23 19 21 21 18 19 17 30 19 17 28 28 27 21 21 25 22 26 24 20 24 25 23 28 26 22 22 26 28 28 23 18 22 23 18 20 17 23 22 16 18 18 19 33 20 29 15 17 21 13 23 18 27 15 18 20 15 22 26 17 18 16 15 20 22 16 21 20 13 26 21 28 20 29 24 12 17 23 17 20 21 14 24 18 21 20 21 14 22 20 11 30 25 19 20 29 30 24 31 24 26 32 19 27 16 12 19 24 19 28 22 20 24 22 25 19 27 21 23 15 21 31 27 23 27 26 21 20 25 23 25 28 11 29 25 25 23 13 23 20 22 20 36 23 24 23 15 22 22 25 24 25 21 18 28 24 33 28 17 25 33 19 26 24 25 18 22 23 24 33 23 19 25 27 18 29 21 19 28 23 25 27 22 18 25 16 26 23 21 25 25 26 33 23 15 22 32 23 20 28 29 17 31 27 19 22 22 23 32 25 29 17 19 26 14 20 17 19 27 26 21 27 27 24 21 22 25 22 27 13 21 21 16 13 28 18 28 25 21 29 32 25 23 32 25 19 30 25 21 22 19 23 26 17 25 18 19 26 32 16 22 27 27 19 13 17 34 21 13 26 25 20 22 14 22 24 24 20 22 18 20 24 27 17 30 23 22 24 17 19 16 23 19 22 24 22 30 20 17 29 19 22 16 25 29 15 28 25 28 21 24 28 23 22 25 29 23 25 20 20 25 13 25 37 22 18 22 20 28 22 19 20 29 27 23 23 26 22 18 25 19 12 19 20 24 27 25 26 26 25 26 16 26 27 19 20 25 23 28 19 29 21 32 21 16 30 22 18 26 26 20 19 19 20 24 14 22 26 30 23 16 29 23 20 17 15 26 25 15 31 27 23 18 24 32 18 22 16 24 26 17 27 23 25 22 25 23 21 20 20 24 20 24 27 17 23 21 22 16 26 16 27 20 19 23 23 27 20 15 27 23 17 25 24 25 24 22 18 17 20 22 18 21 18 20 18 17 25 18 16 26 17 19 17 15 24 20 23 20 26 24 22 20 23 20 27 20 26 26 21 12 23 25 21 18 25 23 20 22 18 26 22 20 21 24 28 19 30 25 23 20 27 26 18 19 19 21 23 24 23 23 25 23 26 21 23 24 22 18 26 23 21 28 26 27 18 18 15 19 27 20 17 20 23 17 26 15 24 20 28 23 24 26 21 20 30 24 19 21 24 23 21 18 28 25 13 19 22 20 20 24 26 16 15 26 22 21 21 25 20 20 25 18 24 24 13 23 20 26 17 28 26 17 17 21 16 28 25 23 31 19 19 22 28 23 22 22 15 21 20 16 22 26 19 27 21 24 30 28 21 21 28 19 20 26 27 19 21 20 25 25 23 25 29 22 23 20 21 16 24 25 26 20 20 25 29 20 20 22 20 21 25 23 25 23 21 20 21 18 21 21 22 24 16 21 29 19 18 20 22 22 24 25 25 19 15 27 30 31 22 20 27 22 16 19 20 17 20 19 16 21 22 26 21 18 19 27 29 19 19 28 22 17 25 22 19 22 10 16 18 22 22 23 19 27 19 18 24 20 21 18 20 16 18 21 19 27 24 26 24 15 28 14 30 20 17 22 25 22 21 17 26 33 31 25 32 17 20 24 22 25 26 21 20 23 29 17 22 28 21 20 22 21 25 22 30 26 29 20 25 23 20 18 24 28 17 22 27 21 16 21 16 13 26 22 25 16 23 21 28 26 16 22 26 25 25 23 18 29 18 22 27 20 16 23 16 21 26 28 19 19 23 23 20 21 23 27 20 18 17 16 26 26 19 28 20 24 23 25 17 19 19 24 22 21 21 26 25 27 22 19 15 29 20 27 26 28 23 15 26 21 24 25 22 26 27 19 24 20 27 22 21 24 19 26 25 28 20 27 27 25 19 27 26 24 22 17 16 14 24 37 20 19 20 12 14 16 21 21 24 23 24 24 20 12 24 20 24 21 27 24 22 18 21 18 20 11 30 22 26 26 22 33 23 28 29 31 21 20 21 22 25 19 22 26 25 30 24 19 25 16 22 12 25 21 19 20 26 22 23 26 18 18 21 18 12 28 17 26 25 15 27 20 19 11 16 15 20 26 24 22 19 17 26 27 23 22 19 29 17 29 19 23 23 24 23 28 26 22 26 22 14 25 23 17 18 12 26 30 21 25 19 27 25 29 21 21 23 28 20 19 14 19 32 32 14 23 19 18 15 16 29 20 17 35 17 24 24 22 22 21 20 28 24 14 22 24 27 19 12 22 16 23 24 22 22 15 25 23 22 22 25 15 19 13 23 23 19 23 11 18 21 27 23 22 25 23 22 17 22 19 18 20 32 22 16 28 18 25 23 18 14 29 24 20 27 23 16 15 19 23 31 19 22 26 23 13 19 24 28 26 25 28 23 24 20 25 25 21 29 24 25 23 19 23 30 25 19 22 25 17 23 19 22 26 17 22 22 21 25 19 18 16 22 24 15 26 22 22 31 24 23 27 25 21 24 21 27 26 22 28 20 16 19 21 20 16 22 20 25 22 19 22 18 16 25 22 20 23 22 28 20 24 26 19 30 20 21 21 21 14 29 18 22 30 18 23 15 25 25 19 18 22 15 20 20 24 14 25 22 23 21 19 27 19 17 26 33 18 24 23 30 29 22 25 31 24 22 20 18 29 28 24 23 21 14 32 30 26 24 20 22 29 27 28 32 26 15 22 19 16 24 26 17 28 27 20 19 26 14 19 20 21 26 13 27 21 28 18 33 17 27 21 19 18 20 28 31 20 21 30 21 25 13 16 18 15 18 28 24 20 20 21 25 29 21 24 14 26 22 20 28 27 21 23 29 14 25 23 14 21 26 25 23 25 24 17 20 18 30 23 23 24 26 29 23 22 19 22 16 24 22 27 26 22 19 22 25 15 31 21 21 22 23 14 28 26 19 25 21 18 26 22 27 24 24 22 16 27 26 20 20 22 19 26 24 22 28 21 24 23 18 21 23 11 19 27 16 29 24 24 21 17 20 19 18 24 23 22 27 21 22 23 16 22 17 16 15 19 18 25 25 22 22 22 19 19 24 19 19 28 19 20 25 17 30 26 21 20 24 21 24 25 23 22 23 17 23 19 26 24 15 20 22 25 29 24 21 22 26 19 20 23 25 14 18 19 21 23 25 21 23 14 10 24 15 15 28 30 30 17 23 18 25 30 23 21 21 29 30 29 14 20 18 23 20 25 26 14 29 19 24 22 24 21 22 32 33 25 18 18 18 16 20 19 14 27 23 24 25 19 21 19 18 24 22 18 24 25 19 19 22 21 19 15 23 28 20 19 26 15 23 17 23 31 31 25 19 26 20 14 22 19 22 25 22 22 24 23 19 24 22 21 27 25 17 31 27 28 25 14 19 27 15 24 22 24 15 24 20 26 19 32 27 23 28 20 19 22 21 17 23 21 26 19 33 20 26 19 27 21 23 21 27 25 25 27 20 21 28 25 37 15 28 22 27 15 19 19 31 24 23 20 23 18 23 22 19 25 18 32 30 26 23 27 23 29 17 25 25 22 20 19 23 21 30 24 29 26 21 20 20 22 24 19 25 35 24 21 27 23 12 21 22 21 15 21 22 25 18 14 22 20 15 18 22 23 26 25 24 18 26 30 29 16 20 25 24 33 16 28 24 20 13 14 24 19 19 14 20 26 24 28 23 20 21 16 17 28 26 25 26 17 24 20 20 30 17 18 26 16 23 27 17 29 30 28 26 23 31 27 26 25 28 21 22 17 23 17 22 25 20 24 16 20 18 26 17 22 18 25 12 23 29 26 17 21 21 25 24 30 24 24 15 20 28 22 17 26 20 18 23 25 19 30 25 20 28 22 16 14 28 27 26 24 24 36 30 24 16 29 21 19 23 24 25 22 19 18 31 20 23 22 23 21 24 27 30 19 24 20 23 24 24 24 25 27 23 22 13 18 15 29 15 19 27 17 18 23 30 17 23 20 27 17 24 31 27 23 20 23 21 29 31 22 29 20 24 20 29 20 23 28 30 18 22 20 22 18 22 14 22 24 24 32 22 21 20 25 15 24 17 18 29 20 28 19 20 20 27 24 21 20 22 28 25 22 30 29 27 18 27 37 29 17 24 19 19 32 20 31 23 24 25 18 21 15 26 12 26 21 24 23 26 22 24 29 32 19 12 18 29 29 31 20 26 35 19 24 20 19 18 23 22 24 17 22 24 28 15 28 27 28 22 22 24 23 17 20 21 19 24 26 22 26 23 19 18 18 21 21 25 20 15 19 19 17 22 24 21 24 18 19 20 22 24 16 21 26 27 25 11 18 19 17 27 15 22 26 27 25 31 21 16 24 23 21 25 19 18 25 26 27 23 15 25 20 21 31 22 15 17 23 26 25 19 21 23 23 21 19 24 24 17 23 28 23 15 19 21 25 27 28 35 23 20 28 24 23 27 23 15 22 22 19 22 25 25 20 29 20 22 22 21 24 19 24 21 28 22 23 20 21 18 29 19 14 32 21 25 27 19 22 26 26 17 19 15 19 17 28 26 18 16 18 24 16 20 22 24 23 23 20 23 22 22 22 28 22 29 20 21 28 20 27 18 21 24 25 19 30 24 12 23 26 19 17 23 27 22 24 21 24 20 29 27 28 27 22 24 23 22 24 23 23 22 27 21 25 28 23 24 27 18 20 17 24 21 21 27 23 21 21 20 23 25 27 21 26 18 25 29 26 20 18 21 24 24 16 28 23 20 24 23 19 27 20 16 18 32 26 19 33 27 20 27 25 26 16 21 19 16 23 20 24 24 19 21 28 19 22 29 19 22 25 18 23 34 16 21 24 21 25 20 23 25 23 26 25 26 29 22 25 19 11 16 18 28 19 16 20 19 27 20 27 19 22 23 25 30 18 26 24 18 25 27 17 27 22 29 28 23 23 23 28 19 29 31 23 17 29 25 25 26 21 29 18 30 25 27 19 26 24 17 23 31 23 24 16 15 25 19 21 23 24 25 22 27 23 22 21 24 17 22 23 23 22 22 28 19 27 22 18 17 25 19 22 26 24 24 23 17 25 21 25 24 15 26 20 24 19 26 25 28 26 21 26 35 18 23 23 15 23 19 26 21 27 19 18 21 21 22 26 24 22 18 17 29 13 22 21 24 24 22 27 25 20 18 17 33 29 28 24 17 25 26 21 22 26 26 28 28 21 15 21 28 22 20 23 20 29 27 21 24 32 13 21 18 13 15 14 30 21 22 15 20 23 21 24 26 19 19 23 23 17 24 20 20 27 24 21 23 20 27 18 24 22 16 27 12 21 22 23 21 17 16 22 25 21 20 22 17 18 29 22 20 21 22 28 22 23 30 17 33 14 12 26 16 12 13 35 20 17 18 18 23 28 15 24 21 24 34 25 22 19 29 24 19 26 18 20 27 25 26 17 20 21 27 40 23 29 25 23 17 15 21 23 20 21 19 25 24 23 25 19 20 24 27 20 26 29 20 17 23 17 20 19 23 23 20 31 23 22 13 28 23 22 23 22 32 19 17 24 18 21 25 16 20 22 20 21 23 22 17 16 19 21 22 19 20 17 27 25 23 17 37 24 14 33 28 25 18 22 22 17 17 22 14 23 26 26 15 16 29 19 22 23 24 20 23 25 29 23 23 21 27 18 20 30 29 25 27 23 21 19 12 26 29 20 19 22 22 18 25 31 26 22 28 12 16 21 26 20 16 21 30 23 21 25 31 18 22 25 24 19 22 24 12 26 27 21 23 36 23 20 16 29 17 26 26 27 27 20 29 18 15 24 22 20 25 19 26 20 25 18 25 21 21 21 16 31 23 19 22 27 30 13 22 21 19 26 23 12 26 25 23 20 22 16 19 19 27 20 23 27 27 26 34 27 14 24 24 29 26 18 22 19 20 19 23 20 21 24 27 21 21 11 17 24 23 33 20 16 28 18 30 21 24 15 19 22 22 16 24 22 26 27 18 23 22 19 23 29 30 24 20 27 25 20 21 27 28 31 24 22 23 23 23 26 15 16 21 26 22 25 23 23 19 25 31 17 14 32 17 12 26 21 21 22 23 22 27 23 17 18 17 22 19 20 15 25 28 19 19 17 27 24 20 21 23 22 17 19 20 18 27 25 28 23 21 27 25 27 21 19 27 30 18 26 28 28 27 27 17 17 27 25 22 17 31 14 17 30 22 20 18 29 26 25 21 25 24 20 25 25 23 21 19 23 27 21 22 18 19 25 20 26 19 22 24 18 25 25 14 27 21 31 27 26 16 13 22 23 17 25 23 24 21 29 24 25 18 23 21 19 18 29 19 29 24 26 23 30 25 22 20 18 25 25 13 23 24 16 29 22 28 24 26 27 20 19 22 25 23 23 25 18 23 29 29 20 16 16 30 25 21 23 29 23 17 16 20 20 17 22 17 20 27 23 22 19 22 27 25 18 18 22 16 31 21 30 17 23 19 27 25 21 23 32 15 26 15 19 18 24 25 20 19 13 27 26 24 27 25 28 27 18 15 30 19 21 22 24 27 26 22 20 21 17 26 22 19 18 18 13 26 21 24 18 16 12 23 31 14 23 16 22 23 24 20 27 25 24 18 25 29 21 18 20 29 23 23 23 25 22 24 26 18 25 25 17 29 21 15 26 22 16 25 17 19 19 27 21 23 22 17 25 26 18 19 16 24 28 17 21 21 26 18 28 23 30 23 20 13 24 25 23 26 13 21 23 27 17 29 17 18 22 19 23 24 36 25 22 28 28 24 25 24 15 25 13 16 24 25 25 16 28 27 18 27 23 23 22 22 20 24 20 23 21 18 21 18 28 17 17 17 15 36 25 24 24 26 20 31 18 22 18 26 28 21 27 22 16 27 25 17 20 21 15 26 22 22 27 21 23 17 19 24 23 31 26 24 25 20 24 16 20 21 29 22 11 30 20 24 25 21 20 19 24 18 34 20 25 29 21 27 13 16 21 28 17 17 18 23 22 21 22 21 27 25 30 20 27 18 18 23 23 27 19 20 28 27 23 23 20 24 17 23 22 24 23 15 23 20 11 21 20 20 17 26 23 22 27 18 27 25 16 24 24 22 20 14 20 31 17 22 21 19 27 32 27 23 22 23 28 27 28 30 19 27 20 22 29 22 24 31 21 29 20 25 20 29 19 26 25 19 26 14 20 23 21 17 25 20 22 18 24 27 26 22 21 31 27 27 28 22 15 24 27 16 27 23 28 24 20 25 20 28 23 21 20 23 23 22 18 16 24 20 19 21 15 23 20 18 23 16 23 19 28 22 27 23 21 16 16 21 25 26 21 24 23 20 15 25 12 22 15 17 21 19 23 27 24 17 27 31 23 22 26 17 27 26 19 23 22 29 22 19 13 25 24 21 24 23 25 21 14 28 26 15 19 25 19 28 20 15 15 21 12 25 24 22 18 19 20 20 23 19 20 20 25 19 32 24 19 27 23 23 30 26 27 19 30 15 23 30 23 24 23 28 18 17 17 28 18 20 17 18 32 27 23 23 24 20 11 25 17 31 22 18 23 26 26 16 16 24 27 23 26 27 26 26 24 23 18 21 29 17 21 30 24 21 28 25 29 14 16 25 30 18 16 26 25 18 21 20 24 25 27 34 22 26 23 25 20 25 29 22 17 30 18 30 21 18 18 16 15 22 23 16 21 22 25 22 24 29 25 20 23 22 13 21 18 26 28 19 19 26 13 24 18 24 22 27 24 22 26 20 19 22 19 18 27 25 22 18 19 27 31 16 26 22 16 21 24 18 21 24 21 23 22 27 24 20 18 31 29 11 22 16 27 24 26 21 26 25 27 26 13 30 25 29 21 20 22 27 21 18 18 26 21 24 22 27 32 26 24 22 20 24 20 16 22 28 25 28 18 24 19 21 17 20 22 18 22 17 19 20 25 25 23 24 19 29 20 32 25 21 16 24 22 28 24 20 20 21 23 24 23 22 24 25 25 30 24 26 26 20 33 23 20 23 22 20 25 31 22 27 33 14 21 18 19 17 26 23 21 25 22 22 26 17 35 19 27 25 13 21 19 18 20 23 24 28 24 32 21 25 24 16 20 19 21 27 15 19 25 25 19 20 16 23 22 14 24 27 24 21 21 28 28 18 19 19 16 29 20 18 22 22 17 24 22 21 19 23 30 18 21 15 19 24 30 20 22 31 22 28 25 24 19 22 17 18 19 26 32 21 29 32 29 18 25 26 34 25 23 20 21 25 24 24 24 21 23 23 18 18 20 27 19 17 17 26 17 19 20 18 23 24 17 26 23 22 20 23 20 28 21 16 25 35 18 19 20 16 16 18 24 26 23 31 16 23 21 19 11 20 22 23 21 22 34 28 17 18 27 21 27 20 22 18 22 26 20 24 18 19 18 18 20 19 35 21 24 20 19 15 16 23 17 23 26 15 28 19 23 21 24 22 20 31 30 27 20 23 27 24 21 22 22 16 25 16 22 31 28 26 23 17 27 19 18 21 26 24 22 24 21 28 28 15 18 28 25 28 27 25 30 15 22 21 27 20 23 28 15 24 21 27 17 32 18 18 16 21 19 24 23 26 24 23 21 17 24 18 21 15 23 23 23 19 21 27 24 21 28 38 24 26 18 21 30 24 21 25 20 20 14 19 17 20 24 21 27 18 13 22 26 30 22 22 22 28 27 25 20 25 27 20 25 36 23 29 17 32 28 18 36 23 26 25 23 21 24 17 16 25 26 23 20 15 23 27 22 22 17 19 22 28 28 25 18 18 21 26 21 21 17 20 26 24 23 16 19</t>
+  </si>
+  <si>
+    <t>NIG(104.46993261416284, 71.5797257544948, -1.3000610345787518, 36.92104367300367)</t>
+  </si>
+  <si>
+    <t>36 25 27 31 33 41 31 37 43 31 34 27 33 28 30 31 36 41 33 24 35 37 36 51 31 39 39 34 44 35 26 29 37 38 37 32 28 31 33 35 39 35 29 40 26 33 29 28 23 22 32 30 30 36 47 36 29 32 45 33 43 34 28 38 39 33 25 29 33 33 23 33 41 29 38 36 37 46 35 31 40 34 33 33 33 34 32 31 43 38 30 34 33 27 39 32 36 45 26 34 34 38 38 39 30 26 35 41 22 35 27 36 46 41 39 29 31 42 32 27 29 38 30 34 39 31 44 44 28 25 31 20 27 41 34 35 35 30 28 36 21 38 35 35 40 33 27 29 35 32 32 37 33 29 26 35 34 40 32 29 39 34 37 35 32 36 40 35 35 41 39 29 43 38 27 32 32 27 35 37 38 31 30 35 48 26 51 42 30 36 29 33 40 29 30 31 32 25 52 31 28 30 31 37 27 30 38 30 24 31 28 22 38 32 37 29 22 31 30 37 26 31 34 37 36 25 32 34 27 28 44 30 34 31 45 36 27 27 26 37 19 38 25 39 32 41 36 30 36 37 35 28 37 34 31 30 34 26 36 36 28 25 34 39 33 36 32 32 29 35 34 36 36 46 26 33 23 30 31 30 40 30 38 47 38 36 27 32 35 33 24 38 35 36 36 33 29 40 34 36 21 39 39 31 25 13 36 40 39 40 45 43 27 30 43 28 31 33 30 31 39 40 24 22 38 37 41 35 27 43 33 41 38 30 43 32 31 23 37 32 26 36 27 34 40 31 28 30 50 37 42 38 42 31 42 37 39 33 18 27 28 33 24 39 15 42 34 38 34 34 35 35 26 34 34 33 34 37 34 19 31 35 33 31 22 35 26 27 35 37 24 38 31 42 31 35 28 30 20 42 26 40 35 35 26 32 30 40 27 23 31 33 47 35 26 26 38 29 25 28 41 29 35 29 34 32 29 35 31 30 34 41 26 42 32 33 41 41 22 46 32 30 34 26 53 31 30 36 35 34 35 33 28 30 42 41 42 34 38 31 36 22 43 41 33 33 41 45 31 36 25 36 32 35 36 40 33 36 43 30 36 40 34 33 28 30 29 33 33 34 27 30 30 27 32 30 26 30 39 36 30 31 36 30 34 28 32 31 27 36 32 39 40 30 29 34 39 38 39 27 22 31 31 29 40 36 26 30 27 29 32 29 32 33 39 31 34 31 38 34 33 40 28 26 29 39 48 32 39 33 27 28 36 44 22 25 40 33 32 30 23 24 30 31 28 34 32 43 26 36 34 31 33 36 36 38 22 29 34 31 32 35 29 42 26 31 29 36 26 31 30 28 37 31 30 47 37 38 45 36 38 42 32 32 27 35 39 34 27 29 31 41 37 36 35 39 45 43 35 38 17 37 35 39 33 26 42 25 38 39 33 42 41 30 41 32 30 39 28 35 41 27 24 43 31 28 36 40 32 36 32 31 42 31 38 29 21 41 28 33 26 42 23 45 27 32 27 42 36 40 39 37 28 28 34 36 39 37 43 29 37 36 23 31 34 29 35 31 29 30 37 28 36 30 34 43 36 38 31 31 32 26 35 36 44 40 39 38 31 27 28 33 39 33 34 41 31 27 28 25 42 31 29 41 29 43 30 43 27 32 36 32 28 31 36 35 34 36 34 29 29 31 38 28 30 31 24 28 29 32 29 34 32 30 35 31 42 42 31 33 30 48 34 40 25 38 22 33 26 28 40 33 33 30 23 31 33 32 42 25 37 36 33 32 29 34 32 35 30 32 41 31 32 42 39 43 38 32 30 34 32 29 31 33 36 40 32 37 39 26 29 45 36 27 25 30 37 30 45 28 32 31 28 32 36 40 38 40 39 32 40 42 32 42 31 36 34 38 35 33 27 45 26 46 31 32 31 43 28 43 33 24 36 37 31 40 33 34 47 20 29 41 24 33 25 42 33 40 59 33 19 28 34 30 32 41 30 35 33 43 27 21 39 33 31 34 30 38 27 36 31 28 27 26 29 32 39 26 45 36 27 46 29 26 33 30 29 30 44 42 38 42 27 28 39 28 35 45 34 31 35 28 34 39 36 37 37 26 33 28 26 29 34 26 36 41 43 35 29 32 28 31 26 45 33 41 37 34 22 35 40 39 42 29 35 22 33 28 30 24 30 27 38 23 40 35 26 34 38 28 35 32 36 48 45 34 35 35 21 32 30 34 34 43 43 35 40 34 31 33 37 29 33 25 36 39 33 22 32 38 30 35 35 28 29 26 31 37 37 37 31 28 26 29 34 26 32 32 26 29 32 36 40 41 21 20 29 43 31 23 38 34 31 26 32 33 33 31 35 38 28 31 27 32 32 25 44 40 30 38 25 28 34 30 35 43 27 25 57 33 32 30 34 22 38 25 18 31 35 32 39 30 34 35 36 34 38 34 32 36 30 19 31 37 39 31 28 38 29 32 22 33 39 38 29 26 30 32 34 43 34 28 26 42 24 46 31 36 37 30 48 45 38 39 35 34 41 28 35 26 35 38 30 33 43 34 38 34 29 30 29 26 41 41 27 23 35 42 27 24 40 32 34 32 34 40 49 33 27 34 26 24 29 43 36 30 28 37 33 37 30 40 29 29 31 30 24 43 35 24 44 28 33 42 39 34 28 36 29 31 32 58 20 50 39 32 27 36 36 36 24 29 36 25 48 34 26 29 43 40 43 27 29 33 40 32 44 41 30 41 30 41 29 32 32 36 23 24 27 31 28 28 34 38 36 37 32 29 34 24 31 31 28 38 38 32 39 38 38 30 27 38 18 29 33 29 29 37 38 34 41 29 34 37 34 33 30 22 34 27 32 34 32 39 43 37 32 33 27 34 33 29 27 35 41 39 37 30 29 36 44 31 34 36 39 28 36 28 48 32 32 34 31 28 41 30 32 34 46 27 26 30 22 25 43 42 44 33 30 37 29 33 41 28 32 22 38 30 30 37 34 34 30 44 29 30 28 42 42 32 32 37 31 38 33 33 37 36 26 28 30 44 27 47 37 19 39 28 33 36 31 31 35 29 35 37 40 42 30 31 29 30 31 28 33 34 27 38 27 34 35 28 33 38 38 26 42 32 37 27 32 44 28 26 38 31 36 30 43 39 25 31 24 32 31 34 26 41 27 27 38 35 30 19 29 32 35 38 55 30 39 30 35 42 42 32 25 34 35 29 31 34 37 31 36 24 23 20 43 29 30 45 29 31 32 29 41 22 27 28 30 35 37 32 33 36 33 42 34 34 27 33 34 35 33 24 35 36 32 41 34 35 44 24 32 37 30 34 39 30 39 22 42 26 37 22 33 36 35 33 43 36 32 42 30 37 43 31 46 35 34 27 34 37 32 30 30 41 27 33 35 23 31 32 31 30 34 32 36 31 26 32 27 44 35 37 51 44 29 41 23 28 35 35 37 35 39 23 32 47 32 34 26 51 35 30 22 39 33 36 30 33 30 33 36 41 35 24 33 29 36 39 32 37 32 33 28 46 32 21 30 38 37 27 40 28 28 34 51 33 35 33 31 41 29 23 31 29 35 42 35 28 30 34 30 32 30 29 42 34 24 23 35 35 30 26 33 31 31 34 30 27 34 43 41 26 25 39 33 29 39 34 30 40 37 40 36 32 35 27 36 41 38 26 30 26 28 41 31 24 36 34 35 35 41 32 36 37 32 40 30 34 36 26 32 22 36 40 40 36 28 25 39 27 36 39 25 33 41 29 33 32 36 42 38 36 38 37 31 30 37 31 20 38 34 31 28 27 34 28 32 35 27 39 43 40 44 37 43 41 30 45 33 31 27 32 25 31 38 47 24 31 29 32 37 38 32 28 35 25 43 34 28 31 24 34 30 37 31 32 34 37 31 32 38 34 33 30 33 25 39 40 34 20 35 22 38 32 26 39 32 37 27 36 26 34 38 37 33 26 31 33 41 39 28 30 35 33 36 33 24 37 33 30 29 39 41 28 45 36 31 37 38 39 34 34 29 36 27 32 54 37 38 37 22 33 41 29 18 34 31 33 23 33 32 29 30 29 37 31 29 39 28 35 36 36 35 38 42 33 30 28 35 32 31 28 30 33 37 33 27 31 23 21 35 38 26 42 40 27 32 38 35 35 29 35 29 31 38 30 28 36 38 30 37 36 45 36 34 32 35 34 38 29 26 33 33 27 41 27 26 38 31 22 28 40 32 31 35 39 39 35 29 34 30 36 41 36 27 31 31 41 31 45 32 39 32 28 34 39 31 46 38 33 33 26 38 39 40 28 31 32 24 38 36 33 29 36 33 31 32 33 30 25 31 26 36 23 34 42 31 45 29 26 28 40 34 39 28 36 42 32 35 37 27 42 38 41 24 27 38 35 33 42 33 26 26 26 39 42 32 31 36 37 35 30 25 37 30 31 34 33 30 40 37 31 25 30 44 35 33 39 31 33 41 31 33 42 30 36 32 36 41 41 35 31 32 36 30 35 34 31 28 22 31 34 32 24 28 43 36 37 34 31 41 30 35 47 32 29 21 34 33 29 38 27 43 37 30 35 39 33 34 33 29 44 20 39 19 26 28 29 30 32 41 19 26 33 28 37 26 33 28 34 48 39 37 34 26 38 31 35 28 29 30 35 35 42 33 34 25 36 33 45 41 32 27 32 34 35 35 40 45 31 35 36 32 24 26 36 35 38 32 38 40 32 47 43 32 32 40 36 32 39 42 39 39 35 38 26 24 28 30 42 16 33 26 39 29 40 31 25 33 41 36 36 30 52 27 44 43 26 22 42 40 24 27 33 30 31 33 33 39 30 31 39 40 34 29 31 35 30 29 34 29 32 31 28 35 36 43 33 38 46 32 31 34 29 27 37 30 35 30 19 35 28 34 37 23 32 34 32 36 30 41 30 39 39 29 34 28 36 29 29 32 34 31 22 42 43 31 33 23 37 37 39 28 32 34 33 36 31 27 34 34 28 36 30 37 37 34 38 39 31 39 41 34 36 35 30 38 35 32 33 32 42 32 41 30 35 25 39 31 20 34 35 36 34 36 47 36 38 28 34 32 43 33 45 27 32 36 32 30 30 42 52 34 38 32 34 48 20 38 36 33 23 25 32 28 41 27 41 34 36 31 32 25 33 29 31 46 34 31 36 31 36 33 33 22 35 37 36 24 25 34 33 36 27 41 26 32 37 34 43 27 29 30 32 25 30 34 37 23 33 27 37 26 33 37 31 34 33 27 38 31 38 38 28 26 37 39 45 36 33 27 42 36 32 38 41 26 40 41 40 33 27 30 26 26 29 25 41 33 28 30 35 32 31 38 36 35 37 42 39 32 38 38 37 37 37 35 36 30 27 38 43 38 35 32 31 30 37 38 44 37 40 39 41 32 43 47 38 38 31 42 25 35 39 36 46 38 23 29 31 29 33 39 33 36 31 29 33 23 31 25 34 35 25 38 27 32 34 28 35 36 37 25 37 31 42 35 32 30 37 37 31 40 40 40 40 27 24 26 39 29 33 29 31 29 29 32 33 35 30 30 32 38 26 39 41 33 34 32 28 46 22 33 35 45 46 27 31 43 27 36 30 28 39 25 52 34 25 35 25 27 50 43 39 31 29 44 29 32 24 28 37 32 34 31 36 41 38 36 36 29 46 31 23 36 35 29 28 40 37 42 38 42 33 38 37 35 36 35 41 31 33 36 30 27 32 32 25 26 35 35 31 18 39 28 28 29 32 32 35 21 42 32 34 28 33 33 35 41 32 43 32 29 33 34 37 32 35 41 36 27 40 31 24 39 38 34 30 29 23 25 32 31 30 41 47 35 29 34 29 37 42 34 42 35 42 28 26 40 45 30 44 31 31 27 30 26 23 27 36 35 43 23 36 37 38 30 46 26 42 31 34 29 34 36 30 30 33 38 42 40 30 38 42 37 41 40 39 28 35 29 42 36 39 42 36 24 27 29 46 37 32 35 35 36 38 36 32 35 23 33 34 27 30 35 37 32 35 25 29 40 32 27 28 22 31 32 39 32 38 35 35 39 37 21 25 49 31 31 32 36 36 46 40 36 32 35 29 29 38 39 27 30 47 31 36 32 27 38 35 32 29 36 30 29 35 23 36 27 42 29 30 27 27 36 25 29 31 43 36 36 33 38 26 43 39 32 43 29 29 29 33 26 42 35 42 38 31 34 27 27 40 36 35 36 43 34 33 40 31 33 28 38 36 38 31 26 31 29 37 43 33 29 41 27 34 33 26 29 37 43 29 37 37 28 32 26 42 34 30 40 28 39 24 34 29 41 31 28 35 29 37 38 27 40 27 33 36 37 31 30 36 37 39 29 31 41 30 32 32 33 31 36 40 35 43 38 31 36 32 30 36 22 45 31 38 42 30 35 33 29 30 40 35 32 24 33 41 32 33 48 36 35 38 32 38 30 23 29 33 24 28 28 31 35 34 26 32 31 29 29 28 42 30 25 30 34 47 29 41 53 32 30 38 26 46 35 33 28 29 38 34 50 33 34 27 29 27 26 26 33 37 33 35 32 41 31 25 34 37 24 33 33 27 34 34 30 43 35 30 32 41 32 30 29 31 31 39 24 30 35 41 34 37 36 32 38 32 29 32 32 42 28 43 28 29 28 32 29 33 26 24 32 43 31 21 28 37 29 37 32 30 27 37 24 40 30 33 38 44 28 22 24 25 29 38 44 32 39 27 27 33 33 50 18 26 43 39 39 38 40 33 41 31 30 37 28 28 32 34 34 27 30 36 35 31 29 28 30 33 33 29 30 30 29 36 43 26 31 32 29 37 32 23 32 31 38 31 28 31 46 46 29 29 31 26 35 42 33 39 44 31 39 31 42 32 41 37 36 33 37 35 25 36 41 39 36 26 37 31 32 24 28 28 30 34 41 38 33 23 18 32 32 35 26 29 38 32 31 27 41 29 42 33 30 21 32 39 35 29 30 36 41 32 30 28 27 35 30 26 32 34 34 39 24 42 33 29 42 32 40 39 37 30 37 29 36 28 33 33 31 34 34 34 38 36 41 36 42 32 26 30 32 25 44 26 37 36 34 33 48 27 31 35 32 37 32 21 34 35 31 37 43 37 27 33 35 26 26 39 34 45 39 36 27 43 30 29 34 24 31 29 28 25 37 31 44 33 42 37 25 27 34 33 29 28 41 41 42 46 32 32 38 29 28 45 26 34 32 36 34 25 29 26 37 26 33 32 35 46 31 27 28 36 33 31 34 36 34 37 35 20 31 27 29 20 37 43 45 28 30 46 38 40 39 37 27 32 28 27 38 37 31 40 39 34 31 39 35 34 33 45 26 38 40 28 30 39 32 27 32 31 32 34 45 32 33 29 24 37 41 36 47 35 36 37 43 25 38 41 33 26 43 32 34 41 31 29 23 32 34 31 33 24 30 34 32 35 29 25 21 30 32 29 38 30 28 33 32 39 42 36 44 29 34 37 30 34 38 26 32 28 33 30 29 23 35 43 34 40 29 24 23 39 42 28 33 34 28 34 32 33 36 33 31 34 25 26 32 18 35 33 40 33 38 24 35 26 32 28 35 30 36 35 38 25 39 34 39 34 30 28 31 35 34 35 21 24 34 37 32 39 26 32 37 28 41 29 39 22 27 38 28 33 30 29 24 31 28 23 33 27 39 33 27 27 32 45 36 26 35 32 37 23 39 26 32 45 30 39 31 33 34 28 33 28 38 35 36 33 33 41 27 31 29 29 29 38 38 36 41 30 29 23 42 50 36 35 48 34 29 35 38 36 33 36 34 32 33 39 35 30 38 35 30 37 33 27 37 43 43 34 25 29 34 42 26 33 26 21 29 30 26 34 32 34 37 30 29 30 34 30 42 34 31 39 33 27 26 37 35 25 30 35 34 32 41 34 34 33 37 30 20 35 30 24 21 29 24 36 41 27 35 29 46 22 37 42 34 34 33 38 28 34 39 34 39 35 34 28 32 29 46 38 37 34 24 36 40 26 35 32 32 33 29 29 28 29 40 22 26 44 32 45 39 41 34 33 35 39 30 32 39 34 29 24 33 36 36 38 39 43 32 36 33 28 35 30 38 43 32 36 33 25 34 31 42 32 36 30 33 37 29 37 33 41 36 35 29 38 32 29 23 34 41 29 41 41 37 31 34 31 18 41 33 38 42 34 40 30 33 32 32 29 39 32 47 37 42 36 26 26 27 40 36 30 29 29 22 28 36 36 36 31 27 24 50 32 27 40 28 33 45 29 31 27 33 29 33 34 30 28 38 32 29 37 32 35 36 38 47 27 36 33 40 32 39 33 28 36 36 46 37 33 40 37 42 32 39 24 28 39 45 32 37 22 28 30 39 41 40 46 27 22 35 35 36 34 43 28 37 30 33 29 33 27 34 38 28 38 34 29 30 39 24 33 33 40 41 36 32 25 21 28 25 25 22 35 38 35 29 27 31 27 32 46 38 42 37 32 37 43 29 38 31 33 38 30 31 40 31 34 30 47 21 35 30 38 40 29 26 32 40 33 42 34 37 26 31 35 41 35 31 32 29 30 34 43 24 34 36 36 43 29 37 30 32 28 33 28 33 38 35 32 36 31 33 42 29 46 35 33 31 34 29 24 27 37 34 32 25 37 32 28 29 35 35 39 48 27 39 36 35 41 26 30 35 28 26 32 34 36 33 47 39 36 41 38 40 37 36 31 32 26 39 34 43 38 31 34 37 31 31 31 35 19 46 28 37 26 28 38 30 29 37 37 37 33 29 33 38 28 28 21 34 29 38 33 28 34 36 23 47 34 33 33 33 39 42 33 26 34 24 28 26 38 28 49 34 29 30 29 27 30 31 34 26 36 42 31 34 42 34 31 28 30 26 28 28 32 33 47 45 38 41 30 35 29 30 35 27 39 39 36 37 39 31 38 49 30 33 32 32 41 31 51 24 33 49 29 26 37 33 32 36 28 31 27 36 42 34 29 39 30 44 38 34 36 33 35 27 20 30 32 34 30 32 37 43 29 24 32 28 24 39 32 42 32 29 38 27 29 22 33 25 36 37 36 29 30 38 31 47 48 40 25 30 32 33 30 26 36 33 33 33 30 42 31 41 31 37 44 34 32 38 42 31 28 31 29 42 35 36 26 23 44 35 34 34 33 29 42 41 29 26 38 31 33 35 30 35 31 24 31 23 25 31 27 43 30 32 37 47 25 27 31 32 28 34 31 32 41 30 30 31 32 36 27 25 34 37 35 36 36 26 35 35 36 29 31 39 45 33 33 31 31 27 37 34 34 37 21 35 32 28 29 35 26 17 32 37 34 38 32 33 31 38 38 34 34 31 36 34 41 22 38 44 28 34 34 31 32 38 34 29 34 29 30 34 27 25 29 46 37 28 25 26 37 26 32 35 39 35 27 35 32 39 31 33 33 41 37 38 25 34 37 40 52 34 37 25 35 42 40 41 25 34 27 34 38 37 26 47 40 31 42 38 30 33 25 29 45 36 31 29 21 30 41 38 34 32 26 31 41 48 28 29 33 34 25 37 31 28 22 39 37 39 32 32 33 24 31 32 46 32 31 34 40 39 45 29 24 35 45 43 38 44 49 26 28 44 38 22 39 36 30 32 28 36 33 36 40 25 36 23 41 35 31 45 39 35 35 38 34 38 47 32 47 30 42 37 29 46 32 34 32 37 28 32 23 40 35 32 37 31 34 40 28 27 35 44 37 32 24 27 34 33 30 27 38 27 32 34 35 35 34 37 35 41 23 29 29 39 26 27 27 33 27 51 37 36 33 23 29 38 26 34 25 31 31 43 33 31 37 29 44 35 28 39 24 32 33 32 38 30 32 30 37 38 33 31 27 31 41 34 28 30 36 49 42 37 36 30 41 36 34 35 19 36 39 29 31 30 31 50 30 33 29 36 26 38 39 27 29 34 45 33 37 36 31 34 33 24 33 41 29 36 24 47 45 40 26 38 36 43 36 27 34 26 39 36 32 38 34 35 32 41 31 39 27 31 30 37 41 36 34 32 44 31 35 38 45 29 32 34 35 37 36 28 37 27 30 44 36 35 33 31 37 37 31 34 28 28 57 31 30 27 29 25 48 27 38 40 35 34 46 26 28 33 35 26 24 36 32 37 31 31 28 42 30 20 40 30 31 40 25 25 43 30 33 37 39 39 30 32 27 38 36 34 41 33 33 39 27 32 28 35 34 38 32 37 40 41 33 31 35 32 29 47 36 39 33 38 29 37 32 33 39 25 39 29 29 29 44 41 30 30 34 39 25 29 41 37 29 34 31 29 38 19 34 48 36 35 26 39 25 45 27 40 26 29 36 28 27 36 27 27 34 40 26 37 24 36 31 31 35 26 42 36 35 26 27 32 45 29 33 47 28 33 23 31 24 33 30 44 41 33 47 33 29 24 31 27 35 30 28 29 38 33 30 22 35 35 41 31 38 31 34 25 28 24 48 31 34 26 29 43 31 32 36 36 34 34 30 42 37 25 36 29 45 25 25 31 43 40 32 31 31 32 31 42 33 38 24 33 32 34 32 34 36 40 28 32 32 37 30 24 38 27 38 47 32 30 48 37 28 34 33 24 42 29 33 34 38 37 29 37 33 42 31 37 30 33 42 49 36 39 32 38 44 23 36 43 37 33 27 36 31 33 43 47 26 36 46 37 37 26 41 19 29 41 33 32 23 27 35 20 18 28 24 33 45 35 28 37 36 26 39 36 35 39 31 32 32 36 28 22 34 39 38 40 45 29 42 28 30 24 43 33 40 33 29 38 26 48 35 31 26 42 40 33 41 33 43 18 39 22 27 38 26 36 34 32 23 30 41 35 28 38 33 32 31 31 28 35 30 47 39 39 31 32 41 31 35 32 30 32 33 22 35 34 27 35 29 37 33 45 32 31 39 42 30 27 35 27 36 42 33 49 37 23 27 33 34 39 43 27 34 33 31 32 38 41 28 32 32 36 29 26 32 30 29 24 30 34 27 32 32 34 30 28 35 33 30 28 29 28 40 19 34 21 32 35 35 35 34 31 33 28 33 30 33 32 33 32 38 36 27 26 29 40 31 31 33 31 26 33 37 39 44 31 36 29 36 32 28 21 32 33 31 30 37 30 40 24 40 34 36 39 28 35 32 31 35 39 26 32 30 28 34 43 31 32 39 36 42 28 36 30 28 32 34 37 40 31 25 35 33 31 30 42 39 29 36 35 35 26 29 19 24 42 31 32 34 39 33 25 40 23 34 34 25 25 32 28 33 28 35 34 27 24 44 37 38 36 38 41 31 32 52 37 29 37 30 29 32 27 24 30 31 51 32 35 30 26 33 24 37 29 26 32 25 31 34 30 37 27 40 39 30 37 33 35 34 27 42 24 38 35 36 43 38 30 38 34 29 26 35 36 31 29 30 48 29 35 35 38 27 35 45 40 27 35 29 34 35 39 24 51 39 25 46 29 45 34 35 30 34 36 37 22 33 30 37 27 38 34 37 37 57 37 42 37 35 29 32 29 35 41 40 37 36 28 35 39 32 41 33 23 33 46 37 40 36 39 37 33 24 25 31 34 30 45 29 34 24 37 34 27 37 34 29 30 21 25 28 29 31 43 32 42 38 27 23 30 45 24 32 25 33 37 33 28 35 33 30 44 36 42 44 27 22 44 37 31 38 25 21 29 37 33 30 40 30 35 35 40 40 36 27 31 31 38 27 45 26 36 29 32 49 33 41 26 27 31 35 32 24 33 27 33 29 37 31 31 46 39 23 35 38 32 37 38 36 36 33 37 36 43 25 34 34 33 29 35 30 35 32 34 38 30 26 36 43 38 32 37 36 39 36 28 27 41 32 30 39 24 30 28 27 29 39 31 31 52 32 33 38 35 31 28 29 33 43 25 29 48 34 26 27 38 42 38 37 19 32 26 40 34 26 34 42 30 36 34 34 43 40 40 29 38 39 16 38 37 39 37 37 36 33 27 32 23 40 35 32 39 35 34 31 35 34 29 26 34 31 34 35 27 32 36 31 34 38 41 36 21 29 39 31 34 32 25 47 38 39 33 37 21 26 33 26 42 30 46 31 31 31 30 44 32 47 31 26 42 35 30 29 36 29 37 28 26 24 30 26 36 40 41 39 36 29 39 32 30 30 38 35 26 42 37 35 33 34 37 45 32 37 28 39 33 29 33 38 36 27 29 24 34 26 30 31 30 37 40 34 37 43 40 45 30 31 39 39 30 31 44 29 31 25 36 35 40 34 30 25 34 36 27 38 29 29 25 23 40 31 37 32 34 29 26 41 31 28 39 36 33 26 27 35 33 36 31 37 31 40 32 34 34 33 28 36 23 29 32 28 31 28 37 34 37 43 37 30 36 32 36 34 32 30 25 28 38 36 27 30 46 38 31 35 29 26 30 32 32 39 40 32 29 33 37 26 22 31 31 37 46 34 30 25 37 31 35 27 29 32 34 29 37 31 28 32 31 31 32 30 34 34 32 30 37 31 23 36 27 39 42 35 24 29 41 34 40 28 30 30 46 42 40 29 35 43 30 33 44 50 33 39 27 40 37 29 33 34 43 35 36 31 33 37 38 36 40 35 36 36 35 37 34 42 33 38 36 51 30 35 29 34 34 44 36 31 39 30 39 38 31 32 31 37 32 38 26 33 32 26 37 34 28 35 36 36 34 29 34 37 36 38 38 42 36 23 23 27 31 35 38 36 40 35 21 37 32 35 27 38 37 36 25 46 37 38 28 41 46 34 41 23 26 35 32 38 42 23 32 29 26 27 32 47 30 37 32 33 33 43 33 37 37 33 43 36 32 38 27 34 32 23 41 32 29 34 31 36 38 25 35 22 30 36 48 36 37 27 26 28 30 33 37 38 30 31 34 25 26 30 26 31 38 36 33 27 43 35 30 24 30 34 33 27 38 43 31 32 45 37 22 32 33 25 24 36 33 31 36 31 39 44 25 24 22 33 28 36 32 31 24 27 20 23 41 47 31 30 27 34 38 36 40 40 43 28 34 27 25 37 40 37 30 34 28 36 25 32 43 24 31 32 31 37 30 26 35 30 39 26 26 40 40 34 33 38 35 41 47 29 41 37 26 28 32 35 33 25 28 34 44 26 43 39 27 29 32 38 26 39 29 27 42 32 37 44 34 32 34 36 39 32 23 38 39 49 29 34 37 29 24 35 30 29 29 32 38 21 33 35 26 39 28 40 39 39 32 36 42 31 27 46 28 33 27 29 33 25 34 25 32 31 29 42 38 35 32 33 42 35 41 36 32 38 30 29 26 33 32 36 28 33 29 35 29 36 36 31 31 42 33 38 35 28 36 27 38 27 37 26 36 38 36 23 29 24 33 34 36 33 35 27 46 38 32 27 29 30 40 38 30 33 50 35 34 28 29 41 34 44 28 30 27 24 28 40 31 28 30 45 35 34 38 44 38 31 43 39 38 48 33 35 36 29 31 37 32 44 38 33 35 26 35 36 36 30 33 39 31 37 36 38 32 40 40 34 33 29 37 31 39 25 41 28 40 37 39 39 29 31 28 37 31 33 40 31 33 30 42 40 35 38 37 34 42 36 26 37 34 46 37 30 38 27 44 23 31 39 28 33 29 30 28 39 35 39 30 42 29 45 36 36 32 35 35 29 28 31 31 32 31 31 27 36 37 41 29 36 26 35 32 25 29 34 34 39 30 31 27 32 41 40 23 29 36 42 33 33 43 40 38 25 36 36 41 29 30 37 33 32 33 30 29 30 30 30 25 30 27 26 35 30 42 31 28 38 36 36 30 32 30 37 46 32 31 36 37 33 39 38 34 35 38 39 34 38 29 32 31 28 25 32 35 30 27 29 26 26 45 33 44 27 25 26 23 32 24 39 28 26 28 23 34 35 32 27 25 23 33 34 21 33 30 26 35 30 34 30 44 32 20 31 27 27 29 31 23 43 26 25 32 36 22 32 34 15 50 35 32 35 38 40 40 43 32 35 43 28 42 26 24 24 35 28 42 36 28 34 33 37 28 36 41 31 25 34 41 41 30 36 32 34 33 35 33 37 48 19 38 36 34 32 34 32 33 27 32 48 37 36 35 30 37 29 39 30 32 33 32 45 37 42 38 28 41 48 27 32 38 32 31 34 39 34 44 32 27 36 47 24 42 26 33 40 35 36 34 34 36 30 32 32 31 30 42 28 39 45 31 27 29 44 38 25 41 39 26 43 43 26 30 27 36 46 34 41 29 23 41 24 28 23 25 38 36 34 37 34 30 33 37 35 36 40 20 34 33 28 17 45 33 39 37 31 40 48 33 37 36 33 33 40 36 37 33 29 27 34 27 34 30 29 38 41 34 35 42 38 26 20 27 42 29 28 37 38 35 36 27 32 33 34 30 37 26 28 32 35 26 36 31 33 33 26 37 25 35 34 40 32 32 41 30 30 43 26 28 27 34 37 28 43 38 36 35 33 33 35 32 38 38 39 37 30 30 40 34 33 44 30 27 35 29 42 38 32 32 44 46 35 35 33 35 32 38 35 16 29 35 35 41 35 42 33 38 34 33 35 37 25 31 36 37 35 25 51 31 41 36 26 38 34 30 33 31 31 28 35 37 39 27 33 37 43 30 28 34 42 32 29 23 36 39 29 42 40 34 28 34 38 25 39 30 32 30 27 42 36 35 33 36 32 24 41 32 35 41 37 37 32 37 35 30 24 34 26 34 27 26 30 36 38 33 22 38 33 25 39 36 35 36 32 30 29 34 28 29 30 27 27 27 29 32 23 28 35 22 30 34 25 35 32 34 33 40 42 32 30 32 34 36 29 31 35 36 22 31 38 38 34 34 34 37 38 26 34 34 25 30 36 38 29 41 35 31 27 36 40 26 30 27 32 37 31 32 34 37 36 37 34 33 41 32 27 41 28 34 36 42 35 33 26 29 30 32 34 35 30 41 28 42 28 36 30 36 37 34 34 27 32 42 32 37 33 33 29 34 31 42 34 22 31 30 35 29 32 35 24 26 42 38 38 26 34 31 31 44 31 37 34 27 35 38 32 24 49 38 29 25 30 28 37 33 32 44 33 32 32 41 32 35 29 29 32 34 26 35 42 28 35 37 33 37 37 35 34 35 24 29 32 41 37 34 33 37 37 39 32 42 34 29 31 27 30 35 34 40 36 32 37 42 29 28 42 34 31 30 32 31 32 32 33 32 31 31 29 33 41 28 32 35 30 30 27 37 30 40 33 35 27 20 42 39 46 36 29 36 34 26 21 31 38 29 38 28 31 34 37 33 32 30 44 42 30 29 35 31 32 32 34 25 32 24 22 26 40 45 33 26 35 28 33 39 32 34 31 36 23 32 31 35 38 30 36 38 25 36 25 36 28 31 33 35 31 33 28 43 56 44 37 45 30 28 36 36 37 37 26 27 45 38 23 35 37 33 30 33 33 36 29 41 38 35 31 32 29 32 34 35 41 28 32 34 32 31 37 24 18 40 41 32 23 33 30 37 41 29 32 32 41 37 41 29 44 24 35 48 29 29 39 32 37 37 40 36 27 37 33 25 34 32 36 32 32 35 24 33 35 30 41 25 37 39 39 29 30 28 36 37 32 26 38 35 40 33 29 29 48 23 36 33 35 33 25 38 29 34 41 35 39 39 28 38 38 36 30 33 37 32 38 40 45 37 39 41 36 29 36 41 39 26 22 27 29 43 54 31 32 33 26 28 26 33 29 43 33 31 41 35 31 33 27 33 39 34 31 32 23 34 32 35 21 40 33 35 40 33 45 30 38 42 43 33 27 33 40 31 30 38 38 36 36 35 30 36 27 32 21 38 37 30 31 35 32 34 32 32 25 30 29 21 40 22 34 43 27 35 36 31 17 28 25 32 36 34 36 26 30 35 37 35 31 26 45 26 45 33 37 35 35 34 42 38 37 38 30 26 38 32 29 29 21 33 48 32 41 30 33 32 39 29 36 33 39 39 29 27 33 39 46 28 32 26 28 27 27 37 36 25 48 21 30 37 32 26 29 32 36 35 24 33 34 41 35 20 32 26 34 33 31 37 19 39 38 29 30 40 22 29 24 32 38 36 35 18 27 39 40 37 31 37 38 30 27 33 26 41 27 47 34 27 42 31 36 44 29 26 34 37 31 44 33 24 24 29 31 41 32 32 35 42 23 23 35 47 37 33 41 39 27 29 39 36 31 39 36 36 37 35 30 40 33 25 31 29 34 40 30 33 39 28 34 30 25 38 29 28 25 34 40 36 39 29 31 52 39 34 40 38 31 36 32 32 44 30 35 24 27 28 33 31 26 38 33 35 32 30 31 24 25 40 39 28 35 37 39 30 38 38 33 47 31 34 30 34 23 38 28 34 39 23 37 27 38 38 35 30 33 26 30 31 40 26 35 28 33 34 31 34 32 31 40 40 25 34 36 48 39 34 42 41 38 34 29 32 37 41 37 33 31 25 43 46 32 34 26 30 40 36 37 45 34 26 30 24 23 36 37 28 44 40 29 29 35 19 37 29 30 43 24 36 34 35 30 49 29 38 32 27 26 26 38 36 32 27 43 39 36 22 23 27 24 33 46 37 30 26 30 32 41 35 35 26 37 32 33 44 35 28 37 37 21 32 38 29 35 40 36 37 31 33 23 34 31 40 32 38 31 39 39 36 35 22 29 28 40 35 38 42 31 30 33 39 21 42 33 30 33 33 23 41 36 31 31 35 27 42 35 38 32 35 32 35 38 31 33 36 34 32 37 38 31 34 31 33 34 27 37 36 18 26 38 26 48 43 36 47 30 31 33 24 31 34 30 37 28 30 30 28 34 25 27 22 31 26 34 38 31 32 30 33 29 36 30 25 34 31 27 38 24 44 36 34 28 32 32 38 33 30 34 35 35 32 39 36 40 28 32 29 41 43 38 27 36 37 26 33 31 36 30 26 28 28 35 35 26 34 24 19 29 23 27 36 41 44 30 30 29 30 43 33 29 30 40 37 40 26 33 27 33 27 29 42 20 47 23 28 32 35 31 29 48 43 33 30 25 28 29 28 30 28 40 32 36 32 26 36 26 31 35 31 26 32 34 30 32 36 35 27 24 31 36 33 31 39 30 28 27 33 46 47 38 31 49 29 20 36 38 30 32 32 37 35 36 28 32 27 32 40 44 24 47 41 51 33 26 30 42 34 37 31 35 29 37 30 33 30 47 37 34 40 28 29 31 31 24 32 34 35 35 46 39 37 25 42 29 39 29 46 34 45 33 26 34 38 38 46 23 38 31 38 27 28 29 48 38 34 35 36 35 31 34 23 32 25 53 43 41 30 38 33 41 26 33 36 35 31 34 40 29 51 34 34 35 32 32 37 39 40 28 36 49 33 39 38 30 20 35 30 29 26 33 32 37 33 24 33 32 29 37 35 43 38 33 37 30 40 39 36 31 25 33 37 38 32 33 44 29 22 31 37 29 26 17 25 35 43 37 28 30 34 20 32 41 37 36 40 25 33 34 37 43 32 27 35 24 28 42 28 43 39 32 34 35 36 37 33 37 44 38 28 24 31 24 32 38 32 33 28 33 23 36 29 30 23 34 34 36 42 38 32 31 39 31 37 40 38 30 30 30 35 32 34 34 31 28 33 38 31 40 38 36 40 34 32 27 34 35 32 35 29 40 39 38 25 41 33 30 31 43 34 32 27 31 37 40 32 33 35 35 41 38 44 27 32 27 34 39 33 40 39 38 30 34 19 28 19 40 22 29 41 29 28 41 39 25 31 27 39 27 30 36 41 34 26 36 31 35 39 33 41 26 29 31 41 31 38 36 45 26 38 27 39 36 32 25 38 34 32 45 27 36 28 36 25 33 30 28 43 31 41 32 32 30 38 32 34 28 31 37 33 34 37 39 35 26 31 50 39 27 36 29 34 43 30 38 32 35 50 24 31 24 34 22 32 27 35 35 39 31 43 38 49 31 19 33 39 47 41 32 34 44 30 33 36 33 29 38 39 34 26 33 39 39 29 31 40 36 30 33 31 29 32 31 35 22 35 37 34 36 31 32 26 27 33 30 40 30 28 35 26 29 39 31 28 35 30 24 28 34 30 24 35 33 38 39 21 30 29 30 36 27 37 38 36 30 43 32 26 29 29 34 32 27 31 39 40 44 35 24 30 32 27 40 34 31 27 37 40 37 30 31 40 29 37 30 26 32 31 35 35 33 28 34 36 35 36 32 47 37 32 39 39 27 34 34 25 39 28 30 39 35 35 30 40 30 34 29 37 35 32 33 30 38 40 28 36 29 27 39 35 24 42 30 40 39 25 36 34 38 31 31 33 30 29 35 31 30 30 28 42 34 34 35 32 35 40 32 34 36 37 26 40 32 42 30 30 39 31 33 27 32 30 33 34 37 36 22 34 37 33 29 36 38 35 30 34 33 39 41 35 40 38 31 35 39 35 30 31 33 29 44 39 42 40 28 37 41 25 33 27 31 30 37 36 33 31 28 32 28 39 35 29 43 30 37 40 36 31 33 32 40 40 28 38 34 35 27 34 33 32 36 26 26 47 31 26 50 37 34 36 39 35 23 32 32 28 30 29 33 32 32 28 36 30 25 32 27 32 37 28 29 45 28 44 33 32 29 29 30 31 30 36 32 35 38 26 41 26 16 31 27 42 32 27 35 28 40 31 39 25 34 33 35 42 27 35 32 26 31 41 32 38 30 47 31 33 28 34 34 29 38 41 35 29 37 37 34 43 31 38 32 44 37 33 34 39 39 26 40 38 32 34 26 24 28 33 36 35 33 41 38 45 38 34 30 35 29 35 38 30 30 24 41 31 40 37 25 21 35 30 30 40 40 28 36 31 41 33 29 43 21 38 31 31 32 42 35 39 36 29 36 47 28 34 32 23 32 29 36 30 44 28 31 28 23 34 32 30 37 35 25 41 29 35 41 35 32 36 39 36 26 31 34 45 44 42 36 26 33 36 32 31 36 34 37 41 33 27 33 35 31 32 38 21 38 32 30 40 45 23 34 25 20 28 32 40 27 25 24 32 33 34 37 39 36 33 32 34 26 32 28 26 39 35 34 33 33 32 30 37 28 31 43 29 32 40 31 34 29 22 29 31 33 33 30 26 30 41 38 35 34 40 44 32 40 47 30 40 28 23 37 28 24 21 45 27 29 28 26 34 40 27 38 36 33 39 39 31 34 44 33 28 44 32 27 38 36 42 26 29 30 38 52 43 49 38 31 26 29 29 33 28 33 27 30 34 34 37 34 33 38 39 30 31 44 31 28 31 27 28 26 33 32 27 39 37 31 26 39 32 32 39 33 41 27 32 34 29 37 35 25 30 32 26 27 31 24 24 19 28 30 28 36 32 27 32 35 32 31 45 37 22 41 33 34 24 27 37 29 28 35 22 34 32 38 23 24 43 34 31 34 33 29 29 35 38 31 31 39 43 27 25 41 40 32 35 33 36 25 25 41 33 32 26 32 32 29 37 40 35 33 39 21 35 28 33 30 28 35 41 34 31 39 55 24 34 33 34 30 32 41 31 36 50 26 41 45 33 31 24 43 29 40 36 40 39 32 37 23 28 33 32 27 38 28 38 26 43 28 36 31 35 33 31 42 31 28 33 37 40 29 30 32 34 36 32 15 32 35 36 31 39 24 30 30 36 39 41 33 43 43 43 31 28 30 30 40 37 29 29 29 29 32 34 36 27 40 33 27 32 25 33 36 32 50 28 27 39 31 42 33 37 27 29 33 30 33 38 28 37 39 31 33 33 30 34 42 43 30 26 36 33 34 30 34 37 46 38 41 31 34 31 33 24 27 29 34 35 37 33 37 26 35 37 27 28 44 30 30 43 30 34 37 34 34 39 34 20 34 25 35 24 25 23 36 51 30 34 29 41 38 27 27 35 34 29 26 32 24 46 38 38 37 35 34 41 36 30 34 46 44 28 42 36 50 37 36 26 27 44 34 36 37 40 25 28 40 31 29 27 33 36 41 36 32 41 27 38 37 30 35 25 29 37 35 37 31 30 34 34 33 32 33 38 28 36 36 18 42 30 38 44 44 33 24 31 35 30 37 40 37 30 41 37 29 33 28 28 28 34 41 32 42 42 34 33 38 31 31 31 28 35 41 28 28 34 25 40 30 41 42 38 34 30 29 37 34 29 31 32 27 29 46 37 28 25 27 41 35 26 34 42 31 32 20 29 31 30 42 27 30 43 33 34 27 33 33 36 29 32 27 30 40 36 40 26 33 29 33 33 34 32 48 22 36 29 30 29 34 35 32 35 23 35 37 32 40 35 39 34 26 21 36 35 30 32 31 39 39 32 33 28 28 36 39 34 25 27 23 42 40 42 28 31 18 35 43 23 32 24 44 41 31 35 37 33 32 35 33 43 32 29 23 41 34 35 32 29 28 38 47 31 42 38 30 43 38 25 42 44 31 31 34 30 36 40 31 34 30 22 30 38 28 31 25 35 40 32 32 33 36 29 44 36 38 34 28 22 33 39 45 33 30 29 35 34 25 47 24 31 29 24 38 37 49 35 27 40 37 33 32 39 24 36 25 26 37 32 42 23 38 38 27 48 39 35 31 35 38 34 43 36 34 24 36 28 34 23 32 28 21 47 37 33 39 35 30 41 25 41 29 48 42 38 32 34 28 39 39 28 34 35 24 37 31 35 33 33 36 36 27 40 32 44 31 37 30 37 37 28 36 30 50 30 25 53 26 35 30 34 33 27 39 28 46 29 34 40 38 43 26 26 31 47 30 26 22 36 31 35 28 36 37 36 41 29 38 36 30 33 32 35 25 30 46 39 34 31 32 42 29 36 36 41 32 29 34 35 24 24 28 36 28 36 38 33 40 35 37 36 27 34 40 32 28 24 24 37 31 30 27 30 36 44 30 30 32 36 35 34 45 52 29 48 43 28 40 36 31 37 35 38 45 35 33 35 34 45 36 30 33 29 34 36 33 26 32 35 34 24 34 40 30 31 36 38 39 40 47 33 24 38 33 32 36 36 38 29 31 32 33 34 31 28 29 32 39 41 29 25 37 25 30 30 20 30 34 34 32 27 34 33 36 37 38 38 33 33 24 33 30 45 30 36 31 27 30 29 22 28 20 30 29 28 40 37 33 25 37 41 32 32 39 29 41 36 27 30 36 40 40 30 27 37 36 27 36 41 39 30 25 41 33 28 31 34 27 33 25 33 34 37 23 39 36 32 36 32 34 28 33 26 30 36 39 33 42 32 31 35 32 38 47 31 36 29 37 26 41 37 32 34 34 39 40 27 28 39 29 34 25 27 46 38 35 32 40 31 25 41 27 43 30 25 30 33 35 30 31 35 36 35 41 40 36 43 39 31 25 37 44 25 35 41 37 30 38 39 45 23 27 38 50 38 24 31 34 26 34 34 37 39 32 47 34 37 35 31 30 32 41 36 28 42 28 42 27 37 30 23 31 31 32 20 36 38 40 33 35 39 40 35 36 35 16 33 34 44 42 28 34 33 20 36 27 34 33 37 35 27 43 29 33 33 35 27 37 42 38 30 33 35 42 28 33 33 26 35 38 27 33 33 33 31 38 40 36 36 29 42 43 23 28 25 41 35 41 34 34 32 35 37 21 40 42 38 38 33 32 39 30 28 26 30 32 31 37 37 43 35 36 31 37 34 29 25 38 43 34 44 26 36 25 30 28 29 29 34 27 29 24 35 34 34 37 41 30 40 30 47 35 33 30 40 40 37 33 27 27 29 42 38 36 34 41 28 39 51 36 34 36 26 42 35 25 41 31 27 35 41 33 44 52 28 33 32 27 29 39 29 35 32 34 34 37 27 49 25 41 42 23 36 27 33 31 43 33 38 30 42 34 31 33 30 29 31 33 39 21 32 39 35 29 28 31 37 31 26 38 35 31 37 32 38 45 28 32 41 25 43 37 30 28 26 26 33 29 34 30 36 40 34 35 21 32 33 42 34 34 42 37 38 32 38 29 32 24 37 35 35 41 36 48 43 37 31 35 46 45 38 38 30 24 32 39 33 39 31 39 28 27 28 30 39 24 23 27 32 38 26 28 33 36 31 28 38 33 32 25 35 35 43 27 27 37 48 31 28 27 20 19 33 36 36 32 43 30 33 32 24 22 28 37 32 28 34 39 45 24 28 35 28 37 29 38 30 33 32 31 37 32 33 31 28 33 25 53 31 33 31 33 28 24 30 26 36 37 28 37 34 38 30 36 39 33 43 42 46 31 28 36 33 36 29 34 25 34 26 36 49 46 38 31 27 35 27 28 29 41 31 37 30 33 40 36 27 24 35 33 40 36 35 39 31 32 30 37 34 33 35 33 31 31 43 25 41 35 24 32 36 27 34 35 34 34 31 25 33 32 29 34 29 34 30 34 30 28 37 34 37 41 51 31 34 29 27 38 39 27 32 29 35 27 26 31 36 33 35 33 26 19 33 39 36 35 31 36 41 41 38 30 33 41 33 38 43 32 41 37 42 49 22 50 37 35 39 35 39 37 26 20 35 36 30 29 28 28 46 33 30 31 27 27 36 39 38 26 30 35 35 37 32 26 35 42 35 28 31 30</t>
+  </si>
+  <si>
+    <t>JSU(-17.552264926704375, 16.23821809110406, -376.47575383208914, 459.0719254400529)</t>
+  </si>
+  <si>
+    <t>247 189 237 193 242 243 281 237 283 240 256 156 218 186 167 161 213 277 255 131 182 218 207 317 190 245 213 244 336 210 156 215 229 266 265 229 245 192 192 235 258 228 185 282 175 183 190 209 145 158 236 213 232 257 348 275 149 299 326 240 282 220 242 215 341 234 210 209 202 220 128 229 328 212 253 235 209 266 263 260 212 205 203 182 152 230 196 199 269 260 215 218 267 128 209 246 273 232 212 211 191 257 253 246 196 177 272 261 131 228 208 254 253 253 227 191 202 253 252 123 218 215 240 182 190 205 247 265 255 135 190 140 174 296 193 189 198 192 200 228 143 262 283 231 289 254 164 139 252 187 183 279 210 218 162 256 206 259 159 221 284 225 230 263 265 170 300 237 226 290 258 207 255 235 235 240 188 198 184 261 217 148 172 246 269 135 383 215 223 221 236 209 200 200 214 201 176 136 332 238 214 143 249 271 107 243 283 171 149 218 209 159 263 161 240 239 148 192 242 296 173 194 216 176 225 179 310 255 185 169 269 262 240 211 336 222 176 143 199 240 132 221 208 247 253 265 239 254 285 302 249 213 219 304 194 275 170 108 198 272 200 155 208 230 215 232 187 198 211 219 259 259 231 244 196 286 184 216 203 193 241 132 224 294 290 276 206 277 218 229 191 274 221 208 259 245 226 210 258 230 133 252 214 193 150 64 285 228 191 222 292 317 167 210 250 192 215 294 172 191 268 301 201 166 213 204 232 240 162 297 255 284 244 223 204 188 192 138 239 209 188 213 147 268 208 223 195 196 332 239 233 267 241 228 252 275 197 228 111 192 202 269 164 296 102 206 281 330 263 226 237 231 142 251 267 196 242 287 209 160 223 260 245 192 140 241 146 174 240 258 161 268 242 265 207 222 223 191 196 273 208 188 220 279 185 217 209 278 184 140 199 225 296 200 170 159 230 177 149 235 221 210 209 163 228 240 149 224 209 232 207 251 169 239 203 162 198 231 131 309 253 184 218 174 396 140 202 182 233 244 282 276 183 208 225 288 298 209 229 193 253 150 263 300 240 234 234 302 227 173 189 260 203 197 280 175 216 267 256 142 209 296 247 175 183 150 209 267 134 241 197 248 176 182 278 240 192 213 269 248 265 200 227 173 272 197 186 254 272 183 246 232 240 193 236 213 258 210 236 176 126 236 197 204 243 205 187 197 235 193 228 153 216 228 310 200 204 230 305 185 172 329 217 193 169 231 253 162 245 241 195 258 250 254 153 111 204 199 163 261 173 188 178 241 160 245 224 277 164 157 204 195 177 275 257 314 171 249 222 175 203 260 194 295 207 193 121 271 152 206 190 214 257 219 155 318 222 240 317 219 263 283 210 165 154 258 326 232 226 162 236 276 259 258 273 287 226 257 211 253 117 263 241 260 198 181 267 141 263 259 243 274 271 230 214 221 239 265 208 188 260 181 160 296 209 218 232 250 230 221 186 234 278 164 274 218 167 262 203 203 222 333 173 290 172 245 205 237 234 231 298 244 231 215 163 199 255 204 335 196 183 235 151 249 207 241 207 210 171 210 247 151 292 242 260 324 192 187 192 208 170 165 205 186 284 246 316 216 160 203 216 228 266 151 182 276 226 209 212 184 272 181 183 287 237 309 208 255 170 280 265 258 211 243 239 211 246 228 296 238 220 182 263 195 235 183 163 282 182 171 220 276 270 246 318 201 229 331 247 189 165 330 289 260 212 270 153 270 161 164 261 261 272 244 159 210 189 175 212 101 283 244 266 202 231 252 213 248 185 211 277 217 202 269 238 309 243 186 238 189 233 241 179 204 243 201 220 196 299 131 190 326 251 229 185 191 239 264 232 200 194 152 187 220 258 241 273 288 284 180 286 211 198 281 224 251 224 283 228 228 206 282 174 282 189 206 200 229 194 305 267 229 243 245 228 284 224 179 274 166 231 266 191 267 185 271 219 305 328 228 119 203 258 251 241 269 288 286 222 287 172 115 232 260 195 183 224 152 248 246 205 178 221 230 201 211 324 175 358 274 121 288 238 135 250 160 207 169 308 286 279 204 158 153 250 150 268 283 248 230 270 167 228 248 207 228 215 199 223 219 206 209 214 116 269 216 318 283 232 181 210 212 198 287 208 257 219 228 166 234 227 335 232 139 236 182 165 151 251 190 171 202 191 179 291 236 214 225 255 199 224 174 265 282 259 200 178 224 123 170 167 182 206 288 275 264 298 245 185 173 249 235 173 191 222 216 231 186 190 247 217 247 166 193 177 173 208 217 249 225 213 201 168 234 180 156 175 172 217 194 191 269 282 283 136 119 213 293 178 107 287 250 249 118 295 251 233 223 227 282 258 240 145 269 194 97 247 173 217 213 193 209 224 221 261 319 202 224 269 214 223 169 199 160 229 199 113 195 241 218 266 204 214 187 268 224 217 227 179 221 258 186 170 276 262 175 166 274 192 197 111 212 215 225 227 192 207 204 213 286 282 161 174 282 175 229 203 246 272 202 250 297 249 254 209 227 252 171 231 148 218 207 124 290 312 149 227 155 200 217 266 199 329 235 176 192 257 300 182 194 301 228 218 202 216 254 335 221 183 218 202 130 202 287 256 199 213 260 187 285 239 289 186 159 192 236 136 225 279 165 259 185 238 315 206 243 208 301 200 244 179 261 145 406 253 269 196 226 304 264 154 267 252 156 245 202 152 218 280 248 290 149 214 195 291 231 280 265 203 217 168 305 235 202 182 323 137 109 164 276 206 204 227 203 256 210 221 211 223 193 201 202 186 271 257 205 216 196 297 220 192 241 90 136 245 173 204 325 260 271 285 245 209 182 259 266 205 139 280 191 212 220 227 251 266 251 236 231 159 262 222 177 208 306 271 238 264 239 199 216 334 197 257 222 331 167 247 205 333 242 224 242 244 209 302 168 201 247 229 144 143 225 82 223 313 320 260 205 222 242 173 215 269 173 196 117 286 175 212 278 227 272 178 317 213 198 180 248 231 223 241 230 172 216 187 269 230 241 153 149 225 250 206 275 262 168 246 245 220 247 176 221 277 229 228 246 226 255 207 205 239 175 232 216 221 210 223 269 170 260 248 218 232 234 274 184 275 250 270 191 239 254 182 159 279 208 281 231 313 291 239 195 156 250 234 266 178 301 231 198 254 253 217 88 172 176 245 271 367 227 249 168 191 270 285 242 182 211 233 221 205 212 248 231 227 154 205 121 296 264 201 269 257 146 203 208 257 148 194 198 182 243 222 263 209 300 260 290 262 336 208 201 280 229 263 226 223 307 218 232 212 225 232 177 178 233 182 235 328 196 330 178 232 139 170 139 179 278 231 178 234 265 246 197 181 292 287 221 332 268 255 172 205 277 211 212 254 234 147 248 218 166 192 205 232 178 241 203 198 213 218 235 233 338 149 213 362 301 166 255 137 184 238 223 203 266 266 154 209 312 259 234 144 313 279 171 172 318 203 214 178 243 220 199 245 224 242 118 224 178 224 261 196 220 259 192 186 262 184 179 106 268 226 177 271 206 212 227 321 253 266 229 171 267 230 148 171 170 173 245 210 146 211 278 193 223 157 196 257 233 131 165 308 221 205 194 215 160 272 230 161 188 246 304 256 178 184 215 285 140 225 243 139 199 296 285 205 223 228 210 238 358 308 158 164 183 193 316 220 186 232 265 225 193 264 154 215 271 175 252 166 233 172 183 248 117 252 295 229 184 210 133 212 182 230 228 193 247 254 270 247 267 232 266 202 266 208 194 225 175 246 201 156 296 168 157 203 179 221 228 216 209 180 299 327 237 276 242 230 273 226 330 235 232 164 169 146 238 225 327 169 211 173 183 241 223 232 166 241 153 240 190 214 192 140 184 207 225 168 194 283 204 172 194 332 249 254 206 222 215 291 211 190 130 277 142 275 265 225 325 207 270 251 284 212 214 206 262 223 194 171 147 196 268 228 184 222 240 233 187 146 249 214 234 251 286 262 204 242 211 245 229 230 233 192 229 233 275 174 206 333 233 225 238 183 230 240 221 140 198 210 168 168 237 194 207 219 269 239 174 115 237 197 189 239 219 243 243 285 232 183 157 212 220 258 197 243 187 246 298 209 228 162 157 226 208 193 265 219 236 245 219 237 208 176 178 194 183 259 230 174 258 235 177 323 245 328 257 166 248 224 285 258 211 184 229 286 197 270 138 140 231 249 145 208 300 221 217 248 288 182 210 201 186 203 264 205 214 172 143 183 293 218 286 187 296 241 210 283 264 258 284 223 188 225 194 281 247 221 174 229 192 174 260 231 293 224 226 272 267 209 191 166 200 187 193 220 161 233 259 192 261 226 183 206 291 248 248 149 289 318 191 217 211 208 247 253 289 178 164 220 274 205 224 224 197 186 145 296 283 194 196 210 297 238 184 170 258 188 197 228 255 189 242 258 138 168 222 261 225 204 213 260 248 265 275 211 287 194 219 206 225 245 307 199 200 180 279 176 245 243 265 235 153 261 342 229 170 190 248 268 255 228 275 302 205 251 318 246 200 134 251 290 169 265 168 307 208 201 254 294 205 270 238 189 302 137 289 146 194 191 218 236 231 282 132 214 170 167 230 95 209 225 238 288 314 240 239 172 274 145 245 205 194 201 222 227 357 226 190 154 330 227 269 249 191 200 204 226 212 211 180 284 213 230 264 180 133 198 272 202 256 229 260 314 198 340 273 213 233 299 214 235 228 281 275 238 248 255 149 140 223 212 294 93 242 202 196 206 298 225 114 167 229 285 214 209 344 201 253 264 188 156 264 269 178 193 216 203 194 193 199 224 181 175 265 205 222 194 234 229 159 208 247 185 190 196 210 221 215 297 213 266 326 192 245 265 187 141 234 234 207 265 152 227 176 228 275 164 203 160 186 248 213 259 188 285 243 227 163 233 217 176 163 197 250 257 165 295 302 222 196 186 216 321 249 243 286 249 213 228 205 174 166 168 199 303 249 218 237 171 244 214 171 259 290 239 271 247 261 207 209 168 264 226 285 264 246 207 194 191 244 197 132 228 195 231 206 273 265 251 247 230 253 203 286 279 353 212 240 283 217 155 186 322 417 254 284 273 288 297 179 217 188 181 206 183 214 198 264 226 260 209 295 231 234 149 198 176 210 283 225 196 276 218 190 192 184 206 191 260 195 143 176 286 162 272 202 254 175 183 235 220 316 176 205 166 225 164 186 269 290 175 246 166 261 188 258 279 257 184 236 171 303 213 249 251 144 158 266 250 323 277 235 166 270 276 247 230 293 167 267 253 282 244 241 177 170 127 256 195 280 243 145 196 247 267 198 291 232 246 268 231 255 233 274 237 292 255 152 186 206 244 166 229 338 234 280 237 208 202 264 254 282 232 219 307 259 199 229 276 278 290 169 293 155 259 194 158 333 214 168 198 235 206 243 225 226 179 189 177 215 132 259 203 230 272 130 236 152 220 285 118 216 218 255 176 204 139 258 197 220 189 256 264 186 238 190 182 258 121 147 175 285 158 281 232 283 193 222 264 251 236 209 172 231 275 194 259 270 173 188 243 135 347 126 189 263 253 319 189 219 209 101 239 216 171 212 205 356 154 142 239 214 192 300 302 271 215 225 312 180 198 214 214 223 269 202 244 286 243 230 292 322 214 258 214 139 242 282 158 144 256 286 333 269 248 210 203 284 242 233 267 247 226 271 292 230 201 192 202 163 155 266 216 219 116 258 143 126 158 262 260 225 163 301 214 178 239 255 209 162 326 161 248 258 205 225 232 238 190 203 256 209 157 257 225 185 208 255 259 181 163 167 149 250 197 165 246 318 243 227 249 168 251 327 217 287 281 311 176 183 230 322 185 254 197 197 143 202 161 141 182 219 224 262 190 247 295 294 208 310 133 306 188 252 190 208 194 187 201 235 247 249 213 150 250 261 212 294 267 207 187 220 235 286 193 234 271 284 184 180 201 340 242 241 328 254 303 190 250 215 264 141 200 217 191 181 211 322 171 200 147 237 238 189 149 214 170 210 134 290 242 274 218 283 285 212 148 161 282 183 152 223 239 225 255 226 242 169 223 187 176 277 275 192 170 302 195 260 213 206 285 212 220 140 250 218 145 188 150 205 171 319 217 235 185 169 219 204 201 210 293 229 227 243 298 152 303 308 182 221 149 156 193 190 225 219 249 232 295 186 232 214 178 224 260 189 222 334 236 222 265 180 222 207 235 280 240 225 211 178 144 302 335 232 182 181 174 276 224 204 197 180 366 229 334 213 197 211 153 297 229 221 306 171 262 120 270 211 234 189 154 196 149 281 204 187 311 159 268 215 234 223 197 296 262 224 205 205 216 184 190 173 200 189 276 235 245 239 204 257 241 209 239 274 88 303 230 226 301 207 273 250 237 224 219 170 193 142 258 254 189 171 365 235 197 241 193 262 221 138 216 253 199 233 237 217 229 224 184 190 227 207 245 168 297 178 161 219 161 293 174 250 305 228 205 243 190 307 203 277 211 203 292 192 280 211 266 181 140 207 162 174 248 255 258 201 205 205 157 155 163 215 175 218 214 160 196 198 129 288 205 229 160 240 262 200 196 154 237 268 178 189 245 216 210 276 239 199 235 219 204 210 269 181 227 248 176 203 167 216 172 217 257 185 240 283 227 166 267 280 206 290 220 170 156 262 213 250 221 282 174 281 206 159 139 166 193 180 277 200 319 169 121 256 255 303 151 189 222 285 289 289 291 231 271 238 184 291 145 183 251 226 273 150 221 246 216 235 255 146 160 205 158 206 207 225 167 224 248 154 197 256 201 261 198 180 195 197 272 216 164 171 302 248 194 207 186 185 255 223 200 279 259 206 191 264 191 203 256 282 224 301 244 277 181 268 278 259 162 147 243 218 169 172 201 189 188 178 246 233 226 131 139 290 233 269 158 230 211 197 244 214 279 170 246 208 188 171 237 227 285 238 184 258 244 195 206 228 149 250 231 181 236 184 222 264 156 272 248 220 310 172 221 286 281 164 291 204 306 183 243 218 198 249 193 161 227 305 274 218 292 231 146 261 149 160 321 198 236 230 225 239 362 145 183 237 132 347 195 212 197 201 233 282 225 274 170 195 218 189 203 238 206 269 229 192 141 218 215 190 239 194 176 127 150 181 244 245 205 204 246 272 120 141 256 206 179 199 241 237 355 301 147 228 225 202 190 229 166 243 175 206 189 192 218 227 312 185 189 231 200 257 183 188 180 255 241 186 243 200 274 254 289 134 196 206 167 112 345 236 310 184 193 271 271 217 205 246 177 189 213 190 234 254 218 285 302 207 219 219 295 165 235 290 212 224 252 128 208 249 182 156 227 128 241 228 275 255 255 165 195 214 262 269 254 261 237 260 324 161 197 253 219 136 268 265 190 308 179 166 169 207 202 202 218 191 180 202 259 204 215 152 116 173 203 182 285 209 188 238 242 303 211 275 307 214 203 250 194 213 184 200 187 204 210 239 239 169 199 248 284 220 148 178 178 286 251 188 253 212 148 204 228 232 289 212 210 235 208 182 193 139 239 258 194 226 229 151 199 160 272 193 264 238 216 195 274 164 258 294 272 182 247 170 155 204 250 221 141 184 244 284 206 288 197 203 262 171 241 176 265 118 226 259 155 280 269 209 171 188 199 177 186 141 275 216 204 178 255 358 265 176 188 250 238 180 269 205 175 273 182 310 182 171 207 152 227 214 225 273 246 197 254 223 196 262 140 171 185 258 324 242 256 190 178 137 255 300 230 252 253 174 232 146 275 253 270 246 235 233 191 247 201 221 249 227 237 273 249 178 303 182 257 283 160 198 223 296 148 211 204 162 176 254 197 245 223 236 260 177 189 192 175 162 283 251 216 241 215 175 191 277 230 178 186 215 198 239 258 273 197 256 241 248 119 242 195 145 175 153 217 257 288 201 228 191 232 146 281 273 226 195 223 211 157 169 266 246 261 240 253 163 289 188 326 205 264 227 165 251 262 196 198 215 249 262 177 217 177 221 283 160 147 239 256 256 301 255 231 257 213 246 149 213 212 252 197 123 284 243 311 231 338 315 165 261 159 163 237 171 270 269 201 272 161 186 188 242 315 213 271 205 240 262 225 272 172 252 319 239 222 248 236 229 127 221 293 272 328 210 217 216 240 214 146 197 176 274 297 199 262 208 168 231 190 209 186 226 264 202 287 242 157 163 189 286 225 226 230 161 184 195 280 296 209 244 187 179 367 184 214 238 200 229 319 135 205 255 220 205 197 250 208 212 235 177 212 227 174 195 222 270 247 183 251 245 206 244 212 215 180 239 238 246 256 166 245 263 239 276 192 129 213 238 315 198 252 127 238 202 239 241 248 272 225 151 285 262 258 253 301 207 213 222 124 197 179 174 236 267 233 217 248 205 191 249 127 224 111 280 309 206 220 215 101 179 174 208 77 209 223 259 146 142 173 199 231 294 273 251 221 175 240 313 147 171 162 242 262 160 251 218 250 317 168 244 92 257 200 240 298 173 147 227 266 200 273 208 219 206 208 213 235 254 271 171 111 155 219 276 122 208 261 208 210 212 244 214 234 179 244 203 241 198 219 201 300 240 198 243 214 349 254 187 229 225 231 153 181 246 250 184 204 249 226 208 220 212 214 200 225 150 281 193 267 331 188 208 299 159 190 241 225 275 226 279 242 267 245 279 279 237 275 199 198 235 254 284 301 292 186 203 299 217 214 219 201 133 276 191 258 183 192 307 142 157 221 232 227 246 219 236 264 227 198 164 223 221 263 234 210 255 258 115 275 205 233 245 262 233 248 233 215 212 181 146 163 272 221 222 253 189 222 180 172 225 215 224 154 326 322 221 210 286 275 166 148 202 175 187 199 224 296 304 281 252 218 207 244 184 213 257 206 298 277 235 263 335 220 257 324 240 240 225 210 229 186 315 160 165 304 166 154 242 195 186 200 191 207 155 286 275 190 233 241 204 344 281 250 295 197 338 162 168 225 216 198 187 226 237 257 220 153 220 149 144 261 196 320 225 217 219 194 180 206 222 181 238 292 219 152 207 282 221 300 247 222 136 270 221 190 225 137 273 231 181 180 203 325 200 270 192 260 250 229 214 268 262 210 199 225 209 230 226 235 215 150 299 239 182 171 250 157 261 241 159 146 188 254 232 254 218 241 246 119 154 177 183 147 240 282 188 219 235 264 207 136 182 191 199 236 204 267 288 216 219 241 233 249 203 221 203 244 245 173 266 173 221 236 270 210 180 252 300 222 249 218 173 107 255 208 237 210 151 252 212 203 161 213 200 168 187 237 249 273 231 284 210 265 257 234 181 188 216 243 274 133 253 203 186 234 244 208 218 225 232 166 205 151 219 180 160 145 188 343 217 198 156 146 300 162 201 203 331 206 198 256 185 203 122 150 214 262 230 327 171 272 281 303 311 224 230 154 196 242 268 226 182 277 183 280 197 219 180 306 279 192 254 298 245 284 155 180 238 239 248 228 155 187 252 242 185 305 177 189 237 212 124 175 186 189 165 253 128 232 162 326 238 256 186 155 246 178 171 238 237 211 174 155 259 263 323 236 129 179 351 291 252 266 267 178 171 264 243 149 246 212 194 206 173 263 174 198 276 152 255 153 285 260 218 263 302 251 235 211 234 314 255 262 353 264 284 263 145 315 227 229 202 215 167 213 176 319 245 185 265 209 274 258 183 217 228 299 251 226 108 155 294 241 179 201 281 202 171 187 197 212 235 260 237 293 215 188 161 328 148 176 189 236 168 284 235 187 188 179 241 267 168 175 165 184 232 306 265 246 253 235 335 274 187 270 188 200 226 175 247 221 221 221 229 219 225 165 249 236 267 248 171 231 282 313 275 227 241 152 247 255 288 178 111 136 296 198 222 192 210 347 184 243 160 257 133 274 273 208 185 243 285 219 214 217 244 229 273 189 252 260 195 207 155 258 279 356 238 275 230 199 248 132 184 140 293 207 205 272 282 308 230 247 235 299 209 286 237 229 274 175 283 163 262 249 228 217 293 230 222 249 227 284 287 246 243 199 240 236 262 285 227 224 256 235 173 207 209 189 330 136 212 191 243 136 281 220 298 222 270 196 325 146 233 248 134 115 122 308 210 279 227 243 203 256 185 168 275 218 212 196 200 134 221 207 235 254 250 249 205 213 163 261 233 238 246 262 271 256 139 164 234 264 238 322 232 242 276 250 197 203 257 223 211 275 290 223 230 227 160 226 222 189 283 197 234 196 185 182 293 304 119 158 160 292 107 211 244 267 211 159 187 184 236 130 252 292 240 248 169 319 168 283 217 246 172 244 228 219 175 159 178 226 193 239 136 245 158 190 220 173 331 179 356 240 205 215 183 180 335 211 150 283 211 236 183 217 134 213 260 310 262 207 311 244 180 146 196 147 226 208 151 231 271 192 266 115 237 236 266 176 227 193 269 161 264 148 324 235 226 201 207 232 239 232 273 257 220 243 221 304 205 201 275 231 254 183 126 186 242 226 219 269 173 215 241 264 185 217 135 211 158 274 206 188 235 279 127 199 279 274 242 133 169 159 227 331 186 249 272 224 185 269 228 128 273 159 211 235 258 188 162 273 197 267 197 250 286 229 301 256 189 258 230 244 266 191 185 246 266 237 204 272 215 284 271 308 162 309 338 192 305 174 271 145 165 287 268 193 186 190 191 135 117 240 137 228 288 256 163 219 238 179 269 215 215 275 194 253 229 247 174 157 179 247 342 258 304 198 316 154 189 211 337 221 276 270 171 281 166 305 230 212 166 256 268 236 272 165 323 125 254 125 195 256 163 227 299 237 189 238 299 247 184 303 270 222 205 186 168 190 253 311 233 261 212 230 269 190 231 206 199 252 172 186 204 216 155 197 143 238 204 322 259 192 249 258 210 199 186 127 222 258 218 333 277 208 178 266 247 236 332 179 195 245 244 198 318 227 149 251 203 278 189 163 156 235 189 188 145 254 212 235 150 227 207 189 247 243 216 148 233 158 273 136 228 124 181 218 251 230 199 259 179 154 200 219 220 218 240 239 261 262 148 179 198 323 222 147 227 197 214 224 277 257 273 206 216 253 268 231 198 119 231 208 241 188 268 245 314 143 279 229 268 302 194 220 239 195 133 290 147 206 239 189 210 319 195 224 194 227 325 226 232 205 215 230 267 259 306 240 175 230 274 206 240 266 237 221 262 237 210 159 175 81 129 236 212 255 224 319 182 205 242 191 242 206 181 201 253 133 215 231 264 177 167 183 298 270 205 229 253 213 201 228 395 266 200 276 227 193 224 186 128 181 230 374 245 236 222 161 191 191 203 223 191 144 137 263 240 237 245 198 191 251 235 231 171 206 233 213 285 152 227 201 277 239 273 204 263 206 229 210 276 243 232 174 205 318 228 261 207 211 240 219 287 297 208 237 144 226 184 244 189 318 259 224 243 146 264 192 256 240 211 255 253 140 237 190 285 170 251 227 236 208 319 272 302 266 249 223 214 228 191 258 293 250 306 193 250 257 218 244 204 127 186 318 216 285 244 214 222 210 195 191 229 250 196 306 213 219 173 273 227 143 240 229 142 192 116 213 182 170 230 260 227 258 281 144 139 219 242 131 229 158 206 203 232 194 149 223 244 262 250 181 281 174 115 331 197 193 221 174 130 248 281 172 247 226 248 286 218 314 252 233 205 252 209 239 182 248 158 259 208 204 347 182 273 141 146 217 272 227 159 193 203 227 223 255 211 200 239 287 132 208 245 199 246 250 248 260 206 203 269 257 192 257 234 204 233 269 233 264 208 250 241 199 177 290 291 178 240 220 161 312 266 237 228 273 162 197 316 142 219 156 194 209 277 268 277 355 200 229 172 221 172 219 212 215 245 195 214 289 227 183 190 222 244 262 321 147 213 180 271 178 186 191 306 157 276 238 223 280 210 283 197 226 245 111 318 266 281 233 315 266 220 196 221 75 267 252 256 251 259 267 212 231 232 189 164 239 181 206 292 206 194 212 221 231 181 295 253 132 164 251 195 254 184 157 269 252 153 237 237 145 135 237 158 270 148 349 203 256 168 241 356 187 271 191 169 257 250 205 257 219 197 227 205 125 165 230 234 217 281 185 255 262 242 264 175 187 211 290 177 134 229 277 289 226 238 240 256 256 274 201 259 223 205 240 298 246 206 216 170 219 182 195 228 195 274 277 264 271 265 267 374 213 207 284 290 244 258 279 126 242 170 234 258 194 178 211 178 265 179 160 254 180 250 206 129 259 225 235 198 256 161 267 265 233 169 272 291 255 187 163 202 205 230 255 229 242 222 283 270 248 232 199 201 141 178 182 179 208 157 237 199 278 232 263 187 268 182 272 261 182 199 166 181 205 189 148 215 331 211 190 179 152 207 207 267 182 291 265 256 207 196 211 210 153 208 196 286 292 161 245 174 219 218 207 222 203 205 178 225 271 162 213 187 232 221 235 171 231 223 249 198 226 213 195 203 187 284 312 216 186 282 310 256 311 177 205 225 273 259 251 254 250 318 241 230 270 336 244 227 225 221 289 232 218 234 308 214 246 155 235 207 188 202 211 233 237 189 222 250 240 226 161 241 200 320 278 278 166 278 230 270 187 209 234 185 286 229 224 207 221 269 216 274 159 179 179 185 252 226 207 203 290 202 206 211 172 253 217 254 257 218 284 162 103 180 231 220 260 259 336 198 105 284 258 220 173 220 275 226 197 266 288 215 178 292 324 224 297 163 169 273 219 196 241 162 217 163 220 231 206 341 205 224 200 238 272 265 178 252 250 204 344 245 201 309 151 259 209 109 250 196 162 233 248 195 257 208 195 174 138 264 303 167 210 213 174 178 185 185 311 200 222 200 231 163 195 230 191 165 241 264 217 188 289 207 237 198 120 217 308 156 301 256 196 251 280 240 139 214 241 202 147 231 295 232 294 245 277 340 147 152 115 265 167 220 182 175 199 193 146 157 278 245 210 228 221 241 280 253 228 258 256 198 228 165 179 215 250 257 194 250 184 215 162 262 271 225 280 238 246 275 197 157 234 184 274 159 145 247 276 213 250 246 190 248 276 194 259 210 189 167 242 254 264 185 219 175 225 133 299 290 199 139 228 231 191 245 192 248 311 260 259 286 247 211 210 236 205 206 144 317 240 298 220 262 167 195 153 245 224 173 214 167 230 140 245 214 185 280 155 356 204 206 209 196 267 210 210 331 171 245 204 246 220 186 206 145 239 161 202 276 281 209 222 166 323 291 276 284 151 295 202 137 204 183 236 280 166 220 232 250 224 258 258 195 228 255 211 241 325 201 261 165 320 198 167 181 272 235 254 136 213 201 173 224 243 237 227 184 351 226 237 170 245 212 180 293 195 198 286 330 315 182 212 301 194 268 135 192 178 111 233 316 187 186 219 328 190 223 291 315 225 256 213 253 279 316 202 236 254 221 294 229 221 245 220 185 197 167 238 264 246 165 226 264 179 244 293 302 247 198 288 220 202 186 272 208 247 206 222 237 259 229 261 229 179 199 182 235 190 158 192 198 231 242 252 283 290 271 204 112 289 240 138 220 206 316 225 170 268 200 253 193 244 320 160 212 181 212 162 221 222 210 221 215 240 349 256 251 233 224 290 195 157 215 221 135 258 192 184 256 230 272 213 265 183 249 198 161 218 204 207 230 221 213 240 217 200 278 192 181 231 272 210 247 303 221 270 176 213 216 294 196 226 312 224 205 228 251 189 186 199 247 208 212 227 201 180 203 275 192 159 262 278 277 217 207 283 184 274 264 184 211 240 285 288 248 212 240 271 293 294 199 165 238 206 196 209 173 228 240 174 190 176 182 339 192 259 127 174 232 133 249 193 249 116 179 197 144 236 255 139 174 159 138 215 215 174 198 231 139 264 192 285 193 295 255 149 179 208 159 201 222 119 241 164 218 188 207 123 195 214 110 273 247 199 265 254 278 218 309 261 214 350 179 295 169 97 163 265 159 281 192 189 275 201 238 192 267 194 244 153 218 320 253 213 266 273 230 177 223 233 226 309 131 281 253 251 213 139 247 207 242 185 362 248 244 240 156 250 212 228 247 210 233 207 288 250 292 277 168 212 324 205 277 204 270 207 218 209 254 366 243 168 268 263 200 287 201 201 277 231 259 288 191 222 240 147 231 228 230 232 250 249 333 199 137 235 352 256 202 296 307 152 326 257 168 201 239 232 347 275 280 154 220 247 146 217 200 195 270 235 216 267 262 228 196 218 238 236 275 133 223 183 143 156 258 205 279 242 257 240 312 243 234 308 256 212 313 238 191 218 175 224 253 169 249 190 212 258 363 171 216 261 274 204 134 174 318 228 138 250 270 194 215 108 214 231 231 190 223 177 203 235 285 151 259 211 192 253 142 197 137 220 193 213 228 225 318 194 177 263 185 201 170 253 286 184 252 241 290 228 228 277 205 239 261 270 215 264 186 200 250 126 223 340 263 173 255 212 284 193 223 192 260 257 206 244 267 215 185 256 181 128 170 160 251 262 285 253 279 206 327 140 244 261 218 177 293 262 319 181 273 262 285 217 159 349 226 192 257 254 248 203 179 159 225 156 238 267 330 236 164 285 213 219 156 165 263 240 163 275 256 231 198 233 325 172 221 157 251 244 204 266 214 240 221 256 207 204 199 209 246 230 245 256 169 205 180 188 142 246 150 269 193 219 226 201 291 185 126 318 270 161 252 209 231 241 233 172 159 231 217 176 220 159 194 198 175 270 169 148 250 192 178 211 137 237 200 242 220 244 285 227 225 260 204 276 213 262 255 229 114 245 247 195 198 238 236 206 212 204 235 222 212 186 234 270 213 311 229 212 188 261 253 159 199 197 199 227 236 190 243 248 243 253 195 215 211 231 180 238 215 216 275 277 292 162 176 136 172 256 185 162 218 226 162 235 145 224 188 347 228 260 265 202 175 313 263 182 223 220 247 223 161 244 234 138 180 226 221 176 234 239 162 150 265 226 209 208 242 192 195 217 172 265 231 143 207 195 257 183 274 280 198 186 183 196 295 260 226 314 208 182 237 247 309 199 217 160 220 210 153 269 285 200 257 202 219 319 305 195 206 268 187 212 237 258 161 189 218 258 262 223 284 295 247 283 219 180 171 216 232 300 206 228 254 309 210 226 196 214 225 253 218 216 223 179 192 228 160 248 175 211 217 169 223 240 157 160 197 220 226 217 276 239 209 167 274 274 293 204 222 289 199 157 192 199 193 194 201 171 208 208 234 213 169 163 234 257 180 181 308 203 181 250 239 203 225 118 180 180 195 199 240 160 270 203 196 233 208 215 185 218 157 156 222 166 293 211 247 250 163 251 142 298 243 151 229 257 257 191 152 263 316 305 236 292 167 185 266 204 252 280 207 216 264 310 184 235 260 226 204 204 216 276 201 298 238 324 183 266 232 189 178 269 273 138 201 250 216 167 188 159 141 265 230 233 161 240 212 267 285 183 198 285 218 237 229 178 318 160 233 256 193 174 206 118 200 267 291 201 208 232 250 246 217 225 254 225 175 175 187 250 281 197 255 207 219 260 274 198 165 202 222 224 209 198 262 198 281 204 170 148 240 220 243 258 260 243 135 262 184 242 253 217 261 287 165 253 193 286 234 214 265 177 264 286 301 201 277 240 232 178 243 268 230 212 185 165 130 224 319 204 196 231 120 126 163 223 237 245 226 253 244 213 150 277 178 260 196 293 247 212 190 240 164 199 110 288 250 248 280 215 322 224 287 321 295 223 198 182 222 256 181 223 250 254 284 251 223 267 155 223 130 221 216 174 220 261 191 245 280 185 169 211 195 120 300 211 282 220 160 249 213 184 110 127 160 212 243 245 233 178 189 257 239 256 235 209 303 185 262 224 230 227 240 267 280 250 211 254 213 136 234 234 186 188 104 255 312 206 251 184 263 239 297 206 229 195 289 190 155 139 164 322 317 137 257 174 210 160 170 282 205 169 309 136 235 256 226 209 185 192 278 226 155 184 236 235 202 139 234 176 221 230 194 227 129 209 225 216 222 220 150 173 139 217 223 160 223 92 174 200 299 211 216 237 257 216 162 207 177 185 211 320 233 149 287 184 241 196 164 135 315 257 189 241 220 144 152 215 240 312 220 234 248 215 147 183 238 288 236 248 258 206 225 198 251 268 203 295 226 239 214 190 237 303 256 183 181 286 195 252 183 211 281 159 246 217 203 228 202 198 163 214 241 157 255 255 223 291 237 247 270 234 196 214 239 269 251 194 263 185 163 221 187 166 177 203 217 272 212 185 248 195 160 243 234 208 233 229 251 188 248 258 186 283 194 197 188 235 146 340 186 210 330 185 240 181 258 216 160 183 251 144 247 198 238 150 242 244 215 178 185 282 171 166 255 313 197 214 228 270 291 210 265 313 232 222 174 203 305 279 258 209 234 165 327 288 277 262 228 247 336 285 288 295 234 174 221 170 153 207 241 185 281 286 244 164 295 147 197 196 213 271 137 245 196 286 172 296 171 263 229 179 211 187 266 278 183 224 291 201 274 128 167 190 153 170 305 236 215 178 210 244 307 177 221 144 258 217 180 281 289 217 238 279 138 240 230 127 246 260 256 249 217 230 175 203 195 343 254 231 212 305 302 188 220 182 218 173 239 212 266 268 199 174 213 223 148 293 223 230 250 229 141 255 259 190 257 210 187 230 227 220 227 247 235 168 292 255 189 200 230 190 260 233 242 266 236 218 210 156 219 297 123 176 257 171 296 234 255 202 177 198 209 172 268 217 201 286 199 216 224 179 198 206 171 147 184 183 266 223 207 240 232 205 196 223 187 187 263 178 222 267 149 292 274 200 209 237 202 264 243 224 194 226 166 204 196 245 250 163 221 181 242 330 248 240 223 246 232 199 211 260 130 187 189 215 223 265 215 248 156 96 236 137 156 259 278 305 153 197 143 286 312 206 220 191 292 292 282 118 219 169 207 209 251 230 146 258 192 238 207 272 204 233 303 322 259 144 175 180 184 210 239 147 293 227 248 227 217 207 203 205 221 218 184 233 267 207 172 213 223 158 161 247 279 179 178 239 144 248 178 237 336 302 237 241 218 201 119 237 183 226 223 212 229 214 213 151 240 217 192 270 247 214 295 294 240 288 152 209 289 144 246 245 226 146 248 247 254 204 321 315 225 278 201 196 224 207 157 221 223 260 208 302 191 232 200 270 205 233 200 271 240 257 275 200 233 270 231 360 153 276 194 261 137 222 193 292 219 227 171 232 139 219 208 213 245 207 299 312 240 219 268 235 273 184 290 259 209 220 205 226 184 314 275 282 262 225 223 190 217 240 202 253 326 239 225 256 206 127 187 243 231 156 227 256 248 163 158 195 178 144 165 247 223 248 245 244 215 252 277 277 142 203 231 221 339 165 257 225 182 103 164 237 206 190 147 188 226 244 290 237 231 245 188 196 274 277 230 284 178 235 230 188 280 178 165 262 164 249 278 201 257 298 312 274 241 307 260 249 247 277 222 207 180 236 183 215 243 208 255 185 197 191 291 156 207 162 256 134 257 315 253 178 221 219 274 268 259 246 240 142 189 296 212 185 251 220 199 223 248 192 253 263 206 286 234 159 143 299 233 268 227 247 329 288 247 168 271 200 218 194 224 291 216 138 180 309 191 221 205 217 225 210 302 287 194 232 217 225 259 240 265 261 237 234 199 128 165 141 282 135 181 249 139 192 296 298 153 217 215 276 151 249 323 277 199 216 254 215 255 286 210 274 192 241 200 284 181 255 306 334 182 189 214 212 155 223 136 223 204 235 326 249 213 227 247 165 240 167 184 318 215 249 187 229 207 283 222 211 195 249 304 257 231 310 273 271 195 259 353 289 143 236 166 217 308 217 291 217 243 234 180 214 161 267 140 268 200 226 234 262 215 233 275 257 195 97 193 284 311 306 221 254 287 171 242 188 205 157 209 222 260 171 194 236 280 130 276 268 280 246 235 227 240 169 197 169 204 230 279 241 249 218 186 169 191 211 171 247 201 159 171 201 186 232 248 215 240 198 233 201 199 266 149 231 251 286 252 112 187 159 172 282 150 209 286 274 228 305 197 156 242 223 213 267 216 173 221 269 286 227 125 229 193 211 325 225 172 138 232 270 252 204 215 199 223 203 198 221 246 180 240 282 235 125 159 235 246 255 261 368 212 179 327 220 251 250 218 168 210 249 212 230 263 242 208 267 223 228 212 241 266 171 251 231 296 195 240 192 229 164 293 177 155 316 216 241 255 213 239 271 251 159 197 160 210 178 260 213 178 162 178 265 143 187 205 218 222 291 227 199 240 205 196 297 228 318 199 218 269 199 300 163 191 261 274 180 321 269 115 223 259 174 157 250 246 217 254 199 229 232 284 275 288 274 223 243 208 236 231 239 227 226 223 236 238 283 220 232 300 196 177 166 235 214 218 302 219 197 209 226 228 256 282 203 229 159 240</t>
+  </si>
+  <si>
+    <t>MIE(0.1923503494508264, 3.9535841456287533, -1.5369055173930194e-29, 3.385632194743337)</t>
+  </si>
+  <si>
+    <t>1 2 1 1 1 0 1 1 0 1 2 0 1 1 1 0 0 2 0 0 3 0 1 1 0 1 1 0 1 1 0 2 2 3 2 1 2 1 0 1 2 2 1 2 1 2 0 2 1 0 1 1 2 2 1 1 0 4 4 1 1 2 1 1 2 1 2 2 2 0 0 1 2 1 1 1 1 0 2 0 0 2 1 2 0 2 0 3 0 1 0 0 1 0 1 0 1 0 1 2 0 2 1 0 0 1 1 2 0 1 1 1 0 2 2 1 1 0 2 1 0 0 3 0 0 0 2 1 2 2 3 0 0 0 1 0 0 2 0 2 0 1 1 0 1 1 0 0 2 1 2 3 2 1 1 0 0 2 0 2 2 1 0 1 2 0 4 2 0 2 2 2 2 0 0 0 0 2 0 1 2 2 2 1 0 0 1 1 0 1 2 1 1 0 0 0 2 1 2 1 2 0 0 0 0 2 2 0 1 1 1 1 2 1 1 3 1 0 1 3 0 0 1 2 2 0 0 2 2 1 2 2 1 2 2 2 2 1 1 0 1 3 2 2 1 1 0 0 2 2 1 0 0 3 0 1 1 0 1 2 1 1 2 1 3 2 0 2 1 3 1 1 2 2 1 1 2 1 0 0 2 0 0 0 2 1 1 1 1 2 1 1 2 1 3 1 1 0 2 2 1 1 1 0 1 0 0 2 1 0 2 2 0 0 0 0 0 1 0 3 0 0 1 0 2 1 1 0 0 1 2 2 0 2 0 0 1 0 1 0 1 0 0 1 0 1 0 2 1 0 0 3 2 1 1 1 2 1 1 0 2 2 1 2 1 0 2 0 4 2 1 2 1 1 0 0 1 0 1 0 3 1 0 2 1 1 1 0 0 1 1 1 0 0 2 1 0 2 1 2 1 1 1 0 1 2 1 2 0 0 1 0 2 0 1 1 1 0 1 2 2 1 1 0 4 1 1 0 3 1 1 0 0 1 2 1 0 0 1 0 3 0 2 0 3 1 0 0 1 0 2 3 1 2 0 0 1 2 2 0 3 0 2 1 0 2 2 1 2 1 2 1 0 2 4 1 0 1 1 1 2 2 1 0 0 1 0 0 0 2 0 3 0 0 1 2 1 2 1 0 3 1 2 0 3 2 0 0 2 1 1 1 1 1 1 2 1 1 1 2 0 0 2 0 2 1 2 0 3 1 1 1 0 1 2 2 1 2 0 0 1 1 2 2 1 2 0 1 0 1 1 1 2 1 1 0 0 2 0 2 1 1 3 1 2 1 1 1 1 0 0 1 0 3 2 0 1 1 0 0 1 3 0 1 0 1 1 2 0 0 2 0 0 2 0 1 1 2 0 2 0 0 1 1 2 0 2 1 1 3 2 2 1 1 1 1 0 3 0 0 0 1 2 1 0 2 3 0 2 2 3 1 1 2 1 0 0 1 1 0 1 1 0 0 1 1 0 2 2 0 0 2 1 2 2 1 0 1 1 3 0 1 1 1 1 0 1 1 2 0 1 0 1 1 0 0 1 0 4 0 0 1 1 1 2 1 1 0 0 2 0 0 2 1 2 3 0 0 3 0 0 1 1 1 2 1 2 2 2 1 1 2 4 0 0 1 2 0 1 1 1 0 1 1 1 2 1 2 0 1 3 1 0 1 2 0 1 1 2 1 0 1 2 0 2 0 0 2 0 0 2 1 3 2 1 2 1 1 1 0 1 1 1 2 2 1 1 1 0 1 1 3 1 2 1 0 3 0 0 1 2 3 1 1 0 0 1 2 1 1 3 0 1 1 0 1 1 0 1 1 1 2 2 0 1 0 2 0 0 0 3 4 2 0 1 1 0 1 1 0 1 0 2 3 2 2 1 1 2 1 3 0 1 2 2 3 3 0 1 2 0 1 1 1 1 1 2 0 0 1 2 1 3 1 1 1 0 1 1 1 2 2 1 2 2 1 0 2 1 0 0 1 1 1 0 2 2 3 0 2 1 1 0 2 3 0 1 1 1 2 0 0 0 0 1 1 2 2 2 1 0 1 1 1 0 1 0 1 2 1 0 1 2 2 2 0 1 2 2 0 0 0 1 1 0 1 2 0 0 1 2 2 1 0 1 0 3 2 0 0 1 0 0 2 2 0 2 2 0 2 1 3 0 0 2 1 0 1 1 0 1 2 1 1 0 1 0 1 1 2 1 2 0 2 1 1 1 0 0 0 1 1 0 0 1 1 2 0 0 0 0 0 1 0 2 1 1 2 0 1 2 1 0 0 1 1 1 1 1 0 2 1 1 0 0 1 1 0 0 0 2 2 1 1 0 1 0 1 2 0 1 2 2 0 2 2 1 1 1 5 1 1 0 1 1 0 4 1 3 0 3 1 1 0 2 1 3 1 2 0 1 1 0 1 2 1 0 1 2 2 2 2 1 0 0 0 1 1 1 1 1 1 0 1 1 1 1 0 0 2 1 2 1 0 1 0 1 0 1 1 0 1 3 0 1 0 1 4 1 2 0 2 1 0 2 3 2 0 1 0 0 2 0 2 2 1 3 0 0 2 1 2 1 1 0 1 2 2 0 3 4 3 2 0 0 2 3 0 1 1 1 3 1 2 1 0 2 1 0 1 2 4 1 0 1 1 0 1 1 2 4 1 0 1 0 1 1 0 2 2 1 1 1 1 1 1 1 2 2 2 1 0 3 2 2 0 2 2 1 2 1 2 2 1 0 2 0 2 0 0 0 2 1 3 1 2 1 0 0 2 1 3 1 1 1 1 1 1 2 3 0 2 0 1 1 1 1 0 4 0 0 2 0 0 0 0 0 1 1 0 3 1 0 1 1 0 0 0 1 1 1 2 2 1 1 1 2 1 3 1 1 1 3 0 3 0 2 1 1 1 1 0 4 1 1 2 1 2 1 1 2 1 2 1 1 1 1 3 0 1 0 1 0 1 0 2 1 1 2 1 1 1 0 1 0 1 2 1 2 1 1 3 2 2 1 1 1 1 1 2 0 2 0 2 2 1 1 1 0 1 2 1 1 2 0 1 1 1 0 0 2 1 1 1 1 0 0 0 2 1 0 1 1 1 1 2 1 2 1 2 0 1 0 0 2 1 0 2 2 0 1 2 1 0 1 0 1 1 2 0 2 0 0 2 1 3 0 3 3 1 2 2 2 0 1 2 0 1 3 1 1 0 2 0 0 2 2 2 3 1 1 0 2 2 2 0 2 1 1 2 2 1 3 0 0 0 2 2 2 1 1 0 1 3 1 4 1 2 1 1 1 0 1 1 3 4 0 2 0 1 0 1 0 1 2 0 1 1 0 0 2 0 1 1 1 1 0 2 2 0 1 2 2 0 0 1 1 3 1 1 1 1 1 2 0 1 2 0 0 3 1 2 0 2 0 1 1 0 1 0 2 1 2 3 0 1 1 2 1 2 1 2 1 1 0 3 1 0 0 2 2 0 1 3 1 1 1 1 1 0 0 2 2 1 0 0 1 1 2 0 1 0 1 0 2 1 2 1 0 2 0 1 0 1 2 1 0 1 1 2 3 1 0 2 1 0 0 1 0 0 1 1 0 1 2 2 0 0 1 2 0 0 2 1 1 1 0 0 1 1 0 1 3 1 1 0 1 0 1 1 0 2 0 1 1 1 0 1 2 0 2 1 2 0 1 2 0 1 2 0 1 4 1 0 0 0 2 2 2 2 0 0 1 1 1 0 0 2 0 0 2 0 0 1 0 0 1 1 2 3 1 1 1 0 0 3 0 0 2 1 0 0 2 1 0 0 2 1 1 2 1 1 2 1 2 1 2 1 1 2 1 1 1 1 0 0 0 2 1 2 1 0 0 1 2 1 2 0 1 1 1 1 0 0 0 1 2 0 0 2 3 1 0 2 4 2 1 2 1 0 1 1 0 0 0 1 1 2 2 3 2 1 4 1 1 1 2 3 0 2 1 1 0 1 1 1 1 2 2 0 1 2 1 1 2 3 1 1 1 1 3 3 1 1 0 1 2 2 1 1 2 1 0 1 0 1 1 2 1 0 2 1 0 1 1 0 2 2 2 0 0 2 0 2 1 0 0 2 1 1 0 0 1 1 0 0 1 1 1 0 1 2 1 1 1 0 2 1 1 3 3 0 1 1 2 0 2 1 3 1 0 1 0 1 2 0 1 1 1 2 0 1 2 0 1 2 1 1 2 0 0 2 1 1 1 2 1 1 2 2 0 1 3 0 1 2 2 2 1 0 2 0 1 0 0 3 2 1 0 2 1 2 2 2 0 2 1 2 0 1 1 1 2 2 2 2 1 2 2 1 1 1 1 1 2 1 2 1 1 1 1 1 2 1 2 2 0 1 1 2 0 1 0 1 1 1 1 3 0 0 2 1 0 1 1 3 2 1 2 1 1 2 2 2 0 0 1 1 0 0 0 1 2 1 1 0 0 1 2 0 1 0 2 2 1 2 1 2 3 1 0 3 1 2 1 0 1 2 0 0 1 1 1 1 1 3 1 0 0 2 2 3 1 2 3 0 0 2 0 0 1 2 2 1 1 2 1 2 1 2 2 0 2 0 0 3 0 2 0 1 1 2 1 1 3 0 0 0 1 0 0 2 1 0 2 1 1 1 0 3 0 1 3 1 0 0 2 1 1 0 2 3 1 1 1 0 2 2 3 1 1 0 1 2 0 1 0 1 1 1 1 2 1 2 2 0 2 0 2 2 3 1 0 1 0 1 1 1 1 2 1 1 2 0 1 0 1 0 1 2 0 1 1 0 1 0 2 2 0 2 3 1 1 1 3 1 0 1 2 2 0 0 2 1 0 2 0 0 1 1 1 0 1 0 2 1 0 0 1 1 0 3 0 2 1 1 1 1 1 0 2 0 1 1 1 2 1 1 0 1 1 1 4 2 1 2 1 1 3 0 1 0 1 1 1 2 2 0 2 2 1 1 1 0 3 0 1 0 1 2 1 0 1 0 1 1 2 2 1 3 0 2 0 1 2 2 0 1 1 1 0 0 1 1 2 1 2 0 0 1 1 1 1 1 1 1 1 1 2 2 0 2 1 0 0 2 3 2 2 1 1 1 1 2 4 3 2 2 2 2 2 0 2 0 0 2 0 1 3 3 1 0 0 2 1 1 0 0 0 1 1 0 1 2 2 0 2 0 1 1 1 0 1 1 2 0 1 1 0 0 1 2 2 0 1 1 1 2 1 0 1 4 1 1 1 1 2 2 2 2 1 2 1 1 1 0 1 0 0 3 0 2 1 1 0 2 1 3 0 2 1 0 0 2 2 1 0 1 1 1 0 2 2 1 1 3 3 1 1 2 2 2 0 0 0 1 1 1 2 0 0 2 1 1 1 2 0 1 1 1 0 0 0 0 1 0 2 1 0 0 1 1 3 1 2 0 3 1 1 2 0 0 2 1 1 0 1 1 1 0 2 2 1 0 1 2 1 2 1 2 1 2 0 2 2 1 0 0 1 0 1 0 4 1 1 1 2 2 0 2 0 0 1 4 0 1 2 4 2 1 1 0 1 2 0 0 2 1 0 1 1 1 1 0 1 0 2 2 1 2 2 1 1 0 3 0 1 1 1 2 0 1 1 0 1 1 2 1 1 1 4 1 3 2 0 1 1 1 0 2 0 0 1 1 1 1 1 0 1 0 0 0 1 1 1 3 1 0 1 2 1 2 3 1 2 0 0 1 2 1 1 1 0 2 1 1 0 1 1 0 0 1 2 0 0 1 1 0 2 2 2 1 4 0 1 1 0 2 0 2 2 1 2 0 0 2 2 0 1 1 0 0 0 0 0 2 2 1 2 1 1 1 2 2 1 2 2 1 2 0 0 0 1 1 1 1 1 2 1 0 1 0 0 0 0 1 0 2 4 1 1 0 0 2 0 2 1 2 1 1 1 0 0 0 1 0 0 2 2 2 1 2 1 1 1 2 0 1 2 2 2 1 1 2 1 0 2 2 2 3 2 2 1 1 2 1 1 1 0 2 1 2 0 1 0 1 1 1 2 2 0 3 0 1 1 4 1 0 1 0 0 1 0 0 1 1 0 2 0 1 1 1 1 2 1 0 0 2 0 1 0 2 1 2 1 1 1 1 0 1 2 0 1 3 2 2 2 1 3 0 0 1 1 2 1 1 4 0 0 1 0 0 1 1 3 1 1 1 2 2 1 2 0 1 2 0 2 1 1 1 2 0 2 0 1 1 0 0 1 1 1 2 0 2 1 2 0 0 1 0 2 1 1 1 0 0 4 2 1 0 0 3 1 1 1 0 2 0 2 2 1 1 1 1 0 2 2 1 2 0 2 0 2 2 1 1 1 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 3 0 1 2 2 0 0 3 2 4 1 1 1 1 1 2 0 1 1 2 1 1 0 0 1 1 1 1 1 0 0 2 0 0 0 0 2 1 1 1 2 0 0 0 0 1 2 1 1 2 1 0 1 1 1 1 0 1 2 1 1 0 1 1 1 1 2 1 0 1 0 2 1 2 2 1 1 1 0 0 2 0 1 2 1 0 1 0 1 0 1 2 2 2 0 1 0 0 0 1 1 2 0 1 1 3 0 1 1 1 0 1 0 1 0 1 0 1 1 2 1 1 3 0 0 0 1 1 1 1 0 0 0 2 1 1 1 1 1 0 0 2 1 3 1 1 2 1 1 1 1 2 1 1 1 2 4 1 1 2 0 0 2 0 1 1 0 1 1 1 1 0 2 1 0 1 1 0 0 1 0 0 1 2 2 1 0 0 2 0 1 0 1 0 0 0 0 1 0 2 1 0 1 2 1 2 1 2 4 1 0 2 1 1 0 1 1 1 3 2 3 2 2 2 1 1 1 1 1 0 1 1 1 0 0 1 0 0 0 0 2 2 1 1 2 0 1 2 0 1 0 2 2 2 2 0 2 2 0 0 0 2 0 1 0 1 0 1 1 1 1 3 2 0 2 2 2 2 1 1 1 2 0 1 0 3 1 0 1 1 0 1 0 2 1 1 2 2 3 2 0 0 1 2 1 2 1 0 0 2 1 0 1 1 1 0 1 1 0 1 1 0 3 2 1 1 1 3 2 1 1 0 1 2 0 1 2 1 1 1 1 0 1 0 0 2 1 1 0 0 1 1 0 1 0 2 0 3 2 0 1 1 0 1 1 1 2 0 0 2 2 2 2 3 2 0 2 0 0 2 2 1 2 1 1 1 0 1 1 0 2 1 1 1 0 2 1 1 1 0 2 2 2 2 2 0 1 2 1 1 2 0 2 1 1 2 0 2 1 2 0 1 2 0 0 2 1 1 1 2 0 2 1 1 0 3 2 1 1 1 2 2 2 1 2 1 0 0 1 2 0 1 3 1 2 1 2 1 2 1 2 1 1 1 0 0 0 1 1 0 1 2 1 2 1 0 2 1 0 1 1 3 1 2 1 0 0 0 1 1 1 1 1 1 1 2 2 2 0 1 1 1 0 3 2 0 0 1 1 1 2 2 2 2 0 1 1 0 0 2 1 0 1 0 3 0 0 3 1 1 1 1 1 0 0 2 1 1 0 1 2 0 2 2 0 0 0 0 3 1 0 1 1 2 2 1 2 2 1 1 1 0 2 1 1 1 1 2 0 1 0 1 0 2 2 2 0 1 1 1 3 1 1 1 2 0 0 1 1 1 2 1 0 1 0 1 4 1 1 0 1 1 2 1 1 1 2 2 0 1 2 2 1 1 0 1 0 0 0 1 0 1 2 1 1 2 1 1 1 2 0 0 0 1 2 1 2 2 1 2 1 1 1 1 3 0 1 3 1 0 2 2 2 2 2 1 1 0 2 0 0 1 1 1 1 0 1 0 1 2 0 0 1 0 2 1 1 2 2 1 2 1 1 0 1 1 0 3 0 2 2 1 0 2 0 0 0 3 2 0 3 1 0 2 2 0 0 0 1 2 0 2 0 2 1 1 1 1 0 1 0 2 1 1 2 0 1 1 3 2 0 4 1 2 1 1 0 0 1 1 0 1 2 0 0 2 1 4 0 2 2 0 1 1 1 0 1 1 1 3 2 0 2 1 3 3 1 0 2 2 0 3 0 1 1 2 3 0 1 1 1 1 0 3 3 3 1 0 1 3 3 0 1 2 1 2 1 2 0 1 2 1 0 0 1 1 3 0 1 2 1 0 3 0 0 1 0 1 0 3 1 0 0 1 1 2 0 0 1 1 1 2 0 3 2 0 0 1 1 0 0 1 0 2 2 1 2 2 3 1 1 2 0 0 2 1 0 0 1 2 1 2 1 2 2 1 3 0 0 0 3 1 1 1 0 1 2 2 2 0 1 2 0 1 2 1 0 1 3 2 1 0 2 2 0 1 1 0 1 1 2 1 2 1 2 0 0 1 0 0 0 2 1 1 2 0 1 1 1 0 0 1 2 0 0 0 2 0 0 0 2 1 1 1 1 2 1 1 0 2 2 2 2 0 0 1 0 2 1 0 1 2 1 0 1 2 1 1 1 1 1 1 0 0 0 3 1 1 1 1 1 0 2 1 2 2 0 1 0 1 0 2 1 2 3 1 0 2 1 2 3 0 1 3 3 0 1 2 1 2 2 2 1 0 0 2 0 0 0 0 0 1 3 1 2 1 1 1 2 0 3 2 0 1 2 0 0 0 0 0 1 0 0 2 3 2 0 1 2 3 2 0 0 0 1 1 1 0 1 1 3 1 0 1 1 2 1 1 2 1 1 2 1 3 1 3 2 2 1 1 0 1 1 2 0 1 0 0 1 2 1 0 0 0 2 1 0 0 1 0 1 1 1 1 1 1 1 1 0 1 0 2 1 1 2 2 1 1 3 3 1 0 2 1 0 2 1 0 1 0 2 1 0 3 1 1 1 0 2 1 2 0 1 0 1 0 1 1 0 1 0 1 0 1 2 2 1 1 1 1 1 2 1 2 2 2 1 0 4 0 1 2 2 0 0 2 0 0 1 1 1 1 0 1 0 1 2 0 2 2 0 0 0 0 2 1 0 1 0 1 1 1 1 0 2 1 1 1 2 1 0 2 1 0 1 2 0 1 0 1 2 1 0 3 1 2 0 1 1 1 1 2 1 1 0 2 0 1 2 0 1 2 1 1 1 0 0 1 1 1 2 0 1 0 2 0 1 1 2 1 1 2 1 0 1 1 1 2 2 3 1 1 1 3 0 0 1 2 2 0 1 1 0 1 0 1 2 1 1 2 1 1 2 2 0 1 2 1 0 0 0 1 1 0 1 0 0 0 2 1 2 1 1 0 2 2 1 2 0 2 2 1 0 0 1 1 1 1 1 0 1 0 2 0 0 0 1 0 3 0 0 0 1 0 1 1 2 1 1 1 2 0 2 1 2 0 3 0 1 1 0 2 2 3 1 3 2 0 0 0 0 4 3 1 0 1 1 0 1 1 1 0 2 0 2 1 1 1 0 1 1 1 1 1 0 1 1 0 0 1 0 1 1 1 1 0 2 1 1 1 0 0 2 1 2 0 0 1 2 1 0 2 2 0 0 1 1 1 2 2 1 0 2 1 1 2 1 2 0 1 2 1 0 1 2 0 1 2 0 0 1 0 2 1 2 1 1 2 2 2 1 2 1 1 0 2 0 0 2 2 0 2 2 0 1 1 0 0 1 0 2 2 1 1 2 0 0 1 0 2 2 1 1 0 1 1 0 2 2 2 0 1 0 1 2 3 1 0 2 1 1 3 1 2 1 2 0 1 2 0 1 0 1 1 1 0 2 0 0 1 3 0 2 1 1 1 2 1 2 1 1 0 0 1 1 1 0 1 0 0 1 2 4 2 0 1 2 2 1 2 1 1 3 1 0 1 0 1 3 2 1 0 0 2 2 0 0 0 2 1 3 0 1 1 2 2 0 0 2 0 2 1 2 1 1 1 1 1 3 3 0 3 1 1 2 1 0 0 2 2 2 0 0 2 1 1 1 3 1 0 2 2 1 0 3 0 2 3 1 1 0 1 2 1 1 1 1 0 1 2 1 1 3 3 0 2 2 0 1 0 1 0 2 0 1 2 0 0 4 3 3 1 1 0 2 0 2 1 1 1 1 1 2 3 2 2 0 1 1 0 0 2 0 1 0 1 1 2 2 2 1 2 1 1 0 0 1 1 0 2 0 1 0 1 2 0 2 1 0 0 0 2 1 1 2 1 2 1 3 2 3 1 0 1 1 1 4 1 1 1 0 1 0 2 1 1 0 2 1 2 1 0 1 1 0 1 0 1 1 2 2 0 1 1 0 2 1 2 1 1 2 1 0 0 1 2 2 1 0 2 1 2 0 1 2 2 5 1 2 1 1 0 5 0 0 1 1 3 2 0 1 1 1 1 0 1 2 1 0 1 1 0 2 1 2 1 1 1 1 0 0 1 2 1 0 0 0 1 2 0 3 1 0 0 3 2 1 1 1 3 2 0 1 2 0 1 2 0 0 2 0 0 2 1 1 1 0 2 1 1 1 0 1 1 1 0 0 1 2 0 0 1 0 3 3 1 1 2 2 3 0 1 1 0 0 2 1 1 0 0 2 1 1 1 1 2 0 1 1 2 4 0 1 2 0 1 2 1 1 0 0 1 1 0 0 0 0 0 1 1 1 1 1 0 3 0 3 1 2 2 2 0 1 1 0 1 2 0 0 0 0 1 2 1 2 1 2 1 1 1 1 1 3 0 0 1 2 1 2 1 2 1 1 0 1 1 3 0 2 1 1 1 0 2 1 1 1 1 1 1 1 0 3 0 0 0 1 0 1 1 2 1 1 3 1 2 0 1 2 0 0 1 1 0 2 1 1 1 2 1 1 1 0 2 1 0 0 1 0 0 1 0 0 0 0 2 2 1 0 1 0 0 1 0 1 0 1 1 1 0 3 0 1 1 2 1 2 0 1 2 2 1 0 2 1 2 1 0 0 0 0 1 1 2 0 2 1 1 0 0 0 1 1 0 1 0 1 0 1 1 0 2 1 1 1 3 0 1 1 3 1 0 2 1 1 1 0 1 1 1 1 1 0 1 0 0 2 2 0 0 1 1 1 1 0 1 1 0 2 0 1 2 0 0 1 1 1 2 1 1 2 1 0 2 0 2 3 2 2 1 0 0 0 0 1 0 3 2 2 1 1 2 3 1 1 0 1 1 2 1 1 0 2 1 1 1 0 0 1 2 1 3 0 0 1 2 0 2 1 1 1 1 0 1 2 1 1 1 0 2 2 2 1 3 0 1 0 2 3 1 1 1 1 0 2 1 2 1 1 2 2 0 2 1 0 1 1 1 1 1 0 3 2 2 2 0 1 0 0 1 1 0 1 2 2 1 2 1 1 1 1 1 2 2 0 2 3 3 3 0 0 1 2 1 0 1 1 2 0 0 2 0 1 1 0 1 2 1 0 1 1 1 1 0 2 0 0 2 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 2 1 2 1 1 1 0 2 1 0 2 0 2 1 0 0 1 0 2 4 2 1 0 2 1 1 3 2 1 2 1 1 0 0 1 0 1 0 2 0 0 2 3 1 2 1 0 0 1 0 1 0 1 2 1 3 1 2 2 0 0 2 0 0 0 2 0 0 2 2 1 1 0 0 1 1 0 1 1 1 2 1 0 2 2 1 2 0 1 0 2 0 0 1 1 3 1 1 1 1 0 3 2 1 1 2 0 1 1 1 1 1 0 0 0 0 1 1 2 1 2 1 1 1 0 1 2 2 1 2 0 1 1 2 2 1 1 0 1 2 0 1 2 0 1 3 3 0 1 1 0 1 0 1 1 1 1 3 1 1 0 1 1 2 2 1 2 2 2 0 2 1 2 1 0 1 1 2 2 2 0 1 1 1 1 1 0 2 1 3 1 2 0 2 2 1 1 1 1 1 2 0 1 2 1 2 1 1 0 1 1 0 3 1 2 1 2 4 0 0 1 1 1 0 1 0 1 1 2 0 2 1 2 0 1 1 1 0 0 2 0 0 1 1 0 0 0 1 0 0 3 2 0 1 0 1 2 1 3 1 3 1 0 0 1 2 1 0 1 0 0 0 1 1 1 1 2 3 1 1 0 1 2 0 1 1 3 0 0 3 2 1 2 0 0 1 1 1 3 2 0 2 1 1 0 1 0 1 1 0 1 1 1 0 3 3 1 0 2 0 2 1 1 1 1 0 1 1 1 1 2 0 1 1 0 0 1 2 1 1 1 0 1 1 0 1 2 1 2 1 2 1 0 0 0 0 1 1 0 3 1 1 2 2 1 2 1 2 1 2 2 1 1 1 1 0 2 2 2 1 2 2 2 4 2 0 1 1 0 0 0 2 3 0 1 1 0 1 1 0 1 3 1 1 1 0 1 2 1 0 0 2 2 0 1 1 1 1 0 0 0 0 1 2 4 0 0 1 2 0 2 0 1 2 1 1 2 2 1 1 1 1 2 0 1 0 2 0 3 1 1 2 1 1 0 2 0 0 2 2 1 1 1 0 1 3 2 2 2 1 2 2 1 0 2 1 0 2 0 0 1 0 1 2 2 1 0 0 1 3 2 1 0 2 1 0 3 0 0 0 1 0 0 0 2 2 0 2 1 0 0 1 4 1 2 1 3 1 1 2 1 1 1 3 2 0 2 2 0 0 0 0 1 2 1 1 1 1 1 0 0 0 3 1 2 1 1 2 2 0 2 0 3 0 0 3 0 0 0 1 1 1 3 1 1 1 0 2 0 1 2 1 0 2 0 0 3 0 0 4 0 0 1 1 1 2 1 0 1 1 2 1 0 0 1 1 2 0 3 2 0 1 1 0 2 1 0 1 1 1 2 0 1 0 1 0 0 0 2 1 1 2 1 0 1 1 3 2 1 1 1 2 2 1 0 2 1 1 2 3 3 2 3 4 1 1 0 1 1 1 1 1 1 1 0 2 1 1 2 0 0 1 2 2 0 2 1 2 2 1 1 0 0 2 1 1 0 0 0 2 1 0 3 3 1 0 0 1 1 1 1 1 1 2 0 1 2 1 2 0 2 3 2 1 2 1 0 0 2 2 0 0 2 0 1 1 0 1 1 1 1 2 0 0 1 1 1 1 3 0 0 2 1 2 0 3 0 0 1 0 0 2 0 0 1 1 2 1 2 0 1 2 1 2 0 5 1 2 2 2 2 2 0 2 0 0 0 1 1 2 2 0 1 1 1 1 1 0 2 2 1 2 3 3 0 1 1 0 2 1 2 1 2 1 2 2 3 0 0 2 2 0 2 1 1 1 2 1 3 1 1 1 1 0 1 1 2 2 0 0 3 0 1 0 4 1 1 1 2 1 0 1 2 1 2 1 1 0 0 3 0 1 0 2 0 1 0 2 1 0 1 0 2 2 0 2 0 1 1 2 2 2 0 1 0 1 1 0 1 2 1 1 1 2 0 1 0 1 1 2 0 2 2 1 1 1 1 0 1 1 2 2 2 0 0 3 2 1 1 1 0 0 1 1 0 1 2 0 2 2 2 2 3 1 1 0 1 1 2 2 1 1 1 0 1 1 3 1 2 0 0 1 0 2 1 0 0 1 0 1 2 2 2 1 0 3 0 1 1 0 0 0 1 0 1 1 0 2 0 3 1 2 1 0 2 0 3 0 1 2 2 0 1 0 1 1 1 2 1 2 1 1 2 0 1 2 2 1 0 1 1 1 0 0 2 0 1 0 0 3 2 1 0 1 2 0 1 1 1 2 2 1 1 0 1 3 0 2 0 0 2 1 1 1 2 3 1 3 0 0 2 0 0 1 0 2 1 2 1 1 3 1 2 0 0 2 0 3 2 1 0 2 2 2 1 3 1 0 1 0 0 1 1 0 2 0 2 1 2 2 1 2 0 0 1 0 1 0 1 1 0 1 2 2 0 1 2 0 1 3 0 0 4 1 1 1 1 1 1 0 0 0 1 2 0 1 1 2 1 1 0 1 0 2 1 0 1 1 2 0 2 1 2 1 1 0 0 2 2 0 3 0 1 1 0 0 2 0 1 1 1 0 0 0 1 2 0 1 2 1 1 2 2 2 0 0 1 1 1 3 0 1 1 1 3 0 1 2 1 2 2 0 1 3 1 0 2 2 2 1 0 3 0 1 2 1 1 2 1 4 0 0 1 3 0 2 1 1 0 1 2 1 1 3 0 3 1 1 1 2 3 0 2 2 0 2 3 0 1 3 2 2 1 2 1 1 0 0 0 0 1 1 1 1 2 2 3 0 2 0 2 1 1 2 0 1 1 2 2 2 1 1 1 1 0 2 0 1 2 2 1 0 1 1 3 0 1 2 0 1 0 1 1 0 1 0 1 0 2 1 1 3 3 2 1 0 1 1 1 0 1 1 0 2 1 0 1 1 2 2 1 2 0 2 1 0 1 2 1 0 1 0 2 0 1 2 0 1 0 1 3 2 1 1 2 2 1 2 1 2 0 1 1 2 1 0 3 1 0 1 1 1 1 1 1 1 1 3 1 0 3 0 2 1 0 1 0 1 0 3 1 1 3 1 0 2 1 0 1 0 1 0 0 0 1 3 3 1 2 0 0 2 0 0 1 1 1 1 0 1 2 1 0 0 1 1 2 0 1 3 1 1 1 0 2 2 1 2 1 1 0 0 2 1 0 1 3 0 2 1 2 1 2 1 1 1 2 1 0 2 2 0 0 1 0 0 1 1 0 1 0 1 2 0 2 1 2 1 1 0 0 0 1 1 1 0 1 0 2 2 1 0 2 0 2 2 1 0 1 1 0 0 1 1 1 1 1 2 2 1 3 3 1 1 0 1 1 1 1 2 0 0 3 1 0 2 1 2 3 0 2 1 1 1 1 1 1 2 1 1 2 3 1 0 1 0 2 1 0 0 1 0 2 1 2 2 2 1 0 1 2 1 2 3 0 2 1 3 1 0 1 1 1 1 2 1 1 2 2 1 0 0 1 1 1 2 1 1 1 0 2 1 0 2 1 2 1 2 3 1 0 2 1 1 0 1 0 1 0 1 3 2 0 2 0 1 1 0 2 1 1 3 2 0 1 1 2 1 3 2 1 2 1 1 1 1 2 2 2 0 1 1 1 0 1 0 1 0 0 1 1 2 1 2 0 1 0 2 2 3 1 2 0 0 2 0 0 2 0 0 0 1 1 3 0 2 0 1 1 2 2 2 1 0 3 1 0 1 3 2 1 0 0 1 2 2 0 1 0 1 0 1 0 2 0 0 1 2 1 1 3 1 1 1 0 2 1 0 0 1 1 1 2 0 0 1 2 1 1 0 0 1 0 2 2 2 1 2 2 1 1 1 0 1 2 2 1 0 2 1 1 0 2 0 1 1 0 1 1 3 0 0 1 2 1 1 2 1 0 1 3 3 2 2 3 1 3 1 0 1 1 1 0 1 3 2 0 0 0 1 1 0 2 0 2 2 2 2 0 3 1 1 2 2 0 2 1 1 0 1 0 1 0 1 1 2 0 1 0 1 2 2 2 3 1 0 1 2 2 1 2 1 2 2 1 3 0 3 1 0 1 0 2 2 2 2 1 0 1 1 2 1 1 2 1 0 0 0 2 1 1 1 1 2 1 1 3 0 4 1 0 1 1 0 2 2 1 1 0 1 1 1 1 1 1 0 0 2 1 1 0 0 0 0 0 2 1 1 0 1 1 0 1 0 2 2 3 1 1 1 1 2 0 1 1 2 2 1 2 0 3 3 3 0 1 1 1 1 2 1 1 1 1 0 1 1 0 1 0 0 2 1 2 3 3 1 1 2 0 1 2 2 0 2 0 2 0 1 2 0 1 0 0 1 1 1 1 1 1 0 2 0 1 1 0 0 1 2 1 0 1 1 1 0 1 0 1 2 0 2 1 1 0 1 1 2 2 3 1 2 1 1 0 1 1 1 0 0 0 2 1 1 1 1 0 0 0 0 1 0 1 1 1 1 2 1 2 1 1 2 0 0 0 1 0 0 0 0 0 3 2 2 1 1 0 1 0 2 0 1 0 0 0 0 1 2 0 0 1 1 2 0 2 2 1 1 2 1 0 2 4 1 1 3 0 1 0 2 0 2 1 0 2 1 1 0 1 2 3 0 1 2 1 1 1 2 1 3 2 2 0 0 1 0 0 0 4 2 1 0 0 1 3 2 2 1 2 0 0 1 0 1 1 1 2 0 1 0 2 2 1 0 0 1 1 0 2 1 2 0 1 2 2 2 1 1 1 0 2 2 3 2 1 1 0 1 3 0 0 1 2 2 1 0 2 3 2 1 1 1 3 0 0 1 1 0 1 1 3 1 0 1 0 1 0 2 1 1 0 2 0 1 1 1 1 1 0 1 2 0 1 1 0 2 2 2 1 0 2 2 2 1 2 1 1 0 2 1 0 1 0 1 1 2 2 1 1 1 0 1 2 2 2 1 0 1 1 2 2 1 1 1 2 2 0 3 0 0 2 3 1 0 2 1 1 0 2 0 3 0 1 0 1 3 2 3 0 1 0 0 0 0 1 1 0 2 1 0 0 1 2 2 0 0 0 0 0 2 1 2 0 0 3 1 3 1 0 0 1 1 0 3 1 2 1 1 0 1 1 1 2 2 0 0 1 0 1 1 0 4 1 0 1 1 1 1 2 1 1 1 2 1 1 1 1 1 2 1 0 1 2 2 2 1 1 1 0 1 2 1 1 1 2 2 3 2 1 2 2 1 1 1 1 1 1 0 0 1 1 1 0 1 2 3 1 2 1 2 1 0 0 1 0 0 1 1 1 3 1 2 1 2 2 0 0 2 1 2 1 1 1 0 0 3 2 1 1 0 1 0 2 2 1 1 2 0 2 0 1 2 2 1 1 2 2 2 1 0 2 2 2 1 1 1 2 1 2 2 2 0 0 2 2 1 0 2 2 0 0 1 1 1 1 1 3 1 1 1 1 1 0 1 0 2 1 1 2 1 3 1 3 1 2 1 1 2 1 2 1 1 1 1 2 1 2 1 3 1 1 0 1 3 0 1 2 2 0 0 1 0 3 2 2 1 1 1 2 0 2 1 4 2 2 1 1 0 1 0 1 1 2 1 1 0 1 0 0 3 1 0 0 1 0 1 2 2 2 1 3 2 0 2 3 1 0 1 1 3 1 2 0 2 0 0 1 1 1 2 1 1 1 2 1 1 2 0 1 0 1 0 0 2 1 2 1 1 1 0 3 0 1 1 0 1 1 0 2 1 3 1 2 2 2 1 1 1 1 1 2 2 2 0 2 0 0 2 0 2 1 0 0 0 0 1 2 1 0 1 1 0 0 2 1 1 1 0 1 0 1 1 1 1 0 1 3 2 0 2 1 1 1 1 1 0 3 3 1 0 1 2 2 1 0 2 0 3 1 2 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 2 2 2 0 1 1 1 2 1 0 2 0 2 1 1 1 1 1 3 1 1 2 0 1 2 0 1 2 2 1 3 1 1 1 1 1 3 0 0 1 0 2 0 0 2 1 0 2 0 3 2 1 1 0 0 1 2 2 0 2 2 3 2 1 1 1 1 2 1 0 2 0 2 3 3 0 0 2 0 2 0 1 2 0 1 1 1 2 1 0 4 0 2 2 3 0 2 1 0 1 2 1 0 1 0 1 1 2 1 1 0 0 1 2 0 1 2 1 2 0 2 0 2 1 2 2 3 2 1 1 1 2 0 3 1 1 2 1 2 1 3 1 2 2 2 1 1 0 0 1 0 1 0 1 0 1 0 2 1 1 1 1 0 1 0 1 1 1 0 0 2 2 1 0 2 1 1 2 1 0 2 1 4 1 2 0 2 0 0 3 0 1 0 1 0 1 2 0 1 1 2 1 1 0 1 1 1 1 1 1 0 0 2 2 2 1 1 3 0 2 1 0 0 1 0 1 0 1 2 2 1 3 0 1 1 2 1 1 0 1 2 2 2 0 1 3 0 1 0 2 1 1 0 0 0 0 1 0 1 1 1 0 1 1 3 3 2 0 0 2 1 0 1 2 1 2 1 0 1 0 1 1 2 0 2 2 1 1 4 1 0 0 2 1 1 0 1 2 2 0 2 0 1 1 2 1 2 0 1 2 1 1 1 1 1 1 1 0 1 2 1 1 3 2 3 2 0 2 2 2 2 0 0 2 2 2 1 2 2 1 1 3 0 1 3 1 0 1 1 1 0 3 0 1 0 2 0 1 2 1 1 2 1 0 2 0 0 2 0 1 2 4 3 0 0 0 0 1 2 0 2 2 1 0 2 1 2 3 2 0 2 1 1 2 1 1 1 2 2 3 0 1 2 0 2 0 1 0 0 1 0 1 0 2 0 5 2 1 1 1 1 0 0 0 2 0 1 1 1 3 2 4 1 2 2 1 2 2 0 0 2 1 0 0 1 2 0 1 0 2 0 0 3 1 0 0 1 1 1 0 0 1 0 2 2 1 1 0 1 1 1 1 1 2 2 0 4 1 0 0 1 2 1 0 0 1 1 1 0 2 0 2 1 1 1 0 1 2 0 0 0 2 1 1 1 3 0 1 1 2 0 4 1 3 2 1 0 2 1 1 0 1 2 1 1 3 1 2 2 1 2 1 2 0 2 0 1 1 2 1 2 1 2 1 2 0 2 2 3 1 1 2 2 1 0 2 3 0 2 0 1 0 1 1 0 2 2 0 1 0 0 3 0 1 1 2 2 0 1 2 0 2 2 0 1 1 1 2 1 1 0 1 0 1 0 1 1 1 1 0 1 1 0 2 1 1 2 2 0 0 0 1 3 1 2 2 1 0 3 0 0 1 0 1 2 1 1 2 0 1 0 0 1 3 3 0 1 1 1 0 1 0 0 1 1 3 1 0 1 0 2 2 2 2 1 4 2 1 0 0 0 1 0 3 0 0 2 1 1 0 0 1 1 2 0 2 0 1 0 0 0 0 0 2 2 0 0 0 0 0 1 0 1 3 0 1 1 1 1 2 2 0 1 0 3 0 2 0 1 1 0 2 0 2 0 0 1 1 2 1 0 1 0 0 2 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 2 0 0 1 1 0 3 0 2 3 1 2 0 1 2 0 1 0 2 2 2 2 1 1 0 1 1 1 1 3 1 0 1 2 2 2 2 2 0 2 1 2 0 1 2 2 0 2 1 1 2 3 1 1 1 2 2 1 1 1 1 0 3 1 1 0 2 0 2 0 1 0 1 1 2 1 1 1 2 1 0 1 2 1 1 3 0 0 1 2 0 3 0 2 0 1 4 1 1 1 1 2 0 0 1 2 1 2 3 0 1 0 1 1 0 2 2 3 3 3 1 1 2 1 1 1 3 4 0 2 0 1 2 0 1 2 1 2 1 1 1 0 3 1 2 1 0 0 1 2 1 1 1 2 1 1 0 1 0 1 1 1 0 1 1 1 1 1 2 0 0 1 2 1 1 1 0 2 1 2 1 1 1 0 1 0 1 1 2 2 1 1 1 0 1 0 1 0 1 2 1 0 2 3 0 1 1 0 1 1 0 1 1 1 1 3 1 0 1 1 1 0 2 0 1 3 1 1 3 1 1 0 1 1 0 1 0 2 1 0 1 2 2 0 0 0 1 2 1 1 1 1 1 2 0 1 1 1 0 1 0 0 1 3 2 0 2 0 1 0 1 2 2 0 1 2 2 1 1 4 1 0 0 1 2 2 0 1 0 2 0 0 3 1 0 1 2 3 2 0 0 1 0 1 1 0 1 1 1 1 2 0 0 2 0 1 1 1 0 2 1 2 1 2 1 1 1 1 0 2 0 1 0 1 2 2 1 1 3 1 1 2 1 0 1 0 0 3 1 1 2 1 1 0 3 1 1 2 1 1 3 2 2 1 1 1 0 0 2 1 0 0 2 1 1 0 3 1 0 1 0 0 1 2 1 0 0 0 1 3 3 1 1 1 2 1 3 1 1 3 2 1 4 1 2 0 2 1 0 1 1 1 1 1 2 1 2 0 1 1 1 2 1 3 0 2 1 0 2 1 1 2 2 1 2 1 1 0 1 0 2 1 2 2 1 0 2 3 2 1 0 1 3 2 3 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 2 3 1 0 2 0 1 1 2 0 1 2 3 0 1 0 2 0 3 0 0 2 2 3 1 0 0 3 1 2 2 1 2 1 1 0 2 0 1 1 2 2 1 0 1 1 1 1 1 1 0 0 0 1 1 1 0 0 1 1 3 2 0 0 0 1 2 2 2 2 1 0 1 1 2 0 1 2 0 1 2 2 2 2 2 0 1 1 2 2 0 0 1 1 0 3 0 1 1 1 0 0 1 1 2 1 1 0 0 1 3 0 1 0 3 3 1 1 1 2 1 0 3 0 1 0 0 2 1 2 2 1 0 1 0 0 1 1 1 0 2 1 3 1 2 0 1 1 1 1 2 0 0 1 0 1 0 1 1 1 2 0 0 1 1 1 0 2 1 1 2 0 3 0 0 1 2 3 0 1 2 2 0 1 0 1 3 0 1 1 0 1 3 1 1 0 1 2 0 2 1 1 1 0 0 0 0 1 2 0 1 1 2 2 0 1 1 0 0 0 0 1 1 0 1 1 0 0 3 2 0 3 0 0 0 1 2 1 2 2 0 1 1 0 1 0 0 3 3 2 1 1 0 2 1 3 1 0 1 1 2 1 0 1 2 2 1 1 2 0 1 0 0 2 1 0 0 1 0 1 2 0 1 1 0 2 1 2 0 0 0 2 1 0 1 2 3 2 3 1 1 0 2 0 0 0 0 1 0 2 3 1 1 3 1 1 1 1 2 2 0 2 1 3 3 1 1 1 1 1 1 0 1 1 1 1 0 1 1 4 2 2 2 0 0 1 0 1 1 1 1 2 1 3 1 2 1 3 1 2 2 1 1 1 1 1 1 2 0 1 0 0 0 0 1 0 1 1 3 2 0 1 1 0 0 2 1 1 1 2 1 3 1 0 0 1 2 1 1 2 1 1 2 2 2 1 0 0 2 1 2 3 0 4 1 0 0 0 0 2 0 0 0 2 1 2 3 0 1 0 1 1 2 0 0 0 1 2 0 1 0 2 1 0 1 1 0 1 1 1 3 2 1 0 2 1 1 2 1 0 3 1 0 3 0 0 1 2 1 1 0 2 3 2 1 0 0 3 1 1 2 1 0 1 0 2 1 0 3 0 2 0 0 2 1 2 0 1 3 1 0 1 1 1 0 2 1 3 1 2 2 0 2 3 2 1 1 1 1 3 3 1 1 1 1 1 2 3 1 0 1 1 1 2 2 0 1 2 1 2 1 1 0 1 0 3 1 0 1 0 2 1 0 1 1 1 1 1 1 2 1 0 1 1 2 3 1 0 1 1 3 1 2 0 2 1 1 1 0 1 2 0 0 1 1 1 1 0 1 0 1 2 0 2 1 2 1 0 1 1 2 1 0 4 3 0 0 1 2 0 2 1 1 0 1 4 0 2 0 2 1 1 1 2 2 2 1 2 1 0 3 0 2 1 1 2 1 1 1 1 2 1 0 1 1 1 0 2 1 0 1 0 1 1 0 1 1 1 0 2 0 2 0 1 1 2 1 0 0 0 3 2 0 2 1 0 0 1 2 1 2 1 1 2 2 3 2 1 1 1 1 2 0 3 1 1 4 0 0 1 1 2 3 2 1 0 0 0 1 0 3 3 2 2 0 1 0 0 2 1 1 0 2 2 0 3 4 1 2 1 1 0 0 1 1 1 2 1 0 1 2 1 2 3 2 0 1 2 1 0 1 0 1 0 0 2 1 1 1 1 2 1 0 1 2 0 2 2 0 1 2 2 2 1 2 0 3 0 1 3 0 0 0 3 3 2 1 3 1 1 1 1 0 1 0 1 2 2 2 1 2 0 1 2 2 0 1 3 1 1 1 1 0 1 1 0 1 0 2 1 0 1 1 1 1 0 2 1 3 3 0 4 1 1 1 1 0 2 1 2 0 2 0 0 0 0 1 1 1 2 4 2 1 0 1 1 2 0 0 0 1 2 1 2 0 0 1 1 1 1 3 0 1 1 0 0 1 1 1 1 1 0 1 1 2 1 0 1 0 1 2 0 1 1 2 1 1 2 1 2 3 0 0 1 1 0 1 1 2 0 0 2 0 1 1 1 1 1 2 1 1 4 2 1 2 1 3 0 0 1 0 1 1 2 0 1 1 3 0 3 1 1 0 1 0 4 0 2 0 0 1 2 2 1 1 0 2 1 2 1 1 2 1 1 0 2 2 3 2 1 1 2 2 2 2 1 0 0 1 2 3 1 3 2 1 0 0 1 1 0 0 1 1 2 0 2 2 0 1 2 0 4 0 2 3 0 1 2 1 0 0 1 1 1 0 2 0 1 1 1 1 0 2 1 0 1 1 1 2 0 1 2 1 1 2 1 2 1 0 2 3 0 0</t>
+  </si>
+  <si>
+    <t>GAM(0.1614504391459057, -1.4741755476159478e-29, 0.6981041560239056)</t>
+  </si>
+  <si>
+    <t>0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 2 0 0 2 1 0 1 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 1 2 0 1 2 0 1 1 0 0 0 1 0 1 0 0 0 0 2 0 2 1 0 0 0 0 0 1 0 2 1 1 0 0 1 1 0 0 1 1 0 2 0 0 2 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 3 0 3 1 2 0 1 0 0 0 2 1 0 2 1 1 0 0 0 0 0 1 1 3 1 0 0 1 0 1 0 0 1 2 0 0 0 0 1 1 0 1 2 1 2 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 2 0 0 0 2 1 0 1 0 1 0 0 2 2 0 1 0 2 0 0 3 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 4 2 0 1 0 1 2 0 0 0 1 2 1 0 1 1 0 0 0 1 3 1 2 1 0 0 2 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 1 2 0 1 1 2 2 3 2 0 0 1 1 1 0 0 0 2 0 1 1 0 0 1 0 2 1 1 0 0 0 1 2 0 0 2 0 0 3 0 1 0 0 0 1 0 0 1 1 1 1 1 0 2 1 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 3 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 4 2 2 0 0 1 0 0 1 0 5 0 1 1 0 0 0 2 2 0 0 1 1 1 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 2 1 1 0 1 1 3 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 2 0 0 0 0 1 0 1 1 0 0 1 2 0 1 0 1 0 0 2 0 2 0 0 0 2 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 1 1 0 1 1 0 1 0 0 1 2 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 2 0 2 0 0 1 1 0 1 1 1 1 1 2 0 0 1 0 0 1 1 0 0 0 0 0 3 1 0 0 0 0 3 2 1 1 0 2 2 1 1 0 2 1 2 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 2 1 0 0 1 1 0 0 1 1 0 1 1 0 2 0 0 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 1 3 0 0 1 0 0 0 0 1 1 1 0 1 0 0 2 0 0 1 1 0 2 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 2 3 0 2 0 0 1 0 0 3 0 0 0 1 0 1 1 0 0 0 0 2 1 2 0 2 0 1 0 0 0 0 0 0 1 0 1 0 2 0 1 0 0 0 1 0 0 1 2 1 0 0 0 1 0 1 0 0 0 0 2 1 0 2 1 0 0 1 0 0 2 0 2 1 1 0 0 0 0 0 0 1 1 1 1 1 1 3 1 1 0 1 1 1 1 0 1 0 0 0 2 0 1 1 0 0 0 2 0 0 0 0 2 1 1 1 1 0 2 1 1 1 0 0 0 0 0 1 2 1 0 0 2 0 2 1 2 2 0 1 2 1 0 2 0 0 1 0 1 1 0 0 1 1 2 1 3 2 0 1 0 2 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 1 0 2 1 0 1 0 0 1 1 0 0 1 2 0 1 2 0 0 0 1 0 1 3 0 0 1 1 1 1 0 0 0 0 1 0 0 0 2 1 1 1 0 1 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 1 0 0 2 0 2 1 1 1 1 2 0 0 0 1 1 0 0 0 2 2 1 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 1 2 0 0 0 1 0 0 2 0 1 1 2 0 2 0 2 0 1 0 0 1 1 0 0 2 1 0 1 0 0 1 0 2 0 0 2 0 0 0 0 1 0 0 2 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 2 1 0 1 0 0 0 1 1 1 0 0 1 0 3 2 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 2 1 0 1 1 0 1 1 1 0 0 0 1 1 2 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 3 0 2 1 0 1 0 0 0 0 1 0 0 2 0 1 0 2 1 0 1 0 1 0 2 1 0 0 2 1 0 1 0 1 1 0 0 1 0 0 2 1 2 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 4 0 1 1 0 2 0 0 0 0 0 0 0 0 3 3 0 0 0 0 2 0 0 1 0 1 1 0 2 0 1 1 1 0 0 1 0 0 0 1 0 2 1 1 1 0 0 1 0 2 1 0 0 1 0 0 0 1 0 1 1 0 1 2 0 0 2 0 1 1 0 1 0 0 0 2 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 1 2 0 0 1 2 2 0 2 1 0 1 2 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 3 0 2 0 0 1 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 0 1 0 0 0 1 1 1 0 2 0 1 2 1 0 0 3 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 2 2 1 0 0 0 1 2 2 0 0 1 3 0 1 0 1 0 0 0 1 1 0 2 0 0 1 1 0 2 1 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 1 1 0 0 2 0 1 1 0 1 0 2 0 1 1 3 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 1 0 2 1 0 0 0 1 1 1 0 0 1 1 0 0 0 2 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 2 1 0 0 1 1 0 1 2 0 0 1 0 1 2 1 1 1 0 2 0 0 0 3 0 0 0 2 0 3 0 1 1 0 0 0 0 1 0 0 2 1 0 2 1 2 1 2 1 2 1 0 0 0 0 1 1 0 1 0 0 2 2 0 0 2 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 2 2 1 0 0 0 0 0 0 2 1 0 1 0 0 1 0 0 0 1 0 0 1 2 0 3 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 3 0 1 1 1 0 0 1 0 0 1 1 1 0 2 0 0 1 1 1 0 4 0 2 2 0 0 0 1 1 1 0 0 0 0 2 2 0 0 0 2 1 0 1 0 0 1 1 2 3 2 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 2 0 0 1 0 0 1 1 0 2 1 0 0 1 3 0 0 0 1 1 0 1 0 0 2 2 2 0 0 0 1 0 0 1 1 1 1 1 0 1 1 2 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 2 1 1 0 0 0 2 0 0 1 0 0 0 0 0 2 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 3 0 0 0 0 2 0 1 0 1 0 0 1 1 0 2 1 4 0 0 1 1 1 2 0 3 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 3 0 0 0 2 1 0 0 1 0 1 0 1 1 1 0 0 1 3 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 2 2 0 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 1 2 3 1 0 0 1 0 0 0 0 1 0 1 3 1 0 1 3 1 0 0 2 0 1 2 1 0 0 3 0 0 1 1 0 1 1 0 2 0 1 1 0 1 0 2 0 1 0 1 0 0 1 0 0 2 0 2 1 1 0 1 0 2 0 1 0 1 1 1 1 0 0 0 1 0 0 1 3 0 0 1 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 1 0 3 0 1 1 1 0 2 1 0 0 0 0 0 0 1 0 1 0 5 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 1 1 0 1 2 2 1 0 0 2 0 1 0 2 0 0 0 1 1 2 1 0 0 2 0 1 0 1 0 0 1 1 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 1 2 0 0 3 1 0 0 0 0 0 0 1 0 3 0 0 0 0 0 1 2 1 4 1 0 1 0 0 0 1 0 1 0 1 1 1 0 0 0 2 1 1 1 0 0 0 1 1 0 1 2 3 0 2 1 2 0 2 1 0 0 1 1 0 1 0 0 1 1 1 0 3 1 0 0 2 1 2 0 1 0 0 1 0 0 0 0 0 0 1 3 1 1 0 1 2 0 1 1 0 1 1 0 2 1 0 0 3 0 0 2 0 0 0 0 0 1 0 2 1 0 1 1 0 0 1 1 3 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 2 0 1 0 0 1 1 2 1 0 2 0 0 0 0 0 0 1 0 2 1 1 2 1 1 1 1 0 2 0 0 1 1 0 0 0 2 2 0 0 1 1 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 0 1 2 1 0 1 0 0 0 0 1 1 3 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 3 0 1 3 0 0 0 1 0 0 0 0 1 0 3 0 1 1 0 0 0 0 0 0 0 0 3 1 2 1 1 1 1 1 1 0 1 1 1 1 0 1 2 1 1 1 0 1 0 0 2 0 0 0 1 0 0 0 3 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 1 1 0 0 0 1 1 2 1 1 1 1 0 1 1 1 0 2 0 1 1 1 2 0 0 2 1 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 1 1 0 0 1 1 0 1 1 2 0 0 0 2 1 0 2 0 2 1 1 0 0 1 2 0 0 0 1 0 0 0 2 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 1 1 2 0 0 1 1 0 0 0 1 0 1 1 2 0 1 0 1 0 0 0 0 1 1 0 2 2 1 2 0 1 0 2 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 2 2 0 0 1 0 1 0 2 2 3 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 2 0 0 1 1 1 2 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 2 2 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 1 0 0 0 0 3 0 1 0 0 1 0 0 1 1 0 0 0 2 1 0 1 2 0 0 1 2 3 0 1 0 1 2 1 2 1 0 0 0 0 0 0 1 1 1 0 0 2 2 2 1 0 2 0 1 1 0 0 0 1 1 2 2 0 0 1 0 5 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1 0 4 0 1 1 1 0 0 0 0 1 0 2 0 0 2 0 1 1 0 0 1 2 0 1 1 2 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 2 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 2 1 0 1 1 0 0 0 0 0 2 1 1 1 0 1 0 0 0 0 0 2 1 3 0 0 0 1 1 2 0 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 2 0 2 0 2 0 1 0 1 2 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 2 0 0 2 0 2 1 1 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 2 1 2 0 0 1 0 0 0 0 0 0 2 1 0 1 2 0 0 1 1 0 0 0 1 3 2 2 0 0 0 1 1 1 1 1 0 1 0 0 1 3 0 2 1 1 0 0 2 0 1 0 0 2 1 1 0 0 1 2 0 0 1 0 1 0 0 0 0 2 0 0 2 2 2 1 0 0 0 0 0 2 0 1 0 1 2 0 1 0 2 1 1 0 0 0 0 1 1 0 1 2 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 1 2 0 1 1 0 0 0 0 0 0 0 0 3 0 0 2 2 0 1 0 0 0 0 1 0 0 0 0 3 1 1 2 0 1 1 0 0 0 0 1 3 0 1 1 2 0 1 0 2 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 2 0 2 1 0 0 0 1 0 1 0 0 0 0 1 0 2 1 0 1 0 2 0 0 1 0 2 1 0 0 0 1 0 1 0 0 2 0 2 0 1 0 1 2 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 2 1 0 0 0 1 0 0 0 1 1 1 1 2 0 2 1 0 3 0 2 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 2 0 1 1 1 1 0 1 1 3 2 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 2 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 2 0 0 0 1 0 0 2 0 1 0 2 0 0 1 0 1 0 0 0 2 1 2 0 0 0 0 0 0 0 1 0 1 2 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 2 1 0 1 0 0 1 1 2 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 2 0 1 0 1 1 1 2 0 0 0 2 0 0 0 0 0 2 0 0 0 1 0 1 1 1 1 0 1 1 1 0 2 1 2 3 1 1 0 0 1 1 0 0 1 0 1 1 0 0 0 1 2 0 1 0 1 0 0 1 0 0 1 0 0 2 1 0 0 0 1 0 1 0 0 1 1 2 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 1 0 0 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 2 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 2 1 1 1 2 1 0 2 0 0 0 0 1 0 0 1 0 0 1 2 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 2 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 2 1 0 1 0 0 3 0 1 2 1 2 0 0 1 0 1 0 0 0 0 2 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 1 0 1 1 0 1 0 1 2 1 1 0 1 0 0 2 0 2 1 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 3 0 1 0 2 1 2 1 1 0 0 1 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 1 1 3 1 1 1 3 0 0 1 1 0 0 0 0 0 0 2 1 0 0 2 1 0 1 1 1 0 0 0 1 0 2 0 0 0 1 1 0 0 0 0 1 1 0 2 0 0 1 2 1 0 1 0 0 0 0 0 0 3 0 3 1 0 0 1 1 0 2 0 0 0 0 1 1 2 1 0 0 1 2 0 0 1 0 0 1 2 0 0 0 1 1 2 2 0 0 1 0 0 2 0 0 0 1 1 1 1 0 0 0 0 1 1 1 2 0 2 0 2 1 0 0 2 1 0 2 1 0 0 1 0 2 0 0 2 1 1 0 0 0 1 0 1 0 0 3 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 3 3 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0 1 1 2 0 2 0 0 3 0 0 0 0 0 0 0 2 0 0 1 1 3 1 0 0 0 1 0 0 1 1 0 0 1 1 0 1 1 1 0 2 0 1 0 0 1 0 1 0 0 1 0 0 3 0 1 0 1 0 1 1 0 0 0 1 1 2 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 2 0 2 0 1 2 0 2 1 1 1 0 1 1 1 1 0 1 3 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 2 0 1 1 2 0 0 1 0 1 0 0 0 0 2 0 0 1 1 1 2 1 0 2 1 2 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 2 1 0 2 1 0 1 0 2 0 0 0 0 2 1 1 2 0 4 1 1 1 0 1 0 1 1 1 1 0 1 2 0 0 1 0 0 1 0 1 0 0 3 2 0 1 1 1 0 1 2 0 1 1 0 0 0 1 0 0 0 1 0 2 1 0 1 1 2 1 1 2 3 0 1 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 2 2 1 2 0 0 0 1 0 0 2 2 2 0 1 0 0 0 0 0 0 2 0 1 1 0 0 1 2 0 1 1 0 2 0 0 0 0 1 0 0 1 1 2 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 2 1 0 2 2 1 0 0 0 1 0 2 0 2 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 3 0 1 1 2 1 0 0 0 0 1 2 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 4 0 0 0 0 1 3 0 0 0 1 0 0 0 3 0 0 2 1 0 0 0 0 0 1 1 0 1 2 1 1 0 0 0 1 2 0 2 0 1 1 0 1 1 2 0 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 0 1 1 1 2 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 2 1 0 0 0 0 0 1 0 1 2 0 1 0 0 1 0 0 0 2 2 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 2 0 0 0 1 2 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 2 1 2 0 0 3 0 0 2 0 1 1 0 1 2 0 0 0 0 0 0 2 1 0 0 3 0 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 0 0 2 0 1 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 2 1 0 1 1 1 0 0 0 0 0 2 2 0 1 0 0 0 0 1 2 0 0 1 1 1 2 0 1 0 0 0 0 3 0 0 0 0 0 2 1 2 1 1 0 0 2 1 1 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 2 1 0 2 1 2 1 0 1 0 0 1 0 0 0 0 2 1 0 1 0 0 0 1 1 1 1 0 1 2 1 2 1 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 2 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 2 0 1 0 1 0 0 1 0 1 0 0 0 2 0 3 0 0 0 0 0 1 0 3 0 0 2 1 1 1 0 1 0 1 1 0 2 0 0 1 1 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 0 0 0 0 1 0 2 1 0 0 1 1 2 1 3 0 4 0 2 0 0 1 0 0 0 1 0 0 0 0 1 0 2 1 0 1 2 1 0 4 0 0 1 2 1 0 0 1 1 0 1 0 0 0 0 0 2 1 1 1 0 0 1 1 1 1 1 0 0 0 2 0 0 0 1 2 0 1 1 0 1 1 0 0 0 1 1 1 0 0 0 3 0 0 0 0 1 1 2 0 0 0 2 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 2 0 0 1 0 0 0 3 0 0 2 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 3 2 0 0 2 0 0 0 1 0 0 0 3 0 1 0 2 0 2 3 0 0 0 0 0 0 0 1 0 3 0 1 0 2 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 2 1 0 2 1 0 1 0 0 4 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 2 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 2 1 0 3 2 1 0 2 1 1 1 0 3 1 2 0 0 1 0 0 1 1 0 0 2 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 2 2 2 0 0 1 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 2 0 1 1 1 1 0 1 0 0 0 1 2 0 1 2 2 1 0 1 0 1 2 0 1 2 1 0 0 0 0 0 1 0 1 1 2 2 0 3 1 0 0 2 1 2 0 0 4 0 0 1 2 1 0 1 0 0 1 1 1 1 0 0 1 2 0 3 0 1 0 1 0 1 1 0 1 0 0 1 0 2 0 2 1 1 1 1 2 0 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1 0 0 0 0 1 2 1 0 2 1 0 0 2 2 0 2 0 0 1 1 0 0 1 1 0 0 0 2 0 2 1 0 0 1 1 1 1 0 1 0 0 2 0 1 3 1 3 0 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 2 0 1 1 0 0 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 1 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 1 1 0 0 1 3 2 0 0 2 2 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 1 0 0 2 1 0 1 1 0 0 0 1 1 0 1 1 1 1 0 1 4 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 1 1 1 0 0 1 0 0 0 0 1 1 2 1 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 2 2 2 3 0 0 0 2 2 0 1 0 1 2 2 1 1 3 1 0 4 1 0 0 1 0 1 0 0 2 0 2 1 0 0 2 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 2 1 0 0 1 0 0 1 2 1 0 0 0 1 0 0 2 1 1 0 0 0 1 0 2 1 0 0 1 0 0 1 0 1 1 0 2 1 2 0 0 2 0 0 1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 2 0 1 1 1 0 0 0 0 1 0 3 1 0 0 0 1 0 0 2 0 0 0 2 2 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 2 0 1 0 0 0 1 0 0 1 1 0 2 0 3 0 0 1 0 1 0 0 2 0 0 2 1 1 0 1 0 0 0 0 0 2 0 0 0 1 1 0 1 0 0 0 2 1 1 0 0 0 0 3 1 3 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 2 0 3 0 0 1 0 0 0 3 1 0 1 3 2 0 0 1 2 1 0 1 0 0 2 1 2 1 0 0 2 2 0 1 1 1 0 0 1 0 0 2 0 0 1 0 0 1 1 0 0 1 0 0 1 1 1 1 2 0 0 2 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 2 0 0 0 1 1 2 1 0 0 1 0 1 0 0 2 1 0 3 1 0 2 1 0 0 1 0 1 1 0 1 2 0 0 0 0 2 1 2 0 0 0 2 0 0 2 0 0 0 1 2 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 2 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 2 0 3 0 1 0 1 0 0 4 0 1 1 2 0 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 1 2 1 0 1 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 2 2 1 1 2 1 1 0 0 1 1 0 0 0 0 0 1 0 2 0 1 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 1 0 2 1 0 1 0 0 0 0 0 2 1 0 3 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 1 0 0 1 0 2 0 2 1 1 0 1 0 0 1 0 1 1 3 0 1 2 0 2 2 1 2 0 0 0 0 1 1 0 2 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 4 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 3 0 2 1 0 0 1 0 2 0 0 1 0 2 0 0 0 3 2 0 3 1 0 0 1 0 0 0 1 1 1 0 0 1 1 2 2 1 0 0 1 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 2 0 1 1 0 0 2 0 0 2 1 1 1 0 0 1 0 0 1 2 1 1 1 1 2 0 2 3 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 1 0 0 1 1 2 0 0 1 0 1 1 2 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 0 3 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 1 2 0 1 3 0 0 0 1 1 0 0 0 1 0 0 2 0 1 0 1 0 0 0 0 0 1 2 0 1 2 0 1 2 0 2 1 0 0 0 0 0 0 2 1 0 2 1 1 0 0 0 0 1 1 0 0 3 0 0 2 3 1 0 0 1 0 0 1 1 2 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 2 1 0 1 2 1 0 0 0 0 2 0 0 0 0 3 2 0 2 0 0 2 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 2 1 1 1 0 0 1 0 2 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 1 1 1 1 2 2 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 3 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 1 1 2 0 1 1 0 1 0 0 2 1 0 0 1 1 1 0 1 2 0 0 0 2 0 0 0 0 2 0 2 0 0 0 1 0 0 0 1 0 0 0 1 0 2 1 1 1 2 0 2 0 0 0 1 1 0 2 0 0 0 0 0 1 1 0 1 1 1 0 1 0 0 0 1 1 3 1 0 0 0 1 0 2 0 0 1 1 1 1 0 1 1 0 0 1 0 0 0 2 0 0 2 0 1 1 0 2 3 1 1 0 0 0 0 2 0 0 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 2 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 1 2 1 0 0 0 0 0 1 1 1 2 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 2 1 0 0 0 0 0 0 1 1 0 1 1 2 0 1 1 0 2 2 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 2 2 1 0 0 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 1 1 0 1 2 0 0 0 0 0 2 0 0 1 0 2 0 0 2 0 0 1 0 0 1 1 0 0 0 0 2 1 1 0 1 1 1 1 0 0 1 1 1 2 0 1 1 0 1 0 0 1 0 0 0 2 1 0 0 0 0 3 1 2 2 1 1 1 1 0 0 0 0 0 1 0 1 1 0 2 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 1 2 1 0 1 1 0 3 0 1 0 0 0 2 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 2 1 1 2 0 1 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 1 1 0 0 1 1 0 3 0 2 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 2 0 2 1 0 0 1 0 0 1 1 0 0 2 1 0 0 1 2 0 0 0 1 1 1 2 0 0 0 0 1 1 1 2 2 1 1 2 0 0 0 1 0 3 2 1 1 0 3 0 2 0 0 0 0 1 2 0 0 0 1 0 0 2 2 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 3 0 0 0 0 1 0 1 2 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 2 4 2 1 2 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 0 1 1 1 1 0 2 1 1 0 0 0 1 1 1 0 0 0 0 1 2 0 2 1 1 0 0 1 1 5 0 1 1 1 0 0 1 1 1 0 4 0 0 0 2 0 1 0 0 1 0 3 0 0 2 0 0 1 0 0 1 1 0 1 0 0 1 2 0 1 0 0 0 0 1 1 2 0 0 2 0 1 0 0 0 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 3 0 0 0 2 0 1 0 0 0 2 0 0 1 0 0 0 0 2 0 0 0 0 1 0 2 1 0 0 0 0 1 1 1 2 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 2 0 1 0 1 1 0 2 0 0 1 1 1 0 0 0 0 0 0 1 2 0 1 0 0 1 0 3 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 1 1 2 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 2 0 3 2 0 0 1 0 0 3 0 0 0 0 1 1 0 0 0 0 0 0 2 1 0 1 0 0 1 1 1 1 1 1 2 3 0 1 0 0 1 2 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 0 1 3 0 0 0 0 0 0 1 0 1 2 1 0 0 0 1 1 1 0 1 1 3 1 1 2 1 0 1 0 0 0 0 0 2 0 0 2 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 2 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 3 1 0 0 0 1 1 1 0 1 1 0 0 1 2 0 1 1 0 2 0 1 0 1 0 2 0 1 3 0 1 4 2 2 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 2 0 0 0 1 1 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 2 0 0 2 1 2 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 2 0 0 0 0 0 1 1 1 0 0 0 3 0 1 0 1 0 1 0 0 0 1 0 2 0 0 0 1 2 0 0 1 0 0 2 1 1 0 0 0 0 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 2 1 2 1 1 1 0 0 0 2 0 3 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 4 0 0 1 0 1 2 0 0 0 0 0 1 0 0 2 1 2 0 0 0 0 0 0 1 0 1 0 1 1 0 0 2 1 0 0 1 2 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 3 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 2 3 0 0 0 1 1 0 1 0 1 1 1 0 0 2 0 1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 2 0 1 1 0 2 3 1 0 1 2 1 0 1 1 0 0 2 0 3 0 0 0 0 1 0 0 0 2 1 0 1 1 1 1 0 0 0 1 2 0 0 0 0 2 0 2 1 0 1 1 1 0 0 0 0 0 3 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 3 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 2 0 0 0 4 0 0 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 1 1 0 1 0 0 2 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 2 1 1 1 1 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 2 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 2 1 1 3 0 1 1 0 0 2 0 1 1 0 0 0 1 1 1 1 0 2 1 0 1 1 0 1 0 0 2 0 1 0 1 0 1 0 2 1 2 2 1 0 1 0 0 0 0 1 2 1 2 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 1 2 1 0 0 0 0 0 1 0 1 2 0 0 2 0 0 0 0 0 0 1 2 2 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 4 0 0 0 0 3 0 0 0 0 1 0 2 1 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 2 0 0 2 1 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 2 0 1 0 2 1 1 1 0 1 2 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 2 0 0 0 1 0 1 1 0 0 2 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0 0 1 1 2 0 0 0 0 1 0 0 1 0 2 0 0 2 2 0 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 2 2 1 0 0 0 0 2 2 0 1 3 0 0 2 2 1 1 1 1 0 1 1 0 2 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 2 0 0 1 2 0 0 1 1 0 1 0 0 0 1 0 1 2 1 1 2 0 1 0 0 1 0 3 1 0 0 2 0 0 1 0 2 2 1 0 1 0 1 1 1 0 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 2 1 0 0 0 0 0 2 2 2 1 0 2 0 1 1 0 1 0 0 0 1 1 1 0 2 1 1 2 0 0 0 1 0 0 1 0 0 2 0 1 1 0 0 2 0 1 0 0 0 2 2 0 2 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 2 1 0 0 1 0 0 0 0 1 0 0 1 1 1 2 0 2 2 1 0 3 0 0 0 3 0 1 1 0 0 2 0 0 0 2 0 0 2 2 0 0 1 2 0 1 0 2 0 2 0 0 2 0 0 0 1 1 3 0 0 2 0 0 0 1 0 1 2 0 1 0 1 0 0 0 2 0 1 0 0 0 0 0 0 1 1 0 3 0 0 0 2 0 1 2 0 0 1 0 0 0 0 0 1 0 1 0 1 2 2 1 0 1 2 0 0 0 0 0 3 0 0 0 1 1 1 1 1 0 1 0 0 1 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 3 0 2 1 1 0 0 1 0 0 1 0 1 1 3 1 0 3 1 0 0 0 2 0 1 0 0 1 1 0 1 0 1 1 1 1 2 0 0 3 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 2 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 0 2 1 0 1 1 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 1 0 1 1 1 1 1 0 0 0 3 1 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 2 2 1 1 2 1 0 0 0 0 1 0 1 2 2 1 1 0 0 1 0 1 3 1 2 0 0 1 0 0 1 0 0 0 2 0 1 1 0 1 1 0 0 1 2 0 0 1 0 0 0 2 0 1 0 0 0 0 2 1 1 0 1 1 0 0 0 0 2 1 2 0 2 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 2 2 1 0 1 0 0 2 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 3 0 0 0 1 0 0 1 0 1 1 1 0 1 1 1 2 1 0 1 1 0 0 2 1 4 1 0 0 1 0 1 0 1 1 1 0 0 1 1 0 4 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1 1 0 0 4 1 0 2 0 0 2 0 0 0 1 1 0 1 3 0 1 1 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 2 1 1 0 1 0 1 0 1 0 3 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 2 0 0 0 0 2 0 1 1 1 1 0 0 0 1 0 0 1 2 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 1 2 0 1 0 0 0 0 1 1 0 0 1 1 1 0 0 3 0 1 0 0 0 0 1 0 0 0 2 0 1 0 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 1 1 0 0 1 2 1 0 0 1 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 3 1 0 1 2 1 1 1 1 2 0 0 1 0 1 0 0 1 0 1 0 1 0 2 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 3 0 0 0 1 0 2 0 0 0 0 0 1 1 0 1 0 0 2 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 1 2 3 2 0 0 1 0 0 1 0 0 0 1</t>
+  </si>
+  <si>
+    <t>JSB(2.2469031687937813, 2.839078251201827, -63.94763378648989, 529.8176010908751)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114 160 147 60 38 84 127 40 121 119 92 83 155 115 165 104 21 195 93 126 100 85 132 67 89 90 91 178 42 63 76 172 104 159 130 117 108 54 113 145 72 130 150 192 57 121 101 119 125 163 96 97 199 60 80 157 82 111 110 95 87 99 108 62 140 104 92 56 105 56 59 98 74 82 18 126 124 91 118 118 47 102 79 102 75 138 67 176 132 92 199 103 100 85 109 73 74 9 178 57 57 120 71 132 127 107 108 91 76 121 118 69 51 53 116 125 72 33 153 186 102 104 141 106 68 66 59 45 166 104 208 46 119 114 136 98 159 157 132 85 78 75 74 68 70 95 70 127 101 98 92 69 76 66 85 153 103 78 161 165 101 77 107 70 99 22 81 49 47 100 169 125 79 71 202 64 87 129 84 128 101 62 131 164 57 53 48 129 112 55 114 115 50 127 96 142 145 46 61 99 86 126 55 86 40 147 115 70 105 144 117 195 59 113 75 109 123 156 115 70 111 60 102 111 105 15 122 115 132 89 101 47 96 98 42 118 148 134 87 100 130 120 103 72 123 92 80 129 116 54 152 91 145 156 100 78 66 66 117 86 127 142 123 46 125 56 93 68 108 105 105 65 88 146 126 96 108 85 161 133 137 92 140 119 55 157 168 59 119 126 87 125 56 77 136 160 172 110 154 97 91 106 64 105 203 98 83 99 198 10 132 118 104 124 40 154 70 102 123 165 91 91 56 15 32 101 102 80 72 56 144 152 60 126 64 44 132 278 104 125 174 126 68 114 96 150 150 94 129 12 56 169 69 108 52 74 64 122 109 83 151 150 63 93 128 103 118 114 67 167 111 144 76 65 74 132 77 181 51 127 184 142 191 82 80 69 77 82 197 90 75 35 114 87 101 110 86 164 136 80 141 52 149 149 123 61 70 106 98 100 111 129 67 132 107 74 84 72 92 63 120 137 110 62 107 67 53 118 115 151 93 90 156 95 70 62 87 19 114 98 119 133 82 97 86 78 136 57 68 109 45 116 191 166 77 115 60 54 26 120 84 107 113 123 146 92 73 56 66 116 99 132 78 141 73 94 42 114 33 58 69 157 96 41 116 80 172 145 101 78 63 188 67 97 107 125 121 100 99 135 101 123 86 63 143 105 38 134 42 142 192 145 58 144 134 97 53 148 34 129 106 93 139 73 105 71 142 68 192 41 134 111 39 149 109 108 88 84 155 135 93 67 99 204 88 129 56 152 102 154 130 128 50 69 98 164 98 32 100 87 190 38 153 132 122 124 94 55 107 151 89 70 95 115 83 108 103 70 132 81 118 91 147 103 243 113 62 73 141 122 81 133 63 170 114 41 120 178 58 86 105 82 95 133 78 80 57 96 81 181 108 121 188 52 147 17 130 111 158 144 57 155 112 90 94 121 46 116 119 165 123 48 74 92 59 149 199 106 105 72 80 185 115 113 142 168 86 87 117 47 78 114 62 80 108 160 97 97 165 176 95 110 145 55 91 59 128 51 113 137 44 89 84 80 83 61 75 97 108 81 73 91 83 126 135 155 146 106 43 158 67 117 124 96 100 78 35 61 159 168 98 87 48 98 81 163 46 42 96 110 122 109 174 145 153 106 121 120 130 62 88 134 133 70 177 90 146 153 131 113 151 91 134 131 157 22 124 106 73 90 186 90 103 142 118 130 183 111 72 139 72 102 131 117 87 142 78 110 198 73 78 47 139 71 122 76 218 83 102 153 97 114 116 145 236 72 91 45 56 103 76 127 97 78 133 127 114 125 106 90 104 111 68 50 32 41 42 65 51 88 64 118 115 55 66 38 101 47 64 79 119 81 150 57 83 79 132 122 71 159 189 102 166 159 112 69 145 98 75 83 90 81 64 123 160 120 85 43 120 116 120 54 92 101 91 67 123 91 100 55 150 98 113 80 94 100 100 49 88 147 119 60 108 120 218 142 98 94 37 92 43 74 44 114 80 82 115 112 130 71 72 87 107 114 173 66 105 81 155 153 63 91 143 123 129 137 153 98 109 98 89 111 180 132 147 114 87 71 54 132 105 26 69 82 91 156 106 81 106 81 91 134 88 47 155 64 126 126 35 139 85 98 54 199 105 101 38 133 72 94 120 78 112 16 68 38 50 103 130 122 153 50 50 105 131 118 57 127 125 70 102 174 51 135 60 123 81 127 114 99 82 121 81 63 81 83 98 130 158 72 186 143 176 62 66 100 81 154 143 137 157 74 87 96 125 67 66 56 183 72 92 131 75 111 64 99 69 83 144 56 162 107 151 143 108 123 35 77 119 90 99 106 110 39 151 77 61 65 123 130 196 170 56 117 110 85 147 123 78 147 134 129 92 98 83 103 109 34 245 128 255 45 94 212 88 111 94 216 68 52 82 86 49 171 105 90 132 63 73 79 64 122 79 104 101 140 121 149 85 109 101 92 115 44 216 84 89 122 87 133 122 121 148 102 68 165 113 121 110 79 107 82 101 63 55 81 111 83 46 123 61 153 116 98 139 164 174 94 114 130 174 83 55 87 174 78 108 156 34 147 96 70 56 92 170 116 125 123 31 128 207 91 72 151 106 107 46 106 117 156 108 225 80 93 172 110 113 87 84 47 89 131 121 116 129 135 105 89 96 128 118 162 41 96 66 123 34 121 77 129 149 78 165 51 149 181 200 104 98 116 89 151 182 139 42 143 177 143 89 91 57 164 89 119 88 101 77 91 100 56 103 44 141 180 21 175 86 97 110 72 142 175 129 73 80 115 105 195 118 132 92 121 84 99 110 85 187 109 91 58 176 42 80 45 69 25 101 180 103 92 103 30 31 119 152 154 180 159 106 129 145 59 109 43 68 71 118 125 147 71 161 129 144 157 35 46 106 161 99 191 74 101 141 123 69 90 100 124 61 127 123 69 125 98 55 75 119 147 44 121 105 152 38 97 160 130 90 117 131 80 123 152 119 143 81 93 90 75 122 47 98 163 168 70 133 145 152 27 116 100 80 62 68 140 112 150 101 53 119 128 98 78 116 60 88 156 66 79 104 95 66 107 188 140 71 55 34 85 131 40 87 111 117 94 75 72 178 90 63 52 66 111 178 108 90 77 159 96 100 66 91 65 135 127 134 123 118 112 88 93 53 126 139 89 55 105 85 108 216 82 147 102 98 104 86 177 117 75 54 71 55 116 177 73 69 70 134 146 75 115 82 116 106 245 167 136 110 81 88 128 134 6 157 121 139 79 137 115 152 124 77 71 102 153 63 188 132 32 116 105 214 130 139 175 131 82 140 194 93 114 81 131 130 180 149 104 192 60 74 140 59 172 119 95 72 105 115 143 90 45 50 59 155 56 146 125 72 131 52 73 67 70 117 100 85 50 161 46 126 115 59 84 58 99 112 106 119 106 139 53 85 94 103 98 81 96 130 112 52 52 201 84 172 47 28 75 89 116 76 186 153 80 146 73 130 148 159 137 107 69 32 132 38 101 120 66 99 140 79 43 122 79 196 100 78 101 158 112 73 141 35 88 80 170 153 118 142 85 105 136 132 172 133 90 127 112 91 106 140 80 57 79 117 138 122 95 108 138 85 147 133 130 65 150 107 68 111 61 83 150 146 108 120 120 60 79 176 82 94 73 87 101 59 76 139 108 57 150 54 97 112 85 112 87 137 191 80 147 72 143 58 157 121 67 40 76 141 140 107 93 102 80 81 114 145 81 93 78 113 132 130 26 30 123 117 47 71 56 71 134 108 104 135 125 75 99 120 123 104 60 103 122 138 194 139 164 91 183 54 179 51 63 137 64 66 161 139 47 121 35 100 63 130 83 75 87 152 40 22 75 124 69 167 59 116 44 154 121 114 206 79 150 170 58 121 172 83 103 106 117 100 54 51 69 135 106 42 170 76 115 41 75 84 167 104 125 134 146 168 188 60 152 126 135 68 153 180 103 99 109 184 127 66 145 127 109 128 59 117 141 96 76 139 86 112 126 43 82 97 67 72 126 131 94 136 134 158 129 68 117 18 86 102 85 106 94 186 72 81 82 198 86 87 115 103 162 119 95 77 152 27 37 105 126 117 46 121 130 70 94 66 46 169 52 70 99 81 53 97 150 59 141 193 185 143 170 86 25 113 175 151 135 134 112 89 110 102 121 134 122 90 154 140 76 67 116 66 74 132 41 82 124 67 108 56 98 110 155 54 97 19 60 87 108 85 216 130 41 135 54 33 58 102 60 115 84 88 62 129 159 127 72 148 39 109 97 105 100 70 68 107 110 193 155 74 136 212 103 135 110 100 48 97 123 192 69 108 68 111 117 101 85 23 67 159 103 119 161 171 68 140 65 148 105 127 34 116 116 187 116 119 51 81 76 104 96 29 188 86 96 40 77 86 149 80 180 179 129 69 48 82 147 63 147 128 47 214 113 72 136 73 95 130 61 116 126 120 154 185 113 75 47 114 113 106 137 126 64 110 99 127 124 94 76 95 78 98 124 110 120 143 98 148 88 96 95 131 146 51 64 64 120 40 160 139 106 111 68 132 73 183 138 110 143 143 150 80 145 110 75 166 139 153 62 75 115 188 123 114 132 166 133 87 152 98 192 81 161 100 93 104 121 120 117 74 42 51 92 75 77 90 163 158 42 96 91 124 40 73 82 175 117 74 37 115 86 78 112 130 112 31 82 26 107 21 123 103 67 97 69 119 145 107 87 75 74 63 97 60 110 153 123 107 49 74 81 157 116 52 155 143 56 50 96 115 111 89 65 93 113 189 102 122 125 105 134 154 54 60 90 78 132 118 101 117 198 103 137 111 92 98 119 131 134 160 61 76 23 149 114 81 43 68 60 112 140 78 58 9 57 91 188 87 58 99 123 33 157 188 68 108 97 111 124 66 135 91 78 139 80 87 96 156 132 131 120 31 69 137 66 63 119 61 93 191 74 80 74 74 91 116 102 198 130 148 65 178 93 98 125 93 79 190 46 86 38 149 47 75 115 73 73 97 70 66 129 94 64 61 33 88 144 139 132 158 156 130 122 96 149 64 113 91 106 74 79 97 106 28 72 79 88 130 83 105 106 125 92 126 128 66 113 54 112 180 52 81 155 114 180 59 107 119 73 74 165 138 74 113 101 137 71 101 127 83 157 97 76 78 123 77 115 84 156 150 82 130 32 149 152 78 97 116 153 62 112 114 112 98 103 97 140 131 100 105 170 96 119 111 101 46 105 112 113 46 112 54 177 81 95 81 135 98 181 87 135 99 126 90 74 109 133 125 178 66 72 112 90 155 104 135 50 53 173 159 155 18 97 71 131 93 39 97 151 122 123 179 126 128 67 66 162 40 69 136 124 65 80 81 56 58 105 85 73 62 186 36 102 58 131 108 38 23 17 86 50 102 73 130 64 63 50 60 20 107 74 64 138 89 91 82 139 103 189 133 220 73 75 74 65 88 103 57 47 140 142 103 130 110 113 88 147 100 133 121 98 80 95 75 68 124 163 157 86 35 85 155 96 84 85 65 128 128 111 133 129 41 136 103 135 122 124 62 120 126 106 68 111 135 53 32 78 108 139 51 145 162 119 59 45 99 87 33 24 75 54 81 103 168 42 46 113 184 144 127 66 128 143 121 69 65 114 154 124 69 46 195 90 155 86 107 173 51 79 133 52 176 91 95 86 90 146 135 11 57 127 115 87 13 105 99 104 100 55 180 61 139 105 186 131 119 138 107 92 182 167 139 183 161 39 178 100 123 81 71 111 108 129 183 131 129 65 102 68 80 85 160 102 145 113 157 87 193 100 80 101 88 66 75 120 106 99 111 140 121 147 125 120 79 47 60 139 162 155 80 95 120 82 180 89 92 131 59 96 117 124 63 201 117 109 111 174 147 96 75 129 123 138 159 90 146 91 134 75 71 64 69 68 88 128 130 170 85 30 118 39 139 93 136 72 38 124 112 164 73 70 124 27 32 94 126 74 129 151 104 102 143 68 82 170 109 123 141 111 66 75 85 96 29 60 129 140 75 114 74 92 84 115 72 130 66 106 30 55 84 175 200 130 196 92 75 84 115 117 43 50 52 77 123 143 118 115 69 73 118 142 92 50 120 83 78 95 59 119 92 140 88 53 126 39 169 181 126 95 109 82 137 122 121 58 92 128 45 80 40 119 123 62 78 69 140 38 96 164 180 69 125 99 165 64 66 68 92 118 107 124 126 84 83 132 158 162 126 124 100 142 98 84 136 81 146 196 75 84 87 104 121 15 150 72 130 150 174 45 118 79 68 71 74 84 212 98 104 60 105 47 87 67 118 133 30 57 141 44 74 86 130 189 67 91 80 93 94 63 112 130 81 98 103 78 88 83 94 110 66 54 80 48 137 65 149 158 203 99 106 179 78 39 102 137 70 144 74 79 154 116 110 101 122 177 99 74 127 63 89 77 53 83 121 103 79 113 113 124 80 133 91 119 147 102 57 139 110 80 129 131 110 92 143 137 132 92 153 55 94 89 98 97 144 66 132 140 72 91 116 115 49 93 120 84 125 146 58 112 154 109 62 115 103 121 110 133 76 98 36 93 64 118 145 141 70 77 50 54 71 40 62 182 169 42 87 63 119 150 80 76 91 106 98 141 150 57 156 90 96 59 96 61 85 128 85 95 110 220 162 163 134 81 20 141 188 69 82 79 135 46 104 93 115 47 132 129 99 39 69 164 169 87 60 114 89 185 45 112 82 85 112 98 117 201 89 148 117 62 118 94 81 111 40 88 118 72 120 166 75 109 160 94 99 127 122 155 179 114 122 134 144 109 93 108 43 84 139 124 122 103 91 72 105 94 130 134 61 75 86 135 138 123 122 115 155 140 162 100 134 186 58 60 65 168 131 104 57 164 120 126 98 148 78 100 49 178 88 142 130 162 132 135 94 113 77 62 140 83 89 80 140 96 91 164 54 86 44 104 129 66 62 43 168 115 100 155 121 103 107 115 80 60 144 105 150 37 100 111 136 131 83 68 111 57 169 81 100 75 137 39 204 154 105 61 85 193 119 152 165 121 165 37 26 132 113 161 109 112 86 111 93 84 82 150 105 72 120 49 91 44 91 138 76 117 123 102 144 90 89 48 114 133 139 73 83 134 131 66 112 161 129 112 163 16 88 96 97 54 75 35 20 91 100 106 83 40 68 113 103 101 75 73 176 96 53 71 96 45 72 107 99 101 53 26 142 105 118 57 131 107 71 190 80 239 132 93 106 106 180 62 107 90 87 59 120 100 115 154 200 131 116 114 105 56 152 136 125 140 171 48 103 63 174 175 87 51 170 92 163 99 81 217 113 101 145 87 76 82 93 78 107 49 170 140 62 46 108 71 61 156 61 12 75 75 104 133 136 68 92 131 87 137 61 133 101 156 95 43 85 84 85 153 55 67 139 210 124 108 91 101 93 91 126 180 56 185 73 124 134 109 115 131 122 137 103 183 109 147 91 142 97 115 109 97 77 168 32 125 160 156 127 103 66 132 116 197 159 41 132 174 104 128 137 104 62 144 68 159 129 168 87 76 123 75 48 120 136 157 76 158 67 60 87 191 121 112 144 123 92 96 172 99 109 204 97 134 50 121 60 116 108 134 106 81 58 72 90 128 87 77 84 37 99 120 111 103 93 105 107 103 132 122 77 160 53 137 78 137 111 83 75 57 167 156 139 46 107 143 169 181 109 57 45 197 82 76 139 97 47 158 53 92 60 101 147 137 145 95 127 107 92 99 132 109 142 78 71 223 42 114 40 83 123 13 45 69 100 85 164 152 141 17 158 30 87 98 49 109 50 153 73 75 131 60 127 124 129 14 96 64 74 77 137 108 55 54 159 92 67 88 106 119 155 154 126 82 112 93 28 116 185 209 162 30 122 109 78 117 138 79 87 100 52 156 68 102 90 136 155 112 254 140 115 154 138 102 127 97 53 95 53 110 60 73 107 81 103 83 153 129 139 51 77 62 89 123 142 147 96 131 72 124 125 112 114 103 73 113 126 152 159 108 118 83 112 17 60 169 154 51 123 41 146 120 51 111 119 75 80 69 83 113 23 126 178 118 103 75 84 62 51 96 94 131 54 149 97 66 118 109 133 100 137 80 82 95 166 128 152 82 114 92 88 57 129 164 107 44 104 180 183 63 107 156 134 44 130 80 151 123 116 154 106 59 94 103 107 59 88 100 162 147 53 48 94 72 139 121 162 114 44 58 103 84 106 107 76 153 192 58 120 71 180 133 67 46 118 49 124 116 75 96 96 93 98 112 103 77 110 139 177 110 113 109 58 108 31 96 62 139 72 167 122 107 127 124 107 194 138 93 111 174 103 94 63 106 120 78 116 155 46 89 132 169 153 101 120 109 55 63 151 86 30 98 187 70 75 127 159 135 95 177 147 115 76 89 110 86 52 131 91 108 95 66 40 115 81 95 121 140 83 181 97 112 72 50 113 111 117 92 98 111 158 87 111 97 76 74 67 107 147 41 20 71 122 99 85 91 139 110 103 76 58 83 106 144 124 91 51 51 61 117 160 122 64 42 105 75 45 63 59 80 44 108 118 76 161 118 63 89 105 188 115 61 108 66 129 111 61 63 127 178 111 170 54 73 158 53 41 173 113 164 142 182 134 71 96 116 97 164 93 75 112 75 75 63 97 85 105 153 118 59 88 81 109 166 123 167 119 77 116 27 49 133 27 180 97 81 85 82 98 182 87 89 146 141 107 75 93 66 89 146 73 134 73 80 139 107 185 58 56 47 101 89 123 131 154 63 95 157 131 65 120 147 160 121 95 109 81 111 24 48 97 81 163 76 125 146 98 53 94 73 99 98 148 68 102 127 104 109 130 101 191 137 131 77 55 78 74 90 113 143 102 88 157 106 134 104 110 82 50 62 49 128 111 107 101 145 66 68 110 105 90 64 170 156 34 110 54 115 47 90 129 108 124 89 95 155 117 144 81 79 84 107 210 104 105 72 109 104 131 89 86 134 138 22 42 130 100 103 93 127 16 64 55 64 59 82 61 84 66 160 75 102 27 123 152 120 137 54 97 80 130 121 64 122 93 150 102 74 111 80 45 119 90 89 155 129 71 85 80 132 62 70 134 108 51 38 84 90 92 88 142 142 123 148 160 165 134 40 144 138 106 119 120 111 34 141 159 56 104 118 52 97 89 113 94 55 127 130 99 51 114 130 122 110 36 126 86 71 94 91 147 136 108 172 40 74 227 156 161 83 119 95 56 130 97 99 148 56 181 165 96 55 41 133 96 123 91 5 59 126 79 128 44 31 74 125 65 84 89 74 85 82 86 210 126 118 146 177 157 66 142 217 63 113 80 83 94 194 120 66 63 97 68 110 90 156 131 89 76 107 64 52 59 88 56 161 74 57 72 98 98 204 99 117 118 99 137 110 119 132 75 94 103 139 82 66 36 61 93 105 126 54 105 122 99 114 189 89 134 67 94 148 95 94 82 58 135 80 67 167 96 99 143 138 131 191 160 41 48 120 143 168 139 60 77 86 97 108 70 154 36 42 96 263 69 87 100 61 133 166 68 97 85 214 123 87 140 32 72 82 84 111 130 73 69 127 122 145 92 107 107 80 24 37 128 137 111 112 130 70 68 131 48 74 121 77 82 124 111 101 110 87 50 98 50 40 82 132 106 117 132 23 128 42 164 169 71 139 31 112 38 118 160 110 185 210 113 188 115 69 89 70 75 67 141 32 117 85 112 145 105 37 77 139 54 100 124 115 71 21 76 80 165 79 133 115 98 86 117 96 144 111 138 105 57 95 68 99 143 156 156 80 130 121 56 84 89 184 66 67 98 107 136 118 113 116 125 70 120 133 155 136 135 35 122 99 71 91 77 83 143 109 142 166 96 87 97 46 59 81 141 153 96 116 91 61 98 112 135 139 66 110 61 48 108 68 119 74 107 244 94 40 105 51 86 122 80 209 153 100 105 160 56 128 112 74 128 101 52 47 66 147 141 88 67 118 151 105 156 73 95 92 147 108 98 74 162 112 92 175 58 87 19 56 92 39 195 54 141 85 120 133 76 173 100 102 147 181 111 84 83 86 107 130 87 127 130 153 130 45 124 112 127 115 131 78 89 165 102 122 114 100 87 161 69 105 147 72 67 157 144 103 77 145 66 82 148 37 83 85 93 167 115 114 113 55 74 53 12 50 114 179 100 97 91 24 127 53 110 36 89 120 59 136 116 138 114 151 86 164 174 47 112 135 150 91 109 138 95 47 170 104 102 141 140 184 88 79 36 67 25 174 57 49 69 133 136 115 75 89 71 70 57 19 113 116 88 11 88 100 93 97 141 96 78 104 115 142 138 57 109 157 117 184 61 99 121 137 76 90 76 96 122 106 151 139 112 114 98 121 113 73 37 125 73 106 120 132 119 142 117 63 76 27 64 33 72 74 175 61 92 73 97 50 88 60 143 82 166 104 155 79 76 96 79 84 127 128 153 62 103 176 58 39 153 124 132 99 127 149 63 125 231 214 95 49 152 133 54 44 86 76 36 76 133 74 73 22 65 129 93 75 77 111 97 90 70 145 159 130 111 176 57 28 115 92 117 86 207 31 91 88 76 113 112 49 53 61 54 101 42 121 58 67 154 106 153 110 105 93 25 28 79 195 38 119 92 122 99 51 142 149 102 92 55 118 30 66 93 162 80 107 108 123 126 97 77 124 104 70 46 130 86 110 194 87 114 54 103 107 138 123 85 36 83 160 79 75 67 96 82 176 236 88 72 119 46 81 87 92 100 26 139 37 81 83 91 117 118 181 88 131 120 92 85 68 172 60 99 153 123 29 139 128 137 144 195 188 102 162 102 66 140 39 122 123 69 114 51 32 72 132 78 74 62 105 65 117 62 73 115 75 69 48 81 146 58 131 75 53 50 129 71 102 60 85 56 89 69 152 169 93 93 70 47 127 201 98 64 122 218 100 129 73 111 130 48 92 58 28 175 129 106 70 130 70 97 120 116 122 106 159 93 64 123 97 36 93 102 85 96 113 97 94 79 163 131 109 157 150 135 79 129 90 136 128 114 68 132 139 120 88 101 150 140 76 75 112 59 94 83 123 142 115 78 50 104 133 92 133 104 106 186 180 50 112 123 108 92 116 150 101 78 163 89 110 70 93 89 131 101 79 97 151 152 107 120 143 97 32 59 93 138 105 132 148 113 129 66 139 105 74 56 40 127 88 74 31 45 95 71 118 75 49 110 153 41 109 145 222 68 126 147 86 135 107 62 103 128 117 73 38 211 60 132 106 187 95 112 96 35 61 42 83 105 103 85 90 58 164 95 101 158 168 132 143 60 134 109 132 104 69 156 64 55 172 60 118 143 101 55 133 61 48 69 178 126 174 102 99 164 124 145 160 133 73 64 85 88 143 187 65 114 163 124 83 77 60 172 141 232 65 118 77 60 110 97 90 44 134 100 153 147 99 7 63 155 32 91 37 200 168 47 73 106 70 72 98 104 190 50 154 77 101 57 18 94 83 92 187 140 51 97 98 109 60 88 69 120 132 88 58 118 119 87 86 66 117 115 129 77 99 104 128 124 122 164 67 155 145 75 83 113 60 113 177 70 49 103 83 124 136 144 114 43 184 40 157 83 112 105 79 74 70 98 160 132 87 118 143 68 132 133 53 38 102 86 181 83 150 94 98 122 90 141 119 60 136 48 76 101 123 92 185 117 77 87 92 66 67 48 82 93 130 49 77 37 98 120 126 101 145 131 75 150 95 54 87 67 151 199 97 55 92 123 77 71 63 110 68 150 91 60 112 88 111 189 49 112 66 65 107 103 83 108 29 64 105 81 162 25 97 83 93 79 124 175 106 83 65 41 208 228 105 59 124 104 76 74 140 91 113 108 117 118 40 116 129 143 40 95 16 48 91 82 88 98 84 147 131 70 114 129 114 88 88 116 51 51 93 51 90 24 100 26 172 146 98 156 116 106 95 73 117 178 85 109 75 97 47 116 111 138 104 144 125 150 138 201 153 56 65 56 136 106 114 91 108 86 108 69 108 139 154 98 226 134 41 156 91 114 30 125 184 101 105 89 94 22 74 62 150 101 115 75 122 97 32 147 137 47 126 105 73 92 145 123 145 69 164 62 126 71 40 57 65 154 119 84 121 109 135 104 112 194 83 183 101 122 114 87 75 115 73 116 122 157 111 136 120 60 132 21 74 106 73 166 220 78 95 73 82 51 38 101 129 197 115 101 32 109 203 49 100 153 114 156 101 103 88 128 81 170 66 63 94 77 89 95 197 82 146 48 85 142 124 99 94 163 111 83 97 130 152 68 220 27 99 104 113 97 165 138 75 119 125 130 90 121 95 92 109 87 60 28 47 35 59 84 39 25 108 58 212 143 173 126 110 95 70 59 121 52 122 74 60 100 147 156 158 85 72 125 85 116 120 112 65 76 164 131 114 113 65 56 137 64 123 128 188 90 74 57 86 110 33 101 77 143 128 116 80 59 110 141 124 94 192 81 55 94 91 152 52 116 149 122 135 101 63 63 148 73 64 72 50 145 106 137 136 58 48 123 38 143 97 106 142 114 103 101 46 98 185 133 77 85 133 67 133 61 44 89 124 158 59 32 80 143 54 115 114 87 75 129 29 150 81 106 96 68 133 101 105 152 112 145 129 51 87 29 155 102 129 105 84 101 63 208 122 87 133 96 134 43 49 88 226 99 121 87 110 91 136 93 147 58 98 113 84 120 33 87 116 144 63 79 85 59 120 87 42 85 45 132 91 90 124 56 151 51 114 118 142 74 132 73 84 99 171 160 71 34 35 110 137 78 89 75 199 46 108 147 88 90 127 100 95 70 77 121 93 112 78 58 97 79 47 107 84 115 98 127 31 112 106 73 141 59 82 117 85 222 42 111 110 69 146 129 146 129 193 124 51 91 200 165 106 61 110 111 116 103 53 148 147 168 96 104 133 70 95 57 148 63 147 97 92 125 122 126 90 80 128 103 117 139 114 136 122 118 75 57 81 36 20 59 114 91 209 93 112 81 183 107 89 139 31 69 164 55 45 148 130 190 91 144 99 81 142 43 123 77 44 102 160 128 32 141 85 64 121 100 70 63 104 161 136 115 112 70 119 98 116 34 105 124 125 118 52 120 70 113 104 41 91 164 55 153 78 114 128 68 119 115 96 89 93 121 63 165 72 142 86 57 217 175 56 78 148 96 85 105 64 88 132 40 98 117 121 106 84 126 189 56 171 47 85 217 147 75 88 165 266 139 92 104 52 140 156 137 104 100 126 65 110 169 116 145 169 140 77 77 17 144 62 213 106 113 203 131 73 78 102 61 112 98 110 82 137 132 187 121 168 162 90 117 72 87 115 172 97 70 121 88 145 98 120 208 63 119 121 80 100 77 53 70 148 119 89 197 88 93 110 145 136 135 52 94 55 169 104 52 118 134 91 150 131 42 89 139 94 112 89 49 112 41 56 125 55 71 140 82 77 123 76 146 142 44 75 76 134 65 115 74 99 136 102 79 102 118 81 90 141 77 86 78 104 35 123 50 99 118 23 110 160 171 101 124 147 145 77 111 93 132 75 74 83 92 106 165 108 116 88 48 129 45 140 121 91 105 78 143 77 110 148 79 67 104 11 97 143 128 100 79 122 117 135 149 134 110 69 115 67 95 104 85 57 116 73 132 102 147 62 104 168 148 37 123 137 130 120 137 101 146 104 65 89 166 124 69 138 49 132 34 97 40 86 151 102 45 53 113 78 133 66 162 110 150 142 159 26 38 83 129 93 97 183 99 145 108 111 161 43 17 152 119 115 154 145 134 71 39 112 110 81 114 193 86 57 155 96 119 48 113 100 117 78 53 85 100 92 91 55 80 78 184 92 146 65 110 98 67 166 156 99 142 77 127 167 82 164 92 141 93 77 73 139 122 88 113 130 102 128 88 107 123 135 142 64 115 180 129 113 114 68 182 133 75 195 51 155 86 122 120 56 150 72 51 128 83 60 128 144 123 67 102 77 128 74 66 84 86 81 49 83 150 128 83 112 83 154 134 141 81 126 60 94 59 96 103 125 127 128 60 126 133 163 129 86 105 66 88 118 73 144 28 123 60 55 61 99 97 90 95 265 121 42 165 77 93 74 60 113 177 101 53 76 155 51 61 153 121 117 123 76 95 124 130 98 42 161 147 130 124 89 169 213 95 108 148 59 147 20 63 108 66 93 137 89 65 100 41 139 172 100 113 50 57 108 155 82 82 137 128 145 93 78 106 148 85 91 195 120 163 45 111 107 90 111 123 34 155 164 159 121 99 58 140 88 160 63 142 53 109 68 94 138 128 105 104 132 135 83 77 86 85 56 94 126 111 113 128 117 61 44 161 81 121 46 94 107 138 150 162 52 128 94 135 137 76 94 173 67 115 73 159 133 115 98 41 165 115 159 122 77 112 169 157 161 90 98 145 183 125 66 158 98 67 108 57 129 164 99 41 67 90 47 27 105 139 111 144 140 109 60 126 97 100 51 52 168 143 29 73 86 181 158 190 194 103 145 141 127 64 139 81 123 132 117 133 137 149 154 116 103 90 43 94 124 165 172 129 62 97 108 120 117 155 32 62 24 110 118 89 109 154 98 110 92 39 131 141 55 120 104 99 23 119 135 112 38 95 107 70 104 97 168 58 122 106 69 116 186 79 77 123 174 93 72 53 80 72 167 61 176 74 89 150 140 185 99 107 101 123 133 87 72 109 81 92 49 87 120 161 166 71 83 115 89 166 108 73 54 94 138 91 131 179 79 80 127 78 107 58 73 46 63 145 65 158 140 59 126 86 95 106 101 184 74 52 135 80 101 27 17 148 145 118 122 87 59 68 193 103 86 104 72 58 138 146 84 123 89 110 98 47 74 44 25 171 109 117 82 129 108 91 154 142 83 163 125 115 132 157 97 91 111 101 21 121 175 134 143 141 109 86 108 112 75 126 93 139 101 76 69 126 95 139 140 93 58 46 188 95 93 129 220 96 141 48 116 47 35 136 128 158 203 113 109 83 80 120 146 88 193 89 153 76 91 61 124 71 115 98 80 39 69 87 87 54 103 40 130 82 127 65 114 106 116 79 159 141 100 75 131 147 185 138 127 73 120 48 69 151 88 57 96 121 130 139 94 100 102 85 76 66 88 116 130 81 76 94 110 105 43 108 112 166 152 84 185 62 67 95 104 125 154 179 43 105 79 30 140 59 122 42 172 65 121 122 59 118 105 171 65 90 149 110 182 127 82 65 137 151 68 108 144 138 161 94 68 112 47 54 110 83 206 68 104 134 52 129 156 113 121 89 48 31 209 109 81 60 126 95 107 39 93 90 88 64 84 106 148 125 151 76 103 50 42 138 101 124 109 140 86 82 97 49 55 113 48 77 78 121 70 67 73 174 132 81 57 26 116 74 94 125 117 156 122 68 103 53 128 112 140 118 115 173 68 100 52 67 97 122 72 38 48 113 104 112 62 84 169 130 145 122 134 82 106 96 112 40 86 75 72 96 69 38 120 60 106 31 120 43 127 140 104 172 74 92 89 167 76 112 92 99 117 90 132 97 80 78 128 37 118 89 101 131 102 171 95 49 125 150 68 71 52 193 39 74 143 151 130 118 19 141 114 142 85 135 107 31 105 108 65 114 162 149 66 107 115 118 86 142 62 92 114 135 66 29 45 79 62 86 111 81 117 73 123 80 32 99 90 99 180 40 150 143 90 58 98 118 25 143 94 121 91 85 161 99 88 52 91 52 79 97 155 75 88 90 114 47 143 146 123 70 102 120 108 45 73 66 54 52 67 117 207 77 92 135 66 155 110 87 202 127 63 67 120 77 158 73 28 61 38 137 88 107 125 88 162 69 149 167 121 71 134 98 88 122 101 100 37 117 86 111 74 113 199 170 123 86 76 157 93 103 123 76 65 103 209 82 182 84 43 93 154 78 64 90 120 100 117 88 89 77 60 36 97 114 100 107 82 122 95 92 144 103 51 102 101 204 66 145 96 151 102 66 75 125 80 65 54 28 58 112 42 91 125 64 172 83 73 153 119 101 38 35 117 104 179 115 80 79 101 99 86 35 48 87 179 214 77 132 95 137 31 64 76 205 68 83 54 85 96 60 80 104 119 103 129 148 170 110 176 166 176 138 124 84 164 59 127 88 26 139 101 61 91 67 100 126 71 86 127 87 114 126 111 74 162 193 105 76 122 106 93 129 96 91 71 105 43 171 148 90 63 111 109 134 59 90 120 183 75 87 108 119 75 94 227 139 131 156 81 56 57 58 87 140 133 119 131 71 97 75 107 57 95 66 134 48 93 76 108 120 124 121 148 81 68 59 106 55 35 143 97 92 110 130 100 143 44 134 30 44 112 48 82 98 41 91 72 41 148 142 78 84 96 83 60 78 36 86 123 117 103 28 143 131 97 112 28 71 53 121 133 92 89 138 192 167 179 88 162 47 143 114 67 120 98 91 104 115 107 178 136 51 97 83 80 61 90 168 133 208 65 159 124 65 99 91 94 100 105 33 60 81 142 87 160 123 121 118 189 100 102 156 74 84 128 138 133 79 69 60 126 108 95 81 170 71 100 146 153 129 118 61 128 102 86 127 144 164 153 163 82 42 124 123 165 63 79 40 102 101 85 183 131 101 170 112 41 106 118 162 8 124 71 51 91 62 106 134 153 59 76 57 83 111 142 126 141 99 169 58 94 46 81 164 157 234 45 154 82 133 102 37 53 91 93 34 151 138 119 97 115 132 116 74 100 137 48 38 78 86 81 14 136 170 108 108 88 67 55 54 131 44 106 124 82 97 98 68 73 107 129 57 91 98 91 134 36 147 111 139 30 99 162 95 82 55 101 63 116 90 76 92 144 221 133 123 66 92 38 165 78 181 139 96 52 84 88 136 69 65 63 159 104 110 107 72 135 91 86 85 141 108 133 119 158 172 38 84 120 52 90 96 66 86 54 118 71 96 65 82 95 151 48 124 167 102 130 93 117 56 72 77 149 158 129 109 105 93 94 110 104 196 98 161 53 169 37 119 120 126 149 72 160 146 124 134 121 105 112 88 97 79 64 201 89 108 78 142 119 126 134 151 183 123 71 40 105 128 34 159 46 105 172 177 118 113 87 95 78 116 113 127 118 105 32 78 37 46 28 147 30 104 47 45 89 136 93 44 70 137 156 69 139 40 104 43 107 139 92 94 133 90 92 81 27 25 19 120 76 54 91 61 129 31 111 83 114 171 75 78 110 98 92 88 225 56 168 149 114 142 25 171 33 77 108 137 49 96 100 86 65 20 147 114 27 67 74 76 96 178 91 121 98 37 116 29 106 137 108 97 155 185 124 63 89 108 82 91 59 40 85 236 106 127 142 179 83 85 83 89 107 174 85 43 92 141 90 135 114 32 125 118 102 54 169 129 96 102 109 73 89 108 146 132 78 137 61 101 190 158 71 133 85 103 182 157 117 52 121 172 107 67 79 54 132 61 74 65 98 131 69 21 113 108 41 120 138 82 131 73 85 92 107 76 97 133 151 124 107 114 17 94 186 146 232 229 101 95 138 126 127 58 114 59 106 162 69 87 181 136 43 70 106 64 239 88 81 83 96 120 115 106 88 87 93 115 139 146 110 157 103 64 128 118 88 69 109 133 133 131 68 62 43 164 69 106 145 120 127 97 88 158 128 132 88 120 121 75 111 79 111 62 53 133 76 58 103 148 66 52 166 149 7 95 26 31 91 136 97 82 62 97 121 119 119 181 74 34 193 199 125 107 93 118 105 85 90 116 137 126 109 110 66 153 103 163 113 71 55 156 106 105 33 98 83 147 29 82 77 79 54 51 121 174 119 137 72 99 148 99 90 63 94 204 137 110 102 59 75 101 169 172 48 130 103 36 61 77 58 137 104 57 59 84 81 184 126 133 92 65 148 81 109 154 138 93 69 79 70 145 148 102 38 145 116 86 120 63 106 69 132 146 73 41 162 109 91 87 71 100 158 100 77 126 198 149 95 40 99 139 192 139 112 70 122 124 56 86 73 132 100 2 89 80 99 78 78 131 152 129 49 33 141 167 144 106 147 107 104 118 82 129 151 175 90 106 100 86 87 87 160 72 83 60 136 140 73 196 165 104 61 73 31 121 132 150 94 93 124 140 60 183 42 112 23 118 90 72 110 169 100 145 83 81 100 143 64 197 59 76 163 90 112 119 57 81 62 105 56 54 138 62 183 130 68 184 146 89 89 137 86 155 173 136 69 76 74 189 156 136 117 112 93 142 111 176 118 154 45 60 107 108 146 97 125 83 79 27 82 62 68 124 107 36 138 63 101 109 27 105 65 56 108 80 102 111 124 117 84 109 108 126 59 167 109 135 87 127 106 25 100 70 67 110 124 73 125 74 66 99 147 114 72 140 160 80 109 44 140 116 153 117 168 121 106 112 80 56 83 114 74 113 100 131 60 145 84 176 122 149 94 53 103 120 192 78 100 75 137 52 30 107 156 75 144 132 64 63 98 96 73 89 100 264 120 126 60 146 114 129 171 92 55 132 45 188 76 39 186 90 110 149 97 41 75 65 110 162 119 26 106 129 134 150 37 167 109 40 111 65 57 64 142 143 134 118 120 127 93 107 88 126 132 115 125 151 168 59 25 212 79 62 100 149 75 155 100 46 82 168 62 201 71 143 50 73 101 38 80 113 96 126 146 118 52 79 84 86 122 91 70 128 85 95 73 127 51 81 144 110 82 103 89 31 106 92 129 109 109 66 127 105 104 99 139 71 82 63 91 27 203 98 118 94 126 116 61 126 179 68 36 119 91 144 103 129 140 119 91 106 127 110 65 115 83 49 138 114 106 101 22 108 99 158 77 116 103 108 92 73 88 80 122 98 186 68 102 127 149 96 160 145 132 145 113 110 81 41 62 99 101 76 114 137 108 140 136 141 177 82 110 97 105 64 149 100 153 116 49 146 192 96 100 125 77 122 132 144 90 104 67 83 91 53 44 68 126 148 130 30 75 74 124 97 86 90 51 126 40 124 36 124 121 95 78 112 147 142 145 73 105 67 66 143 166 160 119 105 79 32 80 66 105 93 128 160 112 104 34 168 173 85 32 88 95 99 41 121 110 156 86 25 102 139 53 77 73 61 93 117 62 146 133 179 88 150 123 86 94 94 104 95 129 49 127 34 101 144 35 157 236 117 136 67 118 157 85 134 73 99 48 118 121 126 83 122 47 124 41 130 143 123 91 148 160 83 146 49 134 86 90 151 66 86 82 99 147 119 89 63 120 27 103 108 102 99 139 89 89 161 151 39 178 122 56 83 110 129 148 182 138 68 158 118 113 93 141 143 62 85 144 74 148 159 114 158 61 112 56 141 131 164 168 118 41 149 153 119 55 230 177 137 93 60 53 144 90 55 96 171 111 156 111 148 72 124 71 78 82 65 107 137 62 86 149 111 99 115 64 76 86 118 104 103 182 83 121 156 58 115 121 89 67 120 132 137 90 165 95 18 158 72 116 160 169 101 41 45 93 88 117 21 94 142 69 104 77 110 65 111 111 126 114 161 24 76 112 99 138 135 147 48 87 107 144 83 96 82 93 102 64 140 176 128 70 82 95 126 141 91 119 1 145 150 88 90 60 136 129 144 152 71 47 46 181 28 45 118 122 86 101 87 142 50 127 147 128 95 161 97 94 95 83 155 81 115 61 62 79 160 100 113 138 87 127 78 136 89 103 101 136 140 96 63 145 178 177 148 90 119 90 89 38 108 95 202 52 115 169 85 103 149 76 44 59 97 141 186 130 42 158 119 97 96 69 137 136 98 41 72 108 74 108 75 17 146 151 106 105 114 112 74 104 133 95 97 87 82 121 140 126 60 91 59 95 93 69 93 150 123 110 128 110 127 124 86 19 43 96 27 101 14 87 157 59 46 92 90 150 130 28 82 170 73 77 87 114 142 110 151 128 133 156 77 104 121 74 71 37 53 87 59 53 41 52 207 192 106 128 84 81 46 71 55 163 75 91 184 117 56 138 161 89 116 50 124 111 151 104 107 78 119 112 123 258 145 127 138 80 86 161 105 86 153 138 90 48 137 141 135 99 80 118 165 154 90 181 76 128 68 116 118 113 41 135 127 50 84 70 44 68 65 124 67 103 102 117 145 64 58 117 165 100 128 90 142 107 106 141 113 155 48 84 127 71 93 71 111 140 127 115 108 116 114 102 57 163 109 89 103 102 87 76 261 94 150 105 99 132 73 105 100 134 148 113 127 129 116 71 109 99 158 72 76 55 132 85 168 55 61 107 61 103 169 84 54 57 106 76 144 94 119 156 104 86 84 40 103 105 197 163 85 196 94 73 123 86 55 117 135 77 99 105 123 115 85 92 129 67 55 137 145 60 66 79 65 76 61 73 71 92 119 51 131 117 34 81 98 46 144 95 38 189 173 114 131 140 92 81 70 79 104 99 147 41 51 145 132 136 42 86 78 72 102 134 60 40 97 86 111 100 126 118 27 121 81 106 129 87 140 37 64 131 61 135 137 69 127 34 86 164 118 123 68 57 50 103 153 131 67 93 93 138 133 52 98 87 66 117 146 118 153 70 80 100 55 126 128 123 133 75 101 145 84 83 45 84 110 81 19 73 63 115 164 88 71 100 64 110 204 88 91 107 92 47 63 132 107 150 48 167 117 36 27 189 108 102 62 20 74 104 156 128 97 142 150 176 157 93 157 44 184 95 135 96 61 85 54 62 107 96 93 135 135 79 55 149 115 132 154 120 145 135 73 74 122 94 95 31 116 84 145 97 129 84 136 96 105 100 104 71 155 86 188 134 91 77 66 57 155 54 45 108 70 181 64 122 39 107 115 116 73 130 63 129 118 145 207 111 98 151 169 84 53 62 38 52 73 74 63 30 149 120 60 90 134 123 131 68 39 108 149 71 43 77 117 81 102 22 158 105 89 100 113 63 91 151 195 60 89 92 129 </t>
+  </si>
+  <si>
+    <t>GAM(0.7704932319645201, -2.288035136209173e-28, 0.5149392499385405)</t>
+  </si>
+  <si>
+    <t>0 2 2 0 1 1 2 1 1 1 0 1 1 1 0 1 1 2 3 2 0 1 1 0 0 0 1 3 0 0 1 1 0 2 1 1 1 0 1 1 0 0 1 0 1 0 1 0 1 2 1 1 2 0 2 2 0 0 0 1 0 2 2 1 2 2 0 1 0 1 0 0 0 0 0 1 1 0 1 3 1 0 1 1 0 1 0 0 1 1 2 2 2 1 0 2 1 0 3 0 1 0 0 3 2 0 1 0 1 1 1 0 0 0 1 0 0 0 2 1 1 2 1 0 0 0 0 1 2 0 2 0 0 1 1 0 1 1 1 0 0 0 3 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 1 1 1 1 1 0 0 0 0 1 1 1 0 1 4 0 0 0 1 0 1 0 1 3 1 1 0 0 2 0 1 0 0 2 1 1 0 0 0 2 1 0 2 1 1 1 2 1 0 2 0 2 1 0 0 0 0 1 2 1 2 0 1 0 0 0 3 0 1 1 1 0 1 0 1 0 1 1 0 1 2 0 1 0 0 0 1 1 0 1 1 1 1 2 1 2 1 1 1 0 2 0 0 1 0 0 1 0 1 0 1 1 0 0 1 2 0 1 1 1 0 0 2 1 0 1 1 1 1 2 0 2 0 0 0 1 4 1 3 0 0 0 0 1 1 0 1 0 1 0 0 2 3 2 1 3 0 1 0 0 1 1 1 0 0 1 1 2 0 0 1 1 1 1 0 0 1 4 1 2 1 0 0 2 0 2 4 0 1 0 0 2 0 0 0 1 1 1 0 0 1 2 0 1 1 1 1 2 0 1 0 1 1 0 2 1 1 2 0 1 1 1 2 0 0 0 0 0 3 1 2 0 2 2 0 0 1 1 2 1 1 0 1 2 1 0 0 1 2 0 0 3 0 1 2 1 0 0 0 0 0 1 0 1 0 1 0 3 0 2 0 1 2 1 1 0 1 1 0 1 0 2 0 3 0 0 1 0 0 2 0 0 2 2 0 2 0 0 0 1 0 1 1 1 4 1 0 1 0 0 0 1 1 0 0 2 1 1 0 0 0 2 1 0 2 1 2 1 1 1 0 1 0 1 2 1 2 0 1 2 1 2 1 0 0 1 0 1 0 1 3 1 0 1 2 0 2 2 1 0 1 2 1 2 1 0 0 1 1 0 1 0 0 1 0 0 0 0 2 1 0 0 1 1 0 0 1 0 2 3 2 3 0 0 0 0 0 0 0 0 2 0 0 0 0 2 1 1 0 1 0 0 0 1 1 2 1 0 1 0 1 0 0 3 3 0 0 0 2 0 0 1 2 0 1 0 1 1 1 1 2 2 1 3 0 2 0 0 1 0 0 2 1 0 1 1 1 0 1 2 0 2 3 0 1 2 0 2 1 2 0 1 0 0 0 1 3 1 0 0 1 2 1 1 1 2 0 0 1 0 1 1 0 0 0 2 2 0 1 0 1 1 1 0 0 2 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 3 1 3 1 0 1 0 0 2 2 1 1 0 0 1 0 3 2 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 2 1 0 0 2 1 0 1 0 1 0 1 2 1 0 1 1 0 0 1 1 0 3 0 0 2 3 2 1 4 1 1 1 0 1 0 1 2 1 1 0 2 0 0 0 1 0 1 0 2 3 0 1 2 1 1 1 2 0 0 0 1 1 1 0 0 1 2 2 2 2 1 0 0 3 0 1 0 0 0 0 1 0 0 0 0 3 1 0 0 0 2 0 0 0 1 1 0 1 1 2 0 1 0 0 2 1 1 0 1 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 3 0 0 1 1 1 0 2 0 0 0 1 0 0 1 1 2 3 2 1 0 2 0 2 1 2 2 0 1 0 1 0 0 0 1 1 0 0 0 0 3 2 1 2 4 0 0 1 2 0 1 2 0 0 2 1 2 1 1 0 0 3 1 0 0 0 0 1 2 1 1 0 1 1 1 0 1 0 0 2 0 2 0 1 0 1 1 0 0 2 1 0 1 1 1 0 0 1 0 1 1 1 1 0 0 0 0 2 0 1 1 2 0 0 0 1 2 0 3 0 1 1 1 0 0 0 0 0 1 1 4 1 2 0 0 0 1 0 1 2 2 0 1 2 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 1 2 0 1 3 0 0 1 1 3 2 0 2 0 1 1 0 0 0 0 2 3 2 0 1 0 0 2 3 1 0 1 2 1 2 0 0 0 0 1 2 2 0 0 3 0 1 0 4 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 3 2 0 0 1 1 1 1 1 0 1 0 1 2 0 0 0 0 1 2 0 2 1 1 1 0 3 0 0 1 0 1 0 0 1 1 0 1 2 2 1 0 1 1 2 1 1 1 1 1 1 0 0 1 0 0 1 0 0 0 2 3 1 0 0 0 2 0 0 1 1 0 0 1 0 0 2 1 0 0 2 2 0 1 0 1 1 0 0 0 0 2 0 0 1 1 1 2 0 1 0 1 0 3 0 0 1 0 2 0 2 2 0 0 0 1 0 4 2 0 0 2 1 1 0 0 0 0 0 0 0 0 2 0 2 1 1 0 2 0 0 1 0 0 1 0 2 1 1 1 1 0 3 4 1 1 2 0 1 1 2 0 1 0 0 1 0 0 0 0 2 0 1 2 0 2 0 1 0 0 0 3 2 1 1 0 2 0 1 1 0 0 0 2 0 1 1 1 1 3 0 2 0 2 0 2 1 0 0 0 3 1 0 0 1 1 1 0 1 1 0 0 0 1 0 0 0 1 0 1 2 0 0 1 0 0 1 1 1 0 2 0 0 0 0 0 1 2 1 0 2 1 2 0 0 0 1 0 1 0 0 2 2 0 1 1 0 1 1 0 0 2 0 1 2 1 0 3 2 3 0 1 0 1 1 0 2 1 0 1 1 0 1 0 1 0 0 2 2 1 0 1 2 0 0 1 2 0 1 2 1 1 1 2 0 2 0 1 2 0 0 0 0 0 0 1 2 0 1 0 0 2 2 0 0 1 0 0 1 2 1 1 0 0 0 1 1 0 0 1 2 0 0 0 1 1 2 0 1 1 1 2 0 1 0 2 0 2 0 1 1 0 2 1 2 2 2 1 3 1 1 0 0 3 0 0 0 1 0 0 1 2 1 0 1 2 1 2 1 0 0 2 2 1 1 0 1 1 0 0 5 2 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 0 1 0 2 0 0 1 4 0 0 2 1 1 1 0 2 0 0 0 1 0 1 1 0 0 1 1 0 0 1 1 2 1 2 2 3 0 2 1 0 2 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 2 0 0 1 2 1 1 1 1 0 1 0 2 1 0 3 1 2 0 0 1 0 0 1 2 0 0 1 2 0 2 1 1 2 2 1 1 2 0 2 0 2 1 0 3 1 0 2 1 0 0 0 1 0 0 2 1 1 1 0 1 1 2 0 1 0 1 0 3 0 2 0 1 1 0 0 0 0 1 1 0 2 0 1 1 0 1 1 0 0 0 1 0 0 0 1 1 1 0 1 1 2 2 1 0 0 1 1 1 0 0 1 3 1 3 1 1 0 2 0 1 0 0 1 2 1 2 1 0 1 0 1 0 2 1 0 2 1 0 0 0 0 1 3 0 1 0 3 1 1 1 1 0 2 0 2 1 0 1 0 0 0 0 0 0 1 1 1 0 0 2 1 0 0 2 1 2 3 0 1 3 1 2 0 1 1 1 0 0 1 0 1 1 0 3 2 1 3 2 0 2 0 0 2 1 1 1 0 0 0 1 1 0 2 2 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 1 1 0 0 0 2 0 0 2 0 1 1 2 0 2 0 1 0 1 1 1 1 1 1 0 1 1 2 2 0 1 1 1 0 0 1 1 0 2 1 0 1 0 1 1 1 2 1 2 0 0 1 0 0 0 0 1 1 0 0 1 0 2 1 0 2 0 0 1 0 1 3 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 2 1 1 1 1 0 2 0 1 0 1 3 3 1 0 0 1 0 0 2 2 1 2 2 0 1 0 0 0 0 0 1 1 1 1 0 1 0 1 1 0 0 2 1 1 0 3 0 1 0 0 0 0 1 1 2 0 1 1 0 1 1 2 3 0 2 0 0 0 1 1 0 1 1 1 3 0 2 0 0 1 2 1 2 2 1 1 1 1 1 1 2 0 0 0 1 3 0 0 0 0 2 0 0 0 3 2 2 1 1 1 1 2 1 1 0 0 0 0 1 2 1 1 0 1 1 2 0 1 0 1 0 1 0 1 0 2 0 1 0 1 0 2 2 2 1 1 0 1 2 0 3 0 1 1 1 1 0 1 3 0 0 0 1 0 0 0 1 0 0 2 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0 2 1 1 1 0 0 1 1 0 0 0 1 0 0 2 0 1 0 1 1 1 2 0 1 2 2 1 1 0 1 0 0 0 2 1 0 1 1 1 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 1 2 0 0 1 0 0 0 1 1 2 2 2 1 0 0 0 1 1 0 3 0 1 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 1 2 0 1 2 1 0 2 0 1 2 1 0 0 3 0 0 0 1 0 0 0 0 2 1 1 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 0 1 0 1 0 0 2 1 0 2 0 2 1 0 0 1 3 0 0 0 2 2 1 1 0 2 0 1 1 2 1 0 1 1 0 0 0 0 1 0 1 0 2 2 1 2 2 0 1 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0 3 1 2 0 1 1 2 2 4 3 1 1 0 1 0 1 1 0 0 1 0 0 2 1 0 0 1 1 1 0 1 0 2 1 0 0 0 2 0 2 1 3 0 1 1 0 0 3 2 0 1 0 0 1 0 0 0 1 3 0 1 0 1 1 1 1 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 3 4 0 0 0 0 0 1 0 0 2 0 0 0 1 1 0 0 1 0 1 2 1 1 0 1 1 2 1 0 0 0 1 0 0 0 0 2 1 0 2 1 0 0 0 1 1 2 1 0 1 1 0 1 2 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 3 0 0 0 1 1 1 0 1 2 1 1 0 1 1 1 0 0 3 0 1 0 2 1 1 1 0 1 2 1 1 2 1 0 2 0 0 1 0 1 0 1 0 1 0 0 2 2 2 0 2 1 0 1 1 1 2 3 1 2 1 0 1 1 2 0 1 2 1 0 1 0 0 0 1 0 0 1 2 0 2 0 0 0 2 0 0 0 1 1 0 2 2 2 1 3 1 1 1 0 0 1 0 2 1 1 1 1 0 1 1 3 1 2 0 0 0 1 0 1 0 1 1 2 3 0 0 0 2 0 0 1 2 1 1 1 2 0 0 0 0 2 0 2 1 0 1 0 1 1 0 0 0 1 2 3 1 1 0 0 0 0 0 1 0 1 2 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 0 1 1 1 0 2 0 1 1 1 1 1 3 1 3 0 1 1 2 3 0 0 1 0 1 1 0 1 0 0 2 3 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 2 1 1 1 2 0 1 0 2 1 1 0 1 3 0 0 1 1 0 0 0 1 0 0 0 3 1 0 1 1 0 2 2 1 2 2 0 2 0 1 1 1 1 1 1 0 1 0 0 1 0 1 1 2 1 2 1 3 2 1 0 0 1 2 0 0 1 1 1 1 0 2 1 0 0 1 0 0 0 0 2 1 2 2 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 2 1 1 3 3 0 1 1 1 0 1 1 0 1 0 0 0 1 1 1 1 1 1 2 1 1 1 1 0 1 2 0 1 0 0 2 0 2 0 2 2 2 1 0 0 1 0 2 0 2 1 1 0 0 1 0 0 1 1 0 3 1 1 2 1 0 4 0 0 0 1 1 1 1 0 2 2 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 1 1 0 0 0 3 2 0 1 0 3 3 1 0 1 2 1 0 0 0 2 1 0 0 2 1 0 2 0 1 0 1 1 3 3 1 1 2 2 0 1 2 1 0 0 1 1 1 2 0 0 0 0 2 0 1 0 0 0 2 0 0 0 1 2 0 0 4 0 1 1 0 2 2 0 0 0 0 1 0 2 3 2 0 1 0 1 2 2 1 1 1 1 1 1 1 0 0 0 1 0 2 1 2 0 0 0 0 2 3 0 0 0 3 1 2 0 1 0 0 1 0 1 2 0 2 0 2 1 0 0 2 0 1 0 2 1 2 0 0 1 1 1 1 2 2 1 0 1 0 1 2 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 2 1 1 0 1 0 1 1 0 2 1 3 1 0 1 2 0 2 0 2 0 1 1 2 2 0 1 1 1 1 2 1 2 2 0 0 2 1 1 2 0 0 3 0 0 1 1 0 0 0 0 1 0 1 1 0 4 2 2 1 2 1 0 0 1 0 1 0 0 1 1 0 1 2 1 1 0 1 2 1 1 0 0 0 0 1 2 0 0 0 1 3 0 1 1 1 2 0 0 2 0 0 1 1 1 0 0 2 0 1 0 0 0 0 2 0 2 3 1 3 0 0 0 1 1 1 1 1 1 2 1 3 0 0 0 1 0 0 0 2 0 3 0 1 0 1 0 0 0 1 1 2 0 2 1 3 0 1 1 0 0 1 2 0 0 3 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 1 0 0 1 2 0 0 1 0 1 1 0 2 1 1 0 0 0 0 0 1 0 2 0 0 1 1 2 0 0 0 1 2 1 1 1 2 1 0 0 0 0 2 0 2 0 1 0 3 1 1 0 0 1 0 2 0 1 1 1 1 0 1 0 2 0 2 2 1 1 1 0 2 0 2 2 2 0 2 0 0 1 1 1 1 1 2 1 1 2 0 2 3 1 1 0 0 1 0 0 1 1 0 0 1 0 2 0 2 0 0 1 0 1 0 0 0 1 2 0 2 1 3 0 2 0 2 0 0 0 1 2 2 0 0 1 2 2 0 0 0 1 1 1 2 0 1 0 0 0 1 0 1 0 0 3 0 2 2 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 2 0 3 0 0 1 0 1 0 3 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 1 1 0 1 0 0 1 0 1 1 0 3 1 1 0 0 0 1 1 1 1 0 1 1 0 1 0 2 0 1 0 0 2 1 0 0 1 0 1 0 0 0 1 2 2 1 1 1 0 1 0 2 2 1 1 2 1 2 0 2 1 0 0 0 0 1 1 0 0 0 1 0 1 2 2 0 0 1 0 2 0 1 2 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 2 1 1 0 0 2 0 1 2 0 1 2 1 2 1 0 1 3 0 0 2 0 1 1 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 2 2 0 2 1 2 1 0 1 2 1 1 1 0 1 0 2 1 1 0 1 2 0 0 1 1 0 0 0 1 0 0 2 0 2 1 1 0 0 0 2 1 0 0 1 0 0 0 1 2 0 2 1 0 1 2 3 2 2 1 0 1 0 1 0 0 1 1 0 2 0 1 1 0 0 0 1 0 1 2 0 0 0 1 0 0 0 0 1 1 0 1 2 0 2 1 1 0 1 1 3 1 1 0 0 1 3 0 0 1 0 1 3 1 0 1 0 0 1 1 1 1 2 1 0 0 1 1 3 1 0 2 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 1 2 0 0 2 2 2 0 0 1 2 0 2 1 1 0 0 0 1 2 0 0 0 2 1 0 0 0 2 0 2 1 0 0 0 0 0 1 1 1 0 1 1 2 2 1 2 1 1 1 0 0 0 0 2 0 0 0 0 0 4 1 0 1 1 0 0 0 0 1 3 2 3 0 0 1 0 1 1 0 0 0 1 1 0 3 0 0 1 1 1 0 1 2 1 0 1 2 1 2 1 1 1 3 1 0 1 1 0 3 0 1 0 1 0 2 0 2 0 0 1 3 1 0 0 1 1 0 2 1 1 0 0 0 1 3 0 0 1 2 2 0 0 0 1 1 0 1 1 0 1 0 0 2 0 0 1 1 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 2 0 0 1 1 0 2 1 1 0 0 0 0 1 0 1 0 0 0 1 2 1 0 1 0 2 1 1 0 1 1 1 0 1 3 1 2 0 0 1 0 4 0 0 1 0 1 0 1 0 1 1 0 1 1 0 0 1 1 0 1 0 2 0 0 2 0 2 1 0 1 2 0 0 1 1 1 0 1 0 0 2 1 0 0 0 0 0 1 2 1 0 1 2 0 0 1 0 1 1 0 0 0 1 0 1 1 2 1 1 0 1 3 1 1 1 0 1 0 1 1 0 1 0 0 2 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 4 1 1 0 0 0 0 0 4 2 1 1 1 0 1 2 3 0 1 0 1 0 0 0 1 0 1 0 1 1 1 2 2 1 1 0 1 0 1 0 0 0 1 1 0 2 1 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 1 1 0 1 0 1 1 2 1 3 0 0 0 1 3 2 1 2 0 1 2 0 0 1 0 2 2 1 3 1 0 0 2 2 3 0 0 0 0 2 1 0 2 0 0 1 1 0 0 1 0 3 0 1 2 1 0 0 1 1 1 0 0 0 1 0 0 0 1 2 2 0 0 1 2 0 0 2 0 1 0 0 1 0 0 1 0 0 1 0 1 0 2 1 1 0 1 0 1 0 1 0 0 3 0 1 2 3 3 0 2 0 0 0 0 1 2 3 2 3 3 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 0 2 1 0 0 0 1 1 2 1 1 0 0 1 0 0 1 1 1 0 1 0 1 2 2 1 2 0 0 1 0 1 2 1 1 1 2 0 2 1 2 0 2 2 1 1 2 1 2 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 3 5 1 0 1 0 0 1 1 1 0 1 0 1 2 0 1 0 2 1 1 0 0 0 0 1 1 3 1 0 0 2 1 2 1 1 2 2 0 0 0 1 0 0 1 1 0 0 2 1 2 0 1 1 0 0 3 0 0 1 0 0 0 0 0 1 0 1 1 1 1 2 2 2 3 2 0 2 0 0 0 1 1 1 0 0 1 3 1 1 1 1 1 1 1 1 0 1 1 3 1 0 0 0 0 0 0 0 0 2 1 0 0 2 0 0 3 1 0 0 0 3 0 0 0 0 0 1 0 1 1 2 0 1 0 0 1 1 2 0 0 1 1 1 2 2 0 0 1 1 3 0 1 1 1 0 0 0 1 0 1 1 1 0 2 2 0 0 0 2 0 1 0 0 0 0 1 1 1 2 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 1 0 0 1 0 1 1 0 0 2 0 1 1 1 1 0 1 1 0 1 1 0 0 0 0 0 0 2 2 2 2 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 1 2 1 1 0 1 0 2 1 1 1 1 1 1 1 1 0 0 2 1 0 1 1 1 2 1 3 2 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 1 1 0 1 2 0 0 1 1 2 1 0 0 0 1 1 0 1 0 2 0 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 2 0 0 2 1 2 0 0 1 1 1 0 4 2 2 0 1 0 0 1 2 1 0 1 1 0 1 0 0 1 1 1 0 0 1 0 4 0 1 0 1 0 0 1 0 0 1 1 0 1 0 1 3 2 2 0 1 0 0 1 1 1 2 0 1 0 0 0 2 0 1 2 0 1 1 0 0 0 0 1 1 0 3 0 1 1 2 0 0 2 1 2 0 1 2 0 1 2 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 2 0 1 0 2 1 1 2 0 0 0 0 0 1 0 1 1 0 0 2 3 0 1 2 2 0 1 1 2 1 0 1 0 0 2 1 0 1 2 2 1 0 0 0 1 3 1 0 2 2 1 2 1 0 0 2 0 1 2 2 1 0 2 2 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 2 0 0 1 1 1 0 1 0 1 2 1 0 2 1 1 2 2 0 2 1 2 1 0 1 2 2 1 0 1 0 1 1 1 1 1 0 1 0 0 2 2 1 0 1 2 1 0 0 1 1 2 0 1 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 1 2 1 2 2 2 1 0 1 1 1 0 2 1 1 0 1 1 1 0 2 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 3 1 0 1 0 1 1 1 1 1 0 0 1 1 0 2 1 1 0 0 0 0 0 3 1 2 0 1 1 0 1 1 0 1 0 1 1 2 1 0 0 1 1 0 1 0 1 2 4 0 1 1 1 1 1 1 0 1 1 0 0 0 0 0 3 0 0 0 1 2 0 2 1 1 0 1 1 3 0 1 0 0 0 0 2 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 1 0 0 2 0 0 0 2 1 0 2 0 0 1 0 3 0 0 0 0 1 1 3 0 1 1 1 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 2 1 0 1 0 3 1 1 1 2 3 1 0 1 0 1 0 0 1 2 2 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1 0 1 1 0 0 1 3 0 0 0 1 1 1 1 0 2 0 1 1 0 1 0 1 1 2 0 1 0 0 1 1 0 0 0 0 0 1 2 0 2 2 0 0 2 3 0 1 3 0 0 1 2 0 1 1 0 0 0 1 0 1 0 1 1 0 1 2 1 0 1 1 3 0 1 1 1 0 2 0 0 0 0 0 0 0 0 0 2 1 1 1 1 1 1 1 1 2 1 2 1 0 0 0 1 0 1 1 1 1 0 2 0 0 0 0 2 1 1 0 0 1 0 0 3 0 3 0 2 2 0 3 0 1 0 0 3 0 1 1 0 0 0 0 0 3 1 2 4 0 0 0 1 0 2 2 1 0 1 0 2 0 1 1 0 0 0 0 1 3 1 1 1 1 0 1 1 1 1 2 1 1 0 0 0 0 1 0 2 1 2 1 0 0 2 0 1 1 0 3 2 0 1 0 0 1 0 1 1 2 1 0 0 0 4 0 0 2 1 2 2 0 0 2 2 1 1 1 1 0 1 0 2 1 3 0 1 1 0 1 0 0 0 0 1 2 2 0 2 0 2 1 1 1 1 2 1 1 0 2 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 3 1 0 0 0 1 1 0 0 1 0 1 2 1 2 0 0 1 1 1 0 0 1 0 2 1 1 1 0 1 1 0 2 3 3 0 1 0 0 0 0 1 1 1 2 0 1 0 0 1 1 0 1 1 0 1 1 2 0 1 5 2 2 1 0 0 1 0 1 1 0 1 2 1 0 0 0 1 1 1 1 0 2 1 1 1 0 1 2 0 0 0 0 1 3 0 0 0 1 2 0 0 0 0 1 1 2 1 1 1 0 0 1 2 2 1 2 1 0 0 1 2 1 0 0 0 1 1 3 2 0 0 1 2 1 0 1 0 0 0 0 1 1 0 3 1 2 0 1 1 1 0 1 2 2 1 1 0 1 0 0 0 0 0 1 0 0 1 0 2 1 1 1 1 1 0 0 1 1 0 3 0 1 0 2 0 0 0 0 1 3 0 0 1 1 0 1 1 1 1 1 2 2 1 0 0 0 1 1 0 2 1 0 0 0 1 1 2 1 0 1 2 1 1 1 0 1 3 0 0 0 1 1 0 2 2 1 0 1 1 2 1 0 0 1 1 0 0 0 1 2 1 0 1 2 0 0 0 2 1 1 2 0 1 0 0 0 0 2 0 1 2 0 0 2 2 1 0 1 0 0 0 2 0 0 0 0 2 0 1 0 1 1 0 1 0 2 2 0 1 2 1 0 0 1 0 0 1 0 2 1 1 0 0 0 0 0 0 1 1 1 2 2 0 1 1 2 0 0 1 2 2 0 2 2 2 1 1 2 0 2 1 0 0 0 1 1 0 0 2 0 0 1 0 1 1 0 2 1 0 3 2 0 0 2 2 0 1 0 0 0 0 2 0 1 1 0 3 0 0 3 1 2 2 1 0 1 2 2 1 2 1 0 1 0 1 1 1 1 0 1 3 1 0 1 0 0 0 0 1 0 1 0 3 0 0 1 0 1 0 1 0 0 0 1 0 1 1 1 3 1 1 0 0 0 0 1 1 4 0 0 1 0 2 0 3 1 2 2 0 1 1 2 2 1 1 1 2 0 1 0 0 1 0 2 2 1 0 1 2 1 1 1 0 0 0 0 1 1 0 2 1 0 1 0 2 1 0 0 3 0 5 0 1 0 0 1 0 2 1 0 2 3 1 0 0 0 1 2 1 1 0 1 1 0 2 0 1 0 0 1 0 0 2 0 0 1 2 1 1 0 0 2 0 1 0 2 0 0 0 0 0 2 2 1 2 1 2 0 0 2 1 0 3 0 1 3 1 1 1 1 2 0 0 1 1 0 2 0 0 1 0 0 1 0 0 1 0 0 1 2 0 0 1 1 1 2 0 1 1 0 0 1 0 1 1 0 0 2 0 0 0 0 3 3 0 0 2 2 0 0 1 2 2 1 1 1 0 0 1 1 0 0 2 0 0 2 1 0 0 1 1 1 2 2 1 1 1 2 1 0 3 0 0 0 0 2 3 0 2 1 0 0 1 1 0 1 0 0 1 0 2 0 1 0 1 1 0 0 2 0 1 1 1 2 2 3 2 1 0 1 0 1 0 1 0 0 1 0 1 1 1 2 1 0 1 1 0 0 1 0 2 2 0 0 0 1 0 0 0 2 2 0 4 2 1 0 1 1 3 0 0 0 0 2 2 0 1 1 0 1 2 2 0 1 1 2 1 1 0 2 1 0 0 2 0 2 1 1 0 2 2 5 1 1 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 3 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 2 1 0 0 1 1 0 1 2 0 0 0 1 1 1 1 2 1 0 2 1 1 0 1 0 1 1 0 1 0 1 1 1 3 2 1 2 0 0 1 1 0 1 1 0 0 0 1 1 0 0 2 1 3 0 1 1 1 1 1 0 2 0 1 0 0 0 1 0 2 0 0 2 1 1 1 0 0 1 0 1 0 0 2 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 3 1 1 0 1 2 0 3 0 0 0 0 2 1 2 1 2 2 0 2 2 3 1 1 0 2 0 1 0 1 0 2 1 2 2 0 0 1 0 2 1 0 0 0 1 0 0 1 1 0 2 1 0 0 1 0 1 0 0 2 1 1 1 2 0 0 2 0 1 1 2 2 0 3 0 1 0 2 0 4 0 2 0 0 0 0 0 0 2 2 1 0 2 1 1 2 2 0 0 0 0 2 1 1 1 1 1 1 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 2 1 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 1 1 0 1 2 0 1 1 0 0 1 0 1 2 1 0 1 1 2 1 1 2 0 1 1 2 2 1 0 0 0 1 0 1 1 0 0 1 1 1 1 0 1 1 2 0 1 1 0 3 2 1 0 0 3 1 0 1 1 2 0 0 2 0 0 1 0 0 1 1 1 0 1 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 2 0 2 0 0 1 0 2 1 0 1 1 0 1 0 0 0 0 2 1 0 2 2 0 1 0 1 0 1 0 2 1 1 0 2 0 2 1 1 0 0 1 0 0 1 2 2 1 0 1 1 0 0 0 0 2 2 1 1 1 1 1 0 2 2 0 1 1 0 0 0 1 2 1 1 0 0 1 0 2 0 1 1 2 1 0 0 1 0 1 0 0 2 3 0 2 0 0 0 1 1 0 0 0 0 1 0 2 0 1 2 0 0 0 0 0 1 1 0 0 2 0 3 0 1 0 0 0 3 1 0 0 0 2 1 2 2 0 2 0 0 1 0 1 0 4 0 2 1 0 1 2 1 0 1 1 0 0 0 2 1 1 1 0 0 1 1 2 0 0 1 1 2 2 0 3 0 0 1 0 1 2 0 1 0 0 0 1 1 1 0 0 1 0 0 2 1 2 1 1 2 2 1 1 0 0 0 1 1 3 0 2 1 1 0 0 0 0 3 0 0 0 1 0 0 1 2 0 3 0 0 0 0 0 1 3 3 2 0 0 2 1 1 1 0 2 2 0 1 2 0 0 0 0 0 0 2 0 0 1 0 3 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 3 0 3 4 2 1 0 0 0 0 1 1 0 1 2 1 0 0 1 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 2 1 3 0 1 1 1 0 0 1 0 0 0 0 0 2 0 1 1 1 0 2 0 1 0 1 3 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 2 2 1 1 3 0 0 1 0 0 1 0 1 1 1 3 0 0 0 1 1 1 0 2 0 1 1 1 1 2 0 2 0 1 2 1 0 0 0 0 2 0 4 2 1 1 0 0 0 0 0 1 2 2 0 1 1 0 0 0 1 0 0 1 2 0 0 0 0 3 1 3 1 2 1 1 1 0 0 0 0 1 2 1 2 2 1 1 2 1 1 0 1 1 1 0 1 2 1 0 1 0 0 0 0 2 0 3 2 1 1 1 1 0 0 1 2 0 1 1 1 2 0 1 2 0 0 1 1 1 0 0 3 1 0 1 1 1 0 0 0 0 1 1 3 1 0 0 0 1 1 1 2 0 0 1 2 1 0 2 0 0 1 0 0 0 0 2 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 3 0 1 0 2 2 1 2 0 0 1 0 1 1 0 1 0 1 1 0 3 0 0 1 3 0 2 1 1 1 1 1 0 0 0 2 0 1 1 1 2 1 0 1 3 1 1 0 0 0 0 0 0 2 1 0 0 0 1 0 1 0 1 2 1 0 0 0 0 1 1 1 1 0 1 0 2 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 3 0 1 0 2 2 2 1 1 0 1 0 0 0 1 1 0 0 0 1 2 1 0 1 2 0 0 0 1 1 2 1 0 2 0 0 0 1 0 1 0 1 1 2 0 3 1 1 0 1 0 1 3 1 2 0 0 2 1 1 3 0 0 1 1 1 0 1 1 0 2 0 2 0 0 1 0 1 1 1 0 0 0 3 1 1 1 0 2 1 2 1 0 0 1 0 0 1 0 0 0 2 2 1 0 1 0 2 1 2 1 1 0 2 2 2 1 0 0 1 2 1 0 2 2 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 2 1 1 1 2 0 1 0 2 0 1 1 1 2 1 1 0 1 0 0 0 0 1 0 1 1 1 2 1 0 2 1 0 0 0 0 0 0 1 0 0 2 2 0 0 0 0 0 0 0 1 2 0 2 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 1 1 1 2 0 1 1 1 1 0 0 1 1 1 0 0 0 2 2 0 2 1 1 3 0 1 1 1 1 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 0 1 2 1 1 2 0 2 0 0 0 0 0 2 2 0 0 0 2 1 1 0 0 0 1 0 1 1 1 2 0 1 0 0 0 1 1 1 0 0 0 0 2 1 2 1 3 3 0 0 2 1 0 0 1 0 1 1 0 1 0 0 1 1 0 0 2 0 0 0 0 0 1 2 0 1 1 0 0 0 1 1 1 1 1 2 3 2 0 1 0 0 0 3 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 3 0 1 0 0 1 1 1 0 0 0 1 2 1 1 0 1 0 0 0 1 2 0 1 0 1 0 1 2 1 0 0 1 3 0 0 0 0 0 2 0 2 1 1 0 0 1 1 1 0 0 1 1 3 1 2 2 1 1 0 0 0 2 0 1 0 2 1 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 1 2 1 0 0 0 1 0 0 0 1 1 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 1 2 2 0 0 1 1 1 2 2 0 0 2 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 2 3 1 0 2 1 0 1 0 1 3 0 2 1 0 0 0 2 1 1 2 2 2 1 2 0 0 1 0 0 0 0 1 0 1 1 1 3 0 2 1 1 0 1 0 0 1 0 0 1 2 1 1 2 0 1 0 0 0 2 0 2 0 2 2 1 0 1 1 0 1 2 1 1 1 1 0 1 0 0 0 2 0 0 2 1 1 1 2 1 1 0 1 0 0 1 2 0 1 0 0 0 1 2 0 2 0 2 2 0 1 2 1 2 3 1 0 1 0 0 0 1 0 1 2 1 1 0 0 1 2 2 0 0 1 0 1 0 2 0 2 0 1 1 0 1 0 1 4 0 2 0 1 1 1 0 0 0 2 2 2 0 0 1 0 1 1 0 1 1 0 0 0 0 2 1 0 0 1 0 2 2 1 0 1 1 0 1 0 0 2 1 0 1 1 1 2 0 2 1 2 0 1 0 0 1 1 0 0 2 0 1 0 1 0 2 1 1 1 1 1 1 0 2 0 1 0 2 0 0 1 0 1 0 1 2 1 1 1 1 0 0 0 2 2 1 0 2 1 0 2 2 1 1 1 1 1 0 1 0 1 2 0 2 1 2 0 1 0 0 1 2 1 2 2 1 0 0 1 1 1 0 1 4 1 1 0 0 1 0 0 2 0 1 2 0 3 1 0 1 3 2 1 0 0 0 0 1 0 0 0 0 0 0 1 1 2 1 1 0 2 1 0 1 3 0 2 3 0 1 0 0 0 2 0 1 0 1 1 1 1 0 1 0 0 0 1 1 0 2 0 1 0 0 0 0 1 0 0 2 0 0 0 1 1 0 1 1 0 0 0 1 1 1 0 1 2 0 0 2 2 0 1 0 0 1 0 0 1 2 0 2 1 0 1 2 0 1 1 0 0 1 0 2 2 3 1 1 1 1 1 0 1 0 2 0 2 0 0 0 0 1 2 1 3 2 0 0 2 1 0 2 1 1 0 1 1 1 1 2 0 0 0 0 1 1 0 2 2 1 1 1 2 1 1 3 0 0 1 1 2 1 1 3 0 1 1 2 0 0 1 1 1 0 0 1 2 1 3 2 0 2 1 1 0 0 0 5 1 1 1 1 1 1 3 1 1 0 0 1 0 0 0 0 2 1 0 0 0 1 3 0 0 0 0 0 1 2 1 0 2 0 0 1 1 2 0 2 0 2 0 0 0 1 1 0 1 1 0 0 2 1 1 0 0 0 1 2 0 0 1 2 0 2 2 0 1 0 1 0 0 0 1 0 0 0 1 1 2 1 1 0 0 2 2 0 1 0 1 1 1 3 0 1 3 1 2 0 2 1 0 0 0 1 2 1 1 0 3 0 1 1 0 0 2 0 0 1 0 2 0 1 0 0 2 1 1 0 0 1 0 1 1 1 0 0 1 1 1 0 2 2 2 1 0 1 1 1 0 1 2 0 2 1 1 2 1 0 0 0 1 2 3 1 4 1 1 0 0 0 0 1 1 1 0 0 2 1 2 1 0 0 1 0 1 0 0 1 2 1 0 1 2 0 0 1 0 0 0 3 1 2 0 1 0 1 1 1 1 1 2 1 0 1 4 1 1 1 0 1 1 1 1 1 3 0 0 1 1 0 0 0 0 1 2 0 2 0 1 1 1 1 2 0 2 0 1 0 1 1 0 0 0 0 1 0 1 2 0 0 1 3 4 0 0 0 0 0 0 1 1 0 1 0 0 2 0 1 0 0 0 0 1 2 0 0 3 1 0 0 1 1 1 1 1 2 0 1 1 0 1 2 2 0 1 2 1 3 0 0 0 1 2 1 1 0 1 2 2 1 0 2 0 1 2 0 2 1 0 1 0 1 0 0 2 0 2 2 0 2 2 0 0 0 1 1 2 1 1 0 1 1 0 0 1 0 1 2 3 0 1 0 0 0 0 3 2 0 0 1 1 0 3 1 1 2 2 0 3 2 0 1 2 0 0 1 2 0 0 1 2 1 1 1 0 2 0 2 2 1 0 0 0 0 0 1 0 2 1 0 1 1 1 1 1 3 1 0 2 1 1 0 1 0 0 0 0 1 0 1 2 1 1 0 0 1 0 2 2 1 1 0 1 2 1 0 0 1 2 1 0 0 0 0 2 1 1 0 0 1 0 1 1 1 0 0 0 3 0 1 1 2 1 0 0 0 1 0 2 0 1 0 0 2 1 1 1 1 3 2 0 1 0 1 1 1 3 0 0 4 1 1 2 1 2 0 1 0 0 1 4 0 2 1 1 2 2 0 1 0 1 0 2 2 0 2 1 1 1 0 2 1 1 0 0 0 0 1 0 0 4 1 2 0 3 1 0 0 1 1 0 0 1 2 1 1 0 0 0 0 0 1 1 2 1 1 0 2 1 1 2 0 1 0 0 0 1 2 0 1 1 2 0 2 0 0 1 3 0 0 0 0 1 1 1 0 2 1 0 0 1 0 2 0 0 0 1 2 0 0 1 1 2 0 0 1 0 0 2 2 0 1 2 2 0 2 0 0 1 1 0 0 0 0 1 0 0 0 0 3 1 0 0 2 1 2 0 1 1 2 0 0 2 1 2 0 1 1 0 2 0 2 0 0 0 1 2 2 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 2 1 0 1 0 1 0 0 2 0 3 2 2 1 1 0 0 0 1 1 2 0 2 0 0 0 2 1 0 0 0 1 1 1 0 2 0 1 0 0 0 2 1 0 1 1 1 0 0 1 0 0 1 0 1 1 1 3 1 1 0 0 1 2 0 2 0 0 1 1 0 0 2 1 1 0 1 2 0 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 2 3 0 0 1 0 2 2 0 1 0 0 0 0 1 1 0 0 0 0 3 0 1 1 0 0 0 0 4 1 0 2 1 1 1 1 2 1 0 0 0 1 1 1 1 0 1 1 2 0 1 1 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 1 0 2 1 0 1 0 1 0 0 2 1 0 2 1 1 3 0 0 0 1 2 1 1 1 2 0 1 1 2 1 1 1 2 0 1 1 2 0 1 1 0 0 1 0 0 2 0 0 1 3 1 1 1 0 0 0 0 1 0 1 2 1 1 2 0 0 2 0 2 1 0 1 0 0 2 0 0 1 1 2 0 1 0 0 1 0 0 0 1 0 0 1 0 0 2 1 1 0 1 2 4 0 0 0 1 0 1 1 0 0 0 2 0 0 0 2 0 0 0 1 0 2 0 0 0 3 0 0 1 0 0 2 0 1 1 1 2 1 0 0 0 1 1 1 3 0 0 0 1 1 1 0 1 2 0 1 0 0 1 0 0 0 0 0 1 0 1 0 2 3 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 2 1 1 1 2 1 1 0 2 1 0 2 0 0 3 0 0 1 2 0 0 0 0 1 3 0 1 0 0 0 1 1 1 2 0 1 0 1 0 1 2 0 1 3 0 0 0 0 2 0 2 0 1 0 2 2 1 0 1 0 1 3 2 2 0 0 0 1 0 1 0 2 1 2 1 1 0 1 1 0 0 0 1 3 1 2 1 1 0 1 0 2 1 0 0 1 1 4 1 1 0 0 1 1 0 1 2 1 0 0 0 3 1 1 1 0 1 1 0 0 0 2 0 0 0 2 1 4 0 0 0 0 2 1 2 0 1 2 0 0 0 2 1 0 2 0 0 2 0 0 0 1 2 0 0 2 1 2 0 2 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 2 0 0 1 0 0 1 1 0 1 0 1 0 0 1 1 1 1 0 1 0 3 2 0 1 1 0 0 1 0 3 1 0 0 0 2 0 1 0 0 0 2 1 0 0 0 1 1 0 1 1 0 0 0 1 2 0 0 0 0 0 3 1 1 0 1 0 1 0 1 0 0 1 1 1 0 2 0 1 0 1 0 0 0 1 2 0 1 0 1 3 0 1 1 0 1 1 1 1 1 1 2 1 1 0 0 1 1 1 1 0 0 1 0 0 0 1 2 0 4 0 0 0 1 0 1 2 1 1 0 0 0 0 1 1 2 0 0 0 1 1 0 3 1 1 2 0 0 0 2 3 1 1 0 1 0 0 0 0 1 2 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 2 1 1 0 0 1 0 2 2 2 0 2 0 0 0 3 0 3 1 1 2 0 0 1 1 0 2 1 0 2 1 1 1 1 1 2 1 1 0 2 1 0 0 0 0 0 0 0 2 1 1 1 0 2 0 1 2 2 2 1 0 2 2 1 1 1 0 2 0 1 1 2 0 0 0 2 0 1 0 1 0 1 3 0 2 0 0 0 0 0 3 3 1 0 3 0 1 0 2 1 0 1 0 1 0 2 0 0 2 0 1 1 0 1 0 0 1 1 0 1 1 1 0 1 1 0 2 0 1 0 0 0 1 0 1 2 1 0 2 0 0 0 0 1 0 2 0 1 0 1 1 0 0 0 2 1 0 2 0 0 0 3 0 0 0 1 0 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 1 0 0 0 0 3 1 0 1 1 1 0 0 1 0 1 2 1 0 0 0 2 0 0 0 0 3 1 0 0 1 0 0 2 1 3 2 0 0 1 2 0 0 0 1 2 1 0 0 0 3 0 0 1 0 1 3 1 1 0 0 1 1 0 2 0 1 1 1 1 2 0 1 1 2 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 2 1 0 0 1 0 1 0 1 1 1 2 0 1 1 1 1 0 1 1 0 0 0 0 0 0 0 0 3 2 0 2 1 1 1 1 1 1 0 3 2 1 3 1 0 2 1 1 1 0 0 0 1 0 2 0 0 1 0 2 2 2</t>
   </si>
   <si>
     <t>Name</t>
@@ -210,12 +210,12 @@
     <t>R.Seals-Jones</t>
   </si>
   <si>
+    <t>J.Patterson</t>
+  </si>
+  <si>
     <t>D.Brown</t>
   </si>
   <si>
-    <t>J.Patterson</t>
-  </si>
-  <si>
     <t>J.Bates</t>
   </si>
   <si>
@@ -261,52 +261,52 @@
     <t>J.Slye</t>
   </si>
   <si>
-    <t>JSU(-16.966521279801484, 9.106978009914727, -48.33551532315683, 21.80386382257717)</t>
-  </si>
-  <si>
-    <t>21 17 24 7 20 27 17 20 20 30 17 34 13 27 19 27 16 10 14 17 7 27 14 20 21 35 27 23 31 17 14 21 34 27 21 15 20 13 26 21 7 24 24 10 6 14 33 31 16 27 20 27 30 16 20 24 10 21 28 18 13 17 13 29 15 20 28 24 14 31 25 29 17 10 19 38 19 28 20 31 23 30 0 34 35 27 16 28 45 13 21 14 17 19 21 16 21 42 14 24 34 10 35 23 13 15 10 34 41 27 17 24 27 27 17 14 20 42 31 17 11 16 13 16 21 13 20 16 24 13 24 13 9 24 16 20 35 31 6 9 29 19 31 25 24 15 27 23 20 20 28 27 33 14 30 34 23 13 27 20 10 17 24 9 17 40 13 34 16 19 24 10 13 3 20 38 16 24 11 23 20 13 13 31 13 17 28 27 26 31 29 28 10 13 7 14 24 20 14 16 27 13 31 33 50 17 24 17 21 23 16 28 14 14 19 20 20 24 21 13 13 10 14 9 13 19 20 27 17 31 28 30 13 25 15 14 27 27 17 21 17 17 38 34 10 21 14 14 6 6 22 16 17 38 23 10 33 13 19 21 16 17 17 13 10 10 17 31 29 17 12 24 16 21 33 20 10 31 14 21 27 27 28 10 9 10 20 27 14 31 13 14 14 30 20 24 17 10 16 20 26 24 11 10 33 20 12 31 14 16 19 17 26 24 30 24 20 27 17 21 17 24 14 13 10 23 17 25 24 20 26 22 21 27 28 24 21 23 31 16 16 34 10 20 45 27 14 13 17 18 13 16 20 10 20 14 17 14 37 10 27 9 23 20 21 20 24 13 20 28 20 33 30 16 24 26 27 12 17 10 14 20 14 19 22 16 13 17 16 13 3 20 19 23 7 31 13 31 17 24 27 24 27 19 7 21 28 26 21 16 21 6 17 31 17 20 28 16 21 31 7 14 31 27 14 17 29 23 24 28 6 35 13 25 14 24 26 27 13 27 31 20 34 17 15 17 19 38 7 24 28 34 28 23 28 19 24 16 20 20 16 33 20 27 17 21 24 20 13 30 24 13 13 10 17 17 32 30 19 30 31 16 13 24 27 28 31 24 24 30 27 13 13 23 23 27 16 27 34 20 9 16 23 22 20 15 34 19 24 23 24 9 27 24 34 44 17 17 10 24 8 31 13 20 24 16 19 3 13 41 17 25 13 35 10 16 21 26 24 27 23 35 10 16 28 26 31 31 27 13 23 3 25 13 21 13 16 3 13 13 7 17 31 27 20 27 10 16 24 10 19 34 27 13 20 14 31 29 13 35 31 27 31 12 27 35 21 17 14 15 31 20 27 13 14 35 13 21 11 29 31 13 17 16 3 10 16 33 24 35 20 23 49 7 27 31 20 16 24 23 7 14 35 16 16 23 14 12 17 28 31 15 38 24 17 21 21 19 21 21 11 28 14 27 17 30 31 35 21 10 16 34 22 19 28 16 17 17 3 28 21 11 13 7 21 35 13 23 40 6 6 23 19 14 20 31 13 27 21 31 31 14 14 19 19 18 25 23 24 17 24 31 24 17 20 21 20 13 27 20 14 20 20 30 17 24 10 28 14 16 31 17 24 35 24 33 24 17 13 20 23 27 23 20 7 13 23 27 13 9 32 17 10 13 33 40 17 17 13 6 20 30 20 16 13 23 24 13 17 37 18 26 5 21 19 31 20 13 27 34 24 34 19 20 26 17 20 31 33 17 8 9 35 16 17 13 24 14 23 28 20 38 12 35 6 17 27 21 22 34 27 21 37 23 16 19 20 26 3 28 24 27 13 14 21 20 27 6 10 13 24 12 23 19 29 7 31 21 17 10 14 24 27 17 27 20 41 24 31 16 20 15 17 21 20 24 19 34 23 26 24 16 6 27 20 20 10 27 10 35 13 20 31 24 16 13 31 13 24 23 16 10 14 13 24 17 34 37 28 20 13 18 37 13 30 27 24 28 21 17 24 21 28 21 35 14 14 17 31 31 20 26 24 19 24 27 12 28 10 20 14 6 17 31 23 35 22 17 13 19 13 19 21 24 23 13 21 17 21 9 28 10 18 21 24 20 10 17 6 22 7 23 26 30 28 7 24 23 17 16 13 13 20 34 23 17 20 27 13 16 16 10 21 20 17 17 17 14 22 20 26 33 26 13 13 16 9 13 19 23 20 20 27 27 27 37 16 10 35 34 13 17 16 13 19 22 23 16 12 23 21 38 12 13 27 14 16 24 6 16 23 28 31 20 28 27 20 28 23 19 28 36 31 24 15 20 12 24 31 10 23 20 10 24 21 20 14 31 14 13 17 20 17 21 20 28 7 10 17 30 17 27 12 14 34 21 15 41 20 27 24 16 33 13 20 10 10 23 17 27 42 30 20 13 20 31 17 28 41 10 27 28 3 24 9 17 30 23 21 14 21 17 11 43 16 30 6 40 17 38 16 34 17 17 16 30 20 17 22 10 7 14 7 21 7 14 17 27 14 23 24 24 31 17 26 30 27 10 20 20 33 31 30 34 41 32 40 21 24 20 21 26 17 10 31 7 31 24 17 10 14 14 21 38 19 13 10 31 12 28 16 24 38 23 34 23 20 30 17 9 14 24 16 24 33 16 34 31 17 31 30 20 16 27 30 20 16 13 25 19 17 26 6 24 17 34 27 33 16 27 24 23 24 13 14 14 30 24 14 25 35 24 34 23 3 17 3 28 27 21 29 17 21 28 3 6 24 27 8 30 21 29 20 20 12 18 19 17 33 9 14 17 21 13 24 38 24 7 24 7 31 18 21 27 24 24 10 17 17 42 23 34 12 18 17 20 24 30 14 20 27 25 21 12 20 30 30 27 15 20 16 8 9 22 20 17 10 35 34 3 7 17 31 10 30 20 23 20 24 31 16 23 27 16 9 13 24 31 24 9 17 27 17 10 10 28 13 22 13 24 28 3 23 17 3 22 17 26 30 14 9 20 26 21 10 13 17 13 13 15 19 17 24 3 34 14 19 12 24 24 13 33 21 30 27 24 17 34 23 17 17 23 10 10 20 24 22 17 20 12 16 14 17 13 24 13 0 20 27 6 13 24 24 21 20 14 20 7 13 20 16 14 10 20 24 27 31 13 17 6 20 37 28 24 30 17 35 9 27 22 20 23 20 24 31 17 19 16 20 17 28 13 31 20 27 24 21 20 16 27 24 17 24 23 17 10 17 17 15 35 23 9 24 20 18 9 20 20 15 14 18 23 3 26 35 23 14 20 37 20 31 17 19 20 10 24 27 17 30 21 30 17 14 20 17 14 7 24 13 21 24 23 17 6 21 33 13 10 23 3 16 27 10 14 13 29 20 16 32 7 13 28 13 15 23 27 31 21 27 27 13 17 22 20 3 27 23 17 30 20 27 35 31 45 13 24 6 3 16 14 14 33 34 17 32 27 17 10 30 3 16 42 20 28 31 37 7 3 27 24 28 24 20 44 20 16 22 10 20 24 20 16 24 27 28 13 10 38 19 13 28 23 31 6 9 17 24 29 9 24 27 41 27 13 34 23 23 17 24 27 25 10 27 19 24 26 14 21 24 25 30 15 33 24 21 17 19 13 13 21 20 44 10 38 17 20 10 8 27 13 23 42 29 16 35 24 20 16 31 10 20 17 9 25 23 38 7 10 17 27 9 34 26 14 14 23 23 19 23 27 19 27 20 14 21 7 38 26 40 26 18 23 20 10 18 28 10 29 17 35 28 7 26 19 11 6 14 10 17 15 17 11 23 20 32 24 22 20 26 19 26 16 14 17 24 3 17 22 20 14 24 28 24 13 22 24 28 20 31 13 26 10 16 24 28 24 24 26 30 27 45 10 29 15 14 30 9 24 24 21 15 34 12 35 17 6 30 20 20 27 31 16 24 17 31 23 30 17 20 13 6 17 17 24 30 38 34 17 22 24 7 27 38 14 28 21 15 9 24 23 13 23 22 16 21 17 6 27 14 16 18 28 23 17 26 16 17 33 21 6 16 17 22 20 20 14 30 30 17 17 27 23 24 35 22 23 20 16 27 24 23 16 23 10 13 41 14 16 19 28 12 27 38 27 21 23 7 19 22 14 20 16 24 20 21 21 31 17 10 23 19 21 24 24 13 24 21 28 13 25 31 38 20 24 1 13 24 20 13 9 24 30 26 7 18 7 31 28 16 16 12 24 22 27 17 23 19 31 29 34 38 28 17 16 13 45 17 20 20 26 30 21 20 17 27 14 14 35 19 27 20 28 15 24 24 13 30 17 35 14 23 21 20 27 24 24 13 10 13 20 29 24 10 17 37 44 14 16 19 21 10 26 20 21 17 27 14 17 35 20 18 14 27 27 18 23 20 11 12 19 17 20 17 13 20 21 16 10 24 21 26 30 36 18 22 27 10 27 20 24 12 12 13 14 7 10 35 31 3 31 23 24 21 21 27 32 21 24 21 19 17 24 34 21 30 27 27 7 23 12 20 17 9 18 13 28 10 20 33 21 23 13 10 16 10 13 24 29 20 35 30 20 30 22 45 30 13 24 27 24 31 20 20 19 37 24 29 28 14 17 23 27 31 9 7 31 13 20 27 21 24 25 30 24 28 16 18 3 20 17 31 7 31 19 27 17 16 10 22 20 21 24 31 17 20 14 20 24 28 20 14 20 24 36 20 19 23 20 20 20 41 25 13 8 37 13 35 7 18 16 16 31 13 10 19 17 24 51 14 20 14 20 21 33 17 24 12 24 27 10 28 7 24 35 24 20 10 24 31 34 13 17 27 20 25 31 19 7 27 13 21 26 31 27 20 27 45 27 21 24 24 22 19 25 31 15 16 6 28 20 26 19 17 17 13 16 20 13 17 17 23 10 14 19 19 20 26 24 21 13 34 9 24 14 20 10 13 17 20 14 36 20 6 13 9 20 22 27 24 21 34 23 10 16 17 6 10 20 24 16 21 24 28 13 22 10 17 29 30 9 20 28 28 24 33 17 24 31 23 18 10 31 20 17 20 28 15 13 16 31 9 6 14 17 24 3 13 17 14 13 17 20 19 20 21 20 19 28 28 16 23 41 27 12 14 24 24 14 13 38 21 24 23 27 24 16 23 13 20 20 23 21 38 17 10 28 17 14 20 24 10 13 27 9 21 17 45 24 23 20 23 20 20 31 31 20 28 23 9 12 13 0 24 19 21 10 20 14 17 7 28 13 24 30 16 34 26 41 23 20 12 16 23 14 20 19 7 19 31 15 41 20 8 24 24 14 24 27 28 17 14 14 21 13 24 30 10 27 24 22 24 40 10 33 17 20 22 17 6 17 9 23 24 31 24 10 15 19 24 33 28 14 24 24 15 26 13 27 17 7 26 17 24 20 17 20 17 20 20 23 27 27 10 21 42 7 9 30 14 24 21 20 21 13 31 17 20 35 37 14 34 17 28 28 17 24 17 6 16 20 26 21 13 10 23 20 6 23 30 27 35 20 30 24 27 7 16 17 23 33 33 10 27 19 18 22 17 21 20 17 23 16 17 24 12 21 13 31 19 34 17 27 23 6 23 14 10 16 26 19 8 16 7 21 13 23 12 27 13 30 32 19 24 19 28 7 17 21 20 41 21 21 7 10 20 24 20 20 30 20 7 24 13 24 20 27 6 31 10 35 13 24 27 13 27 24 21 20 28 22 31 14 31 10 3 17 24 28 7 27 17 31 23 17 20 24 21 7 20 20 34 13 17 10 23 24 19 27 19 21 20 6 24 7 31 22 37 34 20 24 9 10 10 20 19 7 6 14 16 36 24 35 30 14 10 41 16 27 23 17 26 14 18 20 18 9 38 22 17 9 17 23 28 30 19 11 16 13 24 17 19 27 28 41 34 34 7 13 21 17 27 15 20 16 24 17 12 25 24 10 34 23 18 24 17 38 17 23 17 23 23 14 34 6 31 24 14 18 20 10 28 17 25 38 19 31 16 10 6 17 12 24 13 27 21 25 17 7 30 10 23 10 17 34 13 14 11 17 13 17 6 23 21 28 24 13 23 20 14 17 30 17 18 28 27 13 23 16 23 20 14 10 20 21 31 20 10 24 27 10 29 12 23 17 24 23 10 23 7 35 30 16 23 13 7 15 24 28 25 20 37 9 20 22 21 33 17 6 23 20 23 14 24 27 20 10 21 17 35 17 20 16 31 16 23 31 13 13 9 3 17 20 20 2 24 6 28 6 10 10 28 17 27 20 13 14 21 18 34 34 17 20 17 22 24 28 34 27 16 13 21 27 7 10 30 17 21 9 28 16 6 17 24 16 13 20 24 20 10 25 19 7 19 24 13 14 27 23 19 26 18 17 26 7 17 19 16 21 6 24 20 13 15 21 28 16 31 14 23 21 17 16 16 23 20 34 16 20 27 25 31 24 20 20 27 24 14 23 14 20 28 19 24 24 30 16 29 28 21 17 9 45 9 27 14 24 20 6 17 17 24 17 16 14 31 17 9 14 24 20 16 23 20 20 17 16 24 28 34 12 23 29 28 28 20 20 13 37 16 38 21 21 30 17 24 31 17 31 22 17 24 17 24 34 16 18 23 17 20 20 27 20 27 9 14 13 13 13 21 35 24 27 27 31 17 19 6 20 21 17 17 9 21 17 34 26 17 14 28 31 27 10 14 20 13 14 24 27 13 27 16 42 13 27 9 8 20 7 33 24 21 23 14 15 34 14 13 29 17 13 27 27 13 21 17 31 20 17 10 27 31 17 16 13 17 17 23 28 17 24 18 17 23 24 20 24 14 20 35 21 18 23 13 42 26 13 14 27 23 10 30 9 19 19 14 24 31 32 24 36 35 16 24 24 24 24 16 34 19 38 24 16 21 31 24 37 27 31 17 37 27 10 26 23 20 6 33 13 27 28 17 29 20 27 28 17 30 26 16 30 21 10 35 17 15 16 14 16 21 26 24 20 28 17 24 19 7 13 16 26 35 21 14 9 38 7 27 15 15 32 16 11 13 20 27 20 24 10 14 14 19 27 13 20 21 34 29 14 17 10 10 31 20 28 20 17 19 17 10 28 24 26 24 17 17 20 20 13 24 27 20 7 17 35 13 20 10 27 16 30 17 24 7 10 45 9 12 27 20 14 34 21 13 19 34 24 20 10 27 20 20 24 17 13 24 14 10 18 13 36 42 19 24 27 42 23 13 18 14 14 23 20 19 14 21 20 28 24 3 21 13 19 17 10 30 20 20 23 30 27 6 17 26 24 31 27 17 28 22 21 28 21 7 28 16 20 7 16 31 14 14 20 10 23 17 20 20 6 18 28 10 21 13 19 14 24 3 30 13 6 17 30 28 13 17 6 3 20 31 7 27 24 6 17 13 45 21 41 20 23 23 34 24 35 10 10 20 17 23 8 20 30 15 28 22 28 31 41 35 24 31 20 24 20 23 16 18 27 10 38 20 24 23 12 27 34 16 10 28 7 27 15 6 14 31 20 21 21 26 37 18 25 20 20 26 17 21 24 27 23 21 12 14 17 27 37 30 31 34 14 16 30 34 6 24 9 17 31 14 16 19 17 23 24 17 22 21 24 34 16 21 23 24 24 14 21 42 14 13 13 26 29 16 34 34 10 19 19 14 30 30 21 14 28 13 28 27 14 3 10 14 21 33 7 27 27 33 30 21 27 10 16 13 13 27 17 41 34 12 10 28 34 13 26 6 16 16 26 19 17 13 24 20 10 20 23 16 23 28 24 20 14 20 16 6 27 19 16 21 24 21 23 20 14 33 27 14 34 13 20 20 20 21 18 27 17 10 22 25 15 6 15 16 17 14 21 24 14 6 24 14 20 10 20 20 7 32 21 26 34 17 10 10 27 31 10 9 34 30 24 13 35 23 24 25 18 44 13 37 12 27 14 20 20 17 33 17 26 24 10 13 6 27 13 17 23 27 15 17 14 23 10 12 17 13 13 31 13 30 21 14 20 20 23 9 23 13 21 11 33 21 23 24 14 21 20 27 27 14 27 12 27 21 27 20 17 20 31 24 28 27 17 10 10 16 15 16 31 21 21 23 22 35 20 24 20 16 27 20 27 24 28 26 9 24 13 30 17 31 24 17 33 20 10 24 20 28 19 23 20 26 10 13 24 24 27 18 22 18 18 20 33 35 19 20 21 7 14 17 34 26 22 28 27 23 21 7 13 23 27 14 16 16 45 30 17 28 38 13 34 24 27 24 10 12 10 24 14 26 12 28 14 26 20 27 13 28 13 24 10 24 17 24 37 24 17 15 38 27 24 28 43 24 10 22 23 15 13 23 20 14 14 30 28 22 28 16 20 17 27 26 13 17 20 17 14 19 17 28 14 28 20 24 17 14 21 32 20 24 28 17 31 23 21 52 26 20 27 31 6 20 9 16 28 31 34 14 20 21 13 27 0 20 23 15 20 17 10 10 17 17 24 17 13 10 24 16 27 16 16 21 27 31 23 20 21 20 17 37 13 28 23 16 20 24 24 7 26 21 24 24 19 20 22 24 23 23 20 26 15 23 10 20 21 17 31 22 6 22 3 16 10 23 23 24 15 7 21 20 28 21 16 10 14 27 3 26 14 24 24 17 13 19 24 23 38 27 18 9 14 34 20 22 27 20 26 20 13 20 19 27 17 10 17 20 23 24 25 27 19 24 21 28 3 41 7 17 34 20 17 10 10 41 13 23 31 13 28 16 24 15 19 9 33 20 13 15 27 31 19 21 24 30 17 19 17 20 14 20 20 21 31 26 27 25 27 10 31 23 20 31 18 18 44 13 13 3 16 37 14 13 20 24 16 21 6 20 16 17 13 13 20 16 18 28 13 9 22 14 28 17 34 13 7 10 3 13 3 24 13 14 10 22 20 17 12 37 14 24 16 24 27 10 17 10 20 28 35 6 27 35 33 26 22 17 17 21 34 30 26 27 24 27 15 12 27 14 9 30 20 41 31 35 17 45 27 20 24 13 24 28 10 32 27 20 28 16 24 17 10 24 34 23 13 31 24 23 9 14 27 30 11 10 24 22 24 18 19 17 31 16 16 55 20 14 20 3 16 20 24 28 35 21 10 13 23 3 24 13 17 24 10 28 24 23 13 21 31 24 21 31 13 16 13 31 17 28 24 23 13 31 17 28 6 21 7 38 17 16 27 17 27 13 45 17 23 20 31 10 31 17 28 6 21 23 27 17 10 21 12 24 9 21 20 35 14 13 35 16 24 19 24 24 34 23 3 10 17 26 12 16 17 17 29 24 16 21 30 16 17 30 13 19 34 20 7 30 16 31 17 27 40 27 18 33 20 22 6 7 13 28 40 23 12 17 19 17 13 26 24 20 20 13 24 24 17 24 42 20 28 24 7 3 20 31 24 10 34 13 21 23 9 14 7 21 6 20 20 24 27 23 28 16 33 20 10 35 19 24 16 0 24 23 10 13 17 33 20 22 13 19 14 24 6 23 20 38 35 10 23 38 10 33 31 28 13 20 13 27 22 14 35 20 20 31 25 13 17 13 13 24 9 19 3 10 17 30 31 23 16 20 17 16 23 7 16 22 3 24 25 20 23 17 24 17 30 24 27 35 29 27 12 17 20 20 31 24 27 24 24 26 17 26 16 31 16 14 31 7 14 10 24 17 13 6 17 17 14 10 27 20 10 17 17 30 13 16 27 24 25 13 20 37 13 30 37 21 35 27 24 23 29 10 7 14 16 3 6 15 17 20 13 15 24 9 9 24 31 27 13 14 28 16 20 17 28 14 29 9 22 18 20 6 20 24 23 28 17 34 24 24 27 16 34 34 38 13 24 27 27 3 24 10 21 20 42 20 24 23 9 17 20 20 31 10 20 30 30 31 38 33 27 13 23 35 23 24 27 23 17 20 23 14 27 10 23 12 13 21 9 20 20 27 30 27 19 20 17 28 15 23 12 20 38 34 14 30 17 28 19 16 24 11 27 21 17 14 35 34 28 16 10 28 24 21 20 31 19 14 17 17 19 20 6 11 21 23 23 24 13 34 26 17 24 24 20 17 24 21 17 38 9 16 23 7 38 24 14 21 31 38 37 19 17 10 17 17 24 19 24 35 14 12 21 14 6 21 17 38 12 13 27 13 42 20 13 19 27 21 20 24 21 6 6 16 11 40 38 27 30 24 17 7 34 17 23 28 24 9 14 27 31 10 21 20 16 24 18 23 28 20 23 31 10 3 16 24 13 20 19 37 14 31 13 13 16 23 17 17 31 8 20 18 9 13 27 29 24 14 10 13 18 36 24 22 20 27 34 23 33 17 13 24 27 13 27 28 17 27 16 24 20 20 20 31 28 24 20 31 17 13 34 27 20 28 25 41 14 20 37 22 21 17 15 17 10 13 23 21 14 28 14 27 21 28 14 21 23 31 27 28 22 31 17 21 17 19 17 15 0 13 16 23 19 27 20 16 45 23 10 30 13 20 22 17 13 36 13 20 28 27 35 17 17 16 27 24 31 35 17 17 13 33 9 23 24 23 20 17 19 12 35 20 10 27 13 24 20 21 23 14 38 21 27 16 13 23 27 17 16 23 16 16 41 10 20 22 14 27 3 33 0 6 21 10 13 17 9 26 19 21 29 10 20 14 23 23 17 20 14 23 22 17 4 27 28 13 13 30 20 19 30 10 21 23 10 20 10 38 23 14 10 16 26 38 20 47 18 13 38 20 27 28 30 13 23 21 18 19 10 27 0 30 25 19 22 34 27 10 21 24 26 16 24 20 24 20 14 14 15 14 20 10 27 17 14 19 19 21 30 21 10 26 13 17 32 38 13 17 14 19 20 14 30 10 13 25 20 13 17 17 22 16 20 6 34 27 28 19 10 28 20 10 14 26 37 26 24 7 26 16 21 18 20 31 23 13 21 24 17 17 10 10 24 24 21 35 38 21 17 12 23 20 27 17 27 17 10 13 24 17 15 7 26 20 19 10 17 31 27 20 12 24 16 31 27 14 16 24 28 10 13 20 17 21 28 24 23 20 38 17 12 16 17 24 17 28 17 17 17 23 31 8 10 13 10 20 10 29 31 41 10 10 13 28 9 30 27 26 27 30 10 34 24 17 10 18 24 27 12 24 23 6 20 20 19 24 13 23 23 10 3 13 30 14 21 23 17 30 16 21 17 33 24 23 27 13 48 9 21 16 17 31 6 16 28 18 17 3 29 23 10 17 27 24 20 20 17 20 17 7 20 17 24 23 24 23 19 20 20 20 29 24 31 20 24 34 12 34 14 31 23 20 20 19 26 21 18 6 28 7 34 31 10 14 34 20 10 17 10 18 16 24 23 10 20 14 29 27 24 27 17 22 12 19 14 19 21 24 19 21 21 6 17 23 15 24 14 17 19 19 16 23 24 23 27 22 17 20 16 13 20 29 17 20 28 17 7 18 26 19 35 33 7 10 17 24 9 13 20 17 16 17 17 16 30 17 16 17 24 31 17 20 13 17 23 20 31 10 20 14 16 33 34 16 20 34 10 16 30 20 28 19 35 27 34 21 30 27 23 37 14 9 20 14 17 14 26 12 22 14 16 22 25 17 24 31 13 18 20 17 26 20 26 3 27 24 27 28 6 22 28 9 11 30 28 23 27 9 31 13 29 20 33 10 17 31 16 27 20 10 22 17 0 14 28 24 10 27 14 21 9 24 10 24 31 7 14 10 20 14 16 23 18 22 13 10 19 18 6 30 20 29 16 34 23 29 27 15 16 17 16 9 14 23 24 13 23 10 18 16 10 20 16 17 10 13 31 19 23 24 21 24 19 20 14 17 20 12 17 21 16 24 17 13 20 21 27 28 21 27 16 15 21 17 31 26 7 17 18 3 17 0 16 19 38 31 9 14 31 27 19 20 21 38 7 20 27 10 10 17 26 24 21 6 26 24 16 31 12 20 27 24 16 31 10 19 13 13 20 10 17 19 31 14 7 26 17 19 27 24 6 14 13 28 24 21 17 24 21 23 16 14 20 28 33 9 24 16 21 27 16 28 12 23 17 20 42 20 28 24 24 24 14 14 9 20 13 23 23 24 27 22 10 27 35 10 21 17 17 21 24 14 14 14 22 27 27 42 17 17 16 13 24 26 37 6 20 24 24 26 23 14 30 38 16 20 31 41 26 10 7 13 35 0 34 17 34 22 27 13 20 24 30 21 27 34 31 22 0 17 13 17 17 10 24 21 10 7 13 14 14 23 24 30 23 28 14 9 10 20 26 21 20 13 24 20 28 18 23 28 34 21 22 14 16 17 24 27 22 17 35 22 20 42 17 13 17 34 17 20 34 10 17 14 17 20 33 17 37 27 24 30 17 31 20 22 10 8 17 31 31 27 14 24 10 21 27 27 35 32 21 20 21 24 27 27 20 13 13 30 17 12 18 31 14 35 24 13 20 17 6 16 16 17 30 10 13 17 3 21 21 13 27 22 13 7 12 13 14 28 17 31 17 21 34 20 17 24 24 27 10 21 7 21 17 10 37 23 28 30 10 27 24 23 17 3 24 15 20 24 21 31 20 24 20 21 3 17 22 24 24 6 14 21 31 17 10 34 17 16 21 35 22 24 20 38 13 21 10 24 13 14 13 20 24 31 34 16 26 10 3 19 28 35 7 20 31 7 34 22 31 20 20 27 30 10 27 33 13 23 10 19 10 23 34 14 13 24 17 21 31 21 17 19 16 25 6 24 10 10 27 17 30 34 16 30 13 22 10 17 10 16 17 27 23 30 24 6 15 10 20 19 10 17 15 14 23 14 13 20 20 14 30 27 19 7 16 30 10 31 25 26 28 38 23 21 13 21 26 24 31 3 27 25 20 20 45 21 10 21 26 21 3 24 20 18 17 14 7 24 20 29 21 31 17 20 33 23 24 25 16 13 24 27 21 22 23 38 20 17 28 36 21 6 37 16 23 21 33 12 14 23 31 38 3 23 17 17 16 31 17 22 19 19 7 27 23 20 34 23 10 20 20 31 28 33 24 31 24 17 24 24 17 24 17 13 7 33 38 13 24 17 20 28 7 16 11 16 10 20 17 26 38 17 13 30 28 10 13 28 10 23 17 41 20 35 55 14 13 19 24 23 22 27 27 17 20 31 23 20 23 20 24 13 20 7 21 24 27 20 21 24 21 17 6 45 31 23 16 17 20 17 13 24 14 30 26 16 24 10 28 34 27 13 7 11 20 10 23 17 19 19 10 23 27 20 16 13 34 27 30 35 7 23 29 10 26 20 29 20 14 14 21 9 24 21 13 20 23 36 27 11 31 38 10 28 20 23 23 35 16 10 23 20 14 13 31 14 13 27 5 35 17 34 10 14 21 21 13 17 14 10 30 20 3 30 24 21 24 9 29 20 17 14 10 17 28 16 14 15 24 28 22 7 45 23 34 7 21 23 24 22 9 9 24 23 9 7 31 23 14 17 17 10 9 16 10 9 24 21 14 17 14 13 23 24 16 19 10 20 17 21 19 31 31 30 13 13 14 20 27 34 26 21 7 21 30 40 7 24 23 30 24 20 24 24 24 10 28 7 20 10 17 10 21 24 14 12 28 24 17 21 13 19 13 22 21 16 23 17 31 37 37 20 12 37 13 20 28 14 21 29 28 7 20 23 28 24 14 24 24 20 13 19 10 21 21 17 19 13 14 10 23 26 22 20 26 10 16 17 20 3 7 17 17 24 35 10 17 27 6 23 37 23 38 24 17 10 20 9 13 13 3 6 24 24 19 18 20 27 35 6 27 6 26 13 30 27 24 27 27 17 17 27 14 31 23 34 26 19 14 28 17 38 27 13 21 19 3 17 27 24 37 31 21 31 16 20 16 27 27 21 27 24 26 27 15 14 19 19 27 28 34 20 20 14 16 31 3 34 15 31 44 22 23 21 15 31 17 21 26 21 20 16 13 20 23 41 10 26 12 19 19 22 20 20 23 17 38 34 17 30 24 27 29 19 28 16 30 17 27 34 6 20 20 31 21 27 10 30 10 23 30 16 24 24 10 24 27 31 19 20 10 17 23 14 27 7 27 7 14 10 6 13 19 13 30 13 24 23 17 17 24 27 14 27 40 34 38 34 19 6 20 17 31 9 23 24 27 7 24 17 10 27 41 19 13 17 24 26 14 16 20 30 11 42 16 27 19 20 27 19 31 24 31 20 31 20 17 13 26 24 16 20 26 20 13 30 20 13 13 20 16 20 21 16 14 17 24 10 20 24 41 20 16 13 24 17 21 7 28 20 12 26 34 20 24 20 24 16 13 34 20 13 32 17 20 20 24 29 15 17 19 17 38 45 34 19 27 30 20 3 13 6 13 24 17 16 10 21 10 28 23 16 30 20 33 13 24 24 17 13 15 23 14 27 24 16 22 26 16 24 22 32 17 14 23 27 14 24 14 21 17 13 12 31 20 20 31 24 34 20 21 31 7 14 23 17 22 20 14 30 21 20 20 24 16 33 24 17 24 17 3 17 24 21 23 17 24 17 5 24 20 12 29 26 12 28 17 24 21 17 24 25 19 24 20 14 16 14 16 23 7 23 23 30 10 23 22 23 27 16 20 21 21 17 13 33 9 21 20 42 21 10 21 33 14 23 26 26 24 21 17 28 19 34 14 9 18 24 20 13 20 23 31 37 28 16 20 13 23 13 13 34 17 6 24 27 13 20 20 16 25 28 27 9 17 11 30 26 23 20 30 20 19 34 26 20 10 15 27 34 19 38 34 19 17 17 27 19 7 20 31 13 34 27 23 29 18 9 23 26 20 27 29 38 13 6 24 23 31 10 24 14 17 24 30 27 27 3 21 34 34 15 10 6 10 20 27 17 28 29 26 27 28 34 27 19 16 20 31 18 9 15 23 41 27 28 36 34 16 7 14 15 7 6 10 20 24 38 29 19 14 29 14 30 44 12 16 23 34 14 24 21 20 17 13 20 17 26 21 24 13 34 41 27 17 13 13 27 19 20 20 28 26 13 14 10 14 14 14 21 3 28 3 12 13 7 10 13 20 17 15 20 23 27 3 17 18 32 27 31 21 31 24 16 17 17 17 18 15 21 16 17 3 9 24 16 17 24 22 31 20 23 13 16 17 7 10 21 17 21 23 34 21 17 27 3 17 17 14 34 3 21 27 17 28 20 31 24 13 31 16 13 16 16 21 7 35 13 14 37 22 20 10 13 17 20 19 6 24 14 21 13 24 31 28 23 3 38 23 21 13 13 23 19 24 13 24 12 24 21 34 28 20 13 17 20 17 23 17 17 26 35 13 20 24 23 31 13 27 23 17 23 24 17 23 24 13 13 6 27 17 19 10 23 27 13 20 20 16 13 19 23 17 27 28 20 6 31 10 20 45 17 20 33 20 14 10 20 21 35 23 31 24 30 24 7 27 20 20 20 10 18 33 21 26 17 20 28 10 28 10 38 20 14 14 10 16 18 6 11 17 38 35 24 13 29 16 17 10 24 20 26 27 24 31 17 28 14 14 19 20 17 16 16 14 26 13 17 14 24 30 16 16 13 29 31 20 27 24 13 13 7 20 13 31 20 10 21 23 19 30 21 13 3 13 20 10 22 18 21 33 20 27 35 33 20 21 13 20 21 30 20 14 26 26 23 10 10 22 10 23 19 17 7 26 24 33 24 24 19 12 21 35 20 24 14 28 23 17 14 10 27 20 16 8 16 23 21 13 30 23 21 13 27 16 23 17 13 21 28 13 21 14 21 18 13 17 21 6 14 17 27 28 22 16 23 27 28 26 10 31 22 27 17 20 28 13 24 16 9 24 24 10 23 20 10 16 17 17 28 6 3 27 16 11 20 7 20 23 24 31 20 19 7 17 22 20 26 0 27 27 17 3 17 20 19 33 20 10 10 10 3 16 7 13 30 13 13 30 21 17 30 14 6 24 9 13 17 10 19 31 30 16 17 28 34 6 16 20 34 40 12 10 20 17 3 13 20 17 19 20 6 20 31 18 37 21 32 23 13 23 20 3 6 17 21 19 20 17 23 6 23 27 24 31 34 23 35 24 34 24 28 34 10 13 41 28 34 17 16 7 20 20 26 11 23 27 16 19 45 24 14 24 3 20 27 23 17 17 30 23 27 19 16 34 24 22 28 13 20 21 19 10 21 3 31 25 24 21 22 27 37 35 31 10 17 21 16 28 25 17 17 24 23 39 17 16 30 23 34 31 10 41 13 23 17 16 30 9 24 22 28 7 21 14 13 34 20 14 10 14 20 26 12 12 14 30 7 26 24 17 13 17 10 13 27 10 14 17 28 20 24 20 17 21 31 20 31 13 6 27 14 26 10 15 21 24 14 23 10 10 7 31 20 29 28 38 6 10 12 26 15 27 21 26 24 31 17 14 10 24 26 6 21 18 16 17 10 24 16 9 21 34 23 13 21 14 7 24 17 27 24 41 24 10 20 28 20 27 3 31 6 29 20 0 14 24 16 22 26 10 6 14 16 11 17 30 32 20 19 24 24 17 27 14 13 28 13 10 19 25 30 17 16 0 29 19 16 10 14 27 17 35 16 28 10 13 10 34 17 22 33 17 31 34 22 33 20 7 13 21 29 29 33 30 34 10 26 13 24 14 31 24 3 13 19 31 7 23 27 20 23 24 14 21 19 31 22 21 41 14 28 34 20 20 21 16 14 20 28 10 7 29 20 21 34 20 34 24 30 17 10 12 23 28 26 18 38 19 28 17 14 17 30 10 26 34 37 3 13 13 19 30 20 20 14 3 17 20 17 23 20 28 24 38 31 20 24 20 38 23 17 17 3 13 25 27 31 17 21 9 20 34 10 42 24 20 20 42 14 14 23 17 24 28 34 41 23 17 27 26 42 10 24 21 27 7 24 28 19 24 31 31 17 17 10 20 23 28 17 21 13 31 31 27 29 16 24 18 17 24 41 23 27 24 6 23 24 9 34 6 35 24 21 20 13 30 16 24 17 33 17 24 20 21 20 10 24 24 16 48 16 14 27 44 20 24 38 24 31 20 10 35 17 21 26 26 23 24 28 31 34 20 17 20 14 14 10 24 14 13 20 31 24 21 27 16 9 21 16 27 10 13 17 16 24 34 10 24 26 27 26 31 26 27 10 27 24 21 10 13 16 22 9 7 16 16 12 28 20 13 0 17 20 13 23 20 13 14 20 7 24 28 33 26 17 14 10 13 9 28 21 28 23 21 26 20 13 21 12 7 13 7 34 14 24 24 23 21 41 9 24 27 47 14 24 24 20 10 17 17 26 17 20 7 30 31 10 23 14 17 17 17 30 21 20 24 16 19 28 19 30 26 20 23 20 27 13 23 21 31 29 17 17 10 13 14 28 23 30 20 20 31 28 16 13 23 24 30 30 19 23 17 16 9 6 29 20 10 35 26 27 21 17 13 42 10 13 33 19 7 30 29 30 21 14 17 12 27 16 10 27 24 20 19 17 25 20 14 14 17 14 24 33 15 16 17 28 23 15 16 27 20 19 21 17 27 24 3 10 7 31 17 23 28 10 21 38 20 34 10 24 41 24 17 17 20 13 28 21 24 20 34 17 21 24 24 37 26 20 19 24 9 6 24 19 37 17 31 37 7 10 18 18 14 17 24 16 17 34 9 20 10 30 10 31 22 27 45 3 23 23 10 45 17 23 18 24 12 17 17 44 24 21 16 6 15 26 9 24 24 24 21 31 21 20 20 20 21 38 30 31 21 20 22 27 24 42 14 13 13 30 23 26 24 17 16 23 27 28 17 36 22 14 13 17 20 13 17 25 23 7 34 17 27 23 14 28 24 20 13 28 14 23 31 24 6 23 23 23 31 10 28 20 14 21 30 27 10 10 24 31 14 36 13 17 17 20 13 10 31 14 10 17 23 17 22 13 27 17 17 21 6 17 30 21 34 21 10 18 17 10 31 17 20 17 20 10 13 20 16 23 27 14 31 7 20 29 13 27 24 10 31 17 16 27 12 33 20 24 12 21 14 6 24 20 34 32 27 7 38 34 27 23 21 26 23 16 27 20 35 16 18 31 17 9 7 20 13 17 28 13 21 7 17 23 15 10 20 30 23 23 31 22 14 17 21 31 24 20 10 17 24 21 17 34 10 17 34 28 22 23 13 21 17 20 23 24 26 20 17 13 14 13 20 16 17 24 26 21 13 17 9 23 37 23 29 20 20 20 38 14 13 13 16 6 17 17 20 17 10 18 33 24 17 23 20 13 30 20 23 27 20 17 28 16 34 26 16 20 21 23 12 27 14 23 24 14 20 12 10 13 17 28 24 16 35 28 31 8 16 25 10 13 27 16 19 17 7 27 31 17 20 24 3 10 20 17 21 17 22 31 6 14 9 20 37 13 27 29 30 28 17 31 24 17 21 34 24 26 30 13 20 23 27 10 20 10 23 34 24 17 14 20 24 16 41 20 17 16 35 17 24 20 9 55 17 24 7 27 21 26 23 10 15 21 31 24 24 7 17 13 35 15 10 3 14 17 18 26 21 31 24 17 23 27 9 13 13 34 35 24 38 23 17 19 28 20 14 10 10 24 20 17 25 33 29 6 9 19 16 41 20 7 22 6 10 14 24 21 31 23 17 16 16 23 6 30 16 12 24 31 21 13 13 12 16 20 13 27 27 16 15 9 10 22 27 10 31 38 22 23 10 12 17 14 22 17 17 12 29 29 26 23 23 26 13 49 20 18 10 35 34 27 19 33 7 30 23 16 38 21 30 30 20 19 48 21 10 28 17 16 21 20 7 16 23 37 24 26 16 15 20 19 31 10 16 6 27 20 23 20 13 21 24 14 10 23 16 26 20 26 13 13 16 20 20 10 23 14 19 27 22 19 14 31 20 19 20 23 24 16 17 17 10 10 16 40 28 24 17 24 30 23 31 14 7 24 14 20 16 31 24 27 28 13 21 23 23 20 20 27 19 30 20 33 7 20 16 17 14 13 17 20 9 20 24 13 23 35 13 17 38 34 27 24 18 10 10 24 23 15 23 13 23 20 20 20 24 38 20 9 34 20 30 31 29 35 24 17 25 30 24 24 11 17 13 13 24 20 17 13 45 27 20 27 15 17 13 20 10 14 16 10 24 20 35 31 13 27 31 27 13 16 13 17 17 24 20 8 38 13 20 24 13 10 0 24 37 14 29 30 30 21 24 20 20 17 27 27 27 13 29 24 27 26 34 17 10 14 27 20 17 21 24 30 28 19 17 16 27 19 23 16 30 28 34 15 19 7 23 24 14 14 20 12 27 14 27 10 16 30 3 20 11 6 10 17 19 36 21 8 13 30 19 19 20 28 19 20 31 29 23 16 21 40 10 21 21 9 17 10 10 28 20 23 10 20 49 13 31 14 26 17 15 17 26 27 35 9 13 34 20 27 13 17 22 17 17 31 10 17 17 17 20 19 18 10 49 14 23 10 12 20 10 29 20 14 17 10 25 7 13 34 17 13 17 17 17 21 9 20 12 19 13 23 24 16 14 9 15 23 15 27 19 10 14 18 27 26 24 16 24 9 24 16 17 31 24 19 24 7 23 16 11 17 17 17 21 30 23 13 13 14 22 24 7 17 21 20 20 27 24 20 26 20 17 17 20 9 10 37 18 16 3 17 24 13 13 20 5 24 14 10 6 14 19 14 16 40 17 17 23 23 10 13 26 37 26 24 29 26 36 10 19 27 17 17 27 17 17 15 17 27 9 37 13 24 27 31 30 31 20 3 23 23 17 21 28 17 31 31 27 20 3 31 35 3 31 24 38 21 17 21 24 14 21 30 18 31 23 22 24 24 27 24 19 19 23 10 20 17 27 14 12 13 13 20 27 17 28 17 20 24 21 27 27 14 20 21 23 27 23 20 31 19 28 31 34 24 21 21 13 17 24 34 15 20 26 12 23 19 14 27 23 24 23 16 17 23 16 27 19 28 16 12 20 17 12 27 9 25 44 27 3 45 6 27 20 30 24 24 26 20 8 14 23 31 29 21 3 27 11 41 17 23 20 30 31 0 20 36 28 33 17 30 24 27 14 24 31 18 17 23 7 19 17 19 28 42 20 10 23 27 13 20 28 22 14 17 36 16 21 27 23 30 17 21 27 16 20 23 14 20 6 27 9 23 16 15 9 31 20 16 17 20 27 26 31 26 27 16 30 14 26 29 15 17 17 15 16 14 17 10 20 21 20 17 19 18 27 20 31 13 17 13 13 30 21 16 14 20 21 20 31 20 37 13 18 10 30 17 27 21 28 17 12 10 14 28 15 25 29 24 7 9 33 12 27 17 24 17 21 7 24 17 17 14 31 13 13 16 6 17 13 16 16 6 38 24 21 38 13 17 14 24 7 20 13 17 31 23 17 28 31 20 29 12 21 10 23 20 14 28 21 28 24 27 20 23 17 18 24 20 31 23 7 13 10 22 21 27 25 21 20 21 10 16 20 17 20 27 28 31 10 20 22 17 17 49 20 24 23 37 23 19 6 17 24 27 12 24 38 21 28 10 23 24 14 21 13 12 14 13 13 16 35 31 20 34 24 26 21 21 29 17 19 26 14 24 28 14 14 31 18 19 13 26 20 14 17 7 17 20 30 24 17 18 23 23 8 31 21 20 20 29 13 24 14 17 14 24 23 21 23 20 27 19 17 24 20 9 23 12 37 27 26 29 14 45 17 10 3 17 21 24 17 27 17 27 3 14 27 14 13 13 13 34 27 14 14 31 34 27 27 30 20 3 13 27 24 3 17 16 23 16 14 17 21 20 10 19 24 27 23 17 30 3 27 17 30 27 10 13 42 34 17 20 25 20 34 16 13 10 21 26 13 30 13 14 22 21 30 40 21 31 18 23 14 13 21 27 6 20 19 16 35 3 16 23 24 20 6 20 16 9 20 31 16 13 18 23 41 21 34 13 3 14 31 17 23 23 31 14 40 13 16 16 20 24 35 16 16 17 35 29 36 18 27 23 10 26 6 17 17 30 24 20 19 24 16 34 21 30 17 24 21 38 21 10 24 28 20 16 22 14 37 27 27 46 20 30 16 10 24 35 26 37 16 13 13 27 34 7 24 20 24 13 37 16 27 14 27 14 10 23 10 10 6 17 27 41 23 14 33 19 7 31 14 23 9 9 38 30 14 20 24 12 21 15 26 14 15 17 17 24 24 27 21 13 17 14 17 36 38 27 10 15 13 10 24 19 31 36 10 23 20 17 16 27 17 18 11 7 20 21 24 16 9 24 17 27 14 24 20 29 27 24 24 10 22 23 13 22 21 9 21 14 23 17 24 20 17 24 17 34 10 24 17 26 9 32 13 37 13 26 26 21 13 27 31 14 23 20 41 10 20 13 17 28 27 23 42 27 9 35 20 17 26 21 27 24 24 20 18 10 28 31 34 14 17 27 24 10 17 7 16 3 17 24 13 28 10 10 35 27 17 13 24 34 10 20 23 20 27 17 24 17 18 38 10 10 31 17 17 27 17 17 13 20 20 19 13 23 30 3 16 28 6 24 30 13 21 20 13 20 13 20 41 14 43 28 10 37 27 20 17 14 16 11 20 13 20 24 35 23 23 16 16 34 13 23 10 24 21 31 17 27 16 20 17 45 16 9 14 35 27 17 6 29 7 21 28 16 17 19 27 16 17 19 34 19 22 31 3 38 20 36 27 17 23 31 3 31 27 23 10 27 27 14 21 24 16 23 18 23 21 15 17 17 20 34 24 20 7 31 29 22 28 17 24 27 20 16 21 26 24 29 20 24 23 16 41 31 17 16 20 20 10 19 10 19 23 37 30 25 24 17 31 27 14 40 17 27 27 22 21 34 19 17 17 17 16 26 6 16 26 26 20 13 19 16 21 30 21 13 34 16 21 13 14 13 35 20 28 20 20 19 27 26 16 23 19 20 30 14 31 23 10 20 20 28 6 35 21 19 31 20 30 39 21 17 17 20 8 16 21 15 12 14 20 17 17 24 27 9 7 20 10 14 14 25 22 24 22 24 28 21 17 13 27 21 24 21 24 13 23 13 23 21 27 40 24 19 28 9 21 30 6 23 14 10 28 13 23 12 38 19 27 21 13 13 17 29 35 13 15 17 17 14 24 23 24 14 17 17 18 17 14 14 16 23 40 24 13 22 27 7 20 13 23 20 20 9 23 24 24 12 13 17 10 19 26 19 23 21 9 6 24 17 15 10 13 20 29 30 6 17 15 22 18 22 17 17 18 37 31 6 10 23 13 17 24 17 17 26 29 24 9 27 14 28 14 10 26 23 17 35 0 17 21 24 28 19 6 14 10 27 31 20 26 23 13 17 23 31 13 24 16 23 16 20 16 14 20 6 17 12 19 16 24 17 35 14 16 16 19 12 38 20 21 17 17 31 24 28 41 9 17 27 20 17 34 34 20 27 20 20 13 20 3 24 19 17 19 20 20 31 28 22 20 27 23 20 10 24 30 13 10 17 20 20 20 31 20 3 23 27 23 13 22 23 12 10 21 35 21 24 31 24 20 21 30 31 17 21 26 27 27 31 23 7 28 21 24 18 14 21 11 14 20 24 27 24 13 6 17 36 17 19 28 14 28 23 20 23 16</t>
-  </si>
-  <si>
-    <t>GAM(117.55417227526695, -23.956008211148422, 0.4137412317881355)</t>
-  </si>
-  <si>
-    <t>21 29 28 18 22 21 27 23 28 29 26 27 25 19 19 26 30 29 24 25 18 25 25 31 22 27 28 26 27 28 28 24 30 25 28 22 26 17 28 22 21 33 32 22 18 27 34 28 17 18 25 25 32 24 21 31 18 24 24 19 31 21 22 21 25 28 28 27 28 32 19 27 20 28 24 32 25 27 25 26 22 24 24 25 34 23 20 21 33 32 20 18 25 34 31 27 21 25 27 25 34 21 31 30 24 22 17 28 28 29 28 18 32 25 21 23 19 29 27 26 32 16 19 26 23 21 25 26 22 23 27 20 20 26 22 29 31 30 22 20 30 17 28 27 28 21 33 28 22 21 25 20 30 22 22 34 26 17 30 13 22 23 31 29 26 32 24 23 30 21 25 22 23 22 23 23 22 30 13 27 28 26 28 23 19 26 28 24 24 26 21 24 18 20 15 21 23 25 23 26 28 23 32 29 37 21 25 21 16 29 23 24 25 28 26 26 23 30 32 19 34 24 21 26 31 29 24 26 20 27 25 22 21 25 21 20 39 22 21 23 22 24 25 28 22 22 24 25 20 17 27 27 20 42 23 29 21 27 26 20 23 20 20 21 22 18 25 33 26 28 18 26 16 20 31 25 21 26 22 24 27 31 26 28 23 22 25 28 15 24 20 36 21 32 28 24 29 22 21 23 31 26 24 30 37 17 22 27 27 24 22 17 31 16 27 28 25 24 26 24 26 28 26 21 20 26 27 28 23 25 19 23 23 27 28 25 32 23 26 27 26 22 24 22 30 26 16 17 22 30 20 29 23 20 27 29 23 18 32 26 25 24 27 28 32 23 29 19 21 17 18 24 25 20 24 25 23 26 25 17 23 18 24 24 28 28 18 25 25 20 19 26 24 26 18 30 19 26 23 30 27 20 28 22 17 17 26 31 32 21 26 20 26 32 26 23 26 29 23 23 21 31 20 21 19 25 22 29 29 26 16 26 24 34 26 36 31 22 22 28 32 22 30 29 15 18 24 32 20 30 28 27 28 16 30 26 18 22 27 25 27 31 26 22 23 26 27 27 24 26 23 23 21 20 24 22 22 38 24 26 29 25 26 31 27 27 23 21 29 27 35 25 29 30 32 32 19 31 30 22 19 23 27 25 32 25 29 21 38 23 21 20 28 27 30 30 26 20 25 20 17 27 25 22 30 18 21 23 16 31 28 30 19 36 19 24 20 24 32 24 23 28 25 27 24 27 29 27 23 20 28 23 26 19 22 28 26 25 19 21 26 20 32 31 20 25 19 22 26 22 25 28 24 22 26 23 26 32 20 32 26 24 36 22 23 21 32 24 24 24 26 21 19 16 20 28 29 17 25 22 32 22 21 22 18 22 23 27 25 30 19 33 35 15 29 29 23 21 22 34 24 18 25 28 18 24 22 20 22 27 32 25 27 27 28 21 20 28 26 27 32 23 24 32 30 24 25 36 23 18 21 31 27 27 22 29 26 19 19 27 28 26 19 24 28 34 29 24 26 23 20 32 25 22 27 21 22 30 27 31 25 19 24 18 21 30 37 23 20 24 26 33 30 24 22 24 24 28 29 23 27 28 23 24 17 23 18 24 30 19 31 33 27 28 23 23 25 28 18 26 30 29 23 29 12 24 26 33 22 18 27 19 19 28 28 28 24 35 20 22 24 29 31 21 27 24 21 25 26 22 26 21 14 20 22 34 28 27 23 27 25 26 20 21 30 25 18 26 26 20 22 20 24 31 25 20 30 22 27 30 24 29 17 29 22 23 27 21 25 25 23 18 30 22 28 21 26 29 19 29 24 24 24 24 29 23 28 13 19 27 18 19 21 30 26 15 27 26 21 16 23 18 33 34 21 25 27 24 25 22 23 28 29 36 21 22 26 25 25 30 27 20 30 27 25 21 19 36 29 31 24 24 23 25 32 21 26 27 24 23 27 26 24 22 27 25 25 37 23 29 24 21 30 23 25 22 29 32 21 24 32 21 25 26 33 19 20 24 24 27 25 28 24 20 32 29 18 24 20 25 17 20 22 22 26 30 22 25 24 20 25 25 23 29 28 27 26 24 29 20 28 27 23 22 28 21 18 26 20 29 22 23 32 33 22 18 19 22 25 21 17 25 24 31 22 25 25 30 25 26 23 20 24 23 17 19 23 21 23 27 32 30 28 31 22 25 20 27 20 21 21 15 22 21 20 38 25 22 28 34 21 26 21 22 25 29 22 22 26 29 23 36 20 14 20 31 27 23 16 26 23 28 21 21 25 31 29 24 20 26 26 30 31 25 28 28 17 26 21 21 29 23 21 22 19 30 20 32 23 20 18 27 29 17 24 31 15 23 23 22 21 25 25 20 27 30 27 38 26 29 23 21 24 24 23 24 28 30 22 35 35 22 27 18 24 26 24 23 30 22 27 25 19 23 24 25 22 28 24 21 16 25 24 27 20 26 16 29 21 33 25 26 25 25 27 29 23 29 25 23 26 26 22 23 26 29 20 30 31 28 20 25 27 19 29 26 23 16 29 30 32 26 27 31 25 21 28 23 32 21 18 18 24 20 27 25 25 21 19 14 21 24 20 30 25 21 23 26 19 22 28 28 32 26 29 23 26 21 32 22 18 24 22 23 28 29 35 29 27 35 27 20 23 22 25 24 22 25 29 24 26 25 14 26 20 33 22 23 24 21 28 23 21 22 24 18 35 25 26 27 26 28 27 22 14 31 19 21 20 21 24 30 28 28 19 17 38 23 18 25 26 28 26 19 28 19 25 24 27 24 23 26 37 32 35 35 34 21 27 27 27 32 27 22 33 26 25 26 24 25 30 23 28 21 23 24 24 33 27 22 28 25 21 28 27 31 25 30 14 18 25 33 27 17 21 24 27 27 27 25 23 32 30 22 27 20 25 26 21 22 20 25 26 22 30 24 20 33 30 17 27 35 23 18 24 33 22 26 20 21 28 19 27 24 23 20 17 24 29 21 18 26 24 22 30 17 22 18 21 23 25 24 28 20 28 25 25 27 29 20 23 25 23 33 32 28 26 31 19 22 28 22 16 22 22 28 25 22 26 16 29 19 20 19 18 23 13 23 26 22 30 30 29 21 18 14 23 25 21 28 26 21 18 22 23 26 33 20 24 18 26 29 29 27 31 25 27 29 21 34 21 25 33 27 27 24 21 27 24 22 23 27 28 28 23 25 23 32 23 21 25 19 26 28 26 25 24 27 26 24 26 22 30 17 19 22 23 26 27 22 23 27 21 21 18 22 35 30 30 22 23 23 32 19 25 29 30 25 24 28 25 21 30 23 19 19 9 29 18 27 26 23 27 23 20 27 23 23 25 20 18 20 21 25 24 31 22 25 32 25 24 24 18 24 29 23 21 15 24 26 23 27 29 25 27 24 19 19 30 20 26 29 18 38 24 16 30 15 24 19 14 34 36 23 32 27 24 23 30 19 25 33 22 33 29 27 21 24 22 25 26 25 25 28 21 21 25 18 29 28 26 19 18 24 23 27 15 27 17 18 28 28 32 26 23 27 33 26 18 20 25 31 19 24 33 28 27 23 21 27 27 23 17 29 19 24 18 28 21 28 28 20 34 24 32 21 24 21 19 29 24 30 19 29 26 22 33 21 23 16 28 25 30 23 28 23 22 19 23 21 24 18 24 30 30 26 26 25 24 28 19 29 26 20 25 27 25 25 20 24 28 29 23 23 26 28 33 24 32 16 28 27 28 18 20 24 22 26 29 26 24 17 23 25 19 22 28 26 21 35 23 20 25 20 30 28 24 28 25 33 24 22 25 23 24 28 23 25 28 21 23 27 30 25 28 25 22 20 30 22 25 22 15 17 29 24 27 29 31 27 33 13 30 31 23 20 21 24 27 23 22 28 17 32 26 14 26 23 14 24 28 30 22 30 24 28 28 22 24 20 30 20 21 25 28 34 28 26 27 27 26 26 24 22 31 25 21 23 26 31 23 31 22 25 24 28 25 31 27 21 26 25 30 22 33 27 33 26 30 23 15 29 24 19 24 21 26 31 22 23 20 31 21 32 24 28 18 24 18 23 24 23 26 26 18 27 33 26 25 28 28 29 33 27 17 12 28 29 27 24 24 26 26 18 27 23 25 24 22 27 22 23 19 33 29 28 26 28 19 26 30 34 23 25 19 24 30 21 20 24 24 28 32 25 20 26 29 26 30 22 27 22 26 28 23 20 24 22 27 24 28 31 30 18 27 33 20 28 20 26 29 26 25 24 32 20 22 27 24 24 23 19 18 25 29 22 26 33 20 23 22 28 25 30 30 27 26 32 29 26 21 25 23 27 28 32 35 23 24 27 24 23 19 24 24 29 25 21 30 26 26 23 24 29 26 29 25 20 28 20 28 27 24 23 24 21 28 20 25 25 35 39 32 30 24 30 16 27 26 30 24 23 26 25 16 24 33 29 18 26 26 26 23 17 23 26 27 38 23 24 18 28 20 19 28 21 30 16 22 29 33 17 14 23 22 29 21 22 27 25 27 21 19 19 24 26 31 21 23 22 22 25 28 32 29 31 19 23 29 29 21 27 22 27 28 22 31 34 16 19 21 26 25 18 16 27 26 25 25 29 31 19 30 22 23 17 20 21 24 19 25 15 30 24 29 22 25 16 22 23 26 19 31 22 19 26 29 20 22 26 25 22 26 32 29 22 28 24 25 30 35 24 24 25 30 25 23 16 18 21 25 27 24 20 30 34 28 45 29 27 20 29 29 28 19 27 20 23 31 16 22 28 20 26 25 22 24 20 22 29 21 23 30 24 19 29 22 28 27 11 20 23 24 23 33 21 26 26 19 29 21 26 24 20 29 29 30 21 25 25 18 31 23 23 20 24 28 20 33 20 34 24 29 22 28 19 29 26 24 25 34 22 20 27 23 28 16 23 25 19 32 25 21 24 26 24 29 26 26 21 25 22 29 21 25 26 22 20 23 23 30 25 22 22 23 22 27 28 29 21 27 24 31 27 35 21 27 29 20 35 20 27 22 22 26 27 19 21 24 27 25 24 20 26 23 14 18 26 29 26 27 21 26 25 19 23 29 30 32 19 20 34 26 16 26 18 16 27 24 32 27 28 23 30 30 19 34 29 27 29 30 20 29 32 25 25 23 27 25 21 19 24 26 29 21 24 42 24 26 19 29 18 20 25 21 19 25 19 25 19 29 11 28 24 24 24 29 23 24 20 22 25 28 30 21 26 23 31 27 27 17 21 29 23 25 19 15 25 28 27 31 26 19 25 33 21 29 21 19 21 27 21 28 20 25 27 25 21 24 31 25 25 23 32 19 28 18 25 22 22 26 24 24 19 17 26 16 22 22 26 22 22 27 24 28 24 22 24 22 15 20 28 22 25 28 25 22 21 27 28 26 27 20 28 38 30 20 30 28 30 23 27 27 23 28 25 28 30 30 23 33 29 26 21 27 26 28 27 29 22 29 26 16 18 21 33 24 25 23 27 33 21 32 29 33 25 27 26 18 31 31 22 24 24 27 22 22 26 20 25 23 22 21 27 28 32 25 27 18 22 24 27 26 27 28 18 27 18 30 24 26 24 17 28 18 24 26 27 14 27 21 25 32 28 26 21 19 24 23 36 23 29 18 22 23 25 24 25 19 27 25 33 33 26 14 27 23 29 21 32 22 19 30 24 30 26 24 21 32 25 28 18 22 21 28 24 23 26 16 24 18 28 22 21 30 23 22 20 23 31 31 38 28 19 24 22 30 34 20 28 22 21 23 23 28 30 27 25 23 28 22 20 24 20 20 20 17 22 26 27 24 26 26 20 17 38 31 22 25 25 30 30 30 24 23 18 32 25 22 24 20 30 24 24 22 26 23 22 20 24 14 22 25 39 28 34 25 29 29 22 24 25 14 25 23 18 20 26 24 16 27 26 25 23 21 31 21 22 20 20 28 22 30 19 23 30 21 24 27 25 25 17 26 30 32 33 22 31 22 26 16 22 22 26 28 21 16 13 28 24 21 23 33 35 17 33 26 16 27 24 13 20 27 28 27 23 30 22 27 21 21 21 24 28 29 19 25 19 24 22 22 23 29 23 29 19 14 25 22 28 25 32 31 25 24 27 19 21 25 21 22 20 19 22 23 18 32 24 29 26 27 25 23 25 24 33 34 31 35 39 25 20 27 28 30 23 23 26 30 25 24 21 23 18 17 23 20 22 31 15 25 20 35 19 23 21 34 16 18 31 31 24 23 23 23 24 29 30 28 28 20 23 29 29 18 28 30 25 25 25 24 31 21 17 29 24 18 19 28 30 22 22 34 24 16 22 29 22 21 28 24 24 24 21 24 19 22 23 25 26 27 24 21 25 25 19 24 31 19 28 27 24 18 25 31 20 23 23 28 21 23 21 27 24 19 30 24 19 21 19 33 26 22 17 36 21 25 24 30 30 29 23 32 20 25 17 28 29 28 28 27 27 17 27 28 27 18 26 23 22 18 26 30 16 28 21 18 22 26 21 29 22 23 22 23 31 22 24 25 25 22 21 31 21 24 25 19 31 20 26 21 21 21 26 20 28 27 26 28 30 28 27 31 29 25 28 24 19 27 22 33 20 25 23 31 23 28 25 31 25 22 24 32 35 21 27 24 20 26 27 23 23 24 19 28 28 24 27 23 25 28 34 31 27 20 22 24 25 24 26 30 33 24 29 23 28 24 18 26 24 24 32 26 19 36 28 27 17 27 20 22 23 27 19 24 27 19 20 19 23 19 28 20 21 30 29 27 29 18 19 25 28 23 25 20 21 18 25 23 22 22 24 27 33 27 20 26 23 30 21 25 21 17 22 24 23 32 29 27 38 36 22 25 22 29 29 20 36 19 28 25 25 25 22 27 31 25 24 27 32 21 25 25 24 15 19 30 28 27 25 20 20 25 23 27 26 28 29 26 27 25 20 31 29 23 27 26 24 22 32 23 25 25 22 23 28 21 15 22 33 34 30 21 24 26 21 28 27 24 23 29 16 26 25 25 22 28 27 22 30 27 30 19 23 19 34 24 24 28 19 27 30 30 29 28 26 23 19 21 26 19 30 19 20 24 24 17 15 24 30 23 28 23 28 23 23 25 27 26 28 20 22 17 24 29 21 18 17 27 28 37 20 21 29 31 24 23 26 26 28 29 25 25 25 30 22 14 24 25 31 28 18 17 23 31 29 17 18 23 26 23 22 22 30 25 24 24 27 14 33 24 23 26 22 38 17 22 22 30 29 17 17 22 18 26 23 23 30 35 16 22 23 23 24 33 26 19 25 24 27 19 15 19 28 24 19 26 17 33 23 31 19 21 14 18 19 17 28 26 13 25 28 23 26 22 32 18 25 27 26 29 29 20 24 26 34 21 33 29 18 29 32 25 24 22 21 20 28 21 23 25 27 22 21 25 26 24 26 30 23 31 28 29 25 20 27 21 25 19 34 32 29 29 24 33 25 12 22 34 21 26 26 21 17 28 29 26 22 20 32 24 18 19 31 32 27 23 29 27 25 23 21 28 18 27 27 31 22 24 28 31 31 37 20 31 22 27 29 29 21 23 19 32 29 28 26 26 25 29 29 23 22 21 23 34 20 29 23 26 23 34 31 30 28 29 23 26 24 23 27 34 16 27 26 21 22 26 29 21 14 17 23 38 22 26 26 26 29 20 25 21 21 26 22 31 22 36 36 16 19 26 31 22 23 18 27 23 24 18 15 25 25 28 23 19 19 22 25 27 22 27 24 23 22 20 20 23 27 24 27 30 22 29 25 20 22 15 29 22 22 26 27 22 26 26 24 21 22 27 15 20 33 22 24 22 17 28 16 21 23 23 25 22 30 28 22 22 21 25 29 18 19 25 26 26 22 19 33 29 24 24 28 28 22 29 28 33 20 35 29 24 25 24 22 29 33 22 26 24 29 20 17 30 18 18 28 21 22 24 23 18 20 24 19 19 22 21 25 30 23 26 27 24 22 23 22 20 20 22 28 31 19 27 26 23 24 27 26 21 25 26 24 26 29 25 21 23 24 25 23 32 31 24 26 20 23 22 30 19 27 28 28 31 24 28 18 26 27 22 27 21 27 23 12 28 22 29 25 25 26 17 35 22 27 24 20 20 23 24 26 35 19 28 14 27 27 33 34 29 26 30 27 25 25 22 29 25 26 30 33 27 19 33 28 26 28 18 20 33 23 22 23 25 32 31 18 21 30 18 26 21 21 24 22 18 19 21 25 25 20 20 23 29 24 29 21 27 23 21 22 27 18 29 35 28 24 28 27 24 23 19 32 19 24 23 27 26 16 21 21 23 22 26 29 26 28 23 20 27 21 33 25 26 24 26 24 20 31 20 23 31 23 18 22 25 26 33 22 24 26 22 23 32 21 35 25 23 30 24 22 20 16 26 19 26 28 16 20 26 23 27 12 22 19 23 24 22 24 10 20 26 18 18 28 27 24 26 33 21 23 28 25 29 33 24 26 24 28 33 21 25 24 19 27 25 28 21 32 22 24 24 29 23 26 24 26 22 22 30 23 24 31 28 21 22 30 27 22 23 27 17 24 23 23 30 23 21 26 26 22 31 20 23 19 27 22 26 21 27 21 19 23 32 33 25 34 28 20 24 26 27 21 27 26 24 25 29 26 25 25 31 29 23 18 24 18 22 24 18 21 27 31 29 22 34 20 25 28 22 23 21 21 34 25 28 31 27 29 20 20 22 21 23 32 33 15 23 29 29 26 24 26 36 21 29 29 31 28 17 27 23 24 35 29 24 28 15 28 24 27 30 18 27 26 30 25 21 28 25 27 26 23 24 21 21 18 25 26 24 27 19 24 32 17 24 25 18 22 23 21 18 31 19 22 16 17 15 19 28 22 19 20 27 28 20 25 27 24 29 19 19 23 14 28 23 24 28 35 23 23 30 29 22 29 22 20 21 27 35 28 29 33 27 19 23 22 28 25 29 23 26 22 20 23 28 28 26 29 31 24 26 15 33 24 23 24 32 22 24 25 16 33 26 21 23 23 21 12 26 24 32 24 18 28 23 20 26 23 27 23 23 21 35 20 23 27 20 32 25 18 31 26 27 22 23 41 18 22 20 30 29 19 27 26 26 21 25 24 24 20 21 21 18 24 29 26 28 33 33 29 22 24 28 29 27 20 30 19 21 26 26 24 20 31 26 30 29 23 21 28 22 26 11 21 30 22 19 22 23 20 24 17 25 25 31 30 28 34 23 29 16 25 20 28 29 19 19 22 25 21 28 32 28 22 25 20 21 22 22 27 25 15 24 33 28 25 32 24 32 24 22 26 27 24 26 23 28 14 14 22 26 29 31 19 21 26 24 20 25 35 22 23 25 24 25 22 27 26 22 26 31 20 17 23 29 22 29 35 28 21 29 23 27 24 24 17 23 25 27 24 28 24 21 24 28 22 36 24 23 30 15 20 26 31 34 20 35 30 27 26 24 18 27 30 29 22 34 34 23 19 28 25 38 33 26 22 17 26 32 26 21 35 21 21 13 25 19 19 19 18 24 22 20 25 22 23 20 28 19 23 27 20 21 27 16 19 26 15 24 19 21 27 26 21 25 19 24 21 26 22 31 22 27 21 23 19 24 21 17 23 22 25 24 22 27 28 27 22 14 21 34 24 26 28 22 27 21 19 26 19 21 22 20 27 24 17 18 27 29 20 28 26 30 21 26 27 16 31 28 32 29 22 18 15 16 29 19 20 19 19 23 20 30 26 27 27 24 32 28 23 30 26 29 25 28 29 18 24 20 24 26 26 19 31 25 23 27 28 26 21 22 31 25 25 27 28 24 25 27 28 17 25 23 20 18 25 26 25 27 21 24 26 25 31 19 28 23 31 29 33 29 27 31 22 32 27 24 21 27 23 25 27 20 26 27 26 24 25 22 21 26 26 23 24 27 32 25 18 30 15 28 21 22 29 26 24 27 26 25 22 21 24 25 19 23 26 24 28 35 27 22 18 38 20 26 24 29 26 24 16 19 24 27 23 21 27 21 29 22 14 25 28 28 25 20 18 17 26 22 17 27 21 22 24 18 35 24 20 31 24 27 28 25 22 28 22 21 26 24 25 25 25 26 27 19 22 20 25 27 22 27 27 21 36 23 20 30 30 17 24 26 19 26 25 31 26 33 38 22 25 26 19 21 27 27 25 20 23 26 18 25 29 22 22 26 23 29 27 25 31 19 23 21 35 25 31 29 26 28 29 35 20 28 24 19 15 30 23 24 27 20 23 19 21 25 24 30 28 25 19 20 20 31 22 20 37 29 28 25 29 20 19 25 34 23 26 28 26 32 24 26 28 29 31 30 31 19 15 24 25 22 26 34 22 32 24 31 18 30 34 22 24 19 23 27 23 17 27 23 26 27 21 33 24 24 27 26 27 30 26 27 27 27 20 23 21 25 29 25 18 21 28 28 29 19 26 27 35 24 23 26 27 24 31 18 29 26 21 25 22 21 28 25 21 33 27 24 31 35 29 25 18 38 23 23 27 22 27 20 22 28 32 21 18 20 30 20 22 27 25 20 26 24 25 19 26 23 23 24 22 27 15 32 35 29 23 27 23 26 19 32 16 27 21 24 25 18 25 33 17 25 25 24 24 23 27 23 23 21 21 24 31 33 24 23 19 21 24 23 23 27 26 22 22 26 19 16 20 29 27 24 26 23 27 30 25 31 28 28 27 31 22 26 28 27 23 20 24 21 14 31 20 25 27 29 27 28 28 19 21 27 28 19 27 19 28 25 30 16 29 25 28 24 29 23 27 30 27 19 29 26 28 26 24 26 24 27 20 19 20 20 21 25 24 17 23 24 20 27 21 24 24 25 23 23 26 30 30 33 18 30 22 21 20 35 28 22 24 15 27 26 24 29 27 24 20 18 23 27 27 24 12 22 23 21 25 31 28 24 27 20 26 24 24 22 30 32 27 33 21 28 23 16 21 25 25 25 34 24 24 23 19 21 19 25 27 21 26 28 27 20 23 30 29 26 20 29 22 23 26 29 22 27 17 26 30 26 25 23 26 29 38 19 21 29 20 22 20 24 26 29 20 22 18 25 15 29 21 29 16 26 25 18 23 28 28 24 22 28 29 23 17 27 24 21 31 26 17 24 23 16 24 22 28 20 24 29 22 24 24 26 25 31 18 22 23 19 28 27 23 24 24 29 27 26 25 29 18 26 27 34 26 25 26 21 25 24 23 27 24 19 28 27 25 24 33 27 23 30 24 21 29 25 25 26 27 32 21 27 19 26 19 22 25 20 21 18 16 17 25 20 34 20 18 17 24 23 24 22 26 24 26 31 24 26 22 21 25 25 37 21 20 30 19 26 22 26 21 26 25 17 22 25 18 23 26 20 22 21 21 20 22 22 25 26 19 27 23 20 19 24 33 33 26 18 23 28 26 20 24 25 25 25 22 22 17 27 19 25 23 24 26 23 25 27 28 19 23 22 22 36 20 30 19 22 25 32 28 20 18 21 24 26 26 19 27 27 20 20 22 23 23 20 30 20 32 20 23 29 17 23 17 23 23 17 17 25 27 28 26 23 23 21 23 21 25 17 24 26 26 26 32 24 23 24 30 33 30 18 18 25 30 18 20 26 27 32 25 22 23 29 29 22 23 19 23 27 19 25 20 24 28 28 18 20 28 29 20 15 30 29 22 26 24 29 22 29 27 26 27 26 23 34 25 34 21 26 23 18 17 23 16 28 21 26 22 18 27 22 24 27 22 19 19 27 27 18 23 22 23 23 19 28 28 23 19 20 24 23 22 27 27 23 25 24 17 22 25 25 24 25 26 20 28 23 30 28 23 28 19 39 20 22 30 26 26 30 23 25 26 24 19 17 27 29 31 25 20 19 24 17 23 28 24 30 16 26 30 27 23 26 29 19 20 24 25 26 25 25 23 32 25 22 26 22 20 22 19 20 22 26 23 28 28 23 27 29 27 21 24 24 23 27 30 22 23 26 20 29 21 21 22 19 26 18 32 26 16 20 23 23 23 18 20 27 24 26 25 23 26 27 26 21 30 20 14 20 21 20 24 30 23 30 19 33 24 19 24 29 21 28 26 22 19 25 25 26 28 32 26 32 21 19 29 22 23 24 19 28 22 24 22 28 24 26 28 23 33 32 25 29 35 28 31 30 20 22 27 23 29 22 22 30 27 16 32 24 30 22 21 22 23 27 26 25 25 28 16 22 18 23 31 28 24 23 29 30 19 14 19 30 30 27 23 30 29 25 21 29 25 20 22 23 27 24 23 22 26 27 25 24 32 29 27 29 27 23 21 28 23 26 27 25 24 19 26 22 24 25 35 29 29 24 25 21 21 28 26 28 19 24 35 27 21 24 21 22 25 21 22 25 22 23 19 30 27 29 26 27 26 31 28 24 26 27 22 32 23 20 21 18 20 27 28 22 28 25 34 18 19 20 26 27 28 28 20 17 30 21 34 26 28 32 21 17 22 20 22 31 26 27 16 24 15 22 33 20 29 22 23 31 21 32 35 28 19 16 26 24 19 24 32 28 30 27 19 24 18 20 21 31 32 16 26 24 30 25 21 28 25 31 32 30 28 32 26 32 24 23 17 23 23 25 26 27 23 27 29 20 27 21 20 24 26 37 22 26 33 29 28 23 32 23 19 26 33 23 26 34 27 22 21 34 22 26 27 29 24 25 15 24 25 25 24 22 23 25 24 25 23 26 25 20 28 36 22 24 20 19 26 23 21 21 21 30 31 23 29 20 21 23 20 24 18 23 24 22 26 21 35 21 25 20 32 25 22 26 23 26 15 28 30 29 29 31 28 31 23 23 23 26 26 20 30 32 19 20 32 28 22 33 26 28 26 20 22 38 19 23 27 26 21 28 24 21 26 16 22 26 32 22 28 16 18 29 20 28 24 28 21 21 23 24 20 19 26 15 24 25 27 21 19 24 26 29 21 25 26 24 36 30 24 28 31 30 18 27 24 24 23 26 16 25 23 28 31 26 25 24 26 18 32 25 23 27 20 22 22 41 33 25 27 25 24 26 18 16 19 31 19 18 24 22 30 26 15 29 31 15 23 25 18 29 26 28 27 25 39 28 26 26 25 22 22 34 33 19 20 29 25 26 27 24 23 28 24 26 20 25 25 24 30 29 23 18 22 23 26 23 23 21 30 26 25 22 15 30 19 26 27 21 29 28 29 24 21 21 27 28 24 23 22 23 24 31 32 20 23 27 31 22 21 28 27 28 25 19 23 19 27 20 26 14 30 25 27 26 26 26 21 25 28 21 24 34 20 23 23 21 28 30 36 19 24 29 20 16 31 23 23 28 16 29 18 29 23 20 21 18 24 24 31 27 29 23 19 34 28 15 24 17 26 24 22 25 21 22 24 22 33 26 31 28 29 22 32 24 33 21 25 25 24 23 25 26 16 25 23 18 24 29 19 24 25 12 23 24 17 21 24 21 18 30 23 19 34 27 26 21 21 35 22 23 33 23 32 25 22 28 23 26 28 33 22 20 17 26 31 40 34 20 32 25 17 20 23 24 22 19 24 25 26 18 22 32 23 24 19 16 25 26 18 23 26 30 18 23 29 32 19 20 29 32 33 17 18 33 26 29 29 20 27 29 23 20 17 25 25 22 25 26 30 26 26 23 20 22 19 28 26 23 29 22 28 26 20 26 23 32 24 20 24 21 34 24 17 21 26 20 20 34 27 20 27 23 30 26 24 27 20 25 25 23 21 22 30 25 27 35 25 23 31 16 27 24 25 27 33 24 24 25 26 22 31 23 23 18 26 25 25 31 21 28 29 33 27 28 27 24 24 21 30 17 26 25 25 27 23 20 23 24 21 21 22 26 31 32 38 27 23 22 22 29 30 23 24 19 16 31 19 22 23 20 30 26 25 21 25 30 27 24 32 23 22 28 26 22 26 32 20 29 30 16 25 31 29 20 20 23 30 27 27 31 20 31 28 18 22 17 22 22 26 25 26 25 26 32 23 19 21 25 24 21 32 24 22 28 19 27 26 30 24 31 21 27 22 18 30 31 26 18 25 23 21 28 30 20 28 22 27 27 27 21 23 32 29 25 24 29 22 28 27 29 21 20 24 23 25 25 32 22 19 19 25 22 25 20 22 16 28 28 21 19 25 28 25 31 21 27 22 25 26 27 27 30 29 20 22 26 28 29 33 29 26 21 28 23 22 26 30 31 18 24 29 26 24 20 24 18 23 18 24 28 31 22 21 20 22 22 22 20 23 26 23 20 28 28 22 23 36 24 22 28 22 22 33 23 33 20 23 26 19 24 26 24 31 39 22 26 26 26 33 18 28 17 16 23 21 24 31 33 19 27 30 26 28 26 28 27 28 26 26 19 26 33 22 31 26 26 25 17 21 24 24 26 23 33 24 27 24 31 20 20 25 20 21 30 23 30 29 17 31 27 29 26 21 26 30 22 25 18 30 23 22 25 24 21 23 23 27 29 20 28 15 22 30 27 27 15 20 20 21 27 22 30 31 30 20 35 25 22 20 14 27 29 30 31 32 29 27 26 31 25 26 28 24 30 23 31 25 25 24 18 22 22 25 27 20 33 28 25 26 40 21 21 26 25 27 26 25 31 31 23 24 27 16 28 24 21 24 20 22 21 16 23 31 27 32 24 27 23 22 23 33 24 16 19 25 23 23 23 27 26 27 19 22 24 25 23 25 21 21 24 24 15 27 29 24 24 19 25 27 29 23 32 22 20 28 17 27 20 17 25 24 23 28 23 26 25 32 22 24 30 28 24 31 30 20 27 33 25 29 18 24 27 20 30 29 20 30 26 13 28 26 23 17 19 14 21 30 28 21 36 30 24 34 19 24 24 27 27 20 27 26 33 18 32 25 23 35 28 22 18 27 25 18 36 26 29 24 30 34 25 29 26 22 30 30 22 18 26 41 20 20 25 29 23 25 27 20 23 21 18 24 28 33 25 23 17 25 31 26 18 29 32 30 26 22 26 28 28 26 23 17 28 22 22 16 23 32 21 23 23 26 24 37 30 20 16 17 28 24 34 28 31 22 21 21 22 24 19 18 32 28 20 20 17 17 28 16 20 23 24 28 26 23 22 24 22 16 20 19 24 26 22 25 22 30 21 24 22 21 30 23 19 25 23 24 21 24 26 19 31 30 30 19 31 30 16 25 21 33 22 23 28 26 18 24 27 31 20 25 29 25 21 26 37 30 21 21 30 26 20 22 24 24 24 23 27 23 29 28 31 31 25 22 23 20 21 29 20 21 25 23 30 17 25 28 23 31 14 25 24 27 28 18 23 25 27 22 23 25 28 20 25 14 29 23 25 19 26 20 21 23 22 22 28 18 24 26 25 20 21 26 24 28 29 23 27 22 29 22 31 24 29 17 38 24 28 28 21 30 19 24 29 26 21 27 24 20 31 26 33 21 31 19 24 18 24 26 22 17 19 18 31 31 26 27 27 32 20 21 26 23 22 31 17 26 23 25 21 23 24 28 22 25 24 20 27 25 23 20 25 23 21 23 24 30 25 27 29 22 23 28 14 23 22 32 29 26 29 30 27 22 23 25 22 24 25 19 30 26 29 30 18 28 28 24 23 30 34 29 24 28 25 25 23 27 26 23 30 25 19 23 23 24 33 30 28 28 24 25 22 21 20 31 18 28 23 29 28 21 24 20 32 28 25 26 20 24 30 17 35 24 26 23 25 23 22 18 25 18 27 25 24 21 20 29 23 25 25 21 34 27 30 24 23 24 23 32 28 30 24 28 27 30 28 23 25 26 22 20 23 17 25 23 36 19 17 19 26 25 31 21 14 29 22 22 22 17 23 23 29 31 27 31 26 23 30 21 22 20 21 28 24 22 20 22 28 34 26 21 19 15 21 22 15 25 23 19 19 31 26 24 26 23 23 24 23 22 26 26 27 30 24 27 17 28 32 22 26 19 35 29 20 17 22 20 14 23 27 22 23 24 19 18 32 21 31 23 29 22 26 34 31 17 24 28 24 20 27 23 28 25 23 24 24 34 34 27 29 28 22 22 18 32 21 25 27 25 29 27 29 10 23 19 27 31 38 30 24 28 37 19 28 26 34 29 22 24 20 24 33 21 23 20 24 32 25 26 28 21 21 24 22 28 26 20 23 28 20 23 26 21 32 28 28 22 32 24 22 19 23 20 20 20 26 30 33 19 27 18 39 27 18 30 26 26 24 18 32 30 22 26 31 24 22 26 28 28 22 18 24 26 32 26 24 20 22 26 19 28 30 22 30 22 26 22 31 21 32 25 28 25 22 24 21 23 26 23 30 21 17 22 22 27 25 22 28 21 20 31 22 21 21 18 26 28 26 34 23 23 28 26 24 27 22 24 22 25 30 20 19 24 31 18 27 22 21 23 27 27 21 25 26 33 28 29 31 21 23 25 26 31 27 29 25 23 22 25 29 21 29 32 25 24 28 22 20 26 32 25 28 29 22 23 28 16 22 19 24 26 23 27 29 26 25 17 19 20 25 24 22 22 34 20 28 22 18 22 19 19 23 21 27 32 24 27 17 18 31 28 23 25 30 21 36 29 22 24 28 24 27 21 28 30 26 35 26 29 34 21 23 20 27 27 17 23 29 29 24 29 24 19 22 31 22 21 27 24 27 26 29 20 26 32 26 28 21 27 29 20 25 19 28 16 25 23 30 24 36 26 22 19 17 21 19 39 15 18 27 27 20 21 23 23 30 29 30 27 35 21 23 30 26 21 25 24 23 23 23 21 17 29 27 20 31 28 31 32 24 24 35 22 26 22 25 26 25 19 30 27 25 19 20 28 23 36 28 27 14 31 29 27 26 18 22 23 30 32 27 23 23 30 31 23 27 25 26 22 33 18 27 30 23 26 28 19 27 30 26 28 29 27 25 29 25 27 25 18 24 22 24 26 29 26 39 33 17 23 21 24 25 21 29 25 25 22 24 30 26 33 28 30 18 27 23 24 27 25 32 22 22 31 23 19 38 30 21 22 32 29 30 24 26 32 20 27 27 29 28 25 25 24 26 24 31 31 22 24 25 20 21 12 19 31 28 21 26 24 22 24 19 22 17 17 25 17 24 22 21 20 22 20 31 25 24 26 20 26 24 19 28 21 25 24 23 28 23 21 21 23 31 25 21 18 25 22 20 26 20 23 22 26 22 31 25 24 28 24 22 24 19 23 28 21 23 26 24 27 26 24 24 19 28 17 27 24 20 30 21 23 32 21 20 34 31 21 22 22 24 18 19 21 29 24 27 22 27 31 20 24 22 24 23 17 28 23 21 27 20 19 27 20 29 28 28 30 27 26 30 29 21 27 21 24 25 16 21 18 23 21 28 27 22 24 23 26 22 20 27 25 35 25 24 22 23 20 26 21 28 21 25 22 20 24 17 25 25 22 25 35 21 22 27 29 20 24 20 30 18 27 28 21 27 28 24 20 25 25 27 21 20 27 23 25 28 26 18 23 26 24 23 19 22 19 33 24 19 21 27 18 32 23 36 27 27 25 22 25 29 18 31 20 23 35 24 25 25 25 28 26 28 27 30 22 25 20 21 23 31 27 24 28 23 21 31 32 19 25 17 28 30 28 19 25 22 22 21 23 27 29 30 19 26 21 34 29 30 25 19 23 25 22 19 15 30 24 27 19 33 25 20 21 34 29 21 20 15 24 20 23 21 22 25 20 25 26 32 21 23 24 34 26 35 24 30 23 22 24 25 22 21 19 30 25 24 24 17 26 20 23 27 22 31 32 21 18 28 20 25 21 27 25 23 24 18 23 27 25 26 22 29 20 29 26 24 30 27 26 24 16 25 22 21 30 28 18 24 36 26 19 21 28 28 22 32 22 19 24 32 19 18 25 24 25 25 24 32 19 23 26 21 29 21 19 16 24 23 28 26 27 27 23 16 27 29 23 21 23 21 24 23 20 24 20 27 26 15 32 30 26 23 29 28 24 30 28 24 23 29 19 29 22 27 25 25 35 26 36 23 34 23 31 25 26 29 30 24 26 27 21 29 19 27 22 28 23 27 24 26 27 23 30 26 25 21 25 26 25 21 22 29 27 24 22 20 24 18 27 28 31 19 14 24 23 20 29 29 21 28 32 22 16 22 30 27 26 24 24 24 29 27 24 27 22 28 15 22 25 31 36 29 28 20 28 25 21 28 29 18 21 20 32 20 19 25 18 21 29 25 22 19 25 25 22 30 26 28 21 25 34 25 20 24 32 26 25 25 17 28 21 30 26 32 21 25 20 25 24 24 17 18 23 21 26 25 29 30 20 23 26 25 22 22 17 22 19 18 28 23 23 29 27 18 22 25 23 15 22 25 27 20 23 28 27 24 18 24 28 26 30 27 22 28 23 23 31 20 28 28 26 23 28 26 19 25 31 23 25 20 40 24 29 21 24 18 28 19 42 25 24 18 33 21 26 25 24 32 29 24 18 21 20 27 20 16 30 26 26 17 22 22 22 23 20 22 18 23 19 21 25 27 23 23 22 23 29 27 31 29 23 31 34 27 26 32 19 26 26 28 30 28 28 24 25 22 23 23 25 14 24 26 22 26 20 23 26 23 26 20 22 22 22 27 22 20 27 30 27 28 20 24 29 29 26 21 21 23 25 24 24 23 18 25 25 28 25 22 21 25 33 35 19 20 23 22 18 20 23 26 27 20 24 22 28 28 27 34 27 30 20 20 25 29 28 30 23 26 19 31 26 27 33 29 22 28 28 17 31 23 25 18 25 27 28 20 26 20 24 25 24 30 22 26 27 23 32 26 27 21 29 21 23 22 23 25 23 21 17 25 36 28 21 22 24 23 23 25 28 26 24 22 23 29 25 26 26 28 17 23 21 27 27 16 34 23 26 26 20 39 23 29 32 25 29 23 21 31 21 33 26 27 26 26 22 33 16 26 20 26 26 22 17 32 21 27 25 33 12 16 29 21 22 31 19 27 29 27 19 26 29 30 29 21 24 30 25 21 23 23 25 25 24 25 24 24 31 23 26 31 19 24 25 14 31 18 30 25 34 36 22 29 20 29 28 24 23 22 20 29 29 15 20 25 31 24 21 27 24 21 24 31 22 20 22 22 29 24 32 32 27 19 24 30 21 20 28 20 22 24 25 19 28 18 22 30 26 25 19 26 25 25 27 29 27 26 27 32 21 20 24 31 24 20 29 22 25 29 31 20 16 27 27 24 23 22 30 23 27 25 19 28 27 29 27 24 26 24 31 22 23 24 28 23 23 30 16 20 21 20 25 32 24 22 21 24 19 21 25 36 29 24 23 21 19 29 22 24 23 30 15 28 25 29 29 28 27 38 28 23 28 18 16 31 23 26 30 29 22 29 37 21 21 30 25 26 29 27 20 24 33 24 27 27 25 26 25 27 29 23 23 28 20 19 28 29 28 26 23 19 39 27 24 17 23 24 22 26 20 27 27 26 21 20 25 27 24 17 27 14 21 19 14 17 28 23 21 27 25 27 21 21 23 25 24 25 26 17 27 25 21 31 32 20 31 17 24 19 14 32 32 18 20 19 26 21 23 24 21 18 22 29 31 27 13 19 22 30 22 26 25 29 22 27 29 19 23 22 27 22 17 28 19 32 25 26 17 16 26 17 19 26 16 22 30 16 22 35 13 33 25 36 25 17 23 26 20 18 26 33 29 26 28 37 29 22 30 30 18 26 24 25 17 23 27 22 22 35 19 24 33 29 37 24 29 14 22 24 32 26 26 24 23 38 21 26 21 33 20 11 26 23 28 24 25 16 27 19 22 32 27 30 29 21 32 29 19 20 25 24 19 24 21 23 27 22 33 22 24 27 25 24 23 24 18 26 29 23 30 24 23 29 24 30 30 20 19 23 30 29 29 32 20 26 20 29 19 25 20 25 24 16 29 33 29 28 22 26 35 31 20 21 23 27 21 26 25 33 25 24 18 19 28 29 27 26 18 32 22 31 21 26 30 24 29 29 20 13 23 22 20 24 28 28 19 33 22 25 24 27 24 23 27 27 28 26 20 30 27 20 26 24 23 21 25 25 24 32 27 31 27 34 23 22 29 26 23 23 29 21 21 19 28 25 24 26 23 31 26 25 27 18 21 29 24 20 20 28 13 22 20 27 28 28 30 16 24 31 29 30 27 27 24 29 31 22 30 28 24 28 23 25 32 21 23 17 22 35 27 28 25 27 31 26 26 23 16 21 25 23 24 21 29 24 24 28 31 21 32 27 24 23 28 30 22 28 23 26 23 13 22 32 19 19 31 27 23 16 27 18 21 25 25 26 32 23 20 20 26 22 22 19 30 18 21 28 28 25 29 17 36 22 19 32 17 17 17 22 18 25 18 26 31 24 24 26 22 27 31 23 28 21 27 25 27 26 22 38 20 26 30 36 25 28 27 22 28 22 13 25 20 31 26 28 23 23 21 21 19 22 29 22 23 26 21 23 19 25 27 23 22 27 25 25 23 26 22 25 18 25 19 26 25 26 35 25 19 26 24 23 17 24 22 20 21 25 29 28 37 30 25 27 18 28 18 23 32 27 32 22 23 29 23 21 23 29 26 18 20 29 25 23 18 34 21 16 27 25 23 25 30 20 20 32 24 26 26 17 19 25 23 27 28 23 29 26 25 22 22 22 24 29 28 19 28 26 33 24 27 25 27 26 24 32 16 22 28 19 22 23 23 23 22 21 28 22 27 20 23 27 26 19 23 24 25 21 28 29 22 20 16 28 26 24 26 23 29 29 20 25 24 20 30 21 25 34 24 20 25 24 33 27 25 26 19 26 27 27 23 20 30 19 24 21 21 31 17 28 17 30 25 19 21 22 25 33 22 29 24 25 22 26 22 30 20 28 25 18 31 30 20 26 26 24 22 23 23 18 22 28 27 25 19 30 28 30 32 21 15 16 28 15 23 29 24 23 28 25 27 28 27 21 24 19 28 24 28 29 29 17 28 24 30 26 27 26 21 23 25 24 24 28 18 28 18 28 25 28 23 26 17 25 30 25 28 22 26 31 29 24 31 27 17 35 25 24 27 30 24 29 30 26 24 22 31 20 24 26 35 23 35 19 27 24 24 25 26 28 26 22 12 30 22 37 22 23 28 33 22 29 26 27 17 30 34 25 27 27 28 27 21 24 29 20 22 17 25 25 24 31 22 32 27 22 27 25 32 33 30 21 26 21 22 20 25 38 18 28 23 30 17 20 19 24 20 23 21 24 23 19 17 24 24 28 24 33 26 35 23 23 18 19 30 23 19 22 21 22 30 23 30 26 26 23 19 24 21 25 25 27 25 28 28 23 19 26 27 25 24 24 20 24 31 20 33 27 34 26 24 23 21 26 31 21 33 27 27 29 30 23 26 23 27 23 26 21 24 22 21 30 24 21 30 19 25 26 25 25 31 25 23 22 26 31 24 27 30 24 22 19 27 27 24 18 28 30 24 31 26 28 21 34 18 23 32 25 18 31 22 27 23 23 19 13 23 33 28 16 23 25 18 30 30 18 26 27 24 25 19 32 31 21 32 19 20 34 27 25 20 29 13 29 20 22 26 23 31 27 30 23 26 32 24 27 30 25 26 25 24 31 20 23 25 30 21 17 20 33 21 22 30 28 17 27 29 20 14 26 25 24 20 24 26 27 18 31 14 31 26 27 25 29 26 27 20 29 33 25 29 21 22 20 22 23 24 28 25 21 20 20 25 23 22 33 27 31 18 26 18 21 28 30 27 25 21 19 23 20 31 24 22 26 29 19 27 25 21 27 22 22 23 17 21 27 23 32 29 23 19 25 25 32 19 31 18 25 21 22 18 24 24 19 26 25 23 30 22 23 24 25 23 22 24 29 25 31 26 24 30 24 20 29 24 26 25 25 23 13 28 30 25 24 22 24 29 23 25 20 24 23 18 24 21 24 18 26 24 31 26 17 23 29 26 27 26 27 24 19 27 26 36 24 26 17 27 18 13 21 23 27 16 30 26 33 20 15 22 31 25 29 27 19 22 30 32 23 21 21 21 25 27 24 29 29 28 18 22 19 21 23 22 25 27 28 31 20 20 25 29 26 22 23 23 17 22 26 35 19 26 21 29 22 22 28 23 21 21 22 27 23 28 24 20 23 30 22 38 20 30 19 24 27 26 22 15 23 27 17 23 22 24 30 25 27 29 21 29 26 26 28 28 23 21 25 19 26 25 23 22 18 24 32 17 21 22 22 24 35 27 25 20 17 25 30 20 18 20 31 27 23 16 25 24 25 28 13 32 20 24 29 17 21 22 21 20 27 15 18 27 27 28 24 21 28 22 18 27 24 25 22 22 29 22 25 33 21 27 22 28 22 28 22 23 23 28 20 29 24 27 24 35 22 22 30 32 25 21 24 31 29 21 26 30 21 30 36 17 35 19 22 18 28 24 28 26 17 29 23 29 27 25 28 29 21 32 22 20 22 25 29 17 18 29 25 21 24 25 18 23 24 22 17 38 31 29 17 32 31 17 30 32 27 23 19 21 27 21 18 28 25 24 27 23 15 25 27 33 21 20 22 26 24 17 22 30 26 22 23 23 29 34 23 26 18 30 20 29 30 20</t>
-  </si>
-  <si>
-    <t>JSU(-16.869198752260303, 11.087351060415472, -20.91442695390848, 25.401372350887414)</t>
-  </si>
-  <si>
-    <t>28 35 36 25 32 26 36 29 36 36 34 39 41 25 28 40 41 41 32 44 32 33 35 41 35 35 41 36 41 41 38 34 35 33 40 25 32 26 32 37 33 43 38 33 30 35 45 39 22 23 39 30 40 33 34 43 32 34 30 37 42 29 34 29 43 47 35 36 34 41 29 34 34 40 42 47 31 34 33 32 30 38 39 38 39 26 32 27 37 44 28 22 34 43 41 39 33 35 48 32 47 31 37 42 36 38 25 33 40 38 43 30 38 30 28 35 29 42 34 36 46 24 26 33 24 36 31 34 32 31 39 35 32 40 38 36 37 37 31 23 37 30 33 40 37 32 39 38 31 32 36 31 41 30 33 43 35 26 42 22 38 32 41 40 36 47 29 31 37 29 30 32 31 35 31 29 33 43 22 38 37 36 37 33 28 31 36 35 35 37 30 36 28 27 27 33 36 40 35 37 38 32 39 36 43 32 33 27 23 44 40 28 34 42 38 38 33 39 51 33 52 31 31 38 37 40 29 37 26 34 38 34 32 35 30 30 49 27 28 32 30 33 32 34 31 30 36 35 33 26 38 35 32 50 36 42 31 38 32 25 29 27 26 26 33 31 37 44 31 38 35 32 32 24 40 36 29 30 34 34 40 38 30 37 34 28 37 34 24 30 28 50 31 46 37 31 33 43 30 32 39 40 39 45 43 30 33 31 38 36 29 26 41 21 33 41 32 38 36 34 36 37 40 31 32 32 37 36 34 32 29 30 30 37 44 35 43 33 39 42 34 27 37 33 35 33 27 26 32 39 29 38 31 29 42 42 35 30 44 40 33 32 33 39 42 30 42 28 32 27 28 30 30 32 31 37 35 35 34 21 32 29 43 32 39 38 28 37 38 29 40 38 37 38 28 38 26 35 31 44 33 32 39 35 27 25 33 39 38 33 33 33 35 41 40 35 32 40 31 30 32 43 29 27 32 37 28 36 35 37 24 37 29 45 40 47 41 32 28 31 39 26 39 39 24 25 36 36 35 40 35 36 32 27 34 38 26 33 39 31 43 42 43 27 31 37 35 40 37 33 33 30 25 36 29 35 30 49 33 34 41 38 38 42 33 34 29 30 35 33 43 32 43 41 43 44 26 39 39 39 30 34 36 40 45 42 35 29 47 35 32 29 38 42 37 39 36 24 32 24 29 38 36 32 41 24 33 43 31 38 39 40 31 44 32 34 35 32 44 28 29 38 36 39 30 35 37 33 34 37 42 39 39 29 27 40 40 40 31 34 36 32 40 36 31 28 29 35 31 29 31 36 36 32 37 32 34 39 33 41 34 41 43 38 34 25 47 34 29 32 31 29 35 27 29 36 49 27 33 26 41 34 29 37 38 30 37 31 29 40 32 40 48 24 42 35 31 28 30 45 45 32 33 39 27 38 34 33 29 34 41 45 33 35 42 33 30 40 35 39 48 30 34 41 41 32 38 50 30 29 30 42 35 40 37 38 37 31 35 37 34 38 29 36 40 47 41 34 35 30 34 43 34 31 37 31 40 39 37 38 33 27 38 23 35 40 48 33 30 32 38 42 40 35 34 34 44 37 34 28 33 38 40 30 23 34 22 34 40 26 43 49 44 36 36 35 32 38 29 40 35 47 33 40 29 36 32 45 29 32 34 30 28 40 34 38 37 47 28 39 40 40 38 31 32 29 28 35 40 28 36 32 24 28 35 39 37 39 35 39 35 38 29 31 41 38 22 36 29 26 30 32 32 47 32 30 38 32 35 36 32 36 27 39 35 36 37 30 33 40 29 23 38 37 38 33 40 33 33 39 35 36 35 34 41 32 39 27 29 40 32 31 30 42 30 30 34 34 32 33 30 21 39 46 28 31 34 35 31 33 31 41 42 43 30 29 35 34 32 41 40 25 41 35 31 27 25 49 41 35 35 35 28 31 44 33 36 40 32 31 39 34 33 27 42 36 30 46 25 38 34 26 40 36 38 31 34 43 27 36 39 28 30 36 37 31 29 34 28 36 33 39 35 31 38 36 31 31 30 34 23 38 30 33 38 37 29 35 32 25 34 38 32 36 41 41 34 34 39 30 34 37 36 32 35 25 26 31 33 37 39 30 41 42 28 35 30 31 40 33 31 38 35 48 34 32 34 36 40 37 32 31 33 28 30 28 32 27 32 36 47 41 40 44 33 38 33 40 25 31 29 24 34 28 28 50 39 31 36 45 33 37 31 30 36 39 34 30 33 38 32 41 31 25 27 41 44 31 36 33 33 34 29 28 33 43 41 26 32 37 29 41 40 34 43 39 31 36 33 29 46 33 28 30 27 39 29 37 32 33 22 40 36 30 28 37 25 32 36 29 32 36 39 33 34 39 44 43 36 34 31 26 32 33 37 35 41 40 29 40 43 30 36 32 33 38 31 30 34 30 35 32 31 32 45 32 30 39 29 30 24 34 38 44 25 39 24 38 28 42 33 33 39 33 39 40 31 37 33 38 41 35 30 34 45 40 28 41 41 38 26 30 36 29 40 35 31 27 39 44 42 37 33 40 35 41 35 31 38 27 27 29 33 35 33 40 27 31 31 21 34 27 25 39 37 29 33 31 36 35 41 34 41 34 41 35 37 27 47 33 32 33 36 30 34 44 45 39 39 40 40 30 32 30 35 29 30 34 40 30 34 35 22 35 29 38 32 34 35 26 32 32 28 27 33 23 42 31 33 40 40 39 30 29 24 36 30 34 32 34 37 39 35 38 36 27 53 30 27 36 33 38 34 25 41 27 32 33 32 33 39 33 50 48 44 46 46 35 31 43 36 46 32 37 41 36 33 31 36 30 37 38 39 31 36 33 37 40 44 33 38 33 26 39 37 40 33 37 30 35 35 46 39 29 34 33 46 37 33 35 30 44 39 38 35 29 39 31 32 36 35 38 36 43 56 36 34 39 41 29 43 43 33 28 31 38 32 39 31 33 38 37 38 33 34 32 26 32 42 33 28 42 36 32 41 27 37 29 26 38 38 30 41 33 34 34 35 38 36 28 28 34 35 44 47 38 31 40 36 33 46 29 23 30 30 37 33 37 33 26 53 34 29 30 32 30 26 37 33 42 48 36 37 29 24 27 40 40 32 37 37 31 30 30 34 34 43 31 31 28 36 39 32 35 42 32 36 39 24 45 30 37 44 35 34 35 31 41 34 33 34 38 36 40 34 35 28 51 39 38 32 27 33 43 33 37 34 36 35 31 39 38 41 28 27 36 31 35 43 34 38 33 37 28 24 28 44 42 42 42 30 28 44 33 37 37 43 33 31 37 33 31 40 28 32 33 21 44 28 35 29 27 38 40 33 34 37 37 36 41 30 28 36 43 39 39 38 34 46 38 35 34 28 45 41 26 34 29 39 43 38 37 44 37 44 33 29 26 42 32 34 40 27 48 33 23 45 25 29 34 20 39 48 32 45 35 36 32 34 34 36 38 37 40 35 40 34 35 34 36 34 35 34 38 33 27 33 32 40 37 32 28 27 34 32 37 24 32 27 30 38 34 42 38 28 40 48 36 35 27 33 42 32 36 44 42 37 35 28 34 38 31 26 41 24 32 29 35 28 42 40 36 45 27 39 36 33 32 28 36 31 37 27 36 30 32 54 33 31 26 38 35 41 35 33 30 33 31 32 27 29 27 34 42 42 32 43 32 35 35 29 37 34 30 33 33 39 34 31 30 41 42 31 29 32 40 43 36 46 23 37 38 36 31 34 35 36 42 35 34 31 30 34 36 37 35 38 38 31 46 33 37 41 37 36 42 40 36 30 44 32 28 38 31 35 36 33 41 38 35 33 29 36 38 38 32 33 37 44 31 38 35 25 26 40 31 37 36 42 31 41 23 41 45 35 24 32 30 34 34 27 44 26 42 36 26 35 33 29 34 45 45 30 39 33 40 35 31 34 34 43 29 30 35 43 39 35 31 39 36 36 36 31 29 35 36 32 36 38 37 35 40 34 37 36 39 42 38 37 32 34 28 39 33 41 39 40 32 41 39 18 40 34 27 34 26 35 40 29 35 27 40 30 45 37 43 24 35 26 34 34 33 35 31 21 42 42 35 39 35 45 39 39 34 24 22 36 38 38 39 29 35 39 28 38 35 37 42 34 38 26 30 30 41 38 39 34 35 31 39 42 42 32 35 33 35 43 30 31 35 34 40 36 44 31 36 36 33 39 30 36 31 43 33 34 34 35 33 34 32 37 39 36 33 33 49 28 37 32 37 38 40 37 33 44 30 30 34 32 36 33 26 30 28 36 31 40 41 24 33 28 42 34 36 34 39 35 47 44 37 26 37 35 37 33 46 48 28 37 42 35 30 33 37 37 36 33 29 38 30 36 32 34 43 35 36 33 35 37 30 34 36 31 36 34 27 34 27 32 30 43 46 39 43 39 39 33 38 35 43 36 35 39 43 30 36 40 38 28 34 36 38 34 21 38 37 41 48 28 36 27 42 29 30 38 28 44 26 32 37 36 24 19 36 25 35 36 38 31 34 39 29 31 24 34 39 39 29 32 31 30 30 47 42 39 41 25 33 39 42 27 38 33 40 34 35 42 39 29 28 31 32 37 27 25 37 39 36 35 38 48 24 42 27 30 33 32 28 38 30 34 24 37 26 36 39 35 30 40 35 36 29 38 32 38 36 38 33 29 39 34 34 30 43 40 35 38 36 36 38 43 36 36 40 37 40 29 24 31 31 40 39 31 32 42 45 36 50 41 37 33 42 40 36 29 40 30 31 39 26 34 45 31 35 38 34 32 28 31 46 29 28 36 28 36 39 34 41 39 21 28 36 28 42 46 29 39 36 32 41 32 41 33 28 43 38 39 32 36 38 25 47 30 30 30 30 34 32 48 33 39 43 37 36 42 26 39 35 30 38 43 39 30 40 33 45 24 38 32 29 44 37 32 31 33 32 34 34 38 29 33 31 42 33 31 41 29 33 30 27 37 30 32 29 27 32 39 38 38 35 36 32 38 33 41 31 38 38 32 50 29 34 30 34 38 39 29 33 37 36 38 34 25 42 29 32 28 40 35 32 34 29 33 32 24 32 37 37 39 34 31 40 36 23 33 27 24 32 31 44 32 31 32 43 39 33 45 46 40 43 40 29 40 40 40 34 31 41 40 33 30 39 40 43 31 36 51 30 35 27 34 32 32 31 30 28 35 26 36 27 39 28 36 34 34 36 39 29 31 34 27 33 41 39 33 32 37 40 29 38 27 35 34 33 37 24 27 34 30 33 39 33 34 33 40 30 42 29 29 37 38 26 38 31 36 37 44 31 31 39 33 40 34 45 27 45 24 35 33 32 36 34 26 26 30 37 27 30 27 30 27 36 38 35 40 32 35 34 32 31 30 38 33 29 40 31 31 36 39 38 34 38 29 40 42 44 29 42 38 38 38 33 37 33 39 31 37 39 39 28 39 42 36 28 32 30 42 39 36 34 40 31 27 30 34 43 37 33 32 38 40 31 40 38 39 33 42 35 32 41 41 37 31 38 35 30 28 36 27 31 37 33 36 35 47 41 33 37 29 29 34 34 40 44 41 22 36 28 40 34 41 38 29 36 32 33 39 36 29 39 26 36 38 40 39 28 38 40 36 44 31 40 32 38 34 32 43 34 25 38 33 42 45 36 23 35 44 36 31 39 35 24 48 37 46 34 28 33 41 41 35 26 31 35 34 34 27 35 26 32 23 37 37 31 36 34 31 33 33 44 39 55 39 36 31 27 44 42 30 36 27 36 27 38 37 39 33 29 35 33 32 29 38 33 25 35 28 32 40 40 38 33 31 29 26 50 46 29 32 39 42 41 40 30 33 27 38 41 35 39 29 43 27 31 34 38 34 29 27 33 30 33 36 49 35 41 35 42 41 31 37 34 19 37 26 32 27 31 32 24 37 37 39 32 28 44 33 34 28 25 36 32 42 33 36 39 35 37 35 35 26 28 36 40 38 46 30 44 31 37 21 29 31 37 43 30 23 21 34 42 33 41 42 39 30 47 34 27 40 40 27 31 33 41 35 33 42 27 38 31 29 32 32 37 40 29 33 33 34 35 31 31 35 29 35 32 28 35 34 36 37 42 43 37 30 38 27 28 30 27 34 28 28 34 33 33 43 32 40 39 36 39 32 34 28 44 46 41 40 48 34 33 40 40 43 37 31 34 38 35 34 31 36 32 26 29 27 33 46 27 36 28 52 32 32 30 43 25 28 46 40 32 38 38 31 37 37 41 37 36 31 33 37 40 31 44 42 37 38 37 35 40 29 29 38 37 26 36 34 41 37 30 48 32 28 33 42 28 30 41 33 38 39 24 40 33 38 32 34 33 39 34 32 35 34 29 36 39 29 43 36 33 30 46 37 32 29 34 41 32 34 30 34 33 28 34 37 31 39 29 45 37 33 31 45 30 37 37 40 39 34 29 44 29 38 32 37 37 42 43 38 34 33 32 40 41 25 38 34 30 31 38 40 25 34 28 32 29 35 28 46 30 36 36 34 39 31 35 35 37 32 26 40 34 33 35 31 43 32 33 33 28 26 37 24 39 35 31 45 41 39 37 35 37 30 37 35 30 35 29 42 26 35 33 40 36 42 37 41 32 31 33 48 46 34 43 35 25 31 48 41 30 30 25 36 37 33 42 35 33 37 45 44 36 30 32 32 36 38 31 44 40 43 38 34 52 32 26 35 36 38 39 37 27 49 44 33 26 43 29 34 34 39 30 33 36 28 33 29 30 27 39 28 30 39 37 35 39 27 28 37 38 33 32 32 27 30 44 28 30 34 36 42 40 33 34 39 30 37 29 35 32 22 34 34 33 42 38 34 50 40 38 30 25 37 36 36 44 25 31 34 34 37 28 35 44 28 31 36 39 23 40 34 30 30 30 40 37 35 36 30 31 36 29 39 36 34 39 38 35 37 35 40 40 37 37 39 35 30 45 35 34 31 30 33 41 30 22 29 40 41 47 28 32 32 39 37 38 36 37 37 27 37 34 35 33 36 40 41 42 36 38 28 30 31 40 35 32 36 30 38 35 40 38 38 36 28 34 32 39 33 37 25 29 34 38 26 25 25 38 30 41 32 36 40 30 37 37 35 39 23 32 25 38 35 28 28 23 39 39 50 23 30 41 37 40 29 37 33 36 35 35 39 41 38 33 30 31 31 43 33 28 25 34 40 40 37 32 33 33 38 25 34 42 35 28 29 36 24 40 38 34 34 37 45 30 37 32 37 37 27 29 28 28 38 31 38 38 45 18 29 34 36 31 54 34 27 34 30 40 31 26 26 40 34 27 32 34 47 35 42 31 29 22 33 30 31 37 35 25 31 36 34 41 31 47 31 42 36 33 35 34 38 35 37 39 32 41 38 33 43 38 34 33 32 35 29 37 31 45 34 41 31 27 32 37 33 35 41 37 42 37 35 36 28 40 28 33 27 40 44 35 37 43 45 32 19 31 37 33 40 41 27 37 34 41 33 30 35 43 31 35 27 42 46 38 37 40 37 32 30 33 42 26 39 35 43 38 29 40 43 43 42 43 40 34 41 44 37 26 32 25 41 33 40 33 31 29 42 34 36 33 27 32 44 32 34 35 38 31 44 47 46 36 37 35 39 36 35 37 42 22 36 34 33 25 36 40 34 26 28 31 48 34 31 40 34 39 31 37 35 38 40 34 47 31 44 47 28 30 30 41 33 37 34 37 35 33 33 25 32 34 38 32 32 28 41 37 31 33 35 34 32 29 36 28 34 35 34 36 45 29 40 40 28 31 22 39 36 32 38 35 34 38 33 35 36 33 38 28 34 43 30 32 31 25 32 26 28 31 36 36 29 46 40 36 33 32 35 39 27 33 36 41 39 27 28 38 48 34 34 35 37 30 39 40 40 31 46 46 38 39 35 32 42 42 30 38 30 41 26 28 35 28 27 36 28 34 33 34 33 25 33 28 28 37 26 33 41 33 34 35 32 36 34 32 31 34 35 38 49 33 40 33 25 35 35 35 27 39 37 31 35 36 35 27 29 31 32 30 37 35 37 45 31 33 30 36 30 31 33 46 39 34 40 22 37 34 32 41 29 39 30 24 42 31 38 39 34 41 31 44 27 38 35 34 29 35 33 37 46 32 33 19 40 34 49 41 41 45 38 34 29 38 28 32 41 40 43 41 36 32 43 42 33 40 25 28 40 25 39 37 34 43 41 25 32 40 31 30 36 30 34 39 24 36 33 40 36 31 27 37 36 32 35 35 36 29 26 32 34 31 36 42 38 30 41 29 28 30 29 42 31 37 32 39 39 23 28 30 31 31 40 38 35 41 33 34 34 30 44 40 37 39 36 35 30 40 29 34 37 34 24 29 37 32 48 36 29 29 28 28 41 29 43 33 29 37 29 31 26 30 35 29 34 34 22 28 35 44 35 22 33 28 38 29 33 39 24 31 37 28 28 37 40 34 42 43 32 31 36 34 38 44 42 31 33 36 47 31 36 31 29 35 39 37 33 44 33 34 31 40 33 36 29 38 31 29 40 33 29 52 33 33 35 48 39 36 34 38 23 35 34 29 40 34 35 32 36 34 38 38 34 30 40 34 35 32 31 31 29 34 42 46 39 38 39 32 40 35 36 29 37 36 38 36 41 38 35 38 42 42 38 20 36 26 26 27 29 35 34 41 38 40 49 35 37 34 33 36 36 37 43 35 35 42 44 36 30 29 27 34 31 43 45 23 35 37 41 39 31 43 51 34 44 39 41 44 30 34 36 30 41 40 33 35 23 38 37 41 37 26 37 33 43 42 29 44 29 33 40 28 32 32 30 25 34 41 35 41 28 32 43 30 34 30 31 33 31 33 26 40 28 25 31 26 23 35 39 36 30 37 31 38 31 35 38 35 35 29 26 32 28 35 33 34 35 51 41 34 37 43 29 40 33 30 33 31 47 35 42 38 33 31 41 33 39 39 35 36 34 33 34 29 38 36 37 36 47 31 30 33 45 35 33 36 41 27 34 33 25 47 31 32 32 29 28 25 37 34 46 41 25 43 28 29 37 37 41 31 29 33 44 28 32 37 30 52 38 24 36 39 36 37 30 53 29 31 31 53 35 31 32 32 36 31 35 32 30 26 26 32 30 33 34 34 34 40 47 40 40 33 35 45 40 31 35 27 30 35 34 31 28 42 32 47 39 31 30 30 35 34 18 31 37 26 28 28 30 30 32 26 31 38 41 40 35 44 34 40 30 32 23 41 43 30 29 28 42 38 38 48 39 27 32 35 33 34 31 35 38 21 34 35 41 32 40 32 50 37 38 40 39 32 36 37 38 24 23 29 37 43 41 28 28 34 38 31 33 41 29 30 43 31 29 31 34 36 36 35 40 33 23 34 37 33 36 44 35 30 42 36 38 35 30 28 38 36 32 31 34 31 33 33 38 36 48 32 31 41 34 31 39 49 48 31 41 41 33 34 33 30 33 50 34 32 41 45 39 27 36 37 47 44 34 31 23 39 39 32 33 45 34 29 25 34 30 33 30 32 36 32 33 48 34 33 29 34 30 38 44 34 33 45 25 32 34 31 31 25 35 36 42 30 33 30 37 32 37 32 37 31 34 33 37 22 33 28 27 33 30 42 35 33 38 41 39 32 24 35 44 28 36 44 32 43 26 31 37 30 30 30 32 36 36 30 26 41 39 31 38 34 38 28 36 38 21 35 37 43 38 32 21 27 24 38 39 32 29 27 32 28 44 38 42 45 31 41 39 27 43 32 38 39 42 39 27 33 32 32 33 29 32 42 32 28 36 39 33 29 35 41 31 31 34 30 35 36 43 35 25 32 31 29 27 33 36 34 40 30 33 38 34 41 30 40 31 38 40 45 41 39 46 30 44 39 33 30 35 33 32 37 29 30 37 36 31 39 35 41 36 36 31 31 35 44 35 28 37 24 35 32 34 38 39 30 36 33 35 30 32 32 40 30 31 31 35 36 41 35 39 26 48 27 35 37 39 35 32 32 25 36 39 40 32 32 33 41 25 26 30 41 34 34 30 32 27 35 30 29 31 32 30 38 30 41 33 35 43 32 33 36 30 32 36 38 31 37 37 32 33 36 36 39 27 37 25 38 37 31 40 34 38 40 34 28 39 38 23 37 36 31 40 39 42 40 39 47 29 31 32 34 34 38 35 30 26 28 35 28 30 36 33 31 34 36 38 35 35 42 30 39 29 42 44 42 37 33 41 37 44 27 32 31 29 32 41 34 36 39 37 35 31 36 39 40 40 37 30 34 32 25 39 29 32 50 35 35 36 43 30 29 37 41 34 37 35 31 39 37 35 38 36 42 43 42 30 26 31 36 32 39 44 30 43 28 36 23 43 39 33 33 30 28 36 28 28 38 28 40 35 34 43 32 34 37 31 35 37 40 36 32 39 29 26 32 33 36 40 36 32 39 39 40 27 36 41 45 34 32 32 36 34 43 33 39 32 36 30 29 34 38 38 27 46 37 32 35 45 45 35 37 50 39 31 32 34 43 27 34 40 36 29 29 26 37 31 34 32 35 30 36 31 31 32 42 31 34 31 30 37 26 42 42 43 35 37 31 37 30 42 32 35 26 35 31 29 38 38 29 32 34 38 31 36 33 28 35 30 34 35 45 39 38 32 27 28 34 39 32 38 34 36 29 38 29 25 33 39 34 35 35 32 34 42 29 38 35 41 39 42 31 36 37 38 32 25 37 30 23 43 33 34 36 42 31 39 35 28 36 38 39 27 33 28 36 33 44 24 49 33 41 40 41 35 40 40 37 27 38 33 44 38 29 33 32 33 32 36 31 31 29 42 35 27 36 33 25 41 30 32 31 35 34 35 33 39 40 43 26 37 32 30 27 40 41 36 34 26 40 41 33 46 34 28 31 27 33 35 35 29 30 35 34 26 38 41 37 32 38 29 31 32 30 34 39 40 40 47 31 37 32 25 28 41 34 35 42 38 36 30 32 29 33 31 34 32 39 34 37 30 34 39 42 34 26 36 40 35 31 40 28 35 24 38 45 35 33 30 35 41 51 26 38 38 30 35 33 33 37 41 34 28 24 35 21 36 29 36 24 33 38 23 29 37 46 30 28 40 49 30 26 45 35 33 43 36 33 33 32 28 40 45 37 28 31 37 38 32 33 45 34 39 29 27 30 27 37 34 29 35 31 40 41 34 35 36 31 45 37 38 45 33 35 33 31 30 32 35 35 29 36 34 36 30 37 35 33 33 33 23 42 32 40 34 42 48 34 34 26 35 26 27 31 34 36 21 29 29 34 25 39 35 33 21 36 29 34 27 34 37 36 44 37 35 30 32 29 35 59 33 28 41 31 39 30 39 31 38 37 21 35 35 28 33 36 28 31 28 35 30 31 33 31 38 26 39 34 30 28 35 41 40 32 30 34 40 38 26 32 37 34 32 37 28 29 33 39 31 28 41 31 35 32 42 37 30 33 34 30 47 31 39 26 30 32 35 33 37 31 29 30 34 34 32 40 33 33 29 29 34 27 29 38 33 41 27 31 39 21 26 30 37 34 25 23 32 38 36 35 29 40 28 32 34 35 24 37 40 41 37 43 34 29 35 40 41 42 21 29 35 41 28 27 33 33 44 29 39 30 36 36 31 27 26 32 34 24 34 29 31 40 38 32 26 32 41 27 25 44 40 33 35 36 33 35 48 36 31 33 34 34 49 40 46 36 38 32 30 23 35 28 35 27 37 29 26 39 31 39 42 25 31 33 30 33 24 30 26 36 34 30 38 41 32 31 32 27 31 30 41 38 28 38 37 27 30 37 37 30 37 40 25 40 36 38 34 33 36 30 48 30 32 37 40 33 41 35 30 38 29 32 29 37 38 41 30 29 24 30 23 38 36 32 37 32 35 42 38 36 36 36 25 37 39 34 33 37 32 33 39 29 30 40 29 30 31 32 30 29 39 33 44 38 36 32 38 36 32 31 35 37 45 34 27 30 30 28 37 29 26 36 30 35 25 41 44 22 26 33 28 37 28 33 33 33 30 36 28 33 35 35 28 47 33 27 28 34 31 39 41 34 36 33 43 36 28 34 38 27 40 35 34 30 38 30 34 43 38 35 45 39 30 44 40 31 33 28 41 29 35 31 44 33 33 40 35 37 38 34 41 49 45 42 49 29 28 38 29 41 34 32 38 35 24 40 33 37 36 35 28 28 38 35 35 35 37 25 38 32 35 40 38 38 32 40 44 35 31 34 39 36 43 33 41 39 35 26 44 36 27 28 30 35 33 31 33 33 39 34 32 44 44 31 38 40 29 30 36 36 33 42 34 35 35 39 36 28 32 44 36 40 34 41 25 28 37 38 43 39 33 42 33 31 32 34 31 35 24 32 39 27 30 31 45 37 40 34 34 42 43 41 34 40 35 27 44 37 30 30 23 28 35 37 31 33 45 43 26 30 27 44 40 44 36 30 27 49 29 43 34 37 41 38 29 32 27 35 39 32 32 28 29 28 29 42 34 37 34 30 45 32 42 47 42 28 30 36 36 32 30 43 40 43 35 25 37 33 23 37 44 37 26 32 34 43 35 40 32 33 41 39 34 33 42 36 39 31 32 25 37 31 30 33 32 28 40 37 34 35 30 30 29 30 46 32 35 41 41 40 32 37 33 32 35 42 31 35 46 45 33 33 47 33 35 31 37 34 35 32 35 30 33 32 35 34 35 39 32 33 34 35 34 38 47 32 31 36 28 42 31 41 29 35 40 41 32 45 31 39 37 30 31 35 33 33 33 36 34 50 30 41 26 39 31 31 46 36 30 30 35 45 42 37 39 37 41 31 29 38 32 32 34 44 42 26 25 42 38 31 43 35 40 36 29 40 58 26 30 45 39 32 36 31 27 39 34 28 31 45 28 49 27 30 37 32 36 28 38 31 35 38 31 40 31 36 25 32 34 38 38 29 32 34 39 31 36 34 35 51 40 34 32 42 34 26 41 35 29 31 36 25 34 31 38 40 33 34 34 38 26 37 30 34 32 30 36 38 51 43 35 38 32 37 34 30 33 34 45 32 29 34 33 40 35 29 43 40 26 32 36 24 36 39 35 37 31 50 38 37 36 33 36 27 49 42 34 30 35 38 37 37 33 37 43 40 36 28 33 34 39 40 33 30 24 32 35 34 29 31 32 38 36 38 31 26 38 29 35 33 33 38 36 37 33 29 35 43 37 31 32 31 28 41 40 41 26 37 35 39 30 26 41 34 37 32 25 35 23 31 30 35 26 42 39 35 33 35 37 31 29 38 28 33 44 25 30 30 37 40 36 48 28 31 40 26 21 43 31 33 35 34 39 23 45 32 26 34 27 39 30 41 32 37 30 31 52 35 28 35 28 36 31 34 34 34 30 31 35 41 41 37 35 39 33 48 32 39 34 32 32 31 33 42 37 26 34 35 24 32 44 31 32 37 23 33 37 26 38 32 36 30 43 31 26 53 42 35 34 29 46 33 35 40 35 44 30 35 34 30 31 37 39 31 31 26 31 41 53 44 30 43 38 27 35 30 34 31 25 28 38 36 24 34 49 28 31 32 25 35 34 31 35 47 36 29 39 35 40 28 23 34 41 40 30 28 40 35 37 37 36 33 37 37 31 28 35 34 36 37 39 38 35 35 35 35 35 27 43 35 35 43 29 45 39 31 36 28 48 36 28 35 31 42 31 27 28 28 37 28 45 45 32 30 29 35 37 34 42 29 41 36 36 36 30 44 31 42 44 35 33 40 28 35 37 43 38 40 32 36 32 38 39 41 27 30 26 39 33 37 44 31 36 39 44 41 41 37 33 36 32 38 23 31 33 34 33 40 30 32 34 25 28 34 33 36 42 46 42 33 36 28 34 37 36 32 26 27 39 30 29 35 25 37 31 35 35 34 39 38 33 46 32 33 38 38 32 44 35 33 34 41 25 33 42 37 33 30 31 40 34 36 38 23 39 38 25 27 25 33 31 36 29 43 41 34 40 30 28 35 34 28 36 39 31 29 35 27 39 34 38 33 44 35 33 33 28 38 42 32 28 31 35 36 39 45 30 36 34 36 35 37 28 35 41 44 34 28 40 29 37 36 43 35 38 38 36 31 34 38 36 31 31 36 32 38 34 32 28 32 38 35 34 30 35 36 39 27 42 34 40 32 42 34 41 36 27 33 33 42 40 48 40 36 26 43 34 37 37 41 45 28 34 44 47 34 31 34 29 39 32 33 38 39 30 33 34 35 31 27 29 28 34 30 26 33 42 32 38 42 32 30 38 29 31 37 41 41 31 29 37 28 31 36 34 34 43 29 38 34 36 46 34 38 31 26 38 28 32 50 46 24 37 43 42 38 36 39 40 39 36 38 31 32 42 31 39 35 37 30 25 33 32 31 35 31 44 34 40 37 39 30 26 30 32 34 36 30 42 40 30 42 40 50 34 29 37 42 34 34 26 40 33 30 42 32 33 33 36 38 34 25 44 27 35 37 35 31 22 29 29 33 37 29 41 37 44 30 47 36 33 31 24 35 36 41 40 39 41 32 40 41 32 44 36 32 44 35 42 39 35 27 32 29 35 33 44 35 44 43 36 39 50 29 31 32 32 35 29 35 44 42 30 33 35 30 40 36 32 36 32 31 35 23 33 43 37 41 33 34 35 33 33 43 32 29 29 32 34 34 30 36 34 34 27 34 33 37 29 33 38 40 34 31 24 37 39 31 34 25 39 39 37 34 40 29 31 36 21 32 25 24 32 31 35 40 38 39 34 39 32 35 40 36 27 41 39 33 47 41 34 35 28 33 33 34 38 39 27 43 41 21 35 35 30 25 35 24 31 41 42 27 49 36 33 49 31 30 39 37 38 30 36 39 46 30 36 34 29 39 39 34 33 41 33 30 50 39 40 35 37 46 42 42 37 31 42 40 29 30 36 52 35 29 31 36 29 38 34 28 34 33 29 38 39 40 39 32 25 34 44 35 29 38 40 41 43 26 37 44 34 30 27 34 37 35 43 29 37 46 32 37 30 33 30 51 43 25 20 22 39 34 40 36 39 33 31 27 33 30 28 28 46 37 29 33 33 22 38 29 26 34 29 44 42 34 32 32 31 32 24 34 33 37 37 37 34 36 41 34 29 34 41 38 24 31 38 29 31 30 35 27 39 46 37 31 42 45 29 30 29 45 36 42 38 35 30 34 38 38 35 40 34 30 31 35 46 37 29 32 39 37 24 33 37 33 34 33 38 36 47 32 39 38 31 34 31 23 25 38 31 32 36 29 41 28 37 35 33 38 24 31 30 38 35 25 34 32 35 35 38 34 33 32 36 31 40 31 36 26 38 33 31 31 37 32 38 32 37 40 35 27 29 35 37 37 37 35 29 32 39 28 33 35 48 21 46 34 40 33 32 36 28 38 40 36 24 40 38 25 44 35 46 25 43 26 33 26 33 39 30 30 31 25 35 40 31 34 35 43 28 32 30 35 34 41 24 33 29 32 36 40 30 35 30 40 36 30 38 38 30 29 35 35 37 28 35 38 31 40 37 30 41 43 26 40 34 41 43 36 40 40 38 28 29 42 33 35 36 33 44 34 42 44 31 46 35 33 28 41 43 37 30 40 40 31 31 38 32 35 42 37 31 35 29 35 41 37 38 32 33 36 32 30 26 44 27 36 28 41 39 30 31 35 42 40 42 42 32 38 44 28 44 33 36 29 32 34 31 30 36 26 39 34 33 31 25 39 32 29 34 33 41 39 42 32 33 36 32 44 36 38 38 39 34 42 39 34 32 38 35 28 38 28 32 37 48 26 32 32 33 40 41 29 22 38 32 35 34 28 35 37 43 43 39 35 45 27 37 25 35 39 30 34 27 37 27 33 39 44 35 29 30 26 36 28 24 38 34 30 31 43 37 28 32 34 38 31 39 30 32 36 32 39 35 40 31 41 43 34 37 25 40 39 28 24 29 28 23 37 46 31 37 32 33 26 39 33 42 32 42 31 43 37 39 29 40 32 35 25 37 29 38 30 29 30 35 39 48 38 38 35 32 31 23 42 27 37 34 43 34 38 40 26 33 28 33 45 55 44 30 33 49 27 39 32 53 36 32 34 33 32 44 29 34 30 29 38 32 37 35 29 26 30 29 36 32 27 33 45 26 30 35 28 39 34 38 39 38 43 29 31 35 23 31 27 39 40 44 31 31 25 51 37 36 43 45 37 36 31 42 40 31 34 36 33 34 39 45 33 30 30 36 34 39 31 36 27 33 36 25 38 36 31 42 33 38 33 46 35 44 38 40 36 30 36 37 37 33 31 42 30 18 33 32 37 35 30 39 26 27 48 33 42 36 30 40 37 38 36 32 40 38 40 37 35 33 36 34 35 46 30 33 32 46 32 40 29 30 34 42 31 34 34 36 44 40 39 52 32 41 32 42 38 32 37 33 34 30 39 40 32 46 39 40 28 40 34 32 33 49 35 42 40 38 36 37 32 31 28 37 37 32 35 37 31 40 26 31 31 38 36 33 28 45 28 38 41 26 35 30 35 32 28 35 38 38 35 28 27 39 36 39 39 41 31 46 39 38 38 40 38 40 30 40 43 37 42 31 41 52 33 34 29 33 38 26 32 41 37 36 42 33 26 29 37 34 30 36 32 31 34 34 33 32 37 34 37 31 36 43 34 36 29 44 26 35 30 35 33 46 36 37 28 34 35 23 47 21 24 38 37 26 28 40 38 45 44 41 33 39 33 30 43 40 35 33 35 31 32 35 32 24 39 35 29 37 35 40 46 34 40 42 29 35 32 37 38 33 29 38 37 33 26 32 35 40 47 33 41 23 37 39 38 32 30 28 32 38 43 38 35 34 41 40 32 35 39 38 38 42 27 31 38 33 33 40 34 39 41 34 36 40 36 38 37 31 35 38 28 36 36 29 38 39 35 56 39 26 29 32 40 34 47 35 31 33 29 36 37 39 45 34 37 30 36 37 30 35 36 42 29 32 38 36 29 53 39 34 30 39 37 38 31 35 40 39 38 41 46 36 36 28 33 39 33 43 41 31 37 38 28 28 25 26 41 39 32 32 38 36 33 25 31 28 27 32 27 33 28 28 26 30 26 41 35 32 36 29 35 33 24 38 35 35 30 31 36 29 26 34 35 45 39 30 25 33 33 28 44 38 31 31 39 31 40 33 32 34 32 29 36 29 32 33 32 35 29 37 36 40 32 35 24 33 29 34 38 26 43 28 30 43 34 24 42 46 27 29 28 35 32 26 30 39 37 36 32 30 41 29 36 31 29 36 25 33 34 31 41 28 34 34 28 38 39 35 46 37 31 49 42 27 33 33 35 32 28 35 29 28 33 39 41 36 32 32 39 30 35 35 36 41 32 29 32 35 36 36 36 39 38 29 34 29 38 31 42 34 35 30 45 33 41 38 37 27 32 31 38 29 43 40 36 31 36 35 33 34 34 37 33 24 34 26 38 40 40 27 37 33 31 35 26 35 26 43 29 29 29 37 28 42 38 40 39 35 30 39 31 37 22 46 33 30 42 29 30 33 35 39 37 36 40 38 33 37 26 28 32 39 36 35 41 29 31 47 35 26 34 24 38 39 45 33 34 28 34 32 27 38 38 37 33 36 27 45 41 40 35 26 34 37 28 30 28 41 31 37 28 41 40 30 31 46 39 32 29 23 40 32 38 29 28 35 26 35 35 42 31 34 33 43 32 43 36 35 35 30 28 35 31 34 25 40 32 30 39 29 34 31 36 38 32 44 40 28 25 31 26 32 26 41 35 37 35 23 28 37 34 31 27 47 26 37 35 29 38 33 38 31 22 34 29 33 38 41 28 36 44 41 26 30 39 40 34 45 34 29 38 43 29 21 32 32 30 33 30 40 33 35 34 32 42 29 33 26 34 32 36 35 37 37 39 24 33 42 34 28 37 39 44 33 24 33 30 38 35 28 39 39 35 30 39 36 31 43 40 37 33 38 34 37 27 42 29 42 47 31 49 32 44 34 39 32 34 42 37 35 32 37 29 41 23 35 36 40 29 38 31 37 31 28 40 41 28 30 34 34 33 32 29 41 31 34 28 28 42 30 38 39 42 25 29 32 30 35 44 36 30 31 46 29 29 26 44 38 36 34 31 32 39 35 28 38 39 41 22 38 29 39 50 38 45 28 41 32 30 35 40 34 29 30 41 34 27 34 28 32 38 32 32 30 35 32 35 42 32 41 29 33 42 34 32 34 46 33 36 35 28 38 34 40 36 44 35 32 35 34 35 28 29 26 36 35 41 32 41 41 25 30 31 39 33 26 32 28 27 32 33 38 35 38 31 23 29 37 38 29 34 29 41 31 34 33 39 38 24 30 36 34 37 35 28 35 36 29 40 31 36 42 34 34 33 39 28 35 43 33 32 29 52 34 44 28 38 28 37 26 52 35 31 31 40 36 36 32 33 39 38 39 24 27 25 36 29 23 43 32 29 28 31 25 37 36 27 36 31 38 30 33 36 44 36 33 32 29 35 35 49 40 34 38 37 34 30 36 32 38 34 37 45 42 36 35 35 31 33 29 28 34 31 36 29 35 25 38 35 33 36 40 32 29 30 33 32 31 36 42 41 36 27 33 33 40 30 29 29 37 31 26 36 28 26 32 34 36 34 33 25 38 41 49 29 31 41 31 25 26 33 37 36 32 35 29 34 40 39 40 36 38 29 27 40 36 41 44 41 35 33 39 33 40 41 46 28 36 38 27 39 29 39 25 34 35 35 28 39 35 36 34 36 34 42 41 38 34 42 39 41 32 40 29 27 33 36 30 29 27 27 37 47 39 34 35 34 30 31 34 32 32 31 29 28 43 32 38 35 39 31 33 26 36 33 26 40 28 35 36 37 47 36 44 42 31 42 26 35 40 34 43 43 39 45 32 31 47 22 34 26 37 39 29 28 49 34 40 37 43 27 26 38 32 30 43 25 42 41 40 27 44 35 37 40 37 35 38 34 31 32 38 36 33 37 34 31 34 44 35 38 36 32 30 38 24 37 30 40 32 47 48 35 41 35 42 37 34 35 31 24 41 40 21 25 37 40 34 42 42 38 31 28 42 36 29 30 35 37 35 40 42 47 29 30 35 29 34 37 32 28 35 35 30 36 29 32 37 41 33 30 40 33 34 35 36 38 33 36 42 30 31 31 41 27 28 38 31 38 38 40 28 26 38 38 34 30 36 39 31 33 32 23 46 38 44 33 34 34 32 39 28 36 45 38 31 28 36 28 31 30 31 32 39 36 30 38 35 29 32 37 51 37 32 38 34 34 36 30 41 37 40 24 36 34 43 44 42 35 44 33 27 35 37 25 43 41 34 37 44 32 37 45 33 29 41 36 30 43 40 35 30 45 37 42 40 38 42 35 37 36 30 40 42 30 32 37 37 38 35 36 28 50 37 35 29 35 37 30 31 31 35 37 45 30 32 36 31 33 31 39 25 29 28 24 26 39 29 31 37 36 35 28 32 38 36 34 34 39 26 38 38 25 45 42 33 43 27 33 31 23 41 41 28 31 31 36 38 35 31 28 28 34 39 39 36 23 25 30 43 31 35 36 37 36 33 39 24 37 30 34 33 25 46 31 44 35 35 28 23 33 26 27 39 28 32 46 29 34 46 20 47 34 45 33 26 31 34 34 32 36 43 41 36 38 57 33 41 41 38 25 30 33 38 29 34 36 28 39 45 30 32 48 40 43 28 41 23 28 33 45 37 34 37 34 51 30 37 38 44 27 19 32 34 41 31 33 20 36 28 29 38 39 35 40 33 41 42 28 27 40 39 29 32 28 36 39 27 50 30 34 40 34 33 29 34 24 37 34 26 44 41 36 35 36 40 37 25 25 33 42 36 37 43 29 28 27 41 25 33 28 30 30 21 40 39 40 37 31 32 42 35 37 36 38 39 30 31 39 47 32 39 27 32 37 41 35 38 28 41 30 45 30 37 39 34 40 45 26 23 34 32 27 33 42 43 28 41 32 35 38 30 30 40 39 36 36 32 29 37 35 27 36 31 28 29 37 39 36 37 38 42 34 44 27 28 43 34 38 35 39 34 38 26 39 37 35 30 36 40 40 38 36 29 31 38 36 28 31 41 24 27 28 39 42 35 36 28 36 38 37 39 43 43 31 46 39 28 36 37 36 36 29 38 46 37 31 30 29 49 33 37 35 35 41 36 30 33 26 29 32 33 34 31 41 35 32 39 41 29 43 35 32 31 35 38 40 40 33 39 34 25 36 38 29 27 36 34 35 27 35 30 33 36 33 31 41 38 27 26 43 27 31 26 51 32 26 53 41 36 37 32 48 29 29 42 31 23 36 31 26 37 26 32 35 35 33 35 27 39 40 36 35 35 39 32 43 35 34 52 30 36 42 42 30 36 39 29 39 30 25 36 36 45 37 39 34 33 32 27 27 34 39 36 33 36 27 30 31 35 34 33 33 33 41 32 33 36 31 33 35 32 30 33 35 33 42 33 28 38 32 40 34 32 34 36 29 37 45 42 44 44 33 39 27 33 28 31 40 35 41 31 33 38 31 25 40 38 32 31 26 44 36 30 33 57 29 30 33 37 33 35 43 28 30 41 30 32 37 27 31 33 29 40 42 37 38 33 35 28 32 38 35 38 35 35 40 36 45 36 38 33 43 31 33 45 26 35 39 29 28 35 35 34 35 35 38 32 42 31 31 39 38 32 34 29 35 31 38 41 28 32 26 36 34 32 32 29 42 40 32 37 38 31 38 28 30 45 32 29 27 36 47 36 34 36 31 39 37 41 33 26 47 27 32 31 27 46 26 41 29 45 34 31 29 30 32 46 33 37 34 39 35 42 33 43 37 39 38 36 40 41 33 41 33 31 35 35 34 25 32 32 37 34 32 41 37 35 39 32 25 24 38 25 38 34 32 32 39 36 39 42 34 27 34 32 38 31 44 40 37 25 40 27 45 35 39 35 29 30 36 30 45 34 27 33 24 40 35 37 31 40 24 37 42 32 39 33 36 41 44 36 36 37 20 44 34 39 34 36 34 35 36 30 33 30 37 27 32 33 52 32 42 29 32 34 36 31 41 39 42 32 24 37 34 48 31 30 34 49 36 38 36 37 25 46 36 39 39 35 38 41 27 37 37 26 28 26 35 30 37 37 34 41 33 32 39 35 45 46 41 27 40 37 27 29 32 51 36 39 31 41 27 30 25 32 39 43 28 33 32 24 27 29 34 35 38 45 40 44 32 31 27 28 36 29 30 29 29 32 38 30 38 37 42 40 24 33 35 30 31 37 32 40 39 27 26 36 34 39 33 35 32 37 38 32 42 33 46 39 31 37 36 36 43 34 47 41 35 32 39 28 34 32 33 29 37 31 37 29 32 38 31 31 40 26 35 38 35 37 40 37 31 34 44 37 42 38 36 34 33 30 36 34 42 24 32 39 37 37 39 38 33 41 28 43 40 35 30 44 31 37 38 31 32 23 30 46 44 38 38 38 30 48 42 28 31 37 33 39 29 43 45 38 37 30 32 45 40 32 29 45 26 40 24 34 34 30 42 42 42 37 36 40 30 40 38 39 34 30 34 38 25 40 31 41 35 27 29 42 28 32 48 40 23 32 36 33 21 35 32 33 31 33 34 31 22 41 31 39 29 39 32 39 36 38 33 39 44 36 44 28 30 27 39 32 33 44 35 25 30 30 34 32 31 43 38 42 30 33 27 29 33 39 39 36 30 30 31 32 45 36 29 31 42 26 37 33 26 35 35 30 35 33 29 35 33 45 36 31 25 31 34 41 29 42 33 33 28 31 28 37 39 24 35 40 30 41 41 31 27 37 28 31 36 41 35 43 36 36 43 38 23 42 33 38 40 32 30 20 34 39 34 39 31 35 41 33 33 29 31 27 34 27 30 35 27 33 39 41 33 27 38 38 37 38 38 34 38 30 34 39 46 35 34 22 38 24 24 34 42 32 24 39 36 47 28 24 33 39 37 35 38 30 32 42 39 28 29 30 30 42 37 32 38 40 40 32 32 27 35 36 35 33 39 42 41 30 30 36 35 42 29 32 38 29 36 36 44 32 41 31 43 30 28 39 29 34 31 32 37 38 38 33 31 31 42 28 51 34 44 36 30 36 38 31 31 38 38 23 31 34 34 39 32 48 44 35 35 38 48 37 36 33 30 34 25 37 33 35 40 25 30 47 23 34 30 29 35 44 39 35 27 26 32 41 28 29 34 42 36 34 29 35 37 31 34 24 37 24 35 37 31 31 32 30 30 36 32 26 39 35 33 31 33 37 31 33 38 33 35 29 34 43 38 32 43 30 42 37 33 28 38 42 31 30 37 26 39 32 33 34 43 37 30 39 38 33 28 28 36 40 33 35 45 30 35 42 23 43 26 35 27 41 38 34 34 33 38 30 36 35 36 38 38 29 45 29 26 33 29 42 27 27 38 33 30 30 37 34 34 31 31 22 52 42 36 32 44 39 26 36 42 30 35 27 33 38 30 27 35 35 28 38 29 35 33 37 36 34 27 31 40 42 21 31 37 39 32 39 31 38 47 41 33 25 51 29 38 48 28</t>
-  </si>
-  <si>
-    <t>JSU(-3.1155876803508917, 6.599703649288503, 117.98732520535246, 291.6096869229626)</t>
-  </si>
-  <si>
-    <t>236 271 328 193 241 235 310 240 308 357 229 307 271 193 224 262 354 277 256 289 205 260 231 300 225 282 313 279 301 279 283 237 315 259 282 221 237 164 316 240 170 333 337 218 174 254 329 282 182 162 235 311 304 246 227 371 190 248 264 215 314 205 256 236 249 301 303 318 285 358 213 272 219 275 274 331 258 295 232 272 241 292 241 318 347 283 210 243 372 348 242 192 285 347 333 280 224 261 267 265 350 210 313 330 238 241 156 290 287 282 343 217 331 257 241 263 238 300 328 260 289 188 192 266 211 218 255 266 230 235 284 193 245 271 201 343 296 329 215 221 316 160 280 277 294 236 325 292 209 248 280 206 331 228 245 341 277 189 323 131 245 211 336 292 287 343 231 251 306 220 289 215 246 221 260 271 243 317 153 317 302 271 322 228 195 271 243 246 264 298 244 268 202 228 150 223 259 220 243 275 307 246 294 286 400 236 257 206 164 336 279 269 270 270 233 216 246 317 331 216 367 270 253 244 315 286 272 309 217 294 246 266 203 264 229 243 385 236 238 241 235 255 256 346 217 204 238 261 194 159 268 297 243 449 268 287 230 299 274 176 237 214 191 225 224 207 245 359 284 293 217 316 172 209 299 267 236 264 212 269 294 358 241 312 239 227 272 327 165 244 216 385 254 342 291 249 330 213 207 247 315 292 270 319 375 232 211 271 260 222 225 183 339 203 265 301 246 246 320 219 282 283 269 228 256 269 294 306 271 247 215 270 242 303 308 261 340 256 302 280 287 219 249 239 326 314 179 168 220 300 219 298 215 231 299 315 223 198 373 290 305 288 271 306 326 256 274 218 217 202 167 277 280 259 266 273 233 303 245 196 280 210 265 251 293 272 183 284 224 172 204 249 265 296 186 270 192 314 243 325 276 227 302 245 188 177 281 366 330 220 283 192 283 357 290 238 291 285 249 241 200 303 249 214 207 250 245 314 282 292 153 280 227 347 301 371 318 255 236 311 347 215 295 303 153 209 239 336 231 320 269 299 317 162 307 244 187 264 301 283 295 335 248 213 234 266 255 282 264 303 241 223 229 237 252 261 230 335 250 260 301 251 268 313 280 263 255 225 285 262 393 284 290 294 325 354 231 311 312 223 208 246 319 259 312 272 295 212 379 229 243 230 323 295 321 340 247 216 249 221 169 297 236 281 311 191 231 220 154 341 313 345 218 375 220 265 219 246 340 259 258 374 258 274 262 285 328 266 217 205 263 302 242 206 231 309 284 270 206 270 245 178 354 398 223 272 183 216 270 265 231 316 280 236 257 283 314 319 220 323 296 266 379 207 258 214 357 255 237 247 308 220 227 146 213 298 288 188 286 242 359 224 221 235 186 236 228 284 240 299 207 341 331 174 339 305 234 231 250 407 265 195 257 310 161 232 247 210 227 300 325 239 323 277 303 193 194 269 275 269 286 259 263 346 269 238 277 381 260 187 232 339 332 267 234 306 234 215 195 306 307 307 203 262 295 379 282 266 316 248 215 358 272 246 278 201 225 320 301 324 284 213 262 213 208 271 375 250 202 246 295 344 331 247 211 269 256 266 319 235 282 302 234 263 179 262 182 277 331 199 302 317 271 331 250 255 301 262 220 276 290 322 246 321 114 242 254 381 215 205 302 200 209 279 277 305 267 308 242 219 253 310 323 201 268 217 203 254 271 210 272 206 149 281 219 357 273 286 234 292 250 275 237 228 335 295 222 279 264 224 221 187 242 325 276 234 329 233 291 340 277 277 191 310 243 224 282 233 276 307 236 198 359 250 313 218 272 297 180 324 260 239 212 247 286 256 273 137 219 295 176 216 207 325 329 162 323 264 238 181 207 199 325 340 223 269 323 264 265 224 229 280 315 378 243 232 295 293 257 362 279 227 295 273 262 239 217 405 303 334 267 257 253 262 326 232 226 276 237 221 263 250 245 218 266 270 266 386 224 308 225 213 345 254 277 267 290 331 231 225 381 247 281 264 339 211 241 219 245 302 279 285 249 215 317 296 192 278 208 255 206 236 256 232 311 307 236 243 223 215 261 272 258 299 315 267 255 261 302 233 283 269 250 234 275 241 180 238 205 308 234 234 409 359 207 210 196 207 259 235 199 256 241 325 212 261 276 343 240 288 274 220 258 232 165 180 237 216 254 276 344 355 313 329 230 277 229 310 211 238 222 154 268 249 232 431 279 222 302 341 243 267 219 254 312 298 246 223 249 288 213 408 192 133 213 323 293 227 166 279 201 294 219 247 310 349 308 254 242 265 224 328 360 281 332 341 207 256 246 229 319 249 200 297 202 295 258 295 229 199 162 253 309 192 255 325 160 244 245 233 214 273 256 248 324 316 306 366 274 307 252 216 247 220 256 278 293 328 248 363 365 242 284 175 217 266 269 246 335 246 254 238 216 243 243 263 215 292 256 228 157 256 256 268 213 286 152 306 232 346 308 284 302 242 267 276 235 309 248 228 284 252 209 256 280 283 228 327 281 304 246 248 331 197 299 269 265 184 291 310 336 282 303 347 295 209 294 242 308 259 188 174 274 196 301 231 274 217 208 146 236 230 207 315 291 225 235 286 200 295 292 277 333 274 286 240 271 237 350 247 200 257 263 241 338 319 374 317 295 377 270 240 226 214 266 248 218 304 319 242 252 286 156 291 201 319 254 270 284 224 256 226 210 244 267 176 388 269 272 293 261 287 264 269 151 365 173 241 221 249 245 341 298 283 203 178 348 216 196 233 258 306 317 205 301 218 240 262 282 258 242 292 405 349 404 340 362 220 284 282 288 362 270 209 328 302 242 225 277 324 292 255 285 229 269 252 283 406 283 237 317 248 209 320 281 341 247 309 142 201 246 344 275 201 200 249 271 288 296 241 245 268 300 257 292 209 251 276 206 234 219 272 288 246 318 243 208 319 336 197 296 357 235 198 240 323 218 281 192 219 305 193 297 258 246 225 182 235 314 222 202 328 248 249 323 163 224 176 219 281 283 245 278 224 306 252 242 315 306 192 240 295 220 334 350 309 252 333 224 213 354 191 155 238 232 285 273 226 285 171 326 239 234 217 186 231 121 229 294 217 315 328 312 227 200 126 239 260 242 305 257 226 183 231 239 305 358 244 227 177 278 297 319 311 343 265 292 300 237 386 195 292 354 299 270 239 258 276 268 239 246 291 288 269 259 271 191 358 271 248 270 215 287 289 260 297 252 259 333 257 235 237 338 151 229 236 238 285 293 244 257 270 214 255 180 267 366 291 339 233 239 240 341 205 242 287 338 254 281 280 269 227 326 269 201 174 90 319 212 281 302 248 264 260 190 311 265 238 287 211 204 198 206 289 227 318 244 232 374 281 239 278 204 260 349 206 193 187 252 327 245 260 329 242 251 254 220 171 311 257 277 284 185 383 254 219 333 139 268 204 127 315 399 227 341 291 256 268 357 187 260 360 216 359 268 280 204 294 238 280 265 297 280 341 242 255 285 205 286 281 277 197 213 299 225 275 187 283 160 191 295 306 347 288 273 271 322 340 172 246 287 315 209 231 345 258 265 220 235 280 316 235 196 305 213 254 215 289 251 317 289 201 355 252 343 241 264 228 185 283 229 344 196 363 284 217 329 201 236 169 307 260 388 247 323 235 230 239 243 218 270 207 235 275 324 299 272 257 278 292 176 339 301 211 270 300 270 260 260 290 332 312 231 267 235 294 317 276 357 170 265 266 288 184 233 300 235 287 307 280 265 167 249 270 197 226 290 245 224 383 218 190 282 254 311 266 277 302 265 346 256 237 262 235 281 261 270 272 292 242 226 271 291 238 261 318 195 220 287 233 277 210 160 219 308 261 247 358 311 289 344 157 333 285 217 203 197 248 307 234 227 326 196 331 264 153 290 231 143 270 327 294 254 292 233 310 292 201 257 233 285 223 203 282 320 376 275 254 251 277 259 253 248 230 345 261 220 233 300 337 248 289 225 276 264 294 264 313 266 211 286 242 300 233 341 314 308 271 323 231 186 319 210 196 289 198 306 367 230 249 200 288 219 334 277 282 198 269 177 254 212 244 303 275 195 276 329 274 245 294 312 305 350 270 185 133 287 318 278 223 255 255 301 196 294 265 283 262 217 306 250 243 193 361 310 280 273 323 218 293 288 357 276 253 167 234 295 235 231 241 252 324 342 264 219 269 299 280 313 216 299 253 280 338 232 188 264 243 295 264 334 293 298 208 248 355 189 287 252 295 323 261 267 251 354 219 220 291 225 267 245 195 217 301 282 214 296 356 230 227 253 301 245 324 331 292 292 317 286 267 217 271 242 299 318 307 390 246 278 264 275 254 217 287 252 285 283 227 326 291 264 233 222 274 270 288 240 215 276 193 285 286 257 225 243 267 288 232 272 252 347 391 290 299 256 290 218 302 278 309 276 230 278 258 173 243 323 311 186 325 314 263 239 213 239 284 276 400 264 239 170 312 236 196 303 252 304 164 221 308 340 185 163 266 259 330 213 231 298 263 314 230 197 231 241 244 306 214 247 227 242 262 319 343 285 330 203 279 266 323 207 325 234 299 322 243 330 321 175 201 278 287 283 201 187 283 248 300 261 336 328 219 344 215 274 194 202 217 252 185 268 180 289 244 293 206 274 173 248 222 270 206 308 228 208 281 326 191 262 286 247 232 280 297 304 251 306 268 247 309 394 248 255 285 341 273 281 198 185 262 284 278 220 211 306 338 307 462 292 301 192 307 314 291 236 251 225 244 323 196 298 288 225 275 266 246 302 196 256 324 248 256 284 299 193 292 238 302 306 115 255 262 266 259 358 248 261 292 191 292 235 286 253 193 298 337 306 206 283 267 217 323 243 231 197 272 323 220 333 203 371 243 338 253 296 208 324 286 228 266 339 221 243 319 264 271 183 247 277 202 375 249 230 218 266 252 305 258 263 264 274 209 314 230 242 241 241 198 265 236 289 276 250 231 272 213 255 293 315 242 296 276 311 264 350 245 312 305 214 354 233 295 262 228 284 282 212 234 270 291 270 244 182 315 263 144 208 295 310 273 304 234 273 280 193 245 301 283 308 198 256 365 313 202 283 180 157 268 237 364 286 294 257 289 319 186 352 278 317 349 287 218 297 291 289 231 259 298 230 220 209 269 286 297 220 279 450 278 276 190 291 211 200 257 250 217 278 185 242 200 321 127 309 242 278 280 303 225 252 205 240 288 288 322 231 299 272 346 308 313 184 226 326 246 263 189 173 274 264 274 345 268 191 260 342 245 285 238 184 220 250 233 255 214 251 270 268 203 232 356 251 277 220 288 183 303 180 274 225 227 238 234 231 197 200 243 166 239 241 267 228 251 249 292 269 296 204 239 223 168 214 320 261 275 289 266 189 216 282 313 296 279 192 299 424 302 191 315 326 312 245 249 271 279 290 244 311 315 299 192 361 268 303 214 272 285 286 278 341 232 324 262 187 196 229 349 261 250 259 280 342 225 346 297 325 265 304 290 208 323 292 231 262 261 329 229 228 288 232 325 250 216 218 257 317 321 273 265 196 254 232 283 260 261 295 164 250 196 356 269 281 235 190 245 192 247 257 300 152 294 192 242 353 321 286 200 191 254 227 392 254 295 214 228 272 273 243 265 185 264 265 345 371 238 155 253 253 289 224 322 247 202 327 268 328 268 250 217 320 245 286 192 213 219 270 214 252 258 163 285 202 288 219 238 327 258 242 210 234 307 298 405 290 183 276 241 302 331 189 273 261 221 246 238 326 277 331 278 228 308 248 191 243 215 207 218 195 193 272 324 248 268 311 204 224 419 311 256 266 295 310 316 320 272 249 213 356 274 219 258 179 309 269 237 246 254 211 220 176 264 136 253 267 393 301 377 264 333 309 213 262 261 132 235 237 224 215 291 219 147 282 278 241 191 208 305 243 253 237 217 317 256 366 190 267 283 241 258 302 285 305 152 282 307 359 316 262 356 212 260 199 257 243 215 274 230 198 153 305 239 197 260 339 392 192 338 245 179 244 228 123 246 315 272 265 212 288 219 299 271 247 237 292 292 298 166 263 213 250 226 231 222 292 245 285 213 165 260 270 261 258 333 315 224 254 290 194 241 255 250 207 211 232 262 228 183 343 283 276 287 318 286 236 237 246 357 339 310 336 429 281 187 250 310 279 257 223 274 346 253 246 205 281 199 198 265 243 237 293 140 263 244 331 210 228 241 361 183 169 339 337 258 245 258 254 215 314 327 318 279 226 279 295 256 186 343 270 305 257 262 232 298 259 184 325 250 164 210 291 288 211 244 357 252 185 228 312 268 228 286 264 265 257 199 230 205 253 263 238 274 281 244 222 280 264 179 263 271 176 361 309 250 195 271 343 217 224 245 322 216 253 211 275 274 221 311 265 205 207 230 322 288 245 183 400 236 231 217 291 309 317 261 338 200 254 207 306 333 269 264 300 323 179 285 273 251 205 303 252 224 191 290 326 178 291 259 196 207 240 181 298 225 249 264 248 319 257 218 287 272 227 223 306 228 259 273 222 327 206 267 234 239 227 275 204 297 284 251 317 306 333 291 337 293 300 281 263 232 271 222 340 191 263 236 318 268 269 266 331 252 246 289 330 343 214 250 250 228 295 303 264 219 254 192 348 268 235 262 236 275 253 357 279 285 217 238 262 270 259 287 305 332 258 322 246 253 252 188 286 264 270 419 254 200 409 297 314 196 284 220 247 232 269 196 252 256 237 194 195 274 201 280 220 233 293 301 321 288 160 211 241 306 254 266 231 218 179 307 247 256 237 241 286 326 256 205 250 295 302 239 288 239 226 254 242 246 342 333 250 403 391 263 265 230 270 308 208 403 204 303 270 295 241 265 333 337 262 267 285 336 234 284 265 279 141 215 297 303 330 275 222 228 289 283 259 263 312 268 280 289 256 207 328 325 237 307 314 251 221 364 263 248 262 218 263 291 236 172 192 372 393 307 206 253 290 206 270 260 266 238 300 156 283 279 241 242 320 308 256 302 269 308 197 233 174 328 260 219 301 207 295 295 308 279 310 261 257 214 225 294 204 323 207 215 229 244 171 186 247 289 256 263 239 268 237 228 254 311 270 266 215 194 172 277 301 208 212 204 283 299 401 186 202 287 295 257 280 271 312 292 321 257 278 259 331 217 149 249 257 352 373 215 171 219 335 302 179 167 219 264 264 280 265 314 282 256 247 273 144 319 254 231 229 203 405 200 247 230 315 306 180 179 237 176 280 256 221 305 363 165 226 267 233 233 364 275 180 291 252 235 247 161 169 273 223 211 267 203 315 261 318 205 240 137 188 227 171 331 266 138 275 304 240 302 214 357 173 311 313 273 328 294 202 278 252 346 221 377 296 220 289 330 286 290 251 258 223 271 236 269 227 314 244 222 260 303 256 300 318 248 323 319 276 246 239 268 243 250 203 331 326 303 334 281 351 266 127 227 331 204 308 278 213 179 252 284 276 230 214 342 228 195 204 326 336 302 260 353 297 250 234 209 270 198 270 279 333 243 254 295 317 322 400 224 326 248 290 327 306 239 275 202 374 287 303 261 294 266 347 286 284 211 209 229 355 200 296 248 274 246 350 342 304 309 289 245 308 294 229 328 349 155 264 243 247 251 274 303 240 148 185 261 423 251 270 254 257 286 222 316 219 228 276 238 303 214 385 371 192 224 291 357 191 232 199 293 268 256 194 161 254 271 284 241 212 228 231 271 340 236 298 293 241 265 210 224 233 284 248 328 294 239 307 245 253 241 179 320 241 232 297 273 244 268 286 242 201 257 268 169 231 321 190 227 225 177 298 192 201 234 268 292 298 310 293 229 256 213 262 316 204 224 251 314 295 210 200 398 291 225 251 286 309 260 320 275 355 216 374 297 239 252 317 244 277 336 249 252 252 321 196 152 341 210 210 283 226 249 255 264 180 217 246 172 203 228 218 289 317 253 244 307 270 259 237 227 220 230 219 301 315 199 285 251 208 260 279 261 253 254 289 272 263 352 228 219 253 266 255 254 313 308 244 286 191 254 237 360 193 313 296 303 327 239 265 179 282 286 251 299 192 295 203 115 294 237 298 289 276 300 180 345 221 311 258 248 194 257 229 275 348 201 299 140 301 269 331 370 301 326 329 318 268 274 243 322 258 288 297 333 304 210 346 289 299 271 175 206 365 251 232 272 249 402 314 172 229 286 218 245 236 244 253 206 210 196 240 260 237 204 223 267 326 252 321 238 277 279 254 236 275 182 310 412 271 282 336 240 284 248 217 329 213 230 253 244 263 163 226 234 241 223 260 286 289 286 229 196 295 292 374 220 322 262 270 280 212 329 233 254 324 254 201 234 265 256 400 225 266 282 206 248 322 232 388 250 242 299 265 249 203 157 260 196 292 293 156 225 287 236 263 121 239 216 252 255 217 288 97 224 294 208 211 306 282 275 255 302 225 252 285 298 289 323 313 265 309 256 373 221 263 249 213 319 276 284 208 331 210 252 253 261 224 263 253 272 241 244 349 276 233 320 282 223 238 305 316 203 268 282 194 252 271 226 316 268 235 288 247 250 344 248 242 210 308 241 268 240 243 214 173 250 267 328 247 321 285 205 233 307 299 244 323 280 283 277 331 303 256 270 317 282 257 174 234 188 207 217 208 246 284 315 270 254 367 178 249 307 226 246 212 241 333 249 279 305 291 294 194 203 246 214 217 380 352 153 239 316 314 280 259 265 349 220 312 311 285 327 192 298 250 262 380 340 246 322 189 286 306 300 300 189 267 262 323 266 227 311 274 295 237 266 254 199 228 175 240 260 274 306 163 270 319 186 286 258 220 238 225 241 191 313 212 218 152 171 142 200 306 234 206 259 300 335 222 259 286 270 279 224 162 247 174 303 278 237 303 359 288 273 377 298 253 342 208 204 260 316 404 303 342 351 274 181 277 219 297 271 310 231 302 256 208 254 309 289 326 341 321 231 262 156 348 271 223 263 339 243 237 263 162 327 289 206 236 238 213 123 239 273 346 273 181 334 256 195 248 240 299 237 252 210 377 163 247 286 205 350 257 198 322 279 302 225 248 416 188 228 219 322 337 193 321 300 294 256 245 288 253 190 221 210 220 243 303 280 327 384 357 340 259 266 295 331 258 196 313 211 209 271 260 276 201 334 297 313 280 244 213 275 238 273 105 240 311 210 202 226 236 234 253 169 255 272 331 334 278 365 254 314 209 256 200 312 315 183 202 226 302 185 297 301 284 223 246 215 232 213 257 276 241 184 301 342 320 263 374 225 358 225 245 287 266 269 335 291 283 144 131 221 281 350 322 207 224 244 266 219 245 400 203 246 262 233 259 232 314 273 257 271 330 176 161 241 295 242 300 376 280 221 340 247 275 273 240 209 254 284 248 255 296 262 209 290 299 215 372 265 244 274 159 209 270 339 336 196 402 300 276 287 259 206 290 307 303 252 372 372 258 207 301 267 394 356 276 277 148 245 312 317 170 356 215 220 131 292 174 184 215 208 307 221 233 272 254 210 221 336 200 231 300 195 191 292 188 181 262 180 229 218 206 309 261 270 277 226 251 252 279 251 320 225 282 208 273 215 274 219 200 218 281 259 246 256 276 291 286 250 111 225 330 285 266 334 247 270 234 222 235 263 251 273 203 303 292 211 204 270 325 225 309 305 354 214 304 300 191 314 266 358 331 235 159 164 185 288 199 231 193 232 224 232 303 267 280 272 288 332 313 269 347 280 280 288 270 321 203 283 225 214 255 280 172 312 276 237 296 281 249 222 217 326 246 243 280 336 274 259 276 307 173 239 242 216 202 246 303 307 335 223 212 263 280 348 229 280 228 321 304 329 335 273 307 206 323 275 254 216 271 229 285 290 178 305 271 258 241 259 205 213 292 279 269 234 324 332 264 224 276 162 305 229 238 281 282 264 306 234 243 247 191 271 247 221 244 275 245 273 367 242 247 202 448 202 295 238 301 257 229 208 238 266 314 236 210 274 246 291 205 158 298 293 284 285 224 171 200 302 217 188 327 256 263 235 182 341 290 233 334 252 255 277 252 244 281 274 221 253 252 265 271 234 268 283 192 224 193 271 299 221 268 293 239 382 280 202 289 328 173 210 286 209 261 260 296 257 401 388 232 270 293 195 223 237 268 279 218 265 257 199 253 336 253 210 230 221 310 281 254 355 233 241 250 343 249 315 291 263 313 287 376 248 298 249 212 154 318 241 253 307 236 250 213 239 224 268 323 305 230 208 220 210 370 249 239 369 291 314 232 321 208 232 234 353 261 259 304 264 338 237 277 319 286 342 286 350 178 150 260 288 227 292 345 209 387 288 333 216 314 348 260 237 229 214 280 198 154 274 237 267 289 206 345 284 283 312 301 289 317 294 329 288 274 218 225 239 281 290 277 197 226 297 309 288 199 296 304 353 253 225 253 275 243 367 171 298 261 202 237 263 218 323 262 247 333 277 242 300 361 290 256 182 377 276 236 268 263 292 222 247 336 315 204 186 217 312 209 225 279 274 210 305 251 287 192 312 245 214 254 247 256 152 369 360 281 243 305 258 232 217 318 173 286 232 252 258 207 273 330 169 233 277 227 251 241 279 232 257 220 202 258 309 340 210 232 196 228 229 295 227 291 293 232 223 241 206 185 198 273 315 278 290 248 285 348 252 312 283 307 316 303 241 283 316 284 236 254 234 223 138 293 218 255 307 343 307 307 241 206 219 291 299 184 245 205 265 256 312 203 304 263 275 266 327 280 301 333 252 190 327 283 270 299 218 276 257 291 225 207 218 227 223 260 279 192 237 267 204 288 233 231 272 231 268 263 264 334 342 352 184 310 242 211 187 353 370 257 269 157 255 262 307 323 264 246 232 178 240 288 276 232 147 216 252 214 252 332 315 252 301 193 275 235 270 223 348 327 298 302 217 306 237 164 243 258 236 276 333 327 232 240 205 213 185 268 263 235 254 306 285 179 269 349 311 278 225 317 238 239 312 321 237 282 199 279 346 283 272 267 279 320 381 177 245 308 253 239 234 283 282 285 207 216 170 248 157 315 229 256 201 248 313 161 285 275 296 245 226 270 302 251 204 289 259 241 328 264 178 251 227 160 232 236 271 183 262 263 210 257 252 269 280 344 213 255 243 212 304 267 252 244 293 312 305 286 257 316 233 253 266 357 262 263 270 226 270 253 238 285 257 200 302 288 264 272 355 292 263 306 265 259 301 267 302 273 337 363 239 288 223 246 220 253 260 181 241 185 155 160 277 229 382 211 181 170 237 226 235 233 263 213 305 336 243 256 208 218 251 238 351 228 230 317 196 259 211 280 251 272 259 185 275 240 177 249 295 229 190 197 224 199 243 212 268 270 202 296 241 240 220 225 331 341 284 184 237 326 259 223 280 252 284 255 253 234 198 292 186 283 238 254 303 247 256 280 281 172 242 232 246 356 235 319 224 234 267 299 301 217 193 200 234 267 304 204 279 334 218 208 252 271 267 214 317 241 357 223 263 310 180 267 167 232 267 178 176 253 260 284 275 232 253 240 269 221 284 149 244 299 311 277 351 278 242 244 285 329 322 193 188 286 330 199 200 280 245 309 285 235 209 339 309 272 259 197 263 246 205 240 199 225 306 262 169 201 289 292 213 159 325 323 227 270 215 294 238 297 287 220 278 314 222 372 245 345 233 294 247 230 174 243 170 280 224 324 229 190 313 248 257 274 227 197 197 302 289 212 253 228 230 236 209 275 311 274 209 237 305 256 238 276 311 242 254 247 210 235 264 272 252 277 260 195 268 232 315 304 220 278 182 372 231 218 312 276 306 303 256 272 264 246 203 174 269 368 305 254 205 222 262 172 253 284 229 323 202 248 349 271 257 303 307 206 206 266 277 281 239 300 231 338 257 197 296 251 209 223 258 215 240 322 209 271 304 251 281 336 317 218 279 266 249 290 293 238 242 265 206 311 249 231 225 197 295 184 326 271 180 196 241 233 235 230 235 310 255 303 297 231 284 326 320 238 307 225 135 230 230 217 235 314 234 333 210 377 249 209 240 334 278 280 303 232 179 261 258 254 310 352 301 364 245 195 287 242 260 231 198 301 233 267 207 271 271 274 307 220 384 342 276 285 368 291 325 316 210 222 305 275 319 237 250 355 302 157 359 268 311 246 203 247 247 313 276 269 269 280 189 245 134 228 312 267 280 274 288 336 199 150 169 346 292 309 222 301 281 245 227 289 275 196 240 230 303 237 218 264 269 303 248 270 343 311 289 328 245 252 230 334 246 297 291 259 254 210 298 219 274 238 359 312 276 204 266 210 228 281 284 306 254 284 368 274 265 237 228 258 243 243 235 304 225 262 190 304 263 337 262 320 256 362 303 262 266 290 202 367 285 236 223 203 220 312 285 221 306 283 352 189 218 204 291 293 316 268 192 176 323 227 345 330 279 383 214 179 249 184 268 316 270 308 147 274 168 217 301 215 305 235 277 334 201 322 365 347 249 160 270 259 215 254 295 321 320 350 193 271 197 198 234 313 320 173 271 291 311 289 216 317 269 311 358 315 304 323 297 329 242 226 172 244 219 293 270 282 229 280 325 204 307 225 222 297 271 397 231 281 343 266 328 229 329 270 210 277 327 243 287 327 283 243 224 336 213 278 264 296 255 288 175 225 253 247 261 230 255 260 233 274 275 279 263 244 313 405 235 267 184 204 257 245 197 242 204 315 311 268 297 229 225 246 238 299 170 231 232 242 294 240 374 227 258 179 337 254 262 260 248 309 160 285 368 291 302 328 315 337 252 235 248 249 257 203 306 297 203 219 374 284 247 301 307 321 282 232 226 413 188 219 308 307 229 326 268 232 338 152 278 252 352 235 279 197 181 346 208 297 273 280 263 242 255 273 209 186 221 176 281 270 293 231 195 263 255 347 189 258 292 271 380 290 264 302 352 292 194 357 254 222 267 273 145 269 267 310 300 298 265 253 249 208 357 242 271 278 186 211 278 408 333 231 313 249 277 263 186 192 229 305 187 222 239 248 334 275 172 333 329 138 236 295 203 297 282 271 285 248 404 323 280 289 289 203 242 335 345 232 207 307 295 290 258 252 226 297 278 275 218 243 258 247 288 287 211 217 231 280 274 295 241 247 296 241 256 256 179 312 213 251 274 227 321 305 289 249 196 198 289 294 231 252 249 269 216 314 330 213 252 260 312 232 260 265 305 295 250 198 244 197 282 212 284 153 329 211 297 267 284 297 243 248 315 213 270 376 193 223 248 264 276 305 381 174 290 324 231 182 306 226 258 276 180 297 223 316 262 212 242 214 230 238 293 300 276 228 194 387 299 148 275 168 282 253 226 263 210 214 240 245 322 255 315 320 307 237 397 258 347 216 265 283 232 252 254 251 201 227 252 183 260 298 184 243 278 149 245 255 177 219 229 244 188 293 260 197 331 287 275 233 214 392 255 282 333 250 360 227 231 323 233 251 292 332 275 186 193 262 307 476 323 222 369 249 201 194 261 292 240 175 241 257 289 178 219 369 253 258 219 156 252 303 201 280 294 307 186 240 296 362 215 227 318 315 331 206 200 330 262 284 360 194 282 344 250 223 173 226 302 248 265 274 316 282 276 245 198 294 222 337 255 237 273 199 325 262 225 267 208 324 233 204 304 185 356 259 202 239 300 219 229 364 275 198 266 222 298 253 256 278 213 264 276 213 217 213 313 278 273 364 234 208 343 178 289 268 262 253 372 258 278 258 277 236 317 208 272 235 309 262 281 298 218 358 311 345 292 259 263 258 258 254 307 217 266 251 263 270 230 253 226 242 240 259 240 246 350 330 359 300 249 222 239 314 345 286 237 195 148 304 224 271 275 222 343 280 276 242 253 328 272 253 379 236 213 247 264 232 293 351 206 304 334 182 270 303 299 211 203 236 339 287 267 299 206 313 282 210 266 203 255 235 272 273 283 251 265 305 269 216 244 264 263 211 309 245 224 298 189 280 276 336 247 335 222 261 232 207 288 305 274 223 297 269 212 249 323 237 297 243 281 332 292 243 271 371 318 320 237 303 215 291 269 284 221 207 264 217 262 309 271 241 174 181 286 234 307 200 231 173 304 315 216 211 249 296 233 361 185 299 224 268 287 292 278 280 300 234 232 246 315 287 354 271 237 219 291 251 217 263 318 315 193 283 280 305 264 228 263 187 251 161 264 310 339 268 241 190 242 253 235 201 263 295 232 251 319 295 256 259 351 265 212 277 221 230 401 202 306 223 235 320 238 242 278 257 365 392 262 292 253 280 362 161 303 180 166 255 234 269 292 334 213 295 339 314 296 290 291 304 327 258 317 191 252 315 263 313 262 246 247 185 213 221 261 250 222 340 268 284 232 334 204 223 267 218 243 297 237 299 286 214 354 263 295 248 236 270 349 211 281 204 330 277 239 267 266 236 224 248 264 323 199 322 148 272 263 254 281 139 221 215 245 275 191 309 341 298 198 399 260 227 190 138 264 269 327 327 330 334 293 251 350 260 264 316 235 318 265 331 273 292 255 238 230 210 241 275 218 341 271 256 268 443 222 234 258 287 311 269 322 302 318 227 247 304 183 348 213 204 218 211 222 199 155 261 360 290 384 269 286 234 256 230 373 254 172 198 286 275 233 222 293 277 286 210 242 230 273 233 275 223 243 273 244 159 274 367 248 225 194 269 289 317 277 322 276 212 283 197 313 202 186 283 299 241 349 275 279 264 303 234 230 307 300 249 368 308 212 264 308 291 323 173 259 306 204 327 314 247 322 286 170 346 265 243 152 221 132 244 304 282 225 379 338 254 353 195 282 259 293 262 235 282 253 320 206 340 261 247 385 304 227 199 243 226 178 367 280 298 273 332 371 254 300 287 264 264 325 260 190 260 405 203 222 279 268 245 261 316 215 229 230 221 241 325 360 271 255 188 265 352 275 180 341 317 325 268 274 295 260 244 282 252 189 283 230 227 179 253 323 211 292 269 284 228 406 357 215 173 206 319 283 411 298 324 234 236 246 241 272 202 200 327 321 227 197 193 220 294 195 206 279 259 301 262 247 222 241 200 199 205 209 246 259 256 277 247 311 203 292 274 245 361 239 200 269 239 239 235 267 279 189 294 297 330 210 331 286 159 298 210 373 232 246 291 264 198 218 282 361 224 267 286 303 222 291 405 332 212 211 311 285 230 246 243 268 263 233 278 245 290 240 281 323 251 196 240 208 196 286 205 233 261 247 359 162 249 316 262 299 164 264 255 295 240 176 267 267 259 234 232 274 315 235 282 156 306 267 235 206 270 176 217 232 213 234 286 228 270 287 260 194 227 285 225 325 310 247 273 257 257 203 349 250 300 207 397 230 310 311 228 300 200 270 318 291 223 264 286 226 324 280 348 221 331 225 284 192 239 276 223 173 179 189 373 344 257 309 256 374 216 227 275 272 269 319 186 243 258 245 225 229 224 290 222 263 248 226 288 299 262 199 234 216 212 225 226 290 257 289 287 282 308 297 139 249 206 345 269 262 315 302 280 217 237 241 215 221 247 161 332 258 286 292 180 287 274 294 264 301 308 341 234 296 237 249 253 287 284 251 331 252 191 248 218 265 367 330 302 274 284 245 224 225 235 326 184 286 242 298 315 227 258 221 350 305 264 262 195 309 330 178 393 232 283 242 245 268 233 216 268 170 300 278 230 239 187 287 227 279 239 212 344 281 314 287 246 222 243 304 291 345 298 261 294 313 274 251 227 242 274 243 228 199 225 250 368 181 187 211 274 261 310 229 139 295 230 249 239 153 264 255 317 328 256 299 257 245 306 219 253 199 227 292 280 213 202 229 291 312 271 205 204 162 226 231 165 248 267 188 205 316 263 262 298 239 225 283 246 232 260 270 280 320 291 301 212 294 340 224 251 220 404 329 212 156 242 200 152 236 292 211 247 267 226 218 311 264 300 249 330 214 260 312 315 168 227 291 272 221 305 233 316 256 239 255 243 363 370 304 296 310 237 210 190 345 233 276 314 249 352 291 297 104 209 247 281 313 368 332 211 308 402 220 313 249 384 311 266 279 207 236 348 223 273 192 236 351 265 278 349 227 201 263 210 308 275 202 274 301 245 225 282 228 349 322 285 227 327 270 245 233 235 225 198 213 292 325 374 236 275 191 429 251 187 307 269 299 270 189 344 294 211 266 314 217 252 228 265 315 239 175 235 268 346 283 285 238 236 286 204 297 295 203 325 234 269 214 345 227 305 286 293 253 251 219 230 246 276 247 301 246 173 262 261 310 257 236 334 228 205 306 251 213 210 173 264 310 311 397 242 240 264 256 227 332 259 265 250 274 320 206 193 306 341 195 292 227 235 246 270 276 227 238 281 344 285 340 329 235 248 282 291 324 287 321 258 245 214 284 312 243 304 316 266 262 321 204 188 265 343 250 299 376 255 264 308 176 223 229 288 335 265 272 307 256 265 174 189 205 279 254 221 246 374 222 330 238 201 231 191 201 221 206 309 345 260 305 197 191 314 323 243 266 361 240 331 335 211 282 282 259 277 216 318 365 271 354 275 303 325 222 225 185 279 280 169 235 322 305 254 321 305 192 230 318 227 206 256 263 272 266 325 214 288 352 238 279 197 257 251 220 262 245 286 184 259 243 317 250 370 253 242 218 180 211 191 415 184 198 284 263 242 217 222 260 349 346 307 301 417 211 246 319 243 216 263 242 230 236 284 222 192 287 307 257 370 323 377 309 281 253 331 253 269 249 256 273 241 229 313 332 288 195 215 297 266 425 250 294 163 318 314 321 306 196 246 218 365 350 323 253 204 326 319 222 322 299 278 240 387 184 302 332 271 281 295 196 324 326 264 281 346 290 263 304 304 276 299 193 262 231 242 263 328 302 408 386 191 222 267 234 269 243 283 263 261 236 255 294 280 334 311 296 192 289 252 262 268 303 362 249 231 326 262 197 401 317 207 236 317 313 291 253 283 351 193 268 325 320 311 243 277 234 289 247 341 344 215 224 254 197 228 119 221 353 305 209 313 239 216 239 208 274 185 197 298 135 268 250 198 207 223 203 340 271 286 289 194 276 208 215 306 204 241 233 213 295 260 224 212 254 342 302 193 219 312 219 226 272 224 236 247 256 222 341 304 242 264 261 214 263 199 271 276 192 281 253 254 288 266 248 275 196 305 185 325 251 201 347 213 234 357 200 218 359 378 222 235 247 237 192 198 219 289 261 277 213 257 333 199 275 229 226 277 160 294 262 203 308 231 218 288 273 323 304 260 299 246 270 313 291 260 275 251 243 268 199 237 190 257 260 300 278 222 244 250 240 201 236 277 344 361 245 264 256 223 161 285 253 324 207 256 258 195 259 188 287 294 258 233 364 207 291 278 307 223 241 185 302 193 321 280 186 271 270 258 214 283 245 288 235 204 290 226 283 323 263 187 235 304 243 229 183 231 175 348 227 197 250 260 190 361 250 376 280 298 271 224 248 322 171 356 201 231 353 257 275 240 272 284 258 317 279 312 197 283 219 201 232 347 276 273 300 224 201 318 349 216 318 177 267 368 301 219 246 230 273 217 261 274 316 336 183 319 250 354 295 259 253 229 296 247 232 200 149 311 277 285 206 338 276 188 229 293 305 236 221 163 250 209 252 252 226 260 224 282 313 340 220 266 236 381 268 352 259 271 231 253 242 259 233 229 223 296 246 280 278 163 286 227 280 284 261 352 331 213 198 297 253 275 209 305 307 244 281 194 251 301 253 279 239 295 229 278 247 296 310 300 243 275 176 254 223 214 300 324 175 259 384 272 188 237 304 300 232 338 217 190 259 354 179 177 240 243 236 249 241 399 190 246 280 283 323 234 223 186 282 241 296 254 310 321 262 166 295 281 271 218 260 226 242 269 212 268 221 243 310 147 333 295 285 245 313 273 284 314 268 280 201 301 211 303 220 309 252 306 376 257 329 289 392 250 346 261 314 313 313 267 258 255 286 289 226 308 262 307 236 237 236 257 284 245 299 293 272 212 263 262 251 213 241 317 286 304 261 206 316 211 277 290 342 200 136 216 247 210 297 327 241 276 317 215 170 264 324 306 288 259 253 243 330 236 238 280 226 283 167 249 227 355 363 287 302 201 292 256 276 292 302 179 213 251 330 200 173 267 172 199 298 245 259 192 298 268 230 324 268 270 210 286 380 276 203 231 363 292 262 268 178 312 240 303 285 335 227 284 220 249 266 228 206 160 235 203 284 256 301 340 245 214 280 259 277 204 194 241 205 188 298 261 239 285 296 212 240 279 232 152 204 216 288 215 270 259 297 298 217 236 313 304 317 288 250 293 227 244 351 197 299 304 277 247 304 267 221 271 295 262 249 197 456 220 334 227 239 192 281 210 435 292 254 203 309 263 287 261 229 347 300 274 177 240 199 292 187 172 315 284 305 177 232 215 235 251 285 244 199 238 198 214 292 2</t>
+    <t>JSB(2.6278986839023695, 3.8628981642845917, -26.421598369365533, 138.99070037162204)</t>
+  </si>
+  <si>
+    <t>17 28 24 10 27 17 13 35 13 33 21 20 14 17 15 16 29 6 7 17 27 16 6 28 15 23 24 15 37 23 9 20 20 0 7 24 13 17 27 14 20 20 14 21 40 23 23 16 23 12 30 14 21 31 18 14 10 14 38 23 23 24 24 28 14 15 24 10 17 20 16 6 6 21 38 26 24 34 27 31 31 37 13 32 29 17 16 35 16 17 14 24 20 14 21 24 10 26 20 19 16 18 23 21 10 23 21 14 29 23 12 24 24 20 31 16 27 34 14 13 24 30 19 44 17 31 31 31 14 28 20 20 7 7 20 6 10 16 13 19 10 23 24 27 17 6 20 19 35 17 23 25 19 24 23 19 34 17 13 19 28 14 17 24 14 31 13 27 30 24 37 25 25 17 14 16 26 13 31 12 21 30 35 10 38 27 20 28 10 20 17 17 30 20 10 17 27 20 38 24 19 10 20 24 36 20 17 19 23 10 20 16 20 41 14 35 13 3 24 6 27 33 17 10 16 27 10 23 27 14 30 31 33 10 31 27 13 24 13 17 23 28 23 20 13 20 7 10 20 13 14 13 17 17 16 30 30 21 33 23 17 16 44 31 31 24 28 21 13 15 24 26 26 16 7 20 10 24 17 41 10 16 13 16 13 14 27 41 17 17 10 16 23 30 10 7 30 20 21 34 37 17 10 31 20 22 26 20 9 34 21 34 20 14 41 7 20 24 13 7 24 13 16 24 24 17 31 20 26 17 29 10 38 26 37 31 20 20 13 17 3 17 13 17 24 30 13 14 19 38 25 24 23 24 26 31 33 27 23 27 13 19 3 18 23 28 17 23 29 31 27 23 16 31 14 17 19 10 34 17 21 23 20 24 10 10 17 31 24 27 17 27 9 24 17 13 20 22 16 44 17 20 10 24 17 23 28 38 20 9 24 10 34 20 17 23 27 13 17 27 21 19 21 16 21 27 52 24 17 14 15 28 24 24 30 24 35 34 14 3 28 13 23 21 35 28 14 30 10 13 35 17 16 30 31 13 27 27 23 20 24 22 34 24 9 24 27 17 16 17 31 13 23 19 26 23 45 3 23 16 41 7 34 27 22 45 10 7 17 33 24 11 17 17 7 17 24 17 21 21 31 16 30 37 24 24 24 17 27 26 7 14 24 17 17 20 25 14 34 19 24 10 20 24 33 6 22 27 29 23 20 16 31 10 9 27 16 21 20 21 20 14 17 21 15 12 38 22 13 7 24 7 37 14 27 9 31 27 20 20 6 30 13 16 18 13 21 24 13 6 14 24 14 20 17 17 22 19 9 16 23 24 17 20 10 17 24 23 17 10 16 14 23 14 23 24 14 9 24 13 17 20 24 28 14 20 24 30 20 16 26 11 20 26 21 31 10 10 17 20 13 23 14 7 14 16 31 13 24 12 28 38 30 14 33 17 20 20 19 27 19 20 17 7 27 27 16 23 16 19 21 27 35 32 24 16 10 23 20 22 10 6 10 20 24 20 28 30 19 27 20 9 14 19 24 17 29 14 14 17 34 17 9 13 27 27 7 9 27 17 0 16 21 17 17 42 34 9 17 14 30 14 26 21 20 21 20 38 20 14 20 14 27 13 24 17 21 16 21 25 20 15 30 24 6 14 13 33 16 18 13 20 17 10 13 41 16 27 9 21 13 10 0 10 12 6 24 13 27 26 10 17 24 13 17 10 23 20 20 30 20 45 17 28 17 38 10 10 12 28 35 23 20 14 3 35 24 24 30 23 35 29 6 19 16 13 10 27 24 23 7 17 6 29 37 31 31 34 24 30 16 27 27 27 19 24 24 34 26 37 20 22 30 16 24 23 21 24 45 17 21 14 27 11 20 23 13 27 38 24 21 20 19 20 21 30 21 24 20 21 3 28 16 21 16 24 31 15 20 34 27 14 27 17 27 17 23 33 21 3 25 27 13 3 7 26 30 20 31 23 9 17 41 20 31 9 14 14 10 35 30 17 20 17 23 23 10 20 17 3 27 24 17 18 10 24 14 19 16 31 23 31 10 13 21 17 24 24 23 24 16 31 28 10 13 10 13 7 13 17 17 17 13 20 17 27 14 17 20 27 22 23 22 16 21 3 34 20 19 9 24 24 10 30 24 20 21 17 12 27 10 13 13 13 31 24 23 22 13 26 19 3 31 16 32 17 17 17 17 22 31 24 13 23 21 24 31 23 24 34 10 13 19 31 27 24 30 24 19 12 19 17 27 17 24 26 20 17 10 34 30 10 13 21 23 2 31 20 13 35 23 13 20 24 16 17 31 19 24 20 13 17 28 34 16 21 24 20 21 23 14 23 24 19 27 20 17 22 31 10 6 20 15 17 24 10 21 32 26 30 23 19 24 15 21 20 14 20 31 20 17 20 31 0 20 16 24 22 13 19 28 23 21 13 14 20 7 24 19 19 17 13 30 21 13 20 13 20 22 11 14 20 7 14 20 21 17 23 21 24 27 26 28 21 28 21 16 17 23 24 24 7 31 21 23 13 13 35 28 20 20 31 31 27 16 21 17 10 31 24 27 24 23 27 30 17 14 31 27 14 9 23 36 17 24 24 31 6 21 19 16 26 35 27 30 18 17 3 24 31 16 24 27 17 20 10 9 27 23 21 17 24 38 20 13 15 17 6 20 21 21 23 20 31 21 17 17 13 14 20 17 23 21 20 29 6 14 24 23 23 35 17 17 14 26 16 17 20 31 27 28 34 21 20 25 24 16 24 17 21 21 21 17 27 24 17 12 17 17 30 13 31 7 10 10 17 27 9 12 26 7 24 20 23 12 30 16 0 24 16 27 16 24 7 16 20 14 10 24 20 20 20 23 31 27 24 20 17 30 30 13 18 23 3 30 34 37 31 20 30 13 31 24 20 18 17 19 24 24 17 19 20 23 7 31 20 24 21 37 10 21 10 22 30 7 17 24 17 16 20 10 17 13 31 41 26 34 16 17 35 3 12 30 19 16 14 10 38 24 27 10 27 26 20 21 16 35 27 20 24 24 35 23 30 28 6 16 17 6 10 34 26 24 10 21 24 41 29 31 24 14 16 17 30 27 13 14 17 24 6 13 18 6 27 24 10 20 17 21 17 24 35 24 27 20 17 26 14 27 10 21 7 20 17 30 14 19 28 27 24 28 14 17 11 16 23 13 28 31 24 27 17 6 31 30 23 17 14 35 12 29 19 10 17 34 10 12 26 28 17 17 33 0 17 17 20 10 21 14 35 16 28 34 13 24 14 10 35 27 27 19 20 19 9 23 16 6 13 19 13 30 22 15 16 23 13 10 30 20 13 11 11 27 19 30 27 34 13 30 27 23 28 3 27 27 13 17 14 26 10 28 28 20 26 14 37 14 21 13 17 26 13 32 24 23 7 23 14 14 24 17 34 17 13 20 23 9 23 35 21 13 16 17 14 24 28 24 17 20 13 6 22 19 28 29 38 16 10 7 30 31 24 28 7 20 23 17 3 24 21 24 27 23 34 27 20 17 7 27 26 23 20 19 13 21 10 10 21 24 17 13 17 20 28 19 24 10 9 23 20 31 38 21 13 20 27 17 20 16 28 17 14 12 27 20 35 17 29 10 17 13 13 17 27 28 20 24 24 20 13 13 30 35 17 3 7 31 24 17 17 9 13 10 15 16 17 19 14 24 9 31 28 20 28 30 23 17 10 14 7 17 16 32 13 23 32 28 24 13 6 16 24 30 16 16 17 16 20 27 25 17 24 17 12 27 14 17 23 17 28 13 27 24 23 17 13 23 20 31 13 23 10 24 28 21 28 11 24 21 31 20 27 13 20 18 20 7 27 35 31 10 23 17 12 31 27 23 22 20 7 35 17 13 28 21 21 20 13 20 24 27 27 24 23 11 16 29 13 13 13 33 17 24 7 17 17 21 7 31 14 31 10 20 17 13 17 14 17 0 16 24 21 26 3 21 10 13 20 3 20 20 10 20 27 17 31 27 35 28 35 31 27 31 16 20 23 20 20 10 10 34 20 23 24 17 20 17 16 31 19 7 16 26 14 7 27 25 31 28 7 38 28 24 17 10 13 25 23 38 19 20 20 16 17 24 17 20 24 18 14 21 17 20 17 17 17 28 21 28 17 6 3 24 29 10 20 19 16 31 19 9 10 26 17 17 20 38 30 34 31 13 10 22 22 14 24 9 14 23 34 32 31 23 19 24 10 17 24 12 21 17 31 13 17 19 20 19 34 29 13 17 20 14 23 20 28 28 24 13 29 20 41 6 20 17 20 17 24 20 31 12 35 21 19 13 21 17 21 10 19 23 13 30 14 17 20 17 26 24 28 14 20 17 28 26 27 17 34 9 23 23 45 31 28 14 28 31 27 20 13 34 27 21 16 24 16 13 34 27 44 24 19 15 24 14 27 15 21 26 22 20 24 19 24 14 22 17 20 8 13 20 24 13 23 28 13 10 35 27 13 23 20 17 21 28 16 17 28 24 28 24 23 23 13 24 19 24 13 24 34 30 24 23 14 27 19 13 27 6 23 17 20 14 16 19 16 34 20 20 9 9 16 26 24 16 10 13 23 24 27 24 28 20 16 24 16 13 17 20 32 16 19 10 24 28 27 34 12 16 27 20 21 16 28 14 28 28 23 31 27 10 24 17 23 10 27 35 26 34 20 38 22 34 27 31 17 22 16 20 35 23 17 20 22 17 13 38 13 28 11 24 24 20 24 26 21 20 30 17 20 20 20 24 20 22 14 7 10 13 12 16 16 14 28 17 19 23 30 19 17 26 16 19 21 17 20 10 16 23 13 20 17 21 22 13 20 27 33 17 24 24 27 24 21 24 24 31 16 27 29 13 6 20 30 14 20 47 10 3 20 27 23 22 13 10 13 23 10 14 23 17 20 3 10 23 20 24 27 21 15 20 30 20 17 13 31 21 17 28 38 23 27 21 20 27 35 16 20 19 17 13 23 29 20 30 34 10 26 21 22 41 20 38 20 37 9 6 26 24 27 10 17 27 7 24 17 10 10 13 14 10 13 28 10 18 10 31 7 28 28 22 42 13 22 9 21 14 14 14 24 17 21 20 24 11 35 16 24 20 30 34 24 26 7 17 31 10 28 28 31 24 10 17 21 20 17 24 27 19 21 9 13 28 12 12 14 23 44 9 10 29 17 30 17 30 17 20 16 22 24 33 13 21 15 20 17 16 20 21 26 19 21 24 20 28 35 3 12 32 19 7 22 27 16 10 9 23 6 20 23 20 17 14 6 7 20 27 23 27 31 23 16 6 20 10 24 31 14 17 24 27 31 20 6 29 18 21 27 22 9 35 6 31 28 17 27 45 6 24 24 37 24 24 10 10 9 24 13 27 14 10 27 28 33 28 26 7 32 23 26 27 19 31 34 10 10 24 20 33 21 23 22 22 0 24 12 23 24 33 17 21 7 27 27 24 20 14 17 3 27 14 9 15 17 21 31 13 17 27 27 9 9 17 13 35 17 16 24 41 6 38 13 9 13 28 27 24 30 30 31 26 31 14 20 20 24 38 13 19 24 31 31 17 17 34 16 31 9 45 38 22 24 20 37 28 13 19 28 22 24 34 20 10 24 17 24 6 35 19 20 42 13 21 13 31 18 17 27 17 35 20 6 29 14 13 38 23 27 21 24 16 10 20 37 43 17 28 27 21 21 29 26 21 41 6 31 24 17 20 24 17 17 19 21 21 21 12 20 7 23 10 16 23 13 30 33 17 34 21 10 14 28 17 23 31 31 21 20 28 10 17 10 21 15 9 10 27 23 35 28 21 20 10 27 13 20 23 21 12 40 20 19 17 10 35 24 17 17 15 20 24 20 35 10 24 14 20 24 24 14 24 9 24 10 24 40 26 14 6 27 25 13 17 27 28 20 24 23 28 10 19 24 10 34 24 31 14 31 17 34 20 35 35 13 9 28 24 27 31 24 7 17 19 17 7 7 17 37 24 12 17 28 0 20 20 34 27 24 20 38 28 17 26 20 27 24 20 19 21 21 33 33 20 22 31 32 34 21 12 13 31 23 13 19 27 20 28 13 34 25 10 27 13 16 30 17 20 31 13 17 20 14 34 20 10 20 16 20 21 34 17 24 10 24 23 24 7 18 23 17 23 29 34 26 24 17 3 17 23 27 16 20 12 16 12 24 10 20 23 24 36 14 13 17 13 13 17 17 24 20 25 12 31 3 17 13 10 33 28 20 10 9 22 13 23 35 17 31 20 14 27 10 10 20 19 24 28 14 30 31 10 16 14 26 17 34 9 19 24 13 42 30 13 25 27 23 23 31 35 20 25 25 27 24 13 14 24 23 10 17 31 17 28 23 21 20 7 27 17 25 26 24 7 31 27 3 21 28 17 26 38 20 17 20 21 17 21 17 30 26 27 29 31 37 31 20 17 28 26 13 23 13 7 24 7 14 24 24 20 7 16 21 16 16 21 30 11 24 9 24 30 28 0 17 7 24 6 31 26 27 20 17 25 23 13 26 22 14 11 23 10 13 24 24 17 14 28 13 16 20 23 21 30 6 34 22 17 17 17 10 23 24 24 27 35 27 38 10 27 23 17 26 20 17 34 16 16 10 44 14 14 22 17 26 23 26 10 20 34 9 25 17 6 21 17 31 19 16 35 20 17 24 20 24 13 38 17 9 17 30 10 27 34 38 13 7 24 19 34 45 20 16 33 28 13 16 24 22 24 15 42 19 28 16 35 13 21 7 37 14 9 20 21 22 16 17 16 35 28 24 16 24 17 17 7 16 16 0 12 24 30 27 14 10 21 13 28 14 27 26 20 25 29 20 24 44 20 27 24 10 14 27 17 31 17 24 27 17 35 10 24 17 23 16 10 18 14 20 28 13 48 10 14 17 22 3 20 10 26 6 17 22 16 13 20 28 30 24 17 27 30 23 20 16 14 23 24 26 7 17 13 24 17 20 13 20 31 14 24 16 13 27 17 12 10 26 28 28 17 35 11 24 17 26 21 19 10 21 14 17 14 23 7 10 21 38 10 26 27 14 17 16 28 24 24 10 19 14 30 24 17 16 10 13 21 31 25 17 26 14 14 19 42 26 26 38 23 20 17 26 19 16 21 23 23 21 14 31 10 24 22 20 26 14 23 16 25 13 21 34 27 21 17 17 18 17 23 27 20 13 31 34 27 24 34 13 14 16 3 27 38 23 24 26 17 24 10 17 28 13 20 23 31 23 17 28 14 24 22 21 17 17 19 10 7 13 16 31 0 23 20 13 13 17 27 38 15 27 28 21 21 24 31 20 30 9 20 10 10 28 17 41 16 38 17 34 7 30 23 3 20 38 27 17 17 30 13 38 31 10 20 27 28 19 38 10 35 13 16 17 30 17 16 30 27 13 20 13 19 24 10 19 21 21 38 18 21 27 20 10 14 20 20 20 12 30 21 24 17 20 23 12 20 21 23 3 34 9 20 13 10 14 31 17 10 23 13 28 30 31 24 20 17 37 21 10 20 25 27 19 27 14 27 24 27 29 18 43 20 35 31 14 27 24 24 13 13 13 21 36 20 16 22 34 13 13 3 15 24 10 27 20 45 14 30 16 21 24 17 24 20 10 27 17 10 24 17 34 17 13 13 13 20 10 17 28 13 6 31 14 16 24 19 14 24 38 17 24 31 20 20 13 3 21 24 10 20 27 31 20 13 20 16 13 27 17 29 17 20 24 20 13 12 34 10 21 10 5 16 38 17 10 28 16 34 35 35 10 24 38 24 12 24 35 10 20 10 27 28 24 17 24 31 24 27 27 20 27 20 17 21 13 14 44 10 31 15 19 20 19 18 34 21 23 34 19 27 32 15 13 20 19 17 17 20 21 13 21 13 31 17 30 31 17 17 13 14 31 24 20 34 24 24 17 20 13 7 13 17 9 21 35 28 37 35 21 20 3 34 26 31 17 14 31 17 23 23 20 41 24 38 24 24 26 31 18 20 27 31 13 2 20 22 25 16 14 3 17 14 3 20 28 23 17 23 31 17 31 0 23 34 20 33 23 26 20 24 13 36 19 0 27 8 13 21 10 38 17 12 17 37 14 14 21 24 21 6 24 12 10 42 20 6 16 10 31 23 28 10 9 10 13 24 23 20 21 23 31 10 9 23 34 20 17 14 21 17 24 17 17 42 30 19 30 24 17 21 13 27 24 10 28 14 20 27 14 13 25 10 17 19 13 16 24 35 34 28 17 33 17 6 20 13 36 13 14 21 13 17 22 20 13 34 22 21 13 13 24 10 28 33 11 41 27 19 21 24 14 26 21 16 23 21 10 21 27 7 24 20 31 34 24 20 15 21 21 48 28 27 13 10 28 24 31 31 28 19 20 26 21 10 28 13 15 21 14 10 23 14 20 31 20 10 16 14 13 19 17 15 14 34 21 21 14 17 24 9 13 20 17 30 29 9 17 14 16 24 15 16 31 17 21 14 19 24 24 13 27 21 14 17 24 14 19 26 6 27 24 23 38 15 28 14 20 26 30 27 17 9 27 15 41 24 20 31 17 16 9 16 17 25 20 14 7 33 10 6 21 13 31 20 23 14 27 33 27 27 23 10 13 30 34 14 31 33 20 20 17 14 13 13 10 9 22 7 17 24 22 33 27 24 24 17 19 14 23 28 40 18 13 13 16 16 23 23 31 30 44 19 20 28 9 7 3 10 19 17 10 30 6 13 16 6 30 28 29 20 10 10 28 21 16 17 17 23 38 26 19 17 33 25 16 19 23 27 20 6 20 17 23 25 27 20 10 34 7 37 29 31 21 16 17 9 24 16 28 20 22 14 13 7 22 3 20 10 13 9 16 27 10 31 15 31 13 27 27 17 10 9 17 27 20 24 9 17 23 22 34 31 18 12 21 13 10 37 13 16 17 23 18 24 16 28 41 19 17 16 27 19 27 10 23 27 19 21 20 17 16 16 23 13 17 24 21 27 10 31 30 19 13 27 33 18 20 13 17 23 24 26 8 17 41 19 13 24 31 31 20 17 28 31 3 18 21 17 23 14 19 13 17 24 13 21 20 13 38 27 31 42 20 6 17 21 14 29 20 27 27 39 28 31 16 24 27 21 30 14 13 24 10 3 12 27 23 17 27 17 16 23 20 27 20 38 12 20 27 26 20 38 23 20 22 31 13 27 10 16 31 21 14 20 23 34 18 23 21 28 10 28 18 24 21 45 33 10 25 31 24 23 23 31 24 17 21 14 27 21 20 21 23 21 27 18 23 23 34 24 17 20 26 38 35 20 17 3 27 17 10 17 13 20 15 6 38 20 27 10 17 23 31 27 34 20 13 24 9 20 27 30 38 27 24 23 19 3 24 19 24 7 19 17 20 20 20 20 35 20 17 16 20 13 17 17 33 30 6 17 23 17 19 0 16 31 31 29 34 28 22 34 17 49 24 10 17 18 13 15 20 27 20 23 24 42 22 23 24 28 14 23 11 21 12 20 15 6 34 31 24 3 28 15 27 16 13 21 10 24 14 18 30 15 20 30 27 13 29 20 17 20 14 26 3 19 21 14 37 20 23 17 17 14 17 21 17 21 17 14 23 17 16 37 27 30 13 17 24 20 20 31 17 26 26 3 20 17 20 10 7 3 17 34 19 31 34 38 27 13 27 27 45 22 26 23 18 31 27 29 7 9 10 20 24 20 10 27 0 24 23 24 27 33 20 14 17 17 28 13 13 16 27 13 15 33 28 13 17 27 41 24 20 10 13 20 21 9 17 21 6 17 17 17 14 27 24 19 30 23 16 30 31 22 20 24 34 31 14 17 28 24 23 30 13 3 17 24 30 19 7 17 23 27 24 17 13 13 21 13 45 17 20 17 20 14 37 10 30 41 26 20 7 20 17 30 31 30 17 23 7 33 24 9 31 20 17 24 43 13 20 14 38 24 14 17 17 20 17 23 20 7 19 21 17 38 35 10 24 34 24 20 21 13 38 24 21 24 10 17 21 21 12 17 19 10 7 27 31 20 23 20 28 38 35 17 27 14 27 21 6 21 21 37 6 17 28 14 17 28 31 38 17 15 6 9 27 14 24 13 45 15 19 23 20 24 10 22 20 18 9 20 13 9 14 24 14 17 12 20 24 16 16 17 17 21 24 27 42 14 20 23 10 24 27 20 26 24 23 35 23 21 22 27 22 23 24 22 31 35 30 13 14 17 22 27 14 14 17 31 15 24 24 20 13 17 35 17 0 26 21 20 21 26 24 17 0 24 27 31 14 24 29 24 20 32 14 13 28 23 21 34 20 27 40 10 28 20 38 13 26 10 27 27 20 17 19 7 19 6 19 20 9 20 17 21 35 20 13 20 14 24 24 30 28 13 20 24 24 19 14 17 38 34 16 25 23 13 24 26 27 14 16 23 44 28 20 20 30 20 28 13 20 24 19 16 25 30 9 20 21 13 31 24 9 16 17 24 15 20 23 23 14 30 31 0 17 9 28 16 10 30 16 13 24 13 31 24 19 27 38 27 21 31 20 16 31 22 38 24 21 23 23 13 10 17 19 31 31 17 16 23 20 32 31 10 27 31 17 27 31 17 24 21 13 24 21 21 20 19 17 31 24 20 14 16 16 16 18 17 19 31 20 21 25 24 13 19 27 34 21 24 17 24 17 9 20 28 3 13 20 28 10 16 13 23 27 24 14 20 17 34 10 16 20 14 16 17 27 14 31 21 14 20 41 23 16 17 20 21 30 27 10 19 20 30 14 30 17 20 7 34 22 19 27 18 27 21 24 14 17 34 7 10 24 13 14 13 24 21 20 22 24 13 24 10 25 8 14 22 17 27 20 20 28 17 28 6 26 21 20 17 26 25 30 24 14 34 24 20 22 26 23 13 41 20 28 30 16 10 23 16 10 34 14 23 14 20 13 16 24 9 16 20 27 30 30 20 28 23 27 8 20 14 10 21 6 26 34 21 20 16 24 26 17 13 36 9 17 7 13 3 21 21 24 28 17 34 15 21 16 19 27 10 3 24 31 23 13 31 7 27 24 19 10 10 14 25 23 10 21 23 22 10 13 27 28 24 17 31 17 27 7 14 13 34 31 20 14 22 27 27 13 27 28 38 21 24 25 20 13 17 17 28 21 26 13 28 41 19 20 7 22 22 32 7 21 17 14 12 30 21 14 16 24 17 14 17 10 31 10 16 13 29 17 10 14 21 31 17 19 26 7 24 32 24 0 47 26 20 20 10 32 19 24 16 10 19 13 27 13 18 34 13 24 18 23 17 10 20 20 29 7 44 21 9 14 20 17 24 13 27 16 15 23 17 9 26 3 17 27 20 31 3 19 16 11 16 3 21 23 15 20 31 24 34 6 23 24 25 13 9 20 20 15 17 12 26 23 21 7 13 7 21 35 17 3 13 16 23 17 23 21 17 34 22 13 23 6 34 21 16 13 7 17 27 23 10 37 24 24 20 17 31 26 21 29 23 17 24 21 28 24 21 24 30 20 24 28 13 16 24 20 21 27 16 27 14 38 21 12 16 27 10 10 14 24 16 16 10 20 31 34 17 30 9 10 22 20 7 14 17 27 23 24 13 24 38 16 33 20 21 13 24 7 31 28 27 21 19 37 17 17 20 34 30 17 10 20 20 30 14 7 16 30 31 28 18 10 23 20 31 20 14 24 10 24 19 34 34 23 19 17 6 13 7 20 24 24 23 31 31 23 20 19 17 30 19 31 25 23 33 21 22 20 30 27 24 28 23 27 13 20 20 16 23 17 24 38 22 16 23 16 21 17 34 23 21 26 27 24 22 24 15 24 17 29 20 28 5 30 24 17 27 31 30 11 17 24 18 17 34 20 14 14 16 13 10 14 10 24 10 10 24 28 10 40 28 21 30 24 24 34 41 9 31 24 19 31 15 0 10 20 27 20 31 27 16 34 29 7 3 21 34 24 24 20 17 20 26 8 13 16 17 14 17 10 24 20 20 27 17 17 24 23 6 20 21 13 14 21 17 24 24 23 23 10 16 18 27 24 21 31 17 21 20 14 27 26 17 17 16 38 21 12 21 17 10 35 44 21 27 24 13 29 27 15 19 27 10 31 41 20 34 6 10 17 16 23 20 24 23 13 31 31 37 24 22 19 10 24 13 20 21 22 14 34 11 28 20 16 18 34 17 17 18 29 24 29 23 7 10 28 41 12 21 17 17 3 17 28 26 17 31 30 17 30 37 23 27 24 10 20 35 30 24 21 31 19 15 16 17 7 13 27 31 10 33 20 7 17 14 23 24 3 3 17 31 21 10 17 23 14 24 9 13 3 26 26 13 15 24 0 28 27 23 23 13 35 30 17 23 23 22 30 29 14 31 31 16 21 34 10 31 21 24 17 9 10 23 20 14 10 27 17 19 20 20 26 27 6 20 24 14 20 10 17 20 19 10 24 17 13 27 20 15 21 20 17 13 11 21 27 31 23 20 30 28 10 10 20 10 20 13 7 25 19 21 20 17 24 21 17 21 24 24 20 24 23 37 17 30 20 34 26 31 28 27 20 9 24 27 27 17 20 28 9 16 22 6 10 24 17 10 13 16 26 9 20 10 28 33 21 16 10 7 35 31 3 24 37 20 15 35 6 26 28 29 13 11 26 20 20 13 7 16 21 24 14 44 27 21 20 22 21 31 20 24 16 14 14 13 17 14 22 24 20 21 25 13 9 16 21 16 35 23 24 20 7 34 11 7 35 16 17 17 31 14 27 42 16 31 10 16 30 26 30 23 13 28 17 20 28 31 24 27 24 13 16 10 9 14 30 22 16 6 12 27 13 10 24 12 20 23 26 17 17 19 30 20 23 26 19 34 19 18 17 17 27 27 16 14 8 12 49 10 20 31 20 28 15 10 12 18 27 20 9 19 17 17 17 16 24 31 38 24 17 13 20 35 17 10 30 10 37 16 17 16 20 37 21 17 17 23 7 36 17 21 21 14 23 16 30 17 9 19 6 15 23 25 3 23 24 26 17 33 27 30 19 31 10 22 24 20 23 23 20 10 21 13 14 20 23 17 10 6 17 23 8 13 21 34 20 24 24 14 24 14 30 17 10 19 16 24 7 13 23 14 17 10 20 16 26 20 0 31 24 17 10 27 31 18 30 9 23 31 14 13 34 23 20 14 15 27 20 23 22 16 27 14 6 24 10 23 16 28 35 9 21 17 23 24 38 31 24 14 10 28 24 21 31 37 12 21 17 30 20 33 31 24 22 20 13 14 10 20 21 22 28 18 13 19 24 34 20 19 7 24 21 14 20 17 17 16 34 27 21 7 17 30 20 23 34 10 23 28 24 10 20 31 24 30 31 6 24 13 27 21 19 27 28 27 27 23 26 7 20 17 12 13 24 38 20 10 9 34 10 17 23 14 17 30 27 10 24 10 16 14 24 20 30 3 27 34 17 23 27 16 10 33 21 13 7 13 24 12 28 43 15 20 41 27 23 34 27 9 24 13 13 38 24 16 34 10 17 18 13 20 14 17 13 7 13 29 17 35 22 21 27 30 13 13 27 14 28 20 19 24 17 24 10 24 20 6 13 17 21 31 28 18 17 20 27 23 17 20 11 37 13 14 14 24 23 20 24 31 20 17 21 23 37 17 30 16 31 14 16 21 31 3 14 14 27 28 19 17 17 17 24 20 27 20 27 31 20 24 17 28 23 23 15 21 17 20 17 14 23 6 28 13 17 28 28 34 17 31 27 20 17 20 28 30 30 14 17 17 24 20 21 20 24 20 30 41 17 27 17 13 14 24 16 21 24 17 40 24 24 16 28 9 20 21 14 27 27 31 34 26 17 27 16 14 13 20 23 24 27 27 22 20 21 31 38 27 13 27 20 21 16 15 41 19 13 23 10 24 20 14 23 22 17 14 17 23 3 20 30 20 12 20 16 10 3 23 21 19 13 13 8 6 30 13 9 14 24 13 17 24 23 27 14 24 20 19 7 25 32 20 20 31 13 26 19 19 27 0 24 21 27 21 16 6 27 17 26 35 21 16 24 13 13 17 16 17 20 31 6 17 31 28 17 17 35 21 20 30 10 28 17 6 31 27 21 14 24 17 24 17 30 27 17 27 7 23 10 23 6 17 27 22 10 10 10 31 24 13 28 24 29 23 18 22 14 21 17 17 3 28 23 19 13 35 19 23 13 16 24 22 30 20 26 23 30 17 31 30 27 23 3 13 31 26 17 20 19 0 27 24 26 23 13 9 23 16 17 15 6 20 13 3 14 21 20 27 24 6 24 17 17 16 19 17 41 30 17 14 20 16 27 3 17 17 20 20 19 20 23 27 27 14 17 23 17 20 20 19 20 20 11 28 9 24 23 16 16 24 37 9 42 17 31 10 21 14 16 24 24 27 22 24 27 20 24 14 23 38 9 10 21 9 21 28 11 32 13 16 19 17 10 24 23 17 28 17 0 20 20 23 30 19 10 18 13 24 21 30 33 12 27 27 24 7 24 24 20 24 38 27 16 33 24 24 27 13 36 35 16 9 20 14 10 9 14 12 23 31 0 17 27 30 19 21 16 9 13 17 20 13 23 30 21 10 30 29 27 7 24 24 13 12 30 21 34 20 7 17 10 17 6 24 17 20 10 6 28 22 17 17 34 27 10 7 28 24 10 12 24 21 24 41 3 24 23 14 7 24 38 18 28 20 27 30 23 37 9 17 21 24 23 19 23 13 13 20 26 17 17 42 31 6 27 23 31 27 9 13 21 24 20 23 13 21 14 13 23 21 13 17 20 21 19 33 23 20 16 38 12 37 34 17 30 10 14 34 24 9 31 31 20 10 14 27 17 20 18 38 30 7 21 21 22 20 28 21 3 13 19 20 30 10 23 17 20 24 14 20 20 24 24 31 34 24 16 14 22 13 13 30 28 17 12 14 29 17 10 31 15 16 24 21 22 24 13 20 26 10 14 14 14 10 21 13 20 7 17 31 20 24 20 13 14 23 28 33 13 26 27 9 14 17 12 23 26 35 31 14 21 10 3 30 20 31 27 17 13 23 21 31 24 20 28 30 13 20 22 13 20 31 9 7 23 29 37 17 31 19 20 20 20 27 26 28 16 17 10 37 9 14 21 14 12 17 20 27 17 24 20 23 31 16 24 28 23 17 9 20 16 20 7 14 17 16 24 24 10 13 41 20 20 21 17 28 16 20 45 24 21 13 17 20 17 28 31 28 13 28 19 28 14 24 21 9 33 17 26 7 17 34 20 23 21 26 17 14 30 27 23 9 14 3 7 31 20 21 24 24 3 21 14 27 14 14 24 14 21 22 24 21 30 27 20 6 23 31 17 20 13 27 20 14 6 17 49 28 14 17 24 20 26 27 27 20 21 20 29 27 12 20 24 28 35 31 34 21 20 20 19 13 24 19 14 18 27 29 3 13 20 34 22 19 15 29 10 27 24 8 6 27 27 13 25 22 34 19 22 0 20 34 23 17 19 17 34 14 21 31 6 14 16 27 17 17 13 27 24 22 20 17 21 28 17 34 16 31 23 31 13 9 17 11 28 19 31 11 17 21 31 17 24 14 7 21 21 14 16 31 21 30 15 11 14 17 23 23 10 14 24 17 25 24 41 23 20 10 10 9 34 10 7 24 20 16 21 38 24 16 24 10 21 22 24 19 20 23 38 20 34 17 7 23 31 19 24 20 21 17 19 22 17 21 7 13 18 30 13 28 6 27 17 19 20 24 14 13 34 23 23 14 20 27 20 9 24 17 20 6 24 13 14 27 7 10 10 38 25 20 17 14 21 28 16 24 17 20 21 23 19 32 20 24 10 31 30 20 23 21 17 3 17 27 13 19 20 30 35 26 38 7 20 25 24 10 10 12 23 21 23 31 10 25 16 16 10 27 34 13 17 16 27 17 20 14 28 27 20 7 23 6 17 14 7 35 24 13 13 24 31 20 27 17 27 19 26 6 17 16 27 35 24 28 24 21 21 20 20 20 13 10 16 17 27 6 35 10 20 0 27 28 14 22 24 17 19 20 23 26 14 20 28 13 21 34 13 21 34 17 24 16 15 28 14 20 20 20 28 23 21 17 24 37 7 33 13 17 27 17 27 10 20 27 22 10 35 17 31 15 26 20 13 20 24 20 27 9 7 16 14 27 14 14 27 17 13 20 7 17 23 20 31 31 30 31 6 13 20 35 30 45 9 23 17 21 14 14 20 16 17 28 23 23 21 24 28 14 20 13 17 24 22 7 21 16 27 22 3 13 26 31 24 14 20 31 12 21 7 10 17 24 31 21 12 13 16 13 10 26 14 27 20 13 17 22 15 38 10 34 25 17 35 9 24 14 27 35 16 27 34 22 20 10 19 17 14 27 27 23 31 5 22 24 9 13 31 13 31 26 20 16 20 31 20 10 19 23 41 10 30 31 17 41 10 7 21 21 40 27 12 20 14 20 33 17 19 20 0 27 11 27 20 19 28 9 21 17 18 16 15 6 14 41 21 23 30 24 14 21 20 27 23 14 10 31 23 28 6 27 23 34 22 21 19 27 13 17 3 10 31 25 24 13 31 17 13 9 0 9 23 13 17 17 20 13 0 9 27 20 17 20 21 28 22 23 17 16 21 9 29 27 34 31 13 17 13 20 19 27 19 14 27 21 7 34 14 15 24 24 16 16 24 9 23 22 17 25 20 20 6 10 31 27 14 27 28 20 24 20 12 27 17 40 16 8 21 17 14 16 13 10 7 30 33 23 21 31 15 10 16 28 30 6 27 10 26 17 23 34 28 17 24 24 16 17 24 12 14 29 21 17 17 30 17 9 10 13 19 26 10 28 6 31 10 16 17 34 23 22 12 10 38 10 27 17 17 27 16 24 13 20 24 35 10 27 21 23 41 23 23 23 14 24 12 16 23 19 23 3 24 34 15 14 28 21 29 20 21 27 24 23 20 27 34 27 23 10 7 9 23 38 20 20 16 15 27 19 20 6 27 18 27 24 35 17 20 6 14 24 13 43 13 10 23 13 18 35 34 17 20 17 13 17 27 16 42 13 24 10 0 7 18 24 21 13 27 12 17 20 16 21 17 27 10 13 20 13 17 16 22 22 17 17 24 27 17 28 24 14 24 16 6 27 24 17 31 15 20 20 15 17 14 30 21 17 30 33 31 35 28 23 21 19 42 39 30 16 16 26 14 14 23 10 24 31 24 28 17 12 29 17 20 35 21 20 31 15 30 26 17 17 21 17 13 37 47 27 27 21 16 17 13 27 30 24 21 27 7 23 17 8 34 20 24 28 16 17 23 30 24 24 27 41 35 12 23 26 21 20 24 21 27 30 19 26 19 28 20 24 20 28 17 10 23 42 23 15 23 27 20 27 23 7 24 24 12 21 20 17 34 40 19 20 31 34 30 23 20 17 17 28 13 26 14 27 25 7 13 20 10 23 11 20 9 19 24 13 16 24 20 13 23 22 17 3 17 20 10 27 10 9 31 35 24 16 14 29 34 15 16 23 29 38 17 16 27 27 10 31 13 14 14 3 23 27 13 16 16 28 20 24 34 10 11 17 10 20 23 26 10 12 16 27 10 24 20 19 27 22 24 14 34 27 18 23 15 20 28 17 25 13 31 20 28 20 10 14 6 21 28 12 17 9 17 6 27 23 15 14 21 13 27 17 20 10 35 20 17 7 27 15 15 15 10 24 16 24 10 27 10 3 21 37 27 24 27 24 21 21 31 24 17 20 34 24 23 34 17 12 23 34 14 20 17 31 24 3 21 35 24 14 10 6 21 13 20 29 20 20 23 22 20 16 6 21 17 17 13 13 26 10 16 21 20 13 16 9 41 17 36 34 10 30 23 10 13 23 34 17 23 20 35 20 16 22 6 17 13 24 24 13 28 28 31 20 34 23 10 17 24 14 10 10 17 28 6 23 16 10 14 17 27 23 23 21 14 30 21 17 20 20 19 14 42 3 20 28 9 20 30 26 21 17 20 20 21 17 9 20 38 17 21 17 26 21 23 7 31 27 20 20 20 17 19 27 27 9 16 27 21 20 6 27 14 31 23 27 28 23 24 18 20 33 6 7 14 17 6 19 7 24 23 19 21 16 30 15 35 16 21 24 10 28 17 33 6 17 31 15 14 24 13 12 23 20 24 20 7 13 4 28 27 10 26 27 34 20 20 29 17 11 17 19 24 23 14 27 24 10 17 31 14 28 20 13 23 18 28 24 23 16 16 9 17 27 35 28 21 14 14 21 16 17 28 17 30 24 24 20 28 12 13 14 31 6 24 13 19 20 34 27 27 21 14 30 7 6 21 24 17 26 9 20 20 42 19 24 14 13 27 31 30 37 23 21 3 17 22 17 16 17 13 13 35 9 20 22 41 17 17 17 23 35 27 15 24 20 28 24 31 16 19 13 33 16 9 13 35 24 17 28 19 20 13 15 20 27 20 34 21 8 16 35 27 10 30 3 31 13 28 24 26 13 6 21 28 7 14 23 27 16 27 16 31 24 13 12 23 19 20 17 17 16 23 24 33 21 13 17 13 23 17 13 33 12 27 25 30 33 13 17 19 13 13 38 20 26 24 16 24 27 28 22 16 17 34 17 27 34 18 24 21 27 20 7 14 6 27 17 27 34 14 16 20 13 31 13 24 27 29 16 24 20 19 10 31 29 23 31 7 7 28 13 17 28 16 24 10 41 30 21 20 21 19 17 34 27 24 16 31 20 20 21 23 17 23 17 27 23 17 13 24 10 17 26 27 28 17 17 17 11 27 20 14 10 13 20 14 38 38 35 13 28 28 20 23 13 24 3 3 13 20 20 26 17 10 28 17 21 19 23 20 29 31 24 13 33 14 34 3 12 45 41 13 18 21 22 20 27 16 26 20 13 9 24 3 13 27 21 3 19 10 19 24 13 23 27 7 30 10 20 24 29 21 20 20 16 24 34 14 17 17 20 24 24 20 11 10 17 21 13 13 20 24 20 17 17 19 24 21 21 17 21 14 27 34 10 23 16 10 38 13 23 24 17 17 12 20 14 20 21 38 20 26 23 35 3 13 17 31 27 16 26 28 17 24 20 9 26 31 31 23 23 9 14 19 31 27 27 20 14 6 26 33 24 24 34 33 24 14 16 27 40 16 10 33 30 28 24 12 27 35 13 20 17 16 21 24 24 24 31 20 24 13 9 6 38 16 10 35 9 9 17 13 30 23 16 16 13 27 23 20 20 16 7 38 13 20 24 28 16 7 23 20 17 13 21 10 23 20 17 19 9 19 27 31 17 24 23 24 17 6 27 19 19 13 13 17 13 22 13 24 27 14 7 26 13 16 21 20 6 14 31 9 14 14 28 10 27 29 13 24 31 7 14 27 15 28 13 20 21 21 19 28 30 29 0 17 13 34 24 19 20 21 20 28 20 12 20 20 14 16 6 23 23 34 20 24 10 33 25 17 14 30 34 20 20 13 19 10 24 7 31 9 12 0 17 20 21 28 10 20 24 24 19 20 21 34 12 21 42 9 27 9 18 20 13 24 20 24 37 9 19 20 23 16 13 10 12 10 31 24 14 27 6 17 14 10 17 9 20 17 31 20 24 21 29 17 26 20 20 6 16 17 12 31 38 37 14 24 27 13 28 3 3 14 24 23 13 10 13 23 17 37 24 24 17 31 21 16 38 20 23 24 21 24 20 19 13 14 24 10 17 16 21 21 16 17 27 16 20 28 6 9 26 31 30 30 28 16 10 13 24 17 30 14 16 14 27 28 20 20 23 34 24 19 21 24 14 8 38 9 7 28 27 24 20 10 7 24 21 10 17 14 31 27 13 13 12 21 24 18 24 20 24 41 13 14 23 16 17 24 24 20 21 30 10 27 23 17 17 14 34 20 13 17 22 34 28 13 24 20 17 17 3 13 27 24 41 31 30 13 33 24 7 23 37 20 13 14 24 31 17 17 20 13 28 24 33 20 23 14 3 25 10 24 28 24 31 38 16 13 19 16 26 20 24 21 14 24 17 24 30 21 20 10 34 14 28 21 16 7 21 31 17 21 14 27 13 27 28 38 10 20 9 10 25 24 3 33 13 7 26 26 13 24 14 31 15 13 23 23 13 17 7 16 16 19 28 31 28 34 24 14 34 37 17 27 17 23 34 31 24 10 21 14 17 20 10 17 28 22 10 36 21 17 17 27 19 14 23 21 29 17 13 30 14 24 35 10 24 10 10 28 10 16 27 14 17 31 21 17 20 14 21 26 26 17 10 23 24 31 6 17 17 24 11 17 17 20 38 17 13 13 9 24 23 14 27 30 17 14 14 34 28 27 29 20 30 14 6 20 31 10 17 13 33 25 35 17 16 3 17 21 17 20 16 31 14 13 17 30 17 14 23 10 7 10 23 3 19 17 13 23 27 21 21 35 42 33 24 45 25 33 16 17 27 24 24 35 17 31 38 6 7 10 19 15 26 12 30 19 28 21 13 26 33 18 23 34 13 21 24 24 13 17 13 27 6 20 19 7 14 22 20 17 14 3 13 17 13 17 23 16 23 16 14 15 22 34 18 27 21 21 23 35 12 28 27 13 19 16 13 25 21 19 23 44 35 10 27 15 28 20 19 14 24 22 20 10 20 13 17 14 30 16 45 24 27 35 48 13 23 27 24 10 31 20 15 28 26 23 29 28 23 27 17 3 6 10 38 24 24 29 31 17 29 23 19 30 17 20 12 24 19 6 10 14 21 21 17 34 20 16 17 9 31 13 27 10 7 20 23 13 17 24 24 24 23 16 20 24 20 17 13 37 31 17 25 24 17 27 13 17 12 7 17 24 35 13 30 20 31 10 20 16 13 23 31 30 20 20 24 21 30 27 31 16 30 33 19 6 13 15 24 20 10 10 20 14 23 24 22 14 28 35 30 33 28 9 31 31 24 19 37 14 10 14 23 27 33 23 21 36 28 24 17 21 24 33 17 13 6 17 30 31 23 20 20 20 14 30 9 20 25 29 16 19 34 14 22 17 34 10 15 16 31 31 31 15 26 31 16 37 33 13 23 9 13 31 17 24 9 20 6 28 23 19 16 16 13 14 17 9 20 12 34 13 27 27 23 22 16 26 21 18 21 20 16 17 14 19 12 14 20 20 20 24 17 23 22 36 20 7 16 14 24 31 38 16 38 28 33 17 24 21 7 20 26 37 17 17 7 17 13 20 20 29 35 20 14 25 10 31 3 23 10 13 23 28 30 27 20 21 20 27 13 10 38 21 11 14 27 10 27 30 24 25 20 20 14 20 17 19 9 31 17 21 15 24 23 16 10 19 24 27 17 10 20 31 26 30 21 31 13 20 26 17 24 7 10 17 20 9 14 31 14 20 6 20 17 33 23 20 41 27 16 23 3 49 23 24 23 27 17 30 21 17 24 20 10 6 16 35 16 21 25 13 20 27 35 12 38 16 30 37 10 26 17 31 17 24 17 36 31 38 37 24 20 24 19 20 33 27 13 31 20 17 13 16 27 24 14 27 23 40 18 44 27 27 17 13 28 14 16 23 27 27 13 31 15 7 24 20 27 30 13 30 22 23 14 10 26 13 28 18 35 9 10 16 17 13 19 27 16 10 24 25 15 9 21 34 38 38 14 20 24 28 23 16 17 10 21 22 15 7 26 28 13 30 23 21 22 21 23 26 28 20 14 16 20 7 10 20 24 20 17 24 20 27 17 26 24 15 25 20 17 13 27 34 24 38 20 17 22 24 24 26 10 24 17 35 14 20 27 7 20 27 17 19 16 14 20 22 30 16 17 21 45 34 10 17 12 34 38 34 21 13 24 21 20 31 24 27 23 34 21 15 20 19 24 34 35 30 16 20 28 20 20 34 22 6 20 27 18 19 16 26 13 20 10 23 17 25 19 11 31 23 7 20 38 21 10 16 34 17 35 37 9 15 24 23 10 38 20 17 23 24 17 35 23 17 31 22 27 13 12 17 17 23 24 21 16 20 13 27 28 21 20 28 10 18 14 14 34 24 19 16 24 20 9 23 24 21 24 24 32 21 24 20 16 24 17 22 23 38 17 17 38 27 19 28 23 31 25 5 23 34 20 19 24 35 35 10 20 10 18 13 20 23 20 22 38 28 21 36 9 20 12 27 17 27 9 13 34 20 31 3 30 18 10 24 13 17 17 28 21 10 6 16 25 20 21 16 19 20 30 13 27 20 20 10 24 24 27 9 17 31 31 31 33 17 0 21 38 16 24 31 14 20 21 31 17 22 24 27 38 31 21 13 28 22 10 16 10 23 16 28 22 10 40 13 20 28 16 26 31 17 10 20 20 16 7 8 24 14 22 37 14 24 26 31 17 23 12 23 27 13 13 14 9 10 14 6 30 20 28 30 20 24 7 3 12 19 36 16 21 16 36 20 24 14 16 17 38 13 20 22 16 24 23 20 10 27 16 20 20 12 16 13 14 27 10 21 11 23 21 10 22 14 7 27 15 10 10 20 14 26 17 21 24 21 17 24 31 28 20 31 25 28 13 21 23 17 20 10 26 14 34 17 21 19 16 10 20 14 27 17 10 20 27 52 13 12 19 24</t>
+  </si>
+  <si>
+    <t>NIG(143.24758140173702, 75.52080362646964, -1.6982592500835916, 42.46035439028072)</t>
+  </si>
+  <si>
+    <t>27 26 24 28 27 20 28 35 23 27 24 28 17 22 20 29 30 23 26 27 31 23 21 16 23 31 26 19 30 33 25 26 25 24 26 26 24 23 30 18 25 25 22 29 31 29 27 22 27 16 25 34 23 30 26 24 24 24 22 22 24 28 24 31 25 33 23 28 20 22 29 18 26 29 38 26 24 29 27 24 30 25 29 27 26 27 26 24 20 30 26 30 24 23 24 25 27 28 30 26 25 19 27 22 23 27 25 19 30 30 22 23 25 30 27 30 24 26 18 17 21 25 36 30 28 32 25 29 29 30 23 26 20 18 24 29 28 25 22 24 25 23 20 29 22 23 26 22 27 22 28 27 22 28 26 25 27 21 19 23 27 23 23 26 29 31 16 28 27 26 28 25 35 23 22 27 25 17 23 24 24 31 24 20 28 34 19 27 20 23 19 23 28 24 16 21 25 30 31 25 30 20 29 26 34 15 19 25 33 22 15 28 22 28 21 28 21 16 27 24 23 36 20 21 25 33 21 28 29 31 24 29 32 32 26 29 25 27 24 18 28 25 22 37 23 18 27 15 20 30 27 25 23 30 25 31 31 23 34 24 20 24 35 35 22 26 28 29 26 24 25 27 25 23 22 23 27 27 28 30 25 20 25 16 26 16 25 32 19 19 25 25 30 23 21 21 30 21 28 30 29 27 18 29 24 25 24 20 22 30 24 26 25 24 23 23 22 23 15 14 26 23 25 30 25 24 26 26 27 22 27 19 28 23 20 33 24 31 27 30 17 19 15 19 22 30 22 18 23 30 22 25 23 24 28 29 28 29 24 19 24 23 27 23 26 20 27 24 23 29 30 27 27 32 20 24 20 25 28 30 20 29 27 25 27 20 25 28 24 25 21 30 21 18 28 24 28 20 21 35 18 22 17 19 26 24 22 28 28 25 33 20 24 26 27 23 20 19 22 25 26 27 25 26 25 21 32 25 21 19 26 22 22 22 25 24 26 31 30 17 25 32 26 35 25 29 16 22 23 18 27 21 24 29 28 15 23 27 35 21 24 26 24 20 18 23 33 18 25 25 26 28 23 32 32 28 31 20 18 25 32 29 20 27 15 35 19 25 26 26 29 24 23 22 20 25 29 21 25 27 28 26 23 34 21 20 22 21 27 24 25 24 28 23 18 27 29 31 23 25 22 24 22 27 33 27 23 29 28 26 26 25 32 21 26 29 22 18 23 21 27 15 27 15 26 15 35 26 21 22 23 26 25 17 27 23 25 24 25 18 25 26 16 32 34 22 23 23 24 21 28 31 22 21 26 19 26 27 22 27 27 29 20 28 11 20 23 20 25 18 26 16 24 22 18 22 21 28 30 23 24 26 22 29 25 24 26 28 17 19 25 26 25 23 19 32 17 20 22 19 23 19 21 18 21 34 27 27 23 31 23 33 24 23 32 24 24 15 23 26 23 28 22 17 25 27 24 23 21 25 24 28 24 29 25 18 20 22 29 20 30 19 18 20 28 32 26 29 28 18 21 21 19 26 25 26 24 25 18 21 34 23 25 25 23 29 22 20 31 24 17 27 28 22 25 30 34 20 26 22 30 25 30 23 24 26 28 26 26 28 23 22 20 31 24 28 18 21 25 22 22 34 27 23 11 16 23 29 23 23 18 22 21 24 20 33 21 22 18 26 22 31 24 25 23 19 32 25 26 27 26 23 21 20 25 23 22 26 18 36 27 30 19 31 23 26 24 21 29 31 31 20 27 16 19 29 37 35 30 29 35 25 16 28 23 17 27 27 23 28 25 27 23 27 27 26 26 34 30 20 21 28 27 24 18 28 30 32 25 32 25 26 31 21 28 27 26 24 29 20 22 25 21 26 34 22 26 22 26 29 26 22 29 27 27 25 27 27 18 27 17 32 27 17 35 25 28 24 24 27 28 25 26 25 27 24 27 29 18 17 21 26 20 21 21 25 30 18 22 30 28 26 34 28 33 27 24 20 24 29 31 19 19 23 26 30 27 22 25 15 23 31 27 28 21 27 18 28 25 27 27 26 26 27 25 25 26 32 28 24 22 32 30 26 19 18 20 25 25 21 21 26 20 24 17 24 16 25 25 32 32 24 32 23 27 20 25 22 23 16 26 28 20 30 30 23 27 26 19 26 22 27 21 17 24 27 31 27 21 21 20 23 29 20 26 19 20 20 21 25 27 30 22 24 20 21 23 19 38 28 18 29 22 28 27 20 28 28 24 18 28 28 22 20 25 27 25 25 28 26 24 21 22 21 27 22 33 26 23 26 20 21 26 26 18 21 30 31 27 25 20 19 25 26 25 28 26 23 27 29 21 33 22 23 26 30 26 26 31 20 18 24 26 27 23 22 19 24 28 32 23 31 20 29 25 24 26 32 28 32 27 27 29 20 19 19 25 27 28 18 22 21 26 18 19 23 18 27 24 24 20 23 27 23 18 29 26 25 23 24 26 22 16 20 17 23 19 21 33 22 26 22 28 18 39 21 23 26 27 29 19 18 27 21 24 16 15 31 20 18 20 28 26 34 27 26 25 24 32 16 26 35 18 27 21 27 22 29 26 22 22 26 22 16 22 23 27 18 23 25 26 31 24 29 26 25 20 22 32 30 22 23 23 28 23 25 19 21 21 28 24 35 30 26 26 22 24 24 29 19 24 30 28 27 24 25 12 29 18 22 22 19 25 25 28 24 29 23 23 19 29 22 20 21 28 28 21 24 24 29 31 29 21 20 30 24 28 29 23 23 29 28 22 25 21 23 27 33 28 28 25 31 17 17 17 22 23 26 19 38 18 29 20 23 21 35 21 9 19 21 27 21 22 18 23 21 24 29 21 20 23 24 32 21 25 25 22 24 26 27 19 19 21 17 27 34 33 32 18 30 21 26 25 26 26 29 18 25 30 28 21 18 28 27 27 20 24 24 28 23 28 23 31 30 14 22 20 23 22 24 26 19 21 29 34 28 27 25 28 26 27 23 34 26 19 20 21 31 17 24 26 23 28 17 27 20 23 25 22 20 22 30 30 22 24 25 26 29 15 21 32 29 28 30 23 28 37 27 30 29 37 26 19 28 28 23 16 27 26 17 20 32 13 20 22 34 22 23 30 17 26 32 25 31 27 23 26 25 29 26 22 23 21 26 31 25 23 28 32 26 20 21 27 34 25 22 22 29 24 29 23 23 28 25 21 30 22 22 29 16 29 30 21 24 25 14 24 30 27 19 21 32 20 24 24 20 18 30 27 22 27 27 27 27 31 24 18 29 16 26 27 23 29 21 24 31 18 22 23 22 27 24 21 20 28 27 27 25 24 27 28 24 26 23 27 31 26 24 21 33 20 22 18 20 22 29 21 28 18 25 26 37 23 31 18 30 21 28 24 21 32 23 22 22 25 25 17 24 25 28 28 24 25 35 28 18 21 27 31 29 24 25 21 28 34 28 28 21 23 14 27 26 34 23 28 32 25 24 23 30 28 31 34 25 21 20 20 30 28 29 23 21 28 29 23 19 23 15 25 23 25 25 28 24 22 20 24 25 27 25 19 27 24 32 24 22 26 17 22 26 28 36 34 23 21 23 29 26 17 26 22 22 26 31 25 37 22 26 20 27 24 28 27 27 24 25 23 20 27 25 18 26 31 18 26 14 24 20 22 23 28 33 19 25 23 23 20 17 28 26 18 32 24 30 28 26 26 19 27 22 27 23 22 27 21 26 28 23 25 16 21 33 29 38 25 22 26 20 32 24 25 27 27 27 19 26 26 21 17 28 19 27 26 20 13 21 25 23 29 18 31 29 24 25 28 20 21 18 16 25 32 25 25 19 22 20 29 23 30 27 27 26 24 21 28 32 28 22 16 19 25 22 33 29 19 16 27 24 23 23 26 21 28 22 26 26 27 20 33 28 22 22 20 24 23 19 32 18 30 22 32 18 24 24 30 18 31 23 24 19 23 28 29 17 29 21 28 34 18 21 28 23 14 20 23 31 31 30 32 27 30 29 20 20 15 24 20 30 20 26 27 21 18 27 24 23 25 24 36 26 26 29 24 22 15 28 22 28 25 20 31 29 20 23 21 26 23 24 33 32 22 24 23 23 24 26 28 20 31 16 26 28 24 24 21 24 31 24 27 26 21 15 27 28 17 20 24 25 23 23 24 11 22 22 22 25 31 31 26 29 22 19 28 24 20 35 25 18 27 35 32 27 26 29 22 18 26 26 26 34 22 27 24 25 20 22 27 24 27 22 20 23 21 17 28 24 29 28 27 25 26 25 23 22 27 25 17 27 19 23 22 29 21 26 29 30 26 30 22 20 27 21 28 16 26 30 16 24 27 25 19 26 24 23 24 24 22 29 18 19 29 30 31 31 23 24 25 24 27 28 32 24 28 22 20 31 23 33 25 31 19 22 23 31 19 28 17 32 27 29 23 24 17 21 25 28 29 25 16 20 24 31 21 19 24 20 21 27 32 23 27 27 22 26 28 18 32 23 31 27 23 18 21 28 28 30 28 26 32 29 27 21 30 17 26 25 17 19 13 27 24 24 22 26 20 27 21 26 31 15 14 21 20 24 27 17 29 21 24 21 25 29 26 23 24 24 22 24 31 31 23 26 25 20 25 26 28 28 23 23 22 25 19 33 32 20 27 27 28 29 19 29 21 31 20 24 27 24 25 22 38 23 28 21 26 19 26 31 26 26 22 26 25 24 24 16 17 19 28 31 25 20 29 28 27 15 23 25 26 24 30 27 31 31 27 16 16 24 22 20 28 18 26 31 26 25 25 30 26 19 27 24 28 19 21 25 22 21 24 26 22 29 24 25 23 26 22 31 18 28 25 24 33 23 23 29 30 23 34 30 17 23 19 25 21 24 33 26 21 23 26 25 29 23 20 24 24 22 29 29 30 24 23 21 27 30 28 29 25 22 25 24 31 23 20 24 25 23 28 27 27 29 21 25 24 31 21 23 24 17 22 31 33 25 26 24 24 29 23 22 29 23 22 32 28 28 22 22 19 24 23 23 29 17 26 16 18 18 23 19 27 25 25 29 22 21 27 22 23 25 18 27 23 23 20 21 26 22 24 28 20 30 28 23 15 30 29 17 21 28 24 28 24 19 30 26 22 30 25 31 20 18 22 20 25 17 25 26 31 16 24 21 28 17 18 23 22 36 26 27 28 25 32 30 25 23 18 23 20 28 34 14 19 16 27 28 22 28 27 26 25 37 24 22 28 25 22 22 28 27 18 25 33 19 25 21 32 23 27 36 18 25 24 17 16 31 22 24 22 37 22 21 29 18 14 20 31 23 27 20 28 31 22 30 39 21 27 29 22 32 29 27 32 30 23 27 29 26 27 28 33 22 27 20 27 23 25 19 32 21 25 23 28 29 26 28 18 29 23 17 21 24 26 32 25 24 27 26 33 24 18 28 23 18 25 20 28 25 34 27 26 19 30 31 29 22 22 24 20 28 23 19 18 19 28 29 24 22 27 26 22 16 23 20 28 21 21 29 27 19 37 25 21 23 23 20 21 27 26 19 24 23 28 30 24 23 27 16 15 22 30 22 23 18 25 28 28 22 30 24 19 23 31 38 25 17 24 30 27 25 31 29 21 29 25 23 16 32 23 24 32 21 24 23 25 20 27 25 23 27 26 12 32 19 25 30 24 26 25 23 37 16 23 31 24 24 31 20 36 22 19 21 22 33 33 28 20 24 26 20 24 21 19 27 19 24 26 21 28 25 19 25 21 17 26 23 24 29 22 22 20 35 20 26 25 24 25 28 30 22 17 26 32 16 27 16 24 28 33 30 20 24 24 30 18 21 29 26 21 31 23 21 24 27 27 29 27 28 22 22 26 25 23 36 29 19 27 25 22 25 27 26 29 19 22 23 28 28 22 24 29 18 27 29 26 29 26 26 28 27 31 20 15 27 27 28 19 35 26 20 26 20 26 27 25 23 26 26 33 24 23 24 21 21 26 22 20 32 29 23 24 25 22 24 25 26 29 27 21 29 27 21 27 31 28 25 31 31 27 24 31 23 28 21 25 31 32 23 28 25 27 27 23 26 26 26 24 19 25 30 17 29 23 26 20 27 33 24 13 18 17 26 32 26 20 23 18 24 19 31 24 21 19 33 21 28 23 23 28 18 26 31 24 22 21 24 26 26 24 29 29 29 21 21 20 30 18 21 32 24 23 27 32 26 28 26 19 29 25 22 25 19 30 15 30 23 19 25 22 25 24 25 24 28 18 32 27 29 32 25 24 27 34 27 25 23 35 30 33 27 24 18 18 24 20 31 23 22 21 23 25 26 31 28 31 23 21 22 23 25 30 24 27 29 21 21 26 20 23 23 24 20 29 22 31 25 20 23 18 25 32 26 21 27 24 16 32 24 22 23 24 28 22 23 26 26 23 31 20 18 25 25 24 32 15 26 21 25 34 27 23 28 17 22 25 22 29 17 29 22 28 24 28 18 24 27 19 27 17 18 26 18 29 16 21 22 18 20 26 22 20 22 27 26 24 32 29 21 21 34 18 24 29 23 17 17 25 18 25 18 27 24 29 21 30 26 25 21 26 31 21 27 24 24 30 25 27 17 26 26 29 26 28 23 34 25 22 15 24 20 23 23 23 25 23 21 27 20 35 27 29 23 24 21 21 33 21 29 31 26 29 22 26 26 25 34 25 20 25 27 22 21 23 29 22 14 30 25 29 40 27 24 31 25 24 24 30 26 27 28 31 35 23 31 29 23 22 26 37 27 17 24 26 30 26 29 23 24 24 25 26 39 23 18 21 25 22 18 25 29 24 24 18 22 24 23 27 25 32 27 16 23 24 26 16 30 25 32 25 20 18 19 27 27 23 21 27 22 32 19 21 24 24 27 21 26 28 25 25 32 28 21 22 26 31 16 23 21 23 23 22 23 22 28 30 22 24 25 22 20 28 23 20 25 23 32 30 22 24 31 17 19 18 25 17 16 22 27 24 19 26 33 21 21 22 21 31 25 25 24 28 22 22 30 29 28 18 24 19 25 30 26 20 16 26 30 18 33 28 27 24 18 29 24 23 24 24 24 25 31 23 20 14 21 24 35 26 20 26 17 33 22 24 29 39 26 25 36 23 29 22 26 33 33 20 17 16 26 26 28 30 34 26 23 28 25 26 25 23 30 20 18 23 19 31 25 25 24 24 23 20 31 22 23 30 27 26 22 25 27 32 23 33 31 22 30 24 24 26 26 23 23 25 25 24 25 22 23 26 36 23 24 26 22 24 23 17 24 31 33 21 27 26 19 26 32 29 27 19 25 29 21 30 22 26 25 27 11 28 21 20 27 21 26 30 23 16 28 32 23 30 31 26 26 24 27 20 23 25 19 19 29 29 22 23 15 30 20 29 21 25 19 20 25 30 21 20 25 30 24 18 28 25 24 28 27 19 28 19 18 21 19 26 25 25 27 26 20 28 21 27 20 29 24 17 15 27 18 26 21 19 19 40 30 12 31 23 25 28 34 30 28 19 29 27 20 29 23 24 31 30 21 36 25 22 24 30 33 33 29 30 31 26 22 27 22 24 21 25 38 23 25 30 24 20 15 27 20 20 29 26 23 28 17 22 21 23 30 21 22 32 18 20 28 27 20 29 30 15 26 19 24 19 20 25 22 14 28 27 24 23 27 23 18 19 29 18 34 30 24 23 21 12 30 17 21 28 28 30 18 19 16 24 16 27 31 24 19 22 26 28 22 31 35 21 23 23 25 17 23 25 31 23 20 28 33 37 28 21 31 27 21 20 34 20 24 11 27 31 28 24 24 32 27 26 29 20 26 18 26 23 26 26 29 23 26 23 17 26 28 25 37 25 25 24 25 27 26 28 22 26 24 18 25 27 23 19 27 19 28 27 32 29 16 24 18 24 27 22 34 29 25 23 25 19 24 17 19 26 21 22 31 33 27 23 34 23 15 29 26 27 26 19 25 21 25 29 25 24 30 31 23 21 31 35 19 16 29 28 29 24 18 25 28 32 18 20 27 23 21 26 25 22 26 24 27 27 28 14 26 29 22 22 23 35 25 24 21 35 19 26 24 16 24 30 19 29 21 25 24 30 25 25 27 30 22 25 30 18 32 23 23 17 24 32 21 27 24 21 30 22 20 25 30 22 21 31 26 27 28 23 24 22 22 32 26 21 21 24 21 31 31 21 33 31 15 22 15 27 24 24 23 19 34 37 28 23 27 18 30 23 20 24 26 30 33 29 25 28 20 21 29 26 30 24 21 25 17 26 25 29 28 29 30 23 22 14 27 19 29 34 26 33 31 19 26 24 22 23 30 22 16 25 18 32 23 16 23 19 25 31 26 25 23 20 24 32 28 25 25 23 25 26 29 25 24 23 30 32 20 20 22 23 17 24 25 24 29 18 29 27 19 21 20 22 27 24 24 24 30 33 21 21 20 24 29 26 20 28 25 38 22 29 24 25 19 22 22 16 27 18 20 22 25 26 22 29 25 29 29 20 26 17 26 25 19 28 21 29 25 30 21 21 22 36 27 29 20 29 23 20 33 25 28 31 22 28 25 30 32 28 29 22 20 37 22 23 22 18 32 18 32 19 28 23 24 29 26 16 27 32 27 22 21 30 33 19 27 19 20 19 23 33 23 21 26 29 31 28 20 24 29 24 21 16 32 24 29 25 26 22 28 25 28 25 30 33 29 24 26 32 25 23 21 18 30 25 33 29 27 30 25 22 24 27 25 25 18 24 28 23 23 22 20 29 36 28 35 14 26 29 25 32 27 20 33 21 29 20 27 25 34 25 17 32 29 27 26 24 26 26 20 24 21 25 22 27 20 18 21 24 21 22 18 19 19 22 24 22 22 29 27 31 20 28 27 23 29 24 26 35 30 24 26 18 28 20 30 27 25 19 18 21 20 31 17 24 18 25 26 24 22 24 31 31 24 20 23 19 15 19 32 24 31 26 20 24 22 21 26 23 28 19 29 25 19 23 24 22 21 27 29 29 19 21 24 29 23 28 18 22 26 28 32 33 32 33 21 26 30 23 18 20 27 27 28 31 22 28 21 26 30 23 27 22 31 22 23 35 24 18 24 24 18 21 21 23 23 26 30 26 18 23 23 19 14 29 19 19 27 22 16 27 27 15 28 25 25 26 20 23 24 36 24 24 31 28 27 30 28 23 31 28 28 22 24 21 29 21 20 21 28 23 25 23 20 19 29 31 29 17 21 36 30 21 22 25 26 25 26 32 25 33 28 17 26 24 22 22 35 25 29 23 25 25 27 33 24 25 20 36 26 19 28 21 28 27 22 23 28 26 20 21 29 32 29 21 16 20 27 25 26 23 19 22 17 32 27 30 24 26 29 28 31 24 26 21 30 22 22 31 28 23 21 22 24 26 24 23 19 27 16 31 32 23 30 27 31 28 30 12 28 25 39 28 24 21 32 25 25 34 29 24 21 31 24 31 28 27 23 22 24 31 24 23 27 27 22 20 22 18 20 22 30 15 29 30 32 19 27 23 28 21 23 31 28 30 20 24 35 26 20 34 27 22 27 24 19 23 29 23 18 22 28 22 29 25 23 20 25 23 25 19 27 30 25 22 31 22 23 39 34 26 16 32 20 22 21 26 21 26 30 17 26 22 25 21 24 25 24 32 20 29 27 29 19 32 26 25 26 26 22 23 15 29 21 23 23 21 29 25 29 25 22 31 27 25 19 30 24 25 22 22 24 20 31 20 21 24 28 25 19 31 30 35 26 26 25 21 29 23 27 19 28 14 24 31 30 29 25 26 29 21 20 27 27 23 25 22 32 25 26 23 29 35 20 27 25 23 26 25 23 27 25 26 32 27 22 25 23 31 19 23 21 29 21 26 34 26 24 20 21 21 27 26 38 37 27 27 17 20 22 32 27 30 26 21 18 27 26 14 25 28 25 22 29 17 24 20 27 22 24 18 23 21 23 20 20 14 32 19 31 24 28 22 26 29 22 30 20 16 25 30 22 28 27 32 20 26 23 14 28 22 21 32 23 26 32 28 22 27 28 28 31 18 30 23 22 18 25 26 20 19 23 24 25 21 27 27 29 24 28 22 30 22 22 23 26 20 19 29 27 19 34 30 21 32 22 24 23 26 20 24 29 20 26 24 22 15 23 23 21 24 26 30 29 28 23 22 18 26 27 23 24 22 27 38 25 17 27 34 25 21 22 19 27 25 25 21 20 23 23 24 23 21 16 29 20 24 25 28 21 21 27 15 16 24 32 26 21 19 18 23 21 19 27 36 20 27 32 28 23 26 26 28 22 25 25 36 21 32 34 20 21 21 27 22 26 12 28 30 22 21 25 15 27 20 22 25 16 27 22 26 32 30 21 24 23 19 23 38 27 19 22 31 29 27 21 24 30 25 25 29 21 22 27 32 22 20 21 25 28 30 27 25 30 23 25 27 24 28 22 21 28 34 19 21 26 20 29 30 20 27 23 32 21 21 25 24 18 28 32 19 28 18 23 31 17 29 22 23 34 20 22 25 25 22 34 30 24 39 31 33 30 22 32 29 21 26 25 21 18 26 24 31 28 22 23 25 24 33 35 29 26 32 28 21 22 20 24 27 25 30 29 25 26 24 22 29 28 23 27 30 19 29 31 23 24 36 33 21 24 31 19 29 23 25 21 24 29 22 32 22 20 20 29 20 24 35 19 35 26 23 30 17 22 21 28 30 15 29 29 18 22 18 19 23 34 20 21 31 22 28 28 19 31 22 27 27 21 27 28 29 19 30 21 20 14 25 25 23 31 24 25 22 27 21 26 35 23 20 23 21 18 23 27 21 25 28 30 22 22 24 29 18 20 24 28 21 20 20 28 17 25 22 18 28 28 25 33 20 27 22 18 30 21 26 26 27 35 23 26 25 23 38 21 20 30 23 22 30 17 21 15 30 22 28 22 32 25 22 23 27 28 23 30 25 23 26 20 22 37 20 22 23 23 22 27 24 21 24 25 24 35 19 20 15 26 23 19 24 27 27 28 32 35 27 24 30 30 22 15 17 20 32 19 35 17 26 19 28 23 21 26 26 25 24 26 24 21 19 17 28 26 20 25 29 26 29 19 14 26 20 24 21 24 25 40 25 27 25 27 28 29 28 22 24 27 26 21 26 23 32 20 27 31 23 22 16 27 27 25 22 23 25 23 20 30 20 27 29 21 21 24 21 19 23 22 22 30 27 23 23 22 25 37 29 23 21 18 23 29 36 18 29 28 21 24 27 24 23 30 29 19 29 27 28 19 21 29 21 18 30 28 26 26 25 19 26 15 34 19 24 21 20 22 28 20 33 25 27 22 28 20 15 13 28 30 28 37 14 21 22 23 26 19 26 29 26 20 27 25 25 27 26 22 25 27 24 27 22 25 30 23 30 29 21 21 30 26 29 27 27 22 27 24 26 16 28 25 28 27 31 16 21 27 27 21 25 22 23 20 25 24 27 29 35 22 23 20 33 27 20 27 24 26 30 34 27 22 26 19 31 19 30 23 20 28 24 27 23 26 21 23 18 30 23 17 21 28 20 26 27 25 16 21 24 23 25 22 25 29 25 26 26 27 23 28 26 24 24 22 25 24 34 29 30 23 24 28 27 21 30 20 21 26 28 34 24 24 29 23 26 27 25 24 19 23 24 25 19 30 29 20 27 18 25 28 27 23 23 25 20 31 25 20 26 30 26 29 19 24 19 24 27 25 24 29 29 22 31 26 29 22 24 29 28 28 28 19 24 25 28 29 24 24 20 21 26 25 25 28 26 24 26 24 24 25 22 34 21 17 31 25 18 38 26 24 28 24 19 28 21 30 23 30 19 19 29 21 26 31 20 23 22 25 26 20 30 22 31 20 29 25 28 21 19 27 15 19 26 26 17 35 32 24 21 26 21 33 31 22 27 27 20 25 21 17 25 33 26 24 31 30 23 28 34 25 25 23 27 26 24 33 30 21 27 13 24 17 33 19 22 30 30 28 37 27 18 28 24 16 17 24 20 24 25 22 26 28 24 27 36 18 25 19 26 23 26 27 28 31 24 23 21 22 27 15 19 30 23 19 33 23 23 29 27 28 27 19 19 25 22 19 25 24 20 24 30 35 23 22 21 19 24 26 26 20 21 21 29 25 31 26 31 26 24 21 22 24 22 24 22 26 23 23 22 29 22 25 25 20 25 24 22 27 21 19 22 31 39 25 24 23 29 17 28 22 26 20 22 24 20 22 31 22 30 26 17 28 38 26 27 25 26 26 17 28 25 29 20 30 32 19 25 23 15 31 18 30 25 18 15 19 21 23 16 23 20 23 25 20 23 16 25 28 20 30 24 13 22 24 21 28 24 26 26 30 29 27 20 29 27 36 27 28 24 25 31 27 26 28 21 25 29 24 21 25 32 18 24 24 20 31 23 23 26 19 25 29 22 23 21 24 19 27 23 30 14 31 26 20 21 22 25 27 23 21 21 30 30 29 28 28 25 28 21 30 19 23 22 25 29 20 25 17 20 25 25 17 29 20 27 28 21 20 25 31 26 24 25 23 21 30 25 21 27 23 29 22 20 25 26 32 25 31 27 29 17 23 17 27 19 29 16 26 19 22 23 28 24 19 26 25 28 16 19 26 28 26 29 16 22 21 17 22 25 24 29 28 17 25 22 23 29 23 34 18 26 23 36 24 31 26 24 28 28 25 18 17 19 21 21 20 30 25 19 31 21 21 22 26 30 23 30 24 27 23 25 30 23 25 17 27 27 25 35 23 25 20 23 35 19 25 24 18 28 17 26 25 28 25 28 23 25 29 20 21 13 22 31 22 20 19 27 19 23 26 23 22 26 33 22 23 24 22 20 24 34 23 20 26 23 24 26 30 27 24 22 18 25 36 22 26 32 24 25 27 22 25 29 29 20 14 24 22 21 25 18 29 22 33 20 25 23 20 32 23 23 27 25 28 16 29 26 26 27 29 30 22 27 20 28 27 27 22 26 17 28 26 23 26 31 19 28 16 22 17 28 25 24 27 25 23 25 33 24 18 19 25 22 21 30 21 17 24 25 21 18 30 26 23 19 27 26 23 20 32 28 27 27 31 23 23 22 32 23 16 20 30 18 23 22 28 21 23 25 31 27 30 23 25 30 33 21 21 25 29 22 21 19 23 24 21 18 28 21 20 17 27 26 23 25 23 20 22 24 18 21 20 19 22 23 24 25 26 23 22 27 30 33 26 33 17 28 28 20 30 26 24 21 19 31 31 24 30 24 34 29 16 17 17 27 27 20 32 29 24 23 25 23 33 25 26 28 24 25 26 20 25 31 32 27 26 23 15 26 22 25 26 25 24 29 20 19 21 28 24 28 26 21 23 28 27 23 27 25 26 27 29 24 36 24 25 24 22 21 27 30 22 28 21 29 25 25 32 23 23 31 23 28 25 20 23 18 22 21 26 17 15 26 25 26 28 20 28 29 22 26 15 21 21 18 22 31 20 27 27 28 23 30 22 21 21 28 19 32 17 26 24 32 27 35 19 15 28 24 20 21 24 24 24 27 31 26 28 28 19 22 30 21 28 31 21 22 31 26 22 20 27 23 23 23 21 34 33 22 28 20 24 18 26 17 21 32 27 27 13 26 21 21 26 28 24 29 21 31 30 28 23 20 28 28 28 32 25 18 20 22 34 25 24 20 25 14 25 19 24 19 23 29 32 29 19 28 27 22 24 31 23 23 28 23 24 25 22 23 20 24 22 24 26 35 31 29 22 25 20 24 30 25 32 24 24 25 25 25 32 27 30 31 27 24 22 28 20 20 22 27 25 25 31 22 30 28 21 20 25 29 20 34 31 26 28 29 27 23 21 16 17 24 31 26 27 36 25 22 29 25 27 19 25 22 27 28 28 20 32 26 28 26 24 26 24 14 24 17 24 21 20 31 27 21 26 24 18 20 27 29 24 25 17 29 23 24 12 17 27 19 19 21 19 29 26 34 29 17 17 34 24 24 24 30 28 22 20 23 30 26 30 34 25 24 25 28 26 20 27 23 25 18 24 20 27 24 28 23 26 27 23 22 23 23 17 21 26 23 32 21 21 25 23 32 18 26 22 18 27 23 25 22 26 21 27 17 31 25 34 26 17 19 19 26 19 17 27 27 29 15 24 23 27 19 22 18 28 25 26 29 21 21 25 23 20 24 23 17 19 27 22 27 22 23 24 21 25 25 30 22 31 24 28 26 27 23 14 21 26 22 20 29 29 19 23 22 24 29 18 21 30 30 29 24 19 27 18 24 21 26 30 27 29 19 24 23 25 24 19 24 26 28 22 21 22 31 27 25 16 24 25 22 22 27 28 26 23 27 18 24 22 26 24 29 24 21 26 26 14 28 27 24 16 35 28 19 29 26 27 17 24 15 29 21 29 29 25 21 29 23 24 14 23 32 26 28 19 27 20 30 21 26 19 21 18 25 28 22 22 29 22 18 15 22 22 37 24 24 17 26 16 23 26 23 37 21 23 32 28 19 23 21 24 26 33 26 24 28 21 26 23 21 25 28 26 33 21 21 19 29 21 23 24 26 16 18 21 25 20 13 23 22 22 20 24 17 26 29 19 23 32 26 33 22 29 28 28 20 31 23 26 23 27 31 23 23 22 22 21 29 24 18 25 21 16 21 27 22 26 22 26 25 20 25 21 25 24 24 24 20 23 19 18 27 29 23 26 26 22 24 28 38 20 25 20 24 26 27 27 19 15 23 25 25 26 29 23 20 35 26 24 16 18 17 26 27 17 20 25 19 20 28 26 22 20 25 21 23 28 29 27 26 22 33 22 28 24 23 27 18 29 32 30 24 31 15 40 24 27 24 25 22 19 33 32 19 24 20 21 30 30 20 25 16 27 28 29 21 26 23 26 22 24 18 23 30 28 28 35 25 15 18 25 26 22 24 20 25 22 19 30 28 22 26 23 24 23 22 26 34 23 20 23 14 19 25 23 20 27 30 22 15 25 31 20 21 26 24 20 21 25 33 21 22 27 20 17 28 24 33 17 32 27 23 22 18 18 26 28 24 20 23 23 22 29 20 24 21 27 26 23 32 20 22 25 22 27 16 20 27 37 33 26 26 32 27 25 23 23 29 31 27 16 26 21 28 23 24 27 28 21 27 30 28 26 25 23 28 27 20 26 24 21 24 26 22 24 18 22 23 30 26 24 25 28 26 22 26 19 26 13 27 32 28 26 27 19 21 20 28 31 34 22 29 30 29 25 18 28 17 32 26 25 23 25 27 24 24 15 27 26 24 34 21 36 21 13 19 18 26 35 24 26 26 17 20 26 27 18 18 21 27 24 23 29 25 28 30 21 24 20 20 22 25 22 36 23 16 27 24 46 26 28 22 33 25 30 21 30 26 26 23 28 25 26 25 22 23 25 28 29 23 34 27 26 22 31 23 25 27 22 25 22 18 16 25 29 23 21 19 25 25 18 23 25 26 23 21 28 23 31 21 27 20 19 33 32 22 22 15 28 19 30 32 19 21 21 28 30 18 21 25 21 27 22 22 27 26 14 26 15 33 28 26 29 19 28 21 28 27 26 28 28 26 31 24 24 16 19 25 17 23 20 30 27 24 22 18 19 18 21 32 15 21 19 27 19 24 27 25 21 24 29 24 35 17 23 28 21 20 24 28 29 27 21 20 22 22 23 23 26 21 27 26 32 17 19 26 28 23 28 27 23 23 31 25 18 23 25 22 30 24 22 22 25 26 17 23 25 27 19 24 40 23 27 33 24 27 24 13 27 31 33 23 28 22 15 22 16 24 31 31 22 22 24 20 26 25 24 27 25 17 26 21 28 29 23 22 27 23 29 23 25 23 18 23 35 36 26 30 30 25 34 29 30 20 31 35 19 25 21 26 26 23 19 32 27 25 23 14 16 23 35 24 20 23 25 25 29 31 25 24 19 21 26 17 27 21 22 28 33 22 25 30 32 23 27 23 21 22 24 21 30 29 20 26 39 31 28 27 28 27 22 23 26 26 18 28 27 20 26 26 23 15 25 31 28 29 18 24 26 27 32 24 23 29 30 21 23 27 23 18 34 20 25 17 25 26 28 31 21 18 32 26 25 31 23 35 28 27 23 21 22 25 28 23 30 31 27 17 30 22 29 20 19 21 23 24 26 24 24 17 22 24 26 21 25 24 25 26 17 28 22 28 23 27 28 33 23 32 23 20 25 30 32 24 15 25 21 23 20 17 18 31 32 25 29 29 17 26 26 30 23 20 26 28 25 20 26 29 26 20 16 21 29 20 22 25 20 28 27 19 28 26 22 22 26 26 22 28 28 29 29 24 21 24 20 25 23 21 23 28 20 31 25 17 25 27 27 27 25 29 28 28 34 26 23 18 32 29 23 25 24 24 28 20 26 21 23 22 26 22 21 29 26 22 28 25 34 19 22 27 30 20 24 26 21 26 26 25 27 21 30 29 21 24 30 19 28 26 27 19 20 23 17 32 21 28 23 24 25 19 22 20 24 17 31 27 23 24 27 21 26 19 29 24 22 25 24 22 20 30 20 27 25 31 28 25 23 23 17 32 24 23 31 27 21 18 26 28 24 18 20 27 17 23 29 23 18 22 19 27 24 19 21 18 20 32 24 27 23 24 24 21 22 26 25 31 20 28 20 27 27 27 30 15 28 23 25 23 26 21 23 26 24 29 25 17 24 33 24 29 19 21 23 19 36 22 30 24 30 21 25 25 21 33 32 28 23 20 23 32 30 18 21 19 20 30 30 24 25 30 18 17 27 30 26 18 20 29 31 18 21 37 16 20 30 26 25 25 28 27 31 28 23 24 21 30 22 27 19 33 26 33 24 31 25 22 18 29 26 28 30 27 24 19 27 27 25 29 20 21 29 23 27 24 22 23 18 30 25 22 34 29 32 33 26 27 22 25 24 24 27 29 26 24 22 31 23 22 31 28 21 19 18 19 20 23 34 34 18 32 28 14 20 25 27 30 24 31 21 26 25 24 27 26 27 21 37 16 26 20 19 26 26 31 22 29 15 21 22 32 21 23 25 23 18 22 25 26 28 22 30 18 16 25 19 26 27 23 29 20 27 26 23 18 26 29 18 23 27 20 20 17 22 23 24 23 26 31 21 24 20 15 32 25 24 25 31 18 30 23 27 26 30 16 22 34 25 33 32 27 30 30 24 25 27 26 32 32 24 26 23 29 16 20 27 24 24 26 28 24 26 18 26 21 23 26 18 24 34 19 26 27 26 18 29 22 19 33 36 27 32 24 24 25 17 26 22 17 30 20 23 20 22 25 30 24 20 29 24 23 33 19 22 27 23 30 20 24 25 27 26 28 31 30 30 32 30 25 29 25 23 21 26 25 23 18 24 30 24 15 19 24 27 26 22 22 25 21 20 28 20 26 23 36 28 19 27 35 28 25 19 27 24 27 18 26 21 23 22 27 35 26 21 31 23 22 23 23 36 22 18 32 22 19 22 23 18 17 20 29 22 23 30 21 25 29 30 24 23 31 30 20 24 27 29 34 22 29 26 25 26 25 18 22 20 19 23 24 21 25 21 26 24 23 30 18 30 30 19 23 35 25 23 19 21 28 24 23 18 16 34 23 23 22 25 26 30 31 27 21 27 25 24 27 26 26 24 24 20 31 26 23 18 23 32 23 19 16 27 20 28 11 24 25 22 29 24 23 31 26 30 20 28 22 25 15 21 21 26 17 19 29 21 28 26 29 23 24 27 26 21 21 28 27 29 22 31 30 33 32 23 23 21 28 21 25 24 24 27 22 24 29 25 21 22 19 26 25 21 26 23 21 26 33 24 29 29 20 24 17 22 18 28 28 27 16 29 26 14 23 37 22 29 36 22 28 27 23 17 21 32 24 17 30 35 27 21 27 27 22 20 27 22 22 27 29 27 21 27 30 21 28 20 22 15 25 21 23 26 30 31 21 33 26 25 24 25 18 21 32 23 20 28 25 23 29 26 13 24 24 16 31 23 25 20 19 19 24 24 25 20 24 33 26 25 25 22 23 26 28 25 24 21 27 24 25 19 19 24 22 24 25 29 25 27 35 22 21 23 28 24 22 32 25 22 29 24 29 21 28 29 25 18 26 29 25 26 29 27 20 23 19 28 24 18 28 28 26 13 18 36 23 32 23 24 22 27 22 22 23 19 21 21 27 21 20 27 26 30 25 24 20 18 24 23 18 23 22 27 24 17 19 27 23 16 22 24 23 27 20 22 21 26 24 30 28 15 25 35 21 21 25 27 26 30 21 28 18 29 28 32 26 22 19 20 22 25 19 18 20 24 25 27 32 25 26 23 28 26 22 25 30 18 26 31 24 23 33 23 19 21 20 25 30 27 31 26 20 23 22 35 18 18 26 20 24 26 14 24 20 30 22 20 25 29 24 28 25 23 26 31 30 26 27 21 20 31 23 18 20 26 24 20 31 23 23 21 26 26 25 21 30 25 17 26 23 24 24 29 22 29 23 17 24 22 32 12 24 19 20 21 20 23 25 31 25 21 25 30 17 19 23 22 18 17 19 23 23 27 22 27 19 17 22 23 20 24 30 31 33 27 32 20 28 26 25 24 28 23 27 25 23 34 29 26 28 20 21 35 24 26 25 23 32 28 26 28 21 25 20 21 20 21 27 26 26 21 20 31 22 23 27 28 21 25 23 23 13 30 27 20 28 14 19 35 22 23 31 28 24 23 30 21 23 24 27 23 26 28 22 17 13 25 28 19 23 25 21 35 28 25 24 13 26 23 20 26 29 26 21 27 23 22 36 28 26 30 20 21 18 21 30 26 30 20 22 28 22 19 20 24 20 11 31 26 25 27 25 19 29 29 21 23 26 23 28 17 26 25 33 25 20 28 20 35 30 20 27 25 25 18 30 25 23 27 24 14 29 15 26 26 27 25 21 21 29 25 16 22 25 21 25 25 24 26 20 24 21 22 20 28 26 23 21 15 23 22 27 25 25 22 20 26 21 18 24 24 27 26 20 27 30 24 22 26 20 21 23 27 28 27 16 23 35 25 26 22 20 24 24 29 22 21 19 30 21 26 26 35 18 18 19 27 20 14 31 30 25 27 23 22 27 22 35 27 23 21 24 17 28 23 20 19 20 21 26 35 18 14 27 25 19 21 33 21 29 23 23 32 30 24 24 27 28 27 23 31 20 19 23 24 26 21 23 27 20 23 25 20 25 24 19 30 24 19 15 30 24 25 21 24 32 23 20 27 25 20 19 33 29 21 21 32 25 20 29 24 23 23 25 18 23 22 19 21 26 21 28 22 22 26 25 26 29 17 33 23 35 26 29 23 25 27 20 27 27 28 21 28 24 33 23 21 15 25 27 18 28 25 30 26 23 24 25 21 31 15 18 25 14 26 27 36 21 22 23 31 34 33 24 14 27 25 31 25 26 31 18 31 20 22 19 19 22 24 25 24 29 28 21 37 22 27 22 20 20 33 32 29 27 20 27 29 26 25 29 24 32 18 24 18 21 31 19 23 29 33 19 28 29 32 23 20 29 19 27 20 24 23 16 25 34 22 20 31 27 22 25 24 31 20 25 18 28 27 28 26 19 30 23 21 24 20 21 22 36 31 24 23 26 24 23 25 22 20 19 27 22 31 23 33 22 29 19 26 32 22 24 29 27 28 20 26 26 24 22 32 24 18 27 28 23 21 28 30 21 30 19 25 26 29 23 16 27 21 23 24 19 27 21 21 27 26 17 22 21 21 25 23 28 25 23 19 23 19 26 26 23 25 26 24 26 26 26 20 24 27 17 23 21 21 25 25 26 27 15 29 26 27 27 17 22 31 34 15 21 22 23 23 31 20 22 23 24 23 29 20 25 35 23 21 23 17 29 20 18 22 26 25 20 28 20 21 28 21 21 24 31 26 19 30 32 29 22 22 26 22 23 23 27 23 28 23 31 29 34 25 19 29 22 21 21 21 20 29 16 24 33 30 28 22 28 23 25 25 23 20 17 21 23 28 28 31 20 19 21 27 30 21 29 22 28 28 22 24 34 27 28 23 29 12 26 22 26 23 24 24 25 21 24 19 20 24 26 25 22 30 18 24 18 25 21 25 16 15 22 29 21 27 26 30 24 29 34 23 24 29 16 28 31 25 24 27 26 30 24 25 30 31 26 26 29 26 29 33 27 30 19 22 21 26 21 36 28 26 27 32 20 24 30 30 22 25 27 28 27 22 19 27 20 23 27 16 26 30 32 32 15 23 31 27 21 22 24 15 25 22 20 25 26 21 18 22 29 27 28 19 22 23 22 26 17 24 29 22 24 17 20 27 25 29 25 25 24 28 29 23 26 25 27 31 33 25 23 21 22 21 21 29 22 25 29 32 30 20 18 31 29 21 25 16 19 26 21 33 25 25 24 22 22 17 26 20 29 19 20 31 32 24 22 33 33 28 21 29 24 29 18 26 26 27 22 28 27 27 31 17 16 27 30 27 27 23 28 28 29 33 21 29 31 25 29 27 24 29 29 28 27 23 18 23 22 22 26 32 18 20 22 18 25 15 24 20 25 24 23 21 35 21 24 24 29 28 23 30 24 24 23 27 29 26 23 16 23 26 18 25 22 24 33 19 27 25 23 20 31 19 27 26 33 31 17 24 23 24 21 28 23 25 41 24 26 33 32 22 25 26 28 21 29 22 25 27 29 23 29 22 26 31 16 16 14 23 36 17 16 27 30 29 26 24 26 34 20 26 17 21 24 17 14 21 27 20 20 28 23 22 26 22 24 17 29 24 16 20 27 16 28 21 29 21 22 23 25 29 28 17 24 30 25 18 28 27 24 23 22 25 20 19 19 31 25 16 28 29 27 13 26 31 20 25 27 27 26 23 28 29 30 30 21 25 36 25 23 18 27 30 29 23 23 23 20 27 17 24 21 20 30 30 31 26 25 23 30 27 26 23 32 20 23 21 27 28 29 22 25 22 28 25 28 24 32 40 18 23 25 21 22 28 23 37 24 30 21 26 28 24 26 26 16 30 32 26 26 19 29 13 18 19 28 30 29 22 21 26 23 33 33 27 28 22 15 28 32 29 21 29 23 25 29 23 28 23 25 23 27 29 31 17 28 24 30 23 32 24 22 30 19 28 27 28 23 27 28 30 26 19 23 25 30 25 16 24 31 25 28 24 22 26 22 26 28 34 30 20 33 20 16 17 20 26 29 26 17 27 26 17 17 29 28 22 33 29 26 22 27 24 15 24 26 29 19 21 32 24 30 23 23 28 17 19 33 20 28 22 22 19 27 27 20 21 28 28 17 29 23 30 20 24 21 25 16 19 24 27 23 27 23 24 20 22 24 31 24 24 26 25 25 24 30 21 30 21 21 29 13 22 27 34 22 25 23 18 17 24 24 25 32 26 20 32 22 30 28 22 20 25 26 29 29 16 28 17 16 23 17 28 18 24 35 22 18 30 26 24 26 24 32 25 24 29 25 28 23 24 20 31 31 35 28 23 21 32 24 29 28 28 25 18 19 21 24 23 25 24 16 38 27 35 13 32 25 27 21 27 24 14 15 27 30 26 19 23 25 20 24 23 30 30 23 30 25 15 26 20 20 28 31 35 33 22 25 26 26 23 32 34 17 17 26 22 31 29 21 32 26 30 20 28 19 28 29 26 18 18 24 22 23 18 16 24 28 32 28 23 24 32 19 27 34 27 24 16 26 21 22 28 25 21 19 34 25 25 29 26 18 27 20 23 15 19 31 27 22 27 19 25 26 21 22 25 28 30 21 31 25 33 21 18 19 29 23 33 28 25 20 28 30 25 25 24 38 25 19 30 23 38 29 28 30 19 26 22 15 24 28 21 29 28 22 23 32 30 37 36 30 27 22 23 22 33 21 30 23 24 30 27 29 26 23 20 14 20 27 20 26 22 23 28 23 23 17 23 28 19 22 28 20 24 25 29 23 24 28 24 19 30 28 25 22 27 21 25 27 20 31 19 25 16 16 32 17 24 32 26 32 26 19 19 26 19 25 33 24 26 28 19 32 20 20 26 26 29 23 19 24 20 24 27 26 27 30 21 19 27 26 25 19 32 23 23 30 28 20 29 22 28 23 18 33 27 27 29 29 25 31 19 30 25 23 25 23 24 21 25 27 33 22 29 18 27 25 35 17 26 15 22 27 31 22 15 33 24 24 24 28 25 18 23 26 19 29 24 30 23 28 18 24 21 26 27 24 30 25 23 21 20 33 16 20 25 30 34 28 21 15 25 29 23 25 34 22 17 22 30 24 25 26 18 28 30 16 30 29 18 21 25 17 27 23 28 23 33 25 18 24 25 20 27 26 22 27 24 25 19 16 18 26 19 25 33 31 24 30 30 23 20 21 27 24 24 20 21 21 23 25 17 35 23 26 26 27 25 24 28 22 24 24 23 23 24 22 23 24 28 24 17 34 26 27 26 18 29 29 23 20 30 23 28 28 28 28 21 24 25 25 20 29 21 24 22 21 23 19 18 19 20 19 22 35 26 24 25 22 21 24 21 30 30 27 28 23 19 14 20 31 26 27 18 26 17 27 23 28 26 22 20 31 22 29 25 22 22 28 26 28 24 26 21</t>
+  </si>
+  <si>
+    <t>JSB(11.657593973500315, 7.954730570403845, -20.447017364641248, 292.2367163507855)</t>
+  </si>
+  <si>
+    <t>32 38 33 44 35 28 41 43 36 38 31 40 28 29 32 39 46 36 39 39 42 34 31 25 33 41 34 28 41 42 38 40 39 42 34 32 37 31 34 30 33 37 26 41 38 36 37 35 39 30 29 53 33 41 40 34 31 33 36 30 36 39 29 43 35 46 32 43 28 33 39 33 35 36 45 36 29 50 32 28 38 35 39 36 41 39 37 29 32 41 38 38 34 28 34 31 39 40 44 39 35 26 41 28 32 38 35 30 40 43 34 30 34 38 37 44 33 32 26 23 31 35 51 41 37 46 37 39 38 32 36 40 25 34 32 47 39 36 31 35 28 36 25 40 31 30 29 30 35 27 38 47 30 39 40 35 32 32 26 31 36 29 31 35 41 38 23 35 32 32 35 31 47 35 31 36 39 25 30 38 30 43 32 39 39 42 34 40 34 39 32 33 35 26 25 35 36 41 42 34 42 33 40 32 47 19 33 35 42 34 26 38 32 45 29 32 33 28 40 35 32 45 31 27 35 39 32 40 35 44 30 34 39 44 36 40 38 39 34 27 39 30 32 51 33 32 36 25 26 45 43 39 29 41 34 37 46 36 46 36 27 36 46 41 24 36 36 35 30 39 29 36 33 32 32 34 39 39 40 46 42 28 34 26 38 27 36 37 31 29 31 41 38 31 26 33 41 34 45 38 41 40 27 39 33 33 36 31 38 37 34 39 33 33 30 38 33 31 22 23 33 33 36 42 32 40 28 32 40 30 33 34 39 31 29 43 37 42 38 38 34 29 26 33 31 41 36 28 29 43 32 35 35 30 37 34 39 34 34 25 35 39 42 30 35 30 35 29 35 44 41 36 43 45 27 34 30 32 36 41 27 44 36 33 34 31 34 33 37 32 27 43 34 27 48 37 40 27 28 42 27 35 27 23 33 33 35 40 40 35 43 33 36 35 40 30 31 30 30 33 38 36 33 34 39 29 39 33 35 26 35 30 26 30 35 34 33 48 35 25 30 44 36 41 34 40 19 31 34 34 34 30 31 42 42 21 31 35 47 30 30 35 31 24 32 32 43 26 35 35 37 39 30 49 41 37 37 41 28 33 44 46 25 37 25 43 27 38 33 34 43 40 33 32 29 34 40 32 35 38 39 32 31 45 27 34 32 26 35 38 39 34 39 30 27 39 44 41 32 38 33 36 37 32 38 42 25 46 37 35 37 39 38 27 36 38 28 30 32 25 39 21 38 21 36 25 45 35 31 35 34 43 32 24 36 34 33 32 34 25 43 35 25 44 46 31 36 31 36 33 39 34 28 37 38 28 32 37 33 40 33 37 31 34 18 28 33 33 34 28 40 30 32 30 26 31 35 41 38 38 41 38 31 35 36 37 36 36 23 33 32 41 36 33 28 39 25 31 31 29 31 27 33 25 28 48 39 41 32 39 32 43 36 33 40 33 32 24 34 40 33 39 31 28 35 32 34 30 35 38 34 45 28 39 33 24 36 28 39 27 39 35 23 26 37 42 33 38 41 25 30 32 35 39 37 38 29 36 26 34 47 36 34 38 30 38 35 27 43 32 35 38 34 29 37 34 39 32 40 32 44 33 38 31 30 38 41 32 36 40 34 31 30 46 34 35 26 34 38 33 31 44 33 30 22 26 32 38 32 33 31 36 33 36 29 43 28 30 30 33 28 47 42 39 34 30 43 36 32 40 35 34 28 36 33 33 33 32 29 45 38 38 26 42 32 37 34 30 44 37 37 34 37 32 31 35 49 48 40 44 38 33 23 40 39 25 44 41 32 39 40 35 38 33 38 34 33 43 36 30 31 33 43 33 29 37 38 41 39 40 34 33 44 35 36 37 32 36 44 27 26 36 31 32 42 35 38 30 37 40 40 33 40 34 34 36 39 35 33 36 22 39 39 24 47 33 38 37 34 34 42 33 36 32 33 35 39 38 21 31 29 36 37 35 36 34 41 34 31 39 35 34 42 35 39 46 37 36 32 40 41 32 29 41 41 42 42 33 36 34 32 46 33 39 27 35 36 38 34 35 37 35 35 40 34 37 32 40 35 34 32 42 38 39 34 31 26 43 39 35 31 38 29 38 26 34 26 32 34 40 44 31 41 35 36 35 34 32 33 23 36 37 30 35 39 30 37 35 28 35 31 36 29 21 31 35 43 34 28 33 30 34 38 31 33 25 29 28 32 32 33 41 27 29 28 37 33 24 52 38 30 38 30 34 33 29 37 32 34 29 46 34 27 25 32 41 38 37 36 40 33 27 28 30 42 39 40 38 40 41 28 31 35 41 33 32 36 44 40 34 29 25 34 34 39 34 34 34 41 41 31 41 36 35 32 45 37 34 34 32 32 33 34 30 31 29 36 38 37 39 33 39 30 45 35 34 33 50 38 45 36 40 39 32 25 30 31 47 39 28 31 27 33 26 27 31 29 36 32 31 34 36 37 33 28 36 40 31 39 42 37 35 31 30 26 32 28 31 41 30 36 29 36 23 50 30 33 35 39 48 28 30 36 34 40 27 25 38 32 28 27 37 39 43 40 36 39 37 40 29 33 45 27 45 27 47 35 39 30 31 33 37 28 29 28 31 40 28 28 38 42 43 34 42 39 28 25 37 39 32 32 37 32 36 30 36 29 27 30 34 39 50 40 40 36 37 31 43 35 26 30 42 34 36 36 31 23 35 27 29 31 30 32 29 37 39 40 29 34 30 38 31 34 28 39 37 30 33 35 41 37 38 27 22 41 32 38 41 31 30 40 41 30 33 28 32 37 54 45 36 31 47 24 29 31 33 31 41 41 54 27 43 32 39 34 41 38 15 26 37 35 28 33 24 39 26 38 37 28 26 32 32 43 26 28 30 29 33 39 37 31 32 28 29 42 42 48 37 24 43 29 38 35 35 39 42 29 38 42 37 29 24 32 42 39 26 38 32 37 34 41 30 44 36 23 38 24 32 34 37 34 35 30 43 40 32 36 31 37 35 38 28 43 40 28 34 37 39 29 38 30 33 34 25 34 36 29 33 34 26 27 39 41 28 33 39 38 36 27 34 41 40 41 35 35 34 48 33 38 34 47 40 30 39 37 41 21 35 31 23 32 37 25 30 29 45 30 31 38 30 34 38 32 43 37 32 36 34 42 36 30 37 35 36 39 34 37 37 40 35 29 32 39 45 34 31 34 39 35 37 32 31 35 33 33 43 26 36 39 26 38 40 34 31 37 29 38 40 40 28 29 42 33 37 37 28 26 51 35 25 36 37 39 46 43 34 28 37 25 36 41 31 39 30 36 47 27 32 30 37 39 33 29 31 36 35 34 35 39 36 47 31 37 37 33 40 31 31 26 46 31 30 32 28 40 43 31 35 25 38 31 47 30 41 28 38 33 36 32 30 43 33 26 27 30 34 27 38 41 31 34 33 35 47 36 26 33 42 45 36 37 34 36 41 48 38 36 34 36 31 43 35 53 39 35 37 35 40 38 41 40 40 41 35 39 36 27 46 37 40 31 24 39 40 30 29 31 27 32 34 40 37 45 34 28 30 34 34 38 36 23 39 30 41 32 34 36 29 31 39 30 43 49 32 30 35 41 34 26 33 34 36 41 39 37 42 34 36 33 36 33 38 34 36 31 33 33 29 32 34 30 29 37 29 42 25 35 29 29 35 39 50 32 34 33 33 28 28 32 34 24 45 33 36 40 37 42 34 36 30 36 35 31 39 32 30 42 29 33 31 36 45 37 52 35 28 35 24 41 29 32 37 38 37 26 32 33 29 25 37 28 35 35 28 23 28 32 33 32 25 43 41 32 29 38 29 37 27 24 28 45 34 42 30 32 31 36 35 39 38 39 37 32 34 34 39 35 38 24 28 32 30 44 34 26 27 36 37 30 32 32 29 39 29 36 38 43 31 44 39 32 33 32 35 29 35 42 35 38 33 42 24 34 31 38 28 43 26 34 27 29 33 39 28 35 35 39 42 34 32 34 37 28 26 32 38 44 38 38 30 41 41 29 28 31 33 33 36 28 41 32 29 28 33 33 34 41 33 47 40 43 37 35 38 32 42 30 38 33 27 38 31 31 33 35 41 35 30 39 48 28 32 37 34 27 31 33 33 41 23 35 42 31 33 30 32 42 30 36 41 40 25 35 45 25 27 38 38 24 35 35 23 31 29 33 32 37 34 32 37 33 29 39 37 25 44 38 24 46 44 42 33 38 36 32 32 37 35 45 39 37 34 36 33 29 35 36 32 39 32 30 33 31 32 44 27 37 43 33 36 41 35 35 29 39 41 31 37 27 27 38 39 27 39 43 40 36 39 33 25 33 32 38 24 40 37 24 39 44 31 31 34 34 35 32 37 33 35 29 26 38 35 39 41 34 33 38 33 42 38 38 32 34 37 25 40 34 42 33 40 25 29 34 40 32 36 19 41 38 41 33 42 26 29 36 41 36 34 38 32 31 42 29 28 29 34 32 31 38 35 45 35 36 39 31 34 45 30 43 38 31 30 31 42 42 42 42 38 35 39 31 27 42 26 39 35 24 28 22 37 34 32 31 36 32 41 30 37 41 28 26 30 27 29 41 23 45 32 32 25 35 35 38 28 33 37 27 34 40 43 38 35 34 27 36 35 34 40 36 42 30 36 23 41 40 27 32 38 35 37 33 45 32 37 30 30 32 40 32 27 42 36 35 28 39 30 37 42 36 29 34 37 35 31 36 25 26 30 37 40 36 29 38 36 39 23 35 33 36 33 42 43 40 41 35 25 28 39 28 34 33 26 36 41 36 35 35 42 35 30 40 29 42 31 29 35 24 32 29 37 33 38 30 37 35 38 31 45 28 40 39 29 41 36 28 44 37 32 46 47 25 44 30 40 35 36 41 33 31 29 31 37 37 36 25 33 40 30 40 36 41 36 32 33 37 42 33 40 31 35 39 37 48 35 35 30 36 28 39 37 35 41 27 36 37 47 27 36 33 25 33 38 46 36 42 33 36 50 34 31 36 32 33 45 40 44 33 32 26 30 31 27 33 30 30 26 29 30 37 31 42 38 34 39 39 31 40 33 29 29 22 36 33 37 26 35 36 33 35 39 25 39 41 30 24 42 41 23 24 43 34 37 33 28 42 35 40 37 34 39 28 34 31 27 31 26 38 35 43 27 37 33 33 28 29 35 31 50 37 38 37 41 40 40 32 35 29 32 26 39 43 27 26 27 40 42 29 39 37 34 36 54 30 25 31 28 31 36 37 41 36 34 44 36 42 35 44 38 35 47 23 35 36 26 25 39 26 32 31 45 32 29 40 24 27 29 43 34 36 27 34 42 31 43 57 30 38 39 39 42 38 44 41 38 35 41 35 37 38 39 38 33 33 34 42 40 31 29 38 26 29 35 37 39 35 45 35 40 36 29 34 34 33 45 41 34 33 34 42 32 28 39 39 32 33 28 38 36 47 44 35 34 41 39 33 31 26 36 37 39 29 30 29 28 34 35 34 33 36 36 31 30 32 36 35 30 45 42 36 32 45 35 33 28 39 28 29 31 35 28 35 30 42 42 36 32 36 25 25 32 41 30 32 26 34 36 40 37 45 30 26 31 44 44 30 28 39 38 32 36 42 36 33 36 33 32 27 41 30 38 36 28 38 35 37 31 35 35 29 34 41 22 40 27 33 41 41 34 31 30 44 20 36 39 32 38 42 30 50 27 31 36 26 47 43 34 26 31 31 30 26 27 33 38 25 37 39 33 50 38 31 33 27 27 34 32 32 39 30 33 26 45 32 37 34 29 34 37 37 32 31 40 44 25 34 28 30 38 40 40 35 38 40 37 27 30 37 36 28 39 38 30 32 37 36 34 42 34 40 29 35 36 26 46 37 37 34 33 28 37 37 31 38 23 30 32 35 37 37 34 36 27 40 37 33 36 30 30 40 38 43 28 24 37 34 38 29 44 36 33 34 25 32 38 38 27 36 39 41 29 31 31 33 30 36 29 32 43 40 33 27 32 33 31 32 36 37 39 36 36 36 36 36 39 35 30 44 40 40 33 42 32 33 36 36 43 40 33 44 37 36 37 34 39 38 38 28 30 30 45 33 39 32 37 31 32 45 32 33 23 27 30 45 36 32 31 26 35 28 41 35 27 29 49 29 40 40 34 36 24 37 44 30 32 29 30 41 34 35 36 47 39 35 29 32 38 28 31 42 32 32 37 45 35 41 36 27 37 38 29 36 27 33 34 42 31 26 34 29 33 27 33 32 42 29 40 42 38 37 34 35 42 48 38 34 32 54 43 43 32 38 32 26 35 28 35 37 36 28 37 31 37 47 39 39 26 30 25 33 31 41 29 38 38 31 33 35 30 33 32 33 30 35 30 39 33 31 32 29 41 40 36 28 34 36 29 42 29 32 32 31 31 34 37 40 33 32 44 26 26 37 36 35 44 22 39 28 30 46 38 33 42 24 28 30 30 33 24 41 41 37 32 40 32 31 38 31 36 27 23 35 26 37 27 39 29 35 26 38 28 31 32 34 32 35 40 40 27 27 48 27 33 34 33 29 24 28 30 34 30 35 28 39 37 40 36 36 30 37 49 35 36 37 30 38 38 38 25 33 38 48 33 39 30 37 45 32 22 30 28 41 34 33 38 33 35 42 28 43 34 44 30 38 29 35 42 32 47 41 32 39 28 37 38 35 41 36 25 36 32 37 28 32 36 33 25 38 34 43 49 36 37 40 31 34 37 47 32 33 46 36 53 29 43 34 33 31 37 43 32 26 28 34 41 38 42 30 30 33 35 35 46 30 32 35 29 32 28 35 45 32 37 24 33 32 35 35 32 37 37 26 27 33 32 20 43 35 44 36 25 30 31 40 34 33 35 32 36 42 29 24 35 37 42 32 42 39 33 29 54 48 28 35 36 41 25 34 33 35 38 34 33 32 46 42 34 33 32 28 31 35 33 33 34 30 42 40 32 39 44 28 31 22 30 32 31 29 39 34 24 41 48 25 35 36 27 38 32 33 33 35 30 32 45 42 39 24 40 30 33 45 38 28 31 34 38 30 41 46 39 41 32 44 33 31 33 33 32 33 38 29 28 24 32 31 41 34 28 34 27 43 37 32 39 48 31 35 51 32 34 31 34 40 48 30 20 29 38 38 39 39 51 32 33 37 35 34 41 33 40 26 26 31 30 49 35 36 36 36 34 28 44 26 32 35 43 35 33 41 36 36 31 44 42 31 41 29 36 34 40 33 34 32 40 35 36 33 32 34 45 38 31 39 35 40 35 28 31 43 41 38 44 41 26 41 38 35 35 25 36 38 27 36 35 33 36 36 20 38 30 29 34 30 39 44 30 22 33 40 32 42 42 38 35 30 37 29 32 36 35 29 37 36 35 32 22 39 40 39 40 34 28 32 31 40 29 25 37 44 33 27 36 35 30 37 40 29 33 25 34 33 24 36 31 40 36 35 27 36 28 39 34 38 40 32 25 37 30 34 35 29 38 47 46 23 43 38 30 35 44 41 40 37 34 36 26 40 29 32 42 43 34 43 40 33 34 45 41 50 35 38 43 35 32 33 33 35 32 32 48 31 37 40 34 32 28 42 33 28 39 37 37 34 27 34 30 35 43 35 30 43 28 26 42 36 27 37 35 22 30 30 39 28 32 36 28 34 43 35 33 32 34 34 26 31 35 32 45 45 36 37 28 23 46 28 32 40 34 40 25 31 24 34 29 30 42 32 27 33 37 32 32 54 46 32 39 32 36 24 29 34 40 30 33 36 41 47 40 29 39 34 37 29 43 33 31 31 36 46 41 35 32 36 32 34 40 28 36 29 37 32 35 33 37 29 35 31 27 38 41 36 43 33 30 29 36 35 41 41 32 39 31 27 40 31 35 34 37 25 35 40 42 36 22 34 33 27 31 32 45 35 35 26 38 29 33 27 27 34 31 26 42 41 39 26 42 33 31 39 37 41 39 26 32 33 30 41 39 31 45 39 31 31 48 39 31 30 37 32 41 48 29 37 40 42 32 29 35 36 33 35 31 30 38 31 43 36 42 30 37 39 31 29 31 42 43 36 34 43 31 48 32 29 41 38 29 36 26 40 36 38 38 37 38 32 30 37 36 28 46 28 29 28 35 46 28 46 33 32 44 42 35 35 45 29 30 42 33 40 45 38 33 30 35 42 36 25 27 33 27 35 35 33 42 43 19 34 24 38 31 37 36 30 46 49 35 30 32 30 37 33 29 30 35 42 44 37 30 36 30 37 38 33 38 37 28 29 29 39 35 37 42 36 37 31 29 26 38 30 34 42 44 41 38 27 39 32 28 35 34 35 20 36 34 41 32 23 31 31 32 36 37 37 32 25 34 39 36 34 40 34 34 30 36 33 30 38 43 34 33 34 36 40 24 32 33 33 39 26 32 37 30 34 33 34 40 37 38 37 45 43 24 31 29 32 35 36 30 35 39 45 27 39 34 35 25 32 37 26 33 32 26 31 34 30 30 36 40 42 39 25 32 31 32 33 30 39 32 40 30 47 26 31 33 43 38 34 34 43 31 39 43 34 34 39 29 37 39 51 41 36 35 31 28 41 31 37 30 34 36 28 42 30 35 35 34 39 39 27 38 41 40 33 28 39 45 26 33 26 31 30 36 51 29 28 45 34 44 42 32 34 40 35 35 26 47 29 40 37 39 38 41 33 38 37 38 47 41 30 33 39 36 36 32 29 38 36 50 43 37 42 39 31 32 38 34 30 30 32 38 33 39 32 27 35 43 43 45 22 37 39 32 43 29 26 51 35 42 28 36 36 46 34 28 42 47 38 36 29 37 39 23 40 31 35 31 37 35 28 29 33 33 35 21 29 32 34 30 29 32 36 41 46 27 40 34 28 41 38 36 53 37 30 39 27 37 28 44 34 30 28 23 31 37 36 30 39 26 41 36 35 31 31 41 35 29 32 33 23 28 38 41 30 40 33 25 34 35 33 35 30 37 28 36 35 27 29 36 33 36 39 38 40 33 28 34 36 28 39 33 32 36 33 41 41 39 39 28 38 38 28 30 27 38 37 35 46 32 38 30 32 43 30 36 27 39 33 35 45 32 32 36 33 32 32 27 32 34 34 40 34 28 32 33 30 25 31 27 30 36 31 25 35 44 26 34 32 39 40 33 32 34 50 31 31 46 44 34 42 40 37 43 39 36 30 33 33 37 32 30 29 41 29 32 28 30 30 42 42 42 24 28 42 43 31 28 30 36 37 31 46 37 44 36 26 33 38 30 26 45 33 44 28 32 35 34 36 38 33 32 40 31 25 49 36 38 33 32 32 36 38 26 32 36 49 40 23 23 33 39 41 36 32 30 28 33 39 39 46 30 36 38 41 45 36 35 29 40 31 32 35 36 30 29 28 31 40 36 38 27 38 30 38 43 32 46 32 40 38 39 20 41 31 49 42 31 31 39 34 37 44 46 34 26 46 36 48 38 34 34 30 33 36 32 31 35 39 31 35 37 25 29 32 43 29 42 38 48 32 38 37 35 31 28 40 41 37 29 37 47 35 31 42 38 35 33 29 27 33 39 32 37 34 37 31 36 35 30 26 37 31 31 25 39 43 40 33 46 34 33 53 46 33 26 43 26 32 27 34 36 35 37 37 33 37 39 26 34 38 39 40 32 40 35 39 37 49 37 35 40 34 34 36 29 38 30 33 32 28 42 30 38 34 31 41 49 37 28 45 29 36 39 33 35 28 34 35 28 33 33 39 29 39 43 43 48 37 36 33 39 36 33 33 46 22 32 41 40 48 31 37 36 33 30 35 40 33 34 31 47 36 38 29 34 42 25 38 31 30 37 32 38 53 32 43 44 42 33 37 35 43 26 39 29 38 24 34 38 38 29 28 33 38 35 37 47 44 36 35 28 33 26 42 31 37 30 34 30 37 34 32 30 36 40 31 41 26 32 30 36 32 31 31 31 30 37 30 27 19 45 31 40 34 34 38 31 40 35 37 35 26 36 36 30 35 37 44 27 36 35 23 41 37 32 48 33 38 40 37 35 39 33 37 44 24 34 31 35 28 40 36 30 27 35 34 33 33 34 37 38 35 39 34 37 27 33 36 34 28 24 37 39 28 53 43 29 43 41 31 32 41 29 35 39 30 35 33 30 24 38 30 27 32 35 41 32 40 32 33 30 34 35 29 32 29 35 48 34 25 36 40 36 32 30 26 36 31 30 28 30 27 35 33 34 32 25 38 32 36 33 36 26 30 33 22 25 31 46 43 25 26 21 37 31 30 41 49 35 42 36 40 35 30 40 36 34 33 34 43 28 39 44 32 28 31 40 37 33 21 42 35 36 31 36 21 43 30 29 36 30 40 35 40 37 36 31 30 34 27 33 46 42 34 30 37 44 33 31 31 46 35 29 37 28 30 28 41 29 30 31 29 35 38 39 30 45 37 39 35 37 39 28 37 37 42 33 32 36 30 41 47 31 35 31 40 31 30 33 30 28 39 37 32 36 30 36 42 22 40 38 31 46 32 30 34 29 30 42 36 35 43 38 44 36 35 41 36 26 35 37 27 29 34 34 42 34 40 34 34 38 44 41 38 37 40 34 34 36 32 36 37 37 42 37 34 39 38 29 38 35 33 35 43 31 48 42 30 36 46 41 32 40 40 27 37 32 31 32 37 39 27 42 30 34 28 33 30 35 41 29 44 37 38 42 26 29 30 34 41 26 33 37 30 32 26 30 37 48 28 38 42 31 40 37 24 38 29 33 33 25 33 39 39 29 39 35 29 27 30 40 36 38 29 28 27 30 31 37 49 35 39 32 29 25 28 38 32 36 38 44 30 33 34 39 30 29 33 37 30 29 30 34 24 30 29 27 33 37 38 44 34 33 29 30 40 29 32 36 35 47 34 35 33 29 46 29 27 38 33 36 35 31 33 26 40 29 42 29 51 40 31 33 36 36 27 35 34 35 43 33 32 53 25 32 28 34 34 40 34 32 34 33 31 41 25 32 25 35 34 32 33 40 35 40 39 46 34 36 33 41 33 24 25 26 45 28 40 31 35 27 40 38 33 38 34 37 35 34 38 31 28 29 37 34 27 37 38 33 40 35 22 41 26 33 25 35 33 45 33 31 33 31 37 38 42 32 43 39 36 39 33 33 38 26 36 41 32 29 26 38 40 38 30 37 39 34 37 44 28 35 39 30 35 37 33 26 29 35 28 41 31 33 27 31 35 46 38 32 29 25 30 37 44 30 33 34 33 37 39 30 33 38 46 28 35 32 38 27 41 38 31 25 46 41 41 41 39 32 35 25 44 30 33 36 34 31 36 31 46 38 43 30 41 34 24 24 35 43 36 44 30 31 34 34 36 34 34 35 36 29 34 33 33 35 37 31 30 43 32 39 31 39 41 35 39 39 26 36 44 38 32 38 41 33 36 31 32 24 42 27 39 34 45 26 32 40 31 33 41 36 39 31 40 33 41 43 49 33 37 30 42 35 27 34 37 33 36 47 33 35 35 26 39 28 41 30 30 36 32 37 40 32 30 37 28 40 30 32 27 41 30 42 38 39 28 39 30 32 40 31 34 36 39 38 36 38 44 39 40 31 30 31 30 30 42 36 35 38 31 39 34 31 41 27 30 34 42 43 40 32 40 31 41 36 33 37 30 32 37 40 33 35 40 28 33 29 34 33 34 36 34 33 28 39 33 27 37 37 33 43 33 39 26 32 38 36 35 38 38 36 40 35 36 36 30 39 39 37 35 35 33 35 37 37 37 29 35 30 33 33 34 39 33 34 32 37 34 35 36 56 32 27 41 32 26 45 40 31 34 34 30 39 34 40 36 45 30 28 39 24 32 44 27 40 32 33 41 28 35 39 52 27 41 35 37 35 30 43 29 38 38 34 27 46 38 30 32 33 28 44 36 37 38 31 27 35 35 30 37 44 36 42 42 50 37 35 42 43 38 34 39 32 29 46 40 35 38 29 34 30 41 27 26 40 38 35 45 34 27 36 32 27 31 33 30 38 34 26 36 33 29 32 42 29 38 27 32 31 32 33 38 44 37 31 27 34 41 26 32 41 28 33 43 33 29 34 33 38 38 30 28 30 28 28 37 37 33 27 36 49 29 30 33 25 42 33 40 29 33 28 38 36 42 38 48 37 37 28 31 27 29 36 29 35 34 31 27 34 30 29 33 24 35 35 28 42 28 32 28 42 47 38 30 30 43 35 36 25 33 25 32 31 34 36 40 29 40 35 25 44 43 40 37 32 35 34 27 33 36 38 31 37 39 30 37 35 24 45 27 46 34 30 25 27 25 31 23 35 27 29 35 30 36 33 36 37 28 42 31 28 32 31 30 36 34 37 32 42 42 32 28 37 31 49 38 33 35 36 39 34 34 41 36 40 53 35 27 29 43 26 30 34 26 42 33 38 34 33 32 35 28 30 31 34 26 33 29 39 21 49 34 39 35 26 32 34 34 35 27 37 37 37 39 41 33 41 32 41 29 25 34 37 37 28 31 25 29 32 31 23 37 26 34 39 34 26 37 40 39 29 36 29 27 40 34 26 45 37 40 34 30 35 35 47 36 42 41 45 30 39 33 38 30 41 26 40 31 29 30 36 36 25 35 38 42 27 21 34 43 45 37 25 30 32 27 37 43 33 41 39 34 41 29 35 35 36 41 29 32 39 56 29 43 28 29 35 41 40 33 22 30 30 35 31 38 36 29 46 28 27 33 33 42 30 40 35 33 36 29 36 32 36 24 32 38 39 41 28 33 33 27 42 26 34 34 28 34 26 33 27 35 35 37 31 38 40 31 30 22 30 44 32 34 26 39 26 30 34 37 32 39 44 30 32 37 31 26 32 43 33 31 32 33 29 37 35 39 31 29 27 35 45 31 36 40 30 36 37 38 38 45 35 28 26 33 33 30 36 31 38 33 45 26 36 32 34 34 29 30 37 41 40 19 43 33 32 34 37 43 31 34 33 37 46 37 32 30 31 37 31 34 39 41 27 38 21 32 29 36 36 35 36 39 33 35 48 36 32 26 33 31 33 41 31 27 27 28 31 29 37 45 36 30 39 38 40 33 46 33 35 37 40 30 33 36 39 30 29 32 32 31 36 38 32 30 35 40 39 34 41 32 40 37 43 30 27 31 38 36 32 38 36 38 28 34 42 28 30 26 35 31 28 29 34 29 31 32 24 30 32 31 30 32 36 39 33 36 36 35 40 40 35 41 28 42 40 28 38 34 35 27 31 41 39 30 36 34 43 42 26 24 31 34 41 26 43 40 35 36 34 32 48 38 41 36 36 43 32 33 36 41 42 32 37 40 23 37 27 45 28 31 32 37 28 32 28 40 30 37 32 34 30 43 33 28 40 32 38 33 40 39 48 34 39 35 38 28 34 42 31 37 32 36 34 30 43 32 36 37 36 40 42 31 31 29 32 27 32 24 22 40 31 35 43 33 39 41 31 33 30 35 27 29 28 38 27 36 36 34 30 40 32 33 25 50 29 37 24 34 29 41 44 44 31 24 46 37 30 28 37 36 33 37 40 32 37 34 37 32 43 41 42 38 27 33 40 36 29 35 35 37 38 36 28 47 44 31 42 28 37 29 41 24 29 39 37 42 22 33 32 28 31 38 31 34 36 49 41 35 31 34 38 35 42 46 34 29 28 32 52 33 38 30 29 28 34 31 30 27 35 43 42 38 26 34 40 30 38 42 32 37 42 27 31 37 28 30 36 33 33 30 37 42 44 35 27 30 25 37 42 33 39 31 31 37 33 37 44 38 37 39 34 33 31 37 25 31 32 37 34 32 43 32 39 35 32 32 32 43 26 43 37 33 41 36 43 38 31 31 27 44 41 35 36 48 34 28 46 34 39 29 36 36 37 43 40 28 45 33 41 40 36 32 34 26 34 25 32 30 28 40 38 25 38 32 28 24 42 42 38 27 25 40 31 32 22 34 38 30 29 34 27 39 36 39 38 23 32 45 42 36 36 39 39 31 26 27 43 32 41 43 28 40 30 36 38 30 37 36 32 25 35 26 40 34 36 29 37 40 37 31 34 32 32 32 37 32 42 32 27 36 36 46 28 38 35 30 40 29 39 33 40 29 34 29 43 32 47 33 28 26 30 37 34 25 36 41 43 24 43 29 34 31 31 24 42 36 31 41 25 32 36 37 31 37 32 30 26 35 29 35 36 31 28 33 34 34 41 29 40 35 34 39 38 31 26 27 34 32 25 33 41 27 31 32 51 36 31 36 34 39 39 39 29 37 29 31 35 34 39 36 42 33 33 27 35 35 26 31 37 36 33 41 33 41 37 34 32 37 33 34 34 38 41 36 34 35 28 38 34 46 33 45 32 34 28 32 21 35 39 35 21 48 35 27 35 35 31 32 28 27 46 29 38 34 29 31 37 35 34 17 36 38 36 40 30 41 27 42 33 32 36 26 31 39 45 28 39 41 34 24 28 32 29 51 32 31 34 41 31 34 34 34 40 30 28 40 34 26 31 33 34 31 38 35 36 33 27 35 32 29 36 30 38 48 30 26 26 42 31 32 36 29 33 25 28 34 33 20 32 32 32 29 34 33 37 34 25 36 40 34 41 38 35 33 41 34 41 33 38 34 36 43 35 37 39 29 37 40 32 33 33 33 28 26 32 34 43 35 33 29 27 39 27 34 29 35 42 22 28 31 27 34 41 31 30 41 27 42 43 48 33 32 29 33 38 44 34 24 28 35 36 36 34 36 29 30 42 39 29 23 31 33 35 34 33 25 39 32 34 40 34 33 29 41 34 30 40 42 38 32 31 41 35 35 29 42 39 27 34 40 41 39 43 18 54 50 40 35 32 35 32 48 42 34 34 25 29 36 37 31 38 26 38 42 37 28 38 31 40 25 33 27 34 38 32 38 42 36 26 29 33 43 28 28 21 29 31 29 39 37 30 31 30 36 31 31 40 45 31 33 39 20 29 35 30 30 38 46 28 24 40 42 30 27 33 42 28 31 37 46 28 32 33 24 27 38 42 39 25 42 36 30 29 33 32 44 38 32 28 31 31 28 44 30 40 40 36 37 30 40 36 31 30 26 38 29 31 37 47 46 34 33 44 38 33 35 31 36 38 32 22 32 33 39 32 32 36 32 28 36 37 37 39 33 32 37 37 28 36 36 29 35 37 27 28 28 34 30 40 35 36 34 36 34 31 36 35 35 23 33 38 41 36 40 25 32 30 34 39 37 34 37 35 37 42 28 34 32 44 38 36 42 36 37 35 33 20 38 36 33 40 34 47 31 26 32 28 31 44 33 33 36 29 26 43 33 30 30 35 38 36 27 45 37 33 37 28 35 30 26 26 33 31 44 32 23 40 32 57 36 36 30 45 43 38 27 37 41 43 29 38 39 38 34 35 29 33 45 36 32 48 34 30 30 48 37 37 41 32 36 30 26 20 32 34 29 31 23 35 34 26 36 33 35 33 30 38 32 35 31 35 34 30 42 40 36 29 26 34 28 37 38 31 29 34 36 43 25 28 34 31 36 31 29 36 36 25 34 22 35 37 33 47 29 35 31 36 36 34 42 36 39 40 30 32 27 27 31 22 38 34 33 39 35 39 32 27 27 29 38 28 30 28 37 28 31 39 29 28 44 43 36 45 22 34 38 36 30 32 39 37 40 28 35 32 36 32 39 35 33 33 36 37 26 33 36 36 30 31 29 30 31 38 33 25 32 41 33 40 31 28 25 39 33 23 32 35 37 29 36 50 31 42 47 32 38 32 23 34 41 45 32 34 34 29 30 27 35 41 39 31 31 31 31 34 34 32 39 30 23 38 28 37 41 34 36 37 30 41 33 35 29 30 38 49 44 45 43 37 33 41 42 40 38 39 49 33 38 31 43 36 30 32 39 52 30 35 31 27 29 48 29 29 35 31 41 40 40 30 32 27 32 34 26 40 30 31 34 42 32 33 37 37 29 46 35 32 31 40 36 40 47 25 33 49 48 41 33 33 35 26 31 37 36 29 41 43 26 33 42 32 28 35 41 35 43 25 35 41 39 43 33 32 40 37 28 30 36 33 26 41 31 33 27 39 33 43 40 30 27 49 34 38 39 30 46 46 35 34 33 29 34 33 34 35 43 34 26 38 30 38 30 28 35 36 37 36 35 43 26 32 35 37 25 38 39 35 34 25 38 33 34 29 39 39 44 37 38 32 28 28 37 41 38 35 27 29 35 29 24 31 44 38 34 33 41 24 39 36 41 32 28 33 37 37 37 36 42 36 34 26 28 42 28 29 32 32 31 40 24 45 35 36 28 30 29 35 43 41 40 40 39 28 36 31 34 32 28 34 35 24 36 38 30 32 37 34 41 31 36 41 33 42 31 26 24 42 37 32 36 36 34 37 28 36 30 40 31 37 35 31 31 37 29 33 31 43 28 30 40 43 29 31 29 30 30 38 37 35 30 34 43 31 35 44 28 36 36 39 28 34 29 29 43 33 35 32 40 34 29 31 32 29 27 38 33 33 30 35 27 39 25 41 39 30 37 35 33 29 35 36 39 35 44 47 35 41 31 26 42 40 31 40 37 33 23 35 38 30 25 34 36 29 31 38 34 26 33 29 39 34 27 36 24 30 43 36 37 30 32 31 26 32 39 30 45 32 39 28 37 38 35 51 17 38 37 33 33 35 32 37 37 33 44 36 32 30 48 32 34 32 25 36 33 42 30 45 32 38 29 33 37 30 43 45 39 39 29 31 38 42 33 29 26 30 43 38 37 34 38 34 26 37 33 35 22 28 42 42 26 35 44 21 28 39 40 32 33 36 39 42 36 32 37 31 36 32 41 23 44 35 40 34 33 46 29 32 39 35 39 39 36 37 35 32 35 36 40 29 29 38 35 41 32 31 32 30 47 30 27 48 48 44 50 37 41 33 41 33 40 36 46 34 30 32 39 39 33 39 35 34 23 25 26 28 30 44 44 27 49 40 23 28 28 37 41 30 44 29 32 38 36 37 37 35 28 43 19 38 30 27 40 37 38 33 47 20 34 35 37 26 33 38 29 27 33 32 37 36 29 42 31 31 37 24 32 33 38 32 29 35 37 31 21 33 40 24 39 36 27 29 29 31 34 37 40 35 39 35 30 23 21 47 34 33 35 39 26 35 36 37 39 44 23 35 39 36 53 48 37 43 39 34 37 39 39 38 42 31 33 36 33 26 32 31 36 46 39 37 31 39 32 37 35 42 36 35 32 45 31 33 35 40 25 35 29 28 50 42 34 38 35 31 31 24 37 31 28 40 29 36 31 27 39 38 32 35 33 35 35 43 31 34 38 37 38 29 34 36 42 33 37 36 35 37 48 42 32 38 30 33 34 42 34 32 25 35 35 31 30 31 31 38 37 29 32 32 28 31 40 27 34 34 45 38 25 41 44 37 32 38 45 36 36 30 40 27 36 30 39 43 35 27 47 34 36 38 29 47 38 28 39 30 30 32 36 32 25 21 38 34 35 45 33 38 40 39 31 31 38 45 34 35 37 36 44 27 39 36 36 31 35 27 32 33 31 38 37 28 39 27 34 33 38 39 29 47 48 32 36 47 34 40 35 31 39 44 34 25 28 45 35 34 30 29 33 40 46 37 30 34 37 32 33 32 37 28 36 29 49 37 31 27 35 39 35 32 31 35 30 34 19 42 36 32 38 33 39 41 36 52 29 37 37 35 27 30 30 35 28 26 38 33 42 32 36 29 35 37 33 30 28 37 34 43 32 45 39 39 38 30 36 30 34 32 31 31 31 33 29 35 34 31 33 35 28 38 42 29 35 34 32 37 42 37 42 40 23 42 32 34 31 38 41 39 29 34 34 25 39 51 32 41 46 28 37 39 36 28 34 38 35 27 39 44 37 26 39 35 35 35 41 30 30 35 41 34 29 35 38 30 36 26 35 17 36 35 31 35 39 39 29 40 42 34 36 34 25 30 42 33 33 34 30 36 43 32 25 31 27 25 40 32 34 26 23 29 29 28 29 34 32 48 34 40 42 29 31 34 36 37 37 31 37 33 34 30 26 31 37 37 38 36 31 43 44 31 29 32 36 29 35 38 33 34 41 38 47 36 40 38 39 30 33 40 36 34 40 34 28 30 32 34 36 24 35 37 39 22 29 47 35 42 30 39 29 43 29 32 28 33 34 34 31 34 36 31 39 40 39 34 30 31 46 30 29 32 33 39 32 27 25 39 31 27 28 31 38 41 28 30 26 30 30 38 40 22 30 46 35 30 33 38 32 46 34 37 26 43 36 39 32 25 29 36 29 33 25 27 30 33 32 31 41 33 31 29 33 40 39 42 35 27 32 43 30 36 41 31 26 34 33 34 38 32 38 34 29 41 39 43 31 27 40 29 38 34 25 36 27 37 33 32 34 41 38 37 34 35 28 39 34 34 34 31 29 40 35 32 31 33 34 30 39 29 29 37 36 33 32 33 42 37 29 34 31 28 42 35 31 37 38 25 39 31 43 24 33 24 29 28 30 39 37 43 39 23 35 43 24 28 35 38 22 30 24 33 32 36 32 40 26 29 29 37 30 26 46 45 50 38 41 31 37 30 36 40 36 27 39 30 33 40 36 34 36 35 34 41 32 36 33 34 44 35 35 39 28 32 30 25 36 30 35 36 34 30 29 39 34 32 38 37 30 34 28 33 24 40 38 31 30 29 23 49 29 36 44 35 32 39 44 27 29 32 36 39 34 40 34 25 24 37 34 32 29 32 25 45 43 37 30 18 38 32 32 38 41 34 30 37 33 34 48 39 37 34 33 27 32 34 35 29 37 31 30 39 37 32 28 33 28 23 46 39 35 37 29 28 36 38 25 29 35 31 37 24 28 33 45 32 26 39 26 48 39 31 43 32 36 32 38 36 36 34 37 27 38 24 41 34 32 38 27 27 40 41 24 35 40 31 33 37 32 34 29 32 29 33 28 33 36 39 32 23 32 32 40 42 38 30 31 32 28 28 28 33 41 34 32 42 41 33 33 35 31 32 31 37 39 35 27 37 49 37 36 32 28 35 31 39 28 27 29 37 33 36 35 43 31 31 26 37 26 20 42 40 40 39 34 37 34 31 47 42 30 39 34 25 35 35 32 32 26 36 36 42 27 28 37 38 26 26 48 30 40 28 29 51 39 35 28 39 33 34 36 42 31 38 33 33 40 28 29 42 28 33 37 35 28 36 24 37 38 25 27 42 29 35 32 33 51 34 24 36 34 28 27 39 44 28 31 40 38 32 37 36 32 31 32 33 30 30 25 31 40 38 35 34 39 36 34 38 33 29 46 32 44 37 44 37 40 41 29 35 45 44 29 39 34 48 37 31 21 32 37 28 49 38 39 45 27 35 32 28 37 27 27 36 22 36 40 55 26 31 32 39 45 42 40 25 33 34 47 35 34 34 25 36 26 36 28 27 34 33 35 34 37 36 29 46 31 39 29 30 33 42 48 40 39 26 34 46 32 43 37 36 45 34 33 30 33 43 31 37 38 43 30 39 40 40 35 28 36 27 37 26 37 30 28 34 47 26 30 44 39 31 34 35 44 37 41 37 40 35 42 37 27 36 38 29 33 33 28 28 46 42 34 29 31 33 30 30 31 32 29 38 35 38 28 41 32 39 29 39 36 30 51 40 34 33 32 37 36 38 33 42 35 26 35 38 34 29 38 40 31 38 29 32 33 33 36 29 34 29 30 33 29 37 28 31 36 37 27 32 36 39 33 32 39 33 31 29 31 29 37 36 36 35 39 31 34 34 31 31 36 34 27 40 32 30 34 39 32 34 29 40 36 36 36 26 36 40 40 23 27 29 30 34 44 31 34 32 32 37 37 31 34 40 35 33 34 28 36 27 25 33 36 34 35 37 28 34 36 31 30 39 44 33 29 40 42 43 36 33 32 30 36 30 37 29 34 35 42 46 48 37 33 39 28 33 29 36 26 41 23 34 51 39 38 29 40 32 37 33 33 31 28 27 27 37 36 37 29 24 31 38 34 27 40 28 52 37 35 32 46 36 35 33 32 24 30 31 37 36 31 36 33 29 37 27 30 33 32 36 33 43 31 38 25 38 34 34 26 26 27 37 37 36 35 41 33 40 44 38 33 38 34 41 46 36 38 42 33 35 33 32 38 42 36 35 38 36 37 43 37 40 27 29 29 35 27 48 35 37 39 43 28 38 43 46 33 30 40 43 39 35 30 35 35 32 34 24 37 40 37 42 28 35 43 40 34 32 34 21 41 31 23 37 40 37 30 31 38 34 42 29 41 30 27 32 31 37 31 38 31 26 30 37 33 44 35 33 29 37 40 27 35 30 35 36 40 37 37 32 31 27 32 45 38 35 34 40 39 28 32 41 40 30 35 28 28 40 33 46 29 36 37 35 40 27 39 35 39 26 27 40 39 32 30 43 42 36 25 35 30 42 24 36 35 37 35 40 39 37 42 33 22 38 43 40 34 35 36 41 39 42 30 36 43 33 36 34 39 41 37 33 36 38 29 32 37 41 36 49 26 32 33 26 34 23 29 28 34 32 29 33 45 29 32 34 35 37 31 41 39 35 32 34 39 34 36 33 37 40 29 31 34 31 38 29 37 34 33 28 36 25 34 39 41 40 26 36 36 42 31 38 32 31 47 34 37 41 38 34 36 36 37 32 44 31 38 38 33 39 44 30 35 35 24 31 27 39 42 23 23 38 42 44 38 34 38 42 30 34 29 28 35 32 31 27 39 27 28 39 35 28 35 38 31 29 34 37 26 31 39 23 42 31 37 30 29 37 36 35 41 25 36 45 37 28 36 36 40 30 32 31 32 32 33 39 35 26 32 38 34 19 39 41 29 31 40 40 35 35 37 41 42 42 28 33 50 33 34 30 43 41 39 31 31 40 28 37 28 38 32 39 35 34 36 39 33 38 39 41 35 36 41 31 37 30 34 34 35 30 36 29 38 36 40 31 46 57 23 30 42 32 28 42 33 49 32 34 30 36 43 37 40 39 22 39 41 31 38 25 35 21 29 30 33 43 39 31 30 32 33 44 45 36 40 36 25 38 45 37 33 40 31 34 37 31 43 31 36 28 40 42 40 23 36 34 40 30 48 28 30 40 24 41 33 42 37 39 44 36 37 31 38 36 39 38 26 33 40 32 39 37 33 33 31 36 38 48 36 26 37 30 28 25 32 37 37 42 23 33 40 23 29 41 40 30 40 37 32 32 36 37 36 37 41 36 30 25 37 33 36 33 29 37 30 28 41 31 36 31 38 23 33 31 25 29 34 40 26 44 36 37 26 32 35 28 25 28 34 36 32 45 32 29 30 40 42 42 36 32 37 33 40 36 44 34 36 32 29 39 24 40 42 43 26 33 36 27 32 31 32 38 41 34 29 44 36 41 37 29 36 32 36 40 39 31 35 28 25 32 30 38 27 32 51 36 31 42 37 43 35 38 43 34 40 37 31 34 36 37 29 48 35 41 43 38 33 42 31 33 39 39 33 30 29 30 39 35 31 35 24 53 35 41 22 45 30 31 31 34 30 21 26 33 38 36 28 30 40 28 33 35 38 37 34 39 38 29 35 33 24 41 42 44 41 32 33 29 32 35 45 54 29 33 34 34 44 40 31 48 34 40 29 37 28 37 40 36 27 30 30 38 34 31 23 28 41 46 37 33 37 45 29 36 42 36 33 23 37 37 33 35 37 26 28 42 36 32 36 34 26 39 33 32 22 27 43 34 33 42 25 45 30 30 27 37 35 43 28 41 42 41 37 27 30 40 32 41 42 33 27 40 38 33 36 34 46 34 29 42 39 48 42 38 36 28 34 29 25 35 43 32 38 36 36 35 47 42 49 41 38 37 34 33 27 40 34 39 33 39 40 38 38 36 38 35 25 29 37 33 38 31 34 43 34 35 25 38 45 30 31 43 31 31 31 39 44 37 40 37 31 42 39 33 34 35 27 28 37 30 43 29 34 25 28 41 25 32 40 32 40 32 25 24 34 27 37 41 38 38 38 27 35 37 28 38 32 37 33 25 28 28 28 35 35 33 40 34 28 32 31 32 31 45 33 37 37 41 30 37 29 39 29 32 43 37 35 41 37 33 37 33 43 35 34 37 34 39 34 34 33 41 30 34 25 38 40 44 25 33 25 38 37 40 35 26 40 32 32 34 36 33 24 31 38 33 43 37 41 38 38 30 32 36 36 41 37 39 35 40 31 26 44 30 31 30 38 46 38 32 28 32 37 31 34 43 34 31 31 35 33 32 35 30 43 38 25 36 42 32 31 34 28 36 32 35 39 51 35 23 33 31 31 34 29 34 42 31 38 29 24 29 32 30 36 45 43 35 40 41 34 32 36 33 28 31 39 29 31 31 34 26 46 37 30 36 38 34 33 41 38 34 28 33 28 36 31 36 37 36 33 29 41 39 36 38 36 39 40 33 31 35 37 38 38 38 43 33 35 37 39 27 39 33 30 35 29 31 30 26 35 31 32 32 44 34 34 30 31 29 41 27 43 33 34 33 30 28 23 31 38 42 43 36 37 23 39 33 38 35 30 26 42 37 36 40 40 33 36 34 42 43 39 34</t>
+  </si>
+  <si>
+    <t>JSU(-15.905099155052937, 15.509892809750724, -343.201613307244, 497.4028464487153)</t>
+  </si>
+  <si>
+    <t>271 301 287 289 304 221 300 351 248 288 242 264 186 218 247 314 294 236 258 301 384 265 213 189 229 335 291 190 372 384 265 281 280 233 253 274 277 258 318 193 271 265 244 340 345 317 348 264 309 143 290 354 258 328 288 220 239 243 273 214 232 254 244 324 248 307 232 273 217 233 294 192 296 280 408 288 220 293 326 250 381 285 317 290 269 279 232 243 202 330 240 316 266 247 234 266 255 334 327 275 278 213 268 238 211 268 253 187 318 313 245 255 284 357 281 330 258 306 189 198 185 263 365 315 260 358 267 313 331 296 290 278 186 180 263 291 321 247 229 267 293 231 236 302 235 209 255 259 312 231 256 284 231 307 254 276 313 241 213 248 298 251 245 277 306 278 183 310 281 296 323 264 336 256 242 276 278 178 261 255 240 334 274 238 265 352 239 301 223 259 197 239 282 277 222 260 266 282 339 265 311 245 314 259 319 172 200 259 350 216 141 296 256 281 222 322 219 197 279 252 277 391 230 229 276 370 235 307 305 311 249 322 350 318 336 321 263 267 256 168 313 258 232 391 264 197 304 190 202 271 265 254 221 326 248 352 307 261 390 261 217 251 364 368 240 282 260 298 259 260 283 294 228 226 209 229 266 287 265 306 269 215 285 160 270 149 281 401 214 200 256 273 311 226 229 207 349 221 319 336 327 253 217 337 238 256 284 209 232 296 295 276 269 219 256 270 210 233 148 142 274 217 249 310 275 247 297 251 305 217 290 191 297 258 187 336 269 302 305 335 197 196 145 212 234 309 237 193 241 336 262 262 233 259 302 298 298 281 260 206 277 264 252 297 303 196 285 266 247 310 321 288 265 342 200 246 250 242 315 292 192 280 283 231 277 200 243 310 249 284 202 268 197 210 316 256 291 214 212 383 184 220 152 206 257 287 224 291 276 269 352 204 267 293 265 242 210 191 239 291 270 288 261 267 293 206 396 236 258 223 239 247 215 248 294 274 299 333 346 202 277 290 280 341 289 256 156 214 238 196 321 210 246 292 319 189 238 286 360 232 265 271 246 216 177 241 354 200 248 241 289 309 221 339 355 273 339 187 182 286 364 284 208 305 156 366 205 278 256 275 290 266 224 219 196 279 301 213 283 304 314 266 292 359 253 235 252 240 277 253 242 218 326 245 212 319 294 310 257 284 237 252 203 255 315 296 248 293 274 313 264 235 341 205 303 291 235 176 218 194 291 163 325 143 282 172 367 280 204 229 242 267 260 176 291 263 239 230 299 218 271 290 196 343 349 226 265 245 248 196 271 344 204 232 238 192 258 299 211 299 283 296 213 276 116 225 246 214 273 205 283 147 248 270 200 245 194 315 327 234 286 288 233 311 234 262 242 306 210 218 258 293 285 263 215 324 175 221 209 234 240 203 225 179 236 362 319 289 223 309 267 401 267 247 312 246 289 120 251 264 234 287 225 183 275 292 259 246 211 276 279 340 220 300 266 186 211 249 346 213 316 207 190 208 319 350 253 297 296 186 223 228 235 277 234 275 255 265 185 205 392 217 281 274 260 318 236 223 347 241 168 301 311 261 285 371 344 240 267 234 361 271 296 224 243 244 285 283 265 300 248 204 217 322 272 325 188 263 306 251 266 321 247 237 115 163 262 326 269 258 176 230 223 241 195 335 228 224 185 336 217 281 239 278 244 186 321 294 284 275 243 245 198 210 260 228 209 274 216 386 320 314 218 325 222 295 251 199 297 324 336 227 292 155 192 274 385 354 304 327 364 293 163 299 257 194 298 302 251 248 283 300 238 303 325 245 274 390 339 193 231 287 328 253 201 277 301 327 273 321 290 293 331 219 308 295 274 262 331 199 230 250 254 270 337 240 281 274 297 301 271 220 277 298 277 281 298 284 208 292 185 310 276 176 356 255 320 251 259 312 314 226 254 253 301 257 272 271 196 155 220 283 204 223 223 289 316 193 262 323 274 270 403 292 318 260 244 239 232 319 321 226 209 269 262 337 274 210 313 150 242 351 306 299 233 301 160 297 285 274 269 291 254 259 243 260 297 345 312 249 222 354 306 265 203 196 204 260 242 233 226 238 236 225 198 245 159 257 256 352 317 261 332 226 301 189 277 233 298 165 245 308 219 376 322 240 296 262 190 269 199 263 210 196 262 269 332 269 236 222 230 222 296 180 265 203 249 203 228 283 275 346 242 264 192 238 215 246 361 296 200 283 220 276 311 204 300 278 241 207 250 306 245 210 259 298 281 268 324 291 244 213 251 236 300 203 334 275 254 268 193 228 298 257 205 228 303 337 285 266 260 178 222 306 240 292 276 243 298 332 240 370 263 246 285 301 273 289 325 211 178 252 251 288 266 203 223 232 286 309 239 290 223 310 252 253 255 350 328 350 273 298 286 251 179 221 299 292 311 193 213 256 241 191 196 272 198 250 263 257 211 243 274 240 180 301 235 315 230 250 243 232 208 186 165 269 170 210 301 265 296 246 260 190 418 255 219 244 285 326 232 202 336 224 252 217 170 338 229 202 231 287 310 372 299 250 235 247 365 173 237 356 215 312 260 321 212 304 294 208 274 313 239 187 208 233 296 212 251 289 309 361 289 325 254 247 213 199 348 314 228 247 227 243 242 241 198 231 217 300 235 386 315 273 298 225 239 253 316 239 280 351 264 291 214 254 147 312 191 221 252 211 239 262 281 250 329 216 258 229 372 252 216 220 300 299 214 254 287 322 318 334 209 223 275 244 296 338 234 248 308 324 210 287 220 260 280 338 326 291 252 312 171 195 200 209 264 304 176 412 178 297 207 248 227 340 218 107 207 225 316 230 270 174 266 213 245 316 247 209 258 245 300 226 290 246 242 243 244 320 186 186 259 203 325 347 349 332 241 294 219 307 251 274 250 316 188 267 310 267 187 210 320 257 305 193 256 239 323 293 322 274 330 290 150 222 187 259 235 287 264 203 236 357 391 321 270 297 287 263 282 257 363 263 226 244 246 308 189 255 237 266 265 184 262 241 267 243 249 216 215 302 349 259 300 272 283 295 166 247 333 278 334 350 225 309 345 276 315 309 374 266 202 335 281 276 160 275 286 179 216 319 162 183 277 338 223 220 328 192 267 333 244 309 271 243 282 286 312 316 246 255 252 280 323 271 212 328 325 280 235 210 282 337 257 280 245 283 298 321 251 270 272 242 210 318 255 220 341 184 328 320 231 256 296 134 234 321 296 196 242 374 217 255 222 207 191 290 265 274 310 269 293 270 350 269 207 288 165 297 279 249 275 221 265 303 177 239 241 250 333 268 230 219 273 315 298 273 238 249 269 254 316 279 313 334 236 229 227 344 173 257 184 210 239 319 240 247 208 277 274 382 244 372 197 327 212 289 275 199 323 258 244 263 267 252 178 252 256 248 288 239 247 360 293 184 193 298 376 321 259 271 225 291 362 294 265 205 257 155 280 273 359 249 283 300 276 257 227 337 294 326 358 257 240 234 214 342 278 275 227 229 311 390 244 218 237 156 265 254 254 253 256 226 229 188 296 278 323 223 192 273 246 339 243 254 245 144 237 286 310 428 363 238 227 267 291 301 184 253 207 280 324 333 283 340 255 279 239 269 251 269 269 260 242 297 230 252 265 263 203 311 301 204 266 136 286 230 220 257 294 350 222 265 219 225 252 168 260 220 184 332 299 332 322 287 273 196 275 234 300 227 248 287 235 272 330 264 281 164 229 318 304 398 280 248 254 212 315 252 276 284 290 307 201 267 312 222 167 330 209 291 254 234 145 222 265 250 332 192 279 315 254 290 282 229 224 171 156 260 332 273 264 207 238 239 285 226 282 313 270 309 266 215 304 349 289 253 168 186 305 235 352 317 178 182 284 239 257 261 240 244 322 243 279 252 272 234 352 275 235 241 182 246 246 222 347 217 330 250 359 181 287 228 300 188 362 250 276 190 229 285 329 189 327 190 285 366 169 253 297 260 146 209 297 312 323 311 324 318 323 350 225 209 157 251 245 349 210 299 278 255 236 300 280 245 262 223 381 277 266 301 302 240 148 303 261 345 246 215 318 311 210 262 219 294 246 253 371 298 229 247 217 243 276 296 316 215 270 188 269 250 237 245 204 281 327 240 286 269 216 190 272 283 165 233 232 286 235 233 238 110 239 233 210 276 327 310 328 275 221 249 287 231 232 338 254 192 300 358 343 263 268 328 260 192 272 254 280 359 246 262 221 279 224 247 297 247 301 237 204 265 203 206 287 288 357 321 270 272 290 283 255 264 285 252 160 257 204 229 236 348 196 276 306 292 289 364 248 221 257 214 281 178 292 346 184 271 279 255 192 276 280 234 265 288 253 313 188 185 265 296 334 361 230 256 283 263 277 300 366 282 278 235 210 310 253 355 250 344 212 270 260 315 202 281 162 310 298 252 251 259 154 217 285 311 317 229 172 211 288 353 206 199 255 208 217 271 362 270 284 260 229 313 300 215 308 245 306 300 238 221 234 325 319 326 309 311 320 256 290 206 321 191 312 268 198 235 143 252 281 242 261 241 214 279 241 272 323 169 167 250 198 255 272 180 324 207 239 256 274 277 259 210 257 244 225 240 305 318 273 260 215 203 261 338 278 272 259 258 260 243 201 352 329 208 297 303 271 295 219 299 207 322 198 248 315 274 257 188 384 250 308 235 289 203 263 325 276 277 236 274 280 247 266 159 183 172 306 308 309 211 317 278 323 170 238 302 260 233 328 282 339 343 270 177 153 255 204 216 324 222 285 334 246 253 299 291 266 198 320 259 287 203 218 258 213 237 277 285 214 280 216 252 281 337 234 321 184 293 277 249 343 234 264 308 336 245 374 317 174 264 198 257 247 236 351 250 209 218 270 281 311 227 206 263 222 210 260 342 294 282 259 203 300 359 302 307 279 238 269 241 327 258 220 249 233 232 305 266 297 289 271 277 261 314 199 234 251 208 237 318 338 313 275 245 260 308 234 237 294 260 278 369 274 293 204 256 243 305 247 223 307 177 278 154 180 210 236 240 283 252 254 332 207 224 297 245 222 268 204 296 249 261 201 212 250 244 279 332 203 317 340 225 174 316 324 191 223 301 288 289 239 215 277 262 220 314 261 306 212 159 223 203 234 191 275 271 342 169 216 226 305 171 196 224 211 375 297 250 254 248 340 312 247 216 212 244 216 280 325 140 226 166 260 312 215 295 285 278 295 352 234 210 302 304 223 242 293 265 163 240 355 204 228 205 362 224 284 397 184 258 241 174 184 300 219 221 256 408 238 215 276 181 153 241 321 247 301 227 288 317 215 296 392 221 285 313 254 332 294 298 358 340 276 281 347 295 290 313 355 244 264 259 285 245 238 210 346 236 263 226 323 334 286 266 207 335 247 211 246 258 263 355 239 260 258 288 391 261 194 305 280 185 250 223 259 292 366 265 257 197 367 290 334 209 267 231 194 287 250 174 182 207 289 288 251 248 289 284 224 178 246 211 303 223 228 305 281 192 410 290 238 241 273 208 210 276 225 197 288 276 272 314 270 230 297 177 146 247 292 253 237 201 259 329 283 247 324 244 229 238 339 375 279 177 267 297 293 280 348 322 215 321 294 235 148 380 234 264 361 257 257 249 271 229 285 266 248 303 278 115 362 192 250 329 252 280 262 213 396 173 246 352 246 253 316 222 314 271 205 267 213 357 326 289 237 270 280 228 254 240 178 300 230 242 261 226 296 264 199 268 216 187 293 234 258 316 225 238 218 341 176 295 271 246 251 315 295 219 215 296 332 161 326 160 265 283 326 337 231 292 240 308 185 231 281 260 194 335 255 211 218 241 311 242 305 271 265 210 243 296 230 366 310 214 286 251 231 269 293 261 333 199 260 257 317 313 227 269 295 195 278 274 305 297 291 278 306 267 372 201 154 317 301 288 192 395 277 244 298 249 326 279 251 259 283 337 344 294 253 229 234 213 238 219 199 323 268 241 229 264 237 283 259 283 338 286 225 308 267 247 269 310 313 272 332 297 271 237 382 272 305 220 262 322 369 253 299 293 281 280 238 276 284 306 271 190 255 335 226 340 224 247 225 240 369 281 124 195 186 260 359 296 189 219 214 293 205 335 218 234 195 318 266 306 216 213 303 197 297 332 236 209 206 273 272 266 266 337 347 277 228 237 248 286 197 203 330 237 261 290 263 239 294 257 171 264 262 237 252 203 326 174 309 273 212 243 257 243 267 256 276 293 204 346 294 340 351 269 240 261 336 248 220 234 354 309 323 274 210 194 192 263 242 352 252 252 254 249 327 278 352 258 318 221 226 236 235 251 355 258 298 311 239 243 286 212 259 248 274 201 319 238 332 273 227 258 190 300 333 268 210 278 264 172 317 287 238 260 251 292 266 198 282 246 243 276 225 170 271 263 261 373 156 277 216 257 392 255 313 297 223 227 267 237 264 197 312 226 261 266 303 190 239 303 230 255 182 180 245 193 298 158 229 205 178 198 244 244 175 257 253 287 246 338 295 216 240 352 169 286 265 239 178 168 288 208 265 175 271 296 350 220 321 285 261 225 275 329 228 279 281 275 295 248 269 172 281 314 322 277 277 226 342 300 190 180 268 208 251 230 258 260 216 233 289 221 330 299 292 260 251 205 207 330 199 296 331 282 286 232 268 287 271 337 251 222 277 302 212 209 229 334 213 137 307 251 353 426 289 285 314 241 273 260 298 217 313 301 364 364 211 333 330 260 239 277 443 252 163 252 240 327 280 299 238 282 295 263 286 375 235 234 212 265 253 174 274 275 265 234 165 202 227 244 252 228 322 312 178 238 261 281 177 310 258 375 268 204 230 206 265 300 228 234 354 215 328 183 238 232 236 244 199 248 291 265 276 356 310 190 237 280 337 153 206 194 265 243 250 237 228 272 287 258 263 272 236 264 311 266 213 259 246 338 342 214 251 311 185 193 157 281 177 202 204 242 311 185 288 331 219 216 247 221 330 252 282 261 274 227 210 312 330 273 209 232 197 267 301 269 193 175 266 306 190 359 309 224 243 187 302 257 248 246 226 298 272 309 241 242 162 206 276 344 290 220 275 170 326 234 274 291 417 262 258 433 234 307 251 282 354 349 250 176 185 299 287 292 271 341 296 223 311 253 289 226 259 299 200 171 256 208 348 273 287 267 242 244 230 332 243 229 303 272 248 244 233 310 359 266 359 316 232 322 246 289 275 311 244 249 262 293 299 246 261 236 275 331 226 245 241 233 238 252 197 258 332 353 204 295 263 200 281 331 325 283 220 286 334 229 300 231 287 254 338 121 293 231 212 258 206 274 315 286 212 307 345 230 299 334 302 277 281 306 208 254 241 199 226 325 310 260 293 195 348 201 273 257 273 208 217 246 334 217 234 259 304 261 176 310 269 285 339 269 195 314 222 156 221 198 270 247 260 257 299 180 271 215 314 239 337 296 176 157 268 176 275 207 235 261 417 306 147 356 257 282 291 358 284 293 190 297 293 216 293 244 286 311 308 251 405 273 233 260 308 414 333 313 314 323 285 200 297 241 253 205 276 416 244 235 247 256 213 163 274 184 229 274 280 227 277 172 224 230 251 286 224 258 315 187 209 314 317 205 351 304 162 295 189 266 204 210 250 218 143 317 295 243 253 277 266 202 216 297 189 329 286 263 228 185 100 293 178 218 284 342 309 172 211 177 244 178 286 329 278 190 247 268 310 214 301 383 216 251 239 255 195 237 298 310 295 219 260 400 397 311 218 316 284 243 208 359 232 225 132 281 304 310 215 253 329 256 257 319 215 283 192 302 243 297 244 324 256 263 249 171 290 293 258 405 265 223 258 279 303 298 319 234 265 285 189 268 284 224 192 283 196 287 250 330 310 151 287 206 255 285 253 389 297 258 223 280 197 263 164 193 257 251 218 307 365 301 253 349 231 147 353 308 319 285 203 285 266 251 269 273 262 321 381 304 249 340 338 231 186 323 296 291 225 187 259 273 332 169 217 267 232 196 253 249 216 317 255 254 263 276 138 269 286 257 229 275 360 252 261 189 422 216 231 258 160 302 325 210 314 234 265 241 306 267 293 289 330 236 284 323 205 372 272 222 170 235 334 255 304 257 227 255 210 197 253 308 246 208 346 280 282 316 292 227 210 231 337 290 259 222 239 237 371 341 232 326 312 147 247 157 320 211 260 246 223 366 384 298 219 250 167 316 228 215 253 285 331 399 271 285 360 205 215 325 256 323 255 234 274 176 273 256 317 305 313 309 235 230 198 291 239 268 331 276 387 321 237 288 281 234 229 302 237 183 268 195 347 253 174 255 230 270 377 302 259 232 228 236 346 296 244 281 238 278 289 328 261 218 235 314 332 215 181 283 251 199 268 256 230 299 223 307 290 220 191 232 247 303 294 273 260 315 349 220 208 194 248 308 233 194 289 249 405 239 301 230 284 209 238 231 190 302 218 194 228 289 274 224 333 320 315 292 207 282 178 269 267 188 287 227 319 294 326 203 240 212 374 301 330 199 324 207 230 349 250 311 372 219 283 268 304 324 308 300 254 193 390 235 237 250 184 311 181 315 216 287 258 265 325 282 189 281 365 267 226 241 322 373 204 315 199 206 229 253 343 265 184 307 324 356 294 245 224 311 238 219 169 314 263 297 281 293 259 275 279 263 241 320 346 333 258 322 349 250 223 226 180 320 241 363 309 272 317 273 207 273 264 238 284 172 266 302 254 229 239 180 270 363 288 349 132 283 343 251 351 284 286 331 246 329 243 283 243 342 248 203 310 318 310 258 240 284 319 209 224 218 273 239 295 191 195 214 223 239 221 181 203 211 281 236 247 214 319 271 358 231 278 307 256 276 273 259 360 310 262 236 172 289 240 318 280 248 223 207 247 206 367 197 258 176 259 305 250 221 261 308 351 261 244 260 190 179 237 343 260 353 275 232 230 235 209 301 281 276 204 322 310 220 252 229 231 215 302 325 306 205 192 228 314 221 303 192 243 270 301 334 353 349 356 208 273 325 236 176 201 253 285 305 309 217 318 224 287 297 267 306 242 331 234 271 370 242 224 291 262 183 244 208 260 252 251 298 272 217 224 258 245 137 336 188 213 268 223 185 281 292 155 295 267 283 255 211 238 269 395 267 259 364 289 290 355 319 215 363 288 306 226 265 237 324 244 211 253 277 251 256 267 254 182 322 308 292 161 251 372 316 237 237 282 272 280 281 332 271 341 267 195 240 244 220 248 375 294 253 240 281 278 279 317 256 241 222 344 278 211 252 228 289 274 237 241 273 273 216 218 314 350 310 240 167 232 304 280 286 249 201 238 171 296 287 331 272 287 299 291 324 218 269 224 315 202 241 356 280 278 211 211 287 314 240 228 208 308 178 330 381 253 310 295 289 324 309 117 305 269 412 360 299 241 359 271 262 399 290 254 232 381 256 330 292 271 217 239 249 360 247 249 299 287 244 228 210 209 224 239 297 149 349 325 335 208 277 229 277 239 213 331 313 319 180 253 382 240 217 359 315 238 293 270 188 227 298 251 179 214 287 239 327 288 263 198 271 217 282 227 291 290 245 245 344 237 266 391 342 259 142 366 228 253 212 265 260 278 340 184 276 271 247 190 262 256 244 315 212 269 301 297 191 317 338 302 293 263 278 245 193 279 242 252 236 223 340 270 300 248 225 341 317 268 214 338 253 269 259 232 280 213 310 178 227 262 293 289 186 335 362 343 292 322 272 238 258 233 313 200 312 152 260 287 307 257 261 264 277 208 256 297 283 272 243 222 310 284 291 259 328 381 239 299 290 240 296 285 221 276 276 292 337 273 227 276 223 332 196 226 201 297 211 256 353 291 251 228 223 236 328 303 422 385 254 325 170 205 202 343 324 326 260 266 194 267 283 144 265 315 310 259 266 185 268 223 295 229 263 204 245 251 246 198 214 166 365 185 338 268 320 264 243 324 233 284 200 177 262 284 205 318 284 308 220 267 236 122 309 233 235 309 246 298 353 277 217 286 257 289 366 207 306 260 220 224 259 294 208 209 228 243 249 202 316 344 305 264 255 224 299 229 264 233 303 185 206 277 280 226 362 324 238 317 266 262 218 283 234 246 291 257 242 252 252 146 257 247 215 260 275 358 338 309 246 262 192 258 281 224 254 249 282 363 273 159 273 376 297 247 234 168 280 247 224 243 238 249 271 284 241 208 185 299 190 238 276 285 206 256 322 149 188 246 315 264 212 199 204 243 220 239 264 366 206 305 352 299 242 310 284 284 246 298 287 374 240 379 385 197 217 239 299 187 283 138 324 343 234 227 249 198 293 188 224 276 141 279 230 277 318 302 276 280 292 200 279 393 317 195 226 337 296 338 239 229 311 282 249 325 235 241 329 365 241 218 238 265 289 303 322 302 323 219 261 260 247 299 251 209 312 406 206 261 239 171 308 327 206 265 259 341 217 214 271 232 181 311 356 196 317 167 260 329 162 312 265 242 361 235 271 276 251 205 349 286 261 380 311 323 338 251 389 333 226 279 266 209 174 270 250 359 282 249 213 262 230 381 392 285 255 317 311 237 256 206 238 272 266 332 307 292 301 256 271 275 294 276 291 304 203 319 322 225 303 349 329 214 278 343 189 268 255 284 227 270 306 230 347 227 241 220 315 258 273 385 200 340 235 254 340 188 236 245 300 336 170 288 310 151 222 213 230 248 331 191 203 319 248 278 307 221 311 228 289 291 254 303 319 289 214 295 221 238 187 257 260 288 325 240 262 234 266 238 270 386 217 227 242 228 192 233 293 230 229 272 316 232 249 248 314 203 189 211 298 227 197 211 288 176 270 268 218 295 280 240 340 227 317 234 179 307 242 289 286 295 400 263 270 272 254 372 242 244 287 260 237 347 164 237 166 300 259 345 228 362 265 253 253 329 299 233 324 253 230 293 226 253 398 231 213 281 268 254 307 278 239 281 293 214 360 198 208 159 262 239 208 250 266 300 296 357 400 281 233 324 313 216 158 172 219 333 227 363 158 266 220 300 220 212 281 295 298 252 307 284 254 192 191 339 291 214 273 328 272 273 215 152 265 208 277 233 276 247 400 245 277 274 310 275 300 309 234 261 255 331 242 303 255 295 217 245 331 280 209 183 284 325 277 234 259 280 259 199 321 215 280 306 211 219 263 233 195 261 269 248 292 287 237 245 221 257 335 288 242 238 179 242 291 359 212 264 311 234 229 267 257 235 329 338 205 295 256 298 211 235 293 237 203 305 292 267 264 283 225 270 202 366 193 277 235 207 250 309 191 336 244 260 260 270 228 178 135 281 318 305 356 160 207 245 257 255 217 255 308 263 207 280 267 279 283 265 254 276 325 222 347 218 275 303 250 328 344 250 242 300 282 290 309 303 238 273 252 277 184 335 319 277 253 305 194 245 275 315 246 270 240 224 225 302 276 305 344 385 264 239 244 370 287 229 282 272 249 318 373 316 258 270 208 367 210 336 258 230 285 239 304 248 255 226 268 174 315 272 170 201 306 209 271 274 253 169 234 237 240 268 236 251 300 252 305 258 285 246 309 276 242 248 248 239 244 369 292 304 259 249 309 291 198 372 238 226 268 299 392 263 249 275 262 281 265 294 249 187 232 221 284 219 355 362 216 294 204 276 297 301 250 236 279 198 338 268 261 271 283 299 312 205 264 205 262 281 284 243 338 307 217 316 269 329 225 225 332 258 317 308 190 303 224 281 323 270 260 232 243 279 249 222 333 278 252 266 273 274 276 254 349 232 166 334 242 183 383 275 270 339 246 231 290 224 298 242 310 190 220 287 229 258 320 217 238 220 247 262 231 313 245 325 219 296 276 288 223 197 250 168 178 276 284 175 358 333 211 225 273 241 345 367 268 314 303 178 221 215 162 248 373 313 279 288 322 268 269 337 264 254 253 307 267 270 347 342 232 301 143 242 185 321 197 218 316 323 308 399 309 193 259 247 152 172 252 250 257 265 234 233 299 282 287 378 191 255 215 286 255 273 297 280 335 271 227 219 269 304 180 210 287 268 238 313 264 222 324 287 248 270 240 188 292 256 199 249 249 188 241 361 340 280 229 228 189 228 302 273 204 231 232 315 266 380 236 281 285 244 237 214 246 242 256 229 271 238 231 224 290 242 265 253 223 267 307 239 293 218 199 237 360 395 287 268 266 319 165 289 211 273 233 232 255 226 259 306 227 309 265 163 314 384 302 319 241 281 282 179 284 240 299 201 282 350 207 256 241 150 319 172 336 276 207 139 204 234 239 169 276 223 235 281 214 262 192 303 298 208 342 246 131 217 243 269 306 263 287 267 338 298 287 194 357 317 374 293 253 276 237 330 299 302 278 250 255 282 253 211 234 354 198 252 243 216 315 227 260 292 225 266 309 223 207 230 239 205 276 227 255 178 326 267 212 240 226 247 267 236 207 212 284 325 289 296 314 305 273 230 295 192 229 207 240 306 206 274 159 213 260 265 168 303 223 269 253 227 242 253 334 283 263 282 247 217 371 306 218 300 204 290 255 215 253 286 325 250 320 275 321 164 270 155 285 210 287 191 298 215 263 243 302 255 205 272 266 307 169 227 280 296 254 341 193 234 250 175 205 277 228 316 282 183 294 240 250 347 244 354 212 282 217 346 277 344 266 294 296 275 296 204 175 239 198 223 190 310 272 205 324 247 187 237 287 331 246 301 253 288 244 232 343 227 247 182 302 250 271 380 217 286 216 273 364 196 247 250 195 298 181 303 280 248 256 312 224 228 327 192 229 125 240 290 224 188 232 295 181 239 280 265 242 250 354 233 261 214 214 228 245 375 222 242 270 269 273 278 312 338 240 223 164 286 417 263 276 339 242 280 299 249 303 294 268 218 127 253 240 227 269 170 300 232 357 224 236 236 235 307 240 214 289 277 318 167 277 263 280 329 331 309 260 288 212 311 254 313 227 281 187 306 249 243 291 345 204 281 158 235 179 311 253 237 289 243 229 295 400 286 199 225 301 233 270 313 207 202 264 250 214 189 281 276 212 207 303 252 220 241 339 267 277 283 315 265 250 249 345 253 208 195 324 226 261 198 318 240 223 239 331 313 307 254 246 330 320 256 234 292 361 257 223 229 245 239 214 189 277 231 198 165 305 260 230 277 235 202 249 277 207 240 199 192 238 234 282 256 296 226 219 255 332 329 284 365 189 283 304 199 348 302 244 217 211 336 300 286 315 244 353 312 169 180 168 275 323 215 342 275 245 253 253 228 347 293 287 275 248 283 256 207 229 316 311 300 250 268 159 298 226 271 302 260 261 311 186 192 247 326 245 297 286 222 246 291 300 236 271 254 293 264 301 231 402 259 259 261 224 217 293 319 255 264 225 330 252 257 338 226 241 282 237 270 272 241 252 183 245 264 275 177 155 262 258 272 268 237 310 344 238 277 174 228 240 209 221 326 208 283 288 276 202 306 218 245 226 279 215 307 202 249 297 316 300 333 176 157 282 251 234 239 256 273 266 276 344 283 303 265 176 234 308 212 307 343 203 248 312 284 217 193 271 226 229 243 218 347 347 221 309 197 312 231 259 164 219 320 290 250 138 314 206 215 278 293 230 286 225 348 339 270 249 215 307 294 267 316 274 208 197 221 372 271 292 225 263 179 280 245 268 233 268 334 319 325 185 266 249 211 276 310 240 231 302 254 247 239 246 235 185 257 230 276 273 335 289 294 226 248 243 265 302 273 355 280 241 272 277 263 327 278 330 304 277 285 246 288 204 194 271 266 288 275 331 239 324 269 238 199 328 296 175 374 341 261 310 324 290 252 199 188 180 266 311 282 267 357 266 248 299 250 244 204 299 255 275 299 302 186 358 300 278 299 283 251 249 154 265 205 268 209 243 310 300 251 317 244 207 218 272 314 299 232 167 317 277 249 129 215 261 207 202 269 220 322 257 341 309 177 161 370 268 241 235 290 278 219 221 234 283 288 324 332 291 280 268 290 230 211 280 236 265 182 235 219 295 253 274 272 271 271 257 206 241 239 173 199 246 216 330 214 242 263 240 313 250 270 242 204 250 267 285 252 300 239 246 140 356 272 329 264 173 199 219 279 263 217 260 290 304 141 239 234 283 187 219 201 323 284 266 322 229 195 267 229 232 252 224 181 205 340 233 299 218 267 268 220 326 289 312 232 291 225 292 265 261 239 145 249 285 248 221 303 317 205 235 215 277 297 202 183 303 275 314 258 225 291 191 223 239 286 329 284 281 195 269 290 271 235 171 231 299 267 238 212 247 301 270 239 162 248 282 225 226 286 292 291 225 253 205 268 237 280 270 308 254 238 250 259 156 304 243 269 163 327 298 170 329 301 275 186 255 148 306 247 319 302 235 186 276 250 242 127 269 319 256 279 227 287 198 309 249 285 186 222 179 291 313 222 228 324 233 190 155 228 237 379 222 248 182 283 217 286 289 234 378 218 222 298 266 203 235 237 307 267 369 311 271 353 225 298 257 217 318 317 299 345 207 240 199 331 228 220 247 277 142 190 248 252 193 144 270 231 249 201 237 172 257 305 200 224 344 297 341 230 324 282 260 218 338 242 316 225 282 316 248 225 245 243 235 284 246 176 283 212 154 226 271 255 288 239 304 292 194 269 214 274 249 233 229 211 252 239 159 272 298 261 263 299 240 240 315 360 212 241 212 252 259 274 325 233 160 277 254 289 258 282 275 201 388 275 242 168 176 189 275 242 187 234 239 184 202 308 301 210 213 271 233 239 257 323 326 292 231 324 239 289 278 245 281 197 328 360 320 247 347 187 414 243 289 237 259 251 190 315 367 203 242 193 219 309 309 228 291 151 291 252 290 223 308 211 252 234 288 187 249 300 286 305 366 314 160 216 280 305 222 263 212 249 217 195 322 284 241 257 264 268 242 202 303 309 265 226 294 126 198 274 239 191 294 296 220 158 263 323 197 200 260 267 210 194 272 364 225 245 278 247 188 314 303 362 194 395 317 207 262 175 175 284 301 264 230 263 282 253 304 243 236 217 284 282 246 362 174 214 320 217 270 189 229 322 432 335 266 275 348 303 301 218 271 333 349 300 182 289 192 320 241 240 292 252 235 276 340 350 283 258 213 289 266 248 255 234 233 227 311 222 224 212 238 243 284 269 256 232 318 257 215 289 212 264 129 261 342 273 266 296 209 208 218 292 345 381 205 293 341 284 265 184 280 168 335 272 283 230 292 280 234 281 154 254 308 279 335 227 339 255 124 211 182 250 394 214 266 298 193 211 283 314 177 162 212 245 248 253 331 248 290 308 209 241 211 222 232 254 273 400 249 176 273 249 470 272 283 243 343 279 292 233 298 281 242 225 315 267 290 298 242 245 291 321 326 245 321 265 254 218 305 221 257 308 222 271 196 188 189 254 284 263 241 208 268 253 211 214 220 285 258 215 251 227 328 227 314 208 232 329 333 236 246 144 283 190 314 309 185 215 230 303 302 211 233 268 253 306 260 211 262 296 166 276 182 343 273 332 300 195 278 201 286 262 262 290 264 278 315 230 244 178 182 264 183 246 208 309 310 296 220 203 209 165 214 303 176 184 177 309 227 285 317 274 199 248 281 243 385 151 251 259 253 217 242 314 303 280 236 211 220 236 233 253 272 184 322 273 326 170 202 287 249 224 312 305 239 238 308 259 208 257 261 236 288 263 251 232 228 267 198 230 241 307 181 243 412 248 274 338 276 282 256 132 281 333 326 255 322 211 163 238 151 260 303 337 270 218 256 196 283 290 255 285 282 185 286 235 341 347 248 234 287 251 276 242 243 265 201 211 352 388 275 332 339 273 387 294 314 219 300 394 200 239 213 308 273 226 225 363 312 274 209 148 178 236 373 260 214 241 248 240 286 349 271 263 217 214 277 181 301 226 256 284 348 199 247 273 304 239 284 248 212 233 292 217 289 297 226 268 398 334 299 308 288 315 274 263 264 295 196 342 307 217 291 296 297 143 298 301 291 331 209 249 300 312 346 255 241 327 350 214 243 289 233 208 359 226 261 173 244 278 314 365 178 197 339 238 285 302 287 337 300 330 252 214 229 271 287 259 267 303 313 166 317 254 298 204 202 218 248 212 273 260 228 154 216 250 278 237 244 240 298 294 173 297 228 301 255 269 311 348 299 334 245 209 242 323 343 283 153 290 241 257 214 211 190 312 318 300 296 325 192 240 277 314 257 188 293 298 303 197 255 286 293 217 130 241 283 228 217 238 191 308 292 183 272 255 254 275 314 271 240 314 304 307 257 262 242 262 207 291 237 236 264 298 203 299 242 178 291 292 280 271 249 345 318 288 370 295 233 181 312 338 242 250 284 230 317 207 272 248 233 250 291 202 247 280 252 223 302 257 356 224 230 311 332 214 247 302 248 244 266 251 311 233 355 334 252 261 311 180 289 291 245 246 182 280 163 342 218 304 296 273 307 238 203 197 244 210 292 274 245 273 295 231 281 195 358 269 234 271 202 228 218 321 224 330 270 364 315 265 225 269 181 321 246 239 292 299 193 198 261 312 253 173 225 250 191 225 327 236 173 233 193 255 268 197 233 199 209 342 250 266 234 246 249 229 256 296 250 346 203 298 225 271 280 292 310 159 306 241 254 232 257 242 244 292 266 321 260 187 222 402 251 309 222 263 245 212 377 222 321 267 315 248 226 285 198 387 344 267 261 194 248 318 333 168 254 207 211 296 326 284 272 300 236 190 303 328 254 190 223 334 313 204 207 399 171 198 272 289 262 226 312 300 324 323 266 252 223 301 207 253 199 333 263 363 285 319 267 254 191 304 288 307 304 278 273 188 263 244 235 332 205 215 294 262 301 253 210 245 162 342 257 284 383 310 379 345 273 297 220 280 232 255 304 323 274 269 231 281 246 246 372 285 209 247 198 176 188 272 392 338 162 347 263 159 231 294 296 303 220 284 219 251 266 254 310 285 286 243 406 187 251 194 226 276 273 390 274 288 177 212 238 355 258 243 264 246 183 254 257 305 312 226 321 203 173 251 200 255 291 235 265 233 258 254 266 204 282 326 190 269 251 224 211 188 237 217 273 242 296 290 211 232 223 151 357 271 260 270 361 189 295 262 280 267 337 155 226 371 227 339 327 298 339 338 247 235 268 293 322 352 257 308 273 278 159 200 300 250 317 297 310 291 270 150 287 239 229 266 227 249 372 185 252 329 304 196 296 214 198 340 423 305 306 263 273 278 180 319 248 159 318 215 251 199 207 262 307 240 215 262 244 221 368 217 255 328 263 300 226 249 241 322 250 303 343 284 343 351 308 275 327 261 242 225 256 266 213 185 247 360 246 159 181 222 282 287 267 195 253 252 205 288 212 251 271 393 306 210 305 375 327 283 194 326 243 285 196 258 229 300 265 284 340 283 201 319 209 233 262 257 407 247 193 345 253 252 244 257 196 174 222 310 217 240 304 208 241 293 314 249 235 313 313 194 247 295 323 367 238 317 273 322 280 282 194 204 212 214 258 301 236 261 191 250 271 211 333 208 295 309 202 244 395 265 244 202 254 272 227 252 195 158 370 239 210 259 286 302 312 309 276 239 300 273 307 286 299 279 305 228 235 275 297 235 202 247 326 235 215 155 303 233 273 106 254 242 250 340 257 241 335 255 321 200 312 247 214 197 193 244 266 185 181 315 203 267 263 316 234 266 299 261 254 207 306 293 299 257 359 321 327 339 255 233 223 281 218 260 229 279 279 208 216 321 233 256 219 210 247 284 205 294 258 215 308 355 252 297 293 189 260 161 235 194 319 285 294 177 304 246 150 248 371 228 346 364 225 334 284 274 159 229 392 244 174 303 341 323 223 296 280 258 195 293 294 241 253 333 287 251 296 298 244 270 214 227 159 244 219 274 235 320 311 226 322 237 225 280 278 197 215 338 228 228 278 244 222 341 287 142 252 256 197 294 267 269 244 176 218 309 261 231 224 261 362 268 302 280 218 265 269 295 295 307 230 278 265 303 216 248 255 241 278 256 313 277 258 376 229 221 269 284 245 242 342 258 220 286 245 289 243 305 302 261 168 320 301 278 265 304 303 221 238 178 275 270 199 322 298 244 156 185 408 236 349 246 283 243 283 249 234 268 229 234 228 283 223 203 298 280 311 284 267 209 177 221 236 181 258 218 281 226 173 189 275 238 149 273 292 279 269 212 236 223 263 248 277 262 171 258 385 244 211 222 311 282 305 212 336 180 306 332 365 260 250 216 182 227 306 178 168 227 255 287 286 327 266 253 251 347 284 217 273 326 185 289 325 257 229 381 222 187 256 221 270 300 296 375 259 174 254 220 387 193 195 274 188 222 279 133 284 239 292 232 211 231 322 249 290 273 226 285 316 344 282 291 239 199 319 230 241 261 287 260 224 328 233 287 225 263 272 260 217 339 276 209 254 308 241 255 335 227 275 257 230 255 238 317 118 260 184 227 241</t>
   </si>
   <si>
     <t>F(1.4397263716806328, 1.2228878725253847, -1.3243832187893344e-31, 1.3389966018438875)</t>
   </si>
   <si>
-    <t>2 2 0 0 1 0 2 2 1 2 2 3 1 1 2 1 0 1 1 2 0 3 2 2 1 4 1 1 2 1 1 1 4 0 3 2 2 0 3 2 0 2 3 1 0 2 4 2 2 2 1 1 2 1 2 3 1 1 2 2 2 2 0 1 1 2 2 2 1 2 1 2 2 1 2 4 1 4 2 1 1 1 0 3 3 2 1 3 3 0 2 2 1 2 2 1 2 3 2 2 2 0 4 1 0 1 0 4 3 1 0 0 2 2 2 1 1 3 4 2 1 1 1 0 3 1 3 2 2 1 3 2 1 2 0 2 4 2 0 0 0 1 4 0 3 2 1 2 1 0 4 0 2 1 1 2 2 1 1 2 0 2 3 0 1 4 0 2 0 2 2 1 1 0 1 1 1 2 1 1 2 0 1 2 1 2 3 2 2 1 2 0 0 1 1 1 1 2 2 1 3 1 3 3 3 2 2 2 1 1 1 3 2 2 1 2 1 2 3 1 1 1 2 1 1 2 1 3 0 4 4 1 0 3 1 2 3 1 1 2 1 2 3 3 1 2 1 2 0 0 2 1 1 5 2 1 1 1 1 1 1 2 2 1 1 1 2 3 2 0 1 2 2 1 2 2 1 2 2 2 3 2 2 1 0 1 1 2 1 4 1 1 1 1 3 2 2 1 1 1 2 3 1 1 4 1 0 2 1 1 2 2 2 2 3 1 2 1 2 1 2 3 1 0 0 0 1 0 2 1 1 1 3 2 4 2 3 2 3 1 2 2 1 0 3 3 0 0 0 2 0 1 1 0 0 1 2 0 4 1 2 1 1 2 3 2 2 1 2 3 2 3 3 1 2 2 2 1 1 1 1 2 2 2 1 1 0 2 1 1 0 1 2 1 1 3 0 2 1 2 1 0 1 0 0 2 2 3 2 1 2 0 2 4 2 1 2 1 2 2 1 1 3 2 0 1 2 2 2 4 0 3 1 1 1 2 2 3 0 3 3 1 2 1 1 1 0 2 0 3 3 4 4 2 4 1 2 0 2 1 1 1 2 2 2 3 2 2 1 3 1 1 0 1 1 2 2 2 2 2 2 1 1 1 2 2 3 0 2 4 3 1 1 1 1 2 1 1 1 2 0 0 1 2 2 1 3 1 2 2 1 0 1 1 2 5 2 1 1 1 1 3 0 2 2 0 1 0 1 3 2 0 0 4 0 2 1 1 1 3 0 4 1 2 3 2 2 3 1 1 2 0 2 1 1 0 0 0 1 1 1 2 3 2 0 3 1 1 1 1 2 3 3 1 2 2 1 3 0 4 1 0 4 0 2 2 3 2 1 1 3 1 2 1 2 2 0 1 1 2 3 1 2 0 0 0 1 4 3 1 1 3 3 1 3 2 2 1 2 1 1 2 4 2 1 2 2 1 0 2 3 2 2 2 1 3 2 1 2 2 1 2 2 3 2 2 2 5 3 1 2 2 1 1 2 1 1 0 0 4 1 1 1 1 1 4 1 2 4 0 0 2 1 1 2 2 1 4 1 3 2 0 2 0 1 2 2 2 2 1 2 3 2 2 2 1 2 0 3 1 2 1 0 3 2 1 1 3 1 0 2 1 2 2 3 2 1 2 0 1 2 2 2 2 1 1 2 1 1 1 2 1 1 1 3 5 1 2 0 0 2 2 3 1 1 2 3 1 2 1 1 1 0 2 2 4 2 1 3 2 2 1 1 2 2 1 1 2 2 1 1 0 3 2 1 1 2 1 2 2 1 4 0 4 0 2 3 3 2 3 2 3 2 1 2 0 2 0 0 1 3 2 0 2 2 0 2 0 1 1 1 0 1 2 3 1 4 3 2 0 1 2 3 2 1 1 1 1 2 1 1 0 2 3 1 1 1 3 2 3 3 0 0 1 2 1 1 0 0 1 1 0 2 1 1 1 1 1 2 1 1 1 1 1 1 1 3 3 2 2 1 2 2 1 2 1 3 4 2 2 3 2 1 1 3 0 1 2 2 4 0 2 2 1 2 2 1 3 1 0 1 0 1 2 2 5 1 2 1 2 1 2 0 2 1 1 3 1 1 0 2 1 2 2 2 2 0 2 0 2 1 1 2 3 3 0 1 2 1 1 1 1 1 4 0 1 0 2 1 0 0 1 1 2 1 2 2 2 3 1 2 3 2 0 1 1 1 1 1 1 1 1 1 2 0 3 1 1 3 3 1 2 2 1 1 2 1 1 0 1 3 4 0 1 1 1 0 2 0 1 1 3 3 2 2 2 0 2 2 2 4 2 2 1 1 3 1 2 2 1 1 1 1 2 2 2 1 4 1 0 1 3 1 1 1 2 1 1 1 1 2 2 1 0 2 2 1 5 1 3 1 2 2 1 1 1 1 2 0 3 6 2 2 1 2 3 1 3 5 1 3 4 0 2 0 2 2 1 2 2 2 2 1 2 0 3 0 4 1 4 2 3 1 0 2 2 0 2 2 0 0 2 1 2 1 2 2 1 2 1 1 2 1 2 3 4 2 1 2 1 1 2 2 2 1 3 5 1 3 2 2 0 1 1 3 1 2 3 1 1 2 2 2 3 2 2 0 3 0 2 1 2 2 3 2 1 1 1 2 0 1 3 1 1 2 1 3 1 2 4 2 1 1 2 2 2 0 0 1 3 1 3 0 1 2 3 3 0 1 2 3 0 3 0 1 2 1 3 2 2 3 2 3 1 0 2 0 2 2 2 2 2 2 2 0 0 2 2 0 2 1 2 1 2 0 1 2 2 2 1 2 1 2 1 2 4 3 1 2 1 3 2 3 2 1 2 1 2 2 4 3 4 0 2 1 3 3 3 2 1 3 2 2 0 2 2 3 2 1 2 1 1 1 1 0 2 1 3 3 0 1 1 2 0 1 0 0 1 1 2 0 0 3 0 1 0 3 2 3 1 2 2 2 0 1 3 1 3 1 1 2 0 1 2 0 0 1 2 3 1 0 1 2 2 1 0 1 1 2 0 1 2 2 0 3 2 1 1 3 3 0 3 1 4 3 2 2 4 1 2 1 1 1 0 2 2 2 2 2 0 1 1 1 1 0 0 0 2 1 0 1 2 2 2 1 1 1 1 1 1 0 2 1 1 2 3 2 2 2 1 3 4 2 2 0 1 2 0 1 1 0 2 2 2 2 0 2 2 1 2 1 0 3 0 2 1 2 3 2 1 1 2 2 2 2 0 2 0 0 5 3 0 2 1 2 0 2 0 1 1 1 1 0 3 3 1 1 0 3 1 1 1 0 2 1 3 1 1 2 3 2 1 2 0 0 2 0 2 1 2 3 2 1 0 1 2 1 1 2 0 1 2 1 1 1 3 0 1 2 0 0 2 1 2 3 2 2 0 3 3 0 1 3 2 0 3 2 1 1 1 2 3 2 6 1 2 0 0 1 2 1 3 4 1 2 3 2 0 3 0 0 6 2 2 2 2 1 0 1 0 3 1 0 3 1 0 1 0 2 1 1 1 0 2 2 1 0 3 0 1 3 1 3 0 1 2 2 3 0 2 1 4 2 1 3 2 1 2 1 1 2 1 1 2 2 3 1 1 2 2 3 1 3 1 3 2 2 0 0 2 2 4 0 2 0 1 1 1 2 1 1 4 2 0 2 1 1 0 2 1 2 1 0 3 2 4 1 1 0 2 1 3 2 2 2 1 0 1 2 2 0 2 0 2 2 1 4 0 3 1 2 2 2 1 0 3 0 2 2 3 2 1 1 1 1 0 1 1 1 1 2 1 2 2 2 2 1 2 1 3 2 1 1 2 1 0 1 1 1 2 3 2 3 1 2 3 3 1 3 1 2 1 1 3 3 1 3 1 2 2 1 1 2 2 2 1 0 2 2 2 0 4 0 3 1 0 2 1 0 1 4 1 2 2 2 2 3 2 2 0 0 1 2 2 3 4 4 2 0 1 1 2 4 1 4 1 1 1 2 2 1 2 1 1 0 1 0 1 2 1 1 3 2 2 2 2 2 3 2 0 0 2 3 1 1 1 2 2 1 1 1 3 0 4 2 3 0 1 2 2 0 1 1 1 0 4 2 0 2 3 1 1 4 3 2 1 1 1 2 1 2 0 3 1 2 2 3 2 0 2 1 3 2 1 1 2 3 2 1 2 3 4 1 2 0 1 3 0 0 0 3 2 2 1 0 0 4 2 2 1 0 2 2 3 2 3 1 2 4 1 3 3 1 1 1 5 2 2 0 2 3 2 2 1 2 1 2 2 2 2 2 3 1 1 3 1 1 1 2 0 1 0 2 3 2 2 1 1 1 2 3 3 1 2 2 2 2 0 1 3 0 1 1 1 1 3 1 1 4 0 1 2 2 2 0 1 2 1 0 1 1 1 1 1 1 2 0 1 3 2 2 3 3 2 1 3 0 2 1 3 1 0 1 2 0 1 5 3 0 3 1 3 2 2 3 3 2 2 1 0 1 2 3 2 3 2 3 0 0 0 2 0 0 2 1 3 1 2 3 1 0 0 1 0 1 1 2 2 1 4 0 1 1 1 2 1 1 1 2 2 4 1 2 1 2 1 1 4 1 2 2 3 3 0 1 3 1 2 3 2 1 2 2 2 2 1 0 0 1 1 3 1 4 2 2 1 1 0 0 1 2 3 3 2 1 2 1 2 4 2 2 1 2 2 2 2 2 1 2 0 3 1 1 1 5 0 1 1 1 1 0 4 0 1 1 2 2 4 2 1 1 1 0 3 1 2 1 1 2 1 4 1 2 0 2 1 1 1 1 2 0 1 1 1 2 2 1 1 3 1 1 1 2 3 3 1 4 2 2 1 3 2 2 1 2 2 0 0 2 1 3 2 2 1 1 1 1 0 1 1 2 1 2 1 1 1 2 2 2 0 2 0 2 2 2 1 0 2 2 0 1 3 1 1 0 2 2 3 3 2 2 1 1 1 2 0 0 1 1 2 1 2 1 1 1 0 2 2 2 1 1 3 3 3 4 2 0 1 2 2 0 3 2 1 2 3 1 1 0 2 0 0 1 1 1 0 1 2 2 1 2 1 1 0 3 1 1 3 4 0 2 4 2 0 0 2 2 2 1 4 2 2 3 2 3 1 3 1 2 2 2 3 1 1 1 3 1 1 3 2 1 1 1 0 2 2 3 2 0 2 2 2 1 2 2 2 2 1 1 1 1 0 2 2 3 1 2 2 2 1 3 1 1 3 0 3 0 4 2 2 1 0 1 1 2 1 0 2 2 0 1 2 1 1 1 1 3 2 3 1 1 2 3 0 3 3 1 2 1 2 2 0 1 4 1 1 3 0 0 2 0 0 2 2 3 0 0 0 2 2 3 1 2 0 1 1 0 2 0 0 1 0 1 0 1 1 1 1 1 2 3 2 1 2 4 1 1 1 2 2 1 2 1 0 4 0 2 3 1 2 3 1 3 4 2 3 2 0 0 2 2 2 1 1 1 1 0 2 2 3 4 1 3 3 2 1 1 2 1 3 3 1 2 2 2 1 1 1 1 1 1 1 2 2 0 3 0 2 1 2 2 2 1 0 2 1 0 1 1 1 1 0 1 2 1 2 0 1 1 1 2 1 1 1 1 0 1 2 0 3 3 1 0 0 1 3 1 2 2 2 1 2 1 2 1 2 1 3 1 1 0 1 3 1 3 1 2 1 4 1 3 1 1 1 0 2 2 2 0 1 1 2 2 0 2 1 2 1 1 2 2 1 2 0 1 0 0 3 2 2 2 0 2 1 2 2 1 1 1 1 1 0 1 1 1 0 0 2 0 1 1 3 2 2 1 5 2 0 3 1 1 1 1 1 0 0 3 0 0 0 1 2 2 0 2 0 1 0 2 2 1 2 0 4 3 2 0 2 2 0 2 1 0 2 2 2 0 3 1 0 2 2 0 1 1 4 0 0 2 1 1 0 3 0 2 3 2 2 2 0 2 1 1 3 1 3 0 1 0 2 0 1 1 2 3 2 2 1 3 0 0 1 0 1 0 2 1 2 1 1 0 1 1 4 3 1 1 1 0 1 3 0 1 0 2 1 2 1 0 2 1 1 1 2 2 2 0 2 0 1 3 0 2 2 2 3 0 2 1 3 2 2 1 1 1 1 2 1 1 1 2 0 2 1 2 1 1 0 2 2 1 2 1 1 2 0 2 1 4 2 2 1 1 1 1 3 1 0 1 0 2 1 2 0 1 0 3 0 1 1 2 2 3 0 2 1 2 2 2 2 1 1 2 2 0 3 3 2 1 1 1 2 1 0 2 2 1 0 2 1 0 1 3 1 1 1 3 2 1 2 1 1 2 2 0 2 3 1 1 3 1 1 0 1 2 1 1 3 0 2 2 1 2 1 0 1 3 2 2 1 2 1 0 2 1 3 1 0 3 2 3 2 1 1 3 2 2 3 2 0 3 1 3 2 3 1 2 2 3 1 0 3 0 2 2 2 2 0 1 2 1 2 1 2 4 1 0 1 2 2 1 2 1 2 2 1 3 3 1 0 2 2 2 1 1 2 1 1 0 4 3 2 2 1 2 4 2 2 0 2 3 1 3 4 1 2 0 1 3 2 2 2 0 0 2 1 1 1 1 2 3 1 2 3 0 2 0 0 2 2 1 1 2 0 1 3 1 2 2 2 3 1 2 0 1 0 3 2 1 4 1 6 1 3 0 0 0 1 1 3 3 2 2 1 2 2 1 2 2 0 1 2 0 0 1 2 1 0 1 2 3 1 0 1 1 2 2 2 1 2 1 2 1 1 2 3 2 2 2 1 2 2 1 4 2 1 1 3 1 0 2 0 2 2 0 1 3 2 1 3 3 1 2 2 2 2 1 2 0 3 2 1 3 2 3 5 1 3 2 4 3 1 2 3 1 1 3 1 1 2 2 2 1 1 3 1 1 3 1 2 0 1 2 2 0 1 2 0 2 1 3 1 3 1 3 2 1 1 2 3 3 3 1 1 3 0 2 0 1 1 1 1 1 1 2 2 1 1 2 2 2 2 1 2 2 3 2 2 1 1 1 2 2 4 2 0 0 2 1 1 0 2 3 0 0 2 1 0 1 1 0 1 1 4 2 1 1 1 0 3 1 2 1 1 4 1 1 1 2 1 2 2 0 1 3 1 2 1 2 2 2 2 1 1 2 2 1 2 1 4 3 0 1 1 1 1 0 2 2 2 1 3 2 1 3 2 2 1 0 3 0 1 1 1 3 1 2 2 2 2 0 2 2 2 2 1 1 3 1 2 1 2 0 4 1 1 0 1 3 2 2 1 1 1 2 0 1 0 2 2 0 1 1 1 1 2 0 2 2 0 1 3 2 1 1 0 0 2 2 1 3 3 0 2 1 6 2 3 1 1 1 2 1 4 1 1 1 2 1 1 2 1 1 2 2 1 1 5 1 2 2 1 3 2 0 1 1 2 0 3 2 3 2 1 2 3 1 1 4 1 1 1 0 2 3 2 3 1 2 4 1 3 2 1 1 1 1 3 3 2 3 1 2 1 1 1 3 1 2 2 1 2 4 0 2 0 2 2 2 1 1 0 2 3 1 2 2 0 3 1 2 1 3 2 2 3 2 0 0 0 3 3 1 5 1 0 1 0 0 2 3 2 2 2 0 3 2 2 0 0 1 2 4 1 1 2 2 2 2 1 1 1 0 1 3 0 4 3 0 0 2 4 1 1 0 1 2 2 0 2 1 2 3 0 3 1 1 1 1 2 0 1 2 0 0 3 1 0 3 0 2 2 2 2 3 2 1 3 1 1 2 1 2 0 2 2 0 0 2 0 0 2 0 1 2 1 1 1 0 3 2 2 0 2 1 1 3 2 1 4 1 1 1 1 3 1 0 4 1 2 0 3 1 1 0 2 3 1 4 1 2 1 0 1 2 3 1 2 2 1 0 0 3 0 1 2 3 1 1 1 1 1 1 1 0 0 2 1 3 1 1 1 0 2 1 3 0 2 0 2 1 1 2 1 3 1 2 3 1 3 1 1 2 3 2 2 1 2 2 2 3 2 1 1 1 2 1 3 2 3 2 1 5 1 3 2 1 2 2 2 2 3 3 1 2 0 1 0 3 2 1 2 1 1 3 2 3 1 3 1 1 1 0 1 2 3 1 1 1 2 1 2 2 1 2 2 0 1 0 4 3 1 2 3 2 3 1 1 1 1 1 1 1 4 3 2 4 4 1 4 1 2 2 0 0 1 2 2 3 0 3 2 1 2 2 2 4 1 2 0 1 2 0 2 2 0 0 3 2 2 3 3 1 0 1 1 1 1 1 1 1 2 3 4 2 3 1 1 1 2 3 1 2 1 2 2 1 2 3 1 4 1 1 1 2 1 2 2 1 3 2 4 1 1 5 3 1 1 3 0 2 1 1 3 3 3 2 2 2 1 3 0 1 1 1 3 1 0 0 0 1 1 1 2 1 1 1 2 0 2 3 2 3 2 2 1 1 2 3 1 2 1 1 2 2 3 1 2 3 1 1 0 2 2 2 1 3 1 3 1 2 1 1 3 0 2 2 0 2 0 1 0 0 3 3 1 1 2 1 3 2 2 1 1 2 0 3 2 3 0 2 1 1 2 2 2 2 2 1 2 3 2 2 2 1 2 1 0 2 0 2 1 1 0 0 0 3 3 1 0 1 2 3 0 5 1 0 1 2 1 1 0 2 0 2 2 1 3 1 1 2 2 0 2 1 1 1 2 4 2 3 2 3 2 2 2 1 2 0 2 2 1 1 2 3 3 1 3 0 2 1 1 2 4 1 1 0 2 4 1 1 1 3 2 1 0 1 1 2 0 1 1 2 1 4 1 0 1 2 2 2 4 1 1 1 0 1 0 1 1 2 1 2 2 2 0 4 2 3 2 2 1 0 1 0 2 3 4 0 1 5 3 1 2 0 1 2 2 2 0 3 2 2 1 0 3 2 1 2 2 3 2 1 2 3 2 2 3 1 2 3 1 2 2 2 3 1 1 2 1 2 5 0 1 3 3 1 0 2 2 1 1 1 2 1 2 2 0 2 2 1 1 6 2 1 2 0 1 2 2 3 3 2 0 1 2 0 0 1 2 1 1 1 1 2 2 3 2 3 1 2 1 1 1 2 1 2 2 2 2 3 2 2 0 1 1 2 1 1 2 0 1 1 3 2 2 3 1 0 4 2 1 0 0 2 3 1 1 1 0 2 1 3 1 3 1 0 2 1 1 2 3 3 2 3 0 0 1 1 1 1 2 2 1 3 0 1 1 1 2 0 2 1 4 2 0 3 1 3 2 0 2 2 1 1 0 1 0 1 1 1 3 2 1 1 2 1 1 2 3 2 2 1 3 1 1 1 5 0 2 2 1 0 1 1 2 1 3 2 1 1 0 2 1 2 0 2 2 3 2 2 2 0 3 3 1 4 1 3 1 0 3 0 1 1 2 2 1 2 0 1 0 2 1 2 2 3 5 1 1 3 1 3 3 2 1 0 0 2 2 2 5 1 2 3 3 1 2 1 0 1 0 1 0 1 0 1 3 1 1 2 1 0 1 1 2 2 0 1 2 1 2 2 2 1 2 1 0 3 2 3 2 2 1 1 2 2 1 1 3 0 1 2 1 2 0 0 3 0 1 1 1 2 0 0 2 1 2 0 0 2 1 0 2 1 0 2 3 1 0 1 2 2 1 3 4 1 4 3 2 2 1 1 0 1 2 0 0 2 1 2 0 2 2 1 0 2 3 2 1 1 2 2 1 1 3 0 2 0 3 1 1 0 1 3 1 3 2 4 2 2 2 1 0 2 2 0 1 3 2 0 3 1 3 2 4 1 2 1 0 1 0 2 2 1 1 3 0 2 3 2 1 1 2 2 1 1 2 2 2 2 1 1 1 0 1 1 0 1 0 1 1 2 3 2 1 1 2 3 1 3 0 2 4 3 1 1 1 1 1 0 2 1 2 1 1 1 4 3 4 0 0 2 0 1 1 3 1 2 1 2 2 2 0 1 3 2 1 0 1 3 0 2 2 1 1 2 1 2 2 4 0 0 2 1 4 0 1 3 2 4 2 2 0 1 2 2 3 0 2 3 2 1 2 1 0 2 2 3 0 1 1 1 5 2 1 1 3 1 2 2 2 0 1 2 1 3 1 1 4 2 1 0 4 2 3 3 2 0 0 2 2 1 3 0 1 3 2 1 3 2 1 3 1 0 1 1 1 1 0 2 1 2 1 0 0 3 1 2 3 1 1 2 0 1 1 2 2 2 0 2 0 4 3 0 3 3 3 1 2 0 1 1 2 1 1 4 0 1 1 0 2 2 1 2 4 1 1 3 0 1 3 2 2 1 2 2 0 1 3 1 1 2 0 2 1 0 2 3 2 2 1 2 3 3 1 2 2 3 2 4 1 3 1 3 2 1 2 2 0 1 1 0 2 3 2 0 3 1 0 2 1 2 1 2 1 4 1 0 4 3 2 1 1 1 2 2 3 3 2 2 0 2 0 3 2 2 1 2 2 0 5 1 1 2 1 2 2 2 2 2 4 3 3 0 1 2 2 1 1 2 0 1 3 1 2 3 1 2 0 3 0 0 3 1 0 0 0 2 1 3 3 1 1 1 1 1 2 1 1 1 2 2 0 2 3 0 1 1 2 1 2 1 2 2 1 1 1 3 1 1 0 1 4 2 1 4 2 0 4 1 2 2 3 0 1 1 2 0 1 1 0 2 1 2 2 5 3 1 2 2 1 0 3 2 2 2 1 1 1 2 1 0 2 1 2 0 0 3 2 3 1 0 1 1 2 2 0 2 1 1 2 2 3 1 1 1 2 1 1 2 1 1 1 0 4 1 2 1 0 3 1 1 1 1 2 0 1 0 2 1 1 2 2 4 1 0 2 2 2 1 1 0 3 1 2 4 2 2 0 1 2 2 3 2 0 2 0 2 2 2 0 1 1 1 2 0 1 1 1 2 0 1 0 2 3 2 1 2 2 1 1 1 2 2 2 3 1 2 4 0 0 1 2 2 1 3 1 0 2 2 3 0 0 1 1 2 1 2 4 2 1 1 1 3 0 1 2 1 1 3 1 1 2 2 0 0 2 1 1 2 2 0 2 2 2 3 0 1 2 1 0 0 2 1 2 3 2 4 1 3 1 3 3 2 1 2 3 0 1 1 1 2 0 1 4 2 2 0 0 2 0 2 2 2 2 1 2 2 2 1 2 1 3 1 2 1 0 2 1 0 2 3 0 2 1 4 0 2 0 4 1 2 2 1 0 1 1 0 2 0 1 1 1 1 2 2 0 1 1 2 1 3 3 1 0 1 3 0 2 1 2 1 0 2 2 2 1 2 1 2 2 0 1 1 2 2 2 0 0 0 2 2 0 2 2 2 2 1 1 1 2 3 2 1 3 1 1 1 1 1 3 4 1 1 0 1 0 1 0 2 2 1 2 1 3 2 1 1 1 4 2 1 0 2 2 1 4 1 2 1 1 1 3 2 3 3 1 2 2 1 3 1 4 3 3 1 3 4 2 2 2 0 2 2 1 1 1 1 3 1 1 2 1 2 2 3 1 1 2 0 2 1 2 0 2 2 2 1 1 0 3 1 0 3 3 2 2 1 3 2 2 2 1 1 2 3 1 1 0 1 2 2 0 2 3 1 1 2 2 3 0 0 1 2 2 1 1 1 1 2 1 2 1 3 0 0 1 0 0 4 0 1 1 1 1 2 1 0 0 0 1 0 1 2 2 1 2 1 2 1 1 1 0 1 0 1 3 1 0 2 1 1 1 2 2 0 1 1 1 3 1 2 2 0 3 1 2 1 3 3 1 0 3 1 4 2 0 1 2 0 2 0 1 2 4 3 0 2 1 3 2 3 1 3 1 1 1 1 1 1 2 2 2 0 2 1 1 2 0 2 2 3 1 3 1 1 1 1 1 1 2 1 4 2 0 2 1 0 1 1 0 2 0 1 1 1 1 2 2 2 2 0 1 3 2 1 0 0 1 1 0 3 1 1 2 1 4 3 2 2 2 2 2 1 0 1 1 2 1 2 2 1 0 2 2 1 1 1 0 2 2 0 1 0 1 1 2 5 2 1 0 1 3 2 3 0 1 1 1 0 1 2 2 4 1 1 4 3 1 1 1 1 5 0 1 0 3 3 2 0 0 1 2 3 3 2 2 1 0 1 0 1 0 0 1 2 1 0 0 1 2 2 3 3 3 4 2 0 1 1 2 2 2 1 3 1 4 2 0 3 0 2 1 2 1 2 2 2 0 2 2 2 2 4 2 1 0 1 1 1 3 1 2 2 2 0 3 2 5 2 3 3 1 1 3 3 1 1 2 3 2 1 1 3 1 3 2 2 2 2 2 1 1 2 3 3 2 1 1 2 2 1 1 4 1 3 2 1 2 2 0 0 0 0 0 1 1 1 0 3 2 1 2 2 0 1 0 0 1 3 1 1 2 0 2 1 1 2 3 1 1 2 1 3 2 1 3 1 2 2 1 3 1 0 1 0 2 1 2 1 3 1 1 2 2 2 0 2 3 3 3 0 2 2 4 2 0 1 2 0 2 3 2 2 0 4 2 1 1 3 1 2 0 1 0 3 4 1 1 1 0 2 2 4 0 1 4 0 0 2 3 0 1 3 3 0 3 2 1 2 1 2 1 1 3 1 0 2 1 2 3 2 2 0 1 2 0 2 1 1 2 2 2 2 2 2 1 2 0 2 1 2 2 3 2 2 2 0 1 1 1 0 1 1 2 2 0 2 1 2 2 2 1 1 2 0 2 3 0 3 2 2 3 3 2 2 1 3 1 3 3 0 1 2 1 1 3 1 1 3 1 2 0 3 2 2 1 2 1 3 1 4 3 3 2 1 2 0 1 2 1 0 3 2 2 3 2 2 1 1 2 1 1 0 3 0 2 3 3 0 1 1 3 3 0 1 1 2 1 2 2 1 2 1 1 1 1 2 2 1 1 2 1 1 2 3 2 1 2 1 2 3 2 2 2 1 0 3 2 1 2 1 1 4 0 0 1 1 1 1 2 0 3 0 1 1 2 0 0 3 1 2 2 4 1 3 5 1 1 2 1 2 3 1 2 1 1 4 3 0 1 0 2 0 2 0 1 1 0 2 2 3 3 0 0 4 4 1 1 2 1 2 0 2 1 3 2 1 3 0 4 2 2 1 1 1 2 1 2 1 2 1 1 3 1 1 2 2 5 2 2 2 0 1 4 1 2 1 2 0 1 2 1 0 0 1 1 0 1 3 2 1 1 4 0 2 1 0 1 3 2 1 2 2 1 0 4 0 0 3 0 4 0 2 1 2 3 2 1 1 1 1 2 1 0 1 2 2 3 0 2 2 2 1 1 2 3 0 1 1 2 2 3 1 5 2 3 0 2 1 2 1 0 1 1 0 0 0 4 1 0 2 2 1 0 1 0 0 2 1 1 1 2 0 3 1 1 1 1 2 2 2 1 3 3 3 1 0 2 0 1 2 2 2 0 3 2 3 1 2 0 2 1 2 2 1 2 1 3 1 2 0 2 1 2 2 2 1 3 1 0 1 1 2 1 1 1 2 1 2 1 3 2 1 0 4 1 1 4 2 3 2 3 1 2 2 1 1 1 2 2 2 1 1 1 1 1 1 1 1 1 0 2 3 1 0 1 1 1 1 1 0 1 2 2 1 4 0 2 3 0 1 2 1 3 1 2 1 1 0 0 1 0 0 3 1 1 2 1 2 4 1 3 0 0 1 3 1 3 3 2 1 2 3 2 1 2 2 0 2 2 4 2 3 3 2 3 1 0 1 2 1 4 3 3 2 2 2 1 2 2 1 1 3 2 1 0 2 1 1 2 2 4 1 1 0 0 3 0 2 1 0 2 1 2 3 1 4 1 2 2 2 1 1 0 1 2 2 1 3 1 0 1 2 3 2 1 1 4 3 1 3 1 2 3 0 3 0 3 0 2 2 0 1 1 2 2 3 0 2 1 1 3 2 3 2 1 2 4 3 0 2 0 2 1 1 2 1 1 0 2 0 0 1 1 1 3 0 0 2 2 1 2 3 1 1 3 1 4 4 1 0 0 1 2 0 2 2 2 1 2 1 1 1 4 1 1 0 3 2 2 0 2 2 1 2 0 2 2 2 3 1 2 2 4 0 0 2 2 1 3 2 2 2 3 2 1 1 0 0 1 2 0 1 3 1 2 1 2 1 1 2 3 1 1 0 1 1 1 1 4 1 0 0 3 1 1 0 1 0 1 3 1 1 3 0 2 1 2 1 0 0 2 1 2 5 2 1 1 3 2 0 1 0 1 0 2 1 1 3 1 3 2 1 2 1 2 0 2 1 2 0 2 2 1 3 1 1 3 1 2 1 1 0 1 2 1 2 2 2 2 2 2 1 1 2 1 2 2 1 4 2 2 4 0 2 2 2 1 1 1 0 2 2 2 1 1 0 2 1 1 2 0 1 1 3 3 0 2 2 0 3 1 1 2 1 1 3 1 3 2 2 1 1 1 2 2 1 1 2 0 1 1 2 3 2 1 3 0 1 2 1 2 2 3 0 1 2 0 2 2 5 2 1 3 1 1 2 3 2 3 1 2 4 1 3 1 0 2 1 2 1 2 1 3 4 4 1 1 1 2 2 0 3 1 0 2 1 1 2 1 1 2 2 1 1 2 1 1 1 1 2 2 1 2 4 0 2 1 2 1 2 1 3 3 1 1 1 2 2 1 1 4 0 1 2 1 2 2 0 2 2 2 3 2 1 1 0 3 2 4 0 2 2 1 2 3 1 1 0 3 1 1 0 1 0 1 2 3 2 1 2 2 3 3 3 1 1 1 2 4 2 1 2 1 4 1 0 2 1 0 1 2 2 0 1 0 1 0 4 2 1 2 3 1 2 2 0 2 1 4 2 0 1 2 1 0 2 0 1 2 2 1 2 3 2 1 1 2 3 1 2 2 2 3 1 1 1 2 1 0 1 0 3 0 1 0 1 1 0 2 1 1 2 2 3 0 0 1 1 2 3 2 3 1 1 0 1 2 0 1 2 1 2 0 0 0 1 1 3 2 3 2 2 1 0 2 1 0 1 1 2 2 3 1 2 3 0 1 0 1 3 0 2 0 1 1 2 2 2 0 3 1 1 0 1 2 1 0 1 2 3 0 2 1 1 1 1 1 0 1 1 1 1 2 3 2 1 0 5 2 1 1 1 1 1 2 1 1 0 2 3 1 3 2 1 1 1 0 2 2 1 1 2 1 2 2 2 3 0 2 1 2 2 2 1 2 1 1 2 0 2 1 1 1 2 1 1 1 1 0 2 0 0 2 3 2 0 0 3 1 1 5 1 2 1 1 2 1 2 2 3 2 3 2 1 3 0 2 1 1 0 0 2 3 1 2 1 0 4 1 2 1 4 1 1 1 1 1 1 0 0 2 1 2 3 1 2 0 0 1 2 1 2 1 2 3 1 3 1 0 0 1 1 1 1 1 2 1 2 1 2 3 1 1 0 1 2 2 3 3 1 0 1 1 0 4 2 1 3 2 1 2 3 1 0 1 2 1 3 1 3 0 2 2 3 4 1 0 0 1 2 2 1 1 3 1 2 0 0 3 1 2 2 1 1 2 3 3 2 2 1 1 1 3 1 3 1 4 1 0 1 0 2 2 1 1 1 2 1 1 2 2 3 1 2 2 1 1 1 2 3 0 3 1 2 0 1 2 2 0 2 1 2 4 2 2 1 3 3 3 1 2 2 1 2 2 3 1 1 1 0 1 1 1 1 1 0 1 1 2 4 0 0 1 0 1 2 1 2 1 3 4 1 2 1 2 2 2 3 0 3 4 1 0 2 2 0 3 1 1 1 0 0 1 1 1 2 1 0 3 3 2 1 2 0 3 0 0 2 0 1 2 3 0 0 2 4 0 1 1 4 0 2 1 1 1 0 0 1 2 2 2 0 0 4 1 3 2 1 1 1 2 2 0 0 1 3 1 2 1 0 0 2 1 2 2 4 1 2 3 4 1 4 4 1 1 5 2 3 0 1 1 1 0 1 1 2 3 1 2 5 2 1 1 0 2 0 2 1 2 2 2 2 1 1 2 1 2 2 1 1 1 3 0 2 0 2 3 0 2 2 1 3 1 3 1 0 3 1 1 2 1 2 1 2 4 2 0 4 2 4 3 1 4 0 0 1 1 2 1 2 1 3 1 2 1 2 4 2 2 1 1 2 1 0 1 2 1 0 2 2 0 0 1 1 1 2 1 1 1 4 2 2 2 2 1 3 0 3 1 0 2 1 2 1 1 3 3 1 3 0 1 0 2 2 2 4 3 0 1 1 2 1 3 2 1 1 1 2 2 1 2 2 0 3 2 1 1 0 2 1 0 2 3 1 1 2 2 1 2 2 3 3 3 2 0 2 2 1 3 0 4 0 2 1 0 2 3 2 1 1 1 1 2 1 0 2 2 0 1 3 3 2 1 3 1 1 3 1 0 0 2 3 1 0 0 2 1 2 0 1 3 1 4 2 1 1 1 1 4 2 1 2 1 3 3 1 0 1 0 1 2 1 2 3 3 2 0 2 0 2 2 2 2 0 1 0 3 1 2 1 2 2 3 1 1 1 3 2 2 3 0 2 4 1 2 3 1 1 2 3 1 0 2 1 2 3 1 2 1 2 1 0 1 1 3 2 1 3 0 3 1 1 0 1 1 2 1 2 0 0 0 2 2 2 0 2 0 2 1 2 2 2 1 2 2 3 2 2 2 4 1 2 2 0 1 3 2 3 2 2 1 0 3 1 2 2 2 2 3 1 1 2 2 3 2 3 4 1 0 1 2 5 0 2 2 1 1 1 2 1 1 3 3 2 1 1 2 3 4 1 3 0 3 3 1 1 2 2 2 2 1 5 1 3 3 0 1 1 0 2 0 5 2 2 1 1 2 1 2 2 3 2 3 2 3 2 1 2 0 1 4 1 1 2 3 2 2 4 3 4 1 1 4 2 1 1 3 2 1 2 2 2 0 2 2 1 2 1 1 1 0 1 2 2 2 1 0 0 2 1 0 0 1 1 0 3 2 1 1 1 2 2 3 2 2 1 2 2 1 1 1 0 2 1 1 1 1 0 2 2 1 0 0 2 1 0 2 2 1 1 1 2 3 2 2 2 2 0 1 1 2 2 3 2 3 1 1 0 2 1 1 1 1 3 2 3 1 2 2 3 0 3 3 1 0 0 2 1 1 1 1 1 2 1 1 4 4 1 1 1 2 1 2 3 3 2 2 0 1 2 2 2 1 2 1 1 1 0 2 1 4 2 2 2 1 1 1 1 0 2 2 1 3 3 1 0 2 1 2 4 2 1 2 1 0 0 2 2 1 5 1 2 0 1 1 3 1 1 1 1 0 2 3 3 2 0 1 0 2 1 0 3 3 2 2 2 2 1 1 1 2 0 3 2 0 0 2 1 3 0 1 2 2 2 3 2 3 2 0 1 1 4 1 1 3 0 3 3 2 3 1 2 2 3 2 1 1 1 4 2 2 0 2 1 1 1 2 2 2 1 1 3 0 0 3 1 2 2 4 3 1 0 1 1 1 1 1 1 1 1 1 2 1 1 0 3 0 2 3 0 2 2 1 5 2 1 0 2 1 1 1 3 1 2 1 0 1 1 1 0 1 1 2 4 2 1 0 1 2 4 1 3 1 3 2 3 3 4 1 1 0 3 2 2 1 1 1 1 1 2 0 3 2 0 2 2 0 1 1 1 2 1 2 1 3 0 2 2 1 2 1 2 2 2 4 1 1 3 0 2 2 0 4 1 1 1 2 0 1 1 3 2 2 2 0 2 2 1 0 1 1 2 1 2 3 2 2 0 1 0 2 3 1 1 2 2 3 2 0 1 2 0 2 1 1 2 2 1 1 1 1 0 2 1 2 0 2 2 2 2 2 1 4 2 1 2 1 2 1 3 0 2 2 0 2 2 4 3 2 1 3 0 3 2 1 2 2 1 2 1 2 1 1 3 1 0 0 2 1 2 3 1 3 1 1 2 1 1 0 1 1 2 2 2 0 2 1 4 0 1 1 2 1 2 1 1 0 1 2 3 2 2 1 3 1 2 2 2 1 1 1 2 1 1 1 1 1 1 1 0 0 2 0 2 2 0 1 0 2 0 4 1 1 0 0 0 2 1 2 1 0 1 2 2 2 2 2 1 2 2 0 3 1 1 2 2 2 2 1 0 3 3 0 2 1 1 3 2 0 0 1 1 2 2 3 2 4 0 3 1 1 3 0 2 2 2 0 2 1 2 3 1 3 3 0 1 2 2 2 2 2 3 0 2 0 2 4 0 2 3 1 1 1 3 1 0 2 4 2 2 1 1 2 2 3 1 1 1 3 3 2 2 2 1 3 0 4 1 1 1 2 0 3 1 0 3 2 1 1 1 1 2 1 0 1 3 4 3 2 1 1 0 2 0 1 0 2 2 0 1 1 2 2 1 1 3 0 1 1 3 3 3 2 1 2 1 2 2 1 1 1 2 1 1 2 0 4 0 1 1 1 3 2 1 2 0 0 0 3 2 2 2 0 1 1 0 0 0 2 1 2 3 3 1 2 0 1 2 1 0 3 2 1 0 1 2 2 1 3 4 2 1 1 0 1 2 2 2 1 0 0 1 2 1 2 2 1 4 3 2 0 2 1 1 2 0 0 1 1 1 2 3 1 2 2 2 2 1 1 2 1 2 2 2 1 0 1 3 0 3 1 2 2 1 2 1 1 0 1 2 2 2 1 2 0 1 0 0 2 2 2 1 1 0 1 0 1 1 1 1 2 2 2 1 1 3 1 1 2 1 2 0 2 1 0 0 0 4 2 2 2 3 2 2 3 1 1 2 2 1 2 4 3 3 0 1 1 2 1 1 2 1 0 2 0 3 0 1 1 1 2 1 1 0 1 1 3 1 2 5 1 2 1 1 3 2 1 1 1 2 2 0 3 1 2 1 1 1 1 1 2 0 4 1 2 2 2 4 2 2 1 3 3 1 1 1 0 1 3 0 2 1 5 2 1 3 0 2 0 2 1 1 2 1 2 1 1 3 2 2 1 1 1 0 2 2 1 3 2 0 5 1 2 2 1 1 0 1 3 2 2 2 3 2 2 0 2 1 2 2 1 1 3 2 1 2 3 2 0 1 2 1 2 1 3 4 1 0 2 1 1 1 3 1 2 2 3 1 1 1 1 3 1 2 2 1 1 1 2 1 1 2 0 2 1 0 1 2 2 1 2 0 1 3 0 2 1 3 1 0 2 3 0 2 1 4 1 2 3 0 1 0 1 1 2 2 1 2 2 1 3 0 3 2 2 1 2 3 2 0 1 3 2 3 0 2 2 1 2 1 0 1 2 2 2 1 2 1 4 1 0 0 0 2 1 2 0 2 1 1 2 0 1 3 1 1 1 1 0 2 0 1 0 2 0 2 2 0 2 1 1 1 0 1 3 0 2 0 2 1 2 1 3 0 2 1 2 4 3 1 2 1 3 1 1 2 1 0 2 3 2 0 1 2 0 3 0 1 2 2 0 3 2 0 0 2 2 1 1 0 0 2 1 2 0 0 2 1 0 1 0 1 2 1 0 2 0 2 1 4 1 2 2 2 0 1 1 4 2 1 2 0 4 0 0 3 1 2 1 2 1 1 1 1 0 3 1 0 3 2 4 3 1 0 1 2 2 2 2 2 3 4 3 1 0 3 3 0 2 3 1 2 1 1 3 0 0 4 1 2 1 0 3 3 3 2 1 0 1 1 1 2 2 2 1 2 0 2 1 1 2 2 1 2 1 1 3 1 2 2 0 1 2 1 2 2 3 3 2 2 3 3 0 0 3 2 0 1 2 1 2 1 1 2 2 3 2 1 0 1 1 1 1 3 0 0 1 2 1 2 1 2 5 2 0 4 0 2 2 3 3 3 2 2 1 2 1 1 2 3 0 2 0 4 2 1 2 3 1 0 0 3 2 1 2 2 2 1 0 2 3 1 2 2 1 3 0 2 3 3 3 1 2 2 1 1 2 1 1 0 2 0 2 2 2 3 2 1 2 1 1 2 1 2 0 2 0 1 1 0 1 2 1 1 2 2 2 2 2 3 1 1 2 1 2 2 2 2 0 1 0 2 0 1 1 3 2 1 1 1 2 0 2 1 1 0 1 1 0 0 1 1 3 2 2 2 4 0 2 1 0 1 2 3 1 1 1 0 0 4 1 1 2 1 1 1 3 0 4 2 2 2 3 1 0 1 2 2 2 1 1 0 0 0 1 1 1 0 4 1 2 2 1 2 2 1 1 2 1 1 2 1 2 4 4 2 1 2 2 1 1 1 2 2 3 4 0 0 0 2 2 1 1 1 2 2 1 0 0 2 3 2 2 2 2 1 1 2 1 1 1 2 1 4 1 0 1 1 2 5 2 2 2 4 1 0 0 2 1 2 0 1 3 2 4 1 1 3 0 2 1 0 2 1 1 0 5 2 0 3 2 1 2 2 1 2 2 1 2 3 2 2 0 4 2 0 0 1 1 2 1 1 1 1 2 2 1 2 2 0 1 3 3 2 3 1 1 2 2 0 0 3 0 2 3 2 1 1 2 2 2 1 2 1 4 1 1 1 2 4 2 1 0 1 3 2 0 1 1 3 0 1 3 2 0 1 1 3 2 1 0 3 4 2 2 2 1 0 1 3 0 0 2 2 3 1 0 2 2 2 1 1 2 2 0 2 2 0 3 1 1 1 0 0 3 2 1 2 1 1 3 1 1 1 2 3 1 3 0 1 2 3 2 3 1 2 1 1 1 2 1 1 0 1 2 1 4 0 1 1 2 2 0 1 1 0 2 4 1 1 1 1 1 1 1 0 0 1 1 1 1 1 3 2 4 0 1 1 2 1 1 0 1 2 0 2 3 1 2 2 1 2 0 1 1 2 3 2 1 0 1 4 3 2 2 2 3 3 1 1 1 0 1 1 2 1 4 2 2 3 2 2 1 1 2 3 2 4 0 1 0 1 4 1 2 2 3 1 3 1 1 0 1 2 1 1 1 1 0 2 2 4 1 1 3 2 0 4 1 2 0 1 3 2 2 2 3 1 2 1 1 0 1 0 1 2 1 4 3 2 1 1 2 2 4 1 1 0 0 0 2 1 2 4 0 3 1 2 1 1 1 2 1 1 1 1 2 1 1 2 2 2 0 3 0 2 3 2 2 0 1 3 1 1 3 1 2 2 2 2 1 1 2 3 2 2 1 1 2 2 0 2 0 3 1 2 2 2 1 2 4 0 1 1 3 1 2 1 2 4 3 2 4 2 1 4 0 2 2 3 2 1 1 0 2 1 2 2 3 2 1 3 3 1 2 1 2 0 0 2 1 2 1 1 4 2 1 0 2 4 1 2 2 1 3 2 1 2 2 3 1 1 3 1 1 2 2 1 1 2 1 1 0 0 3 0 2 1 0 2 1 1 2 2 1 1 0 2 2 1 4 2 0 3 3 2 1 2 1 1 3 2 2 0 3 3 1 2 1 3 0 2 0 1 2 3 1 3 1 3 1 2 2 0 1 4 2 2 0 3 1 2 3 1 1 1 2 1 1 1 2 2 3 2 0 2 1 3 3 2 2 3 0 3 2 2 1 2 3 1 2 2 1 2 1 2 2 2 2 2 0 2 1 1 1 3 1 1 3 2 3 2 1 0 3 1 3 2 1 2 1 0 2 2 2 1 2 2 0 1 1 2 1 1 1 3 1 2 4 1 2 2 2 3 2 1 3 2 1 2 2 1 2 3 1 2 1 3 1 1 1 2 1 2 2 1 3 1 2 1 2 0 3 2 3 0 2 1 1 2 1 1 2 0 3 2 4 2 1 0 2 2 0 4 1 2 3 2 3 4 2 2 2 2 1 0 3 1 1 2 1 2 1 1 1 1 1 2 1 2 1 3 1 2 0 2 3 2 1 1 2 3 3 3 2 0 2 0 2 1 2 2 3 2 1 1 3 2 0 1 2 1 3 1 0 1 5 2 2 1 1 0 1 1 5 1 0 1 1 2 2 2 2 2 1 2 2 2 2 2 1 1 3 2 1 2 1 1 1 0 0 0 1 0 3 2 2 1 1 1 0 0 2 1 2 2 0 0 3 2 0 1 1 1 3 2 0 1 0 1 2 1 1 2 2 3 4 0 0 1 1 1 2 1 1 2 0 2 1 1 2 3 2 0 3 2 2 3 0 1 1 2 1 0 0 1 1 2 4 1 2 2 0 1 0 4 1 2 0 1 1 0 0 2 1 0 1 0 3 2 3 2 4 1 0 0 1 1 4 2 3 2 1 3 2 2 3 0 1 2 1 2 3 2 1 2 2 2 1 1 0 1 1 2 1 1 1 2 1 2 2 1 2 2 1 1 3 1 0 2 1 1 1 3 2 0 2 3 1 0 3 3 0 1 1 4 2 2 3 3 1 2 2 4 1 2 1 3 2 4 0 1 2 2 2 2 2 3 1 2 1 1 3 3 0 0 2 5 2 0 2 2 2 1 1 1 0</t>
-  </si>
-  <si>
-    <t>GAM(0.2757790889890569, -2.351092670741202e-29, 0.7815481740866008)</t>
-  </si>
-  <si>
-    <t>0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 2 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 2 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 2 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 3 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 2 1 0 0 0 3 1 0 1 0 0 0 1 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 2 1 0 1 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 2 0 0 0 1 1 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 3 0 1 1 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 2 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 2 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 2 1 1 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 1 0 2 0 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 1 0 0 3 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 3 1 1 0 0 3 0 0 0 0 0 0 0 1 0 0 2 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 2 0 2 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 1 2 2 1 0 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 2 1 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 2 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 3 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 3 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 2 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 1 1 0 4 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 2 1 1 0 1 2 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 2 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 2 0 0 1 0 0 0 0 0 1 1 3 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 2 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 3 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 2 0 0 2 0 2 0 0 0 2 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 2 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 1 1 1 0 0 0 0 2 2 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 1 1 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 2 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 1 0 1 0 0 1 0 2 1 0 0 0 0 1 0 1 1 1 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 2 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 2 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 1 1 3 1 1 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 2 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 1 1 2 0 2 1 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 2 0 1 0 0 1 0 0 3 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 3 1 0 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 2 1 0 0 0 0 1 0 0 0 1 1 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 2 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 1 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 1 1 1 0 0 1 0 0 0 0 0 2 0 0 1 0 2 0 0 0 1 2 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 1 0 0 0 1 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 2 0 1 2 0 0 0 1 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 2 2 0 0 0 0 1 0 0 1 0 1 0 2 0 0 0 2 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 2 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 3 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 1 0 1 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 1 0 0 1 3 0 0 0 0 1 0 1 0 1 0 0 1 0 2 1 1 0 1 1 2 1 0 1 1 0 0 2 2 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 2 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 0 1 0 1 2 0 0 0 1 1 0 0 0 2 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 1 1 1 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 3 0 0 0 0 1 0 0 0 0 0 0 2 2 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 2 2 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 2 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 2 1 1 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 0 1 1 0 2 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 2 1 0 2 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 3 2 0 0 1 0 1 1 1 1 0 0 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 1 2 1 0 0 0 0 2 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 1 2 0 0 2 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 0 1 2 0 2 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 2 1 3 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 3 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 3 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 2 0 0 0 0 0 0 6 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 0 2 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 3 0 0 1 0 1 1 0 0 1 0 0 0 0 2 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 2 0 1 2 3 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 2 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 2 0 0 2 2 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 3 0 1 0 1 1 1 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 2 0 1 2 0 1 0 0 0 0 1 0 0 0 0 1 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 1 0 1 1 1 0 0 0 0 3 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 2 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 1 2 0 0 0 0 0 0 0 0 1 0 1 0 3 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 2 1 0 0 0 0 0 1 0 0 0 3 1 0 0 0 1 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 1 0 2 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 2 0 1 0 0 0 0 0 1 0 0 2 0 2 1 0 0 0 0 2 0 1 0 0 1 1 0 0 1 0 1 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 3 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 2 0 0 2 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 2 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 3 0 0 1 0 2 2 0 0 0 1 1 0 1</t>
-  </si>
-  <si>
-    <t>EXN(0.6196945397434818, 81.42885586129711, 27.809462427832194)</t>
-  </si>
-  <si>
-    <t>111 82 146 56 132 90 106 106 106 103 117 110 112 160 56 116 90 103 109 55 74 105 102 60 121 103 104 99 72 84 64 96 149 151 140 65 100 82 92 85 61 54 99 99 80 66 113 101 154 180 93 115 153 81 97 64 70 95 161 77 74 67 124 145 31 129 61 76 134 110 86 142 103 103 53 108 151 85 97 139 94 143 46 76 91 93 82 80 142 21 78 70 98 95 168 86 155 181 89 88 142 52 149 93 54 80 91 168 117 76 122 68 92 144 81 94 93 153 147 99 37 91 49 176 127 38 80 132 147 88 60 116 86 101 54 97 141 166 95 62 122 127 131 115 119 100 100 135 116 170 137 153 76 55 135 65 111 118 148 175 101 177 82 121 114 117 125 155 117 73 105 69 85 76 92 167 72 42 80 110 91 134 89 98 126 147 91 132 140 139 155 115 102 24 100 99 166 145 81 107 97 115 64 131 135 105 92 96 135 86 109 86 77 72 109 131 97 90 49 49 71 84 111 30 50 97 98 110 73 92 98 67 89 111 118 81 85 146 127 97 121 62 168 145 90 88 60 63 119 100 80 55 62 89 94 49 79 77 108 138 90 83 132 78 45 75 76 170 124 55 68 105 60 110 112 110 98 171 82 66 87 116 150 59 84 91 81 99 77 108 66 108 111 124 129 114 102 71 58 74 127 79 36 46 131 140 148 154 95 65 71 99 109 96 129 96 133 147 78 96 126 82 69 67 105 114 59 92 99 63 115 138 72 79 96 102 46 76 123 114 46 74 40 135 170 114 118 137 140 85 136 64 90 56 69 32 82 93 68 67 81 80 112 71 83 63 107 141 142 191 133 113 89 129 91 71 89 74 75 56 66 177 50 130 88 70 98 113 88 89 2 95 117 108 59 132 90 97 58 113 121 143 116 69 39 101 96 128 89 123 76 77 92 97 39 116 141 93 96 121 70 106 154 108 93 87 155 88 126 78 105 106 63 100 90 142 93 63 109 127 75 126 123 148 67 121 108 129 64 88 88 106 120 150 98 101 112 71 91 69 68 140 143 145 113 96 160 173 98 154 62 58 78 71 149 50 159 159 63 104 103 113 82 126 172 140 100 74 95 130 24 93 135 162 100 131 91 119 90 59 106 103 91 147 128 80 144 71 75 81 124 57 103 100 104 115 72 107 75 112 64 118 66 92 91 132 122 105 104 138 107 81 162 120 98 68 94 151 83 133 53 105 95 121 122 76 93 91 123 90 87 68 88 69 65 76 128 31 136 51 100 116 149 107 94 127 92 96 100 113 62 188 91 136 97 82 106 95 120 116 104 98 100 58 125 143 84 85 56 73 85 144 229 115 78 118 85 123 19 118 69 70 82 120 71 108 151 124 59 157 56 84 191 79 62 140 111 102 140 86 60 39 177 95 77 114 106 129 111 97 87 40 159 158 126 103 103 89 126 97 24 97 66 106 50 109 90 106 140 78 69 125 47 101 100 46 133 95 17 61 90 40 112 31 43 107 101 90 106 95 100 96 55 47 89 174 105 130 57 91 140 77 86 117 75 80 27 125 157 73 104 73 84 122 101 114 84 110 172 78 107 86 97 108 88 119 139 107 102 76 86 90 68 182 112 137 100 135 86 65 100 124 112 83 91 105 196 74 72 73 105 136 171 78 117 110 58 119 84 81 68 96 71 122 101 73 68 82 55 235 96 123 108 138 105 57 84 92 110 158 129 142 102 42 74 64 121 156 115 123 39 57 99 59 101 81 88 130 77 67 94 198 152 95 67 97 82 112 98 93 152 130 127 100 71 99 83 87 56 174 112 73 97 86 84 147 101 108 80 93 141 105 98 78 103 64 113 59 135 74 72 120 106 19 93 139 152 61 161 121 71 95 84 39 83 124 96 111 110 73 106 90 65 99 100 98 44 59 95 149 88 169 161 149 85 74 110 107 129 112 102 35 78 66 108 36 137 97 247 78 79 123 77 76 149 72 124 67 109 85 127 117 201 108 89 75 96 79 179 73 80 114 138 84 77 127 56 105 86 168 139 30 123 131 107 143 99 144 41 111 85 52 88 101 163 109 89 125 82 70 166 29 72 94 57 93 127 84 89 75 39 108 59 116 124 54 135 113 93 65 117 65 122 87 99 81 91 105 89 83 74 55 106 116 84 83 84 50 101 89 62 109 83 70 89 81 72 31 111 167 92 40 102 109 109 100 107 131 101 134 123 97 170 60 89 83 84 114 121 100 51 116 95 77 111 85 81 133 66 86 123 90 196 152 151 127 130 173 60 65 157 121 80 116 96 68 112 57 175 80 110 109 84 84 88 69 34 120 69 100 103 48 97 48 94 114 72 43 111 212 94 51 35 56 104 25 61 120 52 91 107 79 119 137 100 100 115 122 86 101 104 116 143 90 111 121 165 89 159 96 121 172 97 109 76 98 143 146 81 45 109 112 21 101 106 98 120 143 87 91 104 140 81 117 61 125 93 81 110 59 108 69 46 115 99 49 93 95 116 91 109 166 106 138 61 97 141 117 88 69 111 140 102 78 149 117 97 180 121 107 129 186 107 62 84 38 158 145 127 146 76 53 77 98 75 97 80 140 131 136 73 136 131 95 108 73 45 119 48 110 96 104 95 115 120 67 124 108 80 75 119 117 113 143 72 47 124 111 108 88 124 164 97 69 138 116 76 193 57 161 141 127 76 112 84 76 102 151 73 119 98 130 166 112 51 90 85 99 137 104 116 107 122 81 35 61 88 91 66 159 128 108 86 93 92 145 98 107 144 91 128 80 85 60 122 129 54 83 140 84 136 36 78 138 87 88 94 62 89 128 95 170 112 100 103 81 83 89 50 65 124 118 111 78 62 74 122 114 93 112 99 17 113 85 66 81 50 102 98 70 96 107 125 65 61 76 81 109 98 125 78 157 63 68 46 90 112 155 98 32 62 81 65 120 48 136 95 88 98 116 121 56 119 104 60 72 99 145 88 119 77 63 112 74 50 147 91 87 34 79 89 44 88 49 125 62 152 94 86 78 96 106 104 132 130 75 84 78 54 47 56 71 127 85 125 80 112 122 93 69 62 83 61 111 182 83 42 110 107 69 75 116 118 143 84 121 92 22 73 94 95 45 104 163 108 134 106 41 151 47 86 160 93 69 98 84 137 96 164 68 114 99 101 137 135 77 120 42 144 135 162 55 116 127 182 107 137 96 51 101 154 112 78 87 85 68 98 74 101 126 100 112 56 99 94 70 105 154 66 17 97 110 51 73 130 127 43 94 88 91 145 62 74 67 94 108 100 70 130 81 129 94 92 149 66 58 57 52 76 101 87 156 94 85 91 108 47 66 119 42 109 170 110 117 71 110 81 105 85 65 110 77 100 52 41 77 132 165 108 90 169 91 79 56 83 123 134 125 107 59 116 127 160 139 55 174 37 75 82 106 122 145 67 115 70 82 74 100 166 28 110 79 119 99 153 131 90 69 124 109 113 88 61 119 99 54 84 123 115 117 127 109 121 113 106 92 47 123 101 110 91 73 66 78 95 100 166 100 74 128 105 211 111 61 141 71 139 81 108 65 86 49 77 95 103 98 51 90 112 102 144 84 101 84 88 73 123 73 124 79 95 84 135 147 101 48 93 77 115 118 58 149 106 130 84 112 113 111 168 95 49 132 94 93 76 132 76 68 78 102 23 95 118 73 94 85 142 78 122 83 118 105 167 68 92 97 133 100 134 133 75 135 109 80 150 94 50 124 22 104 97 97 112 103 59 69 79 67 113 43 72 37 68 134 127 149 84 142 124 44 111 113 71 69 113 65 130 91 68 40 150 140 115 64 122 114 92 98 94 70 167 63 77 95 84 125 100 95 125 105 161 92 120 65 71 136 119 101 80 85 131 111 94 69 109 82 91 59 131 114 169 101 88 43 133 188 137 98 103 136 58 81 114 42 88 86 119 139 112 97 62 118 152 125 134 85 99 100 71 115 97 51 155 56 91 100 25 60 76 170 81 91 67 95 79 59 75 128 68 98 95 69 102 76 79 102 137 118 103 68 146 69 87 91 113 146 126 67 158 123 75 50 99 85 94 139 121 101 63 83 25 118 131 94 99 154 39 50 96 79 75 107 49 135 104 120 78 144 78 72 109 77 101 116 73 107 106 74 55 92 87 134 116 113 19 52 119 171 58 75 161 179 52 108 134 95 118 120 100 151 59 110 138 108 87 68 142 139 94 122 129 134 90 87 57 128 66 122 94 56 117 51 78 62 67 71 61 125 108 111 65 88 139 114 134 117 127 94 214 51 66 58 95 124 117 110 41 35 86 80 163 67 118 122 119 190 17 183 147 73 88 131 90 104 91 105 67 79 119 90 127 55 152 119 74 104 94 87 56 76 96 90 83 113 65 75 111 114 76 78 71 63 104 41 67 114 33 89 41 115 69 36 84 40 105 116 97 130 86 120 65 85 72 104 168 116 94 83 140 113 129 102 103 95 106 108 105 98 64 87 91 71 58 92 102 137 67 101 160 90 126 81 75 83 93 163 72 168 116 255 105 85 113 75 162 99 53 137 103 67 109 77 73 66 145 143 115 119 78 125 80 105 94 93 132 168 104 85 95 47 89 127 80 147 154 121 98 110 103 139 129 63 126 102 76 133 108 118 108 164 122 100 128 123 57 50 142 156 82 56 90 84 166 123 55 80 63 89 95 112 69 145 61 93 111 88 120 57 118 66 95 131 60 82 115 70 125 79 67 71 56 104 97 129 58 102 51 87 102 33 74 91 86 169 87 127 84 92 102 96 103 131 99 117 114 115 155 48 113 93 78 134 127 60 78 102 127 120 82 82 89 100 73 168 122 77 72 84 77 96 59 115 106 86 133 107 112 105 79 92 110 119 42 64 98 98 73 130 165 75 110 66 93 48 96 89 103 67 97 59 95 79 43 105 112 158 55 90 84 88 87 125 114 91 59 55 83 102 95 80 106 114 80 82 143 134 55 139 133 96 93 97 64 75 147 84 119 93 133 59 31 113 73 54 71 126 102 84 80 90 93 72 129 70 124 81 71 87 56 106 62 116 66 125 123 185 63 79 125 92 121 69 111 79 59 112 78 79 98 97 132 54 90 177 96 52 95 44 69 76 56 97 185 107 55 137 108 78 55 173 95 98 118 81 109 48 160 92 153 76 142 116 113 148 166 115 114 114 45 85 83 44 159 89 104 31 54 109 104 30 152 121 153 108 116 141 133 86 123 89 92 98 136 91 96 79 48 95 98 107 109 92 24 59 104 75 98 84 129 84 53 120 88 118 113 135 51 150 108 95 122 169 84 165 105 81 121 129 64 132 132 83 165 146 92 72 142 135 100 135 138 53 112 80 61 95 84 141 180 65 148 64 103 146 93 87 89 45 119 124 141 94 117 92 90 55 109 72 83 91 60 87 139 91 105 74 56 101 137 108 136 124 89 120 66 115 31 54 67 99 59 37 52 104 62 130 131 92 137 139 123 127 97 117 58 78 121 83 108 125 88 75 83 73 89 142 106 64 132 89 143 65 83 106 85 59 121 99 57 147 75 144 132 53 89 140 89 109 117 146 77 66 98 98 62 104 66 105 56 169 78 107 52 135 161 33 89 58 129 100 81 36 100 144 80 31 128 127 123 75 126 50 72 119 182 103 83 113 78 138 103 183 123 23 162 99 62 89 78 77 63 69 112 87 35 88 65 106 87 130 110 137 208 78 91 102 63 27 62 114 107 29 114 76 124 118 119 97 44 122 79 54 49 66 95 107 110 148 89 136 101 149 109 142 137 91 60 93 79 125 117 65 152 114 93 78 91 110 55 65 131 70 74 137 108 116 94 101 82 83 150 169 72 122 74 86 136 48 71 153 145 112 143 108 112 148 70 31 126 171 113 118 139 37 103 167 82 79 127 84 74 63 74 83 104 115 130 142 87 133 87 98 131 69 174 124 49 42 150 118 47 111 81 146 85 130 117 62 68 68 129 117 99 156 54 77 90 63 86 101 160 53 91 88 96 46 35 42 62 97 117 63 122 127 165 131 131 114 55 82 98 95 90 97 115 71 90 90 147 115 63 112 141 87 126 122 43 82 128 89 107 107 122 110 140 92 115 99 70 96 119 86 82 96 56 114 75 101 107 121 129 66 121 117 150 123 38 31 140 43 84 65 107 108 69 76 85 76 72 98 79 150 134 60 108 112 106 130 17 63 78 101 26 45 125 61 146 107 105 70 114 114 166 78 88 58 93 24 148 126 120 54 106 122 110 65 172 92 62 99 119 109 71 57 101 84 130 96 88 94 71 101 55 80 49 112 77 78 68 95 62 69 109 107 44 62 139 123 69 123 33 87 170 72 97 91 103 50 76 96 37 94 126 109 72 125 136 49 96 94 92 137 115 67 54 85 72 141 112 144 97 84 145 115 68 143 58 70 83 88 127 172 148 102 102 93 148 68 55 131 53 122 70 120 106 48 103 116 70 51 132 101 72 106 106 159 78 105 223 99 102 150 103 25 103 56 82 158 148 110 90 95 199 83 150 71 74 89 82 150 75 116 151 78 101 95 114 109 112 65 97 98 90 134 100 53 183 93 90 87 65 121 151 106 71 78 67 156 63 112 65 143 104 86 116 79 95 92 123 26 88 45 168 89 146 87 111 126 115 202 101 82 59 135 47 122 55 154 84 71 49 136 54 58 89 78 162 104 136 99 71 79 118 71 85 82 80 166 120 127 193 127 104 116 97 97 109 130 104 105 130 96 109 140 82 55 73 91 82 97 134 85 78 102 96 127 59 75 86 78 50 144 78 82 120 117 85 138 95 65 124 98 75 83 132 215 88 143 148 105 154 83 96 75 104 134 104 138 115 124 113 119 86 176 92 107 74 126 80 93 114 93 156 67 132 75 88 48 127 136 87 130 102 140 123 69 120 85 79 112 119 86 131 45 100 138 81 130 88 99 89 100 130 121 129 90 77 112 128 89 87 83 61 76 112 42 132 84 93 138 72 83 75 123 143 60 66 95 84 106 70 161 152 78 114 97 135 79 138 89 98 80 16 130 73 128 77 42 130 121 121 151 106 97 69 95 106 156 105 137 136 40 59 119 49 92 58 154 79 98 94 120 45 47 121 148 125 135 86 104 93 114 67 107 108 124 128 68 91 88 67 66 70 40 57 67 72 48 103 154 130 122 101 98 107 114 131 110 116 70 88 120 89 62 106 87 164 122 62 99 137 42 79 110 49 127 82 119 145 117 97 124 81 101 100 122 78 102 97 114 163 110 66 112 142 78 40 118 101 72 51 148 96 108 129 122 104 80 18 101 73 167 89 120 125 149 21 142 33 77 96 90 159 109 101 33 87 79 108 44 86 99 65 119 35 110 65 104 87 103 83 190 121 125 90 115 152 118 79 22 75 100 105 127 137 118 81 139 108 109 80 128 121 97 111 102 116 76 65 129 70 87 55 41 75 199 135 121 104 55 63 75 100 120 136 101 85 187 131 93 102 108 80 94 64 65 97 130 103 86 124 107 69 116 116 130 107 130 160 45 54 163 60 93 124 76 44 112 119 97 96 96 59 75 111 85 118 107 111 78 74 167 122 109 39 90 184 132 65 112 97 69 87 85 84 52 84 119 122 81 93 84 65 107 83 118 161 64 34 67 49 102 91 113 144 97 91 149 112 83 92 119 31 59 106 126 118 82 116 86 105 128 127 109 62 118 48 112 124 134 81 108 79 108 74 132 83 121 104 96 90 108 123 108 54 106 131 53 71 107 86 120 43 55 165 134 108 124 114 111 97 125 69 95 91 87 98 101 95 100 89 65 93 77 102 101 90 78 106 95 73 149 44 8 85 92 110 156 168 101 146 84 114 125 105 95 110 95 64 98 103 141 97 105 82 37 95 43 144 37 68 68 27 96 94 87 115 119 113 64 129 97 119 81 148 92 124 126 82 84 117 81 98 131 87 113 129 122 107 84 46 106 110 99 22 108 82 111 109 127 108 101 85 89 102 97 122 128 55 116 109 96 84 85 98 45 103 85 97 107 123 114 82 44 157 158 104 118 90 74 78 57 108 132 75 110 100 80 132 65 67 79 80 47 99 98 80 91 118 109 89 171 77 37 70 107 126 159 112 140 93 64 119 202 87 123 71 142 63 111 73 120 167 94 83 30 36 49 108 98 121 90 86 130 74 93 52 66 68 87 78 100 89 91 88 146 107 116 52 137 80 104 105 96 111 61 55 52 115 55 109 90 132 74 114 107 71 71 159 73 114 155 80 125 98 101 74 134 122 108 133 161 90 90 77 134 67 130 184 132 53 57 80 146 119 125 100 102 140 158 105 118 45 122 71 57 158 54 148 73 67 88 62 92 73 116 157 82 58 86 103 144 118 104 122 61 166 111 130 68 98 38 121 124 148 105 117 153 77 92 116 99 71 100 61 110 143 73 47 116 70 82 54 31 122 85 81 96 103 70 100 108 105 121 59 92 93 69 83 58 125 112 90 103 122 99 66 126 95 156 96 133 100 95 93 109 73 98 131 104 99 38 102 113 101 119 56 117 112 72 90 148 94 182 57 96 63 91 82 133 43 91 32 81 106 30 111 57 114 83 97 88 104 49 95 90 135 70 83 60 112 100 73 99 116 78 93 78 123 107 109 63 98 150 114 93 86 94 105 79 124 51 111 70 89 75 146 97 108 97 46 98 169 121 126 136 56 92 121 108 37 45 78 70 147 67 104 150 112 120 98 52 79 55 89 100 83 66 117 85 114 110 164 107 119 98 52 167 86 81 100 151 25 171 59 76 118 104 126 51 45 137 84 81 63 57 156 78 108 115 114 65 97 56 126 72 93 107 75 82 109 117 115 109 115 74 112 62 121 145 95 63 79 134 102 103 128 97 128 83 180 195 51 76 77 116 107 75 8 98 95 118 173 119 52 111 92 128 98 167 82 89 85 124 22 152 50 75 131 145 145 101 142 122 110 114 38 78 140 115 88 97 105 132 94 116 84 68 93 49 179 79 169 71 89 167 151 71 100 91 91 24 118 107 64 135 67 104 85 124 95 71 175 101 73 89 92 66 81 128 155 141 121 98 87 120 115 111 100 57 74 82 76 96 95 101 63 112 122 84 212 70 94 63 111 44 92 142 102 41 95 135 94 60 97 101 140 80 141 96 69 105 90 96 127 124 76 147 90 126 92 186 74 110 86 68 96 48 99 143 121 81 100 70 112 107 77 115 103 130 87 144 58 84 104 117 153 159 182 63 80 55 80 176 135 95 101 237 68 106 114 111 112 115 53 54 58 114 60 80 114 183 129 112 132 68 116 82 91 102 74 110 82 88 161 85 96 52 79 86 130 51 102 79 157 70 76 142 92 132 72 58 59 98 105 84 150 78 89 128 113 83 81 79 106 87 99 81 126 134 127 136 68 120 61 41 83 91 131 92 74 82 77 132 30 121 46 197 121 65 35 84 79 36 62 95 89 82 66 105 137 86 96 102 134 121 145 114 73 57 109 109 101 93 107 84 128 77 55 132 87 62 138 46 46 141 135 121 173 59 53 122 143 76 75 111 65 83 101 115 105 82 83 112 57 87 101 123 96 119 101 132 84 74 79 154 101 129 136 136 131 103 147 97 136 84 52 114 155 81 69 125 53 94 2 106 51 45 60 80 104 91 125 111 111 79 130 88 102 81 71 119 115 127 91 129 146 116 91 77 68 150 98 64 87 115 50 107 84 56 97 65 55 109 36 99 105 135 129 114 51 130 67 73 121 88 92 137 122 132 104 109 105 66 111 130 79 94 148 141 103 88 97 162 121 146 18 116 128 113 80 83 128 108 180 146 101 102 99 91 108 100 76 111 76 96 128 129 95 139 127 75 56 122 113 109 97 121 117 102 114 59 153 131 67 181 101 103 89 64 98 121 78 137 158 58 56 137 100 84 77 49 129 131 142 85 103 89 152 91 100 130 95 126 115 94 102 75 82 145 122 58 136 128 144 118 101 108 96 79 131 56 76 52 19 84 76 91 141 114 88 88 98 97 138 84 90 100 118 114 86 78 127 140 126 85 75 133 74 114 162 111 143 102 56 79 102 114 84 104 126 109 64 84 105 137 83 68 117 145 61 137 64 110 154 130 36 113 149 151 41 102 80 74 82 78 111 116 76 97 109 101 74 156 65 106 87 101 128 81 96 130 73 86 111 109 86 55 152 127 71 82 135 62 24 81 121 102 78 71 72 75 132 72 140 124 114 76 94 153 16 89 37 108 68 117 210 99 65 72 26 137 97 84 97 41 102 104 143 97 68 107 111 78 59 106 62 71 115 24 77 35 126 105 157 89 177 93 145 110 101 157 96 113 72 108 135 95 75 114 93 99 59 160 78 170 78 109 46 102 66 84 118 70 71 83 157 102 76 84 71 112 172 120 48 103 104 92 66 81 92 42 119 105 93 86 115 90 156 67 98 42 104 150 102 72 76 85 87 142 141 176 110 87 92 139 82 98 92 85 41 79 114 90 89 85 89 139 102 152 113 103 102 99 117 86 79 98 151 110 79 99 100 106 98 105 97 176 45 93 104 105 72 117 27 93 64 41 144 92 122 79 78 75 93 93 112 64 92 175 72 128 109 118 61 122 142 80 116 137 152 117 105 80 130 82 110 86 144 83 40 143 74 117 99 95 103 126 99 69 97 87 67 147 86 111 122 97 78 86 67 162 76 129 89 140 63 52 116 165 140 45 106 111 94 73 83 142 159 81 132 52 100 107 75 102 87 116 77 33 129 31 75 145 53 108 93 95 71 118 74 36 86 90 83 113 166 99 78 118 87 55 42 125 47 55 125 127 62 69 78 119 68 113 66 128 107 95 87 81 98 115 99 65 78 148 159 91 79 149 60 51 61 115 98 84 77 121 91 107 134 89 95 99 94 87 98 135 140 57 86 84 83 59 74 90 62 69 67 131 50 83 91 116 122 91 79 43 105 182 115 63 113 86 160 103 156 51 86 112 112 80 82 143 98 117 83 76 78 95 37 89 71 88 116 74 148 103 144 77 90 59 60 77 120 51 106 77 137 111 97 101 97 107 83 108 95 140 114 141 118 88 139 85 73 62 89 148 72 81 108 124 80 101 139 72 78 149 152 116 102 81 108 84 113 113 84 74 158 121 51 108 118 132 114 85 29 149 78 105 154 79 122 114 127 164 107 81 81 184 85 48 105 104 120 66 127 94 51 72 29 111 105 80 79 73 139 104 109 61 64 97 54 107 97 138 99 116 129 127 102 90 97 111 92 153 121 132 85 141 113 112 141 80 80 88 111 82 98 58 58 70 114 69 25 92 65 144 139 46 111 62 82 64 116 51 127 62 81 74 102 111 144 98 112 75 101 87 121 123 121 93 100 105 115 153 99 92 116 96 106 92 68 84 84 127 92 26 135 115 115 126 140 36 122 67 129 73 52 75 83 65 69 70 103 94 48 84 68 123 59 96 107 119 141 108 95 96 112 181 119 103 93 115 81 36 136 50 96 71 57 117 145 96 90 104 92 147 99 176 152 75 97 93 108 62 67 151 50 121 69 96 129 114 59 84 102 79 46 77 49 69 129 73 84 139 71 158 148 62 123 48 109 87 109 152 89 120 102 155 62 106 82 143 104 68 154 87 142 123 89 76 94 61 108 109 43 117 113 32 61 73 116 111 98 182 54 120 73 73 81 96 86 57 26 66 72 77 116 57 159 112 148 98 118 117 71 75 98 99 91 87 60 76 127 115 93 105 99 121 124 65 82 95 111 56 111 113 78 111 130 104 141 73 61 76 101 93 101 64 94 50 146 74 91 90 72 113 133 109 146 91 114 65 84 64 134 86 76 70 46 93 51 107 58 127 106 98 59 173 137 111 175 122 103 87 122 81 103 32 155 104 122 124 95 111 97 76 153 128 105 137 112 115 178 82 155 88 80 107 55 45 91 71 123 34 71 111 109 122 108 53 50 141 133 144 37 97 72 103 115 54 117 104 139 108 19 90 43 97 128 100 92 51 108 76 105 176 153 133 101 60 109 87 41 137 120 83 133 117 80 111 69 107 129 191 94 133 70 115 56 104 110 63 58 95 113 93 99 78 76 50 72 32 90 136 88 125 88 141 117 113 43 107 141 83 124 81 129 86 60 43 47 91 55 239 169 148 71 116 58 149 112 132 86 112 116 126 154 76 112 111 84 159 90 90 100 104 88 110 60 73 152 125 132 83 93 127 73 58 42 99 92 116 77 86 145 109 8 85 85 186 65 102 55 69 86 113 107 114 72 89 127 86 127 127 65 145 117 82 101 141 109 94 59 113 177 110 95 134 92 130 90 54 147 101 56 68 29 41 114 94 107 81 154 147 95 169 133 146 100 137 65 110 155 83 52 100 76 33 89 111 79 66 113 30 125 91 140 85 111 85 76 71 155 181 26 34 97 58 122 97 72 123 139 89 69 90 113 28 176 82 101 102 137 144 144 42 145 75 141 42 71 70 65 40 55 113 142 118 118 46 166 92 65 129 65 114 108 132 95 86 92 127 61 143 72 77 123 80 18 73 85 58 110 108 66 109 92 76 101 89 81 117 115 75 83 79 157 50 146 89 102 61 120 174 101 155 98 154 101 102 96 121 122 112 115 135 59 92 131 129 106 131 115 104 104 132 121 71 89 90 78 79 75 118 135 95 106 100 130 156 110 114 35 58 43 73 90 37 92 121 92 55 80 75 144 78 106 82 73 76 90 110 120 149 69 84 85 95 82 101 88 91 96 55 66 135 94 106 144 80 109 78 137 154 96 66 164 61 112 89 109 132 111 63 90 119 73 118 112 108 43 103 105 152 110 133 112 93 121 73 91 44 116 82 55 128 47 43 125 121 88 150 95 112 131 139 119 76 94 61 107 124 106 80 41 64 119 87 92 136 107 162 53 147 153 79 75 168 45 115 146 160 135 113 86 84 58 63 140 66 89 97 119 77 83 94 63 143 140 77 128 126 137 151 139 72 130 137 119 102 133 86 112 114 87 44 126 89 64 103 55 73 86 81 129 44 86 100 93 83 134 133 117 83 86 108 123 70 81 87 73 60 131 103 142 109 85 79 96 49 99 124 120 128 109 131 97 55 90 102 116 130 113 106 63 112 130 119 73 111 101 93 126 51 170 121 133 49 87 90 48 170 80 89 128 121 95 118 47 81 93 88 117 101 76 125 37 104 24 74 75 89 95 90 132 86 86 91 71 141 156 70 74 74 81 51 70 131 130 32 89 97 103 53 93 94 81 148 174 106 69 175 119 85 147 114 135 84 103 44 132 94 93 55 94 118 114 114 70 82 149 106 136 72 64 146 95 40 120 90 102 93 84 89 90 72 91 105 52 92 137 85 71 86 90 102 114 60 41 110 78 60 60 138 62 120 114 88 127 108 156 25 29 146 136 91 85 126 96 82 91 111 94 82 69 127 28 75 113 112 90 108 138 60 94 75 76 68 38 70 81 98 131 63 185 66 124 119 70 120 114 101 88 53 145 93 112 72 132 91 172 110 105 94 102 92 92 126 83 86 108 75 82 109 99 174 105 127 53 116 118 61 99 138 81 74 63 177 112 144 155 101 88 38 122 125 73 122 124 79 98 88 56 144 167 97 167 69 109 100 130 96 106 110 87 155 75 115 76 72 87 78 140 121 78 113 23 75 88 41 62 32 65 71 140 101 38 71 172 71 143 152 103 110 117 116 104 85 71 41 85 16 125 110 165 117 66 55 170 102 11 84 64 87 91 130 179 98 112 81 138 41 158 67 120 83 144 54 93 82 88 68 107 151 129 46 120 85 106 64 113 159 131 57 97 106 70 103 170 128 133 139 204 110 114 74 97 77 92 147 119 113 99 167 85 110 130 56 92 115 153 113 69 47 59 75 100 26 63 113 71 120 70 97 99 103 138 117 97 8 122 151 76 80 52 119 50 178 64 100 138 90 103 144 121 164 88 108 79 102 154 69 99 58 122 80 163 61 105 65 122 118 68 91 152 67 138 110 145 77 50 63 62 109 90 92 48 100 101 56 144 103 126 71 94 100 125 116 66 109 59 82 90 24 146 207 139 148 107 86 64 132 64 154 133 60 99 82 85 135 111 52 161 131 138 84 143 57 96 91 98 84 102 65 145 163 73 106 138 85 80 179 122 61 115 184 64 73 69 40 73 57 143 105 94 82 106 50 134 51 108 96 39 93 83 127 106 95 51 135 75 138 92 211 86 100 72 51 96 144 68 106 134 162 144 131 87 127 95 103 115 111 96 68 95 101 118 111 101 78 67 148 141 73 161 119 74 118 151 78 57 104 131 75 84 140 123 28 75 72 139 51 115 140 111 127 91 72 101 66 112 92 89 64 154 66 72 106 147 77 131 92 90 65 102 104 59 52 56 61 112 123 90 118 166 64 115 160 157 76 143 97 128 146 50 89 58 70 142 93 138 94 96 62 149 126 118 147 76 90 76 44 98 117 109 89 116 108 90 70 51 120 77 68 86 72 39 72 120 158 121 103 75 67 68 104 41 19 79 77 134 51 87 103 100 44 87 108 93 105 101 96 62 67 117 102 126 24 29 136 62 80 137 66 117 64 72 72 147 106 125 86 61 109 98 101 51 76 124 127 60 95 99 139 89 127 112 146 112 86 97 81 131 86 72 98 109 76 95 117 136 84 124 132 77 93 45 94 101 99 76 159 184 88 63 89 70 109 66 72 78 92 142 104 68 113 76 80 109 68 100 121 79 136 123 79 140 59 84 101 96 72 81 84 204 88 42 143 94 148 69 96 69 57 25 101 134 70 27 93 130 155 112 89 99 104 86 90 77 82 49 95 98 73 153 152 103 99 122 232 29 51 32 137 148 162 87 121 121 133 60 74 86 44 16 73 111 96 87 113 102 82 113 97 105 159 97 88 144 105 163 90 101 56 149 62 112 119 95 102 72 165 94 134 160 81 66 100 99 60 130 49 117 141 55 80 58 41 70 107 108 59 68 105 60 107 44 69 151 49 46 93 106 52 85 51 107 80 81 84 59 126 117 81 88 122 108 75 157 80 104 71 60 61 106 166 112 70 138 99 132 86 99 54 96 91 67 117 140 79 69 90 149 120 68 118 91 97 119 84 151 51 92 132 96 145 101 141 74 164 137 96 77 111 61 113 67 109 38 98 100 82 77 142 95 115 36 83 71 83 72 83 96 120 67 94 135 30 103 118 96 68 79 105 88 137 135 150 60 91 78 104 135 143 131 111 93 106 99 125 95 123 125 99 90 93 81 100 111 80 131 84 162 138 125 76 136 61 50 106 87 139 86 56 90 101 94 111 127 125 79 84 132 164 100 103 44 67 153 77 134 187 70 113 165 115 72 110 117 84 66 118 134 167 120 114 47 86 101 94 122 108 61 144 122 83 96 100 94 25 89 55 132 86 89 92 54 101 171 113 98 118 169 131 71 115 120 118 124 37 134 97 163 125 92 190 60 123 53 69 114 104 125 92 109 92 151 78 136 135 123 117 73 108 81 123 141 69 93 72 130 88 74 126 99 45 111 85 87 127 80 168 144 65 86 91 131 105 35 86 53 118 108 112 141 93 82 88 64 112 219 126 100 63 92 115 118 86 56 71 64 123 72 129 47 80 58 130 59 124 127 77 53 104 118 111 119 71 117 50 55 93 126 118 151 18 96 61 96 64 120 76 84 94 146 48 99 178 72 110 47 116 90 87 103 77 112 117 99 66 68 56 82 93 151 118 118 133 92 137 85 129 63 79 104 128 102 100 131 67 46 106 122 49 83 84 134 46 121 97 92 84 81 151 123 47 85 92 50 118 67 80 116 78 60 74 118 143 77 91 89 83 102 102 102 154 87 116 142 35 68 94 25 99 97 45 127 74 93 93 80 91 151 41 55 115 26 198 94 68 107 96 112 81 86 112 120 69 78 101 78 154 83 59 77 121 98 95 59 146 94 94 16 122 115 134 192 116 113 73 72 65 79 71 66 51 119 62 159 132 81 67 94 83 115 150 152 91 152 107 126 109 94 126 62 107 118 218 82 41 130 99 80 74 112 51 50 84 138 121 92 149 72 64 60 174 112 78 114 75 102 114 113 82 119 116 148 138 100 114 122 142 96 49 81 53 99 38 151 72 166 103 126 119 93 111 120 88 87 75 116 82 85 157 60 82 71 75 104 136 63 147 71 134 40 109 146 110 93 84 61 67 122 103 75 52 18 120 122 126 72 116 47 60 91 105 118 155 50 99 101 113 110 101 140 70 86 107 42 62 64 121 108 99 95 122 71 150 133 58 35 103 49 110 66 91 64 84 113 102 66 32 89 88 97 129 72 100 78 83 49 150 84 87 107 133 111 103 43 102 32 97 52 79 9 42 79 96 50 88 77 121 77 94 111 49 75 148 87 63 73 96 74 163 187 120 124 107 94 155 116 113 36 109 78 20 97 97 64 115 103 90 75 77 87 63 72 171 116 107 73 113 80 120 100 101 83 100 62 76 108 93 143 68 97 41 193 109 25 49 109 148 88 88 84 68 66 62 66 126 81 70 101 147 131 145 163 141 124 58 70 54 107 113 182 142 86 101 131 91 111 90 87 145 42 86 102 99 98 68 42 107 121 107 59 83 56 83 94 75 114 127 108 81 87 105 109 57 138 101 90 60 63 96 141 75 139 101 69 111 101 131 143 112 120 110 117 78 119 105 139 87 83 77 120 45 153 89 133 52 133 64 101 103 121 69 131 60 93 131 95 59 76 105 119 150 67 40 108 69 90 112 66 109 48 88 110 137 111 50 78 69 113 132 137 90 101 133 94 131 160 149 100 52 77 159 105 98 109 115 145 86 115 119 99 33 109 64 88 212 109 89 136 110 77 145 27 75 144 124 86 137 59 58 107 114 66 69 101 74 81 99 103 98 98 67 67 130 107 71 161 35 77 57 176 94 71 102 83 87 57 106 89 117 140 73 146 29 94 94 89 152 95 81 74 165 87 90 118 115 146 54 45 128 82 80 127 55 112 71 98 84 116 115 44 73 89 109 83 134 53 151 186 150 131 144 94 103 62 59 68 133 127 136 141 82 104 135 77 118 108 108 78 92 108 100 80 134 105 134 60 77 70 79 66 108 75 73 94 121 109 94 18 99 66 99 159 177 30 98 122 35 169 77 123 117 117 53 101 82 96 152 68 118 56 133 82 88 82 113 55 81 109 53 82 107 89 61 80 69 128 105 67 93 174 73 138 115 62 60 118 92 104 108 81 40 188 68 91 94 93 109 103 45 99 45 114 103 110 133 135 85 121 134 132 125 101 92 81 172 77 142 91 91 70 76 55 98 68 92 100 107 130 164 108 93 117 145 117 127 84 71 87 84 118 56 60 105 85 41 160 43 123 132 83 116 66 106 117 146 84 135 97 114 119 160 94 56 71 84 120 75 149 153 91 74 135 128 149 72 91 31 140 77 116 116 94 77 85 119 49 94 99 88 130 94 65 59 64 95 51 60 121 68 108 110 97 86 86 149 150 93 134 119 94 114 87 67 105 106 107 132 112 123 87 83 130 146 148 114 139 94 142 103 28 95 68 126 107 99 106 32 95 86 77 136 129 120 93 98 133 30 43 86 138 24 122 86 151 145 48 105 76 81 124 77 77 142 107 41 99 67 151 93 102 74 122 52 105 41 114 101 99 77 131 143 141 95 73 138 137 155 93 88 97 146 116 99 198 102 33 90 124 120 82 96 74 116 104 104 105 98 97 115 102 92 88 75 111 75 98 83 82 139 79 168 68 67 144 126 45 132 100 56 64 121 101 55 89 181 130 83 81 84 86 52 94 92 96 116 67 46 73 50 111 125 56 51 121 112 68 155 62 102 190 103 67 86 48 96 81 91 180 64 137 85 94 116 106 57 71 73 152 86 95 99 82 110 53 26 98 65 109 131 131 104 110 128 144 85 88 89 63 101 41 74 115 124 224 72 109 45 74 83 18 63 67 86 76 58 117 134 114 96 108 134 120 94 91 137 114 185 51 97 79 35 104 81 131 60 58 109 104 67 99 63 92 78 95 115 109 98 114 157 98 86 41 123 143 73 117 57 56 149 104 58 126 104 122 108 102 53 96 60 87 70 128 108 122 122 68 139 47 72 67 92 67 94 80 58 112 73 61 40 116 168 128 92 106 111 92 96 75 79 67 49 88 37 91 43 73 93 95 116 124 81 105 110 59 142 76 124 124 90 106 123 93 176 90 140 100 77 112 103 85 81 114 75 157 121 91 72 118 90 134 133 42 99 156 89 31 92 162 87 57 118 51 113 52 11 97 137 151 136 111 57 85 84 68 83 109 106 106 87 148 70 51 116 132 128 126 158 88 119 67 118 131 91 120 64 145 117 92 61 58 130 143 81 108 56 179 68 94 120 94 71 64 105 109 84 123 130 48 105 158 79 187 54 139 57 103 63 66 153 77 78 77 108 86 106 101 133 107 188 101 114 58 103 46 138 133 109 153 137 96 113 179 93 55 82 111 174 127 138 101 194 183 158 95 79 53 111 78 103 52 120 146 133 31 133 75 123 144 123 28 104 55 91 45 107 92 94 121 107 129 93 99 102 135 42 89 95 51 121 83 144 61 142 118 150 97 154 109 91 89 112 89 93 98 104 82 68 104 101 81 71 30 70 36 93 102 86 109 124 92 83 74 30 159 79 109 88 118 106 75 73 149 116 90 79 125 97 47 143 116 69 71 134 168 77 132 117 102 63 38 66 133 171 123 161 59 104 67 115 55 82 66 81 58 148 89 85 87 59 109 124 75 112 99 52 87 68 194 84 91 67 124 132 109 61 88 90 106 114 80 73 126 92 148 91 143 82 73 101 126 71 99 135 73 141 99 71 101 123 155 140 54 73 76 35 79 102 119 88 67 126 74 192 117 89 109 137 133 99 99 95 111 138 133 58 47 66 103 112 101 39 80 105 32 85 99 57 92 145 194 104 59 41 68 140 75 134 122 124 133 89 110 91 95 92 178 105 103 126 109 101 138 117 92 82 107 183 57 63 116 50 100 35 115 50 174 90 102 79 93 67 99 52 133 70 76 101 72 62 90 88 86 103 117 74 132 128 81 67 115 56 89 87 78 88 116 184 95 77 90 59 85 54 65 159 105 110 142 87 115 108 81 107 110 91 131 177 113 84 171 120 93 121 63 85 122 77 57 65 71 91 110 96 88 106 99 126 93 105 74 124 136 135 97 83 59 101 84 89 124 180 54 148 74 62 76 107 115 75 101 42 85 74 72 66 132 112 8 103 92 132 77 93 108 170 156 129 114 88 56 128 123 73 91 68 40 85 58 53 108 123 87 48 71 173 51 76 40 77 78 80 142 108 120 84 119 65 164 99 99 87 82 88 73 118 106 68 147 92 82 86 134 81 50 129 77 94 124 96 63 47 137 67 72 103 59 100 102 152 122 102 95 77 65 117 127 141 165 54 97 70 116 123 89 106 102 102 102 117 137 92 86 93 93 99 150 79 127 61 71 66 95 136 86 74 144 101 84 124 99 40 64 111 76 101 109 113 82 45 65 98 123 34 101 105 69 49 153 89 156 114 92 71 93 114 70 96 143 131 95 66 73 105 92 103 64 53 80 43 16 106 50 119 36 88 129 121 111 118 81 118 51 116 111 113 81 83 103 144 85 89 66 74 134 118 48 94 57 90 163 153 74 116 126 197 152 71 87 145 97 135 126 51 132 85 92 121 141 84 72 54 127 163 20 113 105 120 75 125 76 132 118 95 153 59 147 139 96 119 135 143 173 141 95 140 114 77 113 130 71 42 42 106 110 151 84 112 56 120 110 92 108 116 87 70 89 131 56 128 69 135 148 102 114 81 150 99 70 74 105 102 166 90 88 126 127 96 87 36 162 103 57 89 95 138 175 69 140 96 172 172 81 75 87 65 99 97 101 116 99 33 135 67 117 111 123 96 94 118 99 83 54 99 203 101 72 57 114 77 112 84 152 116 84 202 52 79 192 93 104 104 171 79 129 61 123 133 97 81 81 83 49 114 97 92 107 77 49 75 111 47 77 164 172 63 90 110 132 91 130 142 108 48 106 119 197 128 74 59 138 99 102 92 110 89 90 75 119 120 82 106 89 123 151 85 145 169 73 114 99 111 157 50 38 154 28 103 45 101 105 111 73 124 50 127 73 85 114 132 113 132 105 71 137 126 93 60 68 47 117 105 120 110 64 118 29 114 104 82 140 155 113 73 35 63 127 104 92 120 110 49 101 149 99 83 65 107 90 80 80 154 58 107 86 110 89 32 117 99 71 76 136 67 49 135 162 114 111 117 88 125 117 55 59 55 99 129 126 55 123 68 86 119 72 117 69 61 111 123 113 152 63 156 122 69 94 92 24 112 109 169 99 32 112 58 97 106 130 118 56 115 99 38 70 140 135 74 99 149 103 89 171 90 87 114 204 104 92 133 99 103 112 56 66 147 142 67 100 75 132 114 76 75 125 92 58 85 85 136 105 58 120 43 138 128 115 118 122 97 106 68 80 72 110 47 70 142 89 66 213 122 125 97 149 90 74 109 53 87 173 107 127 112 58 95 71 34 143 121 75 55 121 62 84 59 169 93 41 129 77 82 87 140 126 104 74 103 70 98 69 89 112 88 106 144 142 65 105 97 87 77 150 117 87 82 112 55 58 81 60 66 45 133 164 41 113 62 143 114 131 121 122 159 60 70 119 112 94 72 134 61 118 165 113 72 105 18 71 125 95 129 52 60 81 81 95 129 117 82 95 126 88 163 95 110 124 140 61 97 52 84 79 123 112 105 89 100 136 92 169 67 94 110 149 113 48 130 128 44 107 105 117 89 97 100 154 163 169 50 77 59 127 95 104 70 48 96 73 115 137 180 117 48 98 53 84 93 125 167 56 150 92 112 65 104 132 172 123 86 80 213 142 81 93 114 88 87 135 110 94 132 136 65 93 50 98 99 68 109 106 100 91 119 100 92 56 124 102 125 89 70 54 81 124 138 165 88 68 142 50 66 126 112 69 115 84 113 95 108 27 120 87 146 134 59 141 91 96 119 86 48 109 87 105 45 34 116 94 119 79 80 20 70 151 81 130 95 59 169 99 96 64 112 88 203 57 127 61 35 70 61 104 67 130 78 96 65 84 104 146 71 116 57 47 124 74 110 116 168 120 129 97 100 116 94 171 104 79 107 90 41 111 48 108 94 129 68 133 86 43 100 94 166 142 93 87 139 128 77 148 92 51 81 107 69 111 78 68 163 134 93 95 77 120 73 38 112 91 157 110 115 93 94 122 92</t>
-  </si>
-  <si>
-    <t>MIE(0.262965782104999, 2.591859720857461, -1.1048220273773755e-31, 1.6041526107695714)</t>
-  </si>
-  <si>
-    <t>1 0 3 1 1 3 0 0 1 1 0 1 0 2 0 2 1 0 1 0 1 0 0 0 2 1 2 1 2 1 0 2 1 3 0 0 0 1 0 1 1 1 0 0 0 0 0 2 0 1 1 3 1 0 0 0 0 2 2 0 0 0 1 2 0 0 2 1 1 2 1 1 0 0 0 1 1 0 0 2 1 2 0 1 2 1 0 1 3 1 1 0 1 0 1 0 1 3 0 1 2 1 1 1 1 0 1 0 2 2 1 3 1 1 0 1 1 3 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 2 0 0 3 1 0 1 0 0 2 1 1 2 0 3 2 1 2 2 0 1 2 0 1 0 0 0 1 1 1 2 1 0 1 0 0 0 1 4 0 1 0 1 0 1 1 2 0 0 1 1 0 3 1 3 1 0 0 1 2 0 0 0 1 0 1 2 3 0 1 0 2 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 2 0 0 2 1 0 0 0 0 2 1 1 1 0 2 1 0 0 1 0 0 0 1 1 1 0 0 0 2 1 1 1 1 0 0 1 0 0 0 1 2 2 0 1 0 2 2 0 0 2 0 1 0 1 1 0 0 0 1 1 1 0 1 0 1 2 0 1 0 0 0 1 1 0 0 0 0 1 0 2 1 0 0 0 1 1 0 2 0 2 0 2 0 0 1 1 1 2 1 2 1 1 1 2 0 2 0 1 0 0 1 0 0 2 0 2 3 0 2 1 2 0 1 0 1 1 2 0 0 2 0 0 2 0 1 1 0 1 1 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0 0 0 1 0 2 0 1 0 0 1 0 1 0 1 2 2 1 1 2 3 2 2 1 1 2 0 1 0 1 0 0 0 0 1 2 0 1 2 0 1 1 1 1 1 1 0 1 0 0 2 0 1 1 1 1 1 1 0 1 1 2 1 0 1 1 3 1 0 1 0 0 1 0 0 0 1 0 1 0 2 0 1 0 0 1 0 0 1 2 0 1 0 1 0 2 1 0 1 2 0 0 2 1 2 1 3 1 0 1 0 0 1 1 1 0 2 3 1 0 1 1 0 0 0 1 1 1 1 2 0 2 2 2 0 0 1 0 2 0 1 1 0 1 1 1 0 0 3 0 1 1 1 1 0 2 2 2 0 2 1 0 0 1 1 2 1 2 0 0 0 1 0 2 1 1 0 0 0 0 0 1 1 2 0 0 0 2 0 0 1 0 0 0 0 3 1 1 1 3 3 0 0 1 3 0 0 1 0 1 1 1 0 0 1 1 2 0 1 1 0 0 1 0 1 0 0 0 4 1 0 4 0 0 2 0 0 1 1 0 0 1 0 1 0 0 0 1 2 1 0 3 1 1 0 1 0 1 1 0 2 0 0 0 1 2 0 0 0 0 2 2 1 2 1 1 2 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 1 0 2 0 0 2 1 2 2 0 2 0 0 1 0 1 1 1 1 1 0 0 2 0 1 0 1 0 1 2 0 0 2 0 1 1 2 2 1 1 3 0 2 2 0 1 1 0 1 1 0 0 0 1 2 0 0 2 1 0 0 2 0 1 0 1 0 0 2 0 0 0 1 0 0 0 3 0 1 0 0 0 0 0 0 0 3 1 3 1 0 0 1 1 2 2 1 0 0 2 0 1 0 1 1 0 2 1 1 1 1 0 0 0 0 0 1 1 0 3 1 0 1 0 2 0 1 0 1 1 0 1 2 1 0 0 0 2 0 1 0 1 0 0 0 0 1 1 1 0 0 2 1 5 2 2 0 1 0 0 0 1 2 0 1 0 0 0 1 0 2 0 1 0 3 1 4 0 2 2 2 0 0 3 0 1 1 0 0 1 0 2 1 2 2 2 0 0 0 2 0 1 2 0 0 1 0 0 1 3 2 2 2 1 0 2 0 2 0 1 1 1 1 0 1 0 2 1 0 1 2 0 0 1 0 0 0 1 0 2 1 1 0 0 1 1 0 2 0 0 1 1 0 1 0 0 0 0 1 1 0 1 1 2 0 1 0 0 0 1 0 2 1 2 1 0 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 2 1 3 1 0 0 2 1 0 0 0 0 0 0 2 0 0 1 0 1 1 0 2 1 1 1 0 1 1 1 1 0 2 1 2 2 1 0 0 1 2 2 0 0 0 1 2 0 0 1 0 1 1 0 1 0 1 1 1 0 1 2 2 2 0 0 1 2 0 1 0 2 2 0 0 0 1 0 2 0 2 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 1 0 0 2 1 1 0 1 0 0 2 2 1 0 1 1 1 0 1 1 2 0 1 2 0 0 1 1 0 0 1 0 0 0 2 0 1 2 1 3 0 0 0 2 0 0 1 3 2 1 2 4 0 0 2 0 0 1 2 1 0 1 0 2 0 1 0 0 0 1 2 0 0 1 1 1 2 0 1 3 0 2 1 1 3 0 0 0 0 0 2 2 0 1 3 0 0 1 1 0 1 2 0 1 1 2 0 1 0 0 2 0 2 0 3 1 1 0 2 0 1 0 0 2 0 0 0 2 0 2 1 0 0 0 2 1 1 1 0 1 2 0 0 1 1 0 2 2 1 1 0 1 1 0 0 2 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 2 1 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 0 0 1 2 0 0 2 1 0 0 0 2 1 3 2 2 2 2 2 1 2 0 1 0 1 0 2 0 0 0 1 0 1 0 1 0 0 0 2 2 0 2 0 0 1 1 1 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 2 0 0 1 0 0 1 0 1 2 0 1 1 1 1 0 0 1 0 1 1 0 3 1 0 1 2 0 0 1 1 1 1 1 1 0 0 1 2 0 0 1 1 0 2 0 0 0 0 0 2 1 3 1 3 0 2 1 1 0 0 1 2 2 0 0 1 0 3 1 1 2 1 2 1 0 0 2 2 0 1 1 0 1 0 1 1 0 0 0 1 1 0 1 0 2 0 1 0 2 0 0 2 2 0 2 1 1 3 1 2 0 0 0 2 1 1 0 1 1 0 2 2 0 1 1 0 1 0 1 1 0 2 2 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 2 0 0 0 1 2 2 1 0 1 0 0 0 0 1 0 0 2 1 2 2 2 0 1 1 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 2 2 2 0 0 3 3 1 2 2 2 1 1 1 1 0 2 1 0 3 1 2 0 1 2 1 0 1 1 1 0 0 0 1 1 0 1 2 1 1 0 1 0 1 0 2 2 1 0 3 0 1 0 0 1 1 0 1 1 1 2 0 0 0 1 1 1 0 2 1 3 2 1 0 0 1 0 1 2 1 1 3 2 1 1 2 0 1 1 0 0 1 1 0 0 2 1 0 1 2 0 0 1 2 0 0 1 2 1 1 0 1 0 1 2 2 2 0 0 1 0 2 1 1 1 0 2 2 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 2 0 1 0 1 0 2 0 1 1 1 0 0 2 0 0 0 0 1 1 1 0 2 0 1 0 1 2 0 2 2 1 5 0 1 0 0 2 0 1 1 0 1 0 0 1 1 0 2 1 2 2 0 0 1 0 2 0 0 0 1 1 0 1 0 0 0 1 1 0 2 2 0 1 1 1 0 2 0 0 1 1 0 0 1 0 3 1 0 2 0 0 1 1 0 0 0 0 0 0 1 0 2 0 0 1 1 1 1 1 1 0 2 0 3 1 1 0 2 0 1 1 2 0 1 0 1 1 0 1 0 1 0 2 1 1 1 1 0 0 0 1 0 2 0 0 1 1 1 0 1 0 0 0 1 2 0 1 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 2 0 1 1 1 0 1 0 0 1 2 0 3 2 0 1 0 0 1 0 0 2 1 1 1 0 1 1 1 0 3 0 1 0 1 1 2 0 0 2 1 3 2 1 1 0 0 1 0 0 0 0 1 1 0 0 0 3 4 0 1 1 0 1 2 1 1 1 0 1 1 1 2 0 0 1 1 1 1 0 0 0 1 1 1 1 0 1 1 1 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 1 0 1 2 2 1 1 1 1 1 1 0 1 2 0 0 2 0 0 0 1 0 0 2 2 2 1 0 1 0 0 1 0 1 1 3 1 2 0 4 2 0 2 1 1 0 1 0 1 3 2 2 0 1 0 1 0 1 0 0 1 0 0 0 1 2 1 1 1 2 0 2 0 1 1 1 0 0 0 1 1 0 1 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 2 0 0 0 1 0 2 2 2 0 0 0 1 4 0 1 0 1 0 1 0 1 0 1 2 0 1 0 1 3 0 1 1 0 2 1 0 0 0 1 5 1 1 0 2 3 2 1 1 2 1 0 2 1 0 0 0 2 2 2 0 0 2 2 1 0 1 0 1 0 1 2 0 1 0 2 1 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 1 2 0 1 0 0 0 1 0 0 2 3 0 0 0 0 1 0 0 0 1 3 1 0 0 0 0 1 1 2 0 2 1 2 0 1 1 0 1 1 0 1 1 1 0 0 0 2 3 0 0 1 1 1 1 0 1 0 0 1 2 0 0 1 1 2 0 0 0 0 0 0 1 0 2 0 1 0 1 0 1 0 1 1 1 2 1 1 0 0 1 1 1 0 2 0 1 0 0 0 0 0 0 4 1 0 1 1 1 0 1 0 0 2 0 1 0 2 1 2 0 0 0 1 2 2 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 1 1 2 1 1 0 0 1 1 1 1 0 1 0 2 1 4 0 0 2 2 0 0 1 1 0 1 0 0 1 0 1 0 1 2 0 1 5 0 0 1 1 0 2 0 0 0 2 1 2 0 1 1 1 1 2 1 1 1 3 0 2 1 1 2 1 1 2 2 2 1 2 1 1 1 1 0 1 0 1 2 0 0 2 0 0 2 1 2 1 0 2 0 2 3 0 2 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 2 2 1 1 0 0 1 0 0 1 2 0 2 0 1 1 0 0 1 1 0 2 1 0 1 0 1 1 0 0 2 0 2 2 0 2 1 3 1 1 1 2 2 0 2 1 1 2 0 1 0 1 0 0 1 0 1 1 1 0 1 0 4 1 2 0 0 0 2 1 1 0 0 1 1 3 0 0 0 1 2 1 2 1 2 1 2 1 2 1 0 1 0 2 0 0 1 2 3 1 0 0 1 0 0 1 0 2 0 3 3 1 2 0 1 0 1 1 1 0 0 1 2 2 0 2 0 0 0 0 3 0 1 1 0 1 1 2 1 2 2 2 0 1 0 2 4 0 1 0 1 1 0 0 1 4 1 1 2 1 0 1 2 2 0 2 0 1 0 0 0 2 1 2 0 1 2 1 1 2 2 0 2 1 2 1 0 2 0 0 0 0 1 1 1 2 2 0 1 1 0 0 0 1 2 0 1 0 1 0 0 1 1 2 0 2 3 1 0 0 0 0 1 0 1 2 0 0 0 2 1 2 1 1 2 0 2 1 0 0 0 2 1 1 0 1 1 1 0 1 1 3 0 0 0 0 0 1 0 1 0 0 2 1 0 1 0 0 0 1 3 1 1 3 0 0 1 1 3 1 0 0 0 1 0 2 1 0 1 1 1 1 0 0 0 3 0 2 1 1 1 0 0 0 1 0 0 2 1 1 0 0 0 2 0 0 2 0 0 1 0 2 2 1 0 0 1 3 1 1 1 0 0 2 1 0 1 2 0 2 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 3 0 0 1 0 0 0 1 0 0 0 1 4 0 1 0 0 2 0 1 1 1 1 1 0 2 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1 2 0 1 0 3 0 1 0 1 0 0 1 0 2 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 3 0 1 1 2 3 1 0 0 3 1 1 0 1 1 1 1 0 0 2 2 0 0 1 0 0 0 0 1 1 0 1 1 0 3 0 0 1 0 0 2 3 0 2 1 1 2 0 0 2 1 0 1 0 0 2 3 0 1 0 2 2 0 0 0 2 0 2 0 1 0 0 0 0 0 0 0 0 2 0 3 0 0 1 0 0 2 0 0 1 0 1 2 1 1 3 1 2 1 2 0 1 1 1 1 0 1 0 0 2 1 1 0 0 1 2 0 0 0 0 3 2 0 0 0 2 1 0 1 0 1 1 2 0 0 0 2 2 1 1 2 1 2 0 1 1 1 1 0 2 2 2 1 0 0 2 0 0 1 1 0 1 0 0 1 0 1 0 1 0 2 2 0 1 1 3 1 1 2 0 0 2 3 0 3 0 0 0 0 1 1 2 0 1 1 1 0 0 0 0 0 0 2 0 1 0 2 1 1 0 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 0 1 1 1 0 1 0 0 2 0 0 0 2 1 0 0 3 3 1 0 2 2 0 1 1 2 2 2 0 1 1 0 1 0 2 1 0 1 1 0 0 2 0 0 2 1 1 2 1 1 0 1 2 0 0 1 0 0 1 1 0 1 0 0 0 0 0 3 1 2 2 5 2 1 0 0 0 2 0 0 1 0 1 2 2 0 0 1 0 1 0 0 1 1 0 1 1 0 0 2 1 2 3 1 1 0 1 3 1 1 0 0 1 1 1 1 0 0 1 0 1 0 2 1 0 0 2 1 2 0 1 1 1 0 1 0 0 1 0 2 0 1 0 0 0 2 0 0 0 0 0 0 0 1 2 1 1 1 2 2 1 0 0 1 0 1 0 0 2 0 2 1 2 3 0 4 1 2 1 0 0 2 0 2 2 1 2 0 0 1 0 1 1 1 0 0 0 2 0 0 0 1 0 0 2 1 1 1 0 0 1 1 1 2 0 0 1 0 0 0 1 2 3 0 3 2 0 0 1 1 1 1 0 0 2 0 0 0 2 0 0 1 1 0 3 1 1 1 2 0 1 0 0 4 2 1 1 1 1 0 0 3 1 0 1 2 2 0 1 0 2 1 1 1 0 0 1 1 1 0 0 2 2 3 1 0 2 0 0 1 0 0 2 1 1 1 1 2 0 0 2 0 0 0 0 1 0 0 1 0 1 0 1 0 1 3 1 2 1 0 1 0 0 1 1 0 2 0 1 0 0 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 1 1 0 2 2 1 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 1 1 0 0 1 2 1 1 2 1 2 3 0 2 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 1 1 2 0 1 2 1 1 2 0 0 0 1 0 0 2 1 1 1 1 0 1 1 0 1 0 0 2 1 1 1 0 2 2 1 2 1 0 0 0 0 0 0 1 1 0 1 2 0 1 0 1 0 1 0 1 1 1 0 0 0 1 2 2 1 1 1 1 1 0 0 1 1 1 0 1 1 0 2 2 1 0 0 1 1 0 1 2 3 1 0 1 1 0 1 1 0 2 2 0 0 0 0 0 1 2 1 0 0 2 1 0 0 1 0 0 2 1 1 1 0 0 1 0 1 0 1 0 2 0 1 0 0 0 1 1 2 0 3 2 1 2 0 2 1 1 1 2 2 1 2 1 1 1 1 1 1 0 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 1 2 1 0 2 2 0 2 1 0 0 1 2 2 0 1 2 1 0 0 0 0 1 1 1 0 0 1 0 1 0 2 2 0 0 1 1 1 2 1 2 1 0 0 2 1 1 1 0 0 1 1 0 0 1 1 0 1 0 2 1 0 0 1 0 0 0 0 2 2 1 0 0 1 1 0 1 0 1 0 0 1 0 2 2 0 0 1 0 1 1 2 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 3 0 0 0 1 1 3 1 0 0 0 1 0 0 1 2 1 1 1 0 1 1 0 0 2 2 2 0 0 2 2 2 1 1 0 0 0 2 3 0 1 0 1 3 1 1 2 0 1 0 2 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 1 0 2 0 1 3 1 0 0 0 0 1 2 0 3 0 0 2 0 0 0 0 1 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 2 1 1 1 0 1 1 0 3 0 1 2 0 2 1 1 2 1 3 0 1 1 0 0 0 0 0 1 1 2 2 4 0 3 1 1 0 0 0 1 0 1 1 1 1 0 1 0 0 1 0 2 0 1 0 1 0 0 1 2 0 0 1 2 1 0 1 0 2 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 3 0 0 2 0 2 2 0 0 0 2 0 2 2 0 0 0 2 1 2 1 0 0 1 0 2 0 1 0 3 1 0 1 2 2 0 3 0 0 0 3 1 0 0 1 0 2 0 1 1 0 2 0 1 0 0 1 2 1 1 3 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 2 0 2 2 3 1 0 3 0 0 1 0 1 1 0 1 0 3 2 1 0 2 2 1 0 0 0 2 1 1 0 1 0 1 0 1 0 0 0 0 0 2 1 2 1 2 2 1 0 0 1 3 1 0 1 0 2 1 0 0 0 1 0 0 0 0 1 0 2 1 1 0 0 1 0 0 0 0 0 2 0 0 0 2 1 1 1 0 2 1 0 1 0 2 0 0 1 2 0 0 1 2 0 2 1 1 0 0 0 1 0 1 0 0 0 1 1 2 0 0 0 0 2 2 1 2 1 0 1 1 1 0 0 0 0 2 1 1 0 0 1 1 1 2 3 2 2 0 0 0 1 1 1 1 3 2 0 2 1 0 0 1 1 2 1 1 1 0 2 0 1 0 0 1 0 1 3 0 0 2 0 2 2 0 0 2 3 0 0 3 0 1 0 2 1 0 1 0 2 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 2 0 1 1 1 2 1 0 0 1 1 0 1 0 2 1 0 0 1 1 1 0 4 3 3 1 2 0 1 0 0 0 0 0 2 2 1 1 0 1 2 0 2 0 1 0 3 2 2 2 2 0 0 3 1 2 2 1 0 0 1 1 3 1 1 0 1 2 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 1 3 1 1 1 2 1 0 1 2 1 1 1 1 0 1 1 1 3 1 1 1 0 0 1 0 0 0 0 0 0 0 1 3 0 1 2 0 0 2 1 0 2 1 0 1 0 1 0 0 1 3 1 0 2 1 3 0 2 0 0 0 0 1 1 2 0 0 1 1 0 1 0 2 0 0 2 0 1 0 0 0 0 2 0 1 1 0 0 0 0 2 4 2 0 1 1 1 0 0 0 1 1 0 1 1 2 0 0 2 0 0 0 1 1 1 1 1 0 0 0 2 0 1 2 2 1 2 0 1 1 0 1 0 1 0 1 0 0 0 2 1 1 0 1 0 2 0 0 1 0 0 1 1 1 2 0 2 1 0 2 0 2 2 1 3 0 0 1 2 0 2 2 1 2 0 1 1 0 3 1 4 2 1 2 2 1 0 1 0 0 1 1 0 0 2 0 1 0 1 1 1 1 1 1 0 2 1 1 0 0 1 0 0 0 0 1 2 0 0 0 1 3 1 1 2 1 0 1 0 0 1 0 2 0 0 3 1 1 1 1 1 1 2 0 0 1 2 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 3 0 0 0 1 1 0 0 0 0 0 0 1 2 1 0 1 0 1 0 1 1 1 2 0 1 1 1 0 0 0 1 1 1 0 3 0 1 1 0 1 1 0 1 0 2 1 1 1 1 0 3 2 1 0 1 1 1 1 2 0 1 1 2 0 1 0 2 0 1 1 0 0 0 1 0 1 1 2 2 0 0 1 0 1 1 0 0 0 1 1 1 0 1 1 0 2 0 0 2 0 1 2 3 1 0 1 0 0 0 1 0 0 2 0 0 1 0 1 0 1 0 1 2 2 0 1 1 1 0 1 2 2 3 2 1 0 1 2 0 1 0 1 1 1 1 0 1 0 1 0 2 1 1 3 1 2 0 1 0 0 0 3 0 1 0 1 0 1 0 2 1 0 1 1 3 2 1 0 2 1 2 0 0 0 1 2 0 0 1 0 1 2 0 2 0 1 2 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 0 0 1 0 3 0 0 0 1 0 3 1 2 2 0 0 4 1 0 1 2 1 2 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 1 2 0 1 2 0 4 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 1 2 0 1 2 1 0 4 1 2 0 0 2 2 0 2 0 0 0 3 2 1 0 2 1 3 3 0 1 2 1 1 1 0 0 0 0 0 0 2 1 1 3 1 2 0 1 0 0 0 0 2 1 0 1 1 0 1 1 0 1 0 2 1 1 0 0 3 0 1 0 0 1 1 0 0 0 0 1 1 1 0 1 2 0 2 0 0 0 2 2 0 0 2 0 0 1 0 0 0 0 0 1 2 0 0 1 1 0 1 1 0 0 0 1 1 2 1 0 0 1 0 0 1 1 1 0 1 0 1 2 0 0 0 2 0 1 0 0 1 1 1 0 0 1 0 1 1 0 1 1 1 1 0 2 1 1 1 0 1 1 1 3 0 2 1 0 0 1 1 1 1 0 1 0 1 0 2 0 0 1 0 2 2 0 0 0 0 0 1 2 0 2 0 0 1 3 0 1 2 0 1 0 1 0 0 0 1 0 1 1 0 1 0 0 2 2 0 3 1 1 2 1 1 2 1 0 1 1 1 0 1 0 0 0 0 1 1 1 1 0 1 0 2 1 2 2 0 0 0 2 1 0 1 0 0 1 0 1 0 2 1 3 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 3 0 0 0 2 2 0 1 2 0 0 1 0 1 1 0 1 2 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 2 1 2 2 2 0 0 1 3 1 1 1 1 1 0 0 2 1 1 1 0 3 1 2 3 1 1 0 1 0 1 2 0 2 1 1 1 0 1 0 1 0 1 1 1 1 2 1 1 3 0 2 1 2 1 1 2 1 2 0 2 1 1 0 1 1 0 0 1 1 0 1 2 2 2 1 0 1 1 0 1 0 2 1 0 0 0 0 0 3 2 1 0 1 1 2 2 2 0 0 2 2 1 0 1 1 1 2 1 2 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 2 1 5 1 0 0 0 0 1 1 2 0 3 0 0 2 0 0 2 3 1 1 1 0 0 0 0 2 1 0 0 1 0 0 1 3 0 0 0 0 0 1 2 2 1 0 0 0 1 1 3 0 1 1 2 1 1 0 0 0 0 1 0 0 1 0 1 2 1 0 1 0 1 1 1 2 3 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 1 3 0 3 2 2 1 1 0 2 0 1 0 0 0 0 2 1 2 1 0 0 2 2 1 0 1 0 0 2 0 3 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 3 0 1 0 2 0 1 2 1 0 2 0 0 0 0 1 1 3 1 1 0 1 0 0 0 2 0 1 1 0 1 3 0 1 2 1 0 0 1 0 1 0 1 0 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 0 1 0 2 2 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 2 0 1 0 0 2 0 0 0 0 0 2 2 0 1 0 1 1 1 0 0 1 2 1 1 0 0 1 0 1 0 2 1 1 1 3 2 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 2 2 2 0 0 1 0 1 1 0 1 3 1 1 1 3 2 0 2 1 1 0 0 0 1 1 1 2 0 1 1 0 0 2 0 2 0 0 0 2 1 0 2 1 0 0 1 3 2 1 1 3 1 1 1 0 0 1 0 0 1 1 3 0 1 1 1 0 1 1 0 0 0 1 0 2 2 2 0 2 2 1 1 0 0 0 0 2 1 2 2 1 0 0 2 1 0 2 1 1 1 0 0 2 1 2 1 1 0 1 2 2 3 0 0 0 0 2 0 2 0 1 1 0 1 0 1 1 1 1 0 0 0 1 0 2 1 0 0 0 0 0 1 1 0 0 0 0 3 1 0 0 0 1 2 3 1 1 0 0 1 1 1 2 1 0 2 0 3 2 1 2 1 2 1 0 3 1 1 1 1 2 1 2 0 0 0 0 1 1 0 2 1 0 0 1 2 2 0 0 0 1 1 1 1 0 1 1 0 2 0 1 0 0 2 0 0 1 0 0 1 1 1 0 1 2 0 0 1 0 1 0 1 1 1 1 0 0 2 2 0 1 0 1 2 0 0 0 0 0 1 0 1 2 1 1 0 1 0 1 0 1 0 0 0 1 2 1 1 0 0 1 0 2 2 2 1 1 1 0 2 2 0 1 2 2 1 0 1 2 1 0 1 0 0 1 0 0 1 1 0 0 1 2 1 2 1 0 0 2 2 0 1 0 3 1 3 1 1 0 0 1 0 0 0 1 1 0 0 0 3 2 1 1 1 0 0 0 0 2 2 1 0 0 1 1 0 0 1 3 2 0 1 0 1 0 0 0 0 2 1 1 0 0 0 2 3 1 2 2 0 0 1 0 1 0 0 0 0 2 0 0 1 1 1 0 0 0 2 0 1 2 0 1 1 1 0 1 0 3 0 2 2 0 0 0 0 2 0 0 0 1 0 1 1 2 1 1 0 2 0 0 0 1 2 2 1 0 0 2 0 0 0 1 1 2 0 2 1 2 1 1 0 2 0 4 3 1 0 0 0 0 1 1 1 1 2 0 1 1 0 3 0 0 0 2 1 0 0 0 1 1 1 2 1 1 2 1 0 1 1 1 0 2 1 3 0 1 1 2 1 0 1 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 1 1 0 2 1 0 1 0 0 1 0 0 1 3 1 0 1 1 0 1 2 2 3 1 0 1 0 2 1 2 0 0 1 1 0 1 1 0 2 1 0 0 2 0 0 0 1 0 1 0 4 1 1 0 0 0 1 2 1 0 3 4 0 0 0 0 1 0 0 1 0 0 2 2 1 0 0 1 1 0 0 0 1 1 0 1 1 3 1 0 1 2 0 2 0 0 1 0 2 2 0 2 2 2 1 0 1 1 0 0 2 1 1 1 2 1 2 0 1 3 1 2 1 2 0 0 0 0 0 0 3 0 1 0 0 0 1 0 1 1 1 1 1 1 2 0 1 0 0 1 0 2 0 0 1 0 2 1 2 1 0 1 1 0 1 0 1 0 0 0 2 1 0 2 2 0 0 0 0 1 0 1 0 2 1 1 3 1 0 0 1 0 3 1 1 2 0 0 1 2 0 0 2 1 0 0 0 1 1 1 1 0 1 1 0 1 0 2 2 1 1 0 0 0 0 1 1 0 0 0 2 0 0 1 1 1 0 0 1 0 2 0 2 1 0 0 1 1 0 0 2 1 1 0 0 0 2 0 0 1 1 1 0 0 2 0 0 0 1 1 0 0 0 1 0 0 0 1 1 1 0 1 2 0 0 1 0 1 2 2 0 0 0 2 2 1 0 1 0 0 0 3 0 0 0 2 3 0 2 1 0 1 1 1 0 0 1 0 1 3 2 1 1 0 0 1 1 1 0 1 4 0 0 0 0 0 1 1 0 1 1 0 3 2 0 0 3 3 1 0 0 0 1 0 0 3 1 1 0 1 1 2 0 1 0 0 0 0 0 1 1 2 4 2 3 1 0 0 0 1 0 1 1 3 1 2 0 0 1 1 1 4 0 0 1 0 0 3 2 0 1 1 0 2 1 1 1 0 2 3 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 2 2 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 2 1 3 1 1 1 1 2 1 2 1 0 2 0 1 1 0 0 0 3 0 1 0 0 1 0 0 1 1 0 0 1 2 1 1 0 1 2 0 0 0 0 1 0 1 0 1 3 1 2 0 2 1 1 1 0 1 1 0 0 0 5 0 0 1 2 0 0 0 1 1 1 0 2 1 2 0 1 1 1 1 0 0 0 2 0 0 1 0 1 0 1 0 1 0 3 1 0 0 1 1 2 0 0 1 2 3 0 0 1 0 1 1 1 1 0 1 1 1 1 2 0 0 0 1 1 0 0 0 2 0 2 1 2 0 1 2 0 0 2 2 0 1 0 1 1 1 0 3 1 0 0 0 1 2 1 1 1 3 0 1 1 1 1 3 1 0 0 2 1 1 2 0 0 2 0 1 1 1 1 0 0 1 0 0 0 4 2 0 0 1 1 2 0 1 1 1 2 1 1 1 0 1 2 1 1 1 0 0 0 1 0 0 1 1 0 1 1 1 2 2 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 4 0 1 2 0 1 3 1 1 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 2 2 2 0 1 0 1 2 1 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 0 1 1 1 0 1 1 2 0 0 1 0 0 1 1 0 0 0 2 0 1 0 0 2 0 2 0 0 1 0 2 1 1 2 2 0 1 1 1 0 1 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 2 0 1 0 0 0 2 0 0 0 0 1 0 1 0 2 1 1 2 2 0 0 0 1 0 4 0 0 1 1 0 1 1 0 0 0 0 2 0 1 1 1 2 1 0 1 0 0 0 1 0 1 0 1 2 0 1 2 1 2 0 2 3 0 0 2 0 0 0 0 0 2 1 2 0 0 1 2 1 0 0 0 0 0 1 1 1 1 0 0 3 1 1 0 1 0 1 0 1 2 2 0 2 0 1 2 0 1 1 0 2 0 3 1 0 2 1 4 1 0 2 0 0 3 1 1 0 2 1 1 0 1 0 1 0 1 0 1 1 2 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 1 2 1 1 0 0 1 0 1 1 0 0 1 1 0 1 1 2 1 1 0 1 1 0 0 1 0 0 1 0 1 0 1 2 0 0 0 2 0 0 0 1 0 0 1 1 2 3 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 2 1 1 0 2 1 0 0 0 0 2 1 0 0 0 0 1 2 0 0 0 0 1 0 2 2 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 1 0 2 0 0 1 1 0 0 1 0 3 0 0 0 0 0 0 2 1 1 1 0 3 1 1 0 1 1 1 1 1 3 1 1 1 1 0 2 1 0 0 1 1 0 1 3 0 0 0 1 2 1 1 1 1 2 2 2 1 1 0 0 1 1 0 1 0 1 1 1 1 2 1 2 2 1 1 1 0 1 1 0 0 2 1 1 1 1 2 2 0 1 3 2 0 1 1 0 1 0 2 0 0 0 1 0 0 0 3 1 3 1 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 2 1 0 4 1 0 0 3 1 1 0 0 0 2 1 1 1 2 2 0 1 1 1 1 2 0 2 2 1 2 1 1 0 1 0 0 0 0 1 0 1 1 1 2 2 0 1 0 0 2 0 1 0 0 0 1 2 0 2 0 0 1 1 2 0 1 0 1 0 0 0 0 0 0 0 0 0 3 0 2 1 1 1 2 0 1 1 0 0 1 0 1 0 1 1 0 0 2 2 2 3 2 0 0 1 0 0 2 1 2 1 2 1 1 2 1 0 1 0 3 1 0 1 1 0 2 0 2 2 1 0 1 0 1 0 1 1 2 0 0 2 0 0 0 0 0 0 2 0 0 0 2 0 0 2 0 0 1 1 0 1 1 1 1 0 0 1 0 0 2 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 2 1 1 2 0 0 0 4 2 3 1 1 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 0 2 0 1 1 0 1 1 2 1 1 2 0 1 0 0 0 0 1 2 2 2 0 1 1 1 0 1 0 2 1 0 0 2 0 1 0 0 2 0 0 0 2 1 3 1 0 3 0 0 2 1 1 2 0 0 1 2 1 0 1 0 1 1 0 0 0 0 1 1 1 1 0 2 0 2 0 1 0 3 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 2 0 1 0 1 3 0 0 1 1 0 0 1 1 2 2 1 2 2 1 2 0 1 0 0 0 0 0 1 2 0 0 1 0 1 1 1 1 1 2 0 1 3 0 0 0 2 1 1 2 1 3 0 1 1 0 1 0 2 1 1 0 1 1 3 2 1 0 0 1 1 0 3 2 2 1 0 1 1 2 1 1 1 2 1 2 0 0 0 0 2 1 0 1 0 1 0 2 1 0 1 2 2 2 1 0 2 0 0 2 0 1 1 0 0 2 1 0 2 0 2 2 0 0 2 0 0 0 2 0 0 2 1 2 1 0 0 1 1 1 3 0 0 0 2 0 1 1 0 0 2 1 0 3 0 0 0 0 0 0 1 2 2 0 0 0 1 2 1 1 1 1 0 0 1 2 1 1 0 0 0 0 1 1 2 1 0 2 1 0 1 0 1 1 0 0 0 0 1 0 2 1 0 1 1 0 0 1 0 1 1 1 0 2 4 0 0 2 0 0 0 1 1 3 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 3 2 1 0 2 1 2 0 2 0 2 1 0 0 2 1 1 3 1 1 2 1 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 0 1 2 1 2 1 0 0 0 2 2 1 2 0 2 1 1 0 1 2 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 2 0 1 1 2 0 2 1 1 2 0 0 1 1 1 2 0 0 2 0 0 0 0 2 0 0 1 4 1 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 2 3 1 1 2 2 1 0 1 0 2 0 0 1 0 0 2 0 0 1 1 0 0 1 0 1 1 1 1 1 3 2 0 1 0 4 0 2 0 2 2 1 1 1 1 0 0 0 1 0 1 1 3 0 0 0 0 0 1 2 2 2 1 1 1 0 0 0 1 1 2 0 3 2 0 1 2 0 0 0 0 1 1 1 0 3 0 0 0 0 0 2 0 0 0 0 1 2 0 1 2 1 2 0 1 3 0 3 0 0 1 1 0 0 0 0 0 0 0 3 0 0 0 0 0 1 2 0 1 1 1 1 0 0 1 0 0 0 1 0 3 2 0 1 0 1 0 3 0 0 1 3 3 2 0 4 1 2 1 0 3 0 2 1 0 0 4 2 0 2 1 0 1 1 0 1 2 2 3 0 0 0 0 0 2 0 0 0 2 0 1 0 1 1 3 1 1 2 0 1 0 1 0 1 0 2 1 0 1 1 0 1 0 1 1 1 0 1 0 2 1 1 0 1 1 1 1 1 2 1 0 0 1 0 1 1 0 1 0 1 0 0 0 0 4 0 2 0 2 1 0 2 1 1 2 1 1 1 0 1 0 0 1 2 0 1 0 0 1 0 0 0 4 3 0 1 0 0 0 1 0 1 0 0 0 0 1 1 2 3 0 0 1 1 1 2 1 1 1 0 1 0 0 2 0 1 1 0 0 2 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 1 4 1 0 1 3 2 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 2 2 0 0 1 0 0 1 2 0 1 1 1 2 0 1 1 2 1 1 0 1 1 1 1 0 2 0 0 3 1 0 1 2 1 0 0 1 2 1 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 3 0 0 0 1 1 0 1 1 0 2 2 0 2 0 2 1 0 1 0 0 1 1 0 3 0 0 0 0 5 0 1 2 0 0 0 1 1 0 3 0 0 1 0 0 1 0 0 1 0 3 1 1 0 0 0 0 0 0 3 1 2 1 0 0 0 1 2 0 1 0 1 1 0 2 1 0 1 1 2 1 0 1 0 0 1 0 1 1 0 0 0 1 1 2 0 1 0 1 2 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 1 0 0 2 0 1 1 1 0 3 0 1 2 3 0 0 1 1 1 1 3 1 0 0 2 1 0 1 1 0 2 0 0 0 0 2 0 0 1 1 0 0 0 1 0 1 0 1 2 1 2 1 1 2 0 1 0 2 0 1 1 1 2 1 1 0 3 0 2 0 1 1 0 1 0 0 0 2 0 1 0 0 1 0 1 2 0 2 0 4 1 1 2 0 2 3 0 1 2 1 1 0 0 0 1 1 1 1 0 1 0 1 0 0 0 1 0 2 1 2 0 1 1 2 2 0 0 0 1 2 2 0 1 2 0 1 1 2 0 0 0 1 2 0 2 2 1 1 0 1 0 1 1 1 0 1 0 2 1 0 2 0 1 1 1 1 0 0 1 0 1 1 1 0 2 0 1 0 0 0 0 0 0 0 0 2 3 1 0 0 1 0 1 0 1 0 1 3 0 2 0 2 3 0 2 1 2 1 1 1 1 0 0 0 0 2 0 1 3 0 0 0 1 1 1 2 1 0 2 1 2 1 2 0 0 0 2 2 1 2 0 0 0 0 1 0 1 0 0 0 2 1 1 0 0 1 1 2 0 3 0 1 1 1 2 0 0 2 1 1 0 2 0 1 0 0 0 1 0 1 2 2 0 1 1 0 2 3 1 1 1 0 0 2 0 1 1 0 0 3 1 1 0 1 1 0 1 2 0 0 2 1 2 0 0 1 0 0 0 1 0 0 0 3 1 0 0 2 0 0 1 0 2 0 0 0 0 1 2 1 3 0 0 0 2 0 0 0 1 2 1 0 0 0 0 2 0 1 0 1 1 0 2 0 0 3 3 2 1 0 1 2 1 2 1 0 1 1 0 0 1 1 1 0 2 0 0 1 1 1 1 3 0 0 2 1 1 0 2 0 1 1 0 1 1 0 0 2 1 0 2 2 1 0 0 1 0 2 1 0 1 0 0 0 1 0 2 2 1 1 2 1 1 3 0 0 2 0 0 2 0 2 0 0 2 1 1 1 0 1 0 1 1 1 1 1 0 0 2 0 1 0 0 0 2 0 1 0 2 1 0 3 1 0 0 2 0 0 1 0 0 1 0 0 2 2 2 0 2 0 0 0 1 0 1 2 2 1 0 0 1 0 0 1 0 0 2 1 1 2 1 0 1 1 1 1 0 0 0 3 0 0 0 0 1 2 0 1 0 0 0 1 1 2 0 2 0 1 1 3 2 1 1 3 1 1 0 0 1 2 0 0 0 1 0 0 1 1 1 0 0 2 2 2 2 0 1 1 0 2 2 1 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 4 1 3 1 0 1 3 1 1 2 1 0 1 1 0 1 0 2 4 1 0 0 4 0 2 1 1 1 0 2 0 1 1 2 0 0 0 3 0 0 0 1 0 1 0 2 2 0 2 4 1 0 0 1 0 1 1 2 0 1 0 0 1 2 1 1 1 1 1 2 0 0 1 0 0 0 1 0 2 1 2 0 0 1 0 0 0 0 1 1 2 1 1 0 1 0 0 1 0 0 2 1 0 0 0 0 1 0 1 2 0 2 1 1 2 0 0 0 1 1 0 2 1 2 0 1 1 1 1 1 2 0 1 0 1 0 0 2 1 0 0 0 1 1 1 1 0 1 0 1 2 0 2 2 1 1 1 1 1 0 0 1 0 0 1 0 1 0 2 1 0 0 0 2 0 2 0 1 0 2 1 1 1 1 1 1 0 1 0 2 1 2 2 0 0 0 0 0 0 1 2 1 0 1 2 0 1 0 1 2 2 2 0 0 2 2 1 0 1 0 0 0 0 0 0 0 2 1 0 2 0 0 1 2 1 1 1 0 0 0 1 1 0 0 1 0 0 2 0 0 1 1 1 1 0 1 0 0 1 1 1 2 0 0 0 2 0 1 2 0 1 1 1 1 1 1 3 1 2 1 1 1 0 1 1 0 0 0 0 0 1 3 2 0 1 0 1 1 1 1 1 2 1 1 1 0 0 0 1 4 0 1 1 1 1 0 0 1 0 1 1 0 1 0 1 0 1 1 2 0 0 2 0 3 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 2 2 2 1 0 1 2 1 1 0 0 2 1 1 0 1 0 0 1 1 1 1 3 2 0 0 0 0 1 0 0 0 1 4 3 0 2 0 0 2 0 3 0 0 1 0 0 2 1 0 0 1 0 0 0 0 1 0 1 0 0 0 2 1 1 0 1 0 1 0 0 1 1 0 1 2 0 1 2 0 0 1 0 3 0 0 0 0 0 2 0 2 0 1 1 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 1 2 3 0 0 1 0 0 1 0 1 1 3 1 1 0 1 0 1 0 0 0 1 1 0 1 1 2 1 3 0 0 3 0 0 1 0 1 0 0 1 1 2 0 0 1 1 2 0 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 1 2 1 0 0 2 0 1 1 2 2 1 0 0 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 0 2 0 0 1 2 0 1 1 1 0 0 3 1 0 2 0 1 0 1 0 0 0 2 0 1 2 1 3 1 0 1 0 1 0 1 0 1 1 1 2 0 0 1 1 1 1 2 1 0 1 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 1 1 2 3 1 1 1 1 0 1 2 1 1 0 0 0 1 0 2 0 0 1 2 1 2 3 0 0 3 0 0 0 2 1 0 1 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 0 3 0 2 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 2 0 1 1 1 1 1</t>
+    <t>0 2 1 0 1 1 1 5 0 3 3 2 2 1 1 1 1 1 1 1 3 1 0 0 2 2 2 1 2 3 0 2 2 0 1 2 1 2 1 2 1 2 1 2 3 2 2 1 1 0 2 2 3 2 2 1 0 2 3 2 1 2 1 4 1 1 2 0 2 2 1 0 1 2 4 2 2 2 2 3 1 3 1 0 2 1 1 2 2 1 2 1 1 1 2 1 1 1 1 1 1 1 2 3 1 1 1 2 1 2 1 1 2 0 3 1 3 3 0 0 2 3 2 4 2 3 2 3 1 2 2 1 1 0 2 0 1 1 1 1 1 2 2 0 2 1 3 1 3 1 3 1 0 2 0 1 3 2 0 0 4 0 1 2 2 2 1 2 2 2 2 2 2 0 2 1 1 0 1 2 3 1 4 1 3 2 1 3 1 2 2 1 3 2 1 1 3 0 3 3 0 1 1 2 4 2 2 0 2 1 2 0 2 2 1 2 1 0 2 0 1 2 1 1 1 3 1 1 2 2 4 2 1 1 3 3 1 1 1 1 2 2 0 0 1 2 0 1 1 0 1 1 1 2 1 2 4 0 1 2 2 1 5 3 0 2 3 3 0 0 2 2 1 1 0 2 0 2 2 5 1 0 0 1 2 0 3 4 2 1 0 1 1 3 1 1 2 1 2 2 4 1 1 2 1 1 3 0 0 3 1 3 2 1 3 1 1 1 0 1 2 1 1 2 1 1 3 2 1 0 4 1 3 1 3 3 0 2 1 1 0 1 1 1 1 3 0 1 2 1 2 1 1 2 2 3 3 2 0 2 2 1 0 1 0 1 2 2 1 4 3 3 1 3 1 1 0 1 2 1 2 0 2 1 1 1 2 3 1 2 1 2 0 3 2 1 2 2 2 4 2 1 1 1 1 2 2 2 2 1 3 0 4 2 1 1 2 1 1 2 3 2 2 2 2 2 4 2 1 1 0 2 2 3 3 0 2 2 1 0 3 1 2 3 4 3 1 2 1 1 3 0 2 2 4 0 2 3 1 2 2 2 3 3 0 3 2 1 1 2 3 1 2 3 1 3 3 0 1 0 3 1 3 0 1 4 0 0 1 2 2 1 2 2 0 1 2 1 3 3 3 1 3 3 2 1 2 1 2 0 1 1 3 1 2 2 1 2 1 1 3 0 2 3 4 0 2 2 2 1 2 0 3 1 0 3 1 3 2 0 1 0 1 2 0 0 3 1 0 0 1 1 2 2 2 0 3 2 2 2 0 2 1 0 2 1 2 2 1 0 2 3 1 2 1 1 2 1 0 1 3 2 1 2 1 2 0 2 0 0 1 0 2 2 0 2 1 0 2 1 2 1 3 2 2 2 3 1 1 2 1 1 2 0 1 2 0 1 0 1 1 2 2 1 0 0 2 0 3 0 1 3 3 1 1 1 0 2 1 2 1 1 1 0 2 4 1 1 1 0 0 0 3 2 3 1 1 2 1 1 1 0 1 0 3 2 3 3 2 2 1 0 0 2 2 2 4 1 1 0 4 1 0 0 2 1 1 0 2 2 0 1 0 1 2 2 3 0 1 1 1 1 3 2 0 3 0 3 2 0 1 0 3 1 1 1 2 1 2 0 1 2 4 1 0 1 1 4 0 2 1 2 2 1 1 4 0 2 0 2 2 1 0 1 1 0 3 1 2 2 0 1 2 1 2 1 2 2 1 2 2 3 1 2 1 3 1 1 0 4 3 3 2 1 0 5 1 2 3 1 5 2 0 0 1 1 1 2 2 0 1 2 0 2 2 2 1 2 2 1 1 3 1 2 0 2 3 2 2 1 0 2 2 0 2 2 1 2 2 2 1 1 3 1 2 2 0 2 4 3 1 1 1 2 2 4 3 2 1 2 0 4 1 2 1 2 2 0 1 1 2 1 1 2 2 2 0 2 1 0 0 2 1 0 0 1 1 0 3 1 0 2 4 2 3 0 1 1 1 3 2 1 2 1 1 1 1 1 2 0 1 3 1 1 0 2 1 2 1 1 3 3 1 1 3 0 1 2 2 0 1 4 3 1 1 1 1 1 1 0 1 2 1 2 1 3 1 2 1 3 1 2 2 0 2 0 3 2 1 0 2 2 1 2 2 1 2 0 0 2 1 1 1 1 3 3 3 3 1 0 1 0 2 2 1 1 0 2 1 3 3 2 0 1 0 1 3 1 3 2 1 1 1 3 3 2 1 1 0 0 2 1 2 1 1 2 2 1 1 2 2 1 1 0 2 0 2 0 1 4 2 0 1 2 2 2 3 1 2 1 1 0 2 1 1 2 1 2 3 2 2 3 3 1 2 2 2 2 2 1 1 1 1 2 1 1 3 2 4 3 2 1 2 1 3 2 2 2 4 2 1 1 2 0 2 1 1 1 0 2 2 1 3 1 2 1 1 2 1 1 2 0 2 2 1 0 1 0 1 1 2 1 1 2 0 2 1 0 3 2 2 0 3 2 4 2 1 2 1 2 2 1 3 2 2 0 1 3 3 1 1 4 3 3 2 0 1 1 3 2 3 3 1 2 2 2 1 3 1 1 1 2 1 2 3 2 2 0 3 1 2 1 2 3 1 0 2 0 3 2 1 1 1 2 1 1 0 3 2 1 1 2 2 2 2 1 1 0 1 0 2 2 1 1 3 2 0 0 2 2 1 2 3 1 2 0 1 3 1 1 3 2 1 2 3 1 2 1 1 2 1 2 1 2 2 1 1 3 1 3 3 2 1 1 2 0 1 1 0 1 0 3 1 0 1 2 2 0 1 2 1 1 1 2 1 4 2 0 1 0 2 0 0 1 0 1 1 1 2 1 1 1 2 1 1 1 2 1 3 3 0 2 3 0 2 4 4 3 1 4 1 3 3 1 1 1 1 2 3 2 1 2 2 1 2 1 2 3 3 1 1 1 2 2 0 1 2 2 1 2 1 2 0 2 4 2 3 0 1 3 0 1 2 1 2 2 0 3 1 2 1 2 2 2 1 1 2 1 2 2 3 3 0 3 2 0 2 1 0 1 3 1 1 0 2 3 4 1 4 2 2 1 0 2 3 1 2 2 2 0 1 1 0 2 1 1 2 1 2 1 1 3 2 3 2 2 2 1 1 1 1 0 2 1 2 0 2 2 1 3 2 1 2 1 1 1 1 2 3 2 2 0 1 3 0 3 2 2 3 0 2 0 1 1 4 0 0 2 2 1 1 2 0 1 2 1 1 3 1 3 0 3 3 1 2 1 1 2 3 1 2 2 1 1 2 0 0 2 1 0 1 1 1 1 1 0 1 1 2 0 1 0 2 1 0 3 4 2 1 2 1 2 0 0 3 1 0 2 1 0 2 4 1 3 1 4 2 2 1 2 2 1 1 2 0 1 2 1 2 2 0 4 0 2 1 2 1 0 4 2 1 1 2 1 3 2 3 0 1 0 0 2 2 2 2 4 0 1 0 3 2 2 3 1 1 2 0 0 3 2 1 3 2 3 3 0 1 0 2 2 2 1 0 0 3 1 1 1 1 2 1 2 1 3 2 2 1 0 2 1 2 4 2 1 1 2 2 1 1 1 2 0 1 3 2 3 1 1 1 0 1 1 1 2 2 1 2 0 1 1 0 2 2 1 0 1 2 2 2 2 0 1 1 0 0 1 0 1 2 1 2 4 1 4 1 1 1 0 1 0 2 1 2 1 2 3 3 3 1 0 0 2 2 0 2 2 1 1 3 2 2 1 1 0 3 2 2 1 2 2 0 3 1 1 0 1 2 2 2 1 2 1 2 1 3 2 1 1 2 3 0 1 1 1 2 0 1 2 4 4 0 2 1 1 3 3 2 2 1 1 3 2 1 1 3 1 1 1 1 3 3 4 2 2 1 1 2 1 1 1 1 1 1 1 1 0 1 0 3 2 3 1 1 1 1 2 2 1 0 1 2 2 3 0 2 1 1 2 0 1 2 0 0 3 1 4 2 5 4 3 4 1 3 1 1 0 1 2 0 1 4 2 0 3 2 2 1 2 3 2 1 1 2 1 1 2 1 2 4 1 1 3 1 2 0 1 3 1 3 1 1 1 1 0 2 2 0 0 1 1 1 1 1 2 1 2 2 2 1 2 0 0 2 1 0 1 0 1 1 2 0 1 2 2 2 2 2 2 3 3 1 1 1 1 1 3 0 0 2 4 0 3 2 1 2 1 2 2 1 3 1 2 0 2 2 2 1 2 1 1 1 1 1 0 1 1 1 2 1 3 1 3 1 1 2 1 2 3 1 1 1 2 1 2 1 1 2 2 1 1 1 1 2 0 1 2 1 2 3 3 2 2 1 2 1 2 1 4 0 1 2 3 3 2 1 3 3 1 2 0 2 2 2 1 2 2 1 3 3 4 3 1 1 2 0 1 2 3 1 1 1 3 1 3 1 0 1 3 1 1 1 3 0 1 3 1 0 4 3 0 1 1 2 3 2 1 2 2 3 3 3 1 0 0 3 2 3 1 2 4 3 2 2 2 3 2 2 1 0 2 1 0 2 1 2 0 2 2 2 0 0 0 2 0 1 1 1 1 2 1 3 3 1 1 1 0 1 1 1 2 0 0 1 3 4 1 3 0 1 2 0 3 1 1 1 3 3 1 1 1 0 2 0 1 1 2 3 1 2 1 4 1 3 2 3 2 1 1 3 4 1 0 1 1 1 0 4 0 2 1 3 1 2 3 1 1 2 2 2 1 2 0 1 1 1 0 1 1 0 0 1 1 2 1 2 0 1 1 1 0 2 1 2 2 2 1 1 1 1 0 2 1 2 1 1 1 2 0 1 2 2 2 3 2 1 1 3 0 2 2 0 0 2 2 2 2 3 1 0 3 4 1 2 1 1 1 2 0 2 2 2 1 0 1 1 0 3 2 3 0 2 1 1 1 0 3 2 0 4 3 2 3 1 1 2 3 1 1 1 1 1 2 2 0 0 2 1 2 1 3 2 2 0 2 3 0 0 1 2 2 1 1 1 1 3 1 1 0 0 1 1 2 1 1 1 1 2 1 2 3 2 4 2 0 0 0 0 2 1 2 1 2 2 2 1 4 2 3 0 1 4 2 2 1 2 4 1 4 2 4 2 1 2 1 3 1 2 4 1 1 1 0 3 1 1 1 2 4 0 0 3 2 3 0 4 2 2 1 1 3 2 1 2 2 1 0 0 1 3 1 1 2 1 2 3 2 0 0 3 2 1 2 2 1 1 1 2 0 1 0 1 1 1 0 1 2 3 2 3 2 0 1 0 1 0 1 4 0 2 2 2 4 1 0 2 1 2 2 2 0 4 1 3 3 2 0 4 0 2 2 3 2 2 1 1 1 1 1 3 0 1 2 2 4 2 3 1 3 1 0 2 2 3 4 1 1 2 0 2 3 1 1 1 0 2 1 1 1 4 2 3 1 1 3 1 2 1 2 0 2 1 1 1 0 2 2 1 2 3 2 0 0 1 1 3 2 1 1 3 0 2 0 0 2 3 1 1 1 2 3 2 1 2 2 2 2 2 1 2 1 4 3 2 1 2 1 4 0 4 2 2 1 1 4 2 1 1 2 2 2 3 1 1 1 1 2 0 0 2 1 3 1 1 0 1 0 1 2 2 3 1 0 1 1 0 2 1 1 3 3 2 0 1 2 1 2 3 0 2 3 2 1 2 3 0 3 3 1 1 2 2 0 2 2 2 1 1 1 1 2 1 1 3 0 0 3 2 4 2 1 1 4 1 1 2 4 2 0 3 1 2 1 2 0 1 1 3 1 4 3 2 2 1 1 0 1 2 3 1 4 3 1 2 1 3 3 2 1 2 2 2 2 1 1 1 1 1 0 1 1 2 0 2 1 0 3 2 1 0 2 2 1 2 2 2 2 1 1 2 1 1 2 0 1 1 3 2 2 1 3 1 1 2 1 1 3 3 2 2 2 1 1 0 1 1 0 2 5 3 1 1 2 0 0 2 2 1 1 0 4 3 2 2 3 2 2 2 1 3 2 2 2 1 1 2 4 3 3 0 0 3 1 0 0 1 2 3 0 3 0 0 2 0 1 3 2 1 3 0 2 0 1 2 1 1 1 1 1 1 2 1 1 1 2 1 2 1 2 1 1 2 1 3 3 0 2 0 2 0 1 1 2 0 1 0 3 1 1 2 1 3 1 1 1 0 1 1 1 1 1 3 1 4 0 1 1 1 3 3 1 1 0 0 1 3 2 1 0 2 1 1 1 1 2 1 0 3 2 4 3 1 1 0 3 1 2 1 1 1 0 3 2 1 2 2 2 0 2 2 2 3 3 2 2 1 1 2 0 1 2 3 1 4 1 3 2 0 1 1 1 1 2 1 1 1 0 1 1 1 1 2 1 1 1 2 2 1 1 1 1 3 3 4 3 3 2 0 1 3 1 1 1 1 1 1 2 1 0 1 1 0 2 1 0 1 2 1 3 0 1 3 2 0 2 1 2 0 2 3 1 2 1 2 1 2 2 1 2 1 2 1 1 2 0 2 2 1 1 1 3 1 3 2 0 3 0 1 1 2 1 2 2 2 2 3 3 3 0 2 0 2 0 0 2 3 1 0 1 1 2 2 1 1 2 1 1 1 1 5 1 0 0 0 3 1 1 0 1 3 2 2 3 1 2 0 3 1 0 2 1 1 2 3 3 1 0 2 2 2 6 2 1 2 2 1 0 3 2 2 2 5 2 4 2 2 0 2 0 2 1 0 3 2 2 1 1 2 3 3 2 2 3 1 0 1 1 1 0 0 3 0 0 1 1 1 2 4 1 3 1 2 3 2 2 2 4 1 3 0 1 0 2 1 2 1 2 0 1 4 0 0 1 1 1 1 2 2 3 3 1 3 0 2 1 2 0 2 1 1 0 2 2 1 0 2 3 1 2 1 2 3 2 1 1 2 2 2 2 1 2 0 3 2 2 0 0 3 2 0 1 0 3 1 0 1 2 2 2 1 3 1 3 2 1 1 0 0 1 2 2 2 0 1 1 2 4 1 3 1 0 1 2 3 2 1 0 1 1 3 3 0 1 0 1 1 3 2 1 2 2 2 0 5 2 3 4 0 3 2 2 1 1 1 2 1 2 1 2 1 3 1 2 2 1 2 1 2 1 2 3 1 2 2 1 2 2 2 2 2 1 4 4 1 2 3 1 2 0 0 3 3 1 3 3 2 2 1 2 2 1 0 1 3 3 2 3 2 2 0 1 2 1 2 1 1 0 1 3 0 1 1 1 1 1 2 1 2 3 2 1 2 2 2 0 3 1 2 0 1 1 1 3 1 2 2 2 0 3 2 0 1 3 1 2 1 3 2 1 4 1 0 2 2 1 2 0 3 1 0 2 3 0 1 3 3 1 1 0 2 2 1 3 2 3 2 2 3 1 1 1 2 2 2 2 1 3 3 2 2 2 1 0 0 3 1 0 4 0 1 1 0 1 3 2 1 2 0 3 4 2 3 2 2 2 1 1 1 2 2 1 2 1 3 2 1 4 2 2 3 4 3 2 3 3 2 2 0 1 0 2 2 1 2 2 0 0 0 1 1 1 2 1 4 1 3 2 2 1 1 2 1 1 2 1 1 3 2 3 1 1 1 1 1 1 2 3 0 0 4 2 0 2 1 2 1 3 1 3 3 1 1 1 0 1 1 1 2 2 2 1 0 1 1 0 1 1 2 1 3 2 3 1 1 2 1 1 0 0 0 2 2 1 1 0 4 4 3 1 2 4 1 0 2 3 1 2 1 2 4 2 2 2 2 2 1 3 2 2 2 2 2 1 2 3 0 2 1 1 1 2 0 4 1 2 3 1 2 0 2 0 0 2 1 2 2 3 1 1 1 3 1 2 2 2 1 0 2 2 2 1 3 2 2 2 2 1 1 1 2 0 2 3 3 2 1 2 1 0 3 2 3 2 1 2 2 2 2 1 1 2 2 2 0 3 4 0 0 2 3 1 0 1 2 2 1 2 0 2 1 0 1 3 1 2 0 3 2 4 0 1 2 1 2 3 0 0 2 1 3 1 0 2 1 0 2 1 3 0 1 2 3 2 1 2 2 1 0 2 0 0 3 1 0 1 1 2 3 3 0 0 0 0 1 2 2 1 1 2 0 0 2 3 1 2 2 3 1 2 2 1 4 3 2 2 3 1 0 1 1 2 1 3 2 1 3 1 0 1 1 1 0 1 2 1 2 2 3 2 2 1 0 2 1 4 1 2 2 1 2 2 2 0 4 1 1 1 0 1 1 3 2 1 3 3 0 3 1 1 1 3 0 0 2 1 3 1 1 2 1 3 2 1 2 0 2 2 6 3 2 1 1 3 2 1 3 2 3 1 2 2 1 1 0 1 1 1 1 1 0 3 3 2 1 1 2 0 1 1 1 2 4 2 3 1 1 3 0 2 1 1 1 1 1 2 2 1 1 1 0 3 0 2 2 0 2 2 1 1 1 2 1 3 2 2 2 0 2 2 2 4 1 3 2 2 1 1 3 2 0 2 1 5 3 2 2 1 0 0 1 2 1 1 2 1 3 0 0 3 1 3 2 2 2 3 4 3 3 3 1 2 2 1 2 3 3 3 1 2 0 0 0 1 1 1 1 1 1 0 3 1 2 3 2 1 1 2 1 3 1 1 0 1 0 2 2 4 3 3 0 1 3 1 1 0 1 1 2 1 3 0 2 0 0 3 2 3 2 1 0 1 2 2 2 2 2 4 1 1 2 2 1 1 2 2 1 2 0 1 1 2 3 3 2 1 3 1 3 3 2 2 2 2 0 3 1 3 2 1 1 1 1 1 0 2 0 0 0 2 3 0 3 2 3 1 3 3 1 1 0 1 3 2 1 0 2 2 1 2 2 2 1 1 1 1 3 1 1 1 1 1 2 2 2 5 2 2 0 1 1 1 0 0 3 2 2 2 0 0 0 2 1 1 1 1 1 0 3 1 2 1 0 1 1 1 1 2 2 2 1 0 1 3 0 1 1 4 2 0 2 2 3 0 2 2 2 2 2 1 1 1 2 1 1 2 0 2 3 2 4 2 0 1 0 1 2 1 3 2 2 3 3 1 3 1 1 2 2 1 3 1 0 0 4 2 2 3 1 1 3 1 1 2 4 1 0 2 2 1 2 2 2 1 4 0 4 1 1 3 1 2 1 2 2 2 1 3 3 1 3 2 2 2 6 2 0 3 1 1 0 2 3 2 2 3 1 1 1 2 1 1 1 3 2 2 1 2 3 2 2 3 4 3 1 2 0 3 1 1 1 1 2 1 0 5 1 3 0 0 1 2 2 3 1 0 3 1 1 2 2 2 3 1 2 0 0 3 2 2 1 2 1 1 2 3 0 3 1 1 0 1 1 1 2 2 1 1 2 2 1 1 0 2 2 3 2 3 3 2 3 2 4 2 1 2 2 0 2 2 3 2 3 2 3 2 1 3 2 2 1 1 2 1 2 2 0 2 3 3 0 1 0 3 1 1 2 0 1 0 0 2 1 2 3 1 1 2 1 2 2 2 2 0 2 1 1 2 2 2 1 2 1 2 3 2 2 1 2 1 1 1 4 2 3 1 1 3 2 2 1 1 2 2 0 2 1 1 0 1 0 2 3 2 4 3 4 2 1 1 2 3 3 1 3 2 3 1 3 1 0 0 0 3 2 1 3 0 2 2 1 3 2 2 2 1 1 4 2 1 1 1 1 0 2 2 1 1 1 2 0 2 1 1 1 3 1 0 3 0 1 1 0 1 3 2 1 1 1 1 2 3 1 2 2 4 4 0 0 2 3 2 3 0 0 1 1 4 0 1 1 2 3 1 0 2 1 1 1 4 0 2 1 2 2 3 1 1 2 2 1 1 1 1 4 3 3 2 3 0 2 2 0 2 2 0 1 4 1 3 2 4 3 1 2 0 1 1 2 2 0 3 3 1 5 3 0 2 3 2 1 2 0 3 1 2 3 1 2 2 2 0 1 2 0 0 4 2 2 1 1 1 4 3 2 3 2 3 3 0 0 1 2 0 1 3 1 2 1 4 3 1 2 1 1 3 2 3 1 4 1 2 2 2 0 1 2 2 1 0 1 1 0 2 2 1 2 0 2 1 1 0 1 1 1 1 1 4 2 0 1 1 2 3 2 0 1 2 5 0 2 1 3 0 1 2 3 4 2 1 1 2 2 2 2 1 2 2 4 1 2 1 0 0 1 4 2 0 3 1 1 2 0 1 2 0 0 2 3 2 2 4 1 0 1 2 1 2 2 2 3 1 2 2 1 2 2 2 1 2 0 1 3 2 1 0 1 2 0 0 2 1 1 1 2 2 2 0 1 1 0 2 3 1 0 0 2 2 2 2 1 4 3 1 1 2 0 0 2 3 1 0 1 2 3 1 1 2 1 3 1 1 2 1 1 2 2 1 0 2 0 1 2 1 1 1 3 2 2 2 2 2 2 3 0 1 0 4 1 0 3 1 1 3 1 1 2 2 3 3 4 3 4 1 1 3 1 2 2 1 1 1 1 0 1 1 3 3 1 1 2 2 1 4 1 1 3 1 1 3 2 2 2 0 1 1 2 1 1 1 2 3 2 1 1 1 2 2 1 0 2 2 2 2 3 1 1 0 3 3 2 2 3 1 0 2 3 0 1 2 4 0 1 2 0 1 1 1 1 2 3 1 0 3 2 0 1 2 2 2 3 2 2 3 2 1 2 1 2 2 1 1 2 2 3 1 3 1 1 0 1 1 1 2 1 0 2 2 1 1 3 0 1 2 1 1 1 3 2 2 1 3 1 0 1 2 1 1 2 1 1 1 3 3 1 2 0 1 3 0 2 3 2 2 2 1 1 1 2 1 2 0 1 1 1 1 4 1 0 1 0 0 4 1 2 1 1 1 1 0 0 1 2 3 3 4 1 3 2 1 1 2 0 0 3 1 2 3 2 2 2 1 2 1 1 3 0 2 1 2 0 1 2 3 3 1 2 1 2 0 1 2 1 0 2 1 2 0 2 1 1 2 1 0 1 2 2 2 0 2 1 0 1 1 1 3 3 2 4 2 3 1 1 2 2 1 2 1 0 2 2 1 1 3 3 2 3 0 2 1 1 2 3 2 2 1 3 3 2 2 0 1 1 3 0 1 1 2 1 2 1 2 2 3 1 0 2 1 2 1 1 1 2 1 1 1 3 4 2 1 1 0 1 3 2 0 3 0 0 3 1 1 2 3 2 1 2 1 3 1 0 3 2 0 1 2 2 1 1 1 2 0 5 0 1 2 0 1 1 1 2 2 1 2 2 1 2 0 1 3 1 4 0 1 0 1 1 0 2 1 1 2 3 3 1 1 2 3 1 1 0 2 1 2 2 1 2 1 2 1 1 1 2 5 2 0 1 0 3 1 2 1 2 4 2 1 1 0 3 0 1 0 1 1 0 1 0 3 1 1 0 2 1 1 1 2 2 1 3 2 4 3 1 1 2 1 3 3 0 1 3 2 3 1 1 2 1 4 1 0 1 2 0 1 1 2 0 0 1 2 2 4 2 4 0 1 3 2 1 1 1 2 1 2 2 3 4 0 2 2 2 1 2 1 2 2 1 1 1 3 0 2 2 3 3 1 0 2 0 1 1 0 2 2 1 3 1 1 1 1 1 1 2 1 1 3 1 1 2 2 2 2 0 0 1 1 1 3 2 2 3 2 2 2 0 2 0 4 1 1 3 3 2 1 2 2 1 3 3 1 2 2 2 1 2 0 2 3 3 0 2 1 3 1 3 2 3 3 2 2 1 2 1 2 0 2 2 1 0 2 1 2 2 2 4 1 1 1 2 0 4 1 2 1 1 0 1 0 0 3 1 1 3 1 0 1 3 1 2 1 1 1 2 0 2 1 2 2 1 0 1 2 2 2 3 2 1 4 1 1 0 1 2 2 2 1 1 0 2 1 1 1 0 2 2 1 3 1 2 3 0 2 1 0 0 2 1 0 2 3 2 1 2 2 2 0 1 2 3 3 2 3 2 2 2 2 1 1 1 0 1 5 2 0 1 1 0 4 4 2 2 2 0 3 2 2 1 1 1 3 3 2 3 0 1 1 1 2 0 1 1 1 2 2 4 1 2 2 1 2 1 1 3 1 1 4 1 2 2 2 1 4 2 1 1 4 0 3 2 1 1 3 5 1 3 0 1 0 2 2 2 1 2 2 1 1 4 1 3 3 0 2 5 2 2 0 3 2 1 2 2 1 0 1 2 1 3 0 1 2 0 1 2 0 0 0 1 1 1 0 0 2 2 1 1 0 2 2 1 2 2 0 2 2 1 2 0 4 3 2 3 1 1 3 2 2 3 3 0 1 3 1 3 2 1 2 0 1 2 1 1 1 2 1 1 1 0 2 3 1 2 3 2 1 0 1 2 2 1 3 1 0 1 1 1 3 0 2 2 1 3 0 4 1 2 3 1 1 0 2 0 2 1 1 2 0 3 1 1 3 1 1 3 1 3 1 0 2 4 1 2 2 3 1 3 2 1 1 1 2 2 1 2 0 3 0 1 2 0 1 1 2 0 1 1 2 0 1 1 2 2 2 1 1 1 3 2 0 2 3 2 2 3 0 2 1 2 1 1 3 1 2 0 1 1 3 3 2 2 0 3 2 3 2 3 2 0 1 2 2 1 1 0 2 1 2 3 3 1 0 0 3 1 3 1 1 2 0 3 1 1 2 1 2 1 3 2 2 6 1 1 1 0 3 2 0 1 0 3 1 1 3 2 2 2 0 0 2 0 1 2 2 1 1 1 0 1 0 0 3 0 2 2 1 2 1 1 1 2 1 3 0 3 1 0 1 2 2 2 0 0 1 0 6 1 2 2 1 3 1 1 1 2 3 1 0 0 1 2 1 0 2 0 4 3 2 1 0 2 2 0 2 0 1 1 0 0 2 3 3 1 2 1 1 3 1 1 3 2 1 1 4 2 1 1 0 2 1 3 0 2 1 2 2 2 1 1 0 2 1 0 3 1 1 2 3 0 1 0 1 1 1 1 1 0 1 2 0 0 2 2 2 3 2 0 1 0 2 1 0 1 1 1 1 1 3 0 2 1 2 1 2 2 0 2 2 2 1 1 3 0 1 0 0 3 2 0 4 2 1 1 2 2 1 1 1 1 2 1 0 2 0 2 0 1 1 1 3 2 1 3 2 3 3 2 0 2 2 1 1 3 1 2 1 1 2 2 3 3 2 2 1 2 1 2 2 2 2 2 1 1 1 2 2 1 1 3 3 1 1 2 2 1 2 3 2 0 1 1 2 1 3 0 3 3 2 1 2 3 2 2 1 0 3 1 1 3 0 2 3 3 3 1 4 1 2 2 1 1 2 5 0 1 0 3 1 2 1 2 2 1 3 1 2 1 0 1 1 1 3 0 2 3 2 2 2 1 1 2 2 1 1 1 2 1 4 3 2 2 2 3 2 3 1 0 2 1 0 5 1 1 3 1 2 1 1 1 2 2 1 1 1 1 2 3 0 2 2 3 1 0 3 1 1 2 1 2 1 2 1 3 2 0 1 2 1 3 3 1 1 1 2 1 1 0 1 2 1 1 1 1 1 1 2 4 1 1 3 2 3 1 3 1 3 2 1 3 3 0 1 2 2 4 0 1 2 1 3 1 2 2 1 3 1 1 2 3 2 2 1 2 1 2 1 2 1 0 2 1 2 2 1 1 2 4 2 1 1 2 3 1 3 2 1 2 2 2 2 2 3 2 2 3 2 0 1 0 1 2 1 2 3 1 3 1 3 1 2 0 2 3 2 2 3 3 3 1 2 0 2 1 0 2 1 2 1 3 1 0 1 3 5 2 0 3 0 3 2 0 3 1 0 2 1 2 3 2 0 2 2 1 2 2 0 1 1 1 0 2 1 1 0 2 1 2 0 1 0 0 2 1 0 1 3 0 1 3 1 2 2 3 1 1 1 2 3 2 1 3 0 2 1 0 1 0 2 2 1 1 1 1 1 1 2 2 1 1 2 1 0 2 1 0 2 1 0 0 2 3 2 0 2 2 1 2 1 4 2 0 4 1 2 0 3 1 3 0 2 2 2 2 1 2 1 2 0 2 2 1 1 1 1 3 3 1 1 3 4 1 1 2 1 3 1 1 0 0 2 2 1 2 3 3 1 1 2 3 3 3 3 2 1 0 2 2 3 2 0 2 1 1 1 1 2 0 2 2 1 2 1 1 2 1 1 1 0 2 0 0 0 0 1 1 1 0 3 0 2 1 1 2 3 1 1 1 2 0 3 0 2 1 1 2 2 1 1 2 2 2 1 3 2 2 2 1 1 2 0 1 1 3 2 1 1 3 2 1 4 2 4 0 2 2 1 2 1 2 3 3 2 1 2 1 1 4 0 1 2 0 2 3 0 3 1 2 0 1 1 2 2 2 4 1 0 1 2 2 2 1 1 0 1 2 1 2 1 0 3 1 2 0 1 1 1 2 2 3 1 2 2 2 2 1 1 2 0 1 2 2 0 0 2 1 2 3 0 1 2 2 2 1 0 1 1 2 1 0 2 1 0 1 3 3 3 1 2 3 1 0 2 2 2 1 1 2 0 1 0 2 1 2 0 0 3 2 2 1 0 1 0 1 3 2 1 0 2 2 1 3 0 2 1 1 0 2 3 2 1 2 2 1 1 3 0 1 1 1 2 2 1 1 0 1 1 2 1 4 4 0 3 2 2 2 0 1 3 1 1 0 1 2 1 1 1 1 1 1 1 3 1 0 1 0 2 4 0 3 3 1 1 0 1 3 2 0 3 1 2 1 1 1 0 1 1 3 1 0 3 2 1 2 3 0 0 1 1 2 1 1 1 2 2 1 1 2 2 3 1 2 1 1 1 0 1 0 1 4 1 1 1 1 2 2 0 3 0 1 2 0 0 3 1 3 0 0 2 1 2 1 2 1 1 1 2 3 1 1 1 2 0 1 3 2 2 3 1 0 0 2 0 3 0 4 2 2 2 1 0 2 2 3 2 1 1 1 2 4 3 2 2 1 1 1 2 1 1 3 0 0 2 2 3 2 3 2 2 2 1 1 1 2 2 1 1 5 1 0 3 2 1 2 1 1 1 2 2 1 3 0 3 1 0 1 0 1 0 0 1 1 1 1 3 1 1 1 5 1 1 2 0 1 0 2 2 3 1 2 0 1 1 1 2 3 1 3 2 3 1 1 3 0 1 1 2 0 2 2 2 2 0 1 2 2 2 0 2 0 0 0 0 3 2 3 2 1 0 1 2 2 2 2 1 2 2 0 1 2 3 2 1 0 2 2 2 1 0 2 2 2 0 2 6 4 2 1 1 1 1 0 2 1 3 1 1 0 0 1 2 2 3 2 1 1 2 2 1 0 2 2 1 1 2 1 0 0 1 4 2 2 2 3 0 4 2 1 0 2 1 0 0 2 3 1 1 0 0 3 1 0 1 2 2 1 2 2 0 1 0 2 0 1 1 0 2 1 2 0 3 3 1 2 1 3 2 1 2 0 2 1 2 1 1 1 2 3 2 0 2 1 1 2 2 1 1 3 2 0 1 1 1 2 2 2 0 1 2 0 0 3 0 2 1 1 1 0 2 1 0 3 0 0 2 3 1 0 1 0 2 0 2 1 1 1 3 2 3 1 0 1 3 2 3 1 3 1 0 1 1 2 1 0 0 1 0 2 0 2 0 2 2 1 2 1 3 1 0 2 3 3 1 0 2 2 2 0 1 1 1 1 1 1 1 4 1 1 1 0 2 2 0 3 2 1 2 0 0 4 1 2 1 3 3 2 2 1 2 0 2 3 0 2 1 2 4 1 3 1 2 2 1 1 0 1 2 1 1 3 1 1 0 1 0 1 2 0 1 1 2 2 2 1 3 4 1 0 2 0 2 1 0 4 2 1 1 2 4 2 2 1 1 1 3 0 2 0 2 2 3 4 1 2 2 2 1 1 1 0 0 2 1 1 5 0 1 0 2 2 1 1 2 1 1 2 2 1 2 2 4 0 1 5 0 1 3 1 2 0 1 2 1 2 1 1 3 1 1 1 2 3 1 2 1 1 3 1 2 1 1 2 0 1 3 1 3 0 1 0 1 1 2 1 0 1 1 1 2 3 2 2 1 1 0 0 1 1 1 2 2 2 3 4 0 1 2 1 1 3 0 2 1 1 2 2 1 1 2 2 2 1 2 2 2 2 2 1 0 3 1 1 3 0 3 0 0 2 2 0 2 2 1 3 1 3 0 1 2 1 2 0 1 1 2 1 1 1 1 3 1 0 1 0 0 3 1 1 2 1 4 1 2 2 2 2 1 2 3 1 1 1 0 1 1 2 2 0 3 0 2 0 0 0 2 1 1 2 2 1 0 1 2 1 2 1 4 1 3 2 0 4 1 1 2 2 3 2 0 1 2 3 3 2 2 2 0 1 1 2 1 2 3 0 1 1 1 0 1 0 2 1 1 0 2 1 0 1 2 3 2 2 0 2 1 3 0 2 2 1 2 1 1 2 1 2 0 1 1 2 3 1 3 1 1 0 0 0 1 0 2 1 1 1 0 0 1 2 1 0 2 3 3 2 2 2 3 1 4 2 3 3 0 2 0 2 1 2 0 2 1 2 0 2 2 0 1 3 0 1 1 1 2 2 2 2 0 2 0 0 2 3 1 3 2 1 2 1 1 1 1 3 1 1 2 1 2 1 1 1 0 3 3 1 2 4 1 1 1 3 2 0 2 0 2 1 1 4 4 2 0 2 0 2 1 1 2 2 3 1 1 2 1 0 1 1 1 1 1 4 0 1 1 2 2 4 3 2 1 1 2 1 2 2 2 2 2 0 0 1 3 2 0 2 2 1 2 0 3 3 1 3 1 2 2 2 2 0 3 2 0 1 4 2 2 2 3 1 2 1 2 2 4 3 0 1 1 0 1 3 1 2 1 2 3 1 2 0 3 2 1 2 2 2 0 0 2 2 1 3 1 1 2 2 2 4 3 0 0 2 1 2 2 2 4 0 2 1 0 1 2 2 3 1 3 0 1 2 2 2 0 3 1 0 2 1 2 0 1 2 1 1 1 3 2 2 1 1 3 1 0 2 2 1 3 1 2 1 0 1 1 3 2 2 1 2 3 1 2 3 1 1 5 2 2 2 0 1 1 1 3 1 1 3 3 2 2 0 2 1 2 4 1 2 3 0 1 2 1 2 3 0 0 3 3 2 2 3 1 0 1 1 2 1 2 2 1 2 0 1 3 2 2 2 0 1 1 1 3 3 2 3 2 1 2 2 2 1 3 1 2 1 1 2 1 3 2 2 3 3 1 0 1 4 1 0 2 1 2 1 1 1 3 1 1 3 2 1 1 3 2 2 3 3 3 2 2 2 1 3 1 2 2 2 1 1 1 1 1 1 1 2 0 1 3 0 1 2 2 0 2 2 2 0 0 2 1 2 0 1 2 5 2 2 1 2 3 0 0 2 2 3 2 0 2 3 1 2 1 2 2 0 2 0 0 1 0 2 2 3 1 0 1 2 1 2 2 3 1 1 1 1 1 3 1 1 2 1 2 1 2 2 2 1 2 0 2 2 2 1 3 0 2 1 0 1 0 1 1 1 1 0 1 0 3 1 2 2 3 1 2 1 2 1 3 2 1 0 3 2 1 1 1 3 1 1 1 2 0 0 2 3 2 3 2 3 1 3 3 2 1 1 2 1 2 2 2 1 1 2 1 1 1 1 3 0 3 2 1 1 0 0 3 0 1 1 1 1 1 3 0 1 0 3 1 2 1 1 2 1 1 2 1 1 1 0 2 2 2 4 1 1 1 0 1 2 3 1 2 2 4 1 1 3 0 1 1 2 2 1 4 4 2 2 1 2 1 0 2 2 0 1 1 3 0 2 1 0 2 2 2 1 1 1 1 2 1 1 2 2 0 1 2 0 1 3 0 1 2 3 1 1 2 1 1 1 0 1 3 1 3 1 3 2 3 1 2 1 1 2 2 1 1 2 1 0 0 3 1 1 0 2 2 2 0 1 3 2 2 2 1 4 0 1 0 2 0 3 1 2 1 0 2 1 4 0 1 0 3 2 0 4 0 2 0 2 1 2 2 3 1 0 2 1 2 2 1 1 0 3 3 0 1 1 1 2 1 2 2 1 2 0 2 1 1 3 1 0 2 3 1 3 1 2 3 0 2 2 1 1 1 1 0 3 2 3 1 2 0 2 1 1 3 1 2 2 1 2 3 1 0 2 1 0 2 1 1 3 3 3 3 2 1 1 0 0 3 3 1 1 1 1 1 3 1 3 0 1 2 3 2 2 2 3 0 1 2 1 0 2 2 1 3 0 1 1 3 2 1 2 2 2 2 0 2 1 3 3 3 2 1 1 2 1 1 0 3 1 0 2 1 1 1 1 2 1 2 4 3 1 1 1 4 1 3 0 4 1 2 2 1 1 0 3 3 1 2 0 1 1 1 0 2 1 2 0 2 2 1 1 1 1 1 2 1 3 0 0 1 2 2 1 4 0 3 3 2 4 1 1 2 1 1 2 0 1 1 2 3 3 3 3 0 2 5 1 2 3 0 2 3 1 2 0 1 1 3 2 2 3 2 1 2 1 2 1 3 3 1 2 2 0 1 0 3 1 1 3 1 1 3 1 2 3 0 1 1 4 1 3 2 1 1 1 3 3 3 1 3 1 1 2 2 2 2 1 1 1 0 0 1 1 2 1 3 2 1 2 1 1 1 1 2 1 1 1 1 2 5 3 1 1 3 1 0 1 2 0 0 1 2 2 2 2 1 3 2 1 1 2 1 1 3 2 1 4 0 3 0 0 4 3 1 2 2 3 2 2 1 1 1 0 1 1 0 0 1 1 0 2 1 2 3 1 1 0 1 2 1 2 2 3 3 0 1 0 3 3 2 1 0 1 2 2 2 1 0 2 3 1 1 2 0 1 0 1 1 3 3 3 1 3 1 2 1 1 1 1 1 4 0 2 3 1 1 1 1 1 1 2 2 2 2 1 3 0 1 1 4 0 0 2 2 2 2 2 0 2 0 3 1 1 0 1 2 1 0 2 1 0 0 3 3 1 2 4 1 3 1 1 3 4 0 1 1 2 3 1 1 0 3 0 2 1 1 0 3 1 2 4 2 2 1 1 0 3 0 1 2 0 0 1 1 1 1 1 1 1 2 2 1 0 1 1 4 0 0 1 2 2 0 1 2 2 0 3 0 1 2 0 1 0 1 0 2 2 2 2 1 2 0 3 1 2 2 1 1 0 0 1 1 0 1 1 1 1 1 2 2 0 2 2 1 1 2 1 1 3 2 1 3 1 0 2 3 2 3 1 2 2 3 1 4 2 2 0 1 1 0 2 2 1 1 0 3 1 1 1 2 1 2 0 1 3 3 2 3 0 3 1 2 1 4 0 0 1 1 0 1 2 1 1 0 1 0 2 0 2 3 0 1 2 1 1 2 3 3 0 0 2 1 3 0 1 2 1 3 2 1 3 0 2 2 0 1 1 1 1 1 3 3 2 1 0 1 2 1 2 1 2 2 3 2 3 2 3 1 2 2 0 0 0 2 1 2 3 4 0 2 2 0 3 0 0 2 2 2 1 1 2 1 2 2 1 1 1 2 3 1 4 2 0 2 2 1 1 0 0 2 1 1 1 0 1 2 1 1 4 2 1 4 0 0 3 1 2 1 3 1 1 1 3 2 1 2 1 2 2 2 1 1 1 2 2 1 3 2 2 1 3 1 1 3 3 3 2 1 0 3 1 0 1 1 3 2 1 1 1 2 2 0 2 1 2 4 1 2 2 1 2 2 3 2 2 1 1 3 2 1 2 2 1 2 1 2 1 3 2 1 2 1 1 2 0 1 1 2 3 2 3 1 3 1 0 1 2 0 1 2 2 4 2 1 2 1 3 3 3 2 1 2 0 2 0 2 4 3 2 3 2 1 0 0 1 2 2 2 0 2 1 1 2 2 2 0 4 1 2 3 0 1 1 2 1 3 2 3 1 0 2 4 0 2 0 1 2 3 0 3 0 1 2 3 1 2 0 3 2 1 1 2 1 2 1 1 2 1 3 4 3 4 3 0 3 3 2 0 1 3 0 1 2 0 1 1 0 1 1 1 1 2 0 2 2 2 1 2 0 2 2 2 2 2 0 3 2 1 4 1 1 1 1 3 1 2 2 1 1 4 3 0 0 2 3 1 2 2 1 2 1 2 0 1 0 2 1 0 0 2 3 2 1 0 1 1 1 2 2 3 2 1 1 5 4 1 3 2 3 2 0 1 2 1 2 1 2 2 4 2 1 0 1 3 1 2 1 1 2 1 1 2 1 1 1 1 1 0 1 0 2 1 2 2 2 2 1 3 4 3 2 4 1 2 1 0 3 0 2 0 1 3 1 0 1 1 2 1 3 0 3 2 2 1 1 1 3 2 1 3 1 2 2 0 1 1 1 2 0 1 3 0 2 2 2 1 1 0 1 2 1 1 1 0 1 1 0 0 2 1 1 1 1 2 3 5 0 3 2 0 1 0 1 1 2 1 0 2 4 0 2 1 3 1 1 1 2 1 1 0 1 1 1 1 3 1 3 0 1 3 6 1 1 1 2 0 3 1 2 2 2 2 2 4 2 2 2 0 0 1 5 3 3 2 2 2 2 2 1 2 1 1 1 3 1 0 0 2 2 2 1 2 2 1 2 0 2 1 3 0 1 1 2 1 1 2 2 2 1 2 1 2 1 1 1 4 3 0 2 1 2 2 1 1 1 1 1 1 4 0 1 2 2 1 0 0 1 3 2 2 1 1 3 1 3 2 3 1 1 3 1 0 1 1 3 1 1 1 3 2 2 3 1 1 3 3 2 2 3 1 3 1 1 1 4 2 1 1 1 2 3 2 1 1 3 2 1 1 3 2 1 1 0 1 3 1 1 1 2 2 2 2 1 1 1 3 1 0 2 1 1 1 3 1 0 0 3 3 3 1 2 4 1 2 3 1 0 1 1 3 2 3 1 2 0 3 2 1 1 1 1 2 1 1 2 1 2 1 2 2 1 1 1 1 0 0 2 2 0 1 2 1 1 1 2 1 2 3 2 2 2 2 2 1 2 2 1 4 4 1 3 1 4 2 0 1 1 0 2 2 1 0 1 1 1 0 2 1 4 2 1 2 1 0 0 1 1 1 2 3 1 3 0 3 2 2 1 1 4 2 1 1 1 1 2 1 2 2 2 2 1 1 1 1 0 3 1 1 1 2 2 1 0 1 2 1 2 1 2 1 1 2 2 3 1 2 2 0 2 0 0 2 1 0 2 2 2 1 0 0 1 2 1 1 3 1 0 2 0 5 2 2 2 1 2 2 3 2 3 1 1 0 1 2 0 1 3 1 0 3 1 0 3 0 1 3 1 1 1 3 2 2 1 4 2 4 2 3 0 2 1 1 2 2 1 1 2 1 1 0 2 2 0 3 2 5 1 3 1 1 1 1 3 1 2 0 3 2 1 2 0 0 1 2 2 3 0 0 2 1 2 1 2 2 2 2 2 0 1 1 2 1 2 1 0 1 2 2 1 0 2 3 3 4 1 2 1 3 2 2 0 1 2 1 1 1 3 3 1 3 3 2 3 2 1 2 4 2 2 1 3 1 1 2 2 1 0 3 2 1 2 2 1 0 1 1 2 1 1 3 3 3 2 2 1 3 2 2 1 2 2 3 1 1 1 0 2 2 1 3 1 2 2 3 3 2 1 3 4 3 0 1 1 4 4 3 2 1 2 2 1 2 2 2 1 2 1 0 2 1 3 5 2 3 1 1 2 2 1 2 1 0 1 2 1 1 0 1 0 2 1 2 2 2 0 1 3 1 1 1 1 1 0 2 1 2 4 4 0 1 2 2 0 2 2 1 2 2 2 4 1 1 3 1 3 1 1 2 1 2 2 2 2 1 0 3 3 1 2 2 1 2 0 1 4 1 0 2 3 0 1 3 1 3 2 2 1 3 2 2 1 2 1 1 2 3 1 1 5 3 0 2 2 3 2 0 2 4 2 0 3 3 4 1 1 0 2 1 1 1 2 1 2 4 2 3 0 2 1 3 2 2 0 1 2 1 3 0 2 1 0 2 1 1 2 3 2 1 0 0 2 1 2 0 2 1 2 1 4 1 1 0 2 1 0 0 2 3 3 3 2 2 0 3 4 1 1 3 1 2 0 1 2 1 1 1 3 3 2 0 1 1 1 0 1 1 1 4 2 1 1 1 0 3 2 0 4 2 0 2 2 0 0 1 1 1 1 3 2 2 4 3 2 1 0 1 3 0 1 2 0 1 1 0 3 1 1 3 1 3 0 0 0 1 3 2 2 1 0 2 1 2 0 1 2 1 2 1 1 2 0 1 1 4 1 3 1 0 2 2 0 2 1 2 1 0 3 1 1 2 1 2 1 1 1 1 2 1 0 2 0 1 2 1 3 4 1 2 1 3 1 1 1 2 2 1 1 1 1 1 3 2 1 1 1 0 4 2 1 1 1 3 2 2 0 1</t>
+  </si>
+  <si>
+    <t>MIE(0.4271626055486907, 2.3302950269516014, -1.6669289425277522e-30, 0.3617865514843809)</t>
+  </si>
+  <si>
+    <t>0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 2 1 5 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 3 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 0 1 0 0 1 0 1 0 2 0 0 0 0 0 2 1 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 0 1 0 0 0 0 0 1 2 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 2 0 0 2 2 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 1 1 1 0 0 1 0 2 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 2 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 2 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 2 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 2 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 2 3 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 2 1 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 1 0 0 4 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 1 3 2 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 2 1 1 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 2 1 1 1 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 1 1 1 0 0 0 3 0 0 0 0 1 1 0 0 0 1 0 2 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 3 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 3 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 3 0 0 1 0 1 1 1 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 1 0 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 2 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 2 1 1 0 0 2 0 0 0 1 0 1 1 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 1 2 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 2 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 2 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 1 1 0 2 1 0 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 2 0 3 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 2 0 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 3 0 2 0 0 1 0 1 0 0 1 0 0 0 3 2 0 0 0 0 0 0 0 0 1 3 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 2 0 0 1 0 1 0 2 1 0 1 0 0 0 0 0 2 0 0 1 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 2 1 1 0 0 0 2 1 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 1 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 2 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 1 0 1 0 0 1 1 0 0 0 2 1 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 2 0 0 1 0 2 0 0 0 0 3 0 0 0 1 0 1 0 1 1 0 0 0 0 2 0 0 0 3 0 0 0 2 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 2 1 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 1 2 0 2 1 1 0 1 2 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 2 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 1 1 0 0 1 0 2 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 1 1 0 0 0 1 1 0 0 0 0 0 1 2 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 3 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 1 0 0 0 0 3 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 1 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 2 1 1 1 2 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 3 0 0 0 1 1 0 2 0 2 2 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 2 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 2 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 4 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 2 0 2 0 0 0 1 0 0 2 0 1 2 1 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 2 0 1 1 0 0 0 0 0 0 2 1 1 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 3 1 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 2 0 3 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 3 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 3 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 1 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 2 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 2 0 0 1 0 2 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 1 2 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 3 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 2 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 2 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 1 2 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 2 1 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 1 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 1 2 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 3 1 2 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 1 1 0 1 0 0 0 2 0 1 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 2 1 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 3 0 1 0 1 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 1 0 0 2 0 0 1 0 2 0 0 1 2 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 3 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 2 2 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 2 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 2 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 4 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 2 0 0 1 0 3 0 0 0 0 1 0 0 0 0 0 0 1 1 0 2 0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 2 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 2 0 0 0 0 2 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 1 2 0 0 0 0 4 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 3 0 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 2 1 1 0 1 1 0 0 0 0 0 0 2 0 0 0 2 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 0 2 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 1 0 1 2 0 1 0 0 0 0 0 1 0 0 1 2 0 0 1 1 0 1 1 2 2 0 0 1 1 1 0 0 1 0 2 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 1 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 2 2 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 2 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 2 1 0 0 0 0 0 0 0 2 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 1 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 2 0 1 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0</t>
+  </si>
+  <si>
+    <t>F(77.3013176898211, 20726.030628081047, -104.96124250484414, 203.49520805774134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 80 103 93 132 66 47 92 91 136 70 96 42 82 75 89 144 28 51 96 72 91 59 91 71 97 119 92 102 104 94 58 106 30 47 58 48 67 88 87 93 62 65 88 130 125 83 70 117 109 111 44 58 146 98 54 155 91 190 114 167 75 78 112 59 66 126 73 98 106 104 114 38 85 92 108 127 47 51 118 100 96 60 136 117 79 76 170 126 108 47 66 118 88 91 93 32 96 118 80 115 133 123 110 119 98 46 50 94 122 106 105 96 61 62 59 96 85 109 155 107 149 61 168 84 104 103 105 78 137 83 125 86 101 74 126 87 89 74 154 109 75 148 111 44 55 102 98 122 122 102 105 105 134 114 81 132 49 95 167 90 74 49 123 64 152 88 170 132 57 182 114 88 63 85 98 108 121 77 64 61 112 169 63 92 147 68 72 55 99 119 116 136 81 108 35 103 109 150 114 114 73 85 71 165 109 79 132 92 47 140 83 120 119 88 105 73 121 100 53 112 135 100 114 92 126 94 84 100 80 131 108 103 59 89 94 88 132 85 113 87 137 142 114 95 111 116 21 61 98 28 44 117 25 80 95 107 164 74 84 86 130 90 61 83 88 130 116 109 61 120 100 113 118 74 56 86 118 46 124 79 121 78 117 65 82 91 88 85 186 101 41 116 155 62 77 59 91 32 139 151 92 105 94 101 92 70 120 33 142 128 89 74 63 201 48 139 90 122 102 87 43 179 165 139 76 75 74 168 89 88 45 134 113 202 78 139 98 79 77 39 100 209 56 123 113 128 82 103 118 84 92 174 128 130 81 111 100 133 106 71 117 123 27 151 77 55 87 162 119 82 57 96 71 139 62 73 166 128 54 54 77 54 115 141 86 115 182 104 126 95 62 73 79 182 82 88 103 79 111 180 135 85 88 98 116 120 98 98 88 67 105 101 64 133 155 103 91 110 98 96 89 80 79 89 138 138 80 96 89 103 96 131 71 164 157 111 120 86 41 71 69 163 60 91 165 168 176 136 75 154 71 38 92 134 101 122 108 71 89 63 115 126 115 120 100 82 88 118 89 158 67 86 73 117 121 135 28 91 87 163 35 127 151 143 101 105 46 140 129 79 79 129 142 83 94 99 109 79 84 104 112 110 131 102 125 125 83 121 101 33 67 110 100 99 60 93 46 165 124 140 31 63 107 158 54 101 100 53 130 112 105 112 54 38 106 77 111 109 84 93 156 90 111 81 96 104 106 75 72 110 80 197 104 98 33 106 180 70 121 82 189 98 88 59 97 123 98 107 62 74 94 59 69 109 111 125 95 29 82 87 66 122 70 130 84 138 157 61 71 193 137 106 64 124 119 52 36 70 66 73 46 115 126 108 52 111 109 71 68 98 35 73 106 105 101 75 66 88 75 122 84 115 71 130 50 140 103 97 40 135 79 77 136 118 77 115 93 150 115 82 104 150 43 129 107 69 85 150 74 112 175 167 149 73 158 121 112 99 129 66 67 89 166 101 71 145 92 24 80 118 89 141 95 147 78 94 46 67 110 103 67 77 123 78 69 74 110 92 68 48 59 73 86 96 79 121 138 72 92 102 111 91 127 46 41 99 157 88 120 83 71 100 84 73 66 74 115 49 133 54 59 66 111 89 99 98 96 73 105 61 143 89 70 69 107 51 155 109 116 71 87 22 75 70 63 41 62 98 39 119 97 178 93 80 70 103 72 91 121 86 110 82 117 104 156 84 86 159 59 100 72 53 91 45 135 68 69 62 124 45 109 59 84 106 81 103 124 72 126 116 80 115 122 132 148 88 118 152 84 80 92 122 90 156 143 40 93 103 86 91 87 140 111 155 107 108 106 174 106 79 118 108 42 53 136 102 70 132 127 95 104 101 68 54 124 79 125 118 110 88 95 80 80 111 106 97 97 94 157 77 110 152 94 129 50 109 153 139 69 142 79 96 51 63 67 115 132 81 105 132 59 121 71 116 34 95 50 82 133 72 212 101 64 125 87 100 141 53 74 148 79 99 46 75 93 62 122 72 124 150 114 57 105 81 132 53 62 85 115 153 133 117 179 91 120 70 41 76 69 73 135 91 135 107 187 79 148 109 106 80 132 122 101 83 34 124 54 79 108 129 108 85 113 112 69 108 79 95 67 87 94 88 149 74 121 95 103 55 160 92 32 149 136 128 97 121 94 48 119 101 39 48 97 137 110 75 114 81 118 78 135 113 89 108 141 85 90 123 54 97 44 117 106 78 147 82 102 102 127 119 90 120 127 113 108 76 96 107 158 117 75 80 124 78 123 165 98 81 144 74 68 73 109 79 172 129 74 85 108 79 37 76 107 60 72 94 86 154 43 94 82 111 63 112 105 53 138 96 93 109 103 113 100 93 110 99 61 87 112 86 81 112 104 132 111 133 94 67 89 105 122 126 122 90 83 87 83 103 82 147 118 90 83 59 95 117 98 131 46 97 102 64 71 149 62 105 95 153 73 88 121 165 145 84 116 73 47 91 73 120 63 65 86 96 49 126 140 140 88 81 120 171 121 42 164 87 69 144 113 134 97 121 94 187 102 51 76 183 137 35 74 161 101 103 108 73 87 85 103 47 124 152 78 117 98 123 75 112 97 84 50 161 62 89 57 99 100 103 122 59 93 157 83 75 76 120 23 83 94 68 33 152 123 78 27 83 59 62 92 142 86 72 152 94 59 68 96 81 112 94 106 84 102 80 71 84 80 115 85 82 139 107 109 150 77 63 98 130 71 78 60 105 85 101 68 99 52 63 99 160 79 83 75 100 59 71 101 28 85 80 121 137 141 77 150 106 14 142 108 66 136 104 43 99 131 99 69 65 133 93 120 76 135 135 137 73 92 121 62 144 122 65 30 93 40 98 41 131 144 65 95 86 46 58 87 94 75 59 50 62 122 67 38 100 209 113 88 140 63 107 74 110 124 57 69 94 78 80 76 72 77 62 134 100 181 109 93 85 164 32 88 130 97 113 130 80 90 130 95 30 124 88 123 107 82 106 191 124 93 122 152 131 101 84 39 121 68 85 76 131 173 78 55 100 118 95 115 108 97 39 112 50 107 88 92 61 100 96 118 88 68 67 106 79 62 75 60 44 154 87 72 113 114 93 106 105 64 65 59 177 103 111 63 114 79 95 56 73 99 92 57 73 55 109 124 21 78 79 142 150 90 27 99 96 79 86 79 116 118 96 111 69 43 106 103 83 152 95 91 88 75 23 133 64 107 65 91 77 140 89 97 105 65 107 63 48 123 79 97 66 76 58 61 80 68 110 22 55 83 149 96 33 100 126 83 60 134 43 74 20 65 60 119 148 115 138 42 145 114 174 121 58 145 93 66 64 52 100 68 104 116 119 116 111 152 60 78 46 126 98 126 183 129 123 71 78 60 118 109 79 166 61 42 79 139 11 95 122 71 93 94 60 110 95 142 82 130 98 52 36 73 123 88 74 90 92 68 78 70 165 106 107 70 83 108 121 55 103 136 110 124 80 73 107 147 97 64 82 131 140 164 78 86 124 100 74 84 126 141 81 47 44 53 108 116 72 119 135 62 139 105 112 64 92 123 74 118 146 181 104 78 64 83 87 143 152 97 85 64 87 79 84 159 99 114 92 98 57 90 117 79 154 142 63 85 106 85 86 97 70 38 34 137 89 79 102 37 83 92 179 61 72 105 115 85 100 57 88 54 107 70 126 101 95 141 61 104 129 113 119 93 105 68 118 121 78 126 138 97 100 67 100 64 111 69 61 134 105 133 135 93 113 113 125 94 105 104 88 106 99 34 99 80 82 89 59 162 110 147 109 110 44 116 127 97 60 128 100 59 122 108 141 80 151 184 132 108 134 96 123 122 68 111 167 148 79 109 94 89 52 161 145 137 25 92 76 82 162 113 194 106 130 112 58 102 71 38 118 32 87 80 64 112 90 132 73 44 41 108 151 79 124 40 78 95 62 105 67 105 136 84 107 140 52 132 118 116 46 119 69 140 153 108 76 142 127 80 130 54 136 82 96 63 83 112 114 118 116 67 57 84 132 49 99 117 120 85 121 99 218 65 111 92 62 56 114 111 111 94 172 101 78 135 94 61 77 157 76 59 150 54 117 56 111 65 89 132 90 82 71 49 62 69 150 137 153 67 136 141 152 122 103 84 114 62 96 91 113 97 88 51 79 98 88 72 61 36 117 122 157 128 99 81 68 20 62 130 63 60 118 185 79 109 113 120 142 195 125 85 83 99 73 137 154 98 112 103 67 102 113 134 27 74 97 49 124 65 114 217 84 87 143 74 35 129 83 74 76 102 101 76 157 169 66 63 96 93 59 111 108 108 61 178 98 153 89 121 123 107 46 143 98 89 89 169 125 115 99 89 137 160 59 95 87 55 135 147 106 115 125 70 81 83 131 85 138 84 124 89 83 61 80 135 85 118 57 113 75 146 95 91 88 157 115 83 103 174 75 75 123 104 97 68 120 130 87 87 65 102 76 90 74 102 121 72 76 55 94 145 124 121 95 68 74 175 118 169 89 79 115 127 87 105 139 84 130 83 95 135 59 138 83 110 36 48 73 105 143 148 93 67 131 107 136 123 91 62 115 98 70 50 98 134 95 99 154 64 97 71 117 81 91 136 117 134 92 87 127 89 58 54 97 68 65 117 118 68 108 94 106 113 121 171 157 84 142 81 83 110 115 79 112 143 71 82 158 140 200 53 39 89 55 123 75 99 109 116 120 132 117 137 114 68 146 88 109 65 83 80 37 115 69 64 85 94 138 77 102 93 76 85 118 78 60 142 91 100 142 70 82 92 117 176 114 119 132 83 102 139 97 131 92 91 112 73 86 140 114 111 76 41 122 88 84 96 106 65 42 67 101 33 56 50 88 71 82 66 71 110 56 96 53 113 154 61 94 93 72 68 143 84 96 132 70 115 103 128 78 135 83 122 74 133 111 94 70 159 80 116 45 66 93 119 87 194 71 109 105 100 145 94 162 119 153 35 55 142 119 129 35 130 58 37 58 106 76 76 58 89 129 89 127 106 112 132 96 123 169 95 123 191 68 113 100 61 72 46 99 43 155 85 71 116 85 153 73 78 83 145 94 138 86 165 67 110 105 126 144 108 112 83 95 95 107 72 117 125 117 192 69 82 114 76 52 98 90 107 68 85 84 75 115 84 108 136 101 84 98 80 86 77 73 108 89 138 135 63 135 113 74 16 124 138 115 137 82 65 97 74 72 72 118 38 88 64 89 93 91 111 113 108 50 77 210 31 114 134 106 114 127 69 126 127 108 111 109 103 107 153 132 99 69 61 116 88 77 95 80 65 111 7 87 49 58 123 78 66 65 110 124 96 69 69 56 42 116 128 58 106 137 172 118 102 101 115 62 99 118 145 119 107 96 100 49 95 111 101 117 80 107 139 79 10 73 47 81 108 105 103 102 67 168 85 111 78 35 126 89 126 127 73 141 120 112 68 112 124 122 102 108 69 103 65 100 118 59 102 150 64 92 79 75 60 145 75 129 124 145 176 81 95 74 70 101 99 180 73 93 149 132 139 99 117 119 73 115 36 123 134 109 149 89 159 153 112 90 104 153 136 127 83 48 114 49 86 91 63 115 107 128 90 104 105 165 100 44 171 124 131 33 90 123 54 136 153 110 112 46 137 80 138 85 125 157 28 76 169 146 79 127 122 109 100 82 87 113 69 63 134 79 73 121 65 62 115 89 93 86 127 64 86 90 139 163 83 89 63 105 120 149 65 120 112 118 137 87 67 85 110 140 81 72 63 52 70 66 108 121 68 110 75 103 102 149 63 101 113 114 107 98 147 64 45 136 83 92 86 76 74 89 126 168 58 120 87 176 105 95 93 125 130 77 134 122 181 119 66 30 71 99 62 129 88 104 66 96 78 99 79 81 106 104 150 108 100 79 92 60 115 104 134 77 100 145 115 84 123 138 102 111 127 111 97 65 68 76 112 88 89 106 109 27 138 157 95 127 107 95 111 136 55 138 60 110 105 72 101 139 102 101 94 93 85 174 61 90 75 92 98 104 73 125 90 152 115 116 94 131 47 103 109 94 107 90 152 120 118 137 95 135 81 99 76 84 113 74 88 109 134 127 110 95 52 121 121 69 170 68 178 125 65 152 109 148 49 77 127 95 101 72 114 65 107 132 88 63 64 65 122 168 83 102 64 41 85 130 100 95 113 69 61 93 55 72 68 106 158 87 58 60 83 137 30 141 106 100 158 121 84 108 36 63 65 102 104 93 31 85 99 39 56 85 83 89 90 50 157 82 64 141 134 143 138 104 161 148 95 184 111 39 67 92 104 131 59 83 163 58 74 132 145 60 146 92 70 79 137 71 111 86 111 56 157 85 25 92 102 97 146 124 76 90 91 78 73 63 142 142 152 78 84 147 138 125 92 154 129 102 95 111 142 83 145 105 86 66 186 50 71 99 100 78 117 54 93 126 91 90 111 141 122 53 150 43 97 100 133 116 96 131 120 92 72 28 74 91 86 103 109 103 64 196 123 48 109 115 80 102 164 104 115 101 90 138 157 108 101 92 73 143 81 107 171 139 160 169 111 134 168 64 126 135 71 131 79 78 79 99 133 42 131 128 99 106 139 79 99 101 75 115 126 72 102 95 141 90 36 111 93 124 104 88 87 59 125 90 86 60 117 46 121 121 97 85 67 77 120 160 93 79 53 78 114 87 68 66 104 95 50 85 62 103 56 114 114 102 58 93 74 92 103 75 89 90 109 93 100 103 113 31 82 143 91 84 103 77 112 115 96 116 148 127 69 102 58 114 137 74 142 127 124 161 102 91 161 115 120 107 108 125 74 62 162 97 136 102 127 96 64 60 85 131 53 82 73 107 39 120 17 142 72 77 72 113 95 135 69 157 127 110 122 81 146 102 112 151 82 131 91 88 82 73 63 67 88 77 142 78 124 95 105 61 99 147 153 129 105 76 123 89 44 87 88 99 102 78 137 93 146 54 129 86 104 89 46 50 72 62 103 74 161 78 62 64 118 89 85 109 49 65 71 124 108 150 44 143 70 114 62 78 101 88 106 94 147 133 111 144 67 80 158 148 110 99 142 66 17 69 74 92 129 101 104 88 76 94 122 88 123 59 57 112 122 97 100 129 76 91 107 153 159 98 88 102 97 103 126 105 120 147 90 166 91 86 41 91 61 73 90 142 93 77 91 68 58 160 102 81 42 137 88 103 50 72 151 75 106 112 54 103 87 90 25 36 91 121 188 46 110 171 121 98 119 129 106 46 136 82 145 105 109 64 111 89 49 82 68 58 147 79 114 52 169 45 94 72 137 77 87 83 114 95 105 84 121 97 213 109 91 124 103 117 102 112 104 117 88 84 72 47 101 58 115 100 85 96 62 85 114 117 30 102 122 192 60 145 168 104 93 84 73 85 142 84 97 116 227 51 120 105 80 101 87 128 72 114 143 67 55 105 90 111 57 102 70 52 105 144 86 81 83 82 192 82 75 87 60 72 75 159 93 123 96 73 76 39 76 122 90 145 37 128 113 111 70 80 127 83 123 95 87 99 206 82 133 60 123 91 73 70 84 151 92 150 69 102 101 101 65 113 143 100 30 40 107 129 158 104 41 110 110 125 164 80 101 142 83 94 46 139 120 77 113 96 118 104 83 107 110 57 100 86 83 91 45 117 167 145 121 87 130 95 92 120 48 130 81 90 109 125 54 68 137 98 96 84 43 134 152 58 102 119 110 96 130 105 113 85 87 145 116 142 70 98 71 63 173 46 130 89 119 127 143 155 118 152 85 103 85 99 111 91 208 98 92 122 98 108 46 139 107 101 126 169 86 111 139 45 46 154 91 70 150 164 91 49 103 56 187 70 160 76 141 92 72 112 119 170 81 120 77 136 55 60 125 45 48 92 85 126 126 59 113 138 88 124 130 85 77 104 54 82 153 80 59 155 115 193 75 119 96 134 49 46 122 89 85 125 118 59 115 126 103 49 81 55 102 138 149 84 166 83 106 86 107 70 85 47 79 108 87 126 113 131 105 128 93 99 127 46 99 45 65 64 71 125 94 87 100 126 61 74 59 49 119 65 103 49 75 147 131 62 67 23 113 72 91 64 94 74 91 104 88 121 72 80 107 47 42 32 108 90 92 53 120 132 153 112 110 129 100 77 116 104 73 94 117 115 154 97 120 76 115 86 67 165 61 67 74 112 87 117 90 137 96 100 100 101 124 47 90 67 114 70 91 130 143 45 93 65 118 149 70 123 88 182 74 109 121 150 34 88 103 61 74 120 57 115 145 93 119 71 43 64 111 71 118 99 42 81 84 100 168 86 54 128 160 127 132 45 77 79 102 128 159 104 98 82 109 96 83 68 142 84 126 88 110 91 95 127 136 73 80 96 77 144 133 69 62 143 66 129 88 111 50 105 116 102 91 104 196 51 70 105 83 125 86 128 92 64 66 58 102 77 99 82 129 82 60 72 65 46 59 145 38 98 138 118 171 89 162 63 121 100 118 67 122 67 139 87 104 118 54 121 134 74 126 86 67 59 41 81 49 86 98 38 71 107 148 104 136 84 99 142 190 81 97 87 75 75 120 85 167 126 25 77 49 112 132 115 35 12 116 118 63 68 75 89 101 165 100 97 146 107 61 74 177 107 67 107 50 78 58 91 95 90 112 113 70 144 28 77 47 90 82 57 45 101 74 6 80 67 161 125 133 105 42 74 51 85 59 78 134 134 139 139 93 157 112 82 68 50 108 100 116 82 119 98 83 78 148 96 79 124 94 173 145 145 101 63 80 135 89 73 139 120 196 94 84 43 98 90 91 69 106 79 30 104 102 92 39 91 46 48 93 69 48 97 93 123 96 112 46 66 63 101 190 137 56 72 134 143 35 89 49 126 146 75 56 84 105 82 115 101 87 94 151 136 121 112 141 108 98 105 84 120 116 126 71 75 92 104 103 81 116 87 108 116 77 99 84 80 53 139 97 143 90 126 87 100 191 50 77 111 85 91 110 160 118 119 63 91 120 94 175 74 112 79 106 113 142 118 88 88 141 122 106 147 100 62 83 80 71 161 108 123 124 183 110 69 152 90 160 159 93 78 146 134 70 109 75 124 72 104 92 60 94 90 51 114 107 107 91 55 77 106 70 130 87 69 94 52 97 106 46 84 130 121 80 106 146 124 96 110 140 100 49 81 104 180 94 100 88 83 82 114 68 82 80 117 71 43 86 108 159 98 100 119 42 88 86 69 108 80 90 63 55 99 91 140 139 130 51 46 156 54 62 90 91 85 65 140 92 130 132 90 100 97 109 128 112 75 83 115 42 81 103 72 178 90 134 96 125 55 103 68 133 105 108 103 81 104 173 128 176 70 72 78 80 114 81 80 121 109 42 57 92 105 132 83 94 144 82 113 161 150 115 141 81 111 82 58 54 68 62 38 73 51 128 117 127 142 92 121 79 76 35 150 78 130 106 64 72 71 102 93 59 79 58 74 81 66 112 53 69 127 82 80 89 92 81 109 105 66 126 73 109 103 40 93 67 77 80 105 118 63 141 84 75 100 88 111 60 54 134 112 110 61 108 124 156 140 83 124 82 66 118 114 90 99 163 19 123 148 61 122 32 65 102 152 122 133 96 119 121 51 75 71 136 84 77 79 88 109 97 99 80 87 158 116 104 113 29 88 53 104 113 112 125 105 152 95 128 98 115 72 119 101 132 83 127 75 83 48 77 82 185 108 101 77 71 85 82 85 56 23 76 149 142 65 93 124 129 124 108 92 82 103 138 56 138 111 109 37 68 42 119 76 113 114 65 31 80 76 116 118 60 95 99 76 150 166 64 82 173 102 133 31 105 66 133 87 77 62 64 109 69 43 17 135 134 149 109 87 61 100 60 110 136 97 162 89 88 114 107 60 91 98 153 137 69 135 125 80 63 105 114 84 89 91 87 135 106 27 73 86 77 129 125 116 163 185 129 59 83 68 113 66 91 88 72 54 85 78 101 87 64 102 108 127 166 107 70 106 63 101 38 86 74 125 36 140 56 81 69 141 93 157 84 50 37 87 72 92 96 86 124 111 114 87 112 160 39 95 64 59 41 71 46 65 76 152 69 103 147 95 110 124 102 130 111 65 86 70 163 104 68 77 92 102 123 124 87 127 49 104 125 119 105 102 61 87 129 102 122 87 159 119 131 76 110 72 68 94 40 124 120 90 152 56 84 183 109 135 51 175 92 110 134 96 111 68 60 130 150 160 62 119 110 85 80 105 63 45 64 103 138 133 113 91 148 156 106 76 179 102 120 83 139 86 106 92 112 73 37 99 120 117 136 86 84 123 135 49 76 86 40 100 74 77 122 70 95 87 96 93 45 94 56 130 87 100 132 73 85 99 65 125 114 119 198 103 74 130 110 101 109 88 90 88 66 98 121 90 62 62 103 71 80 69 46 114 80 91 24 115 75 45 100 111 128 76 66 77 101 83 72 171 75 43 40 82 95 113 126 93 117 82 96 93 79 50 109 108 191 94 152 102 121 68 116 153 79 86 87 67 43 79 104 146 63 86 116 140 89 120 73 90 79 110 123 86 52 126 103 92 76 157 96 93 125 33 119 53 80 75 105 124 105 68 84 94 82 100 102 144 149 81 92 115 96 56 97 116 69 41 116 106 79 93 121 149 94 97 51 99 115 133 111 159 122 117 114 83 125 54 69 100 73 99 210 49 138 42 181 154 160 121 57 104 88 179 82 127 112 147 105 103 116 101 65 122 125 102 178 94 72 88 75 109 126 34 81 63 86 59 99 146 145 91 116 42 40 48 31 171 87 129 104 93 128 123 101 77 79 116 145 84 45 102 167 94 89 134 91 66 110 77 99 121 184 59 119 110 154 81 103 115 47 60 92 112 107 134 100 58 104 130 73 96 119 35 77 86 115 121 123 33 73 63 62 139 51 109 142 140 108 39 97 131 132 87 103 98 110 108 102 81 82 106 106 92 67 97 41 101 102 102 120 94 66 163 119 71 74 156 90 88 148 65 88 112 74 110 133 85 66 117 105 44 108 122 104 86 66 118 40 99 59 121 32 204 186 140 88 88 65 96 53 171 118 193 64 98 141 94 52 97 83 132 53 85 106 69 155 134 114 99 138 83 111 73 67 78 87 93 139 142 58 65 144 146 64 83 89 128 41 87 59 80 132 68 141 35 82 144 49 90 87 146 113 104 77 170 214 120 72 39 123 67 49 42 82 140 81 108 61 97 174 53 105 28 134 82 22 73 128 117 81 118 98 86 39 76 83 103 62 65 91 73 91 94 69 102 65 68 95 85 54 74 114 119 64 120 109 128 87 91 84 83 162 116 32 124 68 88 36 66 58 134 68 56 72 61 92 73 11 62 57 97 79 57 116 53 84 111 107 18 78 64 162 109 87 74 120 116 127 62 86 32 126 97 107 52 115 118 162 113 65 139 156 137 127 111 59 144 52 211 66 99 148 75 137 91 110 48 62 153 83 116 99 69 96 117 90 133 70 141 61 85 104 119 113 105 71 91 105 164 129 104 139 76 44 107 82 58 44 85 166 110 139 87 84 103 70 94 124 66 110 105 86 89 107 141 73 108 105 84 130 81 134 96 93 73 87 180 114 100 66 79 89 90 103 136 34 98 117 130 84 45 105 18 76 117 94 185 123 89 57 42 48 78 117 128 118 69 109 87 154 106 52 74 121 179 91 141 69 146 86 94 172 130 81 131 86 149 104 50 113 79 102 111 124 99 135 99 96 73 101 86 153 64 126 48 96 125 150 63 111 114 112 106 64 101 91 108 138 91 119 136 137 150 48 73 127 49 119 110 76 77 64 124 114 70 103 89 83 116 110 92 108 110 106 109 115 133 94 126 157 92 68 124 125 112 129 54 32 166 57 71 81 93 148 79 99 116 41 59 137 104 92 107 83 100 119 129 60 78 104 167 66 66 31 125 119 125 128 59 82 100 136 134 99 118 80 58 144 72 105 104 94 108 88 70 115 110 103 112 79 53 54 100 74 124 138 90 72 87 177 108 57 120 105 75 113 162 72 100 151 108 100 128 34 134 127 83 103 84 96 214 58 86 87 146 116 172 113 177 93 115 96 67 66 83 91 83 141 106 75 59 79 79 94 31 115 85 73 81 102 129 86 90 105 99 127 143 38 112 48 162 103 72 115 52 82 109 122 99 86 148 160 81 163 150 131 94 132 161 40 85 130 91 74 68 85 128 73 63 83 75 154 96 65 131 107 64 51 115 75 94 110 78 146 140 81 77 58 119 89 92 126 142 79 130 123 64 40 130 65 100 141 149 120 140 107 151 78 75 113 123 131 128 65 93 133 86 155 104 84 114 76 74 124 56 85 133 78 92 70 173 106 135 79 124 74 111 117 85 103 54 79 119 93 103 97 106 73 145 46 100 111 95 111 118 116 66 112 121 103 137 93 88 143 78 52 72 106 103 125 127 70 102 85 86 167 126 118 91 113 74 165 84 95 140 130 94 125 160 104 79 145 131 63 72 186 72 132 95 108 122 103 106 70 57 93 78 30 128 61 86 70 72 68 90 54 62 114 153 107 95 75 70 172 180 80 104 106 120 58 130 82 85 160 122 90 76 107 83 97 85 54 76 119 70 100 150 192 146 121 50 79 87 104 58 136 28 73 143 161 89 51 87 133 61 115 114 42 88 101 64 173 65 93 115 77 123 57 99 120 84 71 149 147 58 59 168 76 57 137 78 84 128 112 118 40 108 170 163 178 131 105 96 129 107 83 95 106 107 106 123 126 9 121 83 97 156 84 137 74 141 148 68 122 127 141 88 149 61 95 86 123 168 78 60 143 64 138 107 135 75 145 53 85 76 87 171 171 113 69 63 111 125 75 112 67 79 59 101 94 187 139 106 70 55 58 123 28 49 99 124 109 141 152 125 82 116 77 72 140 86 96 116 106 103 102 133 84 74 154 79 63 100 127 16 106 139 61 168 156 142 91 136 152 92 68 124 60 101 86 118 142 69 116 128 92 131 31 87 77 78 81 44 64 111 67 47 100 159 107 152 62 93 94 92 100 133 103 87 56 87 97 86 97 51 60 70 71 102 70 84 128 107 93 127 108 100 104 61 120 96 171 89 76 84 105 91 91 81 43 104 108 139 81 92 84 98 88 50 73 137 63 130 117 23 103 109 152 81 135 75 128 102 57 90 103 129 113 101 116 88 70 130 64 140 113 83 88 117 132 86 94 113 91 90 139 60 100 135 88 123 34 115 47 124 56 63 126 58 48 124 129 101 102 55 134 86 107 94 151 116 73 64 134 86 85 70 89 102 93 56 94 32 87 64 156 132 35 83 105 87 68 81 104 108 102 74 134 102 85 94 144 62 87 96 120 83 91 143 92 107 75 94 126 110 106 139 139 51 124 120 92 85 155 73 85 78 131 118 43 47 190 114 188 121 75 85 114 136 162 125 151 89 79 51 125 108 127 135 145 79 51 70 78 137 107 76 106 80 110 81 61 150 77 75 78 126 159 107 72 81 152 75 77 116 111 59 60 60 122 38 65 101 140 121 89 153 72 90 71 126 108 101 39 157 90 74 79 137 89 167 106 116 85 91 80 105 111 163 88 102 75 63 25 58 100 71 71 57 93 112 92 110 94 137 80 73 102 127 133 44 139 64 114 54 156 121 66 90 76 58 50 58 179 55 117 87 104 78 127 173 50 156 56 102 70 113 100 158 162 53 59 75 172 122 117 78 47 57 142 126 71 103 68 68 91 103 70 100 77 104 96 168 47 108 148 75 80 47 106 79 80 124 137 73 40 149 133 119 126 58 136 134 101 93 114 166 105 136 143 139 136 159 113 72 77 100 86 65 104 108 33 74 89 126 101 115 68 78 67 132 90 86 204 101 88 80 99 69 61 140 134 103 89 54 97 99 108 128 73 104 147 62 123 62 77 135 61 83 80 104 54 89 87 119 133 130 66 126 94 108 145 50 91 74 168 100 92 89 63 79 94 170 100 79 74 65 123 52 91 102 60 102 84 96 122 114 97 107 146 47 48 122 40 78 80 87 82 66 85 90 99 135 87 148 104 100 109 85 76 114 70 80 26 60 112 111 68 72 103 114 82 61 137 148 91 100 60 107 112 116 104 95 58 72 82 121 63 185 95 90 82 67 129 111 93 105 66 128 158 100 142 91 148 106 28 62 170 109 84 80 100 42 80 67 66 121 123 65 150 96 72 146 121 69 97 31 68 99 99 80 116 61 119 131 99 93 139 93 157 124 31 71 87 68 114 64 145 37 117 89 147 76 64 136 105 89 71 92 81 75 106 68 127 120 70 91 53 82 92 126 109 73 169 31 145 72 128 163 113 52 101 65 92 101 115 140 111 136 106 106 86 84 156 103 105 87 96 132 100 97 40 154 103 76 46 103 54 74 94 100 36 112 117 67 117 86 59 83 101 115 99 170 104 101 106 107 130 20 104 127 109 99 85 80 72 92 131 70 107 55 148 112 78 42 116 125 75 134 47 73 48 138 63 111 138 182 124 77 124 80 68 71 63 125 99 126 80 69 151 75 100 76 82 81 48 78 116 66 146 107 55 39 41 80 56 89 80 119 91 113 93 85 117 50 167 111 104 63 81 110 98 131 133 61 111 178 54 72 150 73 59 132 171 91 88 111 149 113 75 103 64 73 92 122 163 43 126 120 118 64 37 80 113 134 133 90 55 125 153 168 59 150 70 86 141 137 65 191 78 93 129 112 74 79 96 79 107 123 76 71 98 117 102 135 103 83 118 56 116 64 124 60 63 169 88 61 67 142 94 93 104 140 127 75 61 139 86 83 131 92 64 86 47 106 119 86 118 144 119 142 100 101 104 120 69 114 128 124 78 132 59 78 108 103 125 100 67 123 122 82 122 141 119 77 88 131 116 101 70 77 129 56 110 46 63 103 100 92 106 69 33 104 141 172 110 60 87 131 107 144 62 141 130 78 72 75 81 117 93 94 84 65 89 68 91 125 117 160 138 111 62 128 64 171 105 87 135 98 79 79 103 77 73 120 81 63 136 131 111 69 97 92 63 70 91 124 161 84 65 84 113 170 42 85 73 26 91 69 84 109 64 106 92 84 150 80 96 109 82 128 92 83 53 114 42 86 97 53 90 91 76 116 90 77 105 91 122 96 149 121 124 78 90 112 122 118 173 118 101 56 67 97 65 126 51 137 58 113 100 123 127 37 46 144 142 99 75 152 67 90 62 93 77 108 112 85 54 131 89 113 107 85 85 75 72 111 113 123 127 70 50 110 106 114 139 102 89 91 86 172 118 89 93 87 80 131 66 123 98 100 55 53 111 103 140 125 77 51 94 138 70 101 85 109 158 169 94 118 139 82 66 65 144 113 89 60 112 51 166 160 106 136 109 110 58 66 78 107 63 90 96 51 33 90 105 64 103 114 121 128 78 26 152 135 136 92 84 135 149 99 57 88 120 113 127 104 66 93 109 105 121 136 94 108 87 113 121 159 106 109 91 132 60 145 74 66 131 87 114 53 128 103 84 115 103 116 60 110 106 104 80 138 69 114 56 91 120 85 127 97 85 108 124 86 134 95 124 103 90 26 31 80 112 26 70 89 176 123 82 136 63 148 59 76 85 161 118 85 81 97 84 88 111 92 63 122 108 95 63 93 119 85 100 90 65 106 50 143 126 179 145 167 85 179 99 105 123 118 84 68 87 132 123 47 83 129 86 127 127 50 108 98 108 72 91 150 55 83 89 97 141 98 135 101 80 133 98 153 110 108 78 131 100 101 99 77 89 135 143 73 113 88 137 73 44 86 95 76 110 130 136 128 111 27 92 43 89 148 86 65 125 127 120 87 35 76 124 146 112 85 117 97 68 135 67 73 110 61 105 135 67 130 71 80 55 107 64 153 134 121 149 74 86 108 120 161 160 101 88 85 98 113 118 124 71 151 110 134 91 113 88 88 65 144 112 73 86 118 43 102 50 70 91 118 72 119 135 128 112 71 58 164 87 92 163 131 99 92 74 153 118 101 143 168 115 85 52 119 70 96 86 117 81 120 178 91 53 123 106 93 135 128 102 69 130 139 137 43 161 161 68 113 118 129 97 114 138 68 115 62 49 86 101 115 67 54 144 85 71 118 103 96 143 122 71 105 128 100 53 111 103 85 87 137 120 73 87 142 86 84 107 96 70 124 114 81 150 52 80 52 144 117 94 64 91 81 107 99 122 88 37 26 108 133 38 154 47 91 34 93 68 37 76 96 100 115 86 75 76 141 45 110 159 102 92 110 77 172 115 106 74 168 85 73 143 35 66 100 126 99 66 150 141 86 150 73 94 43 89 99 123 111 88 146 89 161 86 138 102 122 138 152 169 108 85 107 58 68 108 95 114 54 103 85 109 129 45 63 88 49 135 71 73 64 37 60 81 72 82 182 51 71 59 53 90 61 61 40 68 80 99 96 74 63 102 183 88 150 77 121 102 152 83 130 183 55 71 142 189 92 92 84 76 90 131 81 125 192 110 110 27 43 128 118 100 64 166 93 118 60 76 64 129 94 64 112 103 121 34 80 116 137 163 124 155 107 72 64 121 46 106 44 96 78 151 96 78 88 65 86 80 187 78 110 106 86 68 135 89 59 123 86 103 88 112 119 105 100 97 103 126 61 52 73 144 190 75 124 103 104 61 86 62 119 91 169 70 31 80 52 104 172 73 74 68 86 146 70 86 148 79 94 89 105 77 92 166 58 144 164 68 129 105 69 66 116 130 38 100 98 54 166 109 84 102 159 118 56 105 53 121 124 79 98 63 121 72 94 101 108 123 99 121 77 205 74 110 105 149 128 63 112 100 73 86 132 100 38 125 124 99 41 104 67 87 59 94 83 136 52 170 58 102 147 136 71 159 95 124 58 94 146 145 122 85 103 155 108 105 65 112 99 127 150 63 95 138 76 122 142 132 65 80 45 66 145 163 136 95 96 40 60 59 166 110 65 143 45 79 59 112 168 170 97 97 76 134 68 163 121 95 80 43 91 91 173 77 93 112 105 67 99 103 134 123 76 132 109 135 82 82 94 118 92 89 112 123 70 85 128 96 100 93 60 141 93 108 98 102 109 97 48 55 122 93 134 69 93 115 104 119 115 116 83 137 110 135 133 143 120 152 99 113 64 82 67 103 153 81 142 60 47 117 97 67 160 106 82 116 57 138 62 98 105 129 112 68 87 106 107 135 47 119 65 116 144 135 180 138 94 96 142 76 48 159 44 141 148 76 90 72 132 129 89 111 110 138 82 105 125 61 56 61 61 77 118 138 119 81 110 75 53 74 93 103 86 79 149 63 95 111 88 132 117 150 72 116 128 67 57 122 116 123 103 86 143 116 106 94 97 91 68 84 118 149 96 142 108 116 42 60 80 81 96 31 61 54 107 95 76 90 99 43 120 139 69 90 115 80 90 98 129 109 54 116 81 142 104 98 130 61 190 105 68 145 90 71 71 93 48 111 106 68 76 57 64 124 69 99 75 153 99 91 85 126 98 34 81 81 78 112 82 102 76 73 148 78 95 150 98 78 108 87 20 111 101 72 114 27 94 103 81 56 102 132 111 101 61 53 27 79 103 94 46 63 49 138 84 95 140 20 64 85 145 140 95 110 32 116 135 56 47 101 51 103 94 70 83 100 183 70 73 100 65 87 92 138 45 115 115 116 105 160 157 75 134 133 114 124 100 101 118 143 100 121 140 113 105 156 11 103 80 156 70 46 90 67 84 131 129 100 135 111 54 71 46 18 92 76 49 88 44 140 44 141 86 91 71 85 91 95 148 136 81 96 132 100 38 138 92 77 102 79 60 107 77 96 28 40 105 138 92 121 69 99 64 60 78 122 112 79 99 151 107 81 59 103 137 138 83 87 32 75 54 95 114 79 109 102 76 86 71 72 131 161 61 179 50 142 91 71 86 120 141 60 145 113 80 61 89 109 83 141 76 73 22 96 114 132 26 97 97 153 85 87 83 38 156 163 58 81 141 100 85 41 114 89 178 152 125 119 101 94 107 151 155 49 60 111 39 54 100 100 102 59 126 95 65 106 63 139 89 81 106 64 67 105 141 69 99 86 11 67 115 92 77 131 105 182 83 88 56 74 106 178 83 114 119 145 70 101 107 140 50 112 120 142 111 55 114 136 114 99 134 94 134 88 17 87 138 103 107 134 95 81 133 71 98 114 86 50 38 64 66 74 100 116 139 113 67 78 98 89 61 94 123 104 130 105 97 142 103 146 100 53 110 75 95 73 140 107 144 106 86 65 132 104 156 136 123 98 117 178 105 117 115 100 94 94 125 82 88 83 60 72 85 119 103 92 187 104 111 71 129 101 71 134 108 145 118 81 100 57 89 96 85 69 97 55 82 119 113 127 86 118 112 43 104 85 132 107 67 84 77 119 60 114 107 114 104 126 47 135 131 119 73 79 96 104 71 98 86 78 105 78 56 146 98 54 70 104 67 116 90 171 86 74 166 171 108 78 133 88 114 70 137 161 17 66 2 84 84 87 71 97 87 90 137 139 100 99 72 26 170 138 89 121 96 147 79 113 92 93 107 68 114 105 75 148 78 165 76 99 72 74 69 103 87 109 109 136 70 165 107 103 150 45 92 108 114 119 138 65 37 117 42 110 106 68 61 105 118 123 72 83 108 80 82 126 140 136 118 116 141 121 79 115 49 116 93 175 85 151 97 98 66 70 100 98 141 41 77 112 93 91 36 67 36 99 105 73 100 142 143 72 110 130 110 115 89 85 41 77 133 54 58 105 106 73 91 107 74 99 71 182 121 224 113 52 65 122 96 57 108 183 91 50 52 72 90 95 155 109 113 64 113 98 75 34 64 92 65 77 151 58 64 65 108 85 97 112 171 111 71 82 116 75 106 109 106 101 169 53 73 102 80 96 146 47 41 91 82 100 71 103 139 120 66 151 96 60 101 55 106 96 63 62 92 101 121 91 146 96 98 105 107 107 85 115 83 73 105 113 85 135 55 80 166 80 99 100 126 95 141 151 77 88 34 110 96 88 149 167 139 116 78 76 89 108 75 104 131 105 83 105 81 101 115 140 101 133 99 67 55 78 95 133 61 116 169 81 158 124 177 70 99 155 76 115 108 35 114 93 126 81 137 55 81 73 141 118 65 92 96 47 120 67 148 98 67 104 76 138 147 76 90 117 63 166 68 109 141 114 62 82 74 66 45 26 80 86 138 113 140 50 59 102 85 157 114 109 90 104 61 68 87 123 95 65 68 50 99 80 88 86 131 45 112 117 72 75 97 120 101 75 132 76 76 61 95 77 142 138 132 89 101 74 56 107 128 109 61 58 103 85 89 83 74 138 22 130 76 154 91 75 121 66 100 112 92 89 77 135 59 75 22 122 131 183 57 34 97 171 134 66 37 106 128 115 102 81 92 85 101 64 100 87 30 27 122 123 70 183 94 71 46 54 119 80 46 103 75 101 167 62 118 132 59 79 75 151 125 81 89 67 121 58 115 110 99 64 128 136 102 82 37 127 66 132 72 118 85 116 87 93 101 63 89 89 67 93 77 130 171 43 96 104 56 107 133 134 59 107 141 119 128 99 36 63 85 114 42 78 86 77 87 126 135 113 114 98 80 105 141 50 155 74 115 198 90 85 109 102 130 81 114 58 80 145 68 139 129 78 132 109 101 82 94 154 85 96 129 82 113 65 81 72 183 85 72 39 88 121 90 185 34 118 65 44 69 126 28 68 146 74 102 56 95 141 115 86 61 62 83 94 56 68 121 121 37 47 120 126 104 102 129 49 150 174 44 55 90 134 62 107 106 88 107 135 116 80 130 84 100 80 129 158 79 124 69 113 66 61 141 107 88 79 78 66 68 188 123 138 123 60 124 128 68 101 156 92 73 42 68 91 123 71 106 157 81 141 65 110 141 89 46 124 161 116 115 91 105 138 111 99 106 96 144 152 77 101 116 36 125 128 132 129 45 46 115 99 105 76 136 83 93 141 75 62 72 108 87 156 128 157 88 91 92 71 59 61 31 97 89 98 107 112 75 104 97 145 68 27 125 154 96 102 92 59 57 170 105 120 62 103 153 147 76 127 74 149 88 93 169 91 104 65 140 109 96 79 85 112 106 100 73 110 107 89 69 90 34 55 132 84 110 75 63 88 82 132 124 119 62 62 72 60 67 140 87 62 106 55 91 117 112 65 106 159 124 86 85 81 129 97 107 81 95 146 61 106 78 140 140 56 81 66 35 76 125 59 154 164 87 61 57 140 68 178 118 87 90 186 74 98 125 109 85 92 116 144 187 79 97 92 73 83 97 100 85 121 96 85 117 95 94 74 89 26 72 63 61 98 79 91 75 137 78 79 89 101 113 143 117 186 54 129 138 81 139 111 116 158 58 97 165 67 60 116 97 71 83 116 105 152 110 81 71 152 120 73 106 85 115 57 109 138 103 59 149 112 100 106 66 91 152 93 105 66 90 110 86 83 158 98 68 100 96 45 98 105 75 246 77 90 94 66 127 110 87 95 88 103 51 80 85 121 115 130 70 146 131 65 105 82 72 105 131 97 82 100 77 48 134 61 88 56 109 137 62 153 59 62 128 78 116 121 83 60 170 101 101 120 91 68 89 85 133 105 146 114 63 40 167 130 80 106 140 49 84 101 108 52 141 84 63 101 53 45 61 54 73 89 105 109 155 118 114 87 79 112 130 91 75 113 129 85 85 108 99 108 102 39 81 86 111 70 90 106 155 163 116 105 107 178 69 100 82 89 67 69 68 99 128 62 107 106 81 105 127 96 110 170 90 100 96 107 119 87 108 133 107 157 80 61 131 64 47 144 74 62 55 53 89 78 71 109 85 100 122 111 85 92 79 116 66 52 120 61 105 142 109 137 84 130 51 165 124 123 83 90 111 97 140 108 81 88 149 124 144 61 81 96 96 165 43 124 79 103 80 121 74 37 97 118 111 73 77 150 134 136 100 71 134 139 86 98 113 64 117 95 95 157 82 155 39 147 53 176 72 79 113 122 155 122 91 78 76 53 135 70 91 96 64 101 127 100 59 91 69 57 107 57 113 138 72 73 107 108 11 79 111 66 71 95 124 76 126 74 169 100 117 102 96 118 65 74 120 133 56 100 82 218 77 87 35 135 134 105 64 131 92 108 82 110 34 127 53 128 40 77 134 202 146 70 95 28 60 82 87 107 132 128 72 51 95 69 166 93 172 130 60 92 59 129 149 88 61 116 99 87 199 138 138 90 85 99 120 201 73 74 56 108 </t>
+  </si>
+  <si>
+    <t>GAM(0.12691763496828073, -2.1259211233245685e-28, 0.6037712849125265)</t>
+  </si>
+  <si>
+    <t>2 2 2 1 2 1 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 4 0 0 1 1 2 0 0 0 1 0 0 1 0 0 2 0 1 0 1 1 2 1 0 0 1 0 2 0 0 2 0 1 1 0 2 1 2 1 2 0 1 0 1 1 0 0 0 0 0 1 1 1 1 2 1 1 3 1 0 4 1 1 1 3 0 1 0 2 1 1 1 2 0 1 1 1 1 0 0 0 0 1 2 0 2 0 0 2 1 2 1 0 0 1 2 1 1 0 0 1 0 1 2 1 1 2 0 0 0 1 1 0 0 0 0 0 0 0 1 3 0 0 0 0 2 1 0 0 1 1 2 1 1 0 1 2 0 2 1 1 0 2 0 1 1 1 2 1 1 2 0 0 2 1 3 0 0 2 1 0 2 1 1 1 0 0 0 1 1 0 0 1 0 2 2 0 3 0 1 1 1 0 0 1 0 0 0 1 0 3 1 3 0 0 1 0 2 1 1 0 0 0 0 2 1 0 0 2 2 0 1 1 0 2 0 1 0 1 3 2 0 0 1 0 1 1 0 0 1 0 0 2 0 2 2 0 0 0 0 1 4 1 1 0 1 0 1 1 2 0 1 0 1 1 0 0 0 1 1 0 0 2 0 1 0 1 1 0 1 0 0 0 2 2 0 2 1 1 0 2 1 0 0 3 1 1 2 1 0 0 2 0 1 2 1 0 1 0 0 1 2 1 1 0 1 2 0 0 2 1 1 1 2 0 0 1 0 1 0 1 2 1 1 1 0 4 1 2 1 1 1 1 1 1 2 1 0 1 0 1 2 3 0 0 1 0 0 0 0 1 1 1 1 0 2 1 1 2 0 2 0 0 0 1 1 1 1 1 1 0 0 0 0 1 0 2 0 1 0 2 1 0 2 3 0 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 1 1 3 1 1 1 0 2 1 0 1 3 3 2 1 0 1 0 0 0 1 1 1 1 0 0 2 2 0 2 0 1 1 1 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 2 0 3 0 1 1 2 0 1 3 0 2 1 1 1 1 1 0 0 0 1 1 1 1 0 0 1 1 1 1 1 2 1 1 1 3 0 1 0 1 0 1 2 0 3 0 0 1 0 0 0 0 1 1 2 1 0 1 1 0 1 0 1 0 0 3 1 2 1 1 0 1 2 0 1 1 2 0 2 0 1 0 1 1 0 1 0 2 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 0 3 0 2 1 0 2 1 0 3 1 0 0 1 0 0 1 0 2 0 0 0 2 1 0 1 0 0 2 2 2 1 0 2 1 0 1 0 0 2 1 2 1 0 0 2 2 0 0 2 1 2 0 0 1 0 1 1 1 1 0 0 1 1 1 3 3 2 2 0 1 0 1 1 1 0 0 0 2 0 0 1 0 0 1 1 0 2 0 1 0 0 1 1 2 0 1 0 1 1 2 0 0 1 0 0 0 3 1 0 4 1 0 1 1 2 1 0 1 2 0 2 2 0 2 1 2 0 0 2 1 1 0 1 2 1 0 0 2 0 1 0 0 1 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 0 3 1 2 1 2 0 0 0 0 2 0 0 1 0 0 2 1 0 1 0 2 0 1 0 0 0 1 1 1 0 0 0 1 3 2 3 2 1 2 0 0 2 1 2 1 0 2 1 3 2 1 1 1 1 0 2 1 4 0 2 1 0 0 0 0 1 1 1 0 2 1 1 0 1 0 0 1 1 1 0 0 0 1 0 1 2 1 1 3 1 1 2 0 1 0 2 2 2 0 3 1 0 0 1 2 2 2 1 1 0 0 1 0 1 0 1 0 0 2 1 1 0 1 1 1 0 1 0 0 2 0 1 0 1 1 1 0 0 3 0 1 0 0 0 1 2 1 0 3 0 0 1 0 0 0 0 0 0 2 1 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 1 1 0 1 1 1 1 2 0 1 0 1 0 0 1 0 0 0 0 2 0 0 2 0 3 1 2 0 1 0 1 1 1 2 3 2 1 2 0 3 0 0 1 1 0 1 2 2 1 1 0 1 2 1 2 1 0 1 0 2 1 0 0 3 0 0 2 2 1 1 1 1 1 1 0 0 1 0 1 1 0 2 2 3 0 1 2 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 2 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 2 0 1 0 2 1 0 0 0 1 0 1 1 0 0 1 2 1 0 2 0 2 1 0 0 1 0 0 2 1 1 2 0 1 1 3 1 1 0 1 0 0 1 1 1 0 1 0 1 1 1 2 0 1 1 0 1 1 0 2 1 0 1 1 0 0 1 1 2 0 1 1 2 1 0 0 4 0 0 1 2 0 0 0 0 2 3 0 3 2 0 0 0 2 0 2 2 0 1 0 0 0 0 2 0 1 3 0 0 0 1 0 1 1 1 0 1 3 0 0 2 1 0 1 1 0 0 2 0 0 1 0 2 1 2 0 0 0 0 0 0 1 3 1 3 2 2 0 0 2 0 0 1 0 0 1 1 2 1 2 0 0 2 2 2 1 0 1 0 0 2 0 0 0 0 2 1 0 0 0 0 0 2 1 2 1 3 0 1 1 1 0 1 1 1 1 1 3 2 2 0 1 1 0 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 2 1 1 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 1 2 2 1 1 1 1 2 0 0 1 0 0 0 1 2 2 1 0 1 1 0 2 0 3 2 0 1 0 2 2 0 2 0 0 1 0 0 1 2 2 1 1 0 1 2 0 1 0 0 2 1 0 0 0 0 1 0 0 1 0 1 2 0 0 1 0 1 2 2 1 1 0 0 1 1 2 0 1 1 0 1 1 2 0 2 2 0 2 1 0 0 0 1 0 2 1 1 1 2 0 1 3 0 0 0 2 0 1 1 0 1 0 1 0 0 2 1 1 2 0 1 0 1 0 0 1 2 1 1 2 0 1 1 0 3 1 2 0 1 1 0 0 2 0 0 1 1 3 0 1 0 1 1 0 3 0 1 0 1 1 0 3 0 1 0 3 1 1 2 0 3 0 0 2 0 2 1 2 0 1 0 1 1 0 1 0 0 0 0 3 1 2 0 0 1 0 1 2 1 2 0 1 1 0 2 1 1 0 0 0 1 0 2 0 1 1 1 0 0 0 1 2 1 1 0 1 1 2 1 1 0 2 0 2 0 0 1 2 0 0 2 0 2 0 1 1 1 0 1 1 1 0 0 0 2 2 0 1 0 1 1 0 1 0 0 1 1 2 1 1 0 1 1 0 1 0 3 0 2 0 0 0 2 0 1 0 2 0 0 1 1 2 1 1 3 1 0 1 1 3 1 0 0 2 1 0 0 0 0 0 0 1 1 1 1 1 0 2 0 1 0 2 1 1 1 1 1 0 0 2 0 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 1 0 2 1 0 0 0 0 1 0 2 1 0 2 1 2 0 0 0 2 0 0 0 1 3 0 2 0 2 1 1 2 2 0 1 0 2 0 1 1 0 1 1 1 0 1 1 1 0 1 0 2 0 0 3 0 2 1 0 1 0 0 0 1 0 0 0 1 1 0 0 2 1 2 0 1 2 2 1 0 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 1 0 1 2 0 1 0 1 0 0 2 0 2 1 0 1 2 1 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 1 1 0 1 2 2 0 0 4 1 2 0 1 0 0 2 2 0 1 1 0 2 1 0 2 2 0 1 2 1 1 0 1 0 1 1 3 0 0 0 1 2 1 1 1 0 3 0 1 0 1 0 0 0 3 2 1 1 0 0 1 0 1 0 0 2 0 0 3 1 0 0 1 0 0 1 1 0 1 2 1 0 0 0 0 2 2 0 1 1 0 2 1 3 3 1 0 1 1 2 0 1 0 1 0 0 1 3 0 3 2 0 0 1 0 1 0 1 2 0 1 2 1 0 1 1 0 1 0 0 1 2 2 1 0 0 0 2 0 3 1 2 1 1 1 2 0 1 2 1 1 0 1 0 0 1 0 2 0 0 1 1 2 2 0 0 1 1 1 0 0 0 1 2 1 0 0 0 1 0 1 1 1 0 1 1 0 1 1 1 0 0 2 0 0 2 0 1 0 1 2 1 0 0 0 0 1 0 1 1 0 0 1 0 0 3 0 0 1 2 0 0 0 1 2 0 0 0 0 1 0 3 0 0 0 2 1 2 0 1 1 0 2 1 0 1 1 1 1 1 0 0 0 2 1 1 0 1 2 0 1 3 1 1 1 1 3 2 1 1 2 1 0 1 2 1 2 1 1 1 1 1 1 0 0 0 0 1 1 2 1 1 1 1 1 1 2 0 0 2 0 0 2 2 1 1 0 2 0 2 1 1 0 2 0 0 1 0 0 0 0 3 0 1 1 3 1 2 0 1 0 1 0 1 0 1 1 1 0 1 1 0 0 1 1 4 1 1 1 1 0 1 2 2 1 1 1 0 1 0 1 1 0 0 3 0 0 0 0 1 1 0 0 0 0 1 0 1 0 2 0 0 1 2 0 1 0 0 0 2 1 1 1 1 1 2 0 2 1 0 2 1 1 2 0 1 0 1 0 0 1 2 3 2 0 0 2 0 3 1 5 0 1 0 0 1 1 1 0 1 2 0 0 1 0 1 1 1 0 0 0 0 1 0 2 0 2 1 1 2 0 2 0 3 1 0 1 0 1 1 0 1 0 1 0 0 2 2 0 1 1 0 0 0 0 0 2 0 1 0 0 2 0 1 1 0 0 2 0 1 1 0 0 1 1 1 0 1 1 0 1 2 0 0 0 0 2 0 2 0 0 0 1 2 1 1 0 1 0 1 2 1 1 3 0 0 1 0 0 1 2 1 0 0 1 0 1 2 1 1 1 0 0 0 0 1 1 2 2 0 0 1 1 2 0 2 0 1 1 0 1 0 2 1 1 1 1 0 1 0 1 1 0 3 2 0 1 1 2 1 1 0 0 0 2 0 0 2 0 1 2 0 2 0 0 0 1 2 1 1 1 0 0 0 1 2 2 0 1 1 0 0 1 0 1 2 1 0 0 0 2 0 2 0 1 0 0 1 1 0 0 2 1 2 0 0 0 1 0 1 1 0 2 0 0 2 2 0 3 1 0 0 1 2 2 3 1 1 1 3 0 0 0 1 3 0 0 2 0 1 0 1 2 0 0 0 2 3 1 2 1 1 2 1 0 2 1 1 1 2 0 2 1 1 0 4 0 1 3 0 2 1 3 1 1 1 0 2 1 0 2 1 1 3 1 2 0 0 0 1 1 3 3 0 1 2 1 0 1 1 1 2 0 1 0 1 1 1 0 2 0 1 1 2 0 1 0 0 0 0 0 1 3 1 0 0 1 0 1 0 1 1 2 0 1 2 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 2 1 1 1 0 0 1 0 1 0 0 2 0 0 1 0 1 1 0 4 0 2 1 1 3 2 1 1 0 1 0 3 2 1 1 0 1 1 0 0 1 2 0 2 1 2 0 0 1 1 3 2 1 0 2 1 1 1 4 3 1 0 1 0 1 2 1 0 1 1 1 0 1 0 0 0 0 1 2 0 2 0 2 2 2 2 1 1 0 2 0 1 1 0 1 0 0 1 2 1 2 2 0 1 0 0 1 1 1 1 2 2 0 1 1 1 1 1 1 1 0 1 0 1 1 1 0 2 1 2 1 0 1 0 1 0 2 1 2 0 1 1 1 0 0 1 1 0 2 1 0 3 0 0 0 2 2 1 0 0 0 1 0 0 1 0 2 1 1 0 1 1 0 1 1 2 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 3 1 4 0 1 2 0 0 0 1 3 0 0 0 1 0 0 1 0 1 2 0 0 2 1 3 2 0 1 1 1 2 2 3 0 0 0 1 1 0 1 1 2 0 0 1 1 0 2 0 0 1 2 1 1 1 1 0 3 1 0 1 3 1 2 3 2 1 1 1 0 2 1 2 2 0 0 0 2 1 0 2 3 0 0 1 0 0 2 0 0 2 3 1 0 1 1 0 1 2 1 0 0 0 2 0 2 0 0 0 1 0 2 0 2 0 1 0 2 0 0 1 0 0 1 0 0 1 2 0 0 3 0 0 0 1 0 2 0 1 2 1 1 0 0 0 1 1 1 2 0 2 1 1 2 0 2 2 0 2 0 2 0 5 0 0 1 1 1 1 2 0 1 0 0 2 2 0 0 1 3 2 1 2 0 0 0 2 1 1 2 1 0 0 2 0 2 1 2 0 1 1 0 2 0 0 1 1 2 0 1 0 1 1 0 1 0 0 0 3 1 1 1 3 1 0 0 1 0 0 1 0 2 1 1 0 0 1 2 0 0 0 0 0 0 3 3 1 0 2 0 0 1 0 1 1 0 1 0 1 2 0 0 3 0 2 1 1 2 1 1 3 1 1 1 3 1 1 1 0 0 0 0 1 0 3 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 3 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 2 1 0 3 0 1 0 1 0 0 0 1 2 1 2 0 0 0 2 2 2 1 1 0 0 0 2 0 0 1 1 0 1 2 1 1 0 0 1 2 1 0 1 1 0 2 1 1 0 2 1 1 1 0 0 0 2 1 1 0 1 2 0 0 1 1 1 2 0 1 1 1 2 0 0 1 0 1 1 1 1 0 0 1 1 2 1 0 1 0 0 0 1 0 0 0 0 2 1 2 0 0 1 0 0 2 1 0 0 0 1 0 0 1 0 2 1 1 0 0 1 0 1 3 2 0 1 0 0 0 2 0 1 0 1 1 0 1 1 1 4 0 0 2 2 1 1 2 2 0 0 0 1 0 3 1 2 0 3 0 2 1 1 0 0 1 2 1 0 1 0 0 4 0 0 1 2 2 0 3 1 2 0 1 0 0 2 1 0 0 0 1 1 0 1 0 0 0 0 3 0 0 2 1 0 0 0 0 0 0 0 0 1 0 1 2 1 2 0 2 0 1 0 1 0 1 1 1 0 0 1 1 1 0 2 0 1 0 3 2 0 1 1 1 1 1 1 0 1 2 0 0 3 0 1 1 0 0 0 1 0 1 0 3 2 0 1 0 2 1 1 0 0 2 0 1 1 2 1 0 0 1 2 1 1 1 0 2 1 0 0 0 2 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 2 2 1 0 1 1 1 0 0 1 2 0 0 1 2 1 1 1 0 1 2 1 1 0 0 0 0 0 0 2 0 1 1 0 1 3 0 0 3 1 0 1 1 0 1 1 2 0 1 2 0 0 0 2 0 1 0 1 2 1 2 1 0 1 0 0 1 0 0 3 1 2 1 0 1 0 1 0 1 0 1 0 2 3 0 1 2 0 1 0 0 0 0 1 0 1 1 1 2 0 1 1 0 2 1 1 1 1 1 0 0 1 0 0 0 0 1 1 1 2 4 0 2 0 1 0 1 0 1 2 0 1 1 1 4 1 3 1 3 0 0 1 2 1 1 0 0 1 1 1 0 0 0 0 1 0 1 1 1 0 2 1 0 0 0 1 2 2 2 0 3 2 1 0 1 0 0 1 0 1 1 0 2 2 0 0 1 0 1 1 1 2 0 1 0 1 3 1 0 1 0 2 0 1 1 0 1 1 2 0 0 1 1 2 1 0 0 1 1 0 0 0 1 1 0 1 2 0 0 1 0 1 2 0 2 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 3 2 1 0 2 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 2 0 1 2 0 1 1 0 3 1 2 0 1 1 2 0 1 2 1 0 0 2 0 1 1 1 2 2 0 0 1 1 1 1 1 0 0 1 1 3 1 2 0 2 1 1 0 2 1 1 2 1 0 1 2 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 1 2 2 0 0 0 1 2 0 2 1 2 1 0 1 1 1 0 2 2 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 2 2 0 0 0 1 0 1 0 0 2 1 1 0 0 0 1 1 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 3 0 1 1 0 1 0 2 1 1 0 0 2 0 1 2 1 1 2 1 0 0 0 1 0 3 2 1 0 1 0 1 1 1 0 1 2 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 1 0 1 2 1 0 0 0 1 1 1 0 0 1 1 1 0 0 2 0 0 1 1 0 0 0 0 0 1 0 1 0 2 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 2 0 0 0 1 2 2 0 0 2 0 0 2 0 0 1 2 1 1 0 1 0 0 0 1 2 0 2 1 2 1 0 1 0 2 1 1 1 0 1 2 2 2 1 1 2 0 0 4 2 1 1 0 0 1 1 1 0 1 2 1 0 2 0 2 2 0 2 1 0 0 0 0 1 0 1 0 1 1 0 2 1 1 3 0 2 2 0 0 1 2 1 1 1 0 1 2 1 1 0 0 2 2 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 2 0 1 0 2 1 1 1 3 1 0 2 0 1 0 0 0 1 2 0 1 0 2 0 1 0 0 0 0 0 1 1 0 1 1 0 3 2 2 1 1 1 0 0 1 2 1 0 2 1 2 0 0 0 1 2 0 0 0 0 1 2 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 2 1 2 1 1 1 1 0 0 1 1 1 3 0 2 1 1 0 0 0 1 0 0 1 0 1 0 2 2 1 1 1 1 0 1 0 1 2 0 0 0 1 0 0 0 2 1 1 2 1 1 2 0 3 1 0 0 0 1 0 0 0 0 0 1 3 0 1 0 2 0 1 0 1 0 0 0 0 2 1 0 0 3 1 0 0 0 1 1 2 2 1 1 0 0 1 2 0 0 1 0 0 0 1 0 0 2 1 3 0 1 1 0 1 0 0 0 1 1 0 1 1 0 0 1 1 0 1 0 0 0 3 1 1 0 0 0 1 1 1 0 0 0 1 0 0 1 1 1 0 3 1 3 0 1 0 0 1 2 1 0 0 1 2 0 0 0 1 0 1 0 2 0 2 0 0 1 1 0 0 0 0 2 0 1 1 1 0 1 1 3 3 0 0 0 1 0 0 2 0 0 1 1 2 1 0 1 1 3 1 1 2 1 1 0 1 0 0 2 1 2 0 1 0 1 0 0 1 0 1 0 1 1 0 2 2 0 0 2 0 2 2 0 1 0 0 1 0 2 3 0 1 0 1 1 0 1 1 0 0 1 1 1 0 2 0 1 2 2 0 0 0 1 0 1 0 2 1 1 1 0 1 0 0 1 0 2 1 1 1 1 1 1 1 2 2 1 0 0 0 1 1 1 1 0 1 1 0 2 0 1 1 3 1 2 0 0 0 0 0 0 3 2 3 0 1 1 0 0 3 0 2 1 0 0 0 0 0 0 0 2 1 0 0 0 3 0 0 1 0 0 1 0 0 0 1 1 0 0 0 2 0 1 1 1 2 2 2 2 0 2 1 0 1 0 0 2 2 1 0 2 1 1 0 1 2 1 0 0 3 2 0 0 0 1 1 1 0 0 0 1 1 2 2 1 1 1 0 0 0 2 1 1 2 2 0 0 3 1 1 0 1 0 2 1 3 0 0 1 1 1 2 1 1 2 0 2 0 3 0 1 1 2 0 0 1 1 0 0 0 1 0 0 1 1 0 3 0 1 1 1 3 1 0 3 1 3 1 1 0 0 1 1 1 1 0 0 1 3 0 0 1 1 1 3 1 1 1 2 1 1 0 1 1 1 1 1 1 0 2 1 1 3 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 3 1 1 0 2 0 0 0 1 0 1 1 3 1 2 1 1 0 1 1 1 1 1 1 0 0 0 1 0 0 2 1 1 2 1 0 1 0 1 2 2 1 1 0 1 2 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 3 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 2 2 2 1 1 0 1 0 1 0 0 1 1 1 0 1 0 0 1 2 0 0 0 1 1 1 2 0 0 0 1 1 0 1 1 1 3 0 0 1 0 4 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 0 0 3 0 1 0 0 0 1 3 1 0 1 1 2 0 1 0 2 0 0 1 1 1 1 3 2 1 1 1 3 0 4 1 3 0 0 1 1 1 1 1 0 0 1 1 0 0 3 0 0 0 0 0 0 1 1 0 2 0 0 2 1 0 0 1 1 1 0 0 2 1 1 0 2 0 0 0 0 0 2 1 0 1 1 2 0 1 1 1 1 0 0 1 3 0 1 2 0 2 1 1 1 0 0 1 0 1 1 1 3 0 0 2 1 0 0 0 0 1 0 1 0 2 3 0 1 2 1 1 0 2 1 2 1 0 2 0 0 1 0 1 1 1 0 1 2 0 0 1 0 1 1 1 1 1 0 0 1 2 0 0 0 1 1 0 0 2 0 0 0 1 1 0 1 0 0 0 1 2 1 2 0 1 0 3 3 2 0 0 2 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 1 1 1 1 0 1 0 0 2 1 2 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 3 0 0 0 2 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 1 1 2 0 0 1 1 1 0 1 3 0 1 0 1 3 1 0 1 2 2 2 0 3 1 1 2 0 1 0 1 0 0 2 2 2 1 0 1 1 0 0 0 0 2 0 1 1 1 2 0 0 1 1 0 1 1 1 1 0 1 2 1 0 0 0 0 0 0 0 1 1 1 2 1 0 0 1 1 2 0 0 0 1 0 2 2 2 2 0 1 2 0 0 1 0 1 1 0 2 2 1 1 0 1 3 1 1 0 1 1 3 1 0 2 0 0 1 3 2 0 0 0 0 1 0 1 2 0 0 2 1 0 0 0 2 1 2 0 2 2 0 0 0 1 1 1 2 1 0 2 0 0 0 0 1 2 1 2 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 2 1 0 2 0 1 2 0 1 2 0 0 1 1 0 1 0 1 0 1 0 2 0 2 1 0 0 0 0 2 1 3 1 2 1 2 1 3 3 1 2 2 0 1 0 0 0 0 1 0 1 1 1 0 2 0 0 2 2 1 1 1 1 1 0 0 0 0 2 0 0 0 0 1 0 0 2 0 0 2 0 0 2 1 0 0 0 2 1 0 1 1 0 0 0 0 1 1 0 1 0 0 2 1 1 2 0 0 1 0 2 1 1 1 1 1 1 1 1 0 1 0 0 2 0 1 2 0 2 0 0 1 0 0 2 2 1 0 2 2 0 2 0 0 0 1 0 1 0 1 0 0 0 2 0 0 1 1 0 1 0 0 3 1 1 0 0 1 1 0 0 2 1 0 0 2 0 1 2 1 1 2 1 1 0 0 1 0 0 1 1 2 1 0 0 0 0 0 1 3 2 0 0 2 0 0 2 2 1 0 0 2 3 2 0 2 2 0 0 0 0 0 0 1 0 0 1 0 2 1 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 1 0 1 1 2 0 0 0 0 1 1 0 1 1 1 1 2 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 2 0 0 0 0 3 0 2 0 0 3 0 1 0 1 0 0 0 1 1 0 1 1 0 2 1 0 2 0 1 3 0 0 1 1 0 1 2 1 2 2 1 0 1 1 2 0 2 1 1 0 1 0 0 2 0 1 0 0 0 1 1 0 2 2 1 0 0 0 2 2 0 1 1 0 0 2 0 1 3 2 0 0 0 1 0 1 0 0 0 0 0 3 3 0 0 0 1 1 1 3 0 0 0 0 1 2 1 2 0 0 0 0 0 1 0 0 2 1 2 0 1 1 0 0 2 1 0 1 1 0 1 0 0 3 0 1 0 1 3 1 1 1 1 1 1 2 1 1 3 1 0 1 0 0 1 1 0 0 1 2 1 1 0 1 0 0 1 0 1 1 3 0 2 0 1 1 0 1 1 0 1 1 1 2 0 0 1 0 1 2 2 1 0 0 0 0 0 1 0 1 1 0 1 1 1 4 1 0 0 0 2 3 0 1 1 1 3 1 2 2 0 1 0 1 0 1 0 2 1 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 2 2 1 2 0 3 0 1 1 0 0 1 2 1 0 1 1 0 0 0 1 0 0 1 1 3 0 0 1 2 2 1 1 1 1 0 1 2 0 0 0 2 0 0 0 0 0 0 0 2 1 0 0 2 1 1 2 0 3 1 0 1 0 0 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1 3 4 0 0 0 1 0 3 1 0 0 1 1 1 2 3 1 0 0 1 2 0 2 1 0 0 0 0 0 0 1 1 1 2 0 0 0 2 2 1 0 0 0 0 1 1 0 0 1 2 0 1 1 1 2 0 1 1 1 0 1 1 0 0 1 1 1 3 0 0 1 2 0 1 2 1 0 0 1 0 0 0 0 0 1 1 0 2 0 0 1 0 0 1 0 0 2 0 0 1 0 1 1 2 2 1 0 1 0 0 0 1 0 0 2 1 0 0 0 1 0 0 2 0 0 3 0 1 2 2 0 1 1 1 0 2 0 1 0 0 1 0 1 0 0 0 0 0 2 0 2 2 1 1 0 0 1 0 1 3 0 1 1 1 1 0 0 1 0 0 0 2 1 0 0 1 1 1 1 1 2 0 2 0 1 1 2 1 1 1 0 1 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 1 0 1 1 0 2 1 1 2 0 1 1 0 1 0 1 0 1 0 1 0 2 0 0 2 3 3 0 0 1 1 1 1 1 2 1 0 1 0 1 0 1 0 0 0 1 2 0 3 1 1 1 1 1 1 0 1 2 2 0 0 2 0 0 0 0 1 1 1 1 2 0 3 0 1 1 0 1 1 2 0 1 2 1 1 0 1 1 0 2 0 0 1 2 0 1 0 0 1 0 0 2 0 0 1 0 1 0 1 2 1 1 0 1 0 0 0 2 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 2 1 0 1 1 2 2 1 0 2 1 1 3 2 1 1 0 1 0 0 2 0 3 0 2 2 1 0 2 3 1 1 1 0 0 0 0 0 2 1 2 0 1 0 2 1 1 0 1 0 0 0 1 0 0 1 2 0 0 0 1 0 0 3 0 0 1 0 0 1 0 1 1 0 4 0 0 0 3 0 0 0 0 1 0 0 0 0 0 2 2 2 1 1 0 0 0 3 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 2 3 1 2 1 0 0 2 0 0 0 0 2 2 1 0 0 2 0 0 0 1 1 0 0 1 1 1 2 0 1 0 0 0 0 0 1 0 1 3 0 0 1 0 1 0 2 0 2 0 0 1 1 0 0 1 2 1 0 0 1 1 1 1 1 1 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 2 0 0 1 0 1 2 1 2 1 0 2 1 0 2 1 1 1 3 1 1 1 1 1 1 0 2 3 1 0 0 0 1 1 0 0 1 1 0 1 1 1 0 2 1 0 1 0 2 1 0 3 2 0 1 1 1 0 1 0 0 0 2 1 2 1 0 0 1 1 0 0 1 1 1 0 1 0 0 1 4 2 1 0 1 1 0 0 1 1 2 2 0 1 1 0 1 1 2 0 3 0 1 2 1 1 0 1 2 2 0 0 1 1 1 1 1 0 1 2 0 0 0 0 2 1 0 0 0 2 1 2 0 1 1 0 1 2 0 1 1 0 0 3 1 2 0 1 0 2 1 1 2 1 1 1 1 0 1 3 1 0 1 2 2 1 1 2 2 1 0 1 2 0 1 2 0 0 1 0 2 0 1 0 0 2 1 0 1 0 2 2 3 2 0 2 1 1 0 0 3 1 0 1 2 0 1 1 1 0 1 3 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 1 2 1 0 2 2 1 2 0 1 2 0 2 0 0 0 2 1 2 0 1 0 0 1 0 1 1 1 0 1 1 0 0 0 2 2 0 1 1 1 1 1 0 1 0 1 2 0 1 0 0 0 1 2 1 2 0 1 0 0 0 2 0 0 0 0 1 2 1 1 0 1 1 1 0 3 2 1 0 1 1 2 0 1 1 1 0 2 0 0 0 1 1 1 2 3 1 0 4 0 2 0 2 1 1 3 2 1 0 1 0 1 1 2 0 0 2 1 0 1 0 2 0 0 3 1 0 0 1 3 1 0 1 0 1 1 1 0 1 2 0 1 0 1 0 0 2 0 1 1 2 1 0 1 1 0 0 2 0 1 1 1 0 0 0 0 1 0 0 1 2 1 2 3 1 1 0 1 1 3 0 1 1 2 2 2 3 2 0 0 1 1 1 0 1 1 1 2 0 1 1 1 1 0 0 1 1 0 1 0 0 1 2 1 2 1 1 0 1 0 2 1 2 2 0 0 2 0 1 2 0 1 1 1 2 1 0 3 1 0 0 2 0 1 1 2 0 1 0 3 0 0 0 0 2 0 3 0 0 0 2 2 1 1 0 1 1 0 0 1 1 3 0 0 1 0 1 0 1 1 1 2 1 0 5 0 1 0 0 0 2 0 1 0 2 1 1 2 2 1 2 1 1 2 1 0 0 1 2 0 1 1 1 1 1 0 0 1 0 1 2 1 1 1 0 2 1 2 1 2 0 1 2 0 0 2 0 0 1 2 3 0 0 0 1 0 1 0 0 0 2 0 1 2 0 0 0 1 2 1 1 2 1 2 1 0 0 1 1 2 1 0 1 1 0 1 0 0 0 2 0 0 0 0 1 0 2 2 1 1 2 0 0 1 2 0 1 0 0 2 1 1 0 0 1 0 1 2 2 1 1 0 1 0 0 1 1 0 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 3 1 0 0 0 1 1 3 0 0 2 1 1 0 2 2 0 1 1 0 2 0 0 1 1 0 1 2 0 0 1 1 0 0 0 2 0 0 0 1 2 0 1 2 1 1 1 1 0 2 0 0 1 1 1 1 2 1 1 1 0 2 0 1 1 1 1 0 1 1 2 0 2 1 1 2 2 2 0 1 1 1 2 0 0 0 0 0 0 0 2 1 1 2 0 1 1 0 2 2 1 0 0 0 0 4 2 2 0 0 1 2 0 0 1 1 0 2 0 2 1 1 2 0 0 0 2 0 0 0 0 1 1 2 0 0 1 4 1 0 1 1 0 0 1 0 0 2 2 3 0 0 0 0 0 2 1 0 1 1 1 2 1 2 0 3 1 1 1 0 1 0 1 3 0 1 1 0 1 0 2 1 1 1 1 2 1 0 0 3 0 1 2 0 3 0 0 1 2 3 0 0 0 1 1 0 1 2 2 1 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 2 0 1 1 0 1 0 2 1 1 1 0 0 0 4 1 2 1 2 2 2 0 0 0 0 1 2 1 1 0 1 0 3 0 2 0 1 0 0 0 0 3 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 2 0 1 2 1 1 0 0 0 0 0 0 0 1 1 1 2 0 1 0 0 1 1 0 2 1 1 2 0 0 2 0 1 0 2 0 0 0 0 1 2 1 0 1 2 0 1 0 2 1 1 1 0 2 1 2 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 1 1 1 0 0 3 1 1 0 2 0 0 1 0 1 1 1 1 0 0 0 1 2 0 0 0 3 0 0 0 0 0 0 0 0 3 0 2 0 0 1 0 3 1 1 0 3 1 1 1 1 3 2 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 2 1 0 2 1 1 1 1 0 0 2 0 0 0 1 2 1 0 1 0 0 1 0 0 0 0 2 1 3 0 2 0 0 1 0 2 0 0 0 0 0 1 1 2 2 0 0 0 1 0 2 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 2 0 0 1 0 1 0 1 0 0 1 1 2 0 0 2 1 1 0 0 0 1 1 1 1 0 0 1 0 1 1 1 0 0 2 1 1 4 2 0 2 0 1 2 2 0 1 1 1 1 0 0 2 1 0 2 0 0 1 1 0 1 2 0 1 1 2 1 1 0 0 2 1 1 3 2 1 0 0 2 1 2 1 2 1 1 0 1 2 0 1 1 1 2 1 1 1 2 0 0 1 2 3 0 0 0 1 1 0 1 1 3 0 2 1 1 0 1 0 1 1 1 1 2 1 1 1 2 0 2 2 0 0 2 0 0 0 1 2 2 0 1 1 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 2 0 0 1 1 0 2 0 1 0 1 1 1 0 1 0 1 2 0 1 1 1 0 2 1 0 0 0 0 3 2 0 2 2 0 0 3 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 1 1 1 0 2 1 0 1 0 2 2 0 0 0 1 2 2 1 1 0 0 2 3 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 0 2 0 1 1 1 1 2 1 0 2 0 0 1 2 1 1 1 3 0 0 0 3 2 1 1 0 0 1 1 2 1 1 2 0 2 1 0 0 1 0 0 0 2 0 0 1 1 0 0 0 3 0 2 0 0 2 2 1 0 1 1 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 2 0 3 1 0 2 1 0 1 0 1 1 0 1 0 1 0 0 1 1 1 2 1 1 2 1 0 0 2 1 4 0 1 1 0 1 1 0 2 1 0 1 1 1 0 1 2 1 0 1 0 1 0 0 1 2 1 0 0 1 0 1 2 0 1 0 2 1 0 1 0 1 2 2 1 0 1 0 1 0 0 0 2 0 0 0 0 1 1 1 1 1 0 2 3 1 0 1 1 0 2 1 0 0 3 0 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 2 3 0 1 2 0 0 0 2 1 1 1 1 2 1 0 1 1 1 1 0 0 1 2 1 1 1 0 0 2 0 3 1 2 0 1 1 1 1 0 0 1 1 2 0 1 0 1 0 3 0 1 0 0 0 1 1 0 1 1 3 1 0 0 0 1 1 0 1 1 3 1 0 1 0 1 1 1 2 0 0 0 1 1 1 1 0 0 0 2 0 1 1 2 0 1 0 0 3 1 1 1 1 1 0 1 0 1 0 1 0 0 1 2 2 2 2 1 1 0 1 0 2 0 0 0 0 1 4 0 0 1 0 0 0 2 1 1 0 0 0 1 0 0 2 2 0 2 1 2 2 0 0 1 0 1 1 1 0 1 1 2 0 1 2 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 3 2 2 2 0 0 0 1 0 1 0 0 1 1 1 1 1 0 2 1 1 1 0 0 0 1 2 0 0 0 0 2 0 0 1 2 0 1 2 2 1 1 2 1 1 0 0 1 0 0 0 1 2 0 1 3 0 0 2 1 1 1 0 0 0 1 1 1 1 1 0 1 1 2 1 2 1 2 0 0 2 0 2 1 0 1 0 2 1 0 0 0 1 1 3 0 2 0 3 1 1 2 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 1 2 1 1 0 0 2 1 0 1 2 3 1 0 1 0 0 1 0 2 1 1 0 2 0 1 2 2 0 0 0 0 0 0 2 3 0 1 0 0 1 1 0 2 1 1 0 1 0 1 2 1 1 1 0 0 1 0 0 0 0 1 2 1 2 0 1 0 0 0 0 0 1 1 3 0 2 0 0 1 1 0 0 1 1 0 1 1 1 1 3 0 1 2 1 0 0 1 0 3 1 1 2 0 1 0 0 1 4 1 1 1 0 1 0 3 3 1 1 2 0 0 1 2 1 0 2 0 1 0 0 2 1 0 2 1 1 2 0 3 2 1 0 1 0 3 0 2 1 0 0 1 0 0 0 2 1 0 3 0 1 1 0 2 1 0 1 0 2 1 1 2 0 0 1 1 2 2 2 0 1 2 0 0 1 0 1 2 0 2 1 1 0 3 2 0 1 1 2 0 0 0 0 0 0 0 1 1 1 0 2 3 0 0 2 0 0 1 0 0 0 2 0 1 0 3 0 0 0 0 0 3 1 0 0 0 1 0 0 1 0 1 0 2 0 0 1 0 4 1 0 1 2 2 1 1 0 1 0 0 0 0 1 0 1 0 0 1 1 2 0 0 0 4 2 1 0 2 0 1 0 3 0 0 0 0 2 1 1 1 1 1 2 0 0 0 1 1 3 4 0 0 0 1 0 0 0 0 2 2 0 0 0 3 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 1 2 0 1 0 0 2 2 0 2 1 1 1 1 0 0 0 1 0 0 0 0 1 0 2 2 2 1 2 0 0 1 0 3 1 1 2 1 2 1 0 2 0 1 1 2 1 0 1 0 0 1 0 0 1 1 3 1 3 1 0 0 0 0 0 2 0 0 0 1 2 1 1 1 2 1 1 0 1 0 0 2 0 0 1 0 0 0 0 1 0 2 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 3 0 0 0 1 1 2 1 1 1 1 0 0 0 2 1 2 2 1 1 1 2 1 1 3 2 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 2 2 0 0 1 1 1 0 1 1 2 1 1 2 2 1 0 1 1 1 2 0 1 0 2 2 1 0 0 0 0 3 2 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 2 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 2 1 0 3 1 0 4 3 1 1 2 1 2 1 0 1 3 1 1 2 1 0 1 2 1 0 1 1 0 0 1 1 0 2 1 0 1 0 0 0 0 0 1 0 1 0 0 2 2 0 0 1 0 0 0 0 2 2 0 1 2 1 0 2 2 0 2 0 0 1 0 2 2 0 1 1 0 1 1 0 0 2 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 1 3 0 0 1 1 1 1 1 0 0 1 1 0 0 1 0 1 1 1 2 2 2 0 1 2 0 1 1 2 0 3 1 5 1 1 4 0 0 0 0 0 0 1 0 0 2 2 1 2 1 0 1 2 0 1 1 3 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 1 1 0 2 1 1 3 1 2 2 1 0 0 1 1 1 1 0 1 0 2 1 0 3 4 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 1 0 0 3 3 2 2 0 0 2 2 1 1 1 1 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 2 0 1 1 1 1 1 2 0 0 0 0 1 0 1 1 1 2 0 0 0 0 2 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1 1 1 0 0 1 2 1 2 0 1 0 1 0 0 1 2 1 1 2 0 2 0 2 1 0 0 2 1 1 1 0 1 1 1 1 1 2 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 2 2 2 1 0 1 3 2 1 0 0 0 1 1 1 0 0 2 3 1 0 1 2 0 1 1 0 0 1 1 3 1 1 0 0 0 1 0 1 1 0 0 2 2 1 1 1 1 0 2 1 1 1 1 0 1 0 0 2 1 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 2 0 1 2 1 1 0 1 1 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 2 0 1 0 2 2 0 0 3 2 0 2 1 2 1 1 0 1 0 2 0 2 1 0 1 0 0 4 0 2 0 0 0 1 2 0 2 0 0 1 0 0 1 1 0 1 2 0 1 2 1 0 0 1 1 1 1 0 0 1 1 0 1 1 0 0 1 0 1 2 0 0 0 3 2 1 1 1 0 0 1 2 1 1 1 0 1 0 0 2 0 1 0 2 1 2 1 1 2 2 1 0 0 2 0 1 0 2 0 1 0 0 0 1 0 0 0 3 1 2 0 0 2 0 4 0 2 1 3 2 0 1 0 1 0 1 1 1 2 1 2 0 2 1 1 1 2 1 0 3 0 1 1 1 1 1 2 0 1 1 1 2 2 2 1 0 1 1 0 2 0 1 0 2 0 1 2 0 1 1 1 3 0 1 0 0 0 0 1 0 3 1 0 1 0 0 0 2 1 0 1 0 1 0 1 1 2 1 1 0 2 1 1 0 2 0 1 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 2 0 0 2 0 0 2 0 2 1 0 1 2 2 0 2 0 0 1 0 1 0 0 1 0 2 1 1 2 1 0 1 1 0 0 0 0 0 1 0 0 0 2 1 1 1 0 0 1 1 0 0 1 1 1 2 1 1 1 3 2 1 0 1 0 0 2 1 0 1 2 0 1 2 2 0 1 2 1 0 1 1 1 1 0 0 0 1 1 0 1 1 0 1 4 2 1 0 3 0 1 1 1 0 0 0 1 3 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 1 1 1 0 1 2 1 1 2 1 2 0 0 2 1 0 2 1 0 0 2 0 0 2 0 1 1 3 0 1 0 0 1 1 0 1 2 1 1 0 0 1 2 1 1 1 0 1 0 0 2 0 2 1 0 1 1 0 0 1 1 0 1 3 0 1 0 0 0 0 0 0 1 0 0 3 1 1 0 2 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1 2 3 0 0 1 1 1 1 0 0 0 1 0 2 1 1 0 2 3 0 1 2 2 2 1 1 1 3 1 0 1 0 1 0 0 0 0 4 0 2 1 0 3 0 0 1 0 0 1 1 0 2 1 2 1 0 1 0 0 0 1 1 2 0 1 0 0 0 0 1 0 1 1 3 0 1 0 1 0 0 0 1 0 1 0 5 0 2 0 1 1 3 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 2 1 0 1 0 2 0 0 1 0 0 1 1 0 0 1 0 2 2 1 3 0 0 2 1 0 1 2 2 1 0 0 1 0 0 0 2 1 3 1 0 0 0 0 1 2 0 0 0 2 2 4 0 0 1 2</t>
   </si>
   <si>
     <t>D.Prescott</t>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="C2">
-        <v>62.3</v>
+        <v>62.1</v>
       </c>
       <c r="D2">
         <v>0.8</v>
@@ -791,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -800,10 +800,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>4.07</v>
+        <v>4.11</v>
       </c>
       <c r="L2">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
     </row>
   </sheetData>
@@ -856,10 +856,10 @@
         <v>22.3</v>
       </c>
       <c r="D2">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E2">
-        <v>223.38</v>
+        <v>223.33</v>
       </c>
       <c r="F2">
         <v>1.09</v>
@@ -868,10 +868,10 @@
         <v>0.57</v>
       </c>
       <c r="H2">
-        <v>103.45</v>
+        <v>103.82</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -994,10 +994,10 @@
         <v>22.3</v>
       </c>
       <c r="D2">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E2">
-        <v>223.37</v>
+        <v>223.32</v>
       </c>
       <c r="F2">
         <v>1.09</v>
@@ -1012,7 +1012,7 @@
         <v>2.2</v>
       </c>
       <c r="J2">
-        <v>7.48</v>
+        <v>7.54</v>
       </c>
       <c r="K2">
         <v>0.06</v>
@@ -1021,7 +1021,7 @@
         <v>0.06</v>
       </c>
       <c r="M2">
-        <v>13.28</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1053,7 +1053,7 @@
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1206,7 +1206,7 @@
         <v>2.84</v>
       </c>
       <c r="D2">
-        <v>27.76</v>
+        <v>27.71</v>
       </c>
       <c r="E2">
         <v>0.13</v>
@@ -1218,19 +1218,19 @@
         <v>14.6</v>
       </c>
       <c r="H2">
-        <v>64.41</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="I2">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="J2">
         <v>0.02</v>
       </c>
       <c r="K2">
-        <v>15.29</v>
+        <v>15.39</v>
       </c>
       <c r="L2">
-        <v>12.45</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1244,7 +1244,7 @@
         <v>5.24</v>
       </c>
       <c r="D3">
-        <v>53.6</v>
+        <v>53.45</v>
       </c>
       <c r="E3">
         <v>0.27</v>
@@ -1256,7 +1256,7 @@
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="L3">
-        <v>6.92</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1279,22 +1279,22 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="D4">
-        <v>33.8</v>
+        <v>33.92</v>
       </c>
       <c r="E4">
         <v>0.16</v>
       </c>
       <c r="F4">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>13.28</v>
+        <v>13.33</v>
       </c>
       <c r="I4">
         <v>0.1</v>
@@ -1303,10 +1303,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.58</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="L4">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1317,16 +1317,16 @@
         <v>59</v>
       </c>
       <c r="C5">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="D5">
-        <v>29.12</v>
+        <v>28.8</v>
       </c>
       <c r="E5">
         <v>0.14</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>6.65</v>
+        <v>6.59</v>
       </c>
       <c r="L5">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1355,10 +1355,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="D6">
-        <v>18.23</v>
+        <v>18.13</v>
       </c>
       <c r="E6">
         <v>0.09</v>
@@ -1370,7 +1370,7 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="I6">
         <v>0.02</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
       <c r="L6">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1393,16 +1393,16 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="D7">
-        <v>17.95</v>
+        <v>18.41</v>
       </c>
       <c r="E7">
         <v>0.09</v>
       </c>
       <c r="F7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K7">
-        <v>4.09</v>
+        <v>4.18</v>
       </c>
       <c r="L7">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1431,25 +1431,25 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>0.89</v>
+        <v>0.31</v>
       </c>
       <c r="D8">
-        <v>9.199999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H8">
-        <v>0.84</v>
+        <v>10.44</v>
       </c>
       <c r="I8">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>2.19</v>
       </c>
       <c r="L8">
-        <v>1.3</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1469,34 +1469,34 @@
         <v>63</v>
       </c>
       <c r="C9">
-        <v>0.31</v>
+        <v>0.89</v>
       </c>
       <c r="D9">
-        <v>3.01</v>
+        <v>9.1</v>
       </c>
       <c r="E9">
+        <v>0.04</v>
+      </c>
+      <c r="F9">
         <v>0.01</v>
       </c>
-      <c r="F9">
-        <v>0.04</v>
-      </c>
       <c r="G9">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>10.6</v>
+        <v>0.85</v>
       </c>
       <c r="I9">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="L9">
-        <v>1.86</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1507,10 +1507,10 @@
         <v>64</v>
       </c>
       <c r="C10">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="D10">
-        <v>8.779999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="E10">
         <v>0.04</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L10">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1548,7 +1548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D11">
-        <v>7.07</v>
+        <v>7.09</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="L11">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1583,10 +1583,10 @@
         <v>66</v>
       </c>
       <c r="C12">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="D12">
-        <v>6.39</v>
+        <v>6.44</v>
       </c>
       <c r="E12">
         <v>0.03</v>
@@ -1598,7 +1598,7 @@
         <v>0.1</v>
       </c>
       <c r="H12">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>67</v>
       </c>
       <c r="C13">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="D13">
-        <v>5.23</v>
+        <v>5.39</v>
       </c>
       <c r="E13">
         <v>0.02</v>
@@ -1636,7 +1636,7 @@
         <v>0.2</v>
       </c>
       <c r="H13">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="I13">
         <v>0.01</v>
@@ -1645,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="L13">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1659,10 +1659,10 @@
         <v>68</v>
       </c>
       <c r="C14">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="D14">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -1674,7 +1674,7 @@
         <v>0.1</v>
       </c>
       <c r="H14">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="L14">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1697,10 +1697,10 @@
         <v>69</v>
       </c>
       <c r="C15">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D15">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="E15">
         <v>0.01</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="L15">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1738,19 +1738,19 @@
         <v>0.06</v>
       </c>
       <c r="D16">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G16">
         <v>0.3</v>
       </c>
       <c r="H16">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="I16">
         <v>0.01</v>
@@ -1850,19 +1850,19 @@
         <v>78</v>
       </c>
       <c r="C2">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="D2">
         <v>1.7</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="G2">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="H2">
         <v>0.64</v>
@@ -1918,25 +1918,25 @@
         <v>20.6</v>
       </c>
       <c r="C2">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D2">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E2">
-        <v>262.47</v>
+        <v>262.36</v>
       </c>
       <c r="F2">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="H2">
-        <v>98.66</v>
+        <v>98.55</v>
       </c>
       <c r="I2">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2056,19 +2056,19 @@
         <v>95</v>
       </c>
       <c r="C2">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D2">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E2">
-        <v>262.47</v>
+        <v>262.36</v>
       </c>
       <c r="F2">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="H2">
         <v>0.05</v>
@@ -2077,16 +2077,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>5.48</v>
+        <v>5.54</v>
       </c>
       <c r="K2">
         <v>0.05</v>
       </c>
       <c r="L2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M2">
-        <v>16.95</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2118,7 +2118,7 @@
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2227,13 +2227,13 @@
         <v>98</v>
       </c>
       <c r="C2">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="D2">
-        <v>29.94</v>
+        <v>30.23</v>
       </c>
       <c r="E2">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F2">
         <v>0.21</v>
@@ -2242,19 +2242,19 @@
         <v>12.8</v>
       </c>
       <c r="H2">
-        <v>53.55</v>
+        <v>53.08</v>
       </c>
       <c r="I2">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="J2">
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>14.4</v>
+        <v>14.43</v>
       </c>
       <c r="L2">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2265,22 +2265,22 @@
         <v>99</v>
       </c>
       <c r="C3">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="D3">
-        <v>55.06</v>
+        <v>55.27</v>
       </c>
       <c r="E3">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
         <v>0.5</v>
       </c>
       <c r="H3">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="I3">
         <v>0.02</v>
@@ -2289,10 +2289,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>12.74</v>
+        <v>12.67</v>
       </c>
       <c r="L3">
-        <v>7.69</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2303,13 +2303,13 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="D4">
-        <v>41.97</v>
+        <v>41.76</v>
       </c>
       <c r="E4">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F4">
         <v>0.05</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.52</v>
+        <v>9.49</v>
       </c>
       <c r="L4">
         <v>5.63</v>
@@ -2341,10 +2341,10 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
       <c r="D5">
-        <v>41.29</v>
+        <v>40.9</v>
       </c>
       <c r="E5">
         <v>0.24</v>
@@ -2356,19 +2356,19 @@
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.449999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="L5">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2379,10 +2379,10 @@
         <v>102</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D6">
-        <v>19.64</v>
+        <v>19.69</v>
       </c>
       <c r="E6">
         <v>0.11</v>
@@ -2394,19 +2394,19 @@
         <v>7.7</v>
       </c>
       <c r="H6">
-        <v>32.03</v>
+        <v>32.39</v>
       </c>
       <c r="I6">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.99</v>
+        <v>9.17</v>
       </c>
       <c r="L6">
-        <v>7.08</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2417,16 +2417,16 @@
         <v>103</v>
       </c>
       <c r="C7">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>29.93</v>
+        <v>29.88</v>
       </c>
       <c r="E7">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F7">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.81</v>
+        <v>6.77</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2458,7 +2458,7 @@
         <v>1.5</v>
       </c>
       <c r="D8">
-        <v>16.34</v>
+        <v>16.28</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -2470,19 +2470,19 @@
         <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="L8">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2493,10 +2493,10 @@
         <v>105</v>
       </c>
       <c r="C9">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D9">
-        <v>9.07</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2534,7 +2534,7 @@
         <v>0.75</v>
       </c>
       <c r="D10">
-        <v>8.06</v>
+        <v>7.99</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="L10">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2572,7 +2572,7 @@
         <v>0.61</v>
       </c>
       <c r="D11">
-        <v>6.42</v>
+        <v>6.52</v>
       </c>
       <c r="E11">
         <v>0.04</v>
@@ -2610,19 +2610,19 @@
         <v>0.13</v>
       </c>
       <c r="D12">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="E12">
         <v>0.01</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>4.25</v>
+        <v>4.17</v>
       </c>
       <c r="I12">
         <v>0.03</v>
@@ -2645,10 +2645,10 @@
         <v>109</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="L13">
         <v>0.26</v>
@@ -2683,10 +2683,10 @@
         <v>110</v>
       </c>
       <c r="C14">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D14">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -2707,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="L14">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2736,7 +2736,7 @@
         <v>0.1</v>
       </c>
       <c r="H15">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L15">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2912,25 +2912,25 @@
         <v>115</v>
       </c>
       <c r="C2">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="D2">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="E2">
         <v>1.1</v>
       </c>
       <c r="F2">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G2">
         <v>0.33</v>
       </c>
       <c r="H2">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I2">
-        <v>7.12</v>
+        <v>7.09</v>
       </c>
     </row>
   </sheetData>
